--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\65929\Desktop\website\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D23E48-AB42-4BD1-AA9C-B60D0BD36AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64A9F79-1406-4FD0-8599-A040926FF56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,7 +121,7 @@
             <v>7</v>
           </cell>
           <cell r="C3" t="str">
-            <v>NNANANA</v>
+            <v>Test 2 change</v>
           </cell>
         </row>
         <row r="4">
@@ -459,7 +459,7 @@
       </c>
       <c r="C3" t="str">
         <f>[1]Sheet1!C3</f>
-        <v>NNANANA</v>
+        <v>Test 2 change</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\65929\Desktop\websitedata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\65929\Desktop\website\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163383EB-E680-4F57-A4C1-F861D8951ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470EF13C-6CFF-4F4B-8A6D-CF9549A49DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -572,7 +572,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N16" sqref="N16"/>
+      <selection pane="topRight" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -796,8 +796,8 @@
         <v>0</v>
       </c>
       <c r="R4" s="16" t="str">
-        <f>CONCATENATE(IF(B4=1,$B$3&amp;", ",""),IF(C4=1,$C$3&amp;", ",""),IF(D4=1,$D$3&amp;", ",""),IF(E4=1,$E$3&amp;", ",""),IF(F4=1,$F$3&amp;", ",""),IF(G4=1,$G$3&amp;", ",""),IF(H4=1,$H$3&amp;", ",""),IF(I4=1,$I$3&amp;", ",""),IF(J4=1,$J$3&amp;", ",""),IF(K4=1,$K$3&amp;", ",""),IF(L4=1,$L$3&amp;", ",""),IF(M4=1,$M$3&amp;", ",""),IF(N4=1,$N$3&amp;", ",""),IF(O4=1,$O$3&amp;", ",""),IF(P4=1,$P$3&amp;", ",""))</f>
-        <v/>
+        <f>CONCATENATE("-",IF(B4=1,$B$3&amp;", ",""),IF(C4=1,$C$3&amp;", ",""),IF(D4=1,$D$3&amp;", ",""),IF(E4=1,$E$3&amp;", ",""),IF(F4=1,$F$3&amp;", ",""),IF(G4=1,$G$3&amp;", ",""),IF(H4=1,$H$3&amp;", ",""),IF(I4=1,$I$3&amp;", ",""),IF(J4=1,$J$3&amp;", ",""),IF(K4=1,$K$3&amp;", ",""),IF(L4=1,$L$3&amp;", ",""),IF(M4=1,$M$3&amp;", ",""),IF(N4=1,$N$3&amp;", ",""),IF(O4=1,$O$3&amp;", ",""),IF(P4=1,$P$3&amp;", ",""))</f>
+        <v>-</v>
       </c>
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
@@ -850,8 +850,8 @@
         <v>0</v>
       </c>
       <c r="R5" s="16" t="str">
-        <f t="shared" ref="R5:R43" si="1">CONCATENATE(IF(B5=1,$B$3&amp;", ",""),IF(C5=1,$C$3&amp;", ",""),IF(D5=1,$D$3&amp;", ",""),IF(E5=1,$E$3&amp;", ",""),IF(F5=1,$F$3&amp;", ",""),IF(G5=1,$G$3&amp;", ",""),IF(H5=1,$H$3&amp;", ",""),IF(I5=1,$I$3&amp;", ",""),IF(J5=1,$J$3&amp;", ",""),IF(K5=1,$K$3&amp;", ",""),IF(L5=1,$L$3&amp;", ",""),IF(M5=1,$M$3&amp;", ",""),IF(N5=1,$N$3&amp;", ",""),IF(O5=1,$O$3&amp;", ",""),IF(P5=1,$P$3&amp;", ",""))</f>
-        <v/>
+        <f t="shared" ref="R5:R43" si="1">CONCATENATE("-",IF(B5=1,$B$3&amp;", ",""),IF(C5=1,$C$3&amp;", ",""),IF(D5=1,$D$3&amp;", ",""),IF(E5=1,$E$3&amp;", ",""),IF(F5=1,$F$3&amp;", ",""),IF(G5=1,$G$3&amp;", ",""),IF(H5=1,$H$3&amp;", ",""),IF(I5=1,$I$3&amp;", ",""),IF(J5=1,$J$3&amp;", ",""),IF(K5=1,$K$3&amp;", ",""),IF(L5=1,$L$3&amp;", ",""),IF(M5=1,$M$3&amp;", ",""),IF(N5=1,$N$3&amp;", ",""),IF(O5=1,$O$3&amp;", ",""),IF(P5=1,$P$3&amp;", ",""))</f>
+        <v>-</v>
       </c>
       <c r="S5" s="17"/>
       <c r="T5" s="17"/>
@@ -905,7 +905,7 @@
       </c>
       <c r="R6" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S6" s="17"/>
       <c r="T6" s="17"/>
@@ -959,7 +959,7 @@
       </c>
       <c r="R7" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S7" s="17"/>
       <c r="T7" s="17"/>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="R8" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S8" s="17"/>
       <c r="T8" s="17"/>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="R9" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S9" s="17"/>
       <c r="T9" s="17"/>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="R10" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S10" s="17"/>
       <c r="T10" s="17"/>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="R11" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S11" s="17"/>
       <c r="T11" s="17"/>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="R12" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S12" s="17"/>
       <c r="T12" s="17"/>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="R13" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S13" s="17"/>
       <c r="T13" s="17"/>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="R14" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S14" s="17"/>
       <c r="T14" s="17"/>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="R15" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S15" s="17"/>
       <c r="T15" s="17"/>
@@ -1445,7 +1445,7 @@
       </c>
       <c r="R16" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S16" s="17"/>
       <c r="T16" s="17"/>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="R17" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S17" s="17"/>
       <c r="T17" s="17"/>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="R18" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S18" s="17"/>
       <c r="T18" s="17"/>
@@ -1607,7 +1607,7 @@
       </c>
       <c r="R19" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S19" s="17"/>
       <c r="T19" s="17"/>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="R20" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S20" s="17"/>
       <c r="T20" s="17"/>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="R21" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S21" s="17"/>
       <c r="T21" s="17"/>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="R22" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S22" s="17"/>
       <c r="T22" s="17"/>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="R23" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S23" s="17"/>
       <c r="T23" s="17"/>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="R24" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S24" s="17"/>
       <c r="T24" s="17"/>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="R25" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S25" s="17"/>
       <c r="T25" s="17"/>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="R26" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S26" s="17"/>
       <c r="T26" s="17"/>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="R27" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S27" s="17"/>
       <c r="T27" s="17"/>
@@ -2093,7 +2093,7 @@
       </c>
       <c r="R28" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S28" s="17"/>
       <c r="T28" s="17"/>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="R29" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S29" s="17"/>
       <c r="T29" s="17"/>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="R30" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S30" s="17"/>
       <c r="T30" s="17"/>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="R31" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S31" s="17"/>
       <c r="T31" s="17"/>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="R32" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S32" s="17"/>
       <c r="T32" s="17"/>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="R33" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S33" s="17"/>
       <c r="T33" s="17"/>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="R34" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S34" s="17"/>
       <c r="T34" s="17"/>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="R35" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S35" s="17"/>
       <c r="T35" s="17"/>
@@ -2525,7 +2525,7 @@
       </c>
       <c r="R36" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S36" s="17"/>
       <c r="T36" s="17"/>
@@ -2579,7 +2579,7 @@
       </c>
       <c r="R37" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S37" s="17"/>
       <c r="T37" s="17"/>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="R38" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S38" s="17"/>
       <c r="T38" s="17"/>
@@ -2687,7 +2687,7 @@
       </c>
       <c r="R39" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S39" s="17"/>
       <c r="T39" s="17"/>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="R40" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S40" s="17"/>
       <c r="T40" s="17"/>
@@ -2795,7 +2795,7 @@
       </c>
       <c r="R41" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S41" s="17"/>
       <c r="T41" s="17"/>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="R42" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S42" s="17"/>
       <c r="T42" s="17"/>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="R43" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S43" s="17"/>
       <c r="T43" s="17"/>
@@ -2943,7 +2943,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="B2" t="str">
         <f>'4E_data'!R4</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C2">
         <f>'4E_data'!Q4</f>
@@ -2980,7 +2980,7 @@
       </c>
       <c r="B3" t="str">
         <f>'4E_data'!R5</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C3">
         <f>'4E_data'!Q5</f>
@@ -2994,7 +2994,7 @@
       </c>
       <c r="B4" t="str">
         <f>'4E_data'!R6</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C4">
         <f>'4E_data'!Q6</f>
@@ -3008,7 +3008,7 @@
       </c>
       <c r="B5" t="str">
         <f>'4E_data'!R7</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C5">
         <f>'4E_data'!Q7</f>
@@ -3022,7 +3022,7 @@
       </c>
       <c r="B6" t="str">
         <f>'4E_data'!R8</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C6">
         <f>'4E_data'!Q8</f>
@@ -3036,7 +3036,7 @@
       </c>
       <c r="B7" t="str">
         <f>'4E_data'!R9</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C7">
         <f>'4E_data'!Q9</f>
@@ -3050,7 +3050,7 @@
       </c>
       <c r="B8" t="str">
         <f>'4E_data'!R10</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C8">
         <f>'4E_data'!Q10</f>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B9" t="str">
         <f>'4E_data'!R11</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C9">
         <f>'4E_data'!Q11</f>
@@ -3078,7 +3078,7 @@
       </c>
       <c r="B10" t="str">
         <f>'4E_data'!R12</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C10">
         <f>'4E_data'!Q12</f>
@@ -3092,7 +3092,7 @@
       </c>
       <c r="B11" t="str">
         <f>'4E_data'!R13</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C11">
         <f>'4E_data'!Q13</f>
@@ -3106,7 +3106,7 @@
       </c>
       <c r="B12" t="str">
         <f>'4E_data'!R14</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C12">
         <f>'4E_data'!Q14</f>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="B13" t="str">
         <f>'4E_data'!R15</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C13">
         <f>'4E_data'!Q15</f>
@@ -3134,7 +3134,7 @@
       </c>
       <c r="B14" t="str">
         <f>'4E_data'!R16</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C14">
         <f>'4E_data'!Q16</f>
@@ -3148,7 +3148,7 @@
       </c>
       <c r="B15" t="str">
         <f>'4E_data'!R17</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C15">
         <f>'4E_data'!Q17</f>
@@ -3162,7 +3162,7 @@
       </c>
       <c r="B16" t="str">
         <f>'4E_data'!R18</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C16">
         <f>'4E_data'!Q18</f>
@@ -3176,7 +3176,7 @@
       </c>
       <c r="B17" t="str">
         <f>'4E_data'!R19</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C17">
         <f>'4E_data'!Q19</f>
@@ -3190,7 +3190,7 @@
       </c>
       <c r="B18" t="str">
         <f>'4E_data'!R20</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C18">
         <f>'4E_data'!Q20</f>
@@ -3204,7 +3204,7 @@
       </c>
       <c r="B19" t="str">
         <f>'4E_data'!R21</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C19">
         <f>'4E_data'!Q21</f>
@@ -3218,7 +3218,7 @@
       </c>
       <c r="B20" t="str">
         <f>'4E_data'!R22</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C20">
         <f>'4E_data'!Q22</f>
@@ -3232,7 +3232,7 @@
       </c>
       <c r="B21" t="str">
         <f>'4E_data'!R23</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C21">
         <f>'4E_data'!Q23</f>
@@ -3246,7 +3246,7 @@
       </c>
       <c r="B22" t="str">
         <f>'4E_data'!R24</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C22">
         <f>'4E_data'!Q24</f>
@@ -3260,7 +3260,7 @@
       </c>
       <c r="B23" t="str">
         <f>'4E_data'!R25</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C23">
         <f>'4E_data'!Q25</f>
@@ -3274,7 +3274,7 @@
       </c>
       <c r="B24" t="str">
         <f>'4E_data'!R26</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C24">
         <f>'4E_data'!Q26</f>
@@ -3288,7 +3288,7 @@
       </c>
       <c r="B25" t="str">
         <f>'4E_data'!R27</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C25">
         <f>'4E_data'!Q27</f>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="B26" t="str">
         <f>'4E_data'!R28</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C26">
         <f>'4E_data'!Q28</f>
@@ -3316,7 +3316,7 @@
       </c>
       <c r="B27" t="str">
         <f>'4E_data'!R29</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C27">
         <f>'4E_data'!Q29</f>
@@ -3330,7 +3330,7 @@
       </c>
       <c r="B28" t="str">
         <f>'4E_data'!R30</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C28">
         <f>'4E_data'!Q30</f>
@@ -3344,7 +3344,7 @@
       </c>
       <c r="B29" t="str">
         <f>'4E_data'!R31</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C29">
         <f>'4E_data'!Q31</f>
@@ -3358,7 +3358,7 @@
       </c>
       <c r="B30" t="str">
         <f>'4E_data'!R32</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C30">
         <f>'4E_data'!Q32</f>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="B31" t="str">
         <f>'4E_data'!R33</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C31">
         <f>'4E_data'!Q33</f>
@@ -3386,7 +3386,7 @@
       </c>
       <c r="B32" t="str">
         <f>'4E_data'!R34</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C32">
         <f>'4E_data'!Q34</f>
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B33" t="str">
         <f>'4E_data'!R35</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C33">
         <f>'4E_data'!Q35</f>
@@ -3414,7 +3414,7 @@
       </c>
       <c r="B34" t="str">
         <f>'4E_data'!R36</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C34">
         <f>'4E_data'!Q36</f>
@@ -3428,7 +3428,7 @@
       </c>
       <c r="B35" t="str">
         <f>'4E_data'!R37</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C35">
         <f>'4E_data'!Q37</f>
@@ -3442,7 +3442,7 @@
       </c>
       <c r="B36" t="str">
         <f>'4E_data'!R38</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C36">
         <f>'4E_data'!Q38</f>
@@ -3456,7 +3456,7 @@
       </c>
       <c r="B37" t="str">
         <f>'4E_data'!R39</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C37">
         <f>'4E_data'!Q39</f>
@@ -3470,7 +3470,7 @@
       </c>
       <c r="B38" t="str">
         <f>'4E_data'!R40</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C38">
         <f>'4E_data'!Q40</f>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="B39" t="str">
         <f>'4E_data'!R41</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C39">
         <f>'4E_data'!Q41</f>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="B40" t="str">
         <f>'4E_data'!R42</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C40">
         <f>'4E_data'!Q42</f>
@@ -3512,7 +3512,7 @@
       </c>
       <c r="B41" t="str">
         <f>'4E_data'!R43</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C41">
         <f>'4E_data'!Q43</f>
@@ -3552,7 +3552,7 @@
       </c>
       <c r="B2" t="str">
         <f>'4A_data'!R4</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C2">
         <f>'4A_data'!Q4</f>
@@ -3566,7 +3566,7 @@
       </c>
       <c r="B3" t="str">
         <f>'4A_data'!R5</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C3">
         <f>'4A_data'!Q5</f>
@@ -3580,7 +3580,7 @@
       </c>
       <c r="B4" t="str">
         <f>'4A_data'!R6</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C4">
         <f>'4A_data'!Q6</f>
@@ -3594,7 +3594,7 @@
       </c>
       <c r="B5" t="str">
         <f>'4A_data'!R7</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C5">
         <f>'4A_data'!Q7</f>
@@ -3608,7 +3608,7 @@
       </c>
       <c r="B6" t="str">
         <f>'4A_data'!R8</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C6">
         <f>'4A_data'!Q8</f>
@@ -3622,7 +3622,7 @@
       </c>
       <c r="B7" t="str">
         <f>'4A_data'!R9</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C7">
         <f>'4A_data'!Q9</f>
@@ -3636,7 +3636,7 @@
       </c>
       <c r="B8" t="str">
         <f>'4A_data'!R10</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C8">
         <f>'4A_data'!Q10</f>
@@ -3650,7 +3650,7 @@
       </c>
       <c r="B9" t="str">
         <f>'4A_data'!R11</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C9">
         <f>'4A_data'!Q11</f>
@@ -3664,7 +3664,7 @@
       </c>
       <c r="B10" t="str">
         <f>'4A_data'!R12</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C10">
         <f>'4A_data'!Q12</f>
@@ -3678,7 +3678,7 @@
       </c>
       <c r="B11" t="str">
         <f>'4A_data'!R13</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C11">
         <f>'4A_data'!Q13</f>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="B12" t="str">
         <f>'4A_data'!R14</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C12">
         <f>'4A_data'!Q14</f>
@@ -3706,7 +3706,7 @@
       </c>
       <c r="B13" t="str">
         <f>'4A_data'!R15</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C13">
         <f>'4A_data'!Q15</f>
@@ -3720,7 +3720,7 @@
       </c>
       <c r="B14" t="str">
         <f>'4A_data'!R16</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C14">
         <f>'4A_data'!Q16</f>
@@ -3734,7 +3734,7 @@
       </c>
       <c r="B15" t="str">
         <f>'4A_data'!R17</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C15">
         <f>'4A_data'!Q17</f>
@@ -3748,7 +3748,7 @@
       </c>
       <c r="B16" t="str">
         <f>'4A_data'!R18</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C16">
         <f>'4A_data'!Q18</f>
@@ -3762,7 +3762,7 @@
       </c>
       <c r="B17" t="str">
         <f>'4A_data'!R19</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C17">
         <f>'4A_data'!Q19</f>
@@ -3776,7 +3776,7 @@
       </c>
       <c r="B18" t="str">
         <f>'4A_data'!R20</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C18">
         <f>'4A_data'!Q20</f>
@@ -3790,7 +3790,7 @@
       </c>
       <c r="B19" t="str">
         <f>'4A_data'!R21</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C19">
         <f>'4A_data'!Q21</f>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="B20" t="str">
         <f>'4A_data'!R22</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C20">
         <f>'4A_data'!Q22</f>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="B21" t="str">
         <f>'4A_data'!R23</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C21">
         <f>'4A_data'!Q23</f>
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B22" t="str">
         <f>'4A_data'!R24</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C22">
         <f>'4A_data'!Q24</f>
@@ -3846,7 +3846,7 @@
       </c>
       <c r="B23" t="str">
         <f>'4A_data'!R25</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C23">
         <f>'4A_data'!Q25</f>
@@ -3860,7 +3860,7 @@
       </c>
       <c r="B24" t="str">
         <f>'4A_data'!R26</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C24">
         <f>'4A_data'!Q26</f>
@@ -3874,7 +3874,7 @@
       </c>
       <c r="B25" t="str">
         <f>'4A_data'!R27</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C25">
         <f>'4A_data'!Q27</f>
@@ -3888,7 +3888,7 @@
       </c>
       <c r="B26" t="str">
         <f>'4A_data'!R28</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C26">
         <f>'4A_data'!Q28</f>
@@ -3902,7 +3902,7 @@
       </c>
       <c r="B27" t="str">
         <f>'4A_data'!R29</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C27">
         <f>'4A_data'!Q29</f>
@@ -3916,7 +3916,7 @@
       </c>
       <c r="B28" t="str">
         <f>'4A_data'!R30</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C28">
         <f>'4A_data'!Q30</f>
@@ -3930,7 +3930,7 @@
       </c>
       <c r="B29" t="str">
         <f>'4A_data'!R31</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C29">
         <f>'4A_data'!Q31</f>
@@ -3944,7 +3944,7 @@
       </c>
       <c r="B30" t="str">
         <f>'4A_data'!R32</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C30">
         <f>'4A_data'!Q32</f>
@@ -3958,7 +3958,7 @@
       </c>
       <c r="B31" t="str">
         <f>'4A_data'!R33</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C31">
         <f>'4A_data'!Q33</f>
@@ -3972,7 +3972,7 @@
       </c>
       <c r="B32" t="str">
         <f>'4A_data'!R34</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C32">
         <f>'4A_data'!Q34</f>
@@ -3986,7 +3986,7 @@
       </c>
       <c r="B33" t="str">
         <f>'4A_data'!R35</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C33">
         <f>'4A_data'!Q35</f>
@@ -4000,7 +4000,7 @@
       </c>
       <c r="B34" t="str">
         <f>'4A_data'!R36</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C34">
         <f>'4A_data'!Q36</f>
@@ -4014,7 +4014,7 @@
       </c>
       <c r="B35" t="str">
         <f>'4A_data'!R37</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C35">
         <f>'4A_data'!Q37</f>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="B36" t="str">
         <f>'4A_data'!R38</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C36">
         <f>'4A_data'!Q38</f>
@@ -4042,7 +4042,7 @@
       </c>
       <c r="B37" t="str">
         <f>'4A_data'!R39</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C37">
         <f>'4A_data'!Q39</f>
@@ -4056,7 +4056,7 @@
       </c>
       <c r="B38" t="str">
         <f>'4A_data'!R40</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C38">
         <f>'4A_data'!Q40</f>
@@ -4070,7 +4070,7 @@
       </c>
       <c r="B39" t="str">
         <f>'4A_data'!R41</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C39">
         <f>'4A_data'!Q41</f>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="B40" t="str">
         <f>'4A_data'!R42</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C40">
         <f>'4A_data'!Q42</f>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="B41" t="str">
         <f>'4A_data'!R43</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C41">
         <f>'4A_data'!Q43</f>
@@ -4117,7 +4117,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="N16" sqref="N16"/>
-      <selection pane="topRight" activeCell="N16" sqref="N16"/>
+      <selection pane="topRight" activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4341,8 +4341,8 @@
         <v>0</v>
       </c>
       <c r="R4" s="16" t="str">
-        <f>CONCATENATE(IF(B4=1,$B$3&amp;", ",""),IF(C4=1,$C$3&amp;", ",""),IF(D4=1,$D$3&amp;", ",""),IF(E4=1,$E$3&amp;", ",""),IF(F4=1,$F$3&amp;", ",""),IF(G4=1,$G$3&amp;", ",""),IF(H4=1,$H$3&amp;", ",""),IF(I4=1,$I$3&amp;", ",""),IF(J4=1,$J$3&amp;", ",""),IF(K4=1,$K$3&amp;", ",""),IF(L4=1,$L$3&amp;", ",""),IF(M4=1,$M$3&amp;", ",""),IF(N4=1,$N$3&amp;", ",""),IF(O4=1,$O$3&amp;", ",""),IF(P4=1,$P$3&amp;", ",""))</f>
-        <v/>
+        <f>CONCATENATE("-",IF(B4=1,$B$3&amp;", ",""),IF(C4=1,$C$3&amp;", ",""),IF(D4=1,$D$3&amp;", ",""),IF(E4=1,$E$3&amp;", ",""),IF(F4=1,$F$3&amp;", ",""),IF(G4=1,$G$3&amp;", ",""),IF(H4=1,$H$3&amp;", ",""),IF(I4=1,$I$3&amp;", ",""),IF(J4=1,$J$3&amp;", ",""),IF(K4=1,$K$3&amp;", ",""),IF(L4=1,$L$3&amp;", ",""),IF(M4=1,$M$3&amp;", ",""),IF(N4=1,$N$3&amp;", ",""),IF(O4=1,$O$3&amp;", ",""),IF(P4=1,$P$3&amp;", ",""))</f>
+        <v>-</v>
       </c>
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
@@ -4395,8 +4395,8 @@
         <v>0</v>
       </c>
       <c r="R5" s="16" t="str">
-        <f t="shared" ref="R5:R43" si="1">CONCATENATE(IF(B5=1,$B$3&amp;", ",""),IF(C5=1,$C$3&amp;", ",""),IF(D5=1,$D$3&amp;", ",""),IF(E5=1,$E$3&amp;", ",""),IF(F5=1,$F$3&amp;", ",""),IF(G5=1,$G$3&amp;", ",""),IF(H5=1,$H$3&amp;", ",""),IF(I5=1,$I$3&amp;", ",""),IF(J5=1,$J$3&amp;", ",""),IF(K5=1,$K$3&amp;", ",""),IF(L5=1,$L$3&amp;", ",""),IF(M5=1,$M$3&amp;", ",""),IF(N5=1,$N$3&amp;", ",""),IF(O5=1,$O$3&amp;", ",""),IF(P5=1,$P$3&amp;", ",""))</f>
-        <v/>
+        <f t="shared" ref="R5:R43" si="1">CONCATENATE("-",IF(B5=1,$B$3&amp;", ",""),IF(C5=1,$C$3&amp;", ",""),IF(D5=1,$D$3&amp;", ",""),IF(E5=1,$E$3&amp;", ",""),IF(F5=1,$F$3&amp;", ",""),IF(G5=1,$G$3&amp;", ",""),IF(H5=1,$H$3&amp;", ",""),IF(I5=1,$I$3&amp;", ",""),IF(J5=1,$J$3&amp;", ",""),IF(K5=1,$K$3&amp;", ",""),IF(L5=1,$L$3&amp;", ",""),IF(M5=1,$M$3&amp;", ",""),IF(N5=1,$N$3&amp;", ",""),IF(O5=1,$O$3&amp;", ",""),IF(P5=1,$P$3&amp;", ",""))</f>
+        <v>-</v>
       </c>
       <c r="S5" s="17"/>
       <c r="T5" s="17"/>
@@ -4450,7 +4450,7 @@
       </c>
       <c r="R6" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S6" s="17"/>
       <c r="T6" s="17"/>
@@ -4504,7 +4504,7 @@
       </c>
       <c r="R7" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S7" s="17"/>
       <c r="T7" s="17"/>
@@ -4558,7 +4558,7 @@
       </c>
       <c r="R8" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S8" s="17"/>
       <c r="T8" s="17"/>
@@ -4612,7 +4612,7 @@
       </c>
       <c r="R9" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S9" s="17"/>
       <c r="T9" s="17"/>
@@ -4666,7 +4666,7 @@
       </c>
       <c r="R10" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S10" s="17"/>
       <c r="T10" s="17"/>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="R11" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S11" s="17"/>
       <c r="T11" s="17"/>
@@ -4774,7 +4774,7 @@
       </c>
       <c r="R12" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S12" s="17"/>
       <c r="T12" s="17"/>
@@ -4828,7 +4828,7 @@
       </c>
       <c r="R13" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S13" s="17"/>
       <c r="T13" s="17"/>
@@ -4882,7 +4882,7 @@
       </c>
       <c r="R14" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S14" s="17"/>
       <c r="T14" s="17"/>
@@ -4936,7 +4936,7 @@
       </c>
       <c r="R15" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S15" s="17"/>
       <c r="T15" s="17"/>
@@ -4990,7 +4990,7 @@
       </c>
       <c r="R16" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S16" s="17"/>
       <c r="T16" s="17"/>
@@ -5044,7 +5044,7 @@
       </c>
       <c r="R17" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S17" s="17"/>
       <c r="T17" s="17"/>
@@ -5098,7 +5098,7 @@
       </c>
       <c r="R18" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S18" s="17"/>
       <c r="T18" s="17"/>
@@ -5152,7 +5152,7 @@
       </c>
       <c r="R19" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S19" s="17"/>
       <c r="T19" s="17"/>
@@ -5206,7 +5206,7 @@
       </c>
       <c r="R20" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S20" s="17"/>
       <c r="T20" s="17"/>
@@ -5260,7 +5260,7 @@
       </c>
       <c r="R21" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S21" s="17"/>
       <c r="T21" s="17"/>
@@ -5314,7 +5314,7 @@
       </c>
       <c r="R22" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S22" s="17"/>
       <c r="T22" s="17"/>
@@ -5368,7 +5368,7 @@
       </c>
       <c r="R23" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S23" s="17"/>
       <c r="T23" s="17"/>
@@ -5422,7 +5422,7 @@
       </c>
       <c r="R24" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S24" s="17"/>
       <c r="T24" s="17"/>
@@ -5476,7 +5476,7 @@
       </c>
       <c r="R25" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S25" s="17"/>
       <c r="T25" s="17"/>
@@ -5530,7 +5530,7 @@
       </c>
       <c r="R26" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S26" s="17"/>
       <c r="T26" s="17"/>
@@ -5584,7 +5584,7 @@
       </c>
       <c r="R27" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S27" s="17"/>
       <c r="T27" s="17"/>
@@ -5638,7 +5638,7 @@
       </c>
       <c r="R28" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S28" s="17"/>
       <c r="T28" s="17"/>
@@ -5692,7 +5692,7 @@
       </c>
       <c r="R29" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S29" s="17"/>
       <c r="T29" s="17"/>
@@ -5746,7 +5746,7 @@
       </c>
       <c r="R30" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S30" s="17"/>
       <c r="T30" s="17"/>
@@ -5800,7 +5800,7 @@
       </c>
       <c r="R31" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S31" s="17"/>
       <c r="T31" s="17"/>
@@ -5854,7 +5854,7 @@
       </c>
       <c r="R32" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S32" s="17"/>
       <c r="T32" s="17"/>
@@ -5908,7 +5908,7 @@
       </c>
       <c r="R33" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S33" s="17"/>
       <c r="T33" s="17"/>
@@ -5962,7 +5962,7 @@
       </c>
       <c r="R34" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S34" s="17"/>
       <c r="T34" s="17"/>
@@ -6016,7 +6016,7 @@
       </c>
       <c r="R35" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S35" s="17"/>
       <c r="T35" s="17"/>
@@ -6070,7 +6070,7 @@
       </c>
       <c r="R36" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S36" s="17"/>
       <c r="T36" s="17"/>
@@ -6124,7 +6124,7 @@
       </c>
       <c r="R37" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S37" s="17"/>
       <c r="T37" s="17"/>
@@ -6178,7 +6178,7 @@
       </c>
       <c r="R38" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S38" s="17"/>
       <c r="T38" s="17"/>
@@ -6232,7 +6232,7 @@
       </c>
       <c r="R39" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S39" s="17"/>
       <c r="T39" s="17"/>
@@ -6286,7 +6286,7 @@
       </c>
       <c r="R40" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S40" s="17"/>
       <c r="T40" s="17"/>
@@ -6340,7 +6340,7 @@
       </c>
       <c r="R41" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S41" s="17"/>
       <c r="T41" s="17"/>
@@ -6394,7 +6394,7 @@
       </c>
       <c r="R42" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S42" s="17"/>
       <c r="T42" s="17"/>
@@ -6448,7 +6448,7 @@
       </c>
       <c r="R43" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S43" s="17"/>
       <c r="T43" s="17"/>
@@ -6511,7 +6511,7 @@
       </c>
       <c r="B2" t="str">
         <f>'4B_data'!R4</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C2">
         <f>'4B_data'!Q4</f>
@@ -6525,7 +6525,7 @@
       </c>
       <c r="B3" t="str">
         <f>'4B_data'!R5</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C3">
         <f>'4B_data'!Q5</f>
@@ -6539,7 +6539,7 @@
       </c>
       <c r="B4" t="str">
         <f>'4B_data'!R6</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C4">
         <f>'4B_data'!Q6</f>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="B5" t="str">
         <f>'4B_data'!R7</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C5">
         <f>'4B_data'!Q7</f>
@@ -6567,7 +6567,7 @@
       </c>
       <c r="B6" t="str">
         <f>'4B_data'!R8</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C6">
         <f>'4B_data'!Q8</f>
@@ -6581,7 +6581,7 @@
       </c>
       <c r="B7" t="str">
         <f>'4B_data'!R9</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C7">
         <f>'4B_data'!Q9</f>
@@ -6595,7 +6595,7 @@
       </c>
       <c r="B8" t="str">
         <f>'4B_data'!R10</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C8">
         <f>'4B_data'!Q10</f>
@@ -6609,7 +6609,7 @@
       </c>
       <c r="B9" t="str">
         <f>'4B_data'!R11</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C9">
         <f>'4B_data'!Q11</f>
@@ -6623,7 +6623,7 @@
       </c>
       <c r="B10" t="str">
         <f>'4B_data'!R12</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C10">
         <f>'4B_data'!Q12</f>
@@ -6637,7 +6637,7 @@
       </c>
       <c r="B11" t="str">
         <f>'4B_data'!R13</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C11">
         <f>'4B_data'!Q13</f>
@@ -6651,7 +6651,7 @@
       </c>
       <c r="B12" t="str">
         <f>'4B_data'!R14</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C12">
         <f>'4B_data'!Q14</f>
@@ -6665,7 +6665,7 @@
       </c>
       <c r="B13" t="str">
         <f>'4B_data'!R15</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C13">
         <f>'4B_data'!Q15</f>
@@ -6679,7 +6679,7 @@
       </c>
       <c r="B14" t="str">
         <f>'4B_data'!R16</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C14">
         <f>'4B_data'!Q16</f>
@@ -6693,7 +6693,7 @@
       </c>
       <c r="B15" t="str">
         <f>'4B_data'!R17</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C15">
         <f>'4B_data'!Q17</f>
@@ -6707,7 +6707,7 @@
       </c>
       <c r="B16" t="str">
         <f>'4B_data'!R18</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C16">
         <f>'4B_data'!Q18</f>
@@ -6721,7 +6721,7 @@
       </c>
       <c r="B17" t="str">
         <f>'4B_data'!R19</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C17">
         <f>'4B_data'!Q19</f>
@@ -6735,7 +6735,7 @@
       </c>
       <c r="B18" t="str">
         <f>'4B_data'!R20</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C18">
         <f>'4B_data'!Q20</f>
@@ -6749,7 +6749,7 @@
       </c>
       <c r="B19" t="str">
         <f>'4B_data'!R21</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C19">
         <f>'4B_data'!Q21</f>
@@ -6763,7 +6763,7 @@
       </c>
       <c r="B20" t="str">
         <f>'4B_data'!R22</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C20">
         <f>'4B_data'!Q22</f>
@@ -6777,7 +6777,7 @@
       </c>
       <c r="B21" t="str">
         <f>'4B_data'!R23</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C21">
         <f>'4B_data'!Q23</f>
@@ -6791,7 +6791,7 @@
       </c>
       <c r="B22" t="str">
         <f>'4B_data'!R24</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C22">
         <f>'4B_data'!Q24</f>
@@ -6805,7 +6805,7 @@
       </c>
       <c r="B23" t="str">
         <f>'4B_data'!R25</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C23">
         <f>'4B_data'!Q25</f>
@@ -6819,7 +6819,7 @@
       </c>
       <c r="B24" t="str">
         <f>'4B_data'!R26</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C24">
         <f>'4B_data'!Q26</f>
@@ -6833,7 +6833,7 @@
       </c>
       <c r="B25" t="str">
         <f>'4B_data'!R27</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C25">
         <f>'4B_data'!Q27</f>
@@ -6847,7 +6847,7 @@
       </c>
       <c r="B26" t="str">
         <f>'4B_data'!R28</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C26">
         <f>'4B_data'!Q28</f>
@@ -6861,7 +6861,7 @@
       </c>
       <c r="B27" t="str">
         <f>'4B_data'!R29</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C27">
         <f>'4B_data'!Q29</f>
@@ -6875,7 +6875,7 @@
       </c>
       <c r="B28" t="str">
         <f>'4B_data'!R30</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C28">
         <f>'4B_data'!Q30</f>
@@ -6889,7 +6889,7 @@
       </c>
       <c r="B29" t="str">
         <f>'4B_data'!R31</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C29">
         <f>'4B_data'!Q31</f>
@@ -6903,7 +6903,7 @@
       </c>
       <c r="B30" t="str">
         <f>'4B_data'!R32</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C30">
         <f>'4B_data'!Q32</f>
@@ -6917,7 +6917,7 @@
       </c>
       <c r="B31" t="str">
         <f>'4B_data'!R33</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C31">
         <f>'4B_data'!Q33</f>
@@ -6931,7 +6931,7 @@
       </c>
       <c r="B32" t="str">
         <f>'4B_data'!R34</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C32">
         <f>'4B_data'!Q34</f>
@@ -6945,7 +6945,7 @@
       </c>
       <c r="B33" t="str">
         <f>'4B_data'!R35</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C33">
         <f>'4B_data'!Q35</f>
@@ -6959,7 +6959,7 @@
       </c>
       <c r="B34" t="str">
         <f>'4B_data'!R36</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C34">
         <f>'4B_data'!Q36</f>
@@ -6973,7 +6973,7 @@
       </c>
       <c r="B35" t="str">
         <f>'4B_data'!R37</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C35">
         <f>'4B_data'!Q37</f>
@@ -6987,7 +6987,7 @@
       </c>
       <c r="B36" t="str">
         <f>'4B_data'!R38</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C36">
         <f>'4B_data'!Q38</f>
@@ -7001,7 +7001,7 @@
       </c>
       <c r="B37" t="str">
         <f>'4B_data'!R39</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C37">
         <f>'4B_data'!Q39</f>
@@ -7015,7 +7015,7 @@
       </c>
       <c r="B38" t="str">
         <f>'4B_data'!R40</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C38">
         <f>'4B_data'!Q40</f>
@@ -7029,7 +7029,7 @@
       </c>
       <c r="B39" t="str">
         <f>'4B_data'!R41</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C39">
         <f>'4B_data'!Q41</f>
@@ -7043,7 +7043,7 @@
       </c>
       <c r="B40" t="str">
         <f>'4B_data'!R42</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C40">
         <f>'4B_data'!Q42</f>
@@ -7057,7 +7057,7 @@
       </c>
       <c r="B41" t="str">
         <f>'4B_data'!R43</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C41">
         <f>'4B_data'!Q43</f>
@@ -7076,7 +7076,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="K8" sqref="K8"/>
-      <selection pane="topRight" activeCell="K8" sqref="K8"/>
+      <selection pane="topRight" activeCell="R4" sqref="R4:R43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7300,8 +7300,8 @@
         <v>0</v>
       </c>
       <c r="R4" s="16" t="str">
-        <f>CONCATENATE(IF(B4=1,$B$3&amp;", ",""),IF(C4=1,$C$3&amp;", ",""),IF(D4=1,$D$3&amp;", ",""),IF(E4=1,$E$3&amp;", ",""),IF(F4=1,$F$3&amp;", ",""),IF(G4=1,$G$3&amp;", ",""),IF(H4=1,$H$3&amp;", ",""),IF(I4=1,$I$3&amp;", ",""),IF(J4=1,$J$3&amp;", ",""),IF(K4=1,$K$3&amp;", ",""),IF(L4=1,$L$3&amp;", ",""),IF(M4=1,$M$3&amp;", ",""),IF(N4=1,$N$3&amp;", ",""),IF(O4=1,$O$3&amp;", ",""),IF(P4=1,$P$3&amp;", ",""))</f>
-        <v/>
+        <f>CONCATENATE("-",IF(B4=1,$B$3&amp;", ",""),IF(C4=1,$C$3&amp;", ",""),IF(D4=1,$D$3&amp;", ",""),IF(E4=1,$E$3&amp;", ",""),IF(F4=1,$F$3&amp;", ",""),IF(G4=1,$G$3&amp;", ",""),IF(H4=1,$H$3&amp;", ",""),IF(I4=1,$I$3&amp;", ",""),IF(J4=1,$J$3&amp;", ",""),IF(K4=1,$K$3&amp;", ",""),IF(L4=1,$L$3&amp;", ",""),IF(M4=1,$M$3&amp;", ",""),IF(N4=1,$N$3&amp;", ",""),IF(O4=1,$O$3&amp;", ",""),IF(P4=1,$P$3&amp;", ",""))</f>
+        <v>-</v>
       </c>
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
@@ -7354,8 +7354,8 @@
         <v>0</v>
       </c>
       <c r="R5" s="16" t="str">
-        <f t="shared" ref="R5:R43" si="1">CONCATENATE(IF(B5=1,$B$3&amp;", ",""),IF(C5=1,$C$3&amp;", ",""),IF(D5=1,$D$3&amp;", ",""),IF(E5=1,$E$3&amp;", ",""),IF(F5=1,$F$3&amp;", ",""),IF(G5=1,$G$3&amp;", ",""),IF(H5=1,$H$3&amp;", ",""),IF(I5=1,$I$3&amp;", ",""),IF(J5=1,$J$3&amp;", ",""),IF(K5=1,$K$3&amp;", ",""),IF(L5=1,$L$3&amp;", ",""),IF(M5=1,$M$3&amp;", ",""),IF(N5=1,$N$3&amp;", ",""),IF(O5=1,$O$3&amp;", ",""),IF(P5=1,$P$3&amp;", ",""))</f>
-        <v/>
+        <f t="shared" ref="R5:R43" si="1">CONCATENATE("-",IF(B5=1,$B$3&amp;", ",""),IF(C5=1,$C$3&amp;", ",""),IF(D5=1,$D$3&amp;", ",""),IF(E5=1,$E$3&amp;", ",""),IF(F5=1,$F$3&amp;", ",""),IF(G5=1,$G$3&amp;", ",""),IF(H5=1,$H$3&amp;", ",""),IF(I5=1,$I$3&amp;", ",""),IF(J5=1,$J$3&amp;", ",""),IF(K5=1,$K$3&amp;", ",""),IF(L5=1,$L$3&amp;", ",""),IF(M5=1,$M$3&amp;", ",""),IF(N5=1,$N$3&amp;", ",""),IF(O5=1,$O$3&amp;", ",""),IF(P5=1,$P$3&amp;", ",""))</f>
+        <v>-</v>
       </c>
       <c r="S5" s="17"/>
       <c r="T5" s="17"/>
@@ -7409,7 +7409,7 @@
       </c>
       <c r="R6" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S6" s="17"/>
       <c r="T6" s="17"/>
@@ -7463,7 +7463,7 @@
       </c>
       <c r="R7" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S7" s="17"/>
       <c r="T7" s="17"/>
@@ -7517,7 +7517,7 @@
       </c>
       <c r="R8" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S8" s="17"/>
       <c r="T8" s="17"/>
@@ -7571,7 +7571,7 @@
       </c>
       <c r="R9" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S9" s="17"/>
       <c r="T9" s="17"/>
@@ -7625,7 +7625,7 @@
       </c>
       <c r="R10" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S10" s="17"/>
       <c r="T10" s="17"/>
@@ -7679,7 +7679,7 @@
       </c>
       <c r="R11" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S11" s="17"/>
       <c r="T11" s="17"/>
@@ -7733,7 +7733,7 @@
       </c>
       <c r="R12" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S12" s="17"/>
       <c r="T12" s="17"/>
@@ -7787,7 +7787,7 @@
       </c>
       <c r="R13" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S13" s="17"/>
       <c r="T13" s="17"/>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="R14" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S14" s="17"/>
       <c r="T14" s="17"/>
@@ -7895,7 +7895,7 @@
       </c>
       <c r="R15" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S15" s="17"/>
       <c r="T15" s="17"/>
@@ -7949,7 +7949,7 @@
       </c>
       <c r="R16" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S16" s="17"/>
       <c r="T16" s="17"/>
@@ -8003,7 +8003,7 @@
       </c>
       <c r="R17" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S17" s="17"/>
       <c r="T17" s="17"/>
@@ -8057,7 +8057,7 @@
       </c>
       <c r="R18" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S18" s="17"/>
       <c r="T18" s="17"/>
@@ -8111,7 +8111,7 @@
       </c>
       <c r="R19" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S19" s="17"/>
       <c r="T19" s="17"/>
@@ -8165,7 +8165,7 @@
       </c>
       <c r="R20" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S20" s="17"/>
       <c r="T20" s="17"/>
@@ -8219,7 +8219,7 @@
       </c>
       <c r="R21" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S21" s="17"/>
       <c r="T21" s="17"/>
@@ -8273,7 +8273,7 @@
       </c>
       <c r="R22" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S22" s="17"/>
       <c r="T22" s="17"/>
@@ -8327,7 +8327,7 @@
       </c>
       <c r="R23" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S23" s="17"/>
       <c r="T23" s="17"/>
@@ -8381,7 +8381,7 @@
       </c>
       <c r="R24" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S24" s="17"/>
       <c r="T24" s="17"/>
@@ -8435,7 +8435,7 @@
       </c>
       <c r="R25" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S25" s="17"/>
       <c r="T25" s="17"/>
@@ -8489,7 +8489,7 @@
       </c>
       <c r="R26" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S26" s="17"/>
       <c r="T26" s="17"/>
@@ -8543,7 +8543,7 @@
       </c>
       <c r="R27" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S27" s="17"/>
       <c r="T27" s="17"/>
@@ -8597,7 +8597,7 @@
       </c>
       <c r="R28" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S28" s="17"/>
       <c r="T28" s="17"/>
@@ -8651,7 +8651,7 @@
       </c>
       <c r="R29" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S29" s="17"/>
       <c r="T29" s="17"/>
@@ -8705,7 +8705,7 @@
       </c>
       <c r="R30" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S30" s="17"/>
       <c r="T30" s="17"/>
@@ -8759,7 +8759,7 @@
       </c>
       <c r="R31" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S31" s="17"/>
       <c r="T31" s="17"/>
@@ -8813,7 +8813,7 @@
       </c>
       <c r="R32" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S32" s="17"/>
       <c r="T32" s="17"/>
@@ -8867,7 +8867,7 @@
       </c>
       <c r="R33" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S33" s="17"/>
       <c r="T33" s="17"/>
@@ -8921,7 +8921,7 @@
       </c>
       <c r="R34" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S34" s="17"/>
       <c r="T34" s="17"/>
@@ -8975,7 +8975,7 @@
       </c>
       <c r="R35" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S35" s="17"/>
       <c r="T35" s="17"/>
@@ -9029,7 +9029,7 @@
       </c>
       <c r="R36" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S36" s="17"/>
       <c r="T36" s="17"/>
@@ -9083,7 +9083,7 @@
       </c>
       <c r="R37" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S37" s="17"/>
       <c r="T37" s="17"/>
@@ -9137,7 +9137,7 @@
       </c>
       <c r="R38" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S38" s="17"/>
       <c r="T38" s="17"/>
@@ -9191,7 +9191,7 @@
       </c>
       <c r="R39" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S39" s="17"/>
       <c r="T39" s="17"/>
@@ -9245,7 +9245,7 @@
       </c>
       <c r="R40" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S40" s="17"/>
       <c r="T40" s="17"/>
@@ -9299,7 +9299,7 @@
       </c>
       <c r="R41" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S41" s="17"/>
       <c r="T41" s="17"/>
@@ -9353,7 +9353,7 @@
       </c>
       <c r="R42" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S42" s="17"/>
       <c r="T42" s="17"/>
@@ -9407,7 +9407,7 @@
       </c>
       <c r="R43" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S43" s="17"/>
       <c r="T43" s="17"/>
@@ -9470,7 +9470,7 @@
       </c>
       <c r="B2" t="str">
         <f>'4C_data'!R4</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C2">
         <f>'4C_data'!Q4</f>
@@ -9484,7 +9484,7 @@
       </c>
       <c r="B3" t="str">
         <f>'4C_data'!R5</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C3">
         <f>'4C_data'!Q5</f>
@@ -9498,7 +9498,7 @@
       </c>
       <c r="B4" t="str">
         <f>'4C_data'!R6</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C4">
         <f>'4C_data'!Q6</f>
@@ -9512,7 +9512,7 @@
       </c>
       <c r="B5" t="str">
         <f>'4C_data'!R7</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C5">
         <f>'4C_data'!Q7</f>
@@ -9526,7 +9526,7 @@
       </c>
       <c r="B6" t="str">
         <f>'4C_data'!R8</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C6">
         <f>'4C_data'!Q8</f>
@@ -9540,7 +9540,7 @@
       </c>
       <c r="B7" t="str">
         <f>'4C_data'!R9</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C7">
         <f>'4C_data'!Q9</f>
@@ -9554,7 +9554,7 @@
       </c>
       <c r="B8" t="str">
         <f>'4C_data'!R10</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C8">
         <f>'4C_data'!Q10</f>
@@ -9568,7 +9568,7 @@
       </c>
       <c r="B9" t="str">
         <f>'4C_data'!R11</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C9">
         <f>'4C_data'!Q11</f>
@@ -9582,7 +9582,7 @@
       </c>
       <c r="B10" t="str">
         <f>'4C_data'!R12</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C10">
         <f>'4C_data'!Q12</f>
@@ -9596,7 +9596,7 @@
       </c>
       <c r="B11" t="str">
         <f>'4C_data'!R13</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C11">
         <f>'4C_data'!Q13</f>
@@ -9610,7 +9610,7 @@
       </c>
       <c r="B12" t="str">
         <f>'4C_data'!R14</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C12">
         <f>'4C_data'!Q14</f>
@@ -9624,7 +9624,7 @@
       </c>
       <c r="B13" t="str">
         <f>'4C_data'!R15</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C13">
         <f>'4C_data'!Q15</f>
@@ -9638,7 +9638,7 @@
       </c>
       <c r="B14" t="str">
         <f>'4C_data'!R16</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C14">
         <f>'4C_data'!Q16</f>
@@ -9652,7 +9652,7 @@
       </c>
       <c r="B15" t="str">
         <f>'4C_data'!R17</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C15">
         <f>'4C_data'!Q17</f>
@@ -9666,7 +9666,7 @@
       </c>
       <c r="B16" t="str">
         <f>'4C_data'!R18</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C16">
         <f>'4C_data'!Q18</f>
@@ -9680,7 +9680,7 @@
       </c>
       <c r="B17" t="str">
         <f>'4C_data'!R19</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C17">
         <f>'4C_data'!Q19</f>
@@ -9694,7 +9694,7 @@
       </c>
       <c r="B18" t="str">
         <f>'4C_data'!R20</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C18">
         <f>'4C_data'!Q20</f>
@@ -9708,7 +9708,7 @@
       </c>
       <c r="B19" t="str">
         <f>'4C_data'!R21</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C19">
         <f>'4C_data'!Q21</f>
@@ -9722,7 +9722,7 @@
       </c>
       <c r="B20" t="str">
         <f>'4C_data'!R22</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C20">
         <f>'4C_data'!Q22</f>
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B21" t="str">
         <f>'4C_data'!R23</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C21">
         <f>'4C_data'!Q23</f>
@@ -9750,7 +9750,7 @@
       </c>
       <c r="B22" t="str">
         <f>'4C_data'!R24</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C22">
         <f>'4C_data'!Q24</f>
@@ -9764,7 +9764,7 @@
       </c>
       <c r="B23" t="str">
         <f>'4C_data'!R25</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C23">
         <f>'4C_data'!Q25</f>
@@ -9778,7 +9778,7 @@
       </c>
       <c r="B24" t="str">
         <f>'4C_data'!R26</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C24">
         <f>'4C_data'!Q26</f>
@@ -9792,7 +9792,7 @@
       </c>
       <c r="B25" t="str">
         <f>'4C_data'!R27</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C25">
         <f>'4C_data'!Q27</f>
@@ -9806,7 +9806,7 @@
       </c>
       <c r="B26" t="str">
         <f>'4C_data'!R28</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C26">
         <f>'4C_data'!Q28</f>
@@ -9820,7 +9820,7 @@
       </c>
       <c r="B27" t="str">
         <f>'4C_data'!R29</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C27">
         <f>'4C_data'!Q29</f>
@@ -9834,7 +9834,7 @@
       </c>
       <c r="B28" t="str">
         <f>'4C_data'!R30</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C28">
         <f>'4C_data'!Q30</f>
@@ -9848,7 +9848,7 @@
       </c>
       <c r="B29" t="str">
         <f>'4C_data'!R31</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C29">
         <f>'4C_data'!Q31</f>
@@ -9862,7 +9862,7 @@
       </c>
       <c r="B30" t="str">
         <f>'4C_data'!R32</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C30">
         <f>'4C_data'!Q32</f>
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B31" t="str">
         <f>'4C_data'!R33</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C31">
         <f>'4C_data'!Q33</f>
@@ -9890,7 +9890,7 @@
       </c>
       <c r="B32" t="str">
         <f>'4C_data'!R34</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C32">
         <f>'4C_data'!Q34</f>
@@ -9904,7 +9904,7 @@
       </c>
       <c r="B33" t="str">
         <f>'4C_data'!R35</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C33">
         <f>'4C_data'!Q35</f>
@@ -9918,7 +9918,7 @@
       </c>
       <c r="B34" t="str">
         <f>'4C_data'!R36</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C34">
         <f>'4C_data'!Q36</f>
@@ -9932,7 +9932,7 @@
       </c>
       <c r="B35" t="str">
         <f>'4C_data'!R37</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C35">
         <f>'4C_data'!Q37</f>
@@ -9946,7 +9946,7 @@
       </c>
       <c r="B36" t="str">
         <f>'4C_data'!R38</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C36">
         <f>'4C_data'!Q38</f>
@@ -9960,7 +9960,7 @@
       </c>
       <c r="B37" t="str">
         <f>'4C_data'!R39</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C37">
         <f>'4C_data'!Q39</f>
@@ -9974,7 +9974,7 @@
       </c>
       <c r="B38" t="str">
         <f>'4C_data'!R40</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C38">
         <f>'4C_data'!Q40</f>
@@ -9988,7 +9988,7 @@
       </c>
       <c r="B39" t="str">
         <f>'4C_data'!R41</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C39">
         <f>'4C_data'!Q41</f>
@@ -10002,7 +10002,7 @@
       </c>
       <c r="B40" t="str">
         <f>'4C_data'!R42</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C40">
         <f>'4C_data'!Q42</f>
@@ -10016,7 +10016,7 @@
       </c>
       <c r="B41" t="str">
         <f>'4C_data'!R43</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C41">
         <f>'4C_data'!Q43</f>
@@ -10035,7 +10035,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="L8" sqref="L8"/>
-      <selection pane="topRight" activeCell="L8" sqref="L8"/>
+      <selection pane="topRight" activeCell="R4" sqref="R4:R43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10259,8 +10259,8 @@
         <v>0</v>
       </c>
       <c r="R4" s="16" t="str">
-        <f>CONCATENATE(IF(B4=1,$B$3&amp;", ",""),IF(C4=1,$C$3&amp;", ",""),IF(D4=1,$D$3&amp;", ",""),IF(E4=1,$E$3&amp;", ",""),IF(F4=1,$F$3&amp;", ",""),IF(G4=1,$G$3&amp;", ",""),IF(H4=1,$H$3&amp;", ",""),IF(I4=1,$I$3&amp;", ",""),IF(J4=1,$J$3&amp;", ",""),IF(K4=1,$K$3&amp;", ",""),IF(L4=1,$L$3&amp;", ",""),IF(M4=1,$M$3&amp;", ",""),IF(N4=1,$N$3&amp;", ",""),IF(O4=1,$O$3&amp;", ",""),IF(P4=1,$P$3&amp;", ",""))</f>
-        <v/>
+        <f>CONCATENATE("-",IF(B4=1,$B$3&amp;", ",""),IF(C4=1,$C$3&amp;", ",""),IF(D4=1,$D$3&amp;", ",""),IF(E4=1,$E$3&amp;", ",""),IF(F4=1,$F$3&amp;", ",""),IF(G4=1,$G$3&amp;", ",""),IF(H4=1,$H$3&amp;", ",""),IF(I4=1,$I$3&amp;", ",""),IF(J4=1,$J$3&amp;", ",""),IF(K4=1,$K$3&amp;", ",""),IF(L4=1,$L$3&amp;", ",""),IF(M4=1,$M$3&amp;", ",""),IF(N4=1,$N$3&amp;", ",""),IF(O4=1,$O$3&amp;", ",""),IF(P4=1,$P$3&amp;", ",""))</f>
+        <v>-</v>
       </c>
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
@@ -10313,8 +10313,8 @@
         <v>0</v>
       </c>
       <c r="R5" s="16" t="str">
-        <f t="shared" ref="R5:R43" si="1">CONCATENATE(IF(B5=1,$B$3&amp;", ",""),IF(C5=1,$C$3&amp;", ",""),IF(D5=1,$D$3&amp;", ",""),IF(E5=1,$E$3&amp;", ",""),IF(F5=1,$F$3&amp;", ",""),IF(G5=1,$G$3&amp;", ",""),IF(H5=1,$H$3&amp;", ",""),IF(I5=1,$I$3&amp;", ",""),IF(J5=1,$J$3&amp;", ",""),IF(K5=1,$K$3&amp;", ",""),IF(L5=1,$L$3&amp;", ",""),IF(M5=1,$M$3&amp;", ",""),IF(N5=1,$N$3&amp;", ",""),IF(O5=1,$O$3&amp;", ",""),IF(P5=1,$P$3&amp;", ",""))</f>
-        <v/>
+        <f t="shared" ref="R5:R43" si="1">CONCATENATE("-",IF(B5=1,$B$3&amp;", ",""),IF(C5=1,$C$3&amp;", ",""),IF(D5=1,$D$3&amp;", ",""),IF(E5=1,$E$3&amp;", ",""),IF(F5=1,$F$3&amp;", ",""),IF(G5=1,$G$3&amp;", ",""),IF(H5=1,$H$3&amp;", ",""),IF(I5=1,$I$3&amp;", ",""),IF(J5=1,$J$3&amp;", ",""),IF(K5=1,$K$3&amp;", ",""),IF(L5=1,$L$3&amp;", ",""),IF(M5=1,$M$3&amp;", ",""),IF(N5=1,$N$3&amp;", ",""),IF(O5=1,$O$3&amp;", ",""),IF(P5=1,$P$3&amp;", ",""))</f>
+        <v>-</v>
       </c>
       <c r="S5" s="17"/>
       <c r="T5" s="17"/>
@@ -10368,7 +10368,7 @@
       </c>
       <c r="R6" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S6" s="17"/>
       <c r="T6" s="17"/>
@@ -10422,7 +10422,7 @@
       </c>
       <c r="R7" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S7" s="17"/>
       <c r="T7" s="17"/>
@@ -10476,7 +10476,7 @@
       </c>
       <c r="R8" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S8" s="17"/>
       <c r="T8" s="17"/>
@@ -10530,7 +10530,7 @@
       </c>
       <c r="R9" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S9" s="17"/>
       <c r="T9" s="17"/>
@@ -10584,7 +10584,7 @@
       </c>
       <c r="R10" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S10" s="17"/>
       <c r="T10" s="17"/>
@@ -10638,7 +10638,7 @@
       </c>
       <c r="R11" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S11" s="17"/>
       <c r="T11" s="17"/>
@@ -10692,7 +10692,7 @@
       </c>
       <c r="R12" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S12" s="17"/>
       <c r="T12" s="17"/>
@@ -10746,7 +10746,7 @@
       </c>
       <c r="R13" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S13" s="17"/>
       <c r="T13" s="17"/>
@@ -10800,7 +10800,7 @@
       </c>
       <c r="R14" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S14" s="17"/>
       <c r="T14" s="17"/>
@@ -10854,7 +10854,7 @@
       </c>
       <c r="R15" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S15" s="17"/>
       <c r="T15" s="17"/>
@@ -10908,7 +10908,7 @@
       </c>
       <c r="R16" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S16" s="17"/>
       <c r="T16" s="17"/>
@@ -10962,7 +10962,7 @@
       </c>
       <c r="R17" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S17" s="17"/>
       <c r="T17" s="17"/>
@@ -11016,7 +11016,7 @@
       </c>
       <c r="R18" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S18" s="17"/>
       <c r="T18" s="17"/>
@@ -11070,7 +11070,7 @@
       </c>
       <c r="R19" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S19" s="17"/>
       <c r="T19" s="17"/>
@@ -11124,7 +11124,7 @@
       </c>
       <c r="R20" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S20" s="17"/>
       <c r="T20" s="17"/>
@@ -11178,7 +11178,7 @@
       </c>
       <c r="R21" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S21" s="17"/>
       <c r="T21" s="17"/>
@@ -11232,7 +11232,7 @@
       </c>
       <c r="R22" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S22" s="17"/>
       <c r="T22" s="17"/>
@@ -11286,7 +11286,7 @@
       </c>
       <c r="R23" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S23" s="17"/>
       <c r="T23" s="17"/>
@@ -11340,7 +11340,7 @@
       </c>
       <c r="R24" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S24" s="17"/>
       <c r="T24" s="17"/>
@@ -11394,7 +11394,7 @@
       </c>
       <c r="R25" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S25" s="17"/>
       <c r="T25" s="17"/>
@@ -11448,7 +11448,7 @@
       </c>
       <c r="R26" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S26" s="17"/>
       <c r="T26" s="17"/>
@@ -11502,7 +11502,7 @@
       </c>
       <c r="R27" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S27" s="17"/>
       <c r="T27" s="17"/>
@@ -11556,7 +11556,7 @@
       </c>
       <c r="R28" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S28" s="17"/>
       <c r="T28" s="17"/>
@@ -11610,7 +11610,7 @@
       </c>
       <c r="R29" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S29" s="17"/>
       <c r="T29" s="17"/>
@@ -11664,7 +11664,7 @@
       </c>
       <c r="R30" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S30" s="17"/>
       <c r="T30" s="17"/>
@@ -11718,7 +11718,7 @@
       </c>
       <c r="R31" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S31" s="17"/>
       <c r="T31" s="17"/>
@@ -11772,7 +11772,7 @@
       </c>
       <c r="R32" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S32" s="17"/>
       <c r="T32" s="17"/>
@@ -11826,7 +11826,7 @@
       </c>
       <c r="R33" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S33" s="17"/>
       <c r="T33" s="17"/>
@@ -11880,7 +11880,7 @@
       </c>
       <c r="R34" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S34" s="17"/>
       <c r="T34" s="17"/>
@@ -11934,7 +11934,7 @@
       </c>
       <c r="R35" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S35" s="17"/>
       <c r="T35" s="17"/>
@@ -11988,7 +11988,7 @@
       </c>
       <c r="R36" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S36" s="17"/>
       <c r="T36" s="17"/>
@@ -12042,7 +12042,7 @@
       </c>
       <c r="R37" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S37" s="17"/>
       <c r="T37" s="17"/>
@@ -12096,7 +12096,7 @@
       </c>
       <c r="R38" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S38" s="17"/>
       <c r="T38" s="17"/>
@@ -12150,7 +12150,7 @@
       </c>
       <c r="R39" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S39" s="17"/>
       <c r="T39" s="17"/>
@@ -12204,7 +12204,7 @@
       </c>
       <c r="R40" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S40" s="17"/>
       <c r="T40" s="17"/>
@@ -12258,7 +12258,7 @@
       </c>
       <c r="R41" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S41" s="17"/>
       <c r="T41" s="17"/>
@@ -12312,7 +12312,7 @@
       </c>
       <c r="R42" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S42" s="17"/>
       <c r="T42" s="17"/>
@@ -12366,7 +12366,7 @@
       </c>
       <c r="R43" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S43" s="17"/>
       <c r="T43" s="17"/>
@@ -12429,7 +12429,7 @@
       </c>
       <c r="B2" t="str">
         <f>'4D_data'!R4</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C2">
         <f>'4D_data'!Q4</f>
@@ -12443,7 +12443,7 @@
       </c>
       <c r="B3" t="str">
         <f>'4D_data'!R5</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C3">
         <f>'4D_data'!Q5</f>
@@ -12457,7 +12457,7 @@
       </c>
       <c r="B4" t="str">
         <f>'4D_data'!R6</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C4">
         <f>'4D_data'!Q6</f>
@@ -12471,7 +12471,7 @@
       </c>
       <c r="B5" t="str">
         <f>'4D_data'!R7</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C5">
         <f>'4D_data'!Q7</f>
@@ -12485,7 +12485,7 @@
       </c>
       <c r="B6" t="str">
         <f>'4D_data'!R8</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C6">
         <f>'4D_data'!Q8</f>
@@ -12499,7 +12499,7 @@
       </c>
       <c r="B7" t="str">
         <f>'4D_data'!R9</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C7">
         <f>'4D_data'!Q9</f>
@@ -12513,7 +12513,7 @@
       </c>
       <c r="B8" t="str">
         <f>'4D_data'!R10</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C8">
         <f>'4D_data'!Q10</f>
@@ -12527,7 +12527,7 @@
       </c>
       <c r="B9" t="str">
         <f>'4D_data'!R11</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C9">
         <f>'4D_data'!Q11</f>
@@ -12541,7 +12541,7 @@
       </c>
       <c r="B10" t="str">
         <f>'4D_data'!R12</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C10">
         <f>'4D_data'!Q12</f>
@@ -12555,7 +12555,7 @@
       </c>
       <c r="B11" t="str">
         <f>'4D_data'!R13</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C11">
         <f>'4D_data'!Q13</f>
@@ -12569,7 +12569,7 @@
       </c>
       <c r="B12" t="str">
         <f>'4D_data'!R14</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C12">
         <f>'4D_data'!Q14</f>
@@ -12583,7 +12583,7 @@
       </c>
       <c r="B13" t="str">
         <f>'4D_data'!R15</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C13">
         <f>'4D_data'!Q15</f>
@@ -12597,7 +12597,7 @@
       </c>
       <c r="B14" t="str">
         <f>'4D_data'!R16</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C14">
         <f>'4D_data'!Q16</f>
@@ -12611,7 +12611,7 @@
       </c>
       <c r="B15" t="str">
         <f>'4D_data'!R17</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C15">
         <f>'4D_data'!Q17</f>
@@ -12625,7 +12625,7 @@
       </c>
       <c r="B16" t="str">
         <f>'4D_data'!R18</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C16">
         <f>'4D_data'!Q18</f>
@@ -12639,7 +12639,7 @@
       </c>
       <c r="B17" t="str">
         <f>'4D_data'!R19</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C17">
         <f>'4D_data'!Q19</f>
@@ -12653,7 +12653,7 @@
       </c>
       <c r="B18" t="str">
         <f>'4D_data'!R20</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C18">
         <f>'4D_data'!Q20</f>
@@ -12667,7 +12667,7 @@
       </c>
       <c r="B19" t="str">
         <f>'4D_data'!R21</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C19">
         <f>'4D_data'!Q21</f>
@@ -12681,7 +12681,7 @@
       </c>
       <c r="B20" t="str">
         <f>'4D_data'!R22</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C20">
         <f>'4D_data'!Q22</f>
@@ -12695,7 +12695,7 @@
       </c>
       <c r="B21" t="str">
         <f>'4D_data'!R23</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C21">
         <f>'4D_data'!Q23</f>
@@ -12709,7 +12709,7 @@
       </c>
       <c r="B22" t="str">
         <f>'4D_data'!R24</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C22">
         <f>'4D_data'!Q24</f>
@@ -12723,7 +12723,7 @@
       </c>
       <c r="B23" t="str">
         <f>'4D_data'!R25</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C23">
         <f>'4D_data'!Q25</f>
@@ -12737,7 +12737,7 @@
       </c>
       <c r="B24" t="str">
         <f>'4D_data'!R26</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C24">
         <f>'4D_data'!Q26</f>
@@ -12751,7 +12751,7 @@
       </c>
       <c r="B25" t="str">
         <f>'4D_data'!R27</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C25">
         <f>'4D_data'!Q27</f>
@@ -12765,7 +12765,7 @@
       </c>
       <c r="B26" t="str">
         <f>'4D_data'!R28</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C26">
         <f>'4D_data'!Q28</f>
@@ -12779,7 +12779,7 @@
       </c>
       <c r="B27" t="str">
         <f>'4D_data'!R29</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C27">
         <f>'4D_data'!Q29</f>
@@ -12793,7 +12793,7 @@
       </c>
       <c r="B28" t="str">
         <f>'4D_data'!R30</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C28">
         <f>'4D_data'!Q30</f>
@@ -12807,7 +12807,7 @@
       </c>
       <c r="B29" t="str">
         <f>'4D_data'!R31</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C29">
         <f>'4D_data'!Q31</f>
@@ -12821,7 +12821,7 @@
       </c>
       <c r="B30" t="str">
         <f>'4D_data'!R32</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C30">
         <f>'4D_data'!Q32</f>
@@ -12835,7 +12835,7 @@
       </c>
       <c r="B31" t="str">
         <f>'4D_data'!R33</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C31">
         <f>'4D_data'!Q33</f>
@@ -12849,7 +12849,7 @@
       </c>
       <c r="B32" t="str">
         <f>'4D_data'!R34</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C32">
         <f>'4D_data'!Q34</f>
@@ -12863,7 +12863,7 @@
       </c>
       <c r="B33" t="str">
         <f>'4D_data'!R35</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C33">
         <f>'4D_data'!Q35</f>
@@ -12877,7 +12877,7 @@
       </c>
       <c r="B34" t="str">
         <f>'4D_data'!R36</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C34">
         <f>'4D_data'!Q36</f>
@@ -12891,7 +12891,7 @@
       </c>
       <c r="B35" t="str">
         <f>'4D_data'!R37</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C35">
         <f>'4D_data'!Q37</f>
@@ -12905,7 +12905,7 @@
       </c>
       <c r="B36" t="str">
         <f>'4D_data'!R38</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C36">
         <f>'4D_data'!Q38</f>
@@ -12919,7 +12919,7 @@
       </c>
       <c r="B37" t="str">
         <f>'4D_data'!R39</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C37">
         <f>'4D_data'!Q39</f>
@@ -12933,7 +12933,7 @@
       </c>
       <c r="B38" t="str">
         <f>'4D_data'!R40</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C38">
         <f>'4D_data'!Q40</f>
@@ -12947,7 +12947,7 @@
       </c>
       <c r="B39" t="str">
         <f>'4D_data'!R41</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C39">
         <f>'4D_data'!Q41</f>
@@ -12961,7 +12961,7 @@
       </c>
       <c r="B40" t="str">
         <f>'4D_data'!R42</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C40">
         <f>'4D_data'!Q42</f>
@@ -12975,7 +12975,7 @@
       </c>
       <c r="B41" t="str">
         <f>'4D_data'!R43</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C41">
         <f>'4D_data'!Q43</f>
@@ -12994,7 +12994,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="L8" sqref="L8"/>
-      <selection pane="topRight" activeCell="L8" sqref="L8"/>
+      <selection pane="topRight" activeCell="R4" sqref="R4:R43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13218,8 +13218,8 @@
         <v>0</v>
       </c>
       <c r="R4" s="16" t="str">
-        <f>CONCATENATE(IF(B4=1,$B$3&amp;", ",""),IF(C4=1,$C$3&amp;", ",""),IF(D4=1,$D$3&amp;", ",""),IF(E4=1,$E$3&amp;", ",""),IF(F4=1,$F$3&amp;", ",""),IF(G4=1,$G$3&amp;", ",""),IF(H4=1,$H$3&amp;", ",""),IF(I4=1,$I$3&amp;", ",""),IF(J4=1,$J$3&amp;", ",""),IF(K4=1,$K$3&amp;", ",""),IF(L4=1,$L$3&amp;", ",""),IF(M4=1,$M$3&amp;", ",""),IF(N4=1,$N$3&amp;", ",""),IF(O4=1,$O$3&amp;", ",""),IF(P4=1,$P$3&amp;", ",""))</f>
-        <v/>
+        <f>CONCATENATE("-",IF(B4=1,$B$3&amp;", ",""),IF(C4=1,$C$3&amp;", ",""),IF(D4=1,$D$3&amp;", ",""),IF(E4=1,$E$3&amp;", ",""),IF(F4=1,$F$3&amp;", ",""),IF(G4=1,$G$3&amp;", ",""),IF(H4=1,$H$3&amp;", ",""),IF(I4=1,$I$3&amp;", ",""),IF(J4=1,$J$3&amp;", ",""),IF(K4=1,$K$3&amp;", ",""),IF(L4=1,$L$3&amp;", ",""),IF(M4=1,$M$3&amp;", ",""),IF(N4=1,$N$3&amp;", ",""),IF(O4=1,$O$3&amp;", ",""),IF(P4=1,$P$3&amp;", ",""))</f>
+        <v>-</v>
       </c>
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
@@ -13272,8 +13272,8 @@
         <v>0</v>
       </c>
       <c r="R5" s="16" t="str">
-        <f t="shared" ref="R5:R43" si="1">CONCATENATE(IF(B5=1,$B$3&amp;", ",""),IF(C5=1,$C$3&amp;", ",""),IF(D5=1,$D$3&amp;", ",""),IF(E5=1,$E$3&amp;", ",""),IF(F5=1,$F$3&amp;", ",""),IF(G5=1,$G$3&amp;", ",""),IF(H5=1,$H$3&amp;", ",""),IF(I5=1,$I$3&amp;", ",""),IF(J5=1,$J$3&amp;", ",""),IF(K5=1,$K$3&amp;", ",""),IF(L5=1,$L$3&amp;", ",""),IF(M5=1,$M$3&amp;", ",""),IF(N5=1,$N$3&amp;", ",""),IF(O5=1,$O$3&amp;", ",""),IF(P5=1,$P$3&amp;", ",""))</f>
-        <v/>
+        <f t="shared" ref="R5:R43" si="1">CONCATENATE("-",IF(B5=1,$B$3&amp;", ",""),IF(C5=1,$C$3&amp;", ",""),IF(D5=1,$D$3&amp;", ",""),IF(E5=1,$E$3&amp;", ",""),IF(F5=1,$F$3&amp;", ",""),IF(G5=1,$G$3&amp;", ",""),IF(H5=1,$H$3&amp;", ",""),IF(I5=1,$I$3&amp;", ",""),IF(J5=1,$J$3&amp;", ",""),IF(K5=1,$K$3&amp;", ",""),IF(L5=1,$L$3&amp;", ",""),IF(M5=1,$M$3&amp;", ",""),IF(N5=1,$N$3&amp;", ",""),IF(O5=1,$O$3&amp;", ",""),IF(P5=1,$P$3&amp;", ",""))</f>
+        <v>-</v>
       </c>
       <c r="S5" s="17"/>
       <c r="T5" s="17"/>
@@ -13327,7 +13327,7 @@
       </c>
       <c r="R6" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S6" s="17"/>
       <c r="T6" s="17"/>
@@ -13381,7 +13381,7 @@
       </c>
       <c r="R7" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S7" s="17"/>
       <c r="T7" s="17"/>
@@ -13435,7 +13435,7 @@
       </c>
       <c r="R8" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S8" s="17"/>
       <c r="T8" s="17"/>
@@ -13489,7 +13489,7 @@
       </c>
       <c r="R9" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S9" s="17"/>
       <c r="T9" s="17"/>
@@ -13543,7 +13543,7 @@
       </c>
       <c r="R10" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S10" s="17"/>
       <c r="T10" s="17"/>
@@ -13597,7 +13597,7 @@
       </c>
       <c r="R11" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S11" s="17"/>
       <c r="T11" s="17"/>
@@ -13651,7 +13651,7 @@
       </c>
       <c r="R12" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S12" s="17"/>
       <c r="T12" s="17"/>
@@ -13705,7 +13705,7 @@
       </c>
       <c r="R13" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S13" s="17"/>
       <c r="T13" s="17"/>
@@ -13759,7 +13759,7 @@
       </c>
       <c r="R14" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S14" s="17"/>
       <c r="T14" s="17"/>
@@ -13813,7 +13813,7 @@
       </c>
       <c r="R15" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S15" s="17"/>
       <c r="T15" s="17"/>
@@ -13867,7 +13867,7 @@
       </c>
       <c r="R16" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S16" s="17"/>
       <c r="T16" s="17"/>
@@ -13921,7 +13921,7 @@
       </c>
       <c r="R17" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S17" s="17"/>
       <c r="T17" s="17"/>
@@ -13975,7 +13975,7 @@
       </c>
       <c r="R18" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S18" s="17"/>
       <c r="T18" s="17"/>
@@ -14029,7 +14029,7 @@
       </c>
       <c r="R19" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S19" s="17"/>
       <c r="T19" s="17"/>
@@ -14083,7 +14083,7 @@
       </c>
       <c r="R20" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S20" s="17"/>
       <c r="T20" s="17"/>
@@ -14137,7 +14137,7 @@
       </c>
       <c r="R21" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S21" s="17"/>
       <c r="T21" s="17"/>
@@ -14191,7 +14191,7 @@
       </c>
       <c r="R22" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S22" s="17"/>
       <c r="T22" s="17"/>
@@ -14245,7 +14245,7 @@
       </c>
       <c r="R23" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S23" s="17"/>
       <c r="T23" s="17"/>
@@ -14299,7 +14299,7 @@
       </c>
       <c r="R24" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S24" s="17"/>
       <c r="T24" s="17"/>
@@ -14353,7 +14353,7 @@
       </c>
       <c r="R25" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S25" s="17"/>
       <c r="T25" s="17"/>
@@ -14407,7 +14407,7 @@
       </c>
       <c r="R26" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S26" s="17"/>
       <c r="T26" s="17"/>
@@ -14461,7 +14461,7 @@
       </c>
       <c r="R27" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S27" s="17"/>
       <c r="T27" s="17"/>
@@ -14515,7 +14515,7 @@
       </c>
       <c r="R28" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S28" s="17"/>
       <c r="T28" s="17"/>
@@ -14569,7 +14569,7 @@
       </c>
       <c r="R29" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S29" s="17"/>
       <c r="T29" s="17"/>
@@ -14623,7 +14623,7 @@
       </c>
       <c r="R30" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S30" s="17"/>
       <c r="T30" s="17"/>
@@ -14677,7 +14677,7 @@
       </c>
       <c r="R31" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S31" s="17"/>
       <c r="T31" s="17"/>
@@ -14731,7 +14731,7 @@
       </c>
       <c r="R32" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S32" s="17"/>
       <c r="T32" s="17"/>
@@ -14785,7 +14785,7 @@
       </c>
       <c r="R33" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S33" s="17"/>
       <c r="T33" s="17"/>
@@ -14839,7 +14839,7 @@
       </c>
       <c r="R34" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S34" s="17"/>
       <c r="T34" s="17"/>
@@ -14893,7 +14893,7 @@
       </c>
       <c r="R35" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S35" s="17"/>
       <c r="T35" s="17"/>
@@ -14947,7 +14947,7 @@
       </c>
       <c r="R36" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S36" s="17"/>
       <c r="T36" s="17"/>
@@ -15001,7 +15001,7 @@
       </c>
       <c r="R37" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S37" s="17"/>
       <c r="T37" s="17"/>
@@ -15055,7 +15055,7 @@
       </c>
       <c r="R38" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S38" s="17"/>
       <c r="T38" s="17"/>
@@ -15109,7 +15109,7 @@
       </c>
       <c r="R39" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S39" s="17"/>
       <c r="T39" s="17"/>
@@ -15163,7 +15163,7 @@
       </c>
       <c r="R40" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S40" s="17"/>
       <c r="T40" s="17"/>
@@ -15217,7 +15217,7 @@
       </c>
       <c r="R41" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S41" s="17"/>
       <c r="T41" s="17"/>
@@ -15271,7 +15271,7 @@
       </c>
       <c r="R42" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S42" s="17"/>
       <c r="T42" s="17"/>
@@ -15325,7 +15325,7 @@
       </c>
       <c r="R43" s="16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="S43" s="17"/>
       <c r="T43" s="17"/>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\65929\Desktop\website\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470EF13C-6CFF-4F4B-8A6D-CF9549A49DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBDA258-67EF-43BF-B230-E7E99456BF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="4A_data" sheetId="1" r:id="rId1"/>
-    <sheet name="4A" sheetId="4" r:id="rId2"/>
-    <sheet name="4B_data" sheetId="6" r:id="rId3"/>
-    <sheet name="4B" sheetId="5" r:id="rId4"/>
+    <sheet name="2Exp_data" sheetId="1" r:id="rId1"/>
+    <sheet name="2Exp" sheetId="4" r:id="rId2"/>
+    <sheet name="3NA_data" sheetId="6" r:id="rId3"/>
+    <sheet name="3NA" sheetId="5" r:id="rId4"/>
     <sheet name="4C_data" sheetId="7" r:id="rId5"/>
     <sheet name="4C" sheetId="8" r:id="rId6"/>
     <sheet name="4D_data" sheetId="9" r:id="rId7"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="54">
   <si>
     <t>Achievements</t>
   </si>
@@ -110,6 +110,93 @@
   <si>
     <t>Star count</t>
   </si>
+  <si>
+    <t>BaconBoiGaming</t>
+  </si>
+  <si>
+    <t>rae</t>
+  </si>
+  <si>
+    <t>Trigo</t>
+  </si>
+  <si>
+    <t>Chutlan</t>
+  </si>
+  <si>
+    <t>Poplolyay</t>
+  </si>
+  <si>
+    <t>Xiang Rong</t>
+  </si>
+  <si>
+    <t>Zarele</t>
+  </si>
+  <si>
+    <t>Jaidern</t>
+  </si>
+  <si>
+    <t>Calbri Kane</t>
+  </si>
+  <si>
+    <t>phatman81kg</t>
+  </si>
+  <si>
+    <t>chickennugget16.5</t>
+  </si>
+  <si>
+    <t>oldchangkeeyummy</t>
+  </si>
+  <si>
+    <t>Mabel</t>
+  </si>
+  <si>
+    <t>MusicNerd10</t>
+  </si>
+  <si>
+    <t>Destineeee</t>
+  </si>
+  <si>
+    <t>stars</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>potato</t>
+  </si>
+  <si>
+    <t>Axel</t>
+  </si>
+  <si>
+    <t>pee</t>
+  </si>
+  <si>
+    <t>Jylan</t>
+  </si>
+  <si>
+    <t>baby powder 64</t>
+  </si>
+  <si>
+    <t>ricebowl</t>
+  </si>
+  <si>
+    <t>Cownuker44</t>
+  </si>
+  <si>
+    <t>Denzel</t>
+  </si>
+  <si>
+    <t>banana</t>
+  </si>
+  <si>
+    <t>Skout</t>
+  </si>
+  <si>
+    <t>Josh</t>
+  </si>
+  <si>
+    <t>Tristan</t>
+  </si>
 </sst>
 </file>
 
@@ -164,7 +251,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -218,11 +305,79 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -288,6 +443,24 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,21 +743,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.77734375" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.88671875" style="6" bestFit="1" customWidth="1"/>
@@ -604,23 +777,28 @@
       <c r="A1" t="s">
         <v>1</v>
       </c>
+      <c r="H1" s="34"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="36"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="25" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="33"/>
       <c r="M2" s="26" t="s">
         <v>20</v>
       </c>
@@ -672,7 +850,7 @@
       <c r="G3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="20" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="20" t="s">
@@ -705,8 +883,8 @@
       <c r="R3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="S3" s="23">
-        <v>1</v>
+      <c r="S3" s="23" t="s">
+        <v>27</v>
       </c>
       <c r="T3" s="23">
         <v>2</v>
@@ -767,16 +945,20 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
+      <c r="A4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="13">
         <v>1</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
+      <c r="C4" s="13">
+        <v>1</v>
+      </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14">
         <f>IF(COUNTIF(S4:AL4,3)&gt;=2,1,0)</f>
@@ -787,17 +969,19 @@
         <v>0</v>
       </c>
       <c r="L4" s="14"/>
-      <c r="M4" s="15"/>
+      <c r="M4" s="15">
+        <v>1</v>
+      </c>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="16">
-        <f>SUM(B4:H4)+3*SUM(I4:L4)+5*SUM(M4:P4)+SUM(S4:AL4)</f>
-        <v>0</v>
+        <f>SUM(B4:G4)+3*SUM(H4:L4)+5*SUM(M4:P4)+SUM(S4:AL4)</f>
+        <v>7</v>
       </c>
       <c r="R4" s="16" t="str">
         <f>CONCATENATE("-",IF(B4=1,$B$3&amp;", ",""),IF(C4=1,$C$3&amp;", ",""),IF(D4=1,$D$3&amp;", ",""),IF(E4=1,$E$3&amp;", ",""),IF(F4=1,$F$3&amp;", ",""),IF(G4=1,$G$3&amp;", ",""),IF(H4=1,$H$3&amp;", ",""),IF(I4=1,$I$3&amp;", ",""),IF(J4=1,$J$3&amp;", ",""),IF(K4=1,$K$3&amp;", ",""),IF(L4=1,$L$3&amp;", ",""),IF(M4=1,$M$3&amp;", ",""),IF(N4=1,$N$3&amp;", ",""),IF(O4=1,$O$3&amp;", ",""),IF(P4=1,$P$3&amp;", ",""))</f>
-        <v>-</v>
+        <v xml:space="preserve">-I Love Math, I Say Hi, Memelord, </v>
       </c>
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
@@ -821,16 +1005,18 @@
       <c r="AL4" s="17"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
-        <v>2</v>
+      <c r="A5" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="F5" s="13">
+        <v>1</v>
+      </c>
       <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14">
         <f>IF(COUNTIF(S5:AL5,3)&gt;=2,1,0)</f>
@@ -846,12 +1032,12 @@
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="16">
-        <f t="shared" ref="Q5:Q43" si="0">SUM(B5:H5)+3*SUM(I5:L5)+5*SUM(M5:P5)+SUM(S5:AL5)</f>
-        <v>0</v>
+        <f t="shared" ref="Q5:Q43" si="0">SUM(B5:G5)+3*SUM(H5:L5)+5*SUM(M5:P5)+SUM(S5:AL5)</f>
+        <v>1</v>
       </c>
       <c r="R5" s="16" t="str">
         <f t="shared" ref="R5:R43" si="1">CONCATENATE("-",IF(B5=1,$B$3&amp;", ",""),IF(C5=1,$C$3&amp;", ",""),IF(D5=1,$D$3&amp;", ",""),IF(E5=1,$E$3&amp;", ",""),IF(F5=1,$F$3&amp;", ",""),IF(G5=1,$G$3&amp;", ",""),IF(H5=1,$H$3&amp;", ",""),IF(I5=1,$I$3&amp;", ",""),IF(J5=1,$J$3&amp;", ",""),IF(K5=1,$K$3&amp;", ",""),IF(L5=1,$L$3&amp;", ",""),IF(M5=1,$M$3&amp;", ",""),IF(N5=1,$N$3&amp;", ",""),IF(O5=1,$O$3&amp;", ",""),IF(P5=1,$P$3&amp;", ",""))</f>
-        <v>-</v>
+        <v xml:space="preserve">-Blast to the Past, </v>
       </c>
       <c r="S5" s="17"/>
       <c r="T5" s="17"/>
@@ -875,8 +1061,8 @@
       <c r="AL5" s="17"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
-        <v>3</v>
+      <c r="A6" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -884,7 +1070,3610 @@
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14">
+        <f t="shared" ref="J6:J43" si="2">IF(COUNTIF(S6:AL6,3)&gt;=2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="14">
+        <f t="array" ref="K6">IF(MAX(FREQUENCY(IF(S6:AL6&gt;0,COLUMN(S6:AL6)),IF(S6:AL6&lt;=0,COLUMN(S6:AL6))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="14"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R6" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S6" s="17">
+        <v>3</v>
+      </c>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="17"/>
+      <c r="AH6" s="17"/>
+      <c r="AI6" s="17"/>
+      <c r="AJ6" s="17"/>
+      <c r="AK6" s="17"/>
+      <c r="AL6" s="17"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="14">
+        <f t="array" ref="K7">IF(MAX(FREQUENCY(IF(S7:AL7&gt;0,COLUMN(S7:AL7)),IF(S7:AL7&lt;=0,COLUMN(S7:AL7))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="14"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R7" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S7" s="17">
+        <v>1</v>
+      </c>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="17"/>
+      <c r="AF7" s="17"/>
+      <c r="AG7" s="17"/>
+      <c r="AH7" s="17"/>
+      <c r="AI7" s="17"/>
+      <c r="AJ7" s="17"/>
+      <c r="AK7" s="17"/>
+      <c r="AL7" s="17"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="14">
+        <f t="array" ref="K8">IF(MAX(FREQUENCY(IF(S8:AL8&gt;0,COLUMN(S8:AL8)),IF(S8:AL8&lt;=0,COLUMN(S8:AL8))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="14"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R8" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S8" s="17">
+        <v>2</v>
+      </c>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="17"/>
+      <c r="AC8" s="17"/>
+      <c r="AD8" s="17"/>
+      <c r="AE8" s="17"/>
+      <c r="AF8" s="17"/>
+      <c r="AG8" s="17"/>
+      <c r="AH8" s="17"/>
+      <c r="AI8" s="17"/>
+      <c r="AJ8" s="17"/>
+      <c r="AK8" s="17"/>
+      <c r="AL8" s="17"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="14">
+        <f t="array" ref="K9">IF(MAX(FREQUENCY(IF(S9:AL9&gt;0,COLUMN(S9:AL9)),IF(S9:AL9&lt;=0,COLUMN(S9:AL9))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="14"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R9" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S9" s="17">
+        <v>2</v>
+      </c>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="17"/>
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="17"/>
+      <c r="AG9" s="17"/>
+      <c r="AH9" s="17"/>
+      <c r="AI9" s="17"/>
+      <c r="AJ9" s="17"/>
+      <c r="AK9" s="17"/>
+      <c r="AL9" s="17"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="14">
+        <f t="array" ref="K10">IF(MAX(FREQUENCY(IF(S10:AL10&gt;0,COLUMN(S10:AL10)),IF(S10:AL10&lt;=0,COLUMN(S10:AL10))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="14"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R10" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S10" s="17">
+        <v>2</v>
+      </c>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="17"/>
+      <c r="AG10" s="17"/>
+      <c r="AH10" s="17"/>
+      <c r="AI10" s="17"/>
+      <c r="AJ10" s="17"/>
+      <c r="AK10" s="17"/>
+      <c r="AL10" s="17"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13">
+        <v>1</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="14">
+        <f t="array" ref="K11">IF(MAX(FREQUENCY(IF(S11:AL11&gt;0,COLUMN(S11:AL11)),IF(S11:AL11&lt;=0,COLUMN(S11:AL11))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="14"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R11" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">-Blast to the Past, </v>
+      </c>
+      <c r="S11" s="17">
+        <v>2</v>
+      </c>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="17"/>
+      <c r="AH11" s="17"/>
+      <c r="AI11" s="17"/>
+      <c r="AJ11" s="17"/>
+      <c r="AK11" s="17"/>
+      <c r="AL11" s="17"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="14">
+        <f t="array" ref="K12">IF(MAX(FREQUENCY(IF(S12:AL12&gt;0,COLUMN(S12:AL12)),IF(S12:AL12&lt;=0,COLUMN(S12:AL12))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="14"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R12" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S12" s="17">
+        <v>1</v>
+      </c>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="17"/>
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="17"/>
+      <c r="AE12" s="17"/>
+      <c r="AF12" s="17"/>
+      <c r="AG12" s="17"/>
+      <c r="AH12" s="17"/>
+      <c r="AI12" s="17"/>
+      <c r="AJ12" s="17"/>
+      <c r="AK12" s="17"/>
+      <c r="AL12" s="17"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="14">
+        <f t="array" ref="K13">IF(MAX(FREQUENCY(IF(S13:AL13&gt;0,COLUMN(S13:AL13)),IF(S13:AL13&lt;=0,COLUMN(S13:AL13))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="14"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R13" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S13" s="17">
+        <v>2</v>
+      </c>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="17"/>
+      <c r="AF13" s="17"/>
+      <c r="AG13" s="17"/>
+      <c r="AH13" s="17"/>
+      <c r="AI13" s="17"/>
+      <c r="AJ13" s="17"/>
+      <c r="AK13" s="17"/>
+      <c r="AL13" s="17"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="14">
+        <f t="array" ref="K14">IF(MAX(FREQUENCY(IF(S14:AL14&gt;0,COLUMN(S14:AL14)),IF(S14:AL14&lt;=0,COLUMN(S14:AL14))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="14"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R14" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S14" s="17">
+        <v>2</v>
+      </c>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="17"/>
+      <c r="AE14" s="17"/>
+      <c r="AF14" s="17"/>
+      <c r="AG14" s="17"/>
+      <c r="AH14" s="17"/>
+      <c r="AI14" s="17"/>
+      <c r="AJ14" s="17"/>
+      <c r="AK14" s="17"/>
+      <c r="AL14" s="17"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="14">
+        <f t="array" ref="K15">IF(MAX(FREQUENCY(IF(S15:AL15&gt;0,COLUMN(S15:AL15)),IF(S15:AL15&lt;=0,COLUMN(S15:AL15))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="14"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R15" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S15" s="17">
+        <v>3</v>
+      </c>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="17"/>
+      <c r="AE15" s="17"/>
+      <c r="AF15" s="17"/>
+      <c r="AG15" s="17"/>
+      <c r="AH15" s="17"/>
+      <c r="AI15" s="17"/>
+      <c r="AJ15" s="17"/>
+      <c r="AK15" s="17"/>
+      <c r="AL15" s="17"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="14">
+        <f t="array" ref="K16">IF(MAX(FREQUENCY(IF(S16:AL16&gt;0,COLUMN(S16:AL16)),IF(S16:AL16&lt;=0,COLUMN(S16:AL16))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="14"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R16" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S16" s="17">
+        <v>3</v>
+      </c>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
+      <c r="AG16" s="17"/>
+      <c r="AH16" s="17"/>
+      <c r="AI16" s="17"/>
+      <c r="AJ16" s="17"/>
+      <c r="AK16" s="17"/>
+      <c r="AL16" s="17"/>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="14">
+        <f t="array" ref="K17">IF(MAX(FREQUENCY(IF(S17:AL17&gt;0,COLUMN(S17:AL17)),IF(S17:AL17&lt;=0,COLUMN(S17:AL17))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="14"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R17" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S17" s="17">
+        <v>3</v>
+      </c>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="17"/>
+      <c r="AG17" s="17"/>
+      <c r="AH17" s="17"/>
+      <c r="AI17" s="17"/>
+      <c r="AJ17" s="17"/>
+      <c r="AK17" s="17"/>
+      <c r="AL17" s="17"/>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="14">
+        <f t="array" ref="K18">IF(MAX(FREQUENCY(IF(S18:AL18&gt;0,COLUMN(S18:AL18)),IF(S18:AL18&lt;=0,COLUMN(S18:AL18))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="14"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R18" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S18" s="17">
+        <v>2</v>
+      </c>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="17"/>
+      <c r="AG18" s="17"/>
+      <c r="AH18" s="17"/>
+      <c r="AI18" s="17"/>
+      <c r="AJ18" s="17"/>
+      <c r="AK18" s="17"/>
+      <c r="AL18" s="17"/>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="14">
+        <f t="array" ref="K19">IF(MAX(FREQUENCY(IF(S19:AL19&gt;0,COLUMN(S19:AL19)),IF(S19:AL19&lt;=0,COLUMN(S19:AL19))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="14"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R19" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S19" s="17">
+        <v>3</v>
+      </c>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="17"/>
+      <c r="AF19" s="17"/>
+      <c r="AG19" s="17"/>
+      <c r="AH19" s="17"/>
+      <c r="AI19" s="17"/>
+      <c r="AJ19" s="17"/>
+      <c r="AK19" s="17"/>
+      <c r="AL19" s="17"/>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="14">
+        <f t="array" ref="K20">IF(MAX(FREQUENCY(IF(S20:AL20&gt;0,COLUMN(S20:AL20)),IF(S20:AL20&lt;=0,COLUMN(S20:AL20))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="14"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R20" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S20" s="17">
+        <v>3</v>
+      </c>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="17"/>
+      <c r="AG20" s="17"/>
+      <c r="AH20" s="17"/>
+      <c r="AI20" s="17"/>
+      <c r="AJ20" s="17"/>
+      <c r="AK20" s="17"/>
+      <c r="AL20" s="17"/>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="14">
+        <f t="array" ref="K21">IF(MAX(FREQUENCY(IF(S21:AL21&gt;0,COLUMN(S21:AL21)),IF(S21:AL21&lt;=0,COLUMN(S21:AL21))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="14"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R21" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S21" s="17">
+        <v>2</v>
+      </c>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
+      <c r="AG21" s="17"/>
+      <c r="AH21" s="17"/>
+      <c r="AI21" s="17"/>
+      <c r="AJ21" s="17"/>
+      <c r="AK21" s="17"/>
+      <c r="AL21" s="17"/>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="14">
+        <f t="array" ref="K22">IF(MAX(FREQUENCY(IF(S22:AL22&gt;0,COLUMN(S22:AL22)),IF(S22:AL22&lt;=0,COLUMN(S22:AL22))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="14"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R22" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S22" s="17">
+        <v>3</v>
+      </c>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="17"/>
+      <c r="AF22" s="17"/>
+      <c r="AG22" s="17"/>
+      <c r="AH22" s="17"/>
+      <c r="AI22" s="17"/>
+      <c r="AJ22" s="17"/>
+      <c r="AK22" s="17"/>
+      <c r="AL22" s="17"/>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="14">
+        <f t="array" ref="K23">IF(MAX(FREQUENCY(IF(S23:AL23&gt;0,COLUMN(S23:AL23)),IF(S23:AL23&lt;=0,COLUMN(S23:AL23))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="14"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R23" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S23" s="17">
+        <v>2</v>
+      </c>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="17"/>
+      <c r="AD23" s="17"/>
+      <c r="AE23" s="17"/>
+      <c r="AF23" s="17"/>
+      <c r="AG23" s="17"/>
+      <c r="AH23" s="17"/>
+      <c r="AI23" s="17"/>
+      <c r="AJ23" s="17"/>
+      <c r="AK23" s="17"/>
+      <c r="AL23" s="17"/>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="14">
+        <f t="array" ref="K24">IF(MAX(FREQUENCY(IF(S24:AL24&gt;0,COLUMN(S24:AL24)),IF(S24:AL24&lt;=0,COLUMN(S24:AL24))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="14"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R24" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S24" s="17">
+        <v>3</v>
+      </c>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="17"/>
+      <c r="AC24" s="17"/>
+      <c r="AD24" s="17"/>
+      <c r="AE24" s="17"/>
+      <c r="AF24" s="17"/>
+      <c r="AG24" s="17"/>
+      <c r="AH24" s="17"/>
+      <c r="AI24" s="17"/>
+      <c r="AJ24" s="17"/>
+      <c r="AK24" s="17"/>
+      <c r="AL24" s="17"/>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14">
+        <v>1</v>
+      </c>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="14">
+        <f t="array" ref="K25">IF(MAX(FREQUENCY(IF(S25:AL25&gt;0,COLUMN(S25:AL25)),IF(S25:AL25&lt;=0,COLUMN(S25:AL25))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="14"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="16">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="R25" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">-Full Combo, </v>
+      </c>
+      <c r="S25" s="17">
+        <v>3</v>
+      </c>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="17"/>
+      <c r="AB25" s="17"/>
+      <c r="AC25" s="17"/>
+      <c r="AD25" s="17"/>
+      <c r="AE25" s="17"/>
+      <c r="AF25" s="17"/>
+      <c r="AG25" s="17"/>
+      <c r="AH25" s="17"/>
+      <c r="AI25" s="17"/>
+      <c r="AJ25" s="17"/>
+      <c r="AK25" s="17"/>
+      <c r="AL25" s="17"/>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="14">
+        <f t="array" ref="K26">IF(MAX(FREQUENCY(IF(S26:AL26&gt;0,COLUMN(S26:AL26)),IF(S26:AL26&lt;=0,COLUMN(S26:AL26))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="14"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R26" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S26" s="17">
+        <v>2</v>
+      </c>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="17"/>
+      <c r="AA26" s="17"/>
+      <c r="AB26" s="17"/>
+      <c r="AC26" s="17"/>
+      <c r="AD26" s="17"/>
+      <c r="AE26" s="17"/>
+      <c r="AF26" s="17"/>
+      <c r="AG26" s="17"/>
+      <c r="AH26" s="17"/>
+      <c r="AI26" s="17"/>
+      <c r="AJ26" s="17"/>
+      <c r="AK26" s="17"/>
+      <c r="AL26" s="17"/>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="14">
+        <f t="array" ref="K27">IF(MAX(FREQUENCY(IF(S27:AL27&gt;0,COLUMN(S27:AL27)),IF(S27:AL27&lt;=0,COLUMN(S27:AL27))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="14"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R27" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S27" s="17">
+        <v>2</v>
+      </c>
+      <c r="T27" s="17"/>
+      <c r="U27" s="17"/>
+      <c r="V27" s="17"/>
+      <c r="W27" s="17"/>
+      <c r="X27" s="17"/>
+      <c r="Y27" s="17"/>
+      <c r="Z27" s="17"/>
+      <c r="AA27" s="17"/>
+      <c r="AB27" s="17"/>
+      <c r="AC27" s="17"/>
+      <c r="AD27" s="17"/>
+      <c r="AE27" s="17"/>
+      <c r="AF27" s="17"/>
+      <c r="AG27" s="17"/>
+      <c r="AH27" s="17"/>
+      <c r="AI27" s="17"/>
+      <c r="AJ27" s="17"/>
+      <c r="AK27" s="17"/>
+      <c r="AL27" s="17"/>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="14">
+        <f t="array" ref="K28">IF(MAX(FREQUENCY(IF(S28:AL28&gt;0,COLUMN(S28:AL28)),IF(S28:AL28&lt;=0,COLUMN(S28:AL28))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="14"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R28" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S28" s="17">
+        <v>3</v>
+      </c>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
+      <c r="AA28" s="17"/>
+      <c r="AB28" s="17"/>
+      <c r="AC28" s="17"/>
+      <c r="AD28" s="17"/>
+      <c r="AE28" s="17"/>
+      <c r="AF28" s="17"/>
+      <c r="AG28" s="17"/>
+      <c r="AH28" s="17"/>
+      <c r="AI28" s="17"/>
+      <c r="AJ28" s="17"/>
+      <c r="AK28" s="17"/>
+      <c r="AL28" s="17"/>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="14">
+        <v>1</v>
+      </c>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="14">
+        <f t="array" ref="K29">IF(MAX(FREQUENCY(IF(S29:AL29&gt;0,COLUMN(S29:AL29)),IF(S29:AL29&lt;=0,COLUMN(S29:AL29))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="14"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="16">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="R29" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">-Full Combo, </v>
+      </c>
+      <c r="S29" s="17">
+        <v>3</v>
+      </c>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
+      <c r="AA29" s="17"/>
+      <c r="AB29" s="17"/>
+      <c r="AC29" s="17"/>
+      <c r="AD29" s="17"/>
+      <c r="AE29" s="17"/>
+      <c r="AF29" s="17"/>
+      <c r="AG29" s="17"/>
+      <c r="AH29" s="17"/>
+      <c r="AI29" s="17"/>
+      <c r="AJ29" s="17"/>
+      <c r="AK29" s="17"/>
+      <c r="AL29" s="17"/>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="14">
+        <f t="array" ref="K30">IF(MAX(FREQUENCY(IF(S30:AL30&gt;0,COLUMN(S30:AL30)),IF(S30:AL30&lt;=0,COLUMN(S30:AL30))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="14"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S30" s="17">
+        <v>0</v>
+      </c>
+      <c r="T30" s="17"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="17"/>
+      <c r="W30" s="17"/>
+      <c r="X30" s="17"/>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="17"/>
+      <c r="AA30" s="17"/>
+      <c r="AB30" s="17"/>
+      <c r="AC30" s="17"/>
+      <c r="AD30" s="17"/>
+      <c r="AE30" s="17"/>
+      <c r="AF30" s="17"/>
+      <c r="AG30" s="17"/>
+      <c r="AH30" s="17"/>
+      <c r="AI30" s="17"/>
+      <c r="AJ30" s="17"/>
+      <c r="AK30" s="17"/>
+      <c r="AL30" s="17"/>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="14">
+        <f t="array" ref="K31">IF(MAX(FREQUENCY(IF(S31:AL31&gt;0,COLUMN(S31:AL31)),IF(S31:AL31&lt;=0,COLUMN(S31:AL31))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="14"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S31" s="17">
+        <v>0</v>
+      </c>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="17"/>
+      <c r="W31" s="17"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="17"/>
+      <c r="AA31" s="17"/>
+      <c r="AB31" s="17"/>
+      <c r="AC31" s="17"/>
+      <c r="AD31" s="17"/>
+      <c r="AE31" s="17"/>
+      <c r="AF31" s="17"/>
+      <c r="AG31" s="17"/>
+      <c r="AH31" s="17"/>
+      <c r="AI31" s="17"/>
+      <c r="AJ31" s="17"/>
+      <c r="AK31" s="17"/>
+      <c r="AL31" s="17"/>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A32" s="12">
+        <v>29</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="14">
+        <f t="array" ref="K32">IF(MAX(FREQUENCY(IF(S32:AL32&gt;0,COLUMN(S32:AL32)),IF(S32:AL32&lt;=0,COLUMN(S32:AL32))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="14"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="17"/>
+      <c r="AA32" s="17"/>
+      <c r="AB32" s="17"/>
+      <c r="AC32" s="17"/>
+      <c r="AD32" s="17"/>
+      <c r="AE32" s="17"/>
+      <c r="AF32" s="17"/>
+      <c r="AG32" s="17"/>
+      <c r="AH32" s="17"/>
+      <c r="AI32" s="17"/>
+      <c r="AJ32" s="17"/>
+      <c r="AK32" s="17"/>
+      <c r="AL32" s="17"/>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A33" s="12">
+        <v>30</v>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="14">
+        <f t="array" ref="K33">IF(MAX(FREQUENCY(IF(S33:AL33&gt;0,COLUMN(S33:AL33)),IF(S33:AL33&lt;=0,COLUMN(S33:AL33))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="14"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="17"/>
+      <c r="W33" s="17"/>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="17"/>
+      <c r="Z33" s="17"/>
+      <c r="AA33" s="17"/>
+      <c r="AB33" s="17"/>
+      <c r="AC33" s="17"/>
+      <c r="AD33" s="17"/>
+      <c r="AE33" s="17"/>
+      <c r="AF33" s="17"/>
+      <c r="AG33" s="17"/>
+      <c r="AH33" s="17"/>
+      <c r="AI33" s="17"/>
+      <c r="AJ33" s="17"/>
+      <c r="AK33" s="17"/>
+      <c r="AL33" s="17"/>
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A34" s="12">
+        <v>31</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="14">
+        <f t="array" ref="K34">IF(MAX(FREQUENCY(IF(S34:AL34&gt;0,COLUMN(S34:AL34)),IF(S34:AL34&lt;=0,COLUMN(S34:AL34))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="14"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="17"/>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="17"/>
+      <c r="AA34" s="17"/>
+      <c r="AB34" s="17"/>
+      <c r="AC34" s="17"/>
+      <c r="AD34" s="17"/>
+      <c r="AE34" s="17"/>
+      <c r="AF34" s="17"/>
+      <c r="AG34" s="17"/>
+      <c r="AH34" s="17"/>
+      <c r="AI34" s="17"/>
+      <c r="AJ34" s="17"/>
+      <c r="AK34" s="17"/>
+      <c r="AL34" s="17"/>
+    </row>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A35" s="12">
+        <v>32</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="14">
+        <f t="array" ref="K35">IF(MAX(FREQUENCY(IF(S35:AL35&gt;0,COLUMN(S35:AL35)),IF(S35:AL35&lt;=0,COLUMN(S35:AL35))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="14"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="17"/>
+      <c r="V35" s="17"/>
+      <c r="W35" s="17"/>
+      <c r="X35" s="17"/>
+      <c r="Y35" s="17"/>
+      <c r="Z35" s="17"/>
+      <c r="AA35" s="17"/>
+      <c r="AB35" s="17"/>
+      <c r="AC35" s="17"/>
+      <c r="AD35" s="17"/>
+      <c r="AE35" s="17"/>
+      <c r="AF35" s="17"/>
+      <c r="AG35" s="17"/>
+      <c r="AH35" s="17"/>
+      <c r="AI35" s="17"/>
+      <c r="AJ35" s="17"/>
+      <c r="AK35" s="17"/>
+      <c r="AL35" s="17"/>
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A36" s="12">
+        <v>33</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="14">
+        <f t="array" ref="K36">IF(MAX(FREQUENCY(IF(S36:AL36&gt;0,COLUMN(S36:AL36)),IF(S36:AL36&lt;=0,COLUMN(S36:AL36))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="14"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
+      <c r="V36" s="17"/>
+      <c r="W36" s="17"/>
+      <c r="X36" s="17"/>
+      <c r="Y36" s="17"/>
+      <c r="Z36" s="17"/>
+      <c r="AA36" s="17"/>
+      <c r="AB36" s="17"/>
+      <c r="AC36" s="17"/>
+      <c r="AD36" s="17"/>
+      <c r="AE36" s="17"/>
+      <c r="AF36" s="17"/>
+      <c r="AG36" s="17"/>
+      <c r="AH36" s="17"/>
+      <c r="AI36" s="17"/>
+      <c r="AJ36" s="17"/>
+      <c r="AK36" s="17"/>
+      <c r="AL36" s="17"/>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A37" s="12">
+        <v>34</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="14">
+        <f t="array" ref="K37">IF(MAX(FREQUENCY(IF(S37:AL37&gt;0,COLUMN(S37:AL37)),IF(S37:AL37&lt;=0,COLUMN(S37:AL37))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="14"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
+      <c r="V37" s="17"/>
+      <c r="W37" s="17"/>
+      <c r="X37" s="17"/>
+      <c r="Y37" s="17"/>
+      <c r="Z37" s="17"/>
+      <c r="AA37" s="17"/>
+      <c r="AB37" s="17"/>
+      <c r="AC37" s="17"/>
+      <c r="AD37" s="17"/>
+      <c r="AE37" s="17"/>
+      <c r="AF37" s="17"/>
+      <c r="AG37" s="17"/>
+      <c r="AH37" s="17"/>
+      <c r="AI37" s="17"/>
+      <c r="AJ37" s="17"/>
+      <c r="AK37" s="17"/>
+      <c r="AL37" s="17"/>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A38" s="12">
+        <v>35</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="14">
+        <f t="array" ref="K38">IF(MAX(FREQUENCY(IF(S38:AL38&gt;0,COLUMN(S38:AL38)),IF(S38:AL38&lt;=0,COLUMN(S38:AL38))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L38" s="14"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
+      <c r="V38" s="17"/>
+      <c r="W38" s="17"/>
+      <c r="X38" s="17"/>
+      <c r="Y38" s="17"/>
+      <c r="Z38" s="17"/>
+      <c r="AA38" s="17"/>
+      <c r="AB38" s="17"/>
+      <c r="AC38" s="17"/>
+      <c r="AD38" s="17"/>
+      <c r="AE38" s="17"/>
+      <c r="AF38" s="17"/>
+      <c r="AG38" s="17"/>
+      <c r="AH38" s="17"/>
+      <c r="AI38" s="17"/>
+      <c r="AJ38" s="17"/>
+      <c r="AK38" s="17"/>
+      <c r="AL38" s="17"/>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A39" s="12">
+        <v>36</v>
+      </c>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="14">
+        <f t="array" ref="K39">IF(MAX(FREQUENCY(IF(S39:AL39&gt;0,COLUMN(S39:AL39)),IF(S39:AL39&lt;=0,COLUMN(S39:AL39))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L39" s="14"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="17"/>
+      <c r="V39" s="17"/>
+      <c r="W39" s="17"/>
+      <c r="X39" s="17"/>
+      <c r="Y39" s="17"/>
+      <c r="Z39" s="17"/>
+      <c r="AA39" s="17"/>
+      <c r="AB39" s="17"/>
+      <c r="AC39" s="17"/>
+      <c r="AD39" s="17"/>
+      <c r="AE39" s="17"/>
+      <c r="AF39" s="17"/>
+      <c r="AG39" s="17"/>
+      <c r="AH39" s="17"/>
+      <c r="AI39" s="17"/>
+      <c r="AJ39" s="17"/>
+      <c r="AK39" s="17"/>
+      <c r="AL39" s="17"/>
+    </row>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A40" s="12">
+        <v>37</v>
+      </c>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="14">
+        <f t="array" ref="K40">IF(MAX(FREQUENCY(IF(S40:AL40&gt;0,COLUMN(S40:AL40)),IF(S40:AL40&lt;=0,COLUMN(S40:AL40))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L40" s="14"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="17"/>
+      <c r="V40" s="17"/>
+      <c r="W40" s="17"/>
+      <c r="X40" s="17"/>
+      <c r="Y40" s="17"/>
+      <c r="Z40" s="17"/>
+      <c r="AA40" s="17"/>
+      <c r="AB40" s="17"/>
+      <c r="AC40" s="17"/>
+      <c r="AD40" s="17"/>
+      <c r="AE40" s="17"/>
+      <c r="AF40" s="17"/>
+      <c r="AG40" s="17"/>
+      <c r="AH40" s="17"/>
+      <c r="AI40" s="17"/>
+      <c r="AJ40" s="17"/>
+      <c r="AK40" s="17"/>
+      <c r="AL40" s="17"/>
+    </row>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A41" s="12">
+        <v>38</v>
+      </c>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="14">
+        <f t="array" ref="K41">IF(MAX(FREQUENCY(IF(S41:AL41&gt;0,COLUMN(S41:AL41)),IF(S41:AL41&lt;=0,COLUMN(S41:AL41))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L41" s="14"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S41" s="17"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="17"/>
+      <c r="V41" s="17"/>
+      <c r="W41" s="17"/>
+      <c r="X41" s="17"/>
+      <c r="Y41" s="17"/>
+      <c r="Z41" s="17"/>
+      <c r="AA41" s="17"/>
+      <c r="AB41" s="17"/>
+      <c r="AC41" s="17"/>
+      <c r="AD41" s="17"/>
+      <c r="AE41" s="17"/>
+      <c r="AF41" s="17"/>
+      <c r="AG41" s="17"/>
+      <c r="AH41" s="17"/>
+      <c r="AI41" s="17"/>
+      <c r="AJ41" s="17"/>
+      <c r="AK41" s="17"/>
+      <c r="AL41" s="17"/>
+    </row>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A42" s="12">
+        <v>39</v>
+      </c>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="14">
+        <f t="array" ref="K42">IF(MAX(FREQUENCY(IF(S42:AL42&gt;0,COLUMN(S42:AL42)),IF(S42:AL42&lt;=0,COLUMN(S42:AL42))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L42" s="14"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
+      <c r="V42" s="17"/>
+      <c r="W42" s="17"/>
+      <c r="X42" s="17"/>
+      <c r="Y42" s="17"/>
+      <c r="Z42" s="17"/>
+      <c r="AA42" s="17"/>
+      <c r="AB42" s="17"/>
+      <c r="AC42" s="17"/>
+      <c r="AD42" s="17"/>
+      <c r="AE42" s="17"/>
+      <c r="AF42" s="17"/>
+      <c r="AG42" s="17"/>
+      <c r="AH42" s="17"/>
+      <c r="AI42" s="17"/>
+      <c r="AJ42" s="17"/>
+      <c r="AK42" s="17"/>
+      <c r="AL42" s="17"/>
+    </row>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A43" s="12">
+        <v>40</v>
+      </c>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="14">
+        <f t="array" ref="K43">IF(MAX(FREQUENCY(IF(S43:AL43&gt;0,COLUMN(S43:AL43)),IF(S43:AL43&lt;=0,COLUMN(S43:AL43))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L43" s="14"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S43" s="17"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="17"/>
+      <c r="V43" s="17"/>
+      <c r="W43" s="17"/>
+      <c r="X43" s="17"/>
+      <c r="Y43" s="17"/>
+      <c r="Z43" s="17"/>
+      <c r="AA43" s="17"/>
+      <c r="AB43" s="17"/>
+      <c r="AC43" s="17"/>
+      <c r="AD43" s="17"/>
+      <c r="AE43" s="17"/>
+      <c r="AF43" s="17"/>
+      <c r="AG43" s="17"/>
+      <c r="AH43" s="17"/>
+      <c r="AI43" s="17"/>
+      <c r="AJ43" s="17"/>
+      <c r="AK43" s="17"/>
+      <c r="AL43" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="S2:AL2"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A52EDD0-1238-4494-B6B1-F62E260AFCC4}">
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <f>'4E_data'!A4</f>
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <f>'4E_data'!R4</f>
+        <v>-</v>
+      </c>
+      <c r="C2">
+        <f>'4E_data'!Q4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f>'4E_data'!A5</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <f>'4E_data'!R5</f>
+        <v>-</v>
+      </c>
+      <c r="C3">
+        <f>'4E_data'!Q5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f>'4E_data'!A6</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <f>'4E_data'!R6</f>
+        <v>-</v>
+      </c>
+      <c r="C4">
+        <f>'4E_data'!Q6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f>'4E_data'!A7</f>
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <f>'4E_data'!R7</f>
+        <v>-</v>
+      </c>
+      <c r="C5">
+        <f>'4E_data'!Q7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f>'4E_data'!A8</f>
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <f>'4E_data'!R8</f>
+        <v>-</v>
+      </c>
+      <c r="C6">
+        <f>'4E_data'!Q8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f>'4E_data'!A9</f>
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <f>'4E_data'!R9</f>
+        <v>-</v>
+      </c>
+      <c r="C7">
+        <f>'4E_data'!Q9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f>'4E_data'!A10</f>
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <f>'4E_data'!R10</f>
+        <v>-</v>
+      </c>
+      <c r="C8">
+        <f>'4E_data'!Q10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f>'4E_data'!A11</f>
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <f>'4E_data'!R11</f>
+        <v>-</v>
+      </c>
+      <c r="C9">
+        <f>'4E_data'!Q11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f>'4E_data'!A12</f>
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <f>'4E_data'!R12</f>
+        <v>-</v>
+      </c>
+      <c r="C10">
+        <f>'4E_data'!Q12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f>'4E_data'!A13</f>
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <f>'4E_data'!R13</f>
+        <v>-</v>
+      </c>
+      <c r="C11">
+        <f>'4E_data'!Q13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f>'4E_data'!A14</f>
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <f>'4E_data'!R14</f>
+        <v>-</v>
+      </c>
+      <c r="C12">
+        <f>'4E_data'!Q14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f>'4E_data'!A15</f>
+        <v>12</v>
+      </c>
+      <c r="B13" t="str">
+        <f>'4E_data'!R15</f>
+        <v>-</v>
+      </c>
+      <c r="C13">
+        <f>'4E_data'!Q15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f>'4E_data'!A16</f>
+        <v>13</v>
+      </c>
+      <c r="B14" t="str">
+        <f>'4E_data'!R16</f>
+        <v>-</v>
+      </c>
+      <c r="C14">
+        <f>'4E_data'!Q16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f>'4E_data'!A17</f>
+        <v>14</v>
+      </c>
+      <c r="B15" t="str">
+        <f>'4E_data'!R17</f>
+        <v>-</v>
+      </c>
+      <c r="C15">
+        <f>'4E_data'!Q17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f>'4E_data'!A18</f>
+        <v>15</v>
+      </c>
+      <c r="B16" t="str">
+        <f>'4E_data'!R18</f>
+        <v>-</v>
+      </c>
+      <c r="C16">
+        <f>'4E_data'!Q18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f>'4E_data'!A19</f>
+        <v>16</v>
+      </c>
+      <c r="B17" t="str">
+        <f>'4E_data'!R19</f>
+        <v>-</v>
+      </c>
+      <c r="C17">
+        <f>'4E_data'!Q19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f>'4E_data'!A20</f>
+        <v>17</v>
+      </c>
+      <c r="B18" t="str">
+        <f>'4E_data'!R20</f>
+        <v>-</v>
+      </c>
+      <c r="C18">
+        <f>'4E_data'!Q20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f>'4E_data'!A21</f>
+        <v>18</v>
+      </c>
+      <c r="B19" t="str">
+        <f>'4E_data'!R21</f>
+        <v>-</v>
+      </c>
+      <c r="C19">
+        <f>'4E_data'!Q21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f>'4E_data'!A22</f>
+        <v>19</v>
+      </c>
+      <c r="B20" t="str">
+        <f>'4E_data'!R22</f>
+        <v>-</v>
+      </c>
+      <c r="C20">
+        <f>'4E_data'!Q22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f>'4E_data'!A23</f>
+        <v>20</v>
+      </c>
+      <c r="B21" t="str">
+        <f>'4E_data'!R23</f>
+        <v>-</v>
+      </c>
+      <c r="C21">
+        <f>'4E_data'!Q23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f>'4E_data'!A24</f>
+        <v>21</v>
+      </c>
+      <c r="B22" t="str">
+        <f>'4E_data'!R24</f>
+        <v>-</v>
+      </c>
+      <c r="C22">
+        <f>'4E_data'!Q24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f>'4E_data'!A25</f>
+        <v>22</v>
+      </c>
+      <c r="B23" t="str">
+        <f>'4E_data'!R25</f>
+        <v>-</v>
+      </c>
+      <c r="C23">
+        <f>'4E_data'!Q25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f>'4E_data'!A26</f>
+        <v>23</v>
+      </c>
+      <c r="B24" t="str">
+        <f>'4E_data'!R26</f>
+        <v>-</v>
+      </c>
+      <c r="C24">
+        <f>'4E_data'!Q26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f>'4E_data'!A27</f>
+        <v>24</v>
+      </c>
+      <c r="B25" t="str">
+        <f>'4E_data'!R27</f>
+        <v>-</v>
+      </c>
+      <c r="C25">
+        <f>'4E_data'!Q27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f>'4E_data'!A28</f>
+        <v>25</v>
+      </c>
+      <c r="B26" t="str">
+        <f>'4E_data'!R28</f>
+        <v>-</v>
+      </c>
+      <c r="C26">
+        <f>'4E_data'!Q28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f>'4E_data'!A29</f>
+        <v>26</v>
+      </c>
+      <c r="B27" t="str">
+        <f>'4E_data'!R29</f>
+        <v>-</v>
+      </c>
+      <c r="C27">
+        <f>'4E_data'!Q29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <f>'4E_data'!A30</f>
+        <v>27</v>
+      </c>
+      <c r="B28" t="str">
+        <f>'4E_data'!R30</f>
+        <v>-</v>
+      </c>
+      <c r="C28">
+        <f>'4E_data'!Q30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <f>'4E_data'!A31</f>
+        <v>28</v>
+      </c>
+      <c r="B29" t="str">
+        <f>'4E_data'!R31</f>
+        <v>-</v>
+      </c>
+      <c r="C29">
+        <f>'4E_data'!Q31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <f>'4E_data'!A32</f>
+        <v>29</v>
+      </c>
+      <c r="B30" t="str">
+        <f>'4E_data'!R32</f>
+        <v>-</v>
+      </c>
+      <c r="C30">
+        <f>'4E_data'!Q32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <f>'4E_data'!A33</f>
+        <v>30</v>
+      </c>
+      <c r="B31" t="str">
+        <f>'4E_data'!R33</f>
+        <v>-</v>
+      </c>
+      <c r="C31">
+        <f>'4E_data'!Q33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <f>'4E_data'!A34</f>
+        <v>31</v>
+      </c>
+      <c r="B32" t="str">
+        <f>'4E_data'!R34</f>
+        <v>-</v>
+      </c>
+      <c r="C32">
+        <f>'4E_data'!Q34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <f>'4E_data'!A35</f>
+        <v>32</v>
+      </c>
+      <c r="B33" t="str">
+        <f>'4E_data'!R35</f>
+        <v>-</v>
+      </c>
+      <c r="C33">
+        <f>'4E_data'!Q35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <f>'4E_data'!A36</f>
+        <v>33</v>
+      </c>
+      <c r="B34" t="str">
+        <f>'4E_data'!R36</f>
+        <v>-</v>
+      </c>
+      <c r="C34">
+        <f>'4E_data'!Q36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <f>'4E_data'!A37</f>
+        <v>34</v>
+      </c>
+      <c r="B35" t="str">
+        <f>'4E_data'!R37</f>
+        <v>-</v>
+      </c>
+      <c r="C35">
+        <f>'4E_data'!Q37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <f>'4E_data'!A38</f>
+        <v>35</v>
+      </c>
+      <c r="B36" t="str">
+        <f>'4E_data'!R38</f>
+        <v>-</v>
+      </c>
+      <c r="C36">
+        <f>'4E_data'!Q38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <f>'4E_data'!A39</f>
+        <v>36</v>
+      </c>
+      <c r="B37" t="str">
+        <f>'4E_data'!R39</f>
+        <v>-</v>
+      </c>
+      <c r="C37">
+        <f>'4E_data'!Q39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <f>'4E_data'!A40</f>
+        <v>37</v>
+      </c>
+      <c r="B38" t="str">
+        <f>'4E_data'!R40</f>
+        <v>-</v>
+      </c>
+      <c r="C38">
+        <f>'4E_data'!Q40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <f>'4E_data'!A41</f>
+        <v>38</v>
+      </c>
+      <c r="B39" t="str">
+        <f>'4E_data'!R41</f>
+        <v>-</v>
+      </c>
+      <c r="C39">
+        <f>'4E_data'!Q41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <f>'4E_data'!A42</f>
+        <v>39</v>
+      </c>
+      <c r="B40" t="str">
+        <f>'4E_data'!R42</f>
+        <v>-</v>
+      </c>
+      <c r="C40">
+        <f>'4E_data'!Q42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <f>'4E_data'!A43</f>
+        <v>40</v>
+      </c>
+      <c r="B41" t="str">
+        <f>'4E_data'!R43</f>
+        <v>-</v>
+      </c>
+      <c r="C41">
+        <f>'4E_data'!Q43</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10534E12-96AC-44F1-9431-EFE9F0397466}">
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f>'2Exp_data'!A4</f>
+        <v>BaconBoiGaming</v>
+      </c>
+      <c r="B2" t="str">
+        <f>'2Exp_data'!R4</f>
+        <v xml:space="preserve">-I Love Math, I Say Hi, Memelord, </v>
+      </c>
+      <c r="C2">
+        <f>'2Exp_data'!Q4</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f>'2Exp_data'!A5</f>
+        <v>rae</v>
+      </c>
+      <c r="B3" t="str">
+        <f>'2Exp_data'!R5</f>
+        <v xml:space="preserve">-Blast to the Past, </v>
+      </c>
+      <c r="C3">
+        <f>'2Exp_data'!Q5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f>'2Exp_data'!A6</f>
+        <v>Chutlan</v>
+      </c>
+      <c r="B4" t="str">
+        <f>'2Exp_data'!R6</f>
+        <v>-</v>
+      </c>
+      <c r="C4">
+        <f>'2Exp_data'!Q6</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <f>'2Exp_data'!A7</f>
+        <v>Poplolyay</v>
+      </c>
+      <c r="B5" t="str">
+        <f>'2Exp_data'!R7</f>
+        <v>-</v>
+      </c>
+      <c r="C5">
+        <f>'2Exp_data'!Q7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <f>'2Exp_data'!A8</f>
+        <v>Xiang Rong</v>
+      </c>
+      <c r="B6" t="str">
+        <f>'2Exp_data'!R8</f>
+        <v>-</v>
+      </c>
+      <c r="C6">
+        <f>'2Exp_data'!Q8</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <f>'2Exp_data'!A9</f>
+        <v>Zarele</v>
+      </c>
+      <c r="B7" t="str">
+        <f>'2Exp_data'!R9</f>
+        <v>-</v>
+      </c>
+      <c r="C7">
+        <f>'2Exp_data'!Q9</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>'2Exp_data'!A10</f>
+        <v>Jaidern</v>
+      </c>
+      <c r="B8" t="str">
+        <f>'2Exp_data'!R10</f>
+        <v>-</v>
+      </c>
+      <c r="C8">
+        <f>'2Exp_data'!Q10</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>'2Exp_data'!A11</f>
+        <v>Calbri Kane</v>
+      </c>
+      <c r="B9" t="str">
+        <f>'2Exp_data'!R11</f>
+        <v xml:space="preserve">-Blast to the Past, </v>
+      </c>
+      <c r="C9">
+        <f>'2Exp_data'!Q11</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>'2Exp_data'!A12</f>
+        <v>phatman81kg</v>
+      </c>
+      <c r="B10" t="str">
+        <f>'2Exp_data'!R12</f>
+        <v>-</v>
+      </c>
+      <c r="C10">
+        <f>'2Exp_data'!Q12</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>'2Exp_data'!A13</f>
+        <v>chickennugget16.5</v>
+      </c>
+      <c r="B11" t="str">
+        <f>'2Exp_data'!R13</f>
+        <v>-</v>
+      </c>
+      <c r="C11">
+        <f>'2Exp_data'!Q13</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>'2Exp_data'!A14</f>
+        <v>oldchangkeeyummy</v>
+      </c>
+      <c r="B12" t="str">
+        <f>'2Exp_data'!R14</f>
+        <v>-</v>
+      </c>
+      <c r="C12">
+        <f>'2Exp_data'!Q14</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="str">
+        <f>'2Exp_data'!A15</f>
+        <v>Mabel</v>
+      </c>
+      <c r="B13" t="str">
+        <f>'2Exp_data'!R15</f>
+        <v>-</v>
+      </c>
+      <c r="C13">
+        <f>'2Exp_data'!Q15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="str">
+        <f>'2Exp_data'!A16</f>
+        <v>MusicNerd10</v>
+      </c>
+      <c r="B14" t="str">
+        <f>'2Exp_data'!R16</f>
+        <v>-</v>
+      </c>
+      <c r="C14">
+        <f>'2Exp_data'!Q16</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>'2Exp_data'!A17</f>
+        <v>Destineeee</v>
+      </c>
+      <c r="B15" t="str">
+        <f>'2Exp_data'!R17</f>
+        <v>-</v>
+      </c>
+      <c r="C15">
+        <f>'2Exp_data'!Q17</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>'2Exp_data'!A18</f>
+        <v>stars</v>
+      </c>
+      <c r="B16" t="str">
+        <f>'2Exp_data'!R18</f>
+        <v>-</v>
+      </c>
+      <c r="C16">
+        <f>'2Exp_data'!Q18</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="str">
+        <f>'2Exp_data'!A19</f>
+        <v>Valencia</v>
+      </c>
+      <c r="B17" t="str">
+        <f>'2Exp_data'!R19</f>
+        <v>-</v>
+      </c>
+      <c r="C17">
+        <f>'2Exp_data'!Q19</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f>'2Exp_data'!A20</f>
+        <v>potato</v>
+      </c>
+      <c r="B18" t="str">
+        <f>'2Exp_data'!R20</f>
+        <v>-</v>
+      </c>
+      <c r="C18">
+        <f>'2Exp_data'!Q20</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="str">
+        <f>'2Exp_data'!A21</f>
+        <v>Axel</v>
+      </c>
+      <c r="B19" t="str">
+        <f>'2Exp_data'!R21</f>
+        <v>-</v>
+      </c>
+      <c r="C19">
+        <f>'2Exp_data'!Q21</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="str">
+        <f>'2Exp_data'!A22</f>
+        <v>pee</v>
+      </c>
+      <c r="B20" t="str">
+        <f>'2Exp_data'!R22</f>
+        <v>-</v>
+      </c>
+      <c r="C20">
+        <f>'2Exp_data'!Q22</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="str">
+        <f>'2Exp_data'!A23</f>
+        <v>Jylan</v>
+      </c>
+      <c r="B21" t="str">
+        <f>'2Exp_data'!R23</f>
+        <v>-</v>
+      </c>
+      <c r="C21">
+        <f>'2Exp_data'!Q23</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="str">
+        <f>'2Exp_data'!A24</f>
+        <v>baby powder 64</v>
+      </c>
+      <c r="B22" t="str">
+        <f>'2Exp_data'!R24</f>
+        <v>-</v>
+      </c>
+      <c r="C22">
+        <f>'2Exp_data'!Q24</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="str">
+        <f>'2Exp_data'!A25</f>
+        <v>ricebowl</v>
+      </c>
+      <c r="B23" t="str">
+        <f>'2Exp_data'!R25</f>
+        <v xml:space="preserve">-Full Combo, </v>
+      </c>
+      <c r="C23">
+        <f>'2Exp_data'!Q25</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="str">
+        <f>'2Exp_data'!A26</f>
+        <v>Cownuker44</v>
+      </c>
+      <c r="B24" t="str">
+        <f>'2Exp_data'!R26</f>
+        <v>-</v>
+      </c>
+      <c r="C24">
+        <f>'2Exp_data'!Q26</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="str">
+        <f>'2Exp_data'!A27</f>
+        <v>Denzel</v>
+      </c>
+      <c r="B25" t="str">
+        <f>'2Exp_data'!R27</f>
+        <v>-</v>
+      </c>
+      <c r="C25">
+        <f>'2Exp_data'!Q27</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="str">
+        <f>'2Exp_data'!A28</f>
+        <v>banana</v>
+      </c>
+      <c r="B26" t="str">
+        <f>'2Exp_data'!R28</f>
+        <v>-</v>
+      </c>
+      <c r="C26">
+        <f>'2Exp_data'!Q28</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="str">
+        <f>'2Exp_data'!A29</f>
+        <v>Skout</v>
+      </c>
+      <c r="B27" t="str">
+        <f>'2Exp_data'!R29</f>
+        <v xml:space="preserve">-Full Combo, </v>
+      </c>
+      <c r="C27">
+        <f>'2Exp_data'!Q29</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="str">
+        <f>'2Exp_data'!A30</f>
+        <v>Josh</v>
+      </c>
+      <c r="B28" t="str">
+        <f>'2Exp_data'!R30</f>
+        <v>-</v>
+      </c>
+      <c r="C28">
+        <f>'2Exp_data'!Q30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="str">
+        <f>'2Exp_data'!A31</f>
+        <v>Tristan</v>
+      </c>
+      <c r="B29" t="str">
+        <f>'2Exp_data'!R31</f>
+        <v>-</v>
+      </c>
+      <c r="C29">
+        <f>'2Exp_data'!Q31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <f>'2Exp_data'!A32</f>
+        <v>29</v>
+      </c>
+      <c r="B30" t="str">
+        <f>'2Exp_data'!R32</f>
+        <v>-</v>
+      </c>
+      <c r="C30">
+        <f>'2Exp_data'!Q32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <f>'2Exp_data'!A33</f>
+        <v>30</v>
+      </c>
+      <c r="B31" t="str">
+        <f>'2Exp_data'!R33</f>
+        <v>-</v>
+      </c>
+      <c r="C31">
+        <f>'2Exp_data'!Q33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <f>'2Exp_data'!A34</f>
+        <v>31</v>
+      </c>
+      <c r="B32" t="str">
+        <f>'2Exp_data'!R34</f>
+        <v>-</v>
+      </c>
+      <c r="C32">
+        <f>'2Exp_data'!Q34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <f>'2Exp_data'!A35</f>
+        <v>32</v>
+      </c>
+      <c r="B33" t="str">
+        <f>'2Exp_data'!R35</f>
+        <v>-</v>
+      </c>
+      <c r="C33">
+        <f>'2Exp_data'!Q35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <f>'2Exp_data'!A36</f>
+        <v>33</v>
+      </c>
+      <c r="B34" t="str">
+        <f>'2Exp_data'!R36</f>
+        <v>-</v>
+      </c>
+      <c r="C34">
+        <f>'2Exp_data'!Q36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <f>'2Exp_data'!A37</f>
+        <v>34</v>
+      </c>
+      <c r="B35" t="str">
+        <f>'2Exp_data'!R37</f>
+        <v>-</v>
+      </c>
+      <c r="C35">
+        <f>'2Exp_data'!Q37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <f>'2Exp_data'!A38</f>
+        <v>35</v>
+      </c>
+      <c r="B36" t="str">
+        <f>'2Exp_data'!R38</f>
+        <v>-</v>
+      </c>
+      <c r="C36">
+        <f>'2Exp_data'!Q38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <f>'2Exp_data'!A39</f>
+        <v>36</v>
+      </c>
+      <c r="B37" t="str">
+        <f>'2Exp_data'!R39</f>
+        <v>-</v>
+      </c>
+      <c r="C37">
+        <f>'2Exp_data'!Q39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <f>'2Exp_data'!A40</f>
+        <v>37</v>
+      </c>
+      <c r="B38" t="str">
+        <f>'2Exp_data'!R40</f>
+        <v>-</v>
+      </c>
+      <c r="C38">
+        <f>'2Exp_data'!Q40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <f>'2Exp_data'!A41</f>
+        <v>38</v>
+      </c>
+      <c r="B39" t="str">
+        <f>'2Exp_data'!R41</f>
+        <v>-</v>
+      </c>
+      <c r="C39">
+        <f>'2Exp_data'!Q41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <f>'2Exp_data'!A42</f>
+        <v>39</v>
+      </c>
+      <c r="B40" t="str">
+        <f>'2Exp_data'!R42</f>
+        <v>-</v>
+      </c>
+      <c r="C40">
+        <f>'2Exp_data'!Q42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <f>'2Exp_data'!A43</f>
+        <v>40</v>
+      </c>
+      <c r="B41" t="str">
+        <f>'2Exp_data'!R43</f>
+        <v>-</v>
+      </c>
+      <c r="C41">
+        <f>'2Exp_data'!Q43</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A2BDAFE-D7DA-4F7A-977C-CD8AB5364EE7}">
+  <dimension ref="A1:AL43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection activeCell="N16" sqref="N16"/>
+      <selection pane="topRight" activeCell="Q4" sqref="Q4:Q43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.44140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88671875" style="9"/>
+    <col min="20" max="37" width="8.88671875" style="10"/>
+    <col min="38" max="38" width="8.88671875" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B2" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="S2" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="23">
+        <v>1</v>
+      </c>
+      <c r="T3" s="23">
+        <v>2</v>
+      </c>
+      <c r="U3" s="23">
+        <v>3</v>
+      </c>
+      <c r="V3" s="23">
+        <v>4</v>
+      </c>
+      <c r="W3" s="23">
+        <v>5</v>
+      </c>
+      <c r="X3" s="23">
+        <v>6</v>
+      </c>
+      <c r="Y3" s="23">
+        <v>7</v>
+      </c>
+      <c r="Z3" s="23">
+        <v>8</v>
+      </c>
+      <c r="AA3" s="23">
+        <v>9</v>
+      </c>
+      <c r="AB3" s="23">
+        <v>10</v>
+      </c>
+      <c r="AC3" s="23">
+        <v>11</v>
+      </c>
+      <c r="AD3" s="23">
+        <v>12</v>
+      </c>
+      <c r="AE3" s="23">
+        <v>13</v>
+      </c>
+      <c r="AF3" s="23">
+        <v>14</v>
+      </c>
+      <c r="AG3" s="23">
+        <v>15</v>
+      </c>
+      <c r="AH3" s="23">
+        <v>16</v>
+      </c>
+      <c r="AI3" s="23">
+        <v>17</v>
+      </c>
+      <c r="AJ3" s="23">
+        <v>18</v>
+      </c>
+      <c r="AK3" s="23">
+        <v>19</v>
+      </c>
+      <c r="AL3" s="23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14">
+        <f>IF(COUNTIF(S4:AL4,3)&gt;=2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="14">
+        <f t="array" ref="K4">IF(MAX(FREQUENCY(IF(S4:AL4&gt;0,COLUMN(S4:AL4)),IF(S4:AL4&lt;=0,COLUMN(S4:AL4))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="14"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="16">
+        <f>SUM(B4:G4)+3*SUM(H4:L4)+5*SUM(M4:P4)+SUM(S4:AL4)</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="16" t="str">
+        <f>CONCATENATE("-",IF(B4=1,$B$3&amp;", ",""),IF(C4=1,$C$3&amp;", ",""),IF(D4=1,$D$3&amp;", ",""),IF(E4=1,$E$3&amp;", ",""),IF(F4=1,$F$3&amp;", ",""),IF(G4=1,$G$3&amp;", ",""),IF(H4=1,$H$3&amp;", ",""),IF(I4=1,$I$3&amp;", ",""),IF(J4=1,$J$3&amp;", ",""),IF(K4=1,$K$3&amp;", ",""),IF(L4=1,$L$3&amp;", ",""),IF(M4=1,$M$3&amp;", ",""),IF(N4=1,$N$3&amp;", ",""),IF(O4=1,$O$3&amp;", ",""),IF(P4=1,$P$3&amp;", ",""))</f>
+        <v>-</v>
+      </c>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="17"/>
+      <c r="AI4" s="17"/>
+      <c r="AJ4" s="17"/>
+      <c r="AK4" s="17"/>
+      <c r="AL4" s="17"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
+        <v>2</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14">
+        <f>IF(COUNTIF(S5:AL5,3)&gt;=2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="14">
+        <f t="array" ref="K5">IF(MAX(FREQUENCY(IF(S5:AL5&gt;0,COLUMN(S5:AL5)),IF(S5:AL5&lt;=0,COLUMN(S5:AL5))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="14"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="16">
+        <f t="shared" ref="Q5:Q43" si="0">SUM(B5:G5)+3*SUM(H5:L5)+5*SUM(M5:P5)+SUM(S5:AL5)</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="16" t="str">
+        <f t="shared" ref="R5:R43" si="1">CONCATENATE("-",IF(B5=1,$B$3&amp;", ",""),IF(C5=1,$C$3&amp;", ",""),IF(D5=1,$D$3&amp;", ",""),IF(E5=1,$E$3&amp;", ",""),IF(F5=1,$F$3&amp;", ",""),IF(G5=1,$G$3&amp;", ",""),IF(H5=1,$H$3&amp;", ",""),IF(I5=1,$I$3&amp;", ",""),IF(J5=1,$J$3&amp;", ",""),IF(K5=1,$K$3&amp;", ",""),IF(L5=1,$L$3&amp;", ",""),IF(M5=1,$M$3&amp;", ",""),IF(N5=1,$N$3&amp;", ",""),IF(O5=1,$O$3&amp;", ",""),IF(P5=1,$P$3&amp;", ",""))</f>
+        <v>-</v>
+      </c>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="17"/>
+      <c r="AE5" s="17"/>
+      <c r="AF5" s="17"/>
+      <c r="AG5" s="17"/>
+      <c r="AH5" s="17"/>
+      <c r="AI5" s="17"/>
+      <c r="AJ5" s="17"/>
+      <c r="AK5" s="17"/>
+      <c r="AL5" s="17"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
+        <v>3</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14">
         <f t="shared" ref="J6:J43" si="2">IF(COUNTIF(S6:AL6,3)&gt;=2,1,0)</f>
@@ -938,7 +4727,7 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14">
         <f t="shared" si="2"/>
@@ -992,7 +4781,7 @@
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+      <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14">
         <f t="shared" si="2"/>
@@ -1046,7 +4835,7 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14">
         <f t="shared" si="2"/>
@@ -1100,7 +4889,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14">
         <f t="shared" si="2"/>
@@ -1154,7 +4943,7 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14">
         <f t="shared" si="2"/>
@@ -1208,7 +4997,7 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+      <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14">
         <f t="shared" si="2"/>
@@ -1262,7 +5051,7 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
+      <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14">
         <f t="shared" si="2"/>
@@ -1316,7 +5105,7 @@
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+      <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14">
         <f t="shared" si="2"/>
@@ -1370,7 +5159,7 @@
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
+      <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14">
         <f t="shared" si="2"/>
@@ -1424,7 +5213,7 @@
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+      <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14">
         <f t="shared" si="2"/>
@@ -1478,7 +5267,7 @@
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+      <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14">
         <f t="shared" si="2"/>
@@ -1532,7 +5321,7 @@
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+      <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14">
         <f t="shared" si="2"/>
@@ -1586,7 +5375,7 @@
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
+      <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14">
         <f t="shared" si="2"/>
@@ -1640,7 +5429,7 @@
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
+      <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14">
         <f t="shared" si="2"/>
@@ -1694,7 +5483,7 @@
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
+      <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14">
         <f t="shared" si="2"/>
@@ -1748,7 +5537,7 @@
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
+      <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14">
         <f t="shared" si="2"/>
@@ -1802,7 +5591,7 @@
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
+      <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14">
         <f t="shared" si="2"/>
@@ -1856,7 +5645,7 @@
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
+      <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14">
         <f t="shared" si="2"/>
@@ -1910,7 +5699,7 @@
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
+      <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14">
         <f t="shared" si="2"/>
@@ -1964,7 +5753,7 @@
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
+      <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14">
         <f t="shared" si="2"/>
@@ -2018,7 +5807,7 @@
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
+      <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14">
         <f t="shared" si="2"/>
@@ -2072,7 +5861,7 @@
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
+      <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14">
         <f t="shared" si="2"/>
@@ -2126,7 +5915,7 @@
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
+      <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14">
         <f t="shared" si="2"/>
@@ -2180,7 +5969,7 @@
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
+      <c r="H30" s="14"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14">
         <f t="shared" si="2"/>
@@ -2234,7 +6023,7 @@
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
+      <c r="H31" s="14"/>
       <c r="I31" s="14"/>
       <c r="J31" s="14">
         <f t="shared" si="2"/>
@@ -2288,7 +6077,7 @@
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
+      <c r="H32" s="14"/>
       <c r="I32" s="14"/>
       <c r="J32" s="14">
         <f t="shared" si="2"/>
@@ -2342,7 +6131,7 @@
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
+      <c r="H33" s="14"/>
       <c r="I33" s="14"/>
       <c r="J33" s="14">
         <f t="shared" si="2"/>
@@ -2396,7 +6185,7 @@
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
+      <c r="H34" s="14"/>
       <c r="I34" s="14"/>
       <c r="J34" s="14">
         <f t="shared" si="2"/>
@@ -2450,7 +6239,7 @@
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
+      <c r="H35" s="14"/>
       <c r="I35" s="14"/>
       <c r="J35" s="14">
         <f t="shared" si="2"/>
@@ -2504,7 +6293,7 @@
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
+      <c r="H36" s="14"/>
       <c r="I36" s="14"/>
       <c r="J36" s="14">
         <f t="shared" si="2"/>
@@ -2558,7 +6347,7 @@
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
+      <c r="H37" s="14"/>
       <c r="I37" s="14"/>
       <c r="J37" s="14">
         <f t="shared" si="2"/>
@@ -2612,7 +6401,7 @@
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
+      <c r="H38" s="14"/>
       <c r="I38" s="14"/>
       <c r="J38" s="14">
         <f t="shared" si="2"/>
@@ -2666,7 +6455,7 @@
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
+      <c r="H39" s="14"/>
       <c r="I39" s="14"/>
       <c r="J39" s="14">
         <f t="shared" si="2"/>
@@ -2720,7 +6509,7 @@
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
+      <c r="H40" s="14"/>
       <c r="I40" s="14"/>
       <c r="J40" s="14">
         <f t="shared" si="2"/>
@@ -2774,7 +6563,7 @@
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
+      <c r="H41" s="14"/>
       <c r="I41" s="14"/>
       <c r="J41" s="14">
         <f t="shared" si="2"/>
@@ -2828,7 +6617,7 @@
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
+      <c r="H42" s="14"/>
       <c r="I42" s="14"/>
       <c r="J42" s="14">
         <f t="shared" si="2"/>
@@ -2882,7 +6671,7 @@
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
+      <c r="H43" s="14"/>
       <c r="I43" s="14"/>
       <c r="J43" s="14">
         <f t="shared" si="2"/>
@@ -2938,12 +6727,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A52EDD0-1238-4494-B6B1-F62E260AFCC4}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D4A0D9-6E2F-42AC-B3E6-5121257CA31E}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2961,4106 +6750,561 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <f>'4E_data'!A4</f>
+        <f>'3NA_data'!A4</f>
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <f>'4E_data'!R4</f>
+        <f>'3NA_data'!R4</f>
         <v>-</v>
       </c>
       <c r="C2">
-        <f>'4E_data'!Q4</f>
+        <f>'3NA_data'!Q4</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <f>'4E_data'!A5</f>
+        <f>'3NA_data'!A5</f>
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <f>'4E_data'!R5</f>
+        <f>'3NA_data'!R5</f>
         <v>-</v>
       </c>
       <c r="C3">
-        <f>'4E_data'!Q5</f>
+        <f>'3NA_data'!Q5</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f>'4E_data'!A6</f>
+        <f>'3NA_data'!A6</f>
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <f>'4E_data'!R6</f>
+        <f>'3NA_data'!R6</f>
         <v>-</v>
       </c>
       <c r="C4">
-        <f>'4E_data'!Q6</f>
+        <f>'3NA_data'!Q6</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <f>'4E_data'!A7</f>
+        <f>'3NA_data'!A7</f>
         <v>4</v>
       </c>
       <c r="B5" t="str">
-        <f>'4E_data'!R7</f>
+        <f>'3NA_data'!R7</f>
         <v>-</v>
       </c>
       <c r="C5">
-        <f>'4E_data'!Q7</f>
+        <f>'3NA_data'!Q7</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <f>'4E_data'!A8</f>
+        <f>'3NA_data'!A8</f>
         <v>5</v>
       </c>
       <c r="B6" t="str">
-        <f>'4E_data'!R8</f>
+        <f>'3NA_data'!R8</f>
         <v>-</v>
       </c>
       <c r="C6">
-        <f>'4E_data'!Q8</f>
+        <f>'3NA_data'!Q8</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <f>'4E_data'!A9</f>
+        <f>'3NA_data'!A9</f>
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <f>'4E_data'!R9</f>
+        <f>'3NA_data'!R9</f>
         <v>-</v>
       </c>
       <c r="C7">
-        <f>'4E_data'!Q9</f>
+        <f>'3NA_data'!Q9</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <f>'4E_data'!A10</f>
+        <f>'3NA_data'!A10</f>
         <v>7</v>
       </c>
       <c r="B8" t="str">
-        <f>'4E_data'!R10</f>
+        <f>'3NA_data'!R10</f>
         <v>-</v>
       </c>
       <c r="C8">
-        <f>'4E_data'!Q10</f>
+        <f>'3NA_data'!Q10</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <f>'4E_data'!A11</f>
+        <f>'3NA_data'!A11</f>
         <v>8</v>
       </c>
       <c r="B9" t="str">
-        <f>'4E_data'!R11</f>
+        <f>'3NA_data'!R11</f>
         <v>-</v>
       </c>
       <c r="C9">
-        <f>'4E_data'!Q11</f>
+        <f>'3NA_data'!Q11</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <f>'4E_data'!A12</f>
+        <f>'3NA_data'!A12</f>
         <v>9</v>
       </c>
       <c r="B10" t="str">
-        <f>'4E_data'!R12</f>
+        <f>'3NA_data'!R12</f>
         <v>-</v>
       </c>
       <c r="C10">
-        <f>'4E_data'!Q12</f>
+        <f>'3NA_data'!Q12</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <f>'4E_data'!A13</f>
+        <f>'3NA_data'!A13</f>
         <v>10</v>
       </c>
       <c r="B11" t="str">
-        <f>'4E_data'!R13</f>
+        <f>'3NA_data'!R13</f>
         <v>-</v>
       </c>
       <c r="C11">
-        <f>'4E_data'!Q13</f>
+        <f>'3NA_data'!Q13</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <f>'4E_data'!A14</f>
+        <f>'3NA_data'!A14</f>
         <v>11</v>
       </c>
       <c r="B12" t="str">
-        <f>'4E_data'!R14</f>
+        <f>'3NA_data'!R14</f>
         <v>-</v>
       </c>
       <c r="C12">
-        <f>'4E_data'!Q14</f>
+        <f>'3NA_data'!Q14</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <f>'4E_data'!A15</f>
+        <f>'3NA_data'!A15</f>
         <v>12</v>
       </c>
       <c r="B13" t="str">
-        <f>'4E_data'!R15</f>
+        <f>'3NA_data'!R15</f>
         <v>-</v>
       </c>
       <c r="C13">
-        <f>'4E_data'!Q15</f>
+        <f>'3NA_data'!Q15</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <f>'4E_data'!A16</f>
+        <f>'3NA_data'!A16</f>
         <v>13</v>
       </c>
       <c r="B14" t="str">
-        <f>'4E_data'!R16</f>
+        <f>'3NA_data'!R16</f>
         <v>-</v>
       </c>
       <c r="C14">
-        <f>'4E_data'!Q16</f>
+        <f>'3NA_data'!Q16</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
-        <f>'4E_data'!A17</f>
+        <f>'3NA_data'!A17</f>
         <v>14</v>
       </c>
       <c r="B15" t="str">
-        <f>'4E_data'!R17</f>
+        <f>'3NA_data'!R17</f>
         <v>-</v>
       </c>
       <c r="C15">
-        <f>'4E_data'!Q17</f>
+        <f>'3NA_data'!Q17</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
-        <f>'4E_data'!A18</f>
+        <f>'3NA_data'!A18</f>
         <v>15</v>
       </c>
       <c r="B16" t="str">
-        <f>'4E_data'!R18</f>
+        <f>'3NA_data'!R18</f>
         <v>-</v>
       </c>
       <c r="C16">
-        <f>'4E_data'!Q18</f>
+        <f>'3NA_data'!Q18</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
-        <f>'4E_data'!A19</f>
+        <f>'3NA_data'!A19</f>
         <v>16</v>
       </c>
       <c r="B17" t="str">
-        <f>'4E_data'!R19</f>
+        <f>'3NA_data'!R19</f>
         <v>-</v>
       </c>
       <c r="C17">
-        <f>'4E_data'!Q19</f>
+        <f>'3NA_data'!Q19</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
-        <f>'4E_data'!A20</f>
+        <f>'3NA_data'!A20</f>
         <v>17</v>
       </c>
       <c r="B18" t="str">
-        <f>'4E_data'!R20</f>
+        <f>'3NA_data'!R20</f>
         <v>-</v>
       </c>
       <c r="C18">
-        <f>'4E_data'!Q20</f>
+        <f>'3NA_data'!Q20</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
-        <f>'4E_data'!A21</f>
+        <f>'3NA_data'!A21</f>
         <v>18</v>
       </c>
       <c r="B19" t="str">
-        <f>'4E_data'!R21</f>
+        <f>'3NA_data'!R21</f>
         <v>-</v>
       </c>
       <c r="C19">
-        <f>'4E_data'!Q21</f>
+        <f>'3NA_data'!Q21</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
-        <f>'4E_data'!A22</f>
+        <f>'3NA_data'!A22</f>
         <v>19</v>
       </c>
       <c r="B20" t="str">
-        <f>'4E_data'!R22</f>
+        <f>'3NA_data'!R22</f>
         <v>-</v>
       </c>
       <c r="C20">
-        <f>'4E_data'!Q22</f>
+        <f>'3NA_data'!Q22</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
-        <f>'4E_data'!A23</f>
+        <f>'3NA_data'!A23</f>
         <v>20</v>
       </c>
       <c r="B21" t="str">
-        <f>'4E_data'!R23</f>
+        <f>'3NA_data'!R23</f>
         <v>-</v>
       </c>
       <c r="C21">
-        <f>'4E_data'!Q23</f>
+        <f>'3NA_data'!Q23</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
-        <f>'4E_data'!A24</f>
+        <f>'3NA_data'!A24</f>
         <v>21</v>
       </c>
       <c r="B22" t="str">
-        <f>'4E_data'!R24</f>
+        <f>'3NA_data'!R24</f>
         <v>-</v>
       </c>
       <c r="C22">
-        <f>'4E_data'!Q24</f>
+        <f>'3NA_data'!Q24</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
-        <f>'4E_data'!A25</f>
+        <f>'3NA_data'!A25</f>
         <v>22</v>
       </c>
       <c r="B23" t="str">
-        <f>'4E_data'!R25</f>
+        <f>'3NA_data'!R25</f>
         <v>-</v>
       </c>
       <c r="C23">
-        <f>'4E_data'!Q25</f>
+        <f>'3NA_data'!Q25</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
-        <f>'4E_data'!A26</f>
+        <f>'3NA_data'!A26</f>
         <v>23</v>
       </c>
       <c r="B24" t="str">
-        <f>'4E_data'!R26</f>
+        <f>'3NA_data'!R26</f>
         <v>-</v>
       </c>
       <c r="C24">
-        <f>'4E_data'!Q26</f>
+        <f>'3NA_data'!Q26</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
-        <f>'4E_data'!A27</f>
+        <f>'3NA_data'!A27</f>
         <v>24</v>
       </c>
       <c r="B25" t="str">
-        <f>'4E_data'!R27</f>
+        <f>'3NA_data'!R27</f>
         <v>-</v>
       </c>
       <c r="C25">
-        <f>'4E_data'!Q27</f>
+        <f>'3NA_data'!Q27</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
-        <f>'4E_data'!A28</f>
+        <f>'3NA_data'!A28</f>
         <v>25</v>
       </c>
       <c r="B26" t="str">
-        <f>'4E_data'!R28</f>
+        <f>'3NA_data'!R28</f>
         <v>-</v>
       </c>
       <c r="C26">
-        <f>'4E_data'!Q28</f>
+        <f>'3NA_data'!Q28</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
-        <f>'4E_data'!A29</f>
+        <f>'3NA_data'!A29</f>
         <v>26</v>
       </c>
       <c r="B27" t="str">
-        <f>'4E_data'!R29</f>
+        <f>'3NA_data'!R29</f>
         <v>-</v>
       </c>
       <c r="C27">
-        <f>'4E_data'!Q29</f>
+        <f>'3NA_data'!Q29</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
-        <f>'4E_data'!A30</f>
+        <f>'3NA_data'!A30</f>
         <v>27</v>
       </c>
       <c r="B28" t="str">
-        <f>'4E_data'!R30</f>
+        <f>'3NA_data'!R30</f>
         <v>-</v>
       </c>
       <c r="C28">
-        <f>'4E_data'!Q30</f>
+        <f>'3NA_data'!Q30</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
-        <f>'4E_data'!A31</f>
+        <f>'3NA_data'!A31</f>
         <v>28</v>
       </c>
       <c r="B29" t="str">
-        <f>'4E_data'!R31</f>
+        <f>'3NA_data'!R31</f>
         <v>-</v>
       </c>
       <c r="C29">
-        <f>'4E_data'!Q31</f>
+        <f>'3NA_data'!Q31</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
-        <f>'4E_data'!A32</f>
+        <f>'3NA_data'!A32</f>
         <v>29</v>
       </c>
       <c r="B30" t="str">
-        <f>'4E_data'!R32</f>
+        <f>'3NA_data'!R32</f>
         <v>-</v>
       </c>
       <c r="C30">
-        <f>'4E_data'!Q32</f>
+        <f>'3NA_data'!Q32</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
-        <f>'4E_data'!A33</f>
+        <f>'3NA_data'!A33</f>
         <v>30</v>
       </c>
       <c r="B31" t="str">
-        <f>'4E_data'!R33</f>
+        <f>'3NA_data'!R33</f>
         <v>-</v>
       </c>
       <c r="C31">
-        <f>'4E_data'!Q33</f>
+        <f>'3NA_data'!Q33</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
-        <f>'4E_data'!A34</f>
+        <f>'3NA_data'!A34</f>
         <v>31</v>
       </c>
       <c r="B32" t="str">
-        <f>'4E_data'!R34</f>
+        <f>'3NA_data'!R34</f>
         <v>-</v>
       </c>
       <c r="C32">
-        <f>'4E_data'!Q34</f>
+        <f>'3NA_data'!Q34</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
-        <f>'4E_data'!A35</f>
+        <f>'3NA_data'!A35</f>
         <v>32</v>
       </c>
       <c r="B33" t="str">
-        <f>'4E_data'!R35</f>
+        <f>'3NA_data'!R35</f>
         <v>-</v>
       </c>
       <c r="C33">
-        <f>'4E_data'!Q35</f>
+        <f>'3NA_data'!Q35</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
-        <f>'4E_data'!A36</f>
+        <f>'3NA_data'!A36</f>
         <v>33</v>
       </c>
       <c r="B34" t="str">
-        <f>'4E_data'!R36</f>
+        <f>'3NA_data'!R36</f>
         <v>-</v>
       </c>
       <c r="C34">
-        <f>'4E_data'!Q36</f>
+        <f>'3NA_data'!Q36</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
-        <f>'4E_data'!A37</f>
+        <f>'3NA_data'!A37</f>
         <v>34</v>
       </c>
       <c r="B35" t="str">
-        <f>'4E_data'!R37</f>
+        <f>'3NA_data'!R37</f>
         <v>-</v>
       </c>
       <c r="C35">
-        <f>'4E_data'!Q37</f>
+        <f>'3NA_data'!Q37</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
-        <f>'4E_data'!A38</f>
+        <f>'3NA_data'!A38</f>
         <v>35</v>
       </c>
       <c r="B36" t="str">
-        <f>'4E_data'!R38</f>
+        <f>'3NA_data'!R38</f>
         <v>-</v>
       </c>
       <c r="C36">
-        <f>'4E_data'!Q38</f>
+        <f>'3NA_data'!Q38</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
-        <f>'4E_data'!A39</f>
+        <f>'3NA_data'!A39</f>
         <v>36</v>
       </c>
       <c r="B37" t="str">
-        <f>'4E_data'!R39</f>
+        <f>'3NA_data'!R39</f>
         <v>-</v>
       </c>
       <c r="C37">
-        <f>'4E_data'!Q39</f>
+        <f>'3NA_data'!Q39</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
-        <f>'4E_data'!A40</f>
+        <f>'3NA_data'!A40</f>
         <v>37</v>
       </c>
       <c r="B38" t="str">
-        <f>'4E_data'!R40</f>
+        <f>'3NA_data'!R40</f>
         <v>-</v>
       </c>
       <c r="C38">
-        <f>'4E_data'!Q40</f>
+        <f>'3NA_data'!Q40</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
-        <f>'4E_data'!A41</f>
+        <f>'3NA_data'!A41</f>
         <v>38</v>
       </c>
       <c r="B39" t="str">
-        <f>'4E_data'!R41</f>
+        <f>'3NA_data'!R41</f>
         <v>-</v>
       </c>
       <c r="C39">
-        <f>'4E_data'!Q41</f>
+        <f>'3NA_data'!Q41</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
-        <f>'4E_data'!A42</f>
+        <f>'3NA_data'!A42</f>
         <v>39</v>
       </c>
       <c r="B40" t="str">
-        <f>'4E_data'!R42</f>
+        <f>'3NA_data'!R42</f>
         <v>-</v>
       </c>
       <c r="C40">
-        <f>'4E_data'!Q42</f>
+        <f>'3NA_data'!Q42</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
-        <f>'4E_data'!A43</f>
+        <f>'3NA_data'!A43</f>
         <v>40</v>
       </c>
       <c r="B41" t="str">
-        <f>'4E_data'!R43</f>
+        <f>'3NA_data'!R43</f>
         <v>-</v>
       </c>
       <c r="C41">
-        <f>'4E_data'!Q43</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10534E12-96AC-44F1-9431-EFE9F0397466}">
-  <dimension ref="A1:C41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <f>'4A_data'!A4</f>
-        <v>1</v>
-      </c>
-      <c r="B2" t="str">
-        <f>'4A_data'!R4</f>
-        <v>-</v>
-      </c>
-      <c r="C2">
-        <f>'4A_data'!Q4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <f>'4A_data'!A5</f>
-        <v>2</v>
-      </c>
-      <c r="B3" t="str">
-        <f>'4A_data'!R5</f>
-        <v>-</v>
-      </c>
-      <c r="C3">
-        <f>'4A_data'!Q5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <f>'4A_data'!A6</f>
-        <v>3</v>
-      </c>
-      <c r="B4" t="str">
-        <f>'4A_data'!R6</f>
-        <v>-</v>
-      </c>
-      <c r="C4">
-        <f>'4A_data'!Q6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <f>'4A_data'!A7</f>
-        <v>4</v>
-      </c>
-      <c r="B5" t="str">
-        <f>'4A_data'!R7</f>
-        <v>-</v>
-      </c>
-      <c r="C5">
-        <f>'4A_data'!Q7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <f>'4A_data'!A8</f>
-        <v>5</v>
-      </c>
-      <c r="B6" t="str">
-        <f>'4A_data'!R8</f>
-        <v>-</v>
-      </c>
-      <c r="C6">
-        <f>'4A_data'!Q8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <f>'4A_data'!A9</f>
-        <v>6</v>
-      </c>
-      <c r="B7" t="str">
-        <f>'4A_data'!R9</f>
-        <v>-</v>
-      </c>
-      <c r="C7">
-        <f>'4A_data'!Q9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <f>'4A_data'!A10</f>
-        <v>7</v>
-      </c>
-      <c r="B8" t="str">
-        <f>'4A_data'!R10</f>
-        <v>-</v>
-      </c>
-      <c r="C8">
-        <f>'4A_data'!Q10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <f>'4A_data'!A11</f>
-        <v>8</v>
-      </c>
-      <c r="B9" t="str">
-        <f>'4A_data'!R11</f>
-        <v>-</v>
-      </c>
-      <c r="C9">
-        <f>'4A_data'!Q11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <f>'4A_data'!A12</f>
-        <v>9</v>
-      </c>
-      <c r="B10" t="str">
-        <f>'4A_data'!R12</f>
-        <v>-</v>
-      </c>
-      <c r="C10">
-        <f>'4A_data'!Q12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <f>'4A_data'!A13</f>
-        <v>10</v>
-      </c>
-      <c r="B11" t="str">
-        <f>'4A_data'!R13</f>
-        <v>-</v>
-      </c>
-      <c r="C11">
-        <f>'4A_data'!Q13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <f>'4A_data'!A14</f>
-        <v>11</v>
-      </c>
-      <c r="B12" t="str">
-        <f>'4A_data'!R14</f>
-        <v>-</v>
-      </c>
-      <c r="C12">
-        <f>'4A_data'!Q14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <f>'4A_data'!A15</f>
-        <v>12</v>
-      </c>
-      <c r="B13" t="str">
-        <f>'4A_data'!R15</f>
-        <v>-</v>
-      </c>
-      <c r="C13">
-        <f>'4A_data'!Q15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <f>'4A_data'!A16</f>
-        <v>13</v>
-      </c>
-      <c r="B14" t="str">
-        <f>'4A_data'!R16</f>
-        <v>-</v>
-      </c>
-      <c r="C14">
-        <f>'4A_data'!Q16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <f>'4A_data'!A17</f>
-        <v>14</v>
-      </c>
-      <c r="B15" t="str">
-        <f>'4A_data'!R17</f>
-        <v>-</v>
-      </c>
-      <c r="C15">
-        <f>'4A_data'!Q17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <f>'4A_data'!A18</f>
-        <v>15</v>
-      </c>
-      <c r="B16" t="str">
-        <f>'4A_data'!R18</f>
-        <v>-</v>
-      </c>
-      <c r="C16">
-        <f>'4A_data'!Q18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <f>'4A_data'!A19</f>
-        <v>16</v>
-      </c>
-      <c r="B17" t="str">
-        <f>'4A_data'!R19</f>
-        <v>-</v>
-      </c>
-      <c r="C17">
-        <f>'4A_data'!Q19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <f>'4A_data'!A20</f>
-        <v>17</v>
-      </c>
-      <c r="B18" t="str">
-        <f>'4A_data'!R20</f>
-        <v>-</v>
-      </c>
-      <c r="C18">
-        <f>'4A_data'!Q20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <f>'4A_data'!A21</f>
-        <v>18</v>
-      </c>
-      <c r="B19" t="str">
-        <f>'4A_data'!R21</f>
-        <v>-</v>
-      </c>
-      <c r="C19">
-        <f>'4A_data'!Q21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <f>'4A_data'!A22</f>
-        <v>19</v>
-      </c>
-      <c r="B20" t="str">
-        <f>'4A_data'!R22</f>
-        <v>-</v>
-      </c>
-      <c r="C20">
-        <f>'4A_data'!Q22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <f>'4A_data'!A23</f>
-        <v>20</v>
-      </c>
-      <c r="B21" t="str">
-        <f>'4A_data'!R23</f>
-        <v>-</v>
-      </c>
-      <c r="C21">
-        <f>'4A_data'!Q23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <f>'4A_data'!A24</f>
-        <v>21</v>
-      </c>
-      <c r="B22" t="str">
-        <f>'4A_data'!R24</f>
-        <v>-</v>
-      </c>
-      <c r="C22">
-        <f>'4A_data'!Q24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <f>'4A_data'!A25</f>
-        <v>22</v>
-      </c>
-      <c r="B23" t="str">
-        <f>'4A_data'!R25</f>
-        <v>-</v>
-      </c>
-      <c r="C23">
-        <f>'4A_data'!Q25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <f>'4A_data'!A26</f>
-        <v>23</v>
-      </c>
-      <c r="B24" t="str">
-        <f>'4A_data'!R26</f>
-        <v>-</v>
-      </c>
-      <c r="C24">
-        <f>'4A_data'!Q26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <f>'4A_data'!A27</f>
-        <v>24</v>
-      </c>
-      <c r="B25" t="str">
-        <f>'4A_data'!R27</f>
-        <v>-</v>
-      </c>
-      <c r="C25">
-        <f>'4A_data'!Q27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <f>'4A_data'!A28</f>
-        <v>25</v>
-      </c>
-      <c r="B26" t="str">
-        <f>'4A_data'!R28</f>
-        <v>-</v>
-      </c>
-      <c r="C26">
-        <f>'4A_data'!Q28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <f>'4A_data'!A29</f>
-        <v>26</v>
-      </c>
-      <c r="B27" t="str">
-        <f>'4A_data'!R29</f>
-        <v>-</v>
-      </c>
-      <c r="C27">
-        <f>'4A_data'!Q29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <f>'4A_data'!A30</f>
-        <v>27</v>
-      </c>
-      <c r="B28" t="str">
-        <f>'4A_data'!R30</f>
-        <v>-</v>
-      </c>
-      <c r="C28">
-        <f>'4A_data'!Q30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <f>'4A_data'!A31</f>
-        <v>28</v>
-      </c>
-      <c r="B29" t="str">
-        <f>'4A_data'!R31</f>
-        <v>-</v>
-      </c>
-      <c r="C29">
-        <f>'4A_data'!Q31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <f>'4A_data'!A32</f>
-        <v>29</v>
-      </c>
-      <c r="B30" t="str">
-        <f>'4A_data'!R32</f>
-        <v>-</v>
-      </c>
-      <c r="C30">
-        <f>'4A_data'!Q32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <f>'4A_data'!A33</f>
-        <v>30</v>
-      </c>
-      <c r="B31" t="str">
-        <f>'4A_data'!R33</f>
-        <v>-</v>
-      </c>
-      <c r="C31">
-        <f>'4A_data'!Q33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <f>'4A_data'!A34</f>
-        <v>31</v>
-      </c>
-      <c r="B32" t="str">
-        <f>'4A_data'!R34</f>
-        <v>-</v>
-      </c>
-      <c r="C32">
-        <f>'4A_data'!Q34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <f>'4A_data'!A35</f>
-        <v>32</v>
-      </c>
-      <c r="B33" t="str">
-        <f>'4A_data'!R35</f>
-        <v>-</v>
-      </c>
-      <c r="C33">
-        <f>'4A_data'!Q35</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <f>'4A_data'!A36</f>
-        <v>33</v>
-      </c>
-      <c r="B34" t="str">
-        <f>'4A_data'!R36</f>
-        <v>-</v>
-      </c>
-      <c r="C34">
-        <f>'4A_data'!Q36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <f>'4A_data'!A37</f>
-        <v>34</v>
-      </c>
-      <c r="B35" t="str">
-        <f>'4A_data'!R37</f>
-        <v>-</v>
-      </c>
-      <c r="C35">
-        <f>'4A_data'!Q37</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <f>'4A_data'!A38</f>
-        <v>35</v>
-      </c>
-      <c r="B36" t="str">
-        <f>'4A_data'!R38</f>
-        <v>-</v>
-      </c>
-      <c r="C36">
-        <f>'4A_data'!Q38</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <f>'4A_data'!A39</f>
-        <v>36</v>
-      </c>
-      <c r="B37" t="str">
-        <f>'4A_data'!R39</f>
-        <v>-</v>
-      </c>
-      <c r="C37">
-        <f>'4A_data'!Q39</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <f>'4A_data'!A40</f>
-        <v>37</v>
-      </c>
-      <c r="B38" t="str">
-        <f>'4A_data'!R40</f>
-        <v>-</v>
-      </c>
-      <c r="C38">
-        <f>'4A_data'!Q40</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <f>'4A_data'!A41</f>
-        <v>38</v>
-      </c>
-      <c r="B39" t="str">
-        <f>'4A_data'!R41</f>
-        <v>-</v>
-      </c>
-      <c r="C39">
-        <f>'4A_data'!Q41</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <f>'4A_data'!A42</f>
-        <v>39</v>
-      </c>
-      <c r="B40" t="str">
-        <f>'4A_data'!R42</f>
-        <v>-</v>
-      </c>
-      <c r="C40">
-        <f>'4A_data'!Q42</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <f>'4A_data'!A43</f>
-        <v>40</v>
-      </c>
-      <c r="B41" t="str">
-        <f>'4A_data'!R43</f>
-        <v>-</v>
-      </c>
-      <c r="C41">
-        <f>'4A_data'!Q43</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A2BDAFE-D7DA-4F7A-977C-CD8AB5364EE7}">
-  <dimension ref="A1:AL43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection activeCell="N16" sqref="N16"/>
-      <selection pane="topRight" activeCell="R15" sqref="R15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.21875" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.21875" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.21875" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.44140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.88671875" style="9"/>
-    <col min="20" max="37" width="8.88671875" style="10"/>
-    <col min="38" max="38" width="8.88671875" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="S2" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q3" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="R3" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" s="23">
-        <v>1</v>
-      </c>
-      <c r="T3" s="23">
-        <v>2</v>
-      </c>
-      <c r="U3" s="23">
-        <v>3</v>
-      </c>
-      <c r="V3" s="23">
-        <v>4</v>
-      </c>
-      <c r="W3" s="23">
-        <v>5</v>
-      </c>
-      <c r="X3" s="23">
-        <v>6</v>
-      </c>
-      <c r="Y3" s="23">
-        <v>7</v>
-      </c>
-      <c r="Z3" s="23">
-        <v>8</v>
-      </c>
-      <c r="AA3" s="23">
-        <v>9</v>
-      </c>
-      <c r="AB3" s="23">
-        <v>10</v>
-      </c>
-      <c r="AC3" s="23">
-        <v>11</v>
-      </c>
-      <c r="AD3" s="23">
-        <v>12</v>
-      </c>
-      <c r="AE3" s="23">
-        <v>13</v>
-      </c>
-      <c r="AF3" s="23">
-        <v>14</v>
-      </c>
-      <c r="AG3" s="23">
-        <v>15</v>
-      </c>
-      <c r="AH3" s="23">
-        <v>16</v>
-      </c>
-      <c r="AI3" s="23">
-        <v>17</v>
-      </c>
-      <c r="AJ3" s="23">
-        <v>18</v>
-      </c>
-      <c r="AK3" s="23">
-        <v>19</v>
-      </c>
-      <c r="AL3" s="23">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14">
-        <f>IF(COUNTIF(S4:AL4,3)&gt;=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="14">
-        <f t="array" ref="K4">IF(MAX(FREQUENCY(IF(S4:AL4&gt;0,COLUMN(S4:AL4)),IF(S4:AL4&lt;=0,COLUMN(S4:AL4))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="14"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="16">
-        <f>SUM(B4:H4)+3*SUM(I4:L4)+5*SUM(M4:P4)+SUM(S4:AL4)</f>
-        <v>0</v>
-      </c>
-      <c r="R4" s="16" t="str">
-        <f>CONCATENATE("-",IF(B4=1,$B$3&amp;", ",""),IF(C4=1,$C$3&amp;", ",""),IF(D4=1,$D$3&amp;", ",""),IF(E4=1,$E$3&amp;", ",""),IF(F4=1,$F$3&amp;", ",""),IF(G4=1,$G$3&amp;", ",""),IF(H4=1,$H$3&amp;", ",""),IF(I4=1,$I$3&amp;", ",""),IF(J4=1,$J$3&amp;", ",""),IF(K4=1,$K$3&amp;", ",""),IF(L4=1,$L$3&amp;", ",""),IF(M4=1,$M$3&amp;", ",""),IF(N4=1,$N$3&amp;", ",""),IF(O4=1,$O$3&amp;", ",""),IF(P4=1,$P$3&amp;", ",""))</f>
-        <v>-</v>
-      </c>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17"/>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="17"/>
-      <c r="AG4" s="17"/>
-      <c r="AH4" s="17"/>
-      <c r="AI4" s="17"/>
-      <c r="AJ4" s="17"/>
-      <c r="AK4" s="17"/>
-      <c r="AL4" s="17"/>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
-        <v>2</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14">
-        <f>IF(COUNTIF(S5:AL5,3)&gt;=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="14">
-        <f t="array" ref="K5">IF(MAX(FREQUENCY(IF(S5:AL5&gt;0,COLUMN(S5:AL5)),IF(S5:AL5&lt;=0,COLUMN(S5:AL5))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="14"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="16">
-        <f t="shared" ref="Q5:Q43" si="0">SUM(B5:H5)+3*SUM(I5:L5)+5*SUM(M5:P5)+SUM(S5:AL5)</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="16" t="str">
-        <f t="shared" ref="R5:R43" si="1">CONCATENATE("-",IF(B5=1,$B$3&amp;", ",""),IF(C5=1,$C$3&amp;", ",""),IF(D5=1,$D$3&amp;", ",""),IF(E5=1,$E$3&amp;", ",""),IF(F5=1,$F$3&amp;", ",""),IF(G5=1,$G$3&amp;", ",""),IF(H5=1,$H$3&amp;", ",""),IF(I5=1,$I$3&amp;", ",""),IF(J5=1,$J$3&amp;", ",""),IF(K5=1,$K$3&amp;", ",""),IF(L5=1,$L$3&amp;", ",""),IF(M5=1,$M$3&amp;", ",""),IF(N5=1,$N$3&amp;", ",""),IF(O5=1,$O$3&amp;", ",""),IF(P5=1,$P$3&amp;", ",""))</f>
-        <v>-</v>
-      </c>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="17"/>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="17"/>
-      <c r="AG5" s="17"/>
-      <c r="AH5" s="17"/>
-      <c r="AI5" s="17"/>
-      <c r="AJ5" s="17"/>
-      <c r="AK5" s="17"/>
-      <c r="AL5" s="17"/>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
-        <v>3</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14">
-        <f t="shared" ref="J6:J43" si="2">IF(COUNTIF(S6:AL6,3)&gt;=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="14">
-        <f t="array" ref="K6">IF(MAX(FREQUENCY(IF(S6:AL6&gt;0,COLUMN(S6:AL6)),IF(S6:AL6&lt;=0,COLUMN(S6:AL6))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="14"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="17"/>
-      <c r="AE6" s="17"/>
-      <c r="AF6" s="17"/>
-      <c r="AG6" s="17"/>
-      <c r="AH6" s="17"/>
-      <c r="AI6" s="17"/>
-      <c r="AJ6" s="17"/>
-      <c r="AK6" s="17"/>
-      <c r="AL6" s="17"/>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
-        <v>4</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="14">
-        <f t="array" ref="K7">IF(MAX(FREQUENCY(IF(S7:AL7&gt;0,COLUMN(S7:AL7)),IF(S7:AL7&lt;=0,COLUMN(S7:AL7))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="14"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="17"/>
-      <c r="AF7" s="17"/>
-      <c r="AG7" s="17"/>
-      <c r="AH7" s="17"/>
-      <c r="AI7" s="17"/>
-      <c r="AJ7" s="17"/>
-      <c r="AK7" s="17"/>
-      <c r="AL7" s="17"/>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
-        <v>5</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="14">
-        <f t="array" ref="K8">IF(MAX(FREQUENCY(IF(S8:AL8&gt;0,COLUMN(S8:AL8)),IF(S8:AL8&lt;=0,COLUMN(S8:AL8))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="17"/>
-      <c r="AC8" s="17"/>
-      <c r="AD8" s="17"/>
-      <c r="AE8" s="17"/>
-      <c r="AF8" s="17"/>
-      <c r="AG8" s="17"/>
-      <c r="AH8" s="17"/>
-      <c r="AI8" s="17"/>
-      <c r="AJ8" s="17"/>
-      <c r="AK8" s="17"/>
-      <c r="AL8" s="17"/>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
-        <v>6</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="14">
-        <f t="array" ref="K9">IF(MAX(FREQUENCY(IF(S9:AL9&gt;0,COLUMN(S9:AL9)),IF(S9:AL9&lt;=0,COLUMN(S9:AL9))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="14"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="17"/>
-      <c r="AD9" s="17"/>
-      <c r="AE9" s="17"/>
-      <c r="AF9" s="17"/>
-      <c r="AG9" s="17"/>
-      <c r="AH9" s="17"/>
-      <c r="AI9" s="17"/>
-      <c r="AJ9" s="17"/>
-      <c r="AK9" s="17"/>
-      <c r="AL9" s="17"/>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
-        <v>7</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="14">
-        <f t="array" ref="K10">IF(MAX(FREQUENCY(IF(S10:AL10&gt;0,COLUMN(S10:AL10)),IF(S10:AL10&lt;=0,COLUMN(S10:AL10))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="14"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="17"/>
-      <c r="AF10" s="17"/>
-      <c r="AG10" s="17"/>
-      <c r="AH10" s="17"/>
-      <c r="AI10" s="17"/>
-      <c r="AJ10" s="17"/>
-      <c r="AK10" s="17"/>
-      <c r="AL10" s="17"/>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
-        <v>8</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="14">
-        <f t="array" ref="K11">IF(MAX(FREQUENCY(IF(S11:AL11&gt;0,COLUMN(S11:AL11)),IF(S11:AL11&lt;=0,COLUMN(S11:AL11))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="14"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="17"/>
-      <c r="AF11" s="17"/>
-      <c r="AG11" s="17"/>
-      <c r="AH11" s="17"/>
-      <c r="AI11" s="17"/>
-      <c r="AJ11" s="17"/>
-      <c r="AK11" s="17"/>
-      <c r="AL11" s="17"/>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
-        <v>9</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="14">
-        <f t="array" ref="K12">IF(MAX(FREQUENCY(IF(S12:AL12&gt;0,COLUMN(S12:AL12)),IF(S12:AL12&lt;=0,COLUMN(S12:AL12))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="14"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="17"/>
-      <c r="AD12" s="17"/>
-      <c r="AE12" s="17"/>
-      <c r="AF12" s="17"/>
-      <c r="AG12" s="17"/>
-      <c r="AH12" s="17"/>
-      <c r="AI12" s="17"/>
-      <c r="AJ12" s="17"/>
-      <c r="AK12" s="17"/>
-      <c r="AL12" s="17"/>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
-        <v>10</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="14">
-        <f t="array" ref="K13">IF(MAX(FREQUENCY(IF(S13:AL13&gt;0,COLUMN(S13:AL13)),IF(S13:AL13&lt;=0,COLUMN(S13:AL13))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="14"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="17"/>
-      <c r="AI13" s="17"/>
-      <c r="AJ13" s="17"/>
-      <c r="AK13" s="17"/>
-      <c r="AL13" s="17"/>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
-        <v>11</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="14">
-        <f t="array" ref="K14">IF(MAX(FREQUENCY(IF(S14:AL14&gt;0,COLUMN(S14:AL14)),IF(S14:AL14&lt;=0,COLUMN(S14:AL14))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="14"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="17"/>
-      <c r="AC14" s="17"/>
-      <c r="AD14" s="17"/>
-      <c r="AE14" s="17"/>
-      <c r="AF14" s="17"/>
-      <c r="AG14" s="17"/>
-      <c r="AH14" s="17"/>
-      <c r="AI14" s="17"/>
-      <c r="AJ14" s="17"/>
-      <c r="AK14" s="17"/>
-      <c r="AL14" s="17"/>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
-        <v>12</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="14">
-        <f t="array" ref="K15">IF(MAX(FREQUENCY(IF(S15:AL15&gt;0,COLUMN(S15:AL15)),IF(S15:AL15&lt;=0,COLUMN(S15:AL15))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="14"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="17"/>
-      <c r="AB15" s="17"/>
-      <c r="AC15" s="17"/>
-      <c r="AD15" s="17"/>
-      <c r="AE15" s="17"/>
-      <c r="AF15" s="17"/>
-      <c r="AG15" s="17"/>
-      <c r="AH15" s="17"/>
-      <c r="AI15" s="17"/>
-      <c r="AJ15" s="17"/>
-      <c r="AK15" s="17"/>
-      <c r="AL15" s="17"/>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
-        <v>13</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="14">
-        <f t="array" ref="K16">IF(MAX(FREQUENCY(IF(S16:AL16&gt;0,COLUMN(S16:AL16)),IF(S16:AL16&lt;=0,COLUMN(S16:AL16))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="14"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="17"/>
-      <c r="AA16" s="17"/>
-      <c r="AB16" s="17"/>
-      <c r="AC16" s="17"/>
-      <c r="AD16" s="17"/>
-      <c r="AE16" s="17"/>
-      <c r="AF16" s="17"/>
-      <c r="AG16" s="17"/>
-      <c r="AH16" s="17"/>
-      <c r="AI16" s="17"/>
-      <c r="AJ16" s="17"/>
-      <c r="AK16" s="17"/>
-      <c r="AL16" s="17"/>
-    </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
-        <v>14</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="14">
-        <f t="array" ref="K17">IF(MAX(FREQUENCY(IF(S17:AL17&gt;0,COLUMN(S17:AL17)),IF(S17:AL17&lt;=0,COLUMN(S17:AL17))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="14"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="17"/>
-      <c r="AB17" s="17"/>
-      <c r="AC17" s="17"/>
-      <c r="AD17" s="17"/>
-      <c r="AE17" s="17"/>
-      <c r="AF17" s="17"/>
-      <c r="AG17" s="17"/>
-      <c r="AH17" s="17"/>
-      <c r="AI17" s="17"/>
-      <c r="AJ17" s="17"/>
-      <c r="AK17" s="17"/>
-      <c r="AL17" s="17"/>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
-        <v>15</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="14">
-        <f t="array" ref="K18">IF(MAX(FREQUENCY(IF(S18:AL18&gt;0,COLUMN(S18:AL18)),IF(S18:AL18&lt;=0,COLUMN(S18:AL18))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="14"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R18" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="17"/>
-      <c r="Z18" s="17"/>
-      <c r="AA18" s="17"/>
-      <c r="AB18" s="17"/>
-      <c r="AC18" s="17"/>
-      <c r="AD18" s="17"/>
-      <c r="AE18" s="17"/>
-      <c r="AF18" s="17"/>
-      <c r="AG18" s="17"/>
-      <c r="AH18" s="17"/>
-      <c r="AI18" s="17"/>
-      <c r="AJ18" s="17"/>
-      <c r="AK18" s="17"/>
-      <c r="AL18" s="17"/>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A19" s="12">
-        <v>16</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="14">
-        <f t="array" ref="K19">IF(MAX(FREQUENCY(IF(S19:AL19&gt;0,COLUMN(S19:AL19)),IF(S19:AL19&lt;=0,COLUMN(S19:AL19))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="14"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R19" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="17"/>
-      <c r="Z19" s="17"/>
-      <c r="AA19" s="17"/>
-      <c r="AB19" s="17"/>
-      <c r="AC19" s="17"/>
-      <c r="AD19" s="17"/>
-      <c r="AE19" s="17"/>
-      <c r="AF19" s="17"/>
-      <c r="AG19" s="17"/>
-      <c r="AH19" s="17"/>
-      <c r="AI19" s="17"/>
-      <c r="AJ19" s="17"/>
-      <c r="AK19" s="17"/>
-      <c r="AL19" s="17"/>
-    </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A20" s="12">
-        <v>17</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="14">
-        <f t="array" ref="K20">IF(MAX(FREQUENCY(IF(S20:AL20&gt;0,COLUMN(S20:AL20)),IF(S20:AL20&lt;=0,COLUMN(S20:AL20))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L20" s="14"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R20" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="17"/>
-      <c r="AC20" s="17"/>
-      <c r="AD20" s="17"/>
-      <c r="AE20" s="17"/>
-      <c r="AF20" s="17"/>
-      <c r="AG20" s="17"/>
-      <c r="AH20" s="17"/>
-      <c r="AI20" s="17"/>
-      <c r="AJ20" s="17"/>
-      <c r="AK20" s="17"/>
-      <c r="AL20" s="17"/>
-    </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A21" s="12">
-        <v>18</v>
-      </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="14">
-        <f t="array" ref="K21">IF(MAX(FREQUENCY(IF(S21:AL21&gt;0,COLUMN(S21:AL21)),IF(S21:AL21&lt;=0,COLUMN(S21:AL21))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="14"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="17"/>
-      <c r="Z21" s="17"/>
-      <c r="AA21" s="17"/>
-      <c r="AB21" s="17"/>
-      <c r="AC21" s="17"/>
-      <c r="AD21" s="17"/>
-      <c r="AE21" s="17"/>
-      <c r="AF21" s="17"/>
-      <c r="AG21" s="17"/>
-      <c r="AH21" s="17"/>
-      <c r="AI21" s="17"/>
-      <c r="AJ21" s="17"/>
-      <c r="AK21" s="17"/>
-      <c r="AL21" s="17"/>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A22" s="12">
-        <v>19</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="14">
-        <f t="array" ref="K22">IF(MAX(FREQUENCY(IF(S22:AL22&gt;0,COLUMN(S22:AL22)),IF(S22:AL22&lt;=0,COLUMN(S22:AL22))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="14"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="17"/>
-      <c r="AA22" s="17"/>
-      <c r="AB22" s="17"/>
-      <c r="AC22" s="17"/>
-      <c r="AD22" s="17"/>
-      <c r="AE22" s="17"/>
-      <c r="AF22" s="17"/>
-      <c r="AG22" s="17"/>
-      <c r="AH22" s="17"/>
-      <c r="AI22" s="17"/>
-      <c r="AJ22" s="17"/>
-      <c r="AK22" s="17"/>
-      <c r="AL22" s="17"/>
-    </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A23" s="12">
-        <v>20</v>
-      </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="14">
-        <f t="array" ref="K23">IF(MAX(FREQUENCY(IF(S23:AL23&gt;0,COLUMN(S23:AL23)),IF(S23:AL23&lt;=0,COLUMN(S23:AL23))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L23" s="14"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R23" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="17"/>
-      <c r="AA23" s="17"/>
-      <c r="AB23" s="17"/>
-      <c r="AC23" s="17"/>
-      <c r="AD23" s="17"/>
-      <c r="AE23" s="17"/>
-      <c r="AF23" s="17"/>
-      <c r="AG23" s="17"/>
-      <c r="AH23" s="17"/>
-      <c r="AI23" s="17"/>
-      <c r="AJ23" s="17"/>
-      <c r="AK23" s="17"/>
-      <c r="AL23" s="17"/>
-    </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A24" s="12">
-        <v>21</v>
-      </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="14">
-        <f t="array" ref="K24">IF(MAX(FREQUENCY(IF(S24:AL24&gt;0,COLUMN(S24:AL24)),IF(S24:AL24&lt;=0,COLUMN(S24:AL24))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L24" s="14"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R24" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="17"/>
-      <c r="AA24" s="17"/>
-      <c r="AB24" s="17"/>
-      <c r="AC24" s="17"/>
-      <c r="AD24" s="17"/>
-      <c r="AE24" s="17"/>
-      <c r="AF24" s="17"/>
-      <c r="AG24" s="17"/>
-      <c r="AH24" s="17"/>
-      <c r="AI24" s="17"/>
-      <c r="AJ24" s="17"/>
-      <c r="AK24" s="17"/>
-      <c r="AL24" s="17"/>
-    </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A25" s="12">
-        <v>22</v>
-      </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="14">
-        <f t="array" ref="K25">IF(MAX(FREQUENCY(IF(S25:AL25&gt;0,COLUMN(S25:AL25)),IF(S25:AL25&lt;=0,COLUMN(S25:AL25))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L25" s="14"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R25" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17"/>
-      <c r="W25" s="17"/>
-      <c r="X25" s="17"/>
-      <c r="Y25" s="17"/>
-      <c r="Z25" s="17"/>
-      <c r="AA25" s="17"/>
-      <c r="AB25" s="17"/>
-      <c r="AC25" s="17"/>
-      <c r="AD25" s="17"/>
-      <c r="AE25" s="17"/>
-      <c r="AF25" s="17"/>
-      <c r="AG25" s="17"/>
-      <c r="AH25" s="17"/>
-      <c r="AI25" s="17"/>
-      <c r="AJ25" s="17"/>
-      <c r="AK25" s="17"/>
-      <c r="AL25" s="17"/>
-    </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A26" s="12">
-        <v>23</v>
-      </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="14">
-        <f t="array" ref="K26">IF(MAX(FREQUENCY(IF(S26:AL26&gt;0,COLUMN(S26:AL26)),IF(S26:AL26&lt;=0,COLUMN(S26:AL26))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L26" s="14"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R26" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="17"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="17"/>
-      <c r="Z26" s="17"/>
-      <c r="AA26" s="17"/>
-      <c r="AB26" s="17"/>
-      <c r="AC26" s="17"/>
-      <c r="AD26" s="17"/>
-      <c r="AE26" s="17"/>
-      <c r="AF26" s="17"/>
-      <c r="AG26" s="17"/>
-      <c r="AH26" s="17"/>
-      <c r="AI26" s="17"/>
-      <c r="AJ26" s="17"/>
-      <c r="AK26" s="17"/>
-      <c r="AL26" s="17"/>
-    </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A27" s="12">
-        <v>24</v>
-      </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="14">
-        <f t="array" ref="K27">IF(MAX(FREQUENCY(IF(S27:AL27&gt;0,COLUMN(S27:AL27)),IF(S27:AL27&lt;=0,COLUMN(S27:AL27))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L27" s="14"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R27" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="17"/>
-      <c r="V27" s="17"/>
-      <c r="W27" s="17"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="17"/>
-      <c r="Z27" s="17"/>
-      <c r="AA27" s="17"/>
-      <c r="AB27" s="17"/>
-      <c r="AC27" s="17"/>
-      <c r="AD27" s="17"/>
-      <c r="AE27" s="17"/>
-      <c r="AF27" s="17"/>
-      <c r="AG27" s="17"/>
-      <c r="AH27" s="17"/>
-      <c r="AI27" s="17"/>
-      <c r="AJ27" s="17"/>
-      <c r="AK27" s="17"/>
-      <c r="AL27" s="17"/>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A28" s="12">
-        <v>25</v>
-      </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="14">
-        <f t="array" ref="K28">IF(MAX(FREQUENCY(IF(S28:AL28&gt;0,COLUMN(S28:AL28)),IF(S28:AL28&lt;=0,COLUMN(S28:AL28))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L28" s="14"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R28" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17"/>
-      <c r="W28" s="17"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="17"/>
-      <c r="AA28" s="17"/>
-      <c r="AB28" s="17"/>
-      <c r="AC28" s="17"/>
-      <c r="AD28" s="17"/>
-      <c r="AE28" s="17"/>
-      <c r="AF28" s="17"/>
-      <c r="AG28" s="17"/>
-      <c r="AH28" s="17"/>
-      <c r="AI28" s="17"/>
-      <c r="AJ28" s="17"/>
-      <c r="AK28" s="17"/>
-      <c r="AL28" s="17"/>
-    </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A29" s="12">
-        <v>26</v>
-      </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="14">
-        <f t="array" ref="K29">IF(MAX(FREQUENCY(IF(S29:AL29&gt;0,COLUMN(S29:AL29)),IF(S29:AL29&lt;=0,COLUMN(S29:AL29))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L29" s="14"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R29" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
-      <c r="V29" s="17"/>
-      <c r="W29" s="17"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
-      <c r="Z29" s="17"/>
-      <c r="AA29" s="17"/>
-      <c r="AB29" s="17"/>
-      <c r="AC29" s="17"/>
-      <c r="AD29" s="17"/>
-      <c r="AE29" s="17"/>
-      <c r="AF29" s="17"/>
-      <c r="AG29" s="17"/>
-      <c r="AH29" s="17"/>
-      <c r="AI29" s="17"/>
-      <c r="AJ29" s="17"/>
-      <c r="AK29" s="17"/>
-      <c r="AL29" s="17"/>
-    </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A30" s="12">
-        <v>27</v>
-      </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="14">
-        <f t="array" ref="K30">IF(MAX(FREQUENCY(IF(S30:AL30&gt;0,COLUMN(S30:AL30)),IF(S30:AL30&lt;=0,COLUMN(S30:AL30))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L30" s="14"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R30" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="17"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="17"/>
-      <c r="X30" s="17"/>
-      <c r="Y30" s="17"/>
-      <c r="Z30" s="17"/>
-      <c r="AA30" s="17"/>
-      <c r="AB30" s="17"/>
-      <c r="AC30" s="17"/>
-      <c r="AD30" s="17"/>
-      <c r="AE30" s="17"/>
-      <c r="AF30" s="17"/>
-      <c r="AG30" s="17"/>
-      <c r="AH30" s="17"/>
-      <c r="AI30" s="17"/>
-      <c r="AJ30" s="17"/>
-      <c r="AK30" s="17"/>
-      <c r="AL30" s="17"/>
-    </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A31" s="12">
-        <v>28</v>
-      </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="14">
-        <f t="array" ref="K31">IF(MAX(FREQUENCY(IF(S31:AL31&gt;0,COLUMN(S31:AL31)),IF(S31:AL31&lt;=0,COLUMN(S31:AL31))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L31" s="14"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R31" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="17"/>
-      <c r="V31" s="17"/>
-      <c r="W31" s="17"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="17"/>
-      <c r="Z31" s="17"/>
-      <c r="AA31" s="17"/>
-      <c r="AB31" s="17"/>
-      <c r="AC31" s="17"/>
-      <c r="AD31" s="17"/>
-      <c r="AE31" s="17"/>
-      <c r="AF31" s="17"/>
-      <c r="AG31" s="17"/>
-      <c r="AH31" s="17"/>
-      <c r="AI31" s="17"/>
-      <c r="AJ31" s="17"/>
-      <c r="AK31" s="17"/>
-      <c r="AL31" s="17"/>
-    </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A32" s="12">
-        <v>29</v>
-      </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="14">
-        <f t="array" ref="K32">IF(MAX(FREQUENCY(IF(S32:AL32&gt;0,COLUMN(S32:AL32)),IF(S32:AL32&lt;=0,COLUMN(S32:AL32))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L32" s="14"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R32" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="17"/>
-      <c r="V32" s="17"/>
-      <c r="W32" s="17"/>
-      <c r="X32" s="17"/>
-      <c r="Y32" s="17"/>
-      <c r="Z32" s="17"/>
-      <c r="AA32" s="17"/>
-      <c r="AB32" s="17"/>
-      <c r="AC32" s="17"/>
-      <c r="AD32" s="17"/>
-      <c r="AE32" s="17"/>
-      <c r="AF32" s="17"/>
-      <c r="AG32" s="17"/>
-      <c r="AH32" s="17"/>
-      <c r="AI32" s="17"/>
-      <c r="AJ32" s="17"/>
-      <c r="AK32" s="17"/>
-      <c r="AL32" s="17"/>
-    </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A33" s="12">
-        <v>30</v>
-      </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="14">
-        <f t="array" ref="K33">IF(MAX(FREQUENCY(IF(S33:AL33&gt;0,COLUMN(S33:AL33)),IF(S33:AL33&lt;=0,COLUMN(S33:AL33))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L33" s="14"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R33" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S33" s="17"/>
-      <c r="T33" s="17"/>
-      <c r="U33" s="17"/>
-      <c r="V33" s="17"/>
-      <c r="W33" s="17"/>
-      <c r="X33" s="17"/>
-      <c r="Y33" s="17"/>
-      <c r="Z33" s="17"/>
-      <c r="AA33" s="17"/>
-      <c r="AB33" s="17"/>
-      <c r="AC33" s="17"/>
-      <c r="AD33" s="17"/>
-      <c r="AE33" s="17"/>
-      <c r="AF33" s="17"/>
-      <c r="AG33" s="17"/>
-      <c r="AH33" s="17"/>
-      <c r="AI33" s="17"/>
-      <c r="AJ33" s="17"/>
-      <c r="AK33" s="17"/>
-      <c r="AL33" s="17"/>
-    </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A34" s="12">
-        <v>31</v>
-      </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="14">
-        <f t="array" ref="K34">IF(MAX(FREQUENCY(IF(S34:AL34&gt;0,COLUMN(S34:AL34)),IF(S34:AL34&lt;=0,COLUMN(S34:AL34))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L34" s="14"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R34" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S34" s="17"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="17"/>
-      <c r="V34" s="17"/>
-      <c r="W34" s="17"/>
-      <c r="X34" s="17"/>
-      <c r="Y34" s="17"/>
-      <c r="Z34" s="17"/>
-      <c r="AA34" s="17"/>
-      <c r="AB34" s="17"/>
-      <c r="AC34" s="17"/>
-      <c r="AD34" s="17"/>
-      <c r="AE34" s="17"/>
-      <c r="AF34" s="17"/>
-      <c r="AG34" s="17"/>
-      <c r="AH34" s="17"/>
-      <c r="AI34" s="17"/>
-      <c r="AJ34" s="17"/>
-      <c r="AK34" s="17"/>
-      <c r="AL34" s="17"/>
-    </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A35" s="12">
-        <v>32</v>
-      </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="14">
-        <f t="array" ref="K35">IF(MAX(FREQUENCY(IF(S35:AL35&gt;0,COLUMN(S35:AL35)),IF(S35:AL35&lt;=0,COLUMN(S35:AL35))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L35" s="14"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R35" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S35" s="17"/>
-      <c r="T35" s="17"/>
-      <c r="U35" s="17"/>
-      <c r="V35" s="17"/>
-      <c r="W35" s="17"/>
-      <c r="X35" s="17"/>
-      <c r="Y35" s="17"/>
-      <c r="Z35" s="17"/>
-      <c r="AA35" s="17"/>
-      <c r="AB35" s="17"/>
-      <c r="AC35" s="17"/>
-      <c r="AD35" s="17"/>
-      <c r="AE35" s="17"/>
-      <c r="AF35" s="17"/>
-      <c r="AG35" s="17"/>
-      <c r="AH35" s="17"/>
-      <c r="AI35" s="17"/>
-      <c r="AJ35" s="17"/>
-      <c r="AK35" s="17"/>
-      <c r="AL35" s="17"/>
-    </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A36" s="12">
-        <v>33</v>
-      </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="14">
-        <f t="array" ref="K36">IF(MAX(FREQUENCY(IF(S36:AL36&gt;0,COLUMN(S36:AL36)),IF(S36:AL36&lt;=0,COLUMN(S36:AL36))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L36" s="14"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R36" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S36" s="17"/>
-      <c r="T36" s="17"/>
-      <c r="U36" s="17"/>
-      <c r="V36" s="17"/>
-      <c r="W36" s="17"/>
-      <c r="X36" s="17"/>
-      <c r="Y36" s="17"/>
-      <c r="Z36" s="17"/>
-      <c r="AA36" s="17"/>
-      <c r="AB36" s="17"/>
-      <c r="AC36" s="17"/>
-      <c r="AD36" s="17"/>
-      <c r="AE36" s="17"/>
-      <c r="AF36" s="17"/>
-      <c r="AG36" s="17"/>
-      <c r="AH36" s="17"/>
-      <c r="AI36" s="17"/>
-      <c r="AJ36" s="17"/>
-      <c r="AK36" s="17"/>
-      <c r="AL36" s="17"/>
-    </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A37" s="12">
-        <v>34</v>
-      </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="14">
-        <f t="array" ref="K37">IF(MAX(FREQUENCY(IF(S37:AL37&gt;0,COLUMN(S37:AL37)),IF(S37:AL37&lt;=0,COLUMN(S37:AL37))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L37" s="14"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R37" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S37" s="17"/>
-      <c r="T37" s="17"/>
-      <c r="U37" s="17"/>
-      <c r="V37" s="17"/>
-      <c r="W37" s="17"/>
-      <c r="X37" s="17"/>
-      <c r="Y37" s="17"/>
-      <c r="Z37" s="17"/>
-      <c r="AA37" s="17"/>
-      <c r="AB37" s="17"/>
-      <c r="AC37" s="17"/>
-      <c r="AD37" s="17"/>
-      <c r="AE37" s="17"/>
-      <c r="AF37" s="17"/>
-      <c r="AG37" s="17"/>
-      <c r="AH37" s="17"/>
-      <c r="AI37" s="17"/>
-      <c r="AJ37" s="17"/>
-      <c r="AK37" s="17"/>
-      <c r="AL37" s="17"/>
-    </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A38" s="12">
-        <v>35</v>
-      </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="14">
-        <f t="array" ref="K38">IF(MAX(FREQUENCY(IF(S38:AL38&gt;0,COLUMN(S38:AL38)),IF(S38:AL38&lt;=0,COLUMN(S38:AL38))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L38" s="14"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R38" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S38" s="17"/>
-      <c r="T38" s="17"/>
-      <c r="U38" s="17"/>
-      <c r="V38" s="17"/>
-      <c r="W38" s="17"/>
-      <c r="X38" s="17"/>
-      <c r="Y38" s="17"/>
-      <c r="Z38" s="17"/>
-      <c r="AA38" s="17"/>
-      <c r="AB38" s="17"/>
-      <c r="AC38" s="17"/>
-      <c r="AD38" s="17"/>
-      <c r="AE38" s="17"/>
-      <c r="AF38" s="17"/>
-      <c r="AG38" s="17"/>
-      <c r="AH38" s="17"/>
-      <c r="AI38" s="17"/>
-      <c r="AJ38" s="17"/>
-      <c r="AK38" s="17"/>
-      <c r="AL38" s="17"/>
-    </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A39" s="12">
-        <v>36</v>
-      </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="14">
-        <f t="array" ref="K39">IF(MAX(FREQUENCY(IF(S39:AL39&gt;0,COLUMN(S39:AL39)),IF(S39:AL39&lt;=0,COLUMN(S39:AL39))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L39" s="14"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R39" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S39" s="17"/>
-      <c r="T39" s="17"/>
-      <c r="U39" s="17"/>
-      <c r="V39" s="17"/>
-      <c r="W39" s="17"/>
-      <c r="X39" s="17"/>
-      <c r="Y39" s="17"/>
-      <c r="Z39" s="17"/>
-      <c r="AA39" s="17"/>
-      <c r="AB39" s="17"/>
-      <c r="AC39" s="17"/>
-      <c r="AD39" s="17"/>
-      <c r="AE39" s="17"/>
-      <c r="AF39" s="17"/>
-      <c r="AG39" s="17"/>
-      <c r="AH39" s="17"/>
-      <c r="AI39" s="17"/>
-      <c r="AJ39" s="17"/>
-      <c r="AK39" s="17"/>
-      <c r="AL39" s="17"/>
-    </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A40" s="12">
-        <v>37</v>
-      </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="14">
-        <f t="array" ref="K40">IF(MAX(FREQUENCY(IF(S40:AL40&gt;0,COLUMN(S40:AL40)),IF(S40:AL40&lt;=0,COLUMN(S40:AL40))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L40" s="14"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R40" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S40" s="17"/>
-      <c r="T40" s="17"/>
-      <c r="U40" s="17"/>
-      <c r="V40" s="17"/>
-      <c r="W40" s="17"/>
-      <c r="X40" s="17"/>
-      <c r="Y40" s="17"/>
-      <c r="Z40" s="17"/>
-      <c r="AA40" s="17"/>
-      <c r="AB40" s="17"/>
-      <c r="AC40" s="17"/>
-      <c r="AD40" s="17"/>
-      <c r="AE40" s="17"/>
-      <c r="AF40" s="17"/>
-      <c r="AG40" s="17"/>
-      <c r="AH40" s="17"/>
-      <c r="AI40" s="17"/>
-      <c r="AJ40" s="17"/>
-      <c r="AK40" s="17"/>
-      <c r="AL40" s="17"/>
-    </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A41" s="12">
-        <v>38</v>
-      </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="14">
-        <f t="array" ref="K41">IF(MAX(FREQUENCY(IF(S41:AL41&gt;0,COLUMN(S41:AL41)),IF(S41:AL41&lt;=0,COLUMN(S41:AL41))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L41" s="14"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R41" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S41" s="17"/>
-      <c r="T41" s="17"/>
-      <c r="U41" s="17"/>
-      <c r="V41" s="17"/>
-      <c r="W41" s="17"/>
-      <c r="X41" s="17"/>
-      <c r="Y41" s="17"/>
-      <c r="Z41" s="17"/>
-      <c r="AA41" s="17"/>
-      <c r="AB41" s="17"/>
-      <c r="AC41" s="17"/>
-      <c r="AD41" s="17"/>
-      <c r="AE41" s="17"/>
-      <c r="AF41" s="17"/>
-      <c r="AG41" s="17"/>
-      <c r="AH41" s="17"/>
-      <c r="AI41" s="17"/>
-      <c r="AJ41" s="17"/>
-      <c r="AK41" s="17"/>
-      <c r="AL41" s="17"/>
-    </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A42" s="12">
-        <v>39</v>
-      </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K42" s="14">
-        <f t="array" ref="K42">IF(MAX(FREQUENCY(IF(S42:AL42&gt;0,COLUMN(S42:AL42)),IF(S42:AL42&lt;=0,COLUMN(S42:AL42))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L42" s="14"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R42" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S42" s="17"/>
-      <c r="T42" s="17"/>
-      <c r="U42" s="17"/>
-      <c r="V42" s="17"/>
-      <c r="W42" s="17"/>
-      <c r="X42" s="17"/>
-      <c r="Y42" s="17"/>
-      <c r="Z42" s="17"/>
-      <c r="AA42" s="17"/>
-      <c r="AB42" s="17"/>
-      <c r="AC42" s="17"/>
-      <c r="AD42" s="17"/>
-      <c r="AE42" s="17"/>
-      <c r="AF42" s="17"/>
-      <c r="AG42" s="17"/>
-      <c r="AH42" s="17"/>
-      <c r="AI42" s="17"/>
-      <c r="AJ42" s="17"/>
-      <c r="AK42" s="17"/>
-      <c r="AL42" s="17"/>
-    </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A43" s="12">
-        <v>40</v>
-      </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="14">
-        <f t="array" ref="K43">IF(MAX(FREQUENCY(IF(S43:AL43&gt;0,COLUMN(S43:AL43)),IF(S43:AL43&lt;=0,COLUMN(S43:AL43))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L43" s="14"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15"/>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R43" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S43" s="17"/>
-      <c r="T43" s="17"/>
-      <c r="U43" s="17"/>
-      <c r="V43" s="17"/>
-      <c r="W43" s="17"/>
-      <c r="X43" s="17"/>
-      <c r="Y43" s="17"/>
-      <c r="Z43" s="17"/>
-      <c r="AA43" s="17"/>
-      <c r="AB43" s="17"/>
-      <c r="AC43" s="17"/>
-      <c r="AD43" s="17"/>
-      <c r="AE43" s="17"/>
-      <c r="AF43" s="17"/>
-      <c r="AG43" s="17"/>
-      <c r="AH43" s="17"/>
-      <c r="AI43" s="17"/>
-      <c r="AJ43" s="17"/>
-      <c r="AK43" s="17"/>
-      <c r="AL43" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="S2:AL2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D4A0D9-6E2F-42AC-B3E6-5121257CA31E}">
-  <dimension ref="A1:C41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <f>'4B_data'!A4</f>
-        <v>1</v>
-      </c>
-      <c r="B2" t="str">
-        <f>'4B_data'!R4</f>
-        <v>-</v>
-      </c>
-      <c r="C2">
-        <f>'4B_data'!Q4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <f>'4B_data'!A5</f>
-        <v>2</v>
-      </c>
-      <c r="B3" t="str">
-        <f>'4B_data'!R5</f>
-        <v>-</v>
-      </c>
-      <c r="C3">
-        <f>'4B_data'!Q5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <f>'4B_data'!A6</f>
-        <v>3</v>
-      </c>
-      <c r="B4" t="str">
-        <f>'4B_data'!R6</f>
-        <v>-</v>
-      </c>
-      <c r="C4">
-        <f>'4B_data'!Q6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <f>'4B_data'!A7</f>
-        <v>4</v>
-      </c>
-      <c r="B5" t="str">
-        <f>'4B_data'!R7</f>
-        <v>-</v>
-      </c>
-      <c r="C5">
-        <f>'4B_data'!Q7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <f>'4B_data'!A8</f>
-        <v>5</v>
-      </c>
-      <c r="B6" t="str">
-        <f>'4B_data'!R8</f>
-        <v>-</v>
-      </c>
-      <c r="C6">
-        <f>'4B_data'!Q8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <f>'4B_data'!A9</f>
-        <v>6</v>
-      </c>
-      <c r="B7" t="str">
-        <f>'4B_data'!R9</f>
-        <v>-</v>
-      </c>
-      <c r="C7">
-        <f>'4B_data'!Q9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <f>'4B_data'!A10</f>
-        <v>7</v>
-      </c>
-      <c r="B8" t="str">
-        <f>'4B_data'!R10</f>
-        <v>-</v>
-      </c>
-      <c r="C8">
-        <f>'4B_data'!Q10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <f>'4B_data'!A11</f>
-        <v>8</v>
-      </c>
-      <c r="B9" t="str">
-        <f>'4B_data'!R11</f>
-        <v>-</v>
-      </c>
-      <c r="C9">
-        <f>'4B_data'!Q11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <f>'4B_data'!A12</f>
-        <v>9</v>
-      </c>
-      <c r="B10" t="str">
-        <f>'4B_data'!R12</f>
-        <v>-</v>
-      </c>
-      <c r="C10">
-        <f>'4B_data'!Q12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <f>'4B_data'!A13</f>
-        <v>10</v>
-      </c>
-      <c r="B11" t="str">
-        <f>'4B_data'!R13</f>
-        <v>-</v>
-      </c>
-      <c r="C11">
-        <f>'4B_data'!Q13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <f>'4B_data'!A14</f>
-        <v>11</v>
-      </c>
-      <c r="B12" t="str">
-        <f>'4B_data'!R14</f>
-        <v>-</v>
-      </c>
-      <c r="C12">
-        <f>'4B_data'!Q14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <f>'4B_data'!A15</f>
-        <v>12</v>
-      </c>
-      <c r="B13" t="str">
-        <f>'4B_data'!R15</f>
-        <v>-</v>
-      </c>
-      <c r="C13">
-        <f>'4B_data'!Q15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <f>'4B_data'!A16</f>
-        <v>13</v>
-      </c>
-      <c r="B14" t="str">
-        <f>'4B_data'!R16</f>
-        <v>-</v>
-      </c>
-      <c r="C14">
-        <f>'4B_data'!Q16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <f>'4B_data'!A17</f>
-        <v>14</v>
-      </c>
-      <c r="B15" t="str">
-        <f>'4B_data'!R17</f>
-        <v>-</v>
-      </c>
-      <c r="C15">
-        <f>'4B_data'!Q17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <f>'4B_data'!A18</f>
-        <v>15</v>
-      </c>
-      <c r="B16" t="str">
-        <f>'4B_data'!R18</f>
-        <v>-</v>
-      </c>
-      <c r="C16">
-        <f>'4B_data'!Q18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <f>'4B_data'!A19</f>
-        <v>16</v>
-      </c>
-      <c r="B17" t="str">
-        <f>'4B_data'!R19</f>
-        <v>-</v>
-      </c>
-      <c r="C17">
-        <f>'4B_data'!Q19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <f>'4B_data'!A20</f>
-        <v>17</v>
-      </c>
-      <c r="B18" t="str">
-        <f>'4B_data'!R20</f>
-        <v>-</v>
-      </c>
-      <c r="C18">
-        <f>'4B_data'!Q20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <f>'4B_data'!A21</f>
-        <v>18</v>
-      </c>
-      <c r="B19" t="str">
-        <f>'4B_data'!R21</f>
-        <v>-</v>
-      </c>
-      <c r="C19">
-        <f>'4B_data'!Q21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <f>'4B_data'!A22</f>
-        <v>19</v>
-      </c>
-      <c r="B20" t="str">
-        <f>'4B_data'!R22</f>
-        <v>-</v>
-      </c>
-      <c r="C20">
-        <f>'4B_data'!Q22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <f>'4B_data'!A23</f>
-        <v>20</v>
-      </c>
-      <c r="B21" t="str">
-        <f>'4B_data'!R23</f>
-        <v>-</v>
-      </c>
-      <c r="C21">
-        <f>'4B_data'!Q23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <f>'4B_data'!A24</f>
-        <v>21</v>
-      </c>
-      <c r="B22" t="str">
-        <f>'4B_data'!R24</f>
-        <v>-</v>
-      </c>
-      <c r="C22">
-        <f>'4B_data'!Q24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <f>'4B_data'!A25</f>
-        <v>22</v>
-      </c>
-      <c r="B23" t="str">
-        <f>'4B_data'!R25</f>
-        <v>-</v>
-      </c>
-      <c r="C23">
-        <f>'4B_data'!Q25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <f>'4B_data'!A26</f>
-        <v>23</v>
-      </c>
-      <c r="B24" t="str">
-        <f>'4B_data'!R26</f>
-        <v>-</v>
-      </c>
-      <c r="C24">
-        <f>'4B_data'!Q26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <f>'4B_data'!A27</f>
-        <v>24</v>
-      </c>
-      <c r="B25" t="str">
-        <f>'4B_data'!R27</f>
-        <v>-</v>
-      </c>
-      <c r="C25">
-        <f>'4B_data'!Q27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <f>'4B_data'!A28</f>
-        <v>25</v>
-      </c>
-      <c r="B26" t="str">
-        <f>'4B_data'!R28</f>
-        <v>-</v>
-      </c>
-      <c r="C26">
-        <f>'4B_data'!Q28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <f>'4B_data'!A29</f>
-        <v>26</v>
-      </c>
-      <c r="B27" t="str">
-        <f>'4B_data'!R29</f>
-        <v>-</v>
-      </c>
-      <c r="C27">
-        <f>'4B_data'!Q29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <f>'4B_data'!A30</f>
-        <v>27</v>
-      </c>
-      <c r="B28" t="str">
-        <f>'4B_data'!R30</f>
-        <v>-</v>
-      </c>
-      <c r="C28">
-        <f>'4B_data'!Q30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <f>'4B_data'!A31</f>
-        <v>28</v>
-      </c>
-      <c r="B29" t="str">
-        <f>'4B_data'!R31</f>
-        <v>-</v>
-      </c>
-      <c r="C29">
-        <f>'4B_data'!Q31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <f>'4B_data'!A32</f>
-        <v>29</v>
-      </c>
-      <c r="B30" t="str">
-        <f>'4B_data'!R32</f>
-        <v>-</v>
-      </c>
-      <c r="C30">
-        <f>'4B_data'!Q32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <f>'4B_data'!A33</f>
-        <v>30</v>
-      </c>
-      <c r="B31" t="str">
-        <f>'4B_data'!R33</f>
-        <v>-</v>
-      </c>
-      <c r="C31">
-        <f>'4B_data'!Q33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <f>'4B_data'!A34</f>
-        <v>31</v>
-      </c>
-      <c r="B32" t="str">
-        <f>'4B_data'!R34</f>
-        <v>-</v>
-      </c>
-      <c r="C32">
-        <f>'4B_data'!Q34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <f>'4B_data'!A35</f>
-        <v>32</v>
-      </c>
-      <c r="B33" t="str">
-        <f>'4B_data'!R35</f>
-        <v>-</v>
-      </c>
-      <c r="C33">
-        <f>'4B_data'!Q35</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <f>'4B_data'!A36</f>
-        <v>33</v>
-      </c>
-      <c r="B34" t="str">
-        <f>'4B_data'!R36</f>
-        <v>-</v>
-      </c>
-      <c r="C34">
-        <f>'4B_data'!Q36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <f>'4B_data'!A37</f>
-        <v>34</v>
-      </c>
-      <c r="B35" t="str">
-        <f>'4B_data'!R37</f>
-        <v>-</v>
-      </c>
-      <c r="C35">
-        <f>'4B_data'!Q37</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <f>'4B_data'!A38</f>
-        <v>35</v>
-      </c>
-      <c r="B36" t="str">
-        <f>'4B_data'!R38</f>
-        <v>-</v>
-      </c>
-      <c r="C36">
-        <f>'4B_data'!Q38</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <f>'4B_data'!A39</f>
-        <v>36</v>
-      </c>
-      <c r="B37" t="str">
-        <f>'4B_data'!R39</f>
-        <v>-</v>
-      </c>
-      <c r="C37">
-        <f>'4B_data'!Q39</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <f>'4B_data'!A40</f>
-        <v>37</v>
-      </c>
-      <c r="B38" t="str">
-        <f>'4B_data'!R40</f>
-        <v>-</v>
-      </c>
-      <c r="C38">
-        <f>'4B_data'!Q40</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <f>'4B_data'!A41</f>
-        <v>38</v>
-      </c>
-      <c r="B39" t="str">
-        <f>'4B_data'!R41</f>
-        <v>-</v>
-      </c>
-      <c r="C39">
-        <f>'4B_data'!Q41</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <f>'4B_data'!A42</f>
-        <v>39</v>
-      </c>
-      <c r="B40" t="str">
-        <f>'4B_data'!R42</f>
-        <v>-</v>
-      </c>
-      <c r="C40">
-        <f>'4B_data'!Q42</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <f>'4B_data'!A43</f>
-        <v>40</v>
-      </c>
-      <c r="B41" t="str">
-        <f>'4B_data'!R43</f>
-        <v>-</v>
-      </c>
-      <c r="C41">
-        <f>'4B_data'!Q43</f>
+        <f>'3NA_data'!Q43</f>
         <v>0</v>
       </c>
     </row>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\65929\Desktop\website\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC926BB2-17F3-4C74-95AD-C451FC0CF9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B0CEAF-2C34-493E-9BE9-FC3C95D97330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
   <si>
     <t>Achievements</t>
   </si>
@@ -190,6 +190,48 @@
   </si>
   <si>
     <t>Nickname</t>
+  </si>
+  <si>
+    <t>XueWen</t>
+  </si>
+  <si>
+    <t>Dean</t>
+  </si>
+  <si>
+    <t>Angelo</t>
+  </si>
+  <si>
+    <t>Kyle</t>
+  </si>
+  <si>
+    <t>Jayden</t>
+  </si>
+  <si>
+    <t>Auston</t>
+  </si>
+  <si>
+    <t>Jia Xiang</t>
+  </si>
+  <si>
+    <t>Faith</t>
+  </si>
+  <si>
+    <t>Hiroshi</t>
+  </si>
+  <si>
+    <t>Luke</t>
+  </si>
+  <si>
+    <t>Alicia</t>
+  </si>
+  <si>
+    <t>Rayden</t>
+  </si>
+  <si>
+    <t>Darren</t>
+  </si>
+  <si>
+    <t>Lucas</t>
   </si>
 </sst>
 </file>
@@ -456,9 +498,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -742,8 +782,8 @@
   <dimension ref="A1:AL43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q4" sqref="Q4"/>
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1294,7 +1334,9 @@
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="F10" s="12">
+        <v>1</v>
+      </c>
       <c r="G10" s="12"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
@@ -1307,17 +1349,19 @@
         <v>0</v>
       </c>
       <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
+      <c r="M10" s="13">
+        <v>1</v>
+      </c>
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R10" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v xml:space="preserve">-Blast to the Past, Memelord, </v>
       </c>
       <c r="S10" s="16">
         <v>2</v>
@@ -2135,7 +2179,9 @@
         <v>46</v>
       </c>
       <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
+      <c r="C25" s="12">
+        <v>1</v>
+      </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
@@ -2159,11 +2205,11 @@
       <c r="P25" s="14"/>
       <c r="Q25" s="15">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R25" s="15" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">-Full Combo, </v>
+        <v xml:space="preserve">-I Say Hi, Full Combo, </v>
       </c>
       <c r="S25" s="16">
         <v>3</v>
@@ -3192,7 +3238,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10534E12-96AC-44F1-9431-EFE9F0397466}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -3298,11 +3346,11 @@
       </c>
       <c r="B8" t="str">
         <f>'2Exp_data'!R10</f>
-        <v>-</v>
+        <v xml:space="preserve">-Blast to the Past, Memelord, </v>
       </c>
       <c r="C8">
         <f>'2Exp_data'!Q10</f>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -3508,11 +3556,11 @@
       </c>
       <c r="B23" t="str">
         <f>'2Exp_data'!R25</f>
-        <v xml:space="preserve">-Full Combo, </v>
+        <v xml:space="preserve">-I Say Hi, Full Combo, </v>
       </c>
       <c r="C23">
         <f>'2Exp_data'!Q25</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -3777,9 +3825,9 @@
   <dimension ref="A1:AL43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection activeCell="K6" sqref="K6"/>
-      <selection pane="topRight" activeCell="H12" sqref="H12"/>
+      <selection pane="topRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3974,8 +4022,8 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
-        <v>1</v>
+      <c r="A4" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -4000,13 +4048,15 @@
       <c r="P4" s="14"/>
       <c r="Q4" s="15">
         <f>SUM(B4:G4)+3*SUM(H4:M4)+5*SUM(N4:P4)+SUM(S4:AL4)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R4" s="15" t="str">
         <f>CONCATENATE("-",IF(B4=1,$B$3&amp;", ",""),IF(C4=1,$C$3&amp;", ",""),IF(D4=1,$D$3&amp;", ",""),IF(E4=1,$E$3&amp;", ",""),IF(F4=1,$F$3&amp;", ",""),IF(G4=1,$G$3&amp;", ",""),IF(H4=1,$H$3&amp;", ",""),IF(I4=1,$I$3&amp;", ",""),IF(J4=1,$J$3&amp;", ",""),IF(K4=1,$K$3&amp;", ",""),IF(L4=1,$L$3&amp;", ",""),IF(M4=1,$M$3&amp;", ",""),IF(N4=1,$N$3&amp;", ",""),IF(O4=1,$O$3&amp;", ",""),IF(P4=1,$P$3&amp;", ",""))</f>
         <v>-</v>
       </c>
-      <c r="S4" s="16"/>
+      <c r="S4" s="16">
+        <v>3</v>
+      </c>
       <c r="T4" s="16"/>
       <c r="U4" s="16"/>
       <c r="V4" s="16"/>
@@ -4028,8 +4078,8 @@
       <c r="AL4" s="16"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
-        <v>2</v>
+      <c r="A5" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -4054,13 +4104,15 @@
       <c r="P5" s="14"/>
       <c r="Q5" s="15">
         <f t="shared" ref="Q5:Q43" si="0">SUM(B5:G5)+3*SUM(H5:L5)+5*SUM(M5:P5)+SUM(S5:AL5)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R5" s="15" t="str">
         <f t="shared" ref="R5:R43" si="1">CONCATENATE("-",IF(B5=1,$B$3&amp;", ",""),IF(C5=1,$C$3&amp;", ",""),IF(D5=1,$D$3&amp;", ",""),IF(E5=1,$E$3&amp;", ",""),IF(F5=1,$F$3&amp;", ",""),IF(G5=1,$G$3&amp;", ",""),IF(H5=1,$H$3&amp;", ",""),IF(I5=1,$I$3&amp;", ",""),IF(J5=1,$J$3&amp;", ",""),IF(K5=1,$K$3&amp;", ",""),IF(L5=1,$L$3&amp;", ",""),IF(M5=1,$M$3&amp;", ",""),IF(N5=1,$N$3&amp;", ",""),IF(O5=1,$O$3&amp;", ",""),IF(P5=1,$P$3&amp;", ",""))</f>
         <v>-</v>
       </c>
-      <c r="S5" s="16"/>
+      <c r="S5" s="16">
+        <v>3</v>
+      </c>
       <c r="T5" s="16"/>
       <c r="U5" s="16"/>
       <c r="V5" s="16"/>
@@ -4082,8 +4134,8 @@
       <c r="AL5" s="16"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
-        <v>3</v>
+      <c r="A6" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -4108,13 +4160,15 @@
       <c r="P6" s="14"/>
       <c r="Q6" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R6" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S6" s="16"/>
+      <c r="S6" s="16">
+        <v>3</v>
+      </c>
       <c r="T6" s="16"/>
       <c r="U6" s="16"/>
       <c r="V6" s="16"/>
@@ -4136,13 +4190,15 @@
       <c r="AL6" s="16"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
-        <v>4</v>
+      <c r="A7" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="13"/>
@@ -4162,13 +4218,15 @@
       <c r="P7" s="14"/>
       <c r="Q7" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R7" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S7" s="16"/>
+        <v xml:space="preserve">-Gaming is life, </v>
+      </c>
+      <c r="S7" s="16">
+        <v>2</v>
+      </c>
       <c r="T7" s="16"/>
       <c r="U7" s="16"/>
       <c r="V7" s="16"/>
@@ -4190,8 +4248,8 @@
       <c r="AL7" s="16"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
-        <v>5</v>
+      <c r="A8" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -4216,13 +4274,15 @@
       <c r="P8" s="14"/>
       <c r="Q8" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R8" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S8" s="16"/>
+      <c r="S8" s="16">
+        <v>3</v>
+      </c>
       <c r="T8" s="16"/>
       <c r="U8" s="16"/>
       <c r="V8" s="16"/>
@@ -4244,8 +4304,8 @@
       <c r="AL8" s="16"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
-        <v>6</v>
+      <c r="A9" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -4270,13 +4330,15 @@
       <c r="P9" s="14"/>
       <c r="Q9" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R9" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S9" s="16"/>
+      <c r="S9" s="16">
+        <v>3</v>
+      </c>
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
@@ -4298,8 +4360,8 @@
       <c r="AL9" s="16"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
-        <v>7</v>
+      <c r="A10" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -4307,7 +4369,9 @@
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="13"/>
+      <c r="H10" s="13">
+        <v>1</v>
+      </c>
       <c r="I10" s="13"/>
       <c r="J10" s="13">
         <f t="shared" si="2"/>
@@ -4324,13 +4388,15 @@
       <c r="P10" s="14"/>
       <c r="Q10" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R10" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S10" s="16"/>
+        <v xml:space="preserve">-Full Combo, </v>
+      </c>
+      <c r="S10" s="16">
+        <v>3</v>
+      </c>
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
       <c r="V10" s="16"/>
@@ -4352,8 +4418,8 @@
       <c r="AL10" s="16"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
-        <v>8</v>
+      <c r="A11" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -4378,13 +4444,15 @@
       <c r="P11" s="14"/>
       <c r="Q11" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R11" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S11" s="16"/>
+      <c r="S11" s="16">
+        <v>2</v>
+      </c>
       <c r="T11" s="16"/>
       <c r="U11" s="16"/>
       <c r="V11" s="16"/>
@@ -4406,8 +4474,8 @@
       <c r="AL11" s="16"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
-        <v>9</v>
+      <c r="A12" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -4432,13 +4500,15 @@
       <c r="P12" s="14"/>
       <c r="Q12" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R12" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S12" s="16"/>
+      <c r="S12" s="16">
+        <v>2</v>
+      </c>
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
@@ -4460,8 +4530,8 @@
       <c r="AL12" s="16"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
-        <v>10</v>
+      <c r="A13" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -4486,13 +4556,15 @@
       <c r="P13" s="14"/>
       <c r="Q13" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R13" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S13" s="16"/>
+      <c r="S13" s="16">
+        <v>3</v>
+      </c>
       <c r="T13" s="16"/>
       <c r="U13" s="16"/>
       <c r="V13" s="16"/>
@@ -4514,13 +4586,15 @@
       <c r="AL13" s="16"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
-        <v>11</v>
+      <c r="A14" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="E14" s="12">
+        <v>1</v>
+      </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="13"/>
@@ -4540,13 +4614,15 @@
       <c r="P14" s="14"/>
       <c r="Q14" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R14" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S14" s="16"/>
+        <v xml:space="preserve">-Gaming is life, </v>
+      </c>
+      <c r="S14" s="16">
+        <v>2</v>
+      </c>
       <c r="T14" s="16"/>
       <c r="U14" s="16"/>
       <c r="V14" s="16"/>
@@ -4568,8 +4644,8 @@
       <c r="AL14" s="16"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
-        <v>12</v>
+      <c r="A15" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -4594,13 +4670,15 @@
       <c r="P15" s="14"/>
       <c r="Q15" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R15" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S15" s="16"/>
+      <c r="S15" s="16">
+        <v>3</v>
+      </c>
       <c r="T15" s="16"/>
       <c r="U15" s="16"/>
       <c r="V15" s="16"/>
@@ -4622,8 +4700,8 @@
       <c r="AL15" s="16"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
-        <v>13</v>
+      <c r="A16" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -4648,13 +4726,15 @@
       <c r="P16" s="14"/>
       <c r="Q16" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R16" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S16" s="16"/>
+      <c r="S16" s="16">
+        <v>3</v>
+      </c>
       <c r="T16" s="16"/>
       <c r="U16" s="16"/>
       <c r="V16" s="16"/>
@@ -4676,8 +4756,8 @@
       <c r="AL16" s="16"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
-        <v>14</v>
+      <c r="A17" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -4685,7 +4765,9 @@
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="13"/>
+      <c r="H17" s="13">
+        <v>1</v>
+      </c>
       <c r="I17" s="13"/>
       <c r="J17" s="13">
         <f t="shared" si="2"/>
@@ -4702,11 +4784,11 @@
       <c r="P17" s="14"/>
       <c r="Q17" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R17" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v xml:space="preserve">-Full Combo, </v>
       </c>
       <c r="S17" s="16"/>
       <c r="T17" s="16"/>
@@ -6150,7 +6232,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6167,24 +6249,27 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" t="str">
         <f>'3NA_data'!A4</f>
-        <v>1</v>
+        <v>XueWen</v>
       </c>
       <c r="B2" s="39" t="str">
         <f>'3NA_data'!R4</f>
         <v>-</v>
       </c>
-      <c r="C2" s="39"/>
+      <c r="C2">
+        <f>'3NA_data'!Q4</f>
+        <v>3</v>
+      </c>
       <c r="D2" s="39"/>
       <c r="E2" s="39"/>
       <c r="F2" s="39"/>
       <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" t="str">
         <f>'3NA_data'!A5</f>
-        <v>2</v>
+        <v>Dean</v>
       </c>
       <c r="B3" t="str">
         <f>'3NA_data'!R5</f>
@@ -6192,13 +6277,13 @@
       </c>
       <c r="C3">
         <f>'3NA_data'!Q5</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" t="str">
         <f>'3NA_data'!A6</f>
-        <v>3</v>
+        <v>Angelo</v>
       </c>
       <c r="B4" t="str">
         <f>'3NA_data'!R6</f>
@@ -6206,27 +6291,27 @@
       </c>
       <c r="C4">
         <f>'3NA_data'!Q6</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" t="str">
         <f>'3NA_data'!A7</f>
-        <v>4</v>
+        <v>Kyle</v>
       </c>
       <c r="B5" t="str">
         <f>'3NA_data'!R7</f>
-        <v>-</v>
+        <v xml:space="preserve">-Gaming is life, </v>
       </c>
       <c r="C5">
         <f>'3NA_data'!Q7</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" t="str">
         <f>'3NA_data'!A8</f>
-        <v>5</v>
+        <v>Jayden</v>
       </c>
       <c r="B6" t="str">
         <f>'3NA_data'!R8</f>
@@ -6234,13 +6319,13 @@
       </c>
       <c r="C6">
         <f>'3NA_data'!Q8</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" t="str">
         <f>'3NA_data'!A9</f>
-        <v>6</v>
+        <v>Auston</v>
       </c>
       <c r="B7" t="str">
         <f>'3NA_data'!R9</f>
@@ -6248,27 +6333,27 @@
       </c>
       <c r="C7">
         <f>'3NA_data'!Q9</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" t="str">
         <f>'3NA_data'!A10</f>
-        <v>7</v>
+        <v>Jia Xiang</v>
       </c>
       <c r="B8" t="str">
         <f>'3NA_data'!R10</f>
-        <v>-</v>
+        <v xml:space="preserve">-Full Combo, </v>
       </c>
       <c r="C8">
         <f>'3NA_data'!Q10</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" t="str">
         <f>'3NA_data'!A11</f>
-        <v>8</v>
+        <v>Faith</v>
       </c>
       <c r="B9" t="str">
         <f>'3NA_data'!R11</f>
@@ -6276,13 +6361,13 @@
       </c>
       <c r="C9">
         <f>'3NA_data'!Q11</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" t="str">
         <f>'3NA_data'!A12</f>
-        <v>9</v>
+        <v>Hiroshi</v>
       </c>
       <c r="B10" t="str">
         <f>'3NA_data'!R12</f>
@@ -6290,13 +6375,13 @@
       </c>
       <c r="C10">
         <f>'3NA_data'!Q12</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" t="str">
         <f>'3NA_data'!A13</f>
-        <v>10</v>
+        <v>Luke</v>
       </c>
       <c r="B11" t="str">
         <f>'3NA_data'!R13</f>
@@ -6304,27 +6389,27 @@
       </c>
       <c r="C11">
         <f>'3NA_data'!Q13</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" t="str">
         <f>'3NA_data'!A14</f>
-        <v>11</v>
+        <v>Alicia</v>
       </c>
       <c r="B12" t="str">
         <f>'3NA_data'!R14</f>
-        <v>-</v>
+        <v xml:space="preserve">-Gaming is life, </v>
       </c>
       <c r="C12">
         <f>'3NA_data'!Q14</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" t="str">
         <f>'3NA_data'!A15</f>
-        <v>12</v>
+        <v>Rayden</v>
       </c>
       <c r="B13" t="str">
         <f>'3NA_data'!R15</f>
@@ -6332,13 +6417,13 @@
       </c>
       <c r="C13">
         <f>'3NA_data'!Q15</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" t="str">
         <f>'3NA_data'!A16</f>
-        <v>13</v>
+        <v>Darren</v>
       </c>
       <c r="B14" t="str">
         <f>'3NA_data'!R16</f>
@@ -6346,21 +6431,21 @@
       </c>
       <c r="C14">
         <f>'3NA_data'!Q16</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" t="str">
         <f>'3NA_data'!A17</f>
-        <v>14</v>
+        <v>Lucas</v>
       </c>
       <c r="B15" t="str">
         <f>'3NA_data'!R17</f>
-        <v>-</v>
+        <v xml:space="preserve">-Full Combo, </v>
       </c>
       <c r="C15">
         <f>'3NA_data'!Q17</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -6728,9 +6813,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:G2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\65929\Desktop\website\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B0CEAF-2C34-493E-9BE9-FC3C95D97330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4233F58F-E147-431D-A8C4-C78C997377E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2Exp_data" sheetId="1" r:id="rId1"/>
@@ -400,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -498,7 +498,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -781,7 +780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="N15" sqref="N15"/>
     </sheetView>
@@ -3827,7 +3826,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection activeCell="K6" sqref="K6"/>
-      <selection pane="topRight" activeCell="A18" sqref="A18"/>
+      <selection pane="topRight" activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4784,13 +4783,15 @@
       <c r="P17" s="14"/>
       <c r="Q17" s="15">
         <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="R17" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">-Full Combo, </v>
+      </c>
+      <c r="S17" s="16">
         <v>3</v>
       </c>
-      <c r="R17" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">-Full Combo, </v>
-      </c>
-      <c r="S17" s="16"/>
       <c r="T17" s="16"/>
       <c r="U17" s="16"/>
       <c r="V17" s="16"/>
@@ -6229,15 +6230,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D4A0D9-6E2F-42AC-B3E6-5121257CA31E}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -6248,12 +6249,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>'3NA_data'!A4</f>
         <v>XueWen</v>
       </c>
-      <c r="B2" s="39" t="str">
+      <c r="B2" t="str">
         <f>'3NA_data'!R4</f>
         <v>-</v>
       </c>
@@ -6261,12 +6262,8 @@
         <f>'3NA_data'!Q4</f>
         <v>3</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>'3NA_data'!A5</f>
         <v>Dean</v>
@@ -6280,7 +6277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>'3NA_data'!A6</f>
         <v>Angelo</v>
@@ -6294,7 +6291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>'3NA_data'!A7</f>
         <v>Kyle</v>
@@ -6308,7 +6305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>'3NA_data'!A8</f>
         <v>Jayden</v>
@@ -6322,7 +6319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>'3NA_data'!A9</f>
         <v>Auston</v>
@@ -6336,7 +6333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>'3NA_data'!A10</f>
         <v>Jia Xiang</v>
@@ -6350,7 +6347,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>'3NA_data'!A11</f>
         <v>Faith</v>
@@ -6364,7 +6361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>'3NA_data'!A12</f>
         <v>Hiroshi</v>
@@ -6378,7 +6375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>'3NA_data'!A13</f>
         <v>Luke</v>
@@ -6392,7 +6389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>'3NA_data'!A14</f>
         <v>Alicia</v>
@@ -6406,7 +6403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f>'3NA_data'!A15</f>
         <v>Rayden</v>
@@ -6420,7 +6417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f>'3NA_data'!A16</f>
         <v>Darren</v>
@@ -6434,7 +6431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>'3NA_data'!A17</f>
         <v>Lucas</v>
@@ -6445,10 +6442,10 @@
       </c>
       <c r="C15">
         <f>'3NA_data'!Q17</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <f>'3NA_data'!A18</f>
         <v>15</v>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\65929\Desktop\website\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4233F58F-E147-431D-A8C4-C78C997377E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CF70D7-6B04-4D41-A865-D4070762DCB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2Exp_data" sheetId="1" r:id="rId1"/>
-    <sheet name="2Exp" sheetId="4" r:id="rId2"/>
-    <sheet name="3NA_data" sheetId="6" r:id="rId3"/>
-    <sheet name="3NA" sheetId="5" r:id="rId4"/>
+    <sheet name="2Cou Data" sheetId="1" r:id="rId1"/>
+    <sheet name="2Cou" sheetId="4" r:id="rId2"/>
+    <sheet name="3Exp Data" sheetId="6" r:id="rId3"/>
+    <sheet name="3Exp" sheetId="5" r:id="rId4"/>
+    <sheet name="2Res Data" sheetId="7" r:id="rId5"/>
+    <sheet name="2Res" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="81">
   <si>
     <t>Achievements</t>
   </si>
@@ -111,12 +113,6 @@
     <t>Trigo</t>
   </si>
   <si>
-    <t>Chutlan</t>
-  </si>
-  <si>
-    <t>Poplolyay</t>
-  </si>
-  <si>
     <t>Xiang Rong</t>
   </si>
   <si>
@@ -130,9 +126,6 @@
   </si>
   <si>
     <t>phatman81kg</t>
-  </si>
-  <si>
-    <t>chickennugget16.5</t>
   </si>
   <si>
     <t>oldchangkeeyummy</t>
@@ -153,22 +146,10 @@
     <t>Valencia</t>
   </si>
   <si>
-    <t>potato</t>
-  </si>
-  <si>
     <t>Axel</t>
   </si>
   <si>
-    <t>pee</t>
-  </si>
-  <si>
     <t>Jylan</t>
-  </si>
-  <si>
-    <t>baby powder 64</t>
-  </si>
-  <si>
-    <t>ricebowl</t>
   </si>
   <si>
     <t>Cownuker44</t>
@@ -177,13 +158,7 @@
     <t>Denzel</t>
   </si>
   <si>
-    <t>banana</t>
-  </si>
-  <si>
     <t>Skout</t>
-  </si>
-  <si>
-    <t>Josh</t>
   </si>
   <si>
     <t>Tristan</t>
@@ -232,6 +207,72 @@
   </si>
   <si>
     <t>Lucas</t>
+  </si>
+  <si>
+    <t>Pythagoras</t>
+  </si>
+  <si>
+    <t>Yijie</t>
+  </si>
+  <si>
+    <t>Shannon</t>
+  </si>
+  <si>
+    <t>Yuxin</t>
+  </si>
+  <si>
+    <t>Shermin</t>
+  </si>
+  <si>
+    <t>Jovan</t>
+  </si>
+  <si>
+    <t>Joshua</t>
+  </si>
+  <si>
+    <t>Zhikei</t>
+  </si>
+  <si>
+    <t>Gina</t>
+  </si>
+  <si>
+    <t>Yuxuan</t>
+  </si>
+  <si>
+    <t>Chuhan</t>
+  </si>
+  <si>
+    <t>Guanxin</t>
+  </si>
+  <si>
+    <t>Yohana</t>
+  </si>
+  <si>
+    <t>Erin</t>
+  </si>
+  <si>
+    <t>Gerard</t>
+  </si>
+  <si>
+    <t>Anya</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>Zayden</t>
+  </si>
+  <si>
+    <t>Clarice</t>
+  </si>
+  <si>
+    <t>Chervel</t>
+  </si>
+  <si>
+    <t>Kerlyn</t>
+  </si>
+  <si>
+    <t>Wee Yang</t>
   </si>
 </sst>
 </file>
@@ -780,9 +821,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -925,10 +966,10 @@
         <v>0</v>
       </c>
       <c r="S3" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="T3" s="22" t="s">
         <v>26</v>
-      </c>
-      <c r="T3" s="22">
-        <v>2</v>
       </c>
       <c r="U3" s="22">
         <v>3</v>
@@ -1002,7 +1043,7 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13">
-        <f>IF(COUNTIF(S4:AL4,3)&gt;=2,1,0)</f>
+        <f>IF(COUNTIF(S4:AL4,"&gt;=3")&gt;=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="K4" s="13">
@@ -1024,7 +1065,9 @@
         <f>CONCATENATE("-",IF(B4=1,$B$3&amp;", ",""),IF(C4=1,$C$3&amp;", ",""),IF(D4=1,$D$3&amp;", ",""),IF(E4=1,$E$3&amp;", ",""),IF(F4=1,$F$3&amp;", ",""),IF(G4=1,$G$3&amp;", ",""),IF(H4=1,$H$3&amp;", ",""),IF(I4=1,$I$3&amp;", ",""),IF(J4=1,$J$3&amp;", ",""),IF(K4=1,$K$3&amp;", ",""),IF(L4=1,$L$3&amp;", ",""),IF(M4=1,$M$3&amp;", ",""),IF(N4=1,$N$3&amp;", ",""),IF(O4=1,$O$3&amp;", ",""),IF(P4=1,$P$3&amp;", ",""))</f>
         <v xml:space="preserve">-I Love Math, I Say Hi, Memelord, </v>
       </c>
-      <c r="S4" s="16"/>
+      <c r="S4" s="16">
+        <v>0</v>
+      </c>
       <c r="T4" s="16"/>
       <c r="U4" s="16"/>
       <c r="V4" s="16"/>
@@ -1060,7 +1103,7 @@
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13">
-        <f>IF(COUNTIF(S5:AL5,3)&gt;=2,1,0)</f>
+        <f t="shared" ref="J5:J43" si="0">IF(COUNTIF(S5:AL5,"&gt;=3")&gt;=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="K5" s="13">
@@ -1073,14 +1116,16 @@
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="15">
-        <f t="shared" ref="Q5:Q43" si="0">SUM(B5:G5)+3*SUM(H5:L5)+5*SUM(M5:P5)+SUM(S5:AL5)</f>
+        <f t="shared" ref="Q5:Q43" si="1">SUM(B5:G5)+3*SUM(H5:L5)+5*SUM(M5:P5)+SUM(S5:AL5)</f>
         <v>1</v>
       </c>
       <c r="R5" s="15" t="str">
-        <f t="shared" ref="R5:R43" si="1">CONCATENATE("-",IF(B5=1,$B$3&amp;", ",""),IF(C5=1,$C$3&amp;", ",""),IF(D5=1,$D$3&amp;", ",""),IF(E5=1,$E$3&amp;", ",""),IF(F5=1,$F$3&amp;", ",""),IF(G5=1,$G$3&amp;", ",""),IF(H5=1,$H$3&amp;", ",""),IF(I5=1,$I$3&amp;", ",""),IF(J5=1,$J$3&amp;", ",""),IF(K5=1,$K$3&amp;", ",""),IF(L5=1,$L$3&amp;", ",""),IF(M5=1,$M$3&amp;", ",""),IF(N5=1,$N$3&amp;", ",""),IF(O5=1,$O$3&amp;", ",""),IF(P5=1,$P$3&amp;", ",""))</f>
+        <f t="shared" ref="R5:R43" si="2">CONCATENATE("-",IF(B5=1,$B$3&amp;", ",""),IF(C5=1,$C$3&amp;", ",""),IF(D5=1,$D$3&amp;", ",""),IF(E5=1,$E$3&amp;", ",""),IF(F5=1,$F$3&amp;", ",""),IF(G5=1,$G$3&amp;", ",""),IF(H5=1,$H$3&amp;", ",""),IF(I5=1,$I$3&amp;", ",""),IF(J5=1,$J$3&amp;", ",""),IF(K5=1,$K$3&amp;", ",""),IF(L5=1,$L$3&amp;", ",""),IF(M5=1,$M$3&amp;", ",""),IF(N5=1,$N$3&amp;", ",""),IF(O5=1,$O$3&amp;", ",""),IF(P5=1,$P$3&amp;", ",""))</f>
         <v xml:space="preserve">-Blast to the Past, </v>
       </c>
-      <c r="S5" s="16"/>
+      <c r="S5" s="16">
+        <v>0</v>
+      </c>
       <c r="T5" s="16"/>
       <c r="U5" s="16"/>
       <c r="V5" s="16"/>
@@ -1103,7 +1148,7 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -1114,8 +1159,8 @@
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13">
-        <f t="shared" ref="J6:J43" si="2">IF(COUNTIF(S6:AL6,3)&gt;=2,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K6" s="13">
         <f t="array" ref="K6">IF(MAX(FREQUENCY(IF(S6:AL6&gt;0,COLUMN(S6:AL6)),IF(S6:AL6&lt;=0,COLUMN(S6:AL6))))&gt;4,1,0)</f>
@@ -1127,17 +1172,19 @@
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
       <c r="Q6" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="R6" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="S6" s="16">
         <v>3</v>
       </c>
-      <c r="T6" s="16"/>
+      <c r="T6" s="16">
+        <v>4</v>
+      </c>
       <c r="U6" s="16"/>
       <c r="V6" s="16"/>
       <c r="W6" s="16"/>
@@ -1159,7 +1206,7 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -1170,7 +1217,7 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K7" s="13">
@@ -1183,17 +1230,19 @@
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="15">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="R7" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S7" s="16">
         <v>1</v>
       </c>
-      <c r="T7" s="16"/>
+      <c r="T7" s="16">
+        <v>1</v>
+      </c>
       <c r="U7" s="16"/>
       <c r="V7" s="16"/>
       <c r="W7" s="16"/>
@@ -1215,7 +1264,7 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -1226,7 +1275,7 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K8" s="13">
@@ -1239,17 +1288,19 @@
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="15">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="R8" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S8" s="16">
         <v>2</v>
       </c>
-      <c r="T8" s="16"/>
+      <c r="T8" s="16">
+        <v>4</v>
+      </c>
       <c r="U8" s="16"/>
       <c r="V8" s="16"/>
       <c r="W8" s="16"/>
@@ -1271,7 +1322,7 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -1282,7 +1333,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K9" s="13">
@@ -1295,17 +1346,19 @@
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
       <c r="Q9" s="15">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="R9" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S9" s="16">
         <v>2</v>
       </c>
-      <c r="T9" s="16"/>
+      <c r="T9" s="16">
+        <v>4</v>
+      </c>
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
       <c r="W9" s="16"/>
@@ -1327,7 +1380,7 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -1340,7 +1393,7 @@
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K10" s="13">
@@ -1355,17 +1408,19 @@
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="15">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="R10" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">-Blast to the Past, Memelord, </v>
       </c>
       <c r="S10" s="16">
         <v>2</v>
       </c>
-      <c r="T10" s="16"/>
+      <c r="T10" s="16">
+        <v>2</v>
+      </c>
       <c r="U10" s="16"/>
       <c r="V10" s="16"/>
       <c r="W10" s="16"/>
@@ -1387,7 +1442,7 @@
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1400,30 +1455,34 @@
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K11" s="13">
         <f t="array" ref="K11">IF(MAX(FREQUENCY(IF(S11:AL11&gt;0,COLUMN(S11:AL11)),IF(S11:AL11&lt;=0,COLUMN(S11:AL11))))&gt;4,1,0)</f>
         <v>0</v>
       </c>
-      <c r="L11" s="13"/>
+      <c r="L11" s="13">
+        <v>1</v>
+      </c>
       <c r="M11" s="13"/>
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
       <c r="Q11" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="R11" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">-Blast to the Past, </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">-Blast to the Past, Extra Credit, </v>
       </c>
       <c r="S11" s="16">
         <v>2</v>
       </c>
-      <c r="T11" s="16"/>
+      <c r="T11" s="16">
+        <v>3</v>
+      </c>
       <c r="U11" s="16"/>
       <c r="V11" s="16"/>
       <c r="W11" s="16"/>
@@ -1445,7 +1504,7 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -1456,7 +1515,7 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K12" s="13">
@@ -1469,11 +1528,11 @@
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
       <c r="Q12" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R12" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S12" s="16">
@@ -1501,9 +1560,11 @@
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="12"/>
+        <v>78</v>
+      </c>
+      <c r="B13" s="12">
+        <v>1</v>
+      </c>
       <c r="C13" s="12">
         <v>1</v>
       </c>
@@ -1514,7 +1575,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K13" s="13">
@@ -1527,17 +1588,19 @@
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
       <c r="Q13" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="R13" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">-I Say Hi, </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">-I Love Math, I Say Hi, </v>
       </c>
       <c r="S13" s="16">
         <v>2</v>
       </c>
-      <c r="T13" s="16"/>
+      <c r="T13" s="16">
+        <v>4</v>
+      </c>
       <c r="U13" s="16"/>
       <c r="V13" s="16"/>
       <c r="W13" s="16"/>
@@ -1559,7 +1622,7 @@
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -1570,7 +1633,7 @@
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K14" s="13">
@@ -1583,11 +1646,11 @@
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
       <c r="Q14" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="R14" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S14" s="16">
@@ -1615,7 +1678,7 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -1626,8 +1689,8 @@
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K15" s="13">
         <f t="array" ref="K15">IF(MAX(FREQUENCY(IF(S15:AL15&gt;0,COLUMN(S15:AL15)),IF(S15:AL15&lt;=0,COLUMN(S15:AL15))))&gt;4,1,0)</f>
@@ -1639,17 +1702,19 @@
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="R15" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="S15" s="16">
         <v>3</v>
       </c>
-      <c r="T15" s="16"/>
+      <c r="T15" s="16">
+        <v>3</v>
+      </c>
       <c r="U15" s="16"/>
       <c r="V15" s="16"/>
       <c r="W15" s="16"/>
@@ -1671,7 +1736,7 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -1682,8 +1747,8 @@
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K16" s="13">
         <f t="array" ref="K16">IF(MAX(FREQUENCY(IF(S16:AL16&gt;0,COLUMN(S16:AL16)),IF(S16:AL16&lt;=0,COLUMN(S16:AL16))))&gt;4,1,0)</f>
@@ -1695,17 +1760,19 @@
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="R16" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="S16" s="16">
         <v>3</v>
       </c>
-      <c r="T16" s="16"/>
+      <c r="T16" s="16">
+        <v>3</v>
+      </c>
       <c r="U16" s="16"/>
       <c r="V16" s="16"/>
       <c r="W16" s="16"/>
@@ -1727,7 +1794,7 @@
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -1738,7 +1805,7 @@
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K17" s="13">
@@ -1751,11 +1818,11 @@
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
       <c r="Q17" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="R17" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S17" s="16">
@@ -1783,7 +1850,7 @@
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -1794,7 +1861,7 @@
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K18" s="13">
@@ -1807,11 +1874,11 @@
       <c r="O18" s="14"/>
       <c r="P18" s="14"/>
       <c r="Q18" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="R18" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S18" s="16">
@@ -1839,7 +1906,7 @@
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -1850,7 +1917,7 @@
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K19" s="13">
@@ -1863,11 +1930,11 @@
       <c r="O19" s="14"/>
       <c r="P19" s="14"/>
       <c r="Q19" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="R19" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S19" s="16">
@@ -1895,7 +1962,7 @@
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -1906,8 +1973,8 @@
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K20" s="13">
         <f t="array" ref="K20">IF(MAX(FREQUENCY(IF(S20:AL20&gt;0,COLUMN(S20:AL20)),IF(S20:AL20&lt;=0,COLUMN(S20:AL20))))&gt;4,1,0)</f>
@@ -1919,17 +1986,19 @@
       <c r="O20" s="14"/>
       <c r="P20" s="14"/>
       <c r="Q20" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="R20" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="S20" s="16">
         <v>3</v>
       </c>
-      <c r="T20" s="16"/>
+      <c r="T20" s="16">
+        <v>3</v>
+      </c>
       <c r="U20" s="16"/>
       <c r="V20" s="16"/>
       <c r="W20" s="16"/>
@@ -1951,7 +2020,7 @@
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -1962,7 +2031,7 @@
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K21" s="13">
@@ -1975,11 +2044,11 @@
       <c r="O21" s="14"/>
       <c r="P21" s="14"/>
       <c r="Q21" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="R21" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S21" s="16">
@@ -2007,7 +2076,7 @@
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -2018,7 +2087,7 @@
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
       <c r="J22" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K22" s="13">
@@ -2031,17 +2100,19 @@
       <c r="O22" s="14"/>
       <c r="P22" s="14"/>
       <c r="Q22" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="R22" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S22" s="16">
         <v>3</v>
       </c>
-      <c r="T22" s="16"/>
+      <c r="T22" s="16">
+        <v>2</v>
+      </c>
       <c r="U22" s="16"/>
       <c r="V22" s="16"/>
       <c r="W22" s="16"/>
@@ -2063,7 +2134,7 @@
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -2074,7 +2145,7 @@
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
       <c r="J23" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K23" s="13">
@@ -2087,17 +2158,19 @@
       <c r="O23" s="14"/>
       <c r="P23" s="14"/>
       <c r="Q23" s="15">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="R23" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S23" s="16">
         <v>2</v>
       </c>
-      <c r="T23" s="16"/>
+      <c r="T23" s="16">
+        <v>3</v>
+      </c>
       <c r="U23" s="16"/>
       <c r="V23" s="16"/>
       <c r="W23" s="16"/>
@@ -2119,18 +2192,20 @@
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
+      <c r="G24" s="12">
+        <v>1</v>
+      </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
       <c r="J24" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K24" s="13">
@@ -2143,17 +2218,19 @@
       <c r="O24" s="14"/>
       <c r="P24" s="14"/>
       <c r="Q24" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="R24" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">-Help a friend!, </v>
       </c>
       <c r="S24" s="16">
         <v>3</v>
       </c>
-      <c r="T24" s="16"/>
+      <c r="T24" s="16">
+        <v>2</v>
+      </c>
       <c r="U24" s="16"/>
       <c r="V24" s="16"/>
       <c r="W24" s="16"/>
@@ -2175,7 +2252,7 @@
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12">
@@ -2184,13 +2261,15 @@
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
+      <c r="G25" s="12">
+        <v>1</v>
+      </c>
       <c r="H25" s="13">
         <v>1</v>
       </c>
       <c r="I25" s="13"/>
       <c r="J25" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K25" s="13">
@@ -2203,17 +2282,19 @@
       <c r="O25" s="14"/>
       <c r="P25" s="14"/>
       <c r="Q25" s="15">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="R25" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">-I Say Hi, Full Combo, </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">-I Say Hi, Help a friend!, Full Combo, </v>
       </c>
       <c r="S25" s="16">
         <v>3</v>
       </c>
-      <c r="T25" s="16"/>
+      <c r="T25" s="16">
+        <v>2</v>
+      </c>
       <c r="U25" s="16"/>
       <c r="V25" s="16"/>
       <c r="W25" s="16"/>
@@ -2235,7 +2316,7 @@
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -2246,7 +2327,7 @@
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
       <c r="J26" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K26" s="13">
@@ -2259,11 +2340,11 @@
       <c r="O26" s="14"/>
       <c r="P26" s="14"/>
       <c r="Q26" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="R26" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S26" s="16">
@@ -2291,7 +2372,7 @@
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -2302,7 +2383,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
       <c r="J27" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K27" s="13">
@@ -2315,17 +2396,19 @@
       <c r="O27" s="14"/>
       <c r="P27" s="14"/>
       <c r="Q27" s="15">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="R27" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S27" s="16">
         <v>2</v>
       </c>
-      <c r="T27" s="16"/>
+      <c r="T27" s="16">
+        <v>2</v>
+      </c>
       <c r="U27" s="16"/>
       <c r="V27" s="16"/>
       <c r="W27" s="16"/>
@@ -2347,7 +2430,7 @@
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -2358,8 +2441,8 @@
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
       <c r="J28" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K28" s="13">
         <f t="array" ref="K28">IF(MAX(FREQUENCY(IF(S28:AL28&gt;0,COLUMN(S28:AL28)),IF(S28:AL28&lt;=0,COLUMN(S28:AL28))))&gt;4,1,0)</f>
@@ -2371,17 +2454,19 @@
       <c r="O28" s="14"/>
       <c r="P28" s="14"/>
       <c r="Q28" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="R28" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="S28" s="16">
         <v>3</v>
       </c>
-      <c r="T28" s="16"/>
+      <c r="T28" s="16">
+        <v>3</v>
+      </c>
       <c r="U28" s="16"/>
       <c r="V28" s="16"/>
       <c r="W28" s="16"/>
@@ -2403,7 +2488,7 @@
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -2416,8 +2501,8 @@
       </c>
       <c r="I29" s="13"/>
       <c r="J29" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K29" s="13">
         <f t="array" ref="K29">IF(MAX(FREQUENCY(IF(S29:AL29&gt;0,COLUMN(S29:AL29)),IF(S29:AL29&lt;=0,COLUMN(S29:AL29))))&gt;4,1,0)</f>
@@ -2429,17 +2514,19 @@
       <c r="O29" s="14"/>
       <c r="P29" s="14"/>
       <c r="Q29" s="15">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="R29" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">-Full Combo, </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">-Full Combo, Three-Star Wonder, </v>
       </c>
       <c r="S29" s="16">
         <v>3</v>
       </c>
-      <c r="T29" s="16"/>
+      <c r="T29" s="16">
+        <v>4</v>
+      </c>
       <c r="U29" s="16"/>
       <c r="V29" s="16"/>
       <c r="W29" s="16"/>
@@ -2461,7 +2548,7 @@
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -2472,7 +2559,7 @@
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
       <c r="J30" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K30" s="13">
@@ -2485,17 +2572,19 @@
       <c r="O30" s="14"/>
       <c r="P30" s="14"/>
       <c r="Q30" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="R30" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S30" s="16">
         <v>0</v>
       </c>
-      <c r="T30" s="16"/>
+      <c r="T30" s="16">
+        <v>3</v>
+      </c>
       <c r="U30" s="16"/>
       <c r="V30" s="16"/>
       <c r="W30" s="16"/>
@@ -2517,7 +2606,7 @@
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -2528,7 +2617,7 @@
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
       <c r="J31" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K31" s="13">
@@ -2541,17 +2630,19 @@
       <c r="O31" s="14"/>
       <c r="P31" s="14"/>
       <c r="Q31" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="R31" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S31" s="16">
         <v>0</v>
       </c>
-      <c r="T31" s="16"/>
+      <c r="T31" s="16">
+        <v>3</v>
+      </c>
       <c r="U31" s="16"/>
       <c r="V31" s="16"/>
       <c r="W31" s="16"/>
@@ -2572,10 +2663,12 @@
       <c r="AL31" s="16"/>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A32" s="11">
-        <v>29</v>
-      </c>
-      <c r="B32" s="12"/>
+      <c r="A32" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="12">
+        <v>1</v>
+      </c>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
@@ -2584,7 +2677,7 @@
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
       <c r="J32" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K32" s="13">
@@ -2597,15 +2690,19 @@
       <c r="O32" s="14"/>
       <c r="P32" s="14"/>
       <c r="Q32" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="R32" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S32" s="16"/>
-      <c r="T32" s="16"/>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">-I Love Math, </v>
+      </c>
+      <c r="S32" s="16">
+        <v>0</v>
+      </c>
+      <c r="T32" s="16">
+        <v>2</v>
+      </c>
       <c r="U32" s="16"/>
       <c r="V32" s="16"/>
       <c r="W32" s="16"/>
@@ -2626,8 +2723,8 @@
       <c r="AL32" s="16"/>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A33" s="11">
-        <v>30</v>
+      <c r="A33" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -2638,7 +2735,7 @@
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
       <c r="J33" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K33" s="13">
@@ -2651,15 +2748,19 @@
       <c r="O33" s="14"/>
       <c r="P33" s="14"/>
       <c r="Q33" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="R33" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S33" s="16"/>
-      <c r="T33" s="16"/>
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S33" s="16">
+        <v>0</v>
+      </c>
+      <c r="T33" s="16">
+        <v>2</v>
+      </c>
       <c r="U33" s="16"/>
       <c r="V33" s="16"/>
       <c r="W33" s="16"/>
@@ -2680,8 +2781,8 @@
       <c r="AL33" s="16"/>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A34" s="11">
-        <v>31</v>
+      <c r="A34" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -2692,7 +2793,7 @@
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
       <c r="J34" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K34" s="13">
@@ -2705,15 +2806,19 @@
       <c r="O34" s="14"/>
       <c r="P34" s="14"/>
       <c r="Q34" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="R34" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S34" s="16"/>
-      <c r="T34" s="16"/>
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S34" s="16">
+        <v>0</v>
+      </c>
+      <c r="T34" s="16">
+        <v>3</v>
+      </c>
       <c r="U34" s="16"/>
       <c r="V34" s="16"/>
       <c r="W34" s="16"/>
@@ -2734,8 +2839,8 @@
       <c r="AL34" s="16"/>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A35" s="11">
-        <v>32</v>
+      <c r="A35" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -2746,7 +2851,7 @@
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
       <c r="J35" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K35" s="13">
@@ -2759,15 +2864,19 @@
       <c r="O35" s="14"/>
       <c r="P35" s="14"/>
       <c r="Q35" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="R35" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S35" s="16">
+        <v>0</v>
+      </c>
+      <c r="T35" s="16">
+        <v>3</v>
+      </c>
       <c r="U35" s="16"/>
       <c r="V35" s="16"/>
       <c r="W35" s="16"/>
@@ -2788,8 +2897,8 @@
       <c r="AL35" s="16"/>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A36" s="11">
-        <v>33</v>
+      <c r="A36" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -2800,7 +2909,7 @@
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
       <c r="J36" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K36" s="13">
@@ -2813,15 +2922,19 @@
       <c r="O36" s="14"/>
       <c r="P36" s="14"/>
       <c r="Q36" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="R36" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S36" s="16"/>
-      <c r="T36" s="16"/>
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S36" s="16">
+        <v>0</v>
+      </c>
+      <c r="T36" s="16">
+        <v>2</v>
+      </c>
       <c r="U36" s="16"/>
       <c r="V36" s="16"/>
       <c r="W36" s="16"/>
@@ -2842,8 +2955,8 @@
       <c r="AL36" s="16"/>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A37" s="11">
-        <v>34</v>
+      <c r="A37" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -2854,7 +2967,7 @@
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
       <c r="J37" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K37" s="13">
@@ -2867,15 +2980,19 @@
       <c r="O37" s="14"/>
       <c r="P37" s="14"/>
       <c r="Q37" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="R37" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S37" s="16"/>
-      <c r="T37" s="16"/>
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S37" s="16">
+        <v>0</v>
+      </c>
+      <c r="T37" s="16">
+        <v>3</v>
+      </c>
       <c r="U37" s="16"/>
       <c r="V37" s="16"/>
       <c r="W37" s="16"/>
@@ -2896,8 +3013,8 @@
       <c r="AL37" s="16"/>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A38" s="11">
-        <v>35</v>
+      <c r="A38" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -2908,7 +3025,7 @@
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
       <c r="J38" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K38" s="13">
@@ -2921,15 +3038,19 @@
       <c r="O38" s="14"/>
       <c r="P38" s="14"/>
       <c r="Q38" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="R38" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S38" s="16"/>
-      <c r="T38" s="16"/>
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S38" s="16">
+        <v>0</v>
+      </c>
+      <c r="T38" s="16">
+        <v>2</v>
+      </c>
       <c r="U38" s="16"/>
       <c r="V38" s="16"/>
       <c r="W38" s="16"/>
@@ -2950,8 +3071,8 @@
       <c r="AL38" s="16"/>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A39" s="11">
-        <v>36</v>
+      <c r="A39" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -2962,7 +3083,7 @@
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
       <c r="J39" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K39" s="13">
@@ -2975,15 +3096,19 @@
       <c r="O39" s="14"/>
       <c r="P39" s="14"/>
       <c r="Q39" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="R39" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S39" s="16"/>
-      <c r="T39" s="16"/>
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S39" s="16">
+        <v>0</v>
+      </c>
+      <c r="T39" s="16">
+        <v>3</v>
+      </c>
       <c r="U39" s="16"/>
       <c r="V39" s="16"/>
       <c r="W39" s="16"/>
@@ -3004,8 +3129,8 @@
       <c r="AL39" s="16"/>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A40" s="11">
-        <v>37</v>
+      <c r="A40" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -3016,7 +3141,7 @@
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
       <c r="J40" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K40" s="13">
@@ -3029,15 +3154,19 @@
       <c r="O40" s="14"/>
       <c r="P40" s="14"/>
       <c r="Q40" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="R40" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S40" s="16"/>
-      <c r="T40" s="16"/>
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S40" s="16">
+        <v>0</v>
+      </c>
+      <c r="T40" s="16">
+        <v>3</v>
+      </c>
       <c r="U40" s="16"/>
       <c r="V40" s="16"/>
       <c r="W40" s="16"/>
@@ -3058,8 +3187,8 @@
       <c r="AL40" s="16"/>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A41" s="11">
-        <v>38</v>
+      <c r="A41" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -3070,7 +3199,7 @@
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
       <c r="J41" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K41" s="13">
@@ -3083,15 +3212,19 @@
       <c r="O41" s="14"/>
       <c r="P41" s="14"/>
       <c r="Q41" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="R41" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S41" s="16"/>
-      <c r="T41" s="16"/>
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S41" s="16">
+        <v>0</v>
+      </c>
+      <c r="T41" s="16">
+        <v>2</v>
+      </c>
       <c r="U41" s="16"/>
       <c r="V41" s="16"/>
       <c r="W41" s="16"/>
@@ -3112,8 +3245,8 @@
       <c r="AL41" s="16"/>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A42" s="11">
-        <v>39</v>
+      <c r="A42" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -3124,7 +3257,7 @@
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
       <c r="J42" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K42" s="13">
@@ -3137,15 +3270,19 @@
       <c r="O42" s="14"/>
       <c r="P42" s="14"/>
       <c r="Q42" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="R42" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S42" s="16"/>
-      <c r="T42" s="16"/>
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S42" s="16">
+        <v>0</v>
+      </c>
+      <c r="T42" s="16">
+        <v>3</v>
+      </c>
       <c r="U42" s="16"/>
       <c r="V42" s="16"/>
       <c r="W42" s="16"/>
@@ -3166,8 +3303,8 @@
       <c r="AL42" s="16"/>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A43" s="11">
-        <v>40</v>
+      <c r="A43" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -3178,7 +3315,7 @@
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
       <c r="J43" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K43" s="13">
@@ -3191,15 +3328,19 @@
       <c r="O43" s="14"/>
       <c r="P43" s="14"/>
       <c r="Q43" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="R43" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S43" s="16"/>
-      <c r="T43" s="16"/>
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S43" s="16">
+        <v>0</v>
+      </c>
+      <c r="T43" s="16">
+        <v>3</v>
+      </c>
       <c r="U43" s="16"/>
       <c r="V43" s="16"/>
       <c r="W43" s="16"/>
@@ -3238,14 +3379,14 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3256,562 +3397,562 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
-        <f>'2Exp_data'!A4</f>
+        <f>'2Cou Data'!A4</f>
         <v>BaconBoiGaming</v>
       </c>
       <c r="B2" t="str">
-        <f>'2Exp_data'!R4</f>
+        <f>'2Cou Data'!R4</f>
         <v xml:space="preserve">-I Love Math, I Say Hi, Memelord, </v>
       </c>
       <c r="C2">
-        <f>'2Exp_data'!Q4</f>
+        <f>'2Cou Data'!Q4</f>
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
-        <f>'2Exp_data'!A5</f>
+        <f>'2Cou Data'!A5</f>
         <v>rae</v>
       </c>
       <c r="B3" t="str">
-        <f>'2Exp_data'!R5</f>
+        <f>'2Cou Data'!R5</f>
         <v xml:space="preserve">-Blast to the Past, </v>
       </c>
       <c r="C3">
-        <f>'2Exp_data'!Q5</f>
+        <f>'2Cou Data'!Q5</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
-        <f>'2Exp_data'!A6</f>
-        <v>Chutlan</v>
+        <f>'2Cou Data'!A6</f>
+        <v>Chuhan</v>
       </c>
       <c r="B4" t="str">
-        <f>'2Exp_data'!R6</f>
-        <v>-</v>
+        <f>'2Cou Data'!R6</f>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C4">
-        <f>'2Exp_data'!Q6</f>
-        <v>3</v>
+        <f>'2Cou Data'!Q6</f>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
-        <f>'2Exp_data'!A7</f>
-        <v>Poplolyay</v>
+        <f>'2Cou Data'!A7</f>
+        <v>Gerard</v>
       </c>
       <c r="B5" t="str">
-        <f>'2Exp_data'!R7</f>
+        <f>'2Cou Data'!R7</f>
         <v>-</v>
       </c>
       <c r="C5">
-        <f>'2Exp_data'!Q7</f>
-        <v>1</v>
+        <f>'2Cou Data'!Q7</f>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
-        <f>'2Exp_data'!A8</f>
+        <f>'2Cou Data'!A8</f>
         <v>Xiang Rong</v>
       </c>
       <c r="B6" t="str">
-        <f>'2Exp_data'!R8</f>
+        <f>'2Cou Data'!R8</f>
         <v>-</v>
       </c>
       <c r="C6">
-        <f>'2Exp_data'!Q8</f>
-        <v>2</v>
+        <f>'2Cou Data'!Q8</f>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
-        <f>'2Exp_data'!A9</f>
+        <f>'2Cou Data'!A9</f>
         <v>Zarele</v>
       </c>
       <c r="B7" t="str">
-        <f>'2Exp_data'!R9</f>
+        <f>'2Cou Data'!R9</f>
         <v>-</v>
       </c>
       <c r="C7">
-        <f>'2Exp_data'!Q9</f>
-        <v>2</v>
+        <f>'2Cou Data'!Q9</f>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
-        <f>'2Exp_data'!A10</f>
+        <f>'2Cou Data'!A10</f>
         <v>Jaidern</v>
       </c>
       <c r="B8" t="str">
-        <f>'2Exp_data'!R10</f>
+        <f>'2Cou Data'!R10</f>
         <v xml:space="preserve">-Blast to the Past, Memelord, </v>
       </c>
       <c r="C8">
-        <f>'2Exp_data'!Q10</f>
-        <v>8</v>
+        <f>'2Cou Data'!Q10</f>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
-        <f>'2Exp_data'!A11</f>
+        <f>'2Cou Data'!A11</f>
         <v>Calbri Kane</v>
       </c>
       <c r="B9" t="str">
-        <f>'2Exp_data'!R11</f>
-        <v xml:space="preserve">-Blast to the Past, </v>
+        <f>'2Cou Data'!R11</f>
+        <v xml:space="preserve">-Blast to the Past, Extra Credit, </v>
       </c>
       <c r="C9">
-        <f>'2Exp_data'!Q11</f>
-        <v>3</v>
+        <f>'2Cou Data'!Q11</f>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
-        <f>'2Exp_data'!A12</f>
+        <f>'2Cou Data'!A12</f>
         <v>phatman81kg</v>
       </c>
       <c r="B10" t="str">
-        <f>'2Exp_data'!R12</f>
+        <f>'2Cou Data'!R12</f>
         <v>-</v>
       </c>
       <c r="C10">
-        <f>'2Exp_data'!Q12</f>
+        <f>'2Cou Data'!Q12</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
-        <f>'2Exp_data'!A13</f>
-        <v>chickennugget16.5</v>
+        <f>'2Cou Data'!A13</f>
+        <v>Chervel</v>
       </c>
       <c r="B11" t="str">
-        <f>'2Exp_data'!R13</f>
-        <v xml:space="preserve">-I Say Hi, </v>
+        <f>'2Cou Data'!R13</f>
+        <v xml:space="preserve">-I Love Math, I Say Hi, </v>
       </c>
       <c r="C11">
-        <f>'2Exp_data'!Q13</f>
-        <v>3</v>
+        <f>'2Cou Data'!Q13</f>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
-        <f>'2Exp_data'!A14</f>
+        <f>'2Cou Data'!A14</f>
         <v>oldchangkeeyummy</v>
       </c>
       <c r="B12" t="str">
-        <f>'2Exp_data'!R14</f>
+        <f>'2Cou Data'!R14</f>
         <v>-</v>
       </c>
       <c r="C12">
-        <f>'2Exp_data'!Q14</f>
+        <f>'2Cou Data'!Q14</f>
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
-        <f>'2Exp_data'!A15</f>
+        <f>'2Cou Data'!A15</f>
         <v>Mabel</v>
       </c>
       <c r="B13" t="str">
-        <f>'2Exp_data'!R15</f>
-        <v>-</v>
+        <f>'2Cou Data'!R15</f>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C13">
-        <f>'2Exp_data'!Q15</f>
-        <v>3</v>
+        <f>'2Cou Data'!Q15</f>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
-        <f>'2Exp_data'!A16</f>
+        <f>'2Cou Data'!A16</f>
         <v>MusicNerd10</v>
       </c>
       <c r="B14" t="str">
-        <f>'2Exp_data'!R16</f>
-        <v>-</v>
+        <f>'2Cou Data'!R16</f>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C14">
-        <f>'2Exp_data'!Q16</f>
-        <v>3</v>
+        <f>'2Cou Data'!Q16</f>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
-        <f>'2Exp_data'!A17</f>
+        <f>'2Cou Data'!A17</f>
         <v>Destineeee</v>
       </c>
       <c r="B15" t="str">
-        <f>'2Exp_data'!R17</f>
+        <f>'2Cou Data'!R17</f>
         <v>-</v>
       </c>
       <c r="C15">
-        <f>'2Exp_data'!Q17</f>
+        <f>'2Cou Data'!Q17</f>
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
-        <f>'2Exp_data'!A18</f>
+        <f>'2Cou Data'!A18</f>
         <v>stars</v>
       </c>
       <c r="B16" t="str">
-        <f>'2Exp_data'!R18</f>
+        <f>'2Cou Data'!R18</f>
         <v>-</v>
       </c>
       <c r="C16">
-        <f>'2Exp_data'!Q18</f>
+        <f>'2Cou Data'!Q18</f>
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
-        <f>'2Exp_data'!A19</f>
+        <f>'2Cou Data'!A19</f>
         <v>Valencia</v>
       </c>
       <c r="B17" t="str">
-        <f>'2Exp_data'!R19</f>
+        <f>'2Cou Data'!R19</f>
         <v>-</v>
       </c>
       <c r="C17">
-        <f>'2Exp_data'!Q19</f>
+        <f>'2Cou Data'!Q19</f>
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
-        <f>'2Exp_data'!A20</f>
-        <v>potato</v>
+        <f>'2Cou Data'!A20</f>
+        <v>Zhikei</v>
       </c>
       <c r="B18" t="str">
-        <f>'2Exp_data'!R20</f>
-        <v>-</v>
+        <f>'2Cou Data'!R20</f>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C18">
-        <f>'2Exp_data'!Q20</f>
-        <v>3</v>
+        <f>'2Cou Data'!Q20</f>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
-        <f>'2Exp_data'!A21</f>
+        <f>'2Cou Data'!A21</f>
         <v>Axel</v>
       </c>
       <c r="B19" t="str">
-        <f>'2Exp_data'!R21</f>
+        <f>'2Cou Data'!R21</f>
         <v>-</v>
       </c>
       <c r="C19">
-        <f>'2Exp_data'!Q21</f>
+        <f>'2Cou Data'!Q21</f>
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
-        <f>'2Exp_data'!A22</f>
-        <v>pee</v>
+        <f>'2Cou Data'!A22</f>
+        <v>Yijie</v>
       </c>
       <c r="B20" t="str">
-        <f>'2Exp_data'!R22</f>
+        <f>'2Cou Data'!R22</f>
         <v>-</v>
       </c>
       <c r="C20">
-        <f>'2Exp_data'!Q22</f>
-        <v>3</v>
+        <f>'2Cou Data'!Q22</f>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
-        <f>'2Exp_data'!A23</f>
+        <f>'2Cou Data'!A23</f>
         <v>Jylan</v>
       </c>
       <c r="B21" t="str">
-        <f>'2Exp_data'!R23</f>
+        <f>'2Cou Data'!R23</f>
         <v>-</v>
       </c>
       <c r="C21">
-        <f>'2Exp_data'!Q23</f>
-        <v>2</v>
+        <f>'2Cou Data'!Q23</f>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
-        <f>'2Exp_data'!A24</f>
-        <v>baby powder 64</v>
+        <f>'2Cou Data'!A24</f>
+        <v>Zayden</v>
       </c>
       <c r="B22" t="str">
-        <f>'2Exp_data'!R24</f>
-        <v>-</v>
+        <f>'2Cou Data'!R24</f>
+        <v xml:space="preserve">-Help a friend!, </v>
       </c>
       <c r="C22">
-        <f>'2Exp_data'!Q24</f>
-        <v>3</v>
+        <f>'2Cou Data'!Q24</f>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
-        <f>'2Exp_data'!A25</f>
-        <v>ricebowl</v>
+        <f>'2Cou Data'!A25</f>
+        <v>Clarice</v>
       </c>
       <c r="B23" t="str">
-        <f>'2Exp_data'!R25</f>
-        <v xml:space="preserve">-I Say Hi, Full Combo, </v>
+        <f>'2Cou Data'!R25</f>
+        <v xml:space="preserve">-I Say Hi, Help a friend!, Full Combo, </v>
       </c>
       <c r="C23">
-        <f>'2Exp_data'!Q25</f>
-        <v>7</v>
+        <f>'2Cou Data'!Q25</f>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
-        <f>'2Exp_data'!A26</f>
+        <f>'2Cou Data'!A26</f>
         <v>Cownuker44</v>
       </c>
       <c r="B24" t="str">
-        <f>'2Exp_data'!R26</f>
+        <f>'2Cou Data'!R26</f>
         <v>-</v>
       </c>
       <c r="C24">
-        <f>'2Exp_data'!Q26</f>
+        <f>'2Cou Data'!Q26</f>
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
-        <f>'2Exp_data'!A27</f>
+        <f>'2Cou Data'!A27</f>
         <v>Denzel</v>
       </c>
       <c r="B25" t="str">
-        <f>'2Exp_data'!R27</f>
+        <f>'2Cou Data'!R27</f>
         <v>-</v>
       </c>
       <c r="C25">
-        <f>'2Exp_data'!Q27</f>
-        <v>2</v>
+        <f>'2Cou Data'!Q27</f>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
-        <f>'2Exp_data'!A28</f>
-        <v>banana</v>
+        <f>'2Cou Data'!A28</f>
+        <v>Erin</v>
       </c>
       <c r="B26" t="str">
-        <f>'2Exp_data'!R28</f>
-        <v>-</v>
+        <f>'2Cou Data'!R28</f>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C26">
-        <f>'2Exp_data'!Q28</f>
-        <v>3</v>
+        <f>'2Cou Data'!Q28</f>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
-        <f>'2Exp_data'!A29</f>
+        <f>'2Cou Data'!A29</f>
         <v>Skout</v>
       </c>
       <c r="B27" t="str">
-        <f>'2Exp_data'!R29</f>
-        <v xml:space="preserve">-Full Combo, </v>
+        <f>'2Cou Data'!R29</f>
+        <v xml:space="preserve">-Full Combo, Three-Star Wonder, </v>
       </c>
       <c r="C27">
-        <f>'2Exp_data'!Q29</f>
-        <v>6</v>
+        <f>'2Cou Data'!Q29</f>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
-        <f>'2Exp_data'!A30</f>
-        <v>Josh</v>
+        <f>'2Cou Data'!A30</f>
+        <v>Joshua</v>
       </c>
       <c r="B28" t="str">
-        <f>'2Exp_data'!R30</f>
+        <f>'2Cou Data'!R30</f>
         <v>-</v>
       </c>
       <c r="C28">
-        <f>'2Exp_data'!Q30</f>
-        <v>0</v>
+        <f>'2Cou Data'!Q30</f>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
-        <f>'2Exp_data'!A31</f>
+        <f>'2Cou Data'!A31</f>
         <v>Tristan</v>
       </c>
       <c r="B29" t="str">
-        <f>'2Exp_data'!R31</f>
+        <f>'2Cou Data'!R31</f>
         <v>-</v>
       </c>
       <c r="C29">
-        <f>'2Exp_data'!Q31</f>
-        <v>0</v>
+        <f>'2Cou Data'!Q31</f>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <f>'2Exp_data'!A32</f>
-        <v>29</v>
+      <c r="A30" t="str">
+        <f>'2Cou Data'!A32</f>
+        <v>Anya</v>
       </c>
       <c r="B30" t="str">
-        <f>'2Exp_data'!R32</f>
-        <v>-</v>
+        <f>'2Cou Data'!R32</f>
+        <v xml:space="preserve">-I Love Math, </v>
       </c>
       <c r="C30">
-        <f>'2Exp_data'!Q32</f>
-        <v>0</v>
+        <f>'2Cou Data'!Q32</f>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <f>'2Exp_data'!A33</f>
-        <v>30</v>
+      <c r="A31" t="str">
+        <f>'2Cou Data'!A33</f>
+        <v>Shannon</v>
       </c>
       <c r="B31" t="str">
-        <f>'2Exp_data'!R33</f>
+        <f>'2Cou Data'!R33</f>
         <v>-</v>
       </c>
       <c r="C31">
-        <f>'2Exp_data'!Q33</f>
-        <v>0</v>
+        <f>'2Cou Data'!Q33</f>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <f>'2Exp_data'!A34</f>
-        <v>31</v>
+      <c r="A32" t="str">
+        <f>'2Cou Data'!A34</f>
+        <v>Yuxin</v>
       </c>
       <c r="B32" t="str">
-        <f>'2Exp_data'!R34</f>
+        <f>'2Cou Data'!R34</f>
         <v>-</v>
       </c>
       <c r="C32">
-        <f>'2Exp_data'!Q34</f>
-        <v>0</v>
+        <f>'2Cou Data'!Q34</f>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <f>'2Exp_data'!A35</f>
-        <v>32</v>
+      <c r="A33" t="str">
+        <f>'2Cou Data'!A35</f>
+        <v>Shermin</v>
       </c>
       <c r="B33" t="str">
-        <f>'2Exp_data'!R35</f>
+        <f>'2Cou Data'!R35</f>
         <v>-</v>
       </c>
       <c r="C33">
-        <f>'2Exp_data'!Q35</f>
-        <v>0</v>
+        <f>'2Cou Data'!Q35</f>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <f>'2Exp_data'!A36</f>
-        <v>33</v>
+      <c r="A34" t="str">
+        <f>'2Cou Data'!A36</f>
+        <v>Jovan</v>
       </c>
       <c r="B34" t="str">
-        <f>'2Exp_data'!R36</f>
+        <f>'2Cou Data'!R36</f>
         <v>-</v>
       </c>
       <c r="C34">
-        <f>'2Exp_data'!Q36</f>
-        <v>0</v>
+        <f>'2Cou Data'!Q36</f>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <f>'2Exp_data'!A37</f>
-        <v>34</v>
+      <c r="A35" t="str">
+        <f>'2Cou Data'!A37</f>
+        <v>Gina</v>
       </c>
       <c r="B35" t="str">
-        <f>'2Exp_data'!R37</f>
+        <f>'2Cou Data'!R37</f>
         <v>-</v>
       </c>
       <c r="C35">
-        <f>'2Exp_data'!Q37</f>
-        <v>0</v>
+        <f>'2Cou Data'!Q37</f>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <f>'2Exp_data'!A38</f>
-        <v>35</v>
+      <c r="A36" t="str">
+        <f>'2Cou Data'!A38</f>
+        <v>Yuxuan</v>
       </c>
       <c r="B36" t="str">
-        <f>'2Exp_data'!R38</f>
+        <f>'2Cou Data'!R38</f>
         <v>-</v>
       </c>
       <c r="C36">
-        <f>'2Exp_data'!Q38</f>
-        <v>0</v>
+        <f>'2Cou Data'!Q38</f>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <f>'2Exp_data'!A39</f>
-        <v>36</v>
+      <c r="A37" t="str">
+        <f>'2Cou Data'!A39</f>
+        <v>Guanxin</v>
       </c>
       <c r="B37" t="str">
-        <f>'2Exp_data'!R39</f>
+        <f>'2Cou Data'!R39</f>
         <v>-</v>
       </c>
       <c r="C37">
-        <f>'2Exp_data'!Q39</f>
-        <v>0</v>
+        <f>'2Cou Data'!Q39</f>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <f>'2Exp_data'!A40</f>
-        <v>37</v>
+      <c r="A38" t="str">
+        <f>'2Cou Data'!A40</f>
+        <v>Yohana</v>
       </c>
       <c r="B38" t="str">
-        <f>'2Exp_data'!R40</f>
+        <f>'2Cou Data'!R40</f>
         <v>-</v>
       </c>
       <c r="C38">
-        <f>'2Exp_data'!Q40</f>
-        <v>0</v>
+        <f>'2Cou Data'!Q40</f>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <f>'2Exp_data'!A41</f>
-        <v>38</v>
+      <c r="A39" t="str">
+        <f>'2Cou Data'!A41</f>
+        <v>Leo</v>
       </c>
       <c r="B39" t="str">
-        <f>'2Exp_data'!R41</f>
+        <f>'2Cou Data'!R41</f>
         <v>-</v>
       </c>
       <c r="C39">
-        <f>'2Exp_data'!Q41</f>
-        <v>0</v>
+        <f>'2Cou Data'!Q41</f>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <f>'2Exp_data'!A42</f>
-        <v>39</v>
+      <c r="A40" t="str">
+        <f>'2Cou Data'!A42</f>
+        <v>Kerlyn</v>
       </c>
       <c r="B40" t="str">
-        <f>'2Exp_data'!R42</f>
+        <f>'2Cou Data'!R42</f>
         <v>-</v>
       </c>
       <c r="C40">
-        <f>'2Exp_data'!Q42</f>
-        <v>0</v>
+        <f>'2Cou Data'!Q42</f>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <f>'2Exp_data'!A43</f>
-        <v>40</v>
+      <c r="A41" t="str">
+        <f>'2Cou Data'!A43</f>
+        <v>Wee Yang</v>
       </c>
       <c r="B41" t="str">
-        <f>'2Exp_data'!R43</f>
+        <f>'2Cou Data'!R43</f>
         <v>-</v>
       </c>
       <c r="C41">
-        <f>'2Exp_data'!Q43</f>
-        <v>0</v>
+        <f>'2Cou Data'!Q43</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3823,10 +3964,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A2BDAFE-D7DA-4F7A-977C-CD8AB5364EE7}">
   <dimension ref="A1:AL43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection activeCell="K6" sqref="K6"/>
-      <selection pane="topRight" activeCell="T17" sqref="T17"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="T17" sqref="T17"/>
+      <selection pane="topRight" activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4022,7 +4163,7 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -4033,7 +4174,7 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13">
-        <f>IF(COUNTIF(S4:AL4,3)&gt;=2,1,0)</f>
+        <f>IF(COUNTIF(S4:AL4,"&gt;=3")&gt;=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="K4" s="13">
@@ -4078,7 +4219,7 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -4089,7 +4230,7 @@
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13">
-        <f>IF(COUNTIF(S5:AL5,3)&gt;=2,1,0)</f>
+        <f t="shared" ref="J5:J43" si="0">IF(COUNTIF(S5:AL5,"&gt;=3")&gt;=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="K5" s="13">
@@ -4102,11 +4243,11 @@
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="15">
-        <f t="shared" ref="Q5:Q43" si="0">SUM(B5:G5)+3*SUM(H5:L5)+5*SUM(M5:P5)+SUM(S5:AL5)</f>
+        <f t="shared" ref="Q5:Q43" si="1">SUM(B5:G5)+3*SUM(H5:L5)+5*SUM(M5:P5)+SUM(S5:AL5)</f>
         <v>3</v>
       </c>
       <c r="R5" s="15" t="str">
-        <f t="shared" ref="R5:R43" si="1">CONCATENATE("-",IF(B5=1,$B$3&amp;", ",""),IF(C5=1,$C$3&amp;", ",""),IF(D5=1,$D$3&amp;", ",""),IF(E5=1,$E$3&amp;", ",""),IF(F5=1,$F$3&amp;", ",""),IF(G5=1,$G$3&amp;", ",""),IF(H5=1,$H$3&amp;", ",""),IF(I5=1,$I$3&amp;", ",""),IF(J5=1,$J$3&amp;", ",""),IF(K5=1,$K$3&amp;", ",""),IF(L5=1,$L$3&amp;", ",""),IF(M5=1,$M$3&amp;", ",""),IF(N5=1,$N$3&amp;", ",""),IF(O5=1,$O$3&amp;", ",""),IF(P5=1,$P$3&amp;", ",""))</f>
+        <f t="shared" ref="R5:R43" si="2">CONCATENATE("-",IF(B5=1,$B$3&amp;", ",""),IF(C5=1,$C$3&amp;", ",""),IF(D5=1,$D$3&amp;", ",""),IF(E5=1,$E$3&amp;", ",""),IF(F5=1,$F$3&amp;", ",""),IF(G5=1,$G$3&amp;", ",""),IF(H5=1,$H$3&amp;", ",""),IF(I5=1,$I$3&amp;", ",""),IF(J5=1,$J$3&amp;", ",""),IF(K5=1,$K$3&amp;", ",""),IF(L5=1,$L$3&amp;", ",""),IF(M5=1,$M$3&amp;", ",""),IF(N5=1,$N$3&amp;", ",""),IF(O5=1,$O$3&amp;", ",""),IF(P5=1,$P$3&amp;", ",""))</f>
         <v>-</v>
       </c>
       <c r="S5" s="16">
@@ -4134,7 +4275,7 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -4145,7 +4286,7 @@
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13">
-        <f t="shared" ref="J6:J43" si="2">IF(COUNTIF(S6:AL6,3)&gt;=2,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K6" s="13">
@@ -4158,11 +4299,11 @@
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
       <c r="Q6" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="R6" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S6" s="16">
@@ -4190,7 +4331,7 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -4203,7 +4344,7 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K7" s="13">
@@ -4216,11 +4357,11 @@
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="R7" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">-Gaming is life, </v>
       </c>
       <c r="S7" s="16">
@@ -4248,7 +4389,7 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -4259,7 +4400,7 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K8" s="13">
@@ -4272,11 +4413,11 @@
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="R8" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S8" s="16">
@@ -4304,7 +4445,7 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -4315,7 +4456,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K9" s="13">
@@ -4328,11 +4469,11 @@
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
       <c r="Q9" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="R9" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S9" s="16">
@@ -4360,7 +4501,7 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -4373,7 +4514,7 @@
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K10" s="13">
@@ -4386,11 +4527,11 @@
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="R10" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">-Full Combo, </v>
       </c>
       <c r="S10" s="16">
@@ -4418,7 +4559,7 @@
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -4429,7 +4570,7 @@
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K11" s="13">
@@ -4442,11 +4583,11 @@
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
       <c r="Q11" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="R11" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S11" s="16">
@@ -4474,7 +4615,7 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -4485,7 +4626,7 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K12" s="13">
@@ -4498,11 +4639,11 @@
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
       <c r="Q12" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="R12" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S12" s="16">
@@ -4530,7 +4671,7 @@
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -4541,7 +4682,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K13" s="13">
@@ -4554,11 +4695,11 @@
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
       <c r="Q13" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="R13" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S13" s="16">
@@ -4586,7 +4727,7 @@
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -4599,7 +4740,7 @@
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K14" s="13">
@@ -4612,11 +4753,11 @@
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
       <c r="Q14" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="R14" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">-Gaming is life, </v>
       </c>
       <c r="S14" s="16">
@@ -4644,7 +4785,7 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -4655,7 +4796,7 @@
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K15" s="13">
@@ -4668,11 +4809,11 @@
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="R15" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S15" s="16">
@@ -4700,7 +4841,7 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -4711,7 +4852,7 @@
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K16" s="13">
@@ -4724,11 +4865,11 @@
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="R16" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S16" s="16">
@@ -4756,7 +4897,7 @@
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -4769,7 +4910,7 @@
       </c>
       <c r="I17" s="13"/>
       <c r="J17" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K17" s="13">
@@ -4782,11 +4923,11 @@
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
       <c r="Q17" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="R17" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">-Full Combo, </v>
       </c>
       <c r="S17" s="16">
@@ -4825,7 +4966,7 @@
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K18" s="13">
@@ -4838,11 +4979,11 @@
       <c r="O18" s="14"/>
       <c r="P18" s="14"/>
       <c r="Q18" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R18" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S18" s="16"/>
@@ -4879,7 +5020,7 @@
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K19" s="13">
@@ -4892,11 +5033,11 @@
       <c r="O19" s="14"/>
       <c r="P19" s="14"/>
       <c r="Q19" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R19" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S19" s="16"/>
@@ -4933,7 +5074,7 @@
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K20" s="13">
@@ -4946,11 +5087,11 @@
       <c r="O20" s="14"/>
       <c r="P20" s="14"/>
       <c r="Q20" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R20" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S20" s="16"/>
@@ -4987,7 +5128,7 @@
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K21" s="13">
@@ -5000,11 +5141,11 @@
       <c r="O21" s="14"/>
       <c r="P21" s="14"/>
       <c r="Q21" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R21" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S21" s="16"/>
@@ -5041,7 +5182,7 @@
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
       <c r="J22" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K22" s="13">
@@ -5054,11 +5195,11 @@
       <c r="O22" s="14"/>
       <c r="P22" s="14"/>
       <c r="Q22" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R22" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S22" s="16"/>
@@ -5095,7 +5236,7 @@
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
       <c r="J23" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K23" s="13">
@@ -5108,11 +5249,11 @@
       <c r="O23" s="14"/>
       <c r="P23" s="14"/>
       <c r="Q23" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R23" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S23" s="16"/>
@@ -5149,7 +5290,7 @@
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
       <c r="J24" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K24" s="13">
@@ -5162,11 +5303,11 @@
       <c r="O24" s="14"/>
       <c r="P24" s="14"/>
       <c r="Q24" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R24" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S24" s="16"/>
@@ -5203,7 +5344,7 @@
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
       <c r="J25" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K25" s="13">
@@ -5216,11 +5357,11 @@
       <c r="O25" s="14"/>
       <c r="P25" s="14"/>
       <c r="Q25" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R25" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S25" s="16"/>
@@ -5257,7 +5398,7 @@
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
       <c r="J26" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K26" s="13">
@@ -5270,11 +5411,11 @@
       <c r="O26" s="14"/>
       <c r="P26" s="14"/>
       <c r="Q26" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R26" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S26" s="16"/>
@@ -5311,7 +5452,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
       <c r="J27" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K27" s="13">
@@ -5324,11 +5465,11 @@
       <c r="O27" s="14"/>
       <c r="P27" s="14"/>
       <c r="Q27" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R27" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S27" s="16"/>
@@ -5365,7 +5506,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
       <c r="J28" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K28" s="13">
@@ -5378,11 +5519,11 @@
       <c r="O28" s="14"/>
       <c r="P28" s="14"/>
       <c r="Q28" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R28" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S28" s="16"/>
@@ -5419,7 +5560,7 @@
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
       <c r="J29" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K29" s="13">
@@ -5432,11 +5573,11 @@
       <c r="O29" s="14"/>
       <c r="P29" s="14"/>
       <c r="Q29" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R29" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S29" s="16"/>
@@ -5473,7 +5614,7 @@
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
       <c r="J30" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K30" s="13">
@@ -5486,11 +5627,11 @@
       <c r="O30" s="14"/>
       <c r="P30" s="14"/>
       <c r="Q30" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R30" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S30" s="16"/>
@@ -5527,7 +5668,7 @@
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
       <c r="J31" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K31" s="13">
@@ -5540,11 +5681,11 @@
       <c r="O31" s="14"/>
       <c r="P31" s="14"/>
       <c r="Q31" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R31" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S31" s="16"/>
@@ -5581,7 +5722,7 @@
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
       <c r="J32" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K32" s="13">
@@ -5594,11 +5735,11 @@
       <c r="O32" s="14"/>
       <c r="P32" s="14"/>
       <c r="Q32" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R32" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S32" s="16"/>
@@ -5635,7 +5776,7 @@
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
       <c r="J33" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K33" s="13">
@@ -5648,11 +5789,11 @@
       <c r="O33" s="14"/>
       <c r="P33" s="14"/>
       <c r="Q33" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R33" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S33" s="16"/>
@@ -5689,7 +5830,7 @@
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
       <c r="J34" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K34" s="13">
@@ -5702,11 +5843,11 @@
       <c r="O34" s="14"/>
       <c r="P34" s="14"/>
       <c r="Q34" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R34" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S34" s="16"/>
@@ -5743,7 +5884,7 @@
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
       <c r="J35" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K35" s="13">
@@ -5756,11 +5897,11 @@
       <c r="O35" s="14"/>
       <c r="P35" s="14"/>
       <c r="Q35" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R35" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S35" s="16"/>
@@ -5797,7 +5938,7 @@
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
       <c r="J36" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K36" s="13">
@@ -5810,11 +5951,11 @@
       <c r="O36" s="14"/>
       <c r="P36" s="14"/>
       <c r="Q36" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R36" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S36" s="16"/>
@@ -5851,7 +5992,7 @@
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
       <c r="J37" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K37" s="13">
@@ -5864,11 +6005,11 @@
       <c r="O37" s="14"/>
       <c r="P37" s="14"/>
       <c r="Q37" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R37" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S37" s="16"/>
@@ -5905,7 +6046,7 @@
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
       <c r="J38" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K38" s="13">
@@ -5918,11 +6059,11 @@
       <c r="O38" s="14"/>
       <c r="P38" s="14"/>
       <c r="Q38" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R38" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S38" s="16"/>
@@ -5959,7 +6100,7 @@
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
       <c r="J39" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K39" s="13">
@@ -5972,11 +6113,11 @@
       <c r="O39" s="14"/>
       <c r="P39" s="14"/>
       <c r="Q39" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R39" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S39" s="16"/>
@@ -6013,7 +6154,7 @@
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
       <c r="J40" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K40" s="13">
@@ -6026,11 +6167,11 @@
       <c r="O40" s="14"/>
       <c r="P40" s="14"/>
       <c r="Q40" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R40" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S40" s="16"/>
@@ -6067,7 +6208,7 @@
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
       <c r="J41" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K41" s="13">
@@ -6080,11 +6221,11 @@
       <c r="O41" s="14"/>
       <c r="P41" s="14"/>
       <c r="Q41" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R41" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S41" s="16"/>
@@ -6121,7 +6262,7 @@
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
       <c r="J42" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K42" s="13">
@@ -6134,11 +6275,11 @@
       <c r="O42" s="14"/>
       <c r="P42" s="14"/>
       <c r="Q42" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R42" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S42" s="16"/>
@@ -6175,7 +6316,7 @@
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
       <c r="J43" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K43" s="13">
@@ -6188,11 +6329,11 @@
       <c r="O43" s="14"/>
       <c r="P43" s="14"/>
       <c r="Q43" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R43" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S43" s="16"/>
@@ -6232,15 +6373,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D4A0D9-6E2F-42AC-B3E6-5121257CA31E}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -6251,561 +6392,3520 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
-        <f>'3NA_data'!A4</f>
+        <f>'3Exp Data'!A4</f>
         <v>XueWen</v>
       </c>
       <c r="B2" t="str">
-        <f>'3NA_data'!R4</f>
+        <f>'3Exp Data'!R4</f>
         <v>-</v>
       </c>
       <c r="C2">
-        <f>'3NA_data'!Q4</f>
+        <f>'3Exp Data'!Q4</f>
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
-        <f>'3NA_data'!A5</f>
+        <f>'3Exp Data'!A5</f>
         <v>Dean</v>
       </c>
       <c r="B3" t="str">
-        <f>'3NA_data'!R5</f>
+        <f>'3Exp Data'!R5</f>
         <v>-</v>
       </c>
       <c r="C3">
-        <f>'3NA_data'!Q5</f>
+        <f>'3Exp Data'!Q5</f>
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
-        <f>'3NA_data'!A6</f>
+        <f>'3Exp Data'!A6</f>
         <v>Angelo</v>
       </c>
       <c r="B4" t="str">
-        <f>'3NA_data'!R6</f>
+        <f>'3Exp Data'!R6</f>
         <v>-</v>
       </c>
       <c r="C4">
-        <f>'3NA_data'!Q6</f>
+        <f>'3Exp Data'!Q6</f>
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
-        <f>'3NA_data'!A7</f>
+        <f>'3Exp Data'!A7</f>
         <v>Kyle</v>
       </c>
       <c r="B5" t="str">
-        <f>'3NA_data'!R7</f>
+        <f>'3Exp Data'!R7</f>
         <v xml:space="preserve">-Gaming is life, </v>
       </c>
       <c r="C5">
-        <f>'3NA_data'!Q7</f>
+        <f>'3Exp Data'!Q7</f>
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
-        <f>'3NA_data'!A8</f>
+        <f>'3Exp Data'!A8</f>
         <v>Jayden</v>
       </c>
       <c r="B6" t="str">
-        <f>'3NA_data'!R8</f>
+        <f>'3Exp Data'!R8</f>
         <v>-</v>
       </c>
       <c r="C6">
-        <f>'3NA_data'!Q8</f>
+        <f>'3Exp Data'!Q8</f>
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
-        <f>'3NA_data'!A9</f>
+        <f>'3Exp Data'!A9</f>
         <v>Auston</v>
       </c>
       <c r="B7" t="str">
-        <f>'3NA_data'!R9</f>
+        <f>'3Exp Data'!R9</f>
         <v>-</v>
       </c>
       <c r="C7">
-        <f>'3NA_data'!Q9</f>
+        <f>'3Exp Data'!Q9</f>
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
-        <f>'3NA_data'!A10</f>
+        <f>'3Exp Data'!A10</f>
         <v>Jia Xiang</v>
       </c>
       <c r="B8" t="str">
-        <f>'3NA_data'!R10</f>
+        <f>'3Exp Data'!R10</f>
         <v xml:space="preserve">-Full Combo, </v>
       </c>
       <c r="C8">
-        <f>'3NA_data'!Q10</f>
+        <f>'3Exp Data'!Q10</f>
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
-        <f>'3NA_data'!A11</f>
+        <f>'3Exp Data'!A11</f>
         <v>Faith</v>
       </c>
       <c r="B9" t="str">
-        <f>'3NA_data'!R11</f>
+        <f>'3Exp Data'!R11</f>
         <v>-</v>
       </c>
       <c r="C9">
-        <f>'3NA_data'!Q11</f>
+        <f>'3Exp Data'!Q11</f>
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
-        <f>'3NA_data'!A12</f>
+        <f>'3Exp Data'!A12</f>
         <v>Hiroshi</v>
       </c>
       <c r="B10" t="str">
-        <f>'3NA_data'!R12</f>
+        <f>'3Exp Data'!R12</f>
         <v>-</v>
       </c>
       <c r="C10">
-        <f>'3NA_data'!Q12</f>
+        <f>'3Exp Data'!Q12</f>
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
-        <f>'3NA_data'!A13</f>
+        <f>'3Exp Data'!A13</f>
         <v>Luke</v>
       </c>
       <c r="B11" t="str">
-        <f>'3NA_data'!R13</f>
+        <f>'3Exp Data'!R13</f>
         <v>-</v>
       </c>
       <c r="C11">
-        <f>'3NA_data'!Q13</f>
+        <f>'3Exp Data'!Q13</f>
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
-        <f>'3NA_data'!A14</f>
+        <f>'3Exp Data'!A14</f>
         <v>Alicia</v>
       </c>
       <c r="B12" t="str">
-        <f>'3NA_data'!R14</f>
+        <f>'3Exp Data'!R14</f>
         <v xml:space="preserve">-Gaming is life, </v>
       </c>
       <c r="C12">
-        <f>'3NA_data'!Q14</f>
+        <f>'3Exp Data'!Q14</f>
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
-        <f>'3NA_data'!A15</f>
+        <f>'3Exp Data'!A15</f>
         <v>Rayden</v>
       </c>
       <c r="B13" t="str">
-        <f>'3NA_data'!R15</f>
+        <f>'3Exp Data'!R15</f>
         <v>-</v>
       </c>
       <c r="C13">
-        <f>'3NA_data'!Q15</f>
+        <f>'3Exp Data'!Q15</f>
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
-        <f>'3NA_data'!A16</f>
+        <f>'3Exp Data'!A16</f>
         <v>Darren</v>
       </c>
       <c r="B14" t="str">
-        <f>'3NA_data'!R16</f>
+        <f>'3Exp Data'!R16</f>
         <v>-</v>
       </c>
       <c r="C14">
-        <f>'3NA_data'!Q16</f>
+        <f>'3Exp Data'!Q16</f>
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
-        <f>'3NA_data'!A17</f>
+        <f>'3Exp Data'!A17</f>
         <v>Lucas</v>
       </c>
       <c r="B15" t="str">
-        <f>'3NA_data'!R17</f>
+        <f>'3Exp Data'!R17</f>
         <v xml:space="preserve">-Full Combo, </v>
       </c>
       <c r="C15">
-        <f>'3NA_data'!Q17</f>
+        <f>'3Exp Data'!Q17</f>
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
-        <f>'3NA_data'!A18</f>
+        <f>'3Exp Data'!A18</f>
         <v>15</v>
       </c>
       <c r="B16" t="str">
-        <f>'3NA_data'!R18</f>
+        <f>'3Exp Data'!R18</f>
         <v>-</v>
       </c>
       <c r="C16">
-        <f>'3NA_data'!Q18</f>
+        <f>'3Exp Data'!Q18</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
-        <f>'3NA_data'!A19</f>
+        <f>'3Exp Data'!A19</f>
         <v>16</v>
       </c>
       <c r="B17" t="str">
-        <f>'3NA_data'!R19</f>
+        <f>'3Exp Data'!R19</f>
         <v>-</v>
       </c>
       <c r="C17">
-        <f>'3NA_data'!Q19</f>
+        <f>'3Exp Data'!Q19</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
-        <f>'3NA_data'!A20</f>
+        <f>'3Exp Data'!A20</f>
         <v>17</v>
       </c>
       <c r="B18" t="str">
-        <f>'3NA_data'!R20</f>
+        <f>'3Exp Data'!R20</f>
         <v>-</v>
       </c>
       <c r="C18">
-        <f>'3NA_data'!Q20</f>
+        <f>'3Exp Data'!Q20</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
-        <f>'3NA_data'!A21</f>
+        <f>'3Exp Data'!A21</f>
         <v>18</v>
       </c>
       <c r="B19" t="str">
-        <f>'3NA_data'!R21</f>
+        <f>'3Exp Data'!R21</f>
         <v>-</v>
       </c>
       <c r="C19">
-        <f>'3NA_data'!Q21</f>
+        <f>'3Exp Data'!Q21</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
-        <f>'3NA_data'!A22</f>
+        <f>'3Exp Data'!A22</f>
         <v>19</v>
       </c>
       <c r="B20" t="str">
-        <f>'3NA_data'!R22</f>
+        <f>'3Exp Data'!R22</f>
         <v>-</v>
       </c>
       <c r="C20">
-        <f>'3NA_data'!Q22</f>
+        <f>'3Exp Data'!Q22</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
-        <f>'3NA_data'!A23</f>
+        <f>'3Exp Data'!A23</f>
         <v>20</v>
       </c>
       <c r="B21" t="str">
-        <f>'3NA_data'!R23</f>
+        <f>'3Exp Data'!R23</f>
         <v>-</v>
       </c>
       <c r="C21">
-        <f>'3NA_data'!Q23</f>
+        <f>'3Exp Data'!Q23</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
-        <f>'3NA_data'!A24</f>
+        <f>'3Exp Data'!A24</f>
         <v>21</v>
       </c>
       <c r="B22" t="str">
-        <f>'3NA_data'!R24</f>
+        <f>'3Exp Data'!R24</f>
         <v>-</v>
       </c>
       <c r="C22">
-        <f>'3NA_data'!Q24</f>
+        <f>'3Exp Data'!Q24</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
-        <f>'3NA_data'!A25</f>
+        <f>'3Exp Data'!A25</f>
         <v>22</v>
       </c>
       <c r="B23" t="str">
-        <f>'3NA_data'!R25</f>
+        <f>'3Exp Data'!R25</f>
         <v>-</v>
       </c>
       <c r="C23">
-        <f>'3NA_data'!Q25</f>
+        <f>'3Exp Data'!Q25</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
-        <f>'3NA_data'!A26</f>
+        <f>'3Exp Data'!A26</f>
         <v>23</v>
       </c>
       <c r="B24" t="str">
-        <f>'3NA_data'!R26</f>
+        <f>'3Exp Data'!R26</f>
         <v>-</v>
       </c>
       <c r="C24">
-        <f>'3NA_data'!Q26</f>
+        <f>'3Exp Data'!Q26</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
-        <f>'3NA_data'!A27</f>
+        <f>'3Exp Data'!A27</f>
         <v>24</v>
       </c>
       <c r="B25" t="str">
-        <f>'3NA_data'!R27</f>
+        <f>'3Exp Data'!R27</f>
         <v>-</v>
       </c>
       <c r="C25">
-        <f>'3NA_data'!Q27</f>
+        <f>'3Exp Data'!Q27</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
-        <f>'3NA_data'!A28</f>
+        <f>'3Exp Data'!A28</f>
         <v>25</v>
       </c>
       <c r="B26" t="str">
-        <f>'3NA_data'!R28</f>
+        <f>'3Exp Data'!R28</f>
         <v>-</v>
       </c>
       <c r="C26">
-        <f>'3NA_data'!Q28</f>
+        <f>'3Exp Data'!Q28</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
-        <f>'3NA_data'!A29</f>
+        <f>'3Exp Data'!A29</f>
         <v>26</v>
       </c>
       <c r="B27" t="str">
-        <f>'3NA_data'!R29</f>
+        <f>'3Exp Data'!R29</f>
         <v>-</v>
       </c>
       <c r="C27">
-        <f>'3NA_data'!Q29</f>
+        <f>'3Exp Data'!Q29</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
-        <f>'3NA_data'!A30</f>
+        <f>'3Exp Data'!A30</f>
         <v>27</v>
       </c>
       <c r="B28" t="str">
-        <f>'3NA_data'!R30</f>
+        <f>'3Exp Data'!R30</f>
         <v>-</v>
       </c>
       <c r="C28">
-        <f>'3NA_data'!Q30</f>
+        <f>'3Exp Data'!Q30</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
-        <f>'3NA_data'!A31</f>
+        <f>'3Exp Data'!A31</f>
         <v>28</v>
       </c>
       <c r="B29" t="str">
-        <f>'3NA_data'!R31</f>
+        <f>'3Exp Data'!R31</f>
         <v>-</v>
       </c>
       <c r="C29">
-        <f>'3NA_data'!Q31</f>
+        <f>'3Exp Data'!Q31</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
-        <f>'3NA_data'!A32</f>
+        <f>'3Exp Data'!A32</f>
         <v>29</v>
       </c>
       <c r="B30" t="str">
-        <f>'3NA_data'!R32</f>
+        <f>'3Exp Data'!R32</f>
         <v>-</v>
       </c>
       <c r="C30">
-        <f>'3NA_data'!Q32</f>
+        <f>'3Exp Data'!Q32</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
-        <f>'3NA_data'!A33</f>
+        <f>'3Exp Data'!A33</f>
         <v>30</v>
       </c>
       <c r="B31" t="str">
-        <f>'3NA_data'!R33</f>
+        <f>'3Exp Data'!R33</f>
         <v>-</v>
       </c>
       <c r="C31">
-        <f>'3NA_data'!Q33</f>
+        <f>'3Exp Data'!Q33</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
-        <f>'3NA_data'!A34</f>
+        <f>'3Exp Data'!A34</f>
         <v>31</v>
       </c>
       <c r="B32" t="str">
-        <f>'3NA_data'!R34</f>
+        <f>'3Exp Data'!R34</f>
         <v>-</v>
       </c>
       <c r="C32">
-        <f>'3NA_data'!Q34</f>
+        <f>'3Exp Data'!Q34</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
-        <f>'3NA_data'!A35</f>
+        <f>'3Exp Data'!A35</f>
         <v>32</v>
       </c>
       <c r="B33" t="str">
-        <f>'3NA_data'!R35</f>
+        <f>'3Exp Data'!R35</f>
         <v>-</v>
       </c>
       <c r="C33">
-        <f>'3NA_data'!Q35</f>
+        <f>'3Exp Data'!Q35</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
-        <f>'3NA_data'!A36</f>
+        <f>'3Exp Data'!A36</f>
         <v>33</v>
       </c>
       <c r="B34" t="str">
-        <f>'3NA_data'!R36</f>
+        <f>'3Exp Data'!R36</f>
         <v>-</v>
       </c>
       <c r="C34">
-        <f>'3NA_data'!Q36</f>
+        <f>'3Exp Data'!Q36</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
-        <f>'3NA_data'!A37</f>
+        <f>'3Exp Data'!A37</f>
         <v>34</v>
       </c>
       <c r="B35" t="str">
-        <f>'3NA_data'!R37</f>
+        <f>'3Exp Data'!R37</f>
         <v>-</v>
       </c>
       <c r="C35">
-        <f>'3NA_data'!Q37</f>
+        <f>'3Exp Data'!Q37</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
-        <f>'3NA_data'!A38</f>
+        <f>'3Exp Data'!A38</f>
         <v>35</v>
       </c>
       <c r="B36" t="str">
-        <f>'3NA_data'!R38</f>
+        <f>'3Exp Data'!R38</f>
         <v>-</v>
       </c>
       <c r="C36">
-        <f>'3NA_data'!Q38</f>
+        <f>'3Exp Data'!Q38</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
-        <f>'3NA_data'!A39</f>
+        <f>'3Exp Data'!A39</f>
         <v>36</v>
       </c>
       <c r="B37" t="str">
-        <f>'3NA_data'!R39</f>
+        <f>'3Exp Data'!R39</f>
         <v>-</v>
       </c>
       <c r="C37">
-        <f>'3NA_data'!Q39</f>
+        <f>'3Exp Data'!Q39</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
-        <f>'3NA_data'!A40</f>
+        <f>'3Exp Data'!A40</f>
         <v>37</v>
       </c>
       <c r="B38" t="str">
-        <f>'3NA_data'!R40</f>
+        <f>'3Exp Data'!R40</f>
         <v>-</v>
       </c>
       <c r="C38">
-        <f>'3NA_data'!Q40</f>
+        <f>'3Exp Data'!Q40</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
-        <f>'3NA_data'!A41</f>
+        <f>'3Exp Data'!A41</f>
         <v>38</v>
       </c>
       <c r="B39" t="str">
-        <f>'3NA_data'!R41</f>
+        <f>'3Exp Data'!R41</f>
         <v>-</v>
       </c>
       <c r="C39">
-        <f>'3NA_data'!Q41</f>
+        <f>'3Exp Data'!Q41</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
-        <f>'3NA_data'!A42</f>
+        <f>'3Exp Data'!A42</f>
         <v>39</v>
       </c>
       <c r="B40" t="str">
-        <f>'3NA_data'!R42</f>
+        <f>'3Exp Data'!R42</f>
         <v>-</v>
       </c>
       <c r="C40">
-        <f>'3NA_data'!Q42</f>
+        <f>'3Exp Data'!Q42</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
-        <f>'3NA_data'!A43</f>
+        <f>'3Exp Data'!A43</f>
         <v>40</v>
       </c>
       <c r="B41" t="str">
-        <f>'3NA_data'!R43</f>
+        <f>'3Exp Data'!R43</f>
         <v>-</v>
       </c>
       <c r="C41">
-        <f>'3NA_data'!Q43</f>
+        <f>'3Exp Data'!Q43</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848CF460-3EAC-4A7D-8560-52951FCF8A6B}">
+  <dimension ref="A1:AL43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="T17" sqref="T17"/>
+      <selection pane="topRight" activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.44140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88671875" style="8"/>
+    <col min="20" max="37" width="8.88671875" style="9"/>
+    <col min="38" max="38" width="8.88671875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B2" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="35"/>
+      <c r="P2" s="36"/>
+      <c r="S2" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="22">
+        <v>1</v>
+      </c>
+      <c r="T3" s="22">
+        <v>2</v>
+      </c>
+      <c r="U3" s="22">
+        <v>3</v>
+      </c>
+      <c r="V3" s="22">
+        <v>4</v>
+      </c>
+      <c r="W3" s="22">
+        <v>5</v>
+      </c>
+      <c r="X3" s="22">
+        <v>6</v>
+      </c>
+      <c r="Y3" s="22">
+        <v>7</v>
+      </c>
+      <c r="Z3" s="22">
+        <v>8</v>
+      </c>
+      <c r="AA3" s="22">
+        <v>9</v>
+      </c>
+      <c r="AB3" s="22">
+        <v>10</v>
+      </c>
+      <c r="AC3" s="22">
+        <v>11</v>
+      </c>
+      <c r="AD3" s="22">
+        <v>12</v>
+      </c>
+      <c r="AE3" s="22">
+        <v>13</v>
+      </c>
+      <c r="AF3" s="22">
+        <v>14</v>
+      </c>
+      <c r="AG3" s="22">
+        <v>15</v>
+      </c>
+      <c r="AH3" s="22">
+        <v>16</v>
+      </c>
+      <c r="AI3" s="22">
+        <v>17</v>
+      </c>
+      <c r="AJ3" s="22">
+        <v>18</v>
+      </c>
+      <c r="AK3" s="22">
+        <v>19</v>
+      </c>
+      <c r="AL3" s="22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13">
+        <f>IF(COUNTIF(S4:AL4,"&gt;=3")&gt;=2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="13">
+        <f t="array" ref="K4">IF(MAX(FREQUENCY(IF(S4:AL4&gt;0,COLUMN(S4:AL4)),IF(S4:AL4&lt;=0,COLUMN(S4:AL4))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="15">
+        <f>SUM(B4:G4)+3*SUM(H4:M4)+5*SUM(N4:P4)+SUM(S4:AL4)</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="15" t="str">
+        <f>CONCATENATE("-",IF(B4=1,$B$3&amp;", ",""),IF(C4=1,$C$3&amp;", ",""),IF(D4=1,$D$3&amp;", ",""),IF(E4=1,$E$3&amp;", ",""),IF(F4=1,$F$3&amp;", ",""),IF(G4=1,$G$3&amp;", ",""),IF(H4=1,$H$3&amp;", ",""),IF(I4=1,$I$3&amp;", ",""),IF(J4=1,$J$3&amp;", ",""),IF(K4=1,$K$3&amp;", ",""),IF(L4=1,$L$3&amp;", ",""),IF(M4=1,$M$3&amp;", ",""),IF(N4=1,$N$3&amp;", ",""),IF(O4=1,$O$3&amp;", ",""),IF(P4=1,$P$3&amp;", ",""))</f>
+        <v>-</v>
+      </c>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="16"/>
+      <c r="AG4" s="16"/>
+      <c r="AH4" s="16"/>
+      <c r="AI4" s="16"/>
+      <c r="AJ4" s="16"/>
+      <c r="AK4" s="16"/>
+      <c r="AL4" s="16"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13">
+        <f t="shared" ref="J5:J43" si="0">IF(COUNTIF(S5:AL5,"&gt;=3")&gt;=2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="13">
+        <f t="array" ref="K5">IF(MAX(FREQUENCY(IF(S5:AL5&gt;0,COLUMN(S5:AL5)),IF(S5:AL5&lt;=0,COLUMN(S5:AL5))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="15">
+        <f t="shared" ref="Q5:Q43" si="1">SUM(B5:G5)+3*SUM(H5:L5)+5*SUM(M5:P5)+SUM(S5:AL5)</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="15" t="str">
+        <f t="shared" ref="R5:R43" si="2">CONCATENATE("-",IF(B5=1,$B$3&amp;", ",""),IF(C5=1,$C$3&amp;", ",""),IF(D5=1,$D$3&amp;", ",""),IF(E5=1,$E$3&amp;", ",""),IF(F5=1,$F$3&amp;", ",""),IF(G5=1,$G$3&amp;", ",""),IF(H5=1,$H$3&amp;", ",""),IF(I5=1,$I$3&amp;", ",""),IF(J5=1,$J$3&amp;", ",""),IF(K5=1,$K$3&amp;", ",""),IF(L5=1,$L$3&amp;", ",""),IF(M5=1,$M$3&amp;", ",""),IF(N5=1,$N$3&amp;", ",""),IF(O5=1,$O$3&amp;", ",""),IF(P5=1,$P$3&amp;", ",""))</f>
+        <v>-</v>
+      </c>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="16"/>
+      <c r="AG5" s="16"/>
+      <c r="AH5" s="16"/>
+      <c r="AI5" s="16"/>
+      <c r="AJ5" s="16"/>
+      <c r="AK5" s="16"/>
+      <c r="AL5" s="16"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <v>3</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="13">
+        <f t="array" ref="K6">IF(MAX(FREQUENCY(IF(S6:AL6&gt;0,COLUMN(S6:AL6)),IF(S6:AL6&lt;=0,COLUMN(S6:AL6))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="16"/>
+      <c r="AI6" s="16"/>
+      <c r="AJ6" s="16"/>
+      <c r="AK6" s="16"/>
+      <c r="AL6" s="16"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>4</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="13">
+        <f t="array" ref="K7">IF(MAX(FREQUENCY(IF(S7:AL7&gt;0,COLUMN(S7:AL7)),IF(S7:AL7&lt;=0,COLUMN(S7:AL7))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="16"/>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="16"/>
+      <c r="AG7" s="16"/>
+      <c r="AH7" s="16"/>
+      <c r="AI7" s="16"/>
+      <c r="AJ7" s="16"/>
+      <c r="AK7" s="16"/>
+      <c r="AL7" s="16"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="13">
+        <f t="array" ref="K8">IF(MAX(FREQUENCY(IF(S8:AL8&gt;0,COLUMN(S8:AL8)),IF(S8:AL8&lt;=0,COLUMN(S8:AL8))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="16"/>
+      <c r="AF8" s="16"/>
+      <c r="AG8" s="16"/>
+      <c r="AH8" s="16"/>
+      <c r="AI8" s="16"/>
+      <c r="AJ8" s="16"/>
+      <c r="AK8" s="16"/>
+      <c r="AL8" s="16"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>6</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="13">
+        <f t="array" ref="K9">IF(MAX(FREQUENCY(IF(S9:AL9&gt;0,COLUMN(S9:AL9)),IF(S9:AL9&lt;=0,COLUMN(S9:AL9))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="16"/>
+      <c r="AG9" s="16"/>
+      <c r="AH9" s="16"/>
+      <c r="AI9" s="16"/>
+      <c r="AJ9" s="16"/>
+      <c r="AK9" s="16"/>
+      <c r="AL9" s="16"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
+        <v>7</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="13">
+        <f t="array" ref="K10">IF(MAX(FREQUENCY(IF(S10:AL10&gt;0,COLUMN(S10:AL10)),IF(S10:AL10&lt;=0,COLUMN(S10:AL10))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="16"/>
+      <c r="AG10" s="16"/>
+      <c r="AH10" s="16"/>
+      <c r="AI10" s="16"/>
+      <c r="AJ10" s="16"/>
+      <c r="AK10" s="16"/>
+      <c r="AL10" s="16"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="13">
+        <f t="array" ref="K11">IF(MAX(FREQUENCY(IF(S11:AL11&gt;0,COLUMN(S11:AL11)),IF(S11:AL11&lt;=0,COLUMN(S11:AL11))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="16"/>
+      <c r="AF11" s="16"/>
+      <c r="AG11" s="16"/>
+      <c r="AH11" s="16"/>
+      <c r="AI11" s="16"/>
+      <c r="AJ11" s="16"/>
+      <c r="AK11" s="16"/>
+      <c r="AL11" s="16"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>9</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="13">
+        <f t="array" ref="K12">IF(MAX(FREQUENCY(IF(S12:AL12&gt;0,COLUMN(S12:AL12)),IF(S12:AL12&lt;=0,COLUMN(S12:AL12))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="16"/>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="16"/>
+      <c r="AI12" s="16"/>
+      <c r="AJ12" s="16"/>
+      <c r="AK12" s="16"/>
+      <c r="AL12" s="16"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>10</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="13">
+        <f t="array" ref="K13">IF(MAX(FREQUENCY(IF(S13:AL13&gt;0,COLUMN(S13:AL13)),IF(S13:AL13&lt;=0,COLUMN(S13:AL13))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="16"/>
+      <c r="AG13" s="16"/>
+      <c r="AH13" s="16"/>
+      <c r="AI13" s="16"/>
+      <c r="AJ13" s="16"/>
+      <c r="AK13" s="16"/>
+      <c r="AL13" s="16"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>11</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="13">
+        <f t="array" ref="K14">IF(MAX(FREQUENCY(IF(S14:AL14&gt;0,COLUMN(S14:AL14)),IF(S14:AL14&lt;=0,COLUMN(S14:AL14))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="16"/>
+      <c r="AF14" s="16"/>
+      <c r="AG14" s="16"/>
+      <c r="AH14" s="16"/>
+      <c r="AI14" s="16"/>
+      <c r="AJ14" s="16"/>
+      <c r="AK14" s="16"/>
+      <c r="AL14" s="16"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>12</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <f t="array" ref="K15">IF(MAX(FREQUENCY(IF(S15:AL15&gt;0,COLUMN(S15:AL15)),IF(S15:AL15&lt;=0,COLUMN(S15:AL15))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
+      <c r="AD15" s="16"/>
+      <c r="AE15" s="16"/>
+      <c r="AF15" s="16"/>
+      <c r="AG15" s="16"/>
+      <c r="AH15" s="16"/>
+      <c r="AI15" s="16"/>
+      <c r="AJ15" s="16"/>
+      <c r="AK15" s="16"/>
+      <c r="AL15" s="16"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
+        <v>13</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="13">
+        <f t="array" ref="K16">IF(MAX(FREQUENCY(IF(S16:AL16&gt;0,COLUMN(S16:AL16)),IF(S16:AL16&lt;=0,COLUMN(S16:AL16))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="16"/>
+      <c r="AD16" s="16"/>
+      <c r="AE16" s="16"/>
+      <c r="AF16" s="16"/>
+      <c r="AG16" s="16"/>
+      <c r="AH16" s="16"/>
+      <c r="AI16" s="16"/>
+      <c r="AJ16" s="16"/>
+      <c r="AK16" s="16"/>
+      <c r="AL16" s="16"/>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>14</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="13">
+        <f t="array" ref="K17">IF(MAX(FREQUENCY(IF(S17:AL17&gt;0,COLUMN(S17:AL17)),IF(S17:AL17&lt;=0,COLUMN(S17:AL17))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="16"/>
+      <c r="AD17" s="16"/>
+      <c r="AE17" s="16"/>
+      <c r="AF17" s="16"/>
+      <c r="AG17" s="16"/>
+      <c r="AH17" s="16"/>
+      <c r="AI17" s="16"/>
+      <c r="AJ17" s="16"/>
+      <c r="AK17" s="16"/>
+      <c r="AL17" s="16"/>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
+        <v>15</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="13">
+        <f t="array" ref="K18">IF(MAX(FREQUENCY(IF(S18:AL18&gt;0,COLUMN(S18:AL18)),IF(S18:AL18&lt;=0,COLUMN(S18:AL18))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="16"/>
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="16"/>
+      <c r="AG18" s="16"/>
+      <c r="AH18" s="16"/>
+      <c r="AI18" s="16"/>
+      <c r="AJ18" s="16"/>
+      <c r="AK18" s="16"/>
+      <c r="AL18" s="16"/>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
+        <v>16</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="13">
+        <f t="array" ref="K19">IF(MAX(FREQUENCY(IF(S19:AL19&gt;0,COLUMN(S19:AL19)),IF(S19:AL19&lt;=0,COLUMN(S19:AL19))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16"/>
+      <c r="AD19" s="16"/>
+      <c r="AE19" s="16"/>
+      <c r="AF19" s="16"/>
+      <c r="AG19" s="16"/>
+      <c r="AH19" s="16"/>
+      <c r="AI19" s="16"/>
+      <c r="AJ19" s="16"/>
+      <c r="AK19" s="16"/>
+      <c r="AL19" s="16"/>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
+        <v>17</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="13">
+        <f t="array" ref="K20">IF(MAX(FREQUENCY(IF(S20:AL20&gt;0,COLUMN(S20:AL20)),IF(S20:AL20&lt;=0,COLUMN(S20:AL20))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="16"/>
+      <c r="AC20" s="16"/>
+      <c r="AD20" s="16"/>
+      <c r="AE20" s="16"/>
+      <c r="AF20" s="16"/>
+      <c r="AG20" s="16"/>
+      <c r="AH20" s="16"/>
+      <c r="AI20" s="16"/>
+      <c r="AJ20" s="16"/>
+      <c r="AK20" s="16"/>
+      <c r="AL20" s="16"/>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
+        <v>18</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="13">
+        <f t="array" ref="K21">IF(MAX(FREQUENCY(IF(S21:AL21&gt;0,COLUMN(S21:AL21)),IF(S21:AL21&lt;=0,COLUMN(S21:AL21))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="16"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="16"/>
+      <c r="AC21" s="16"/>
+      <c r="AD21" s="16"/>
+      <c r="AE21" s="16"/>
+      <c r="AF21" s="16"/>
+      <c r="AG21" s="16"/>
+      <c r="AH21" s="16"/>
+      <c r="AI21" s="16"/>
+      <c r="AJ21" s="16"/>
+      <c r="AK21" s="16"/>
+      <c r="AL21" s="16"/>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
+        <v>19</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="13">
+        <f t="array" ref="K22">IF(MAX(FREQUENCY(IF(S22:AL22&gt;0,COLUMN(S22:AL22)),IF(S22:AL22&lt;=0,COLUMN(S22:AL22))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="16"/>
+      <c r="AC22" s="16"/>
+      <c r="AD22" s="16"/>
+      <c r="AE22" s="16"/>
+      <c r="AF22" s="16"/>
+      <c r="AG22" s="16"/>
+      <c r="AH22" s="16"/>
+      <c r="AI22" s="16"/>
+      <c r="AJ22" s="16"/>
+      <c r="AK22" s="16"/>
+      <c r="AL22" s="16"/>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
+        <v>20</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="13">
+        <f t="array" ref="K23">IF(MAX(FREQUENCY(IF(S23:AL23&gt;0,COLUMN(S23:AL23)),IF(S23:AL23&lt;=0,COLUMN(S23:AL23))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="16"/>
+      <c r="AC23" s="16"/>
+      <c r="AD23" s="16"/>
+      <c r="AE23" s="16"/>
+      <c r="AF23" s="16"/>
+      <c r="AG23" s="16"/>
+      <c r="AH23" s="16"/>
+      <c r="AI23" s="16"/>
+      <c r="AJ23" s="16"/>
+      <c r="AK23" s="16"/>
+      <c r="AL23" s="16"/>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
+        <v>21</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="13">
+        <f t="array" ref="K24">IF(MAX(FREQUENCY(IF(S24:AL24&gt;0,COLUMN(S24:AL24)),IF(S24:AL24&lt;=0,COLUMN(S24:AL24))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="16"/>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="16"/>
+      <c r="AC24" s="16"/>
+      <c r="AD24" s="16"/>
+      <c r="AE24" s="16"/>
+      <c r="AF24" s="16"/>
+      <c r="AG24" s="16"/>
+      <c r="AH24" s="16"/>
+      <c r="AI24" s="16"/>
+      <c r="AJ24" s="16"/>
+      <c r="AK24" s="16"/>
+      <c r="AL24" s="16"/>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A25" s="11">
+        <v>22</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="13">
+        <f t="array" ref="K25">IF(MAX(FREQUENCY(IF(S25:AL25&gt;0,COLUMN(S25:AL25)),IF(S25:AL25&lt;=0,COLUMN(S25:AL25))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="16"/>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="16"/>
+      <c r="AA25" s="16"/>
+      <c r="AB25" s="16"/>
+      <c r="AC25" s="16"/>
+      <c r="AD25" s="16"/>
+      <c r="AE25" s="16"/>
+      <c r="AF25" s="16"/>
+      <c r="AG25" s="16"/>
+      <c r="AH25" s="16"/>
+      <c r="AI25" s="16"/>
+      <c r="AJ25" s="16"/>
+      <c r="AK25" s="16"/>
+      <c r="AL25" s="16"/>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A26" s="11">
+        <v>23</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="13">
+        <f t="array" ref="K26">IF(MAX(FREQUENCY(IF(S26:AL26&gt;0,COLUMN(S26:AL26)),IF(S26:AL26&lt;=0,COLUMN(S26:AL26))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="16"/>
+      <c r="AB26" s="16"/>
+      <c r="AC26" s="16"/>
+      <c r="AD26" s="16"/>
+      <c r="AE26" s="16"/>
+      <c r="AF26" s="16"/>
+      <c r="AG26" s="16"/>
+      <c r="AH26" s="16"/>
+      <c r="AI26" s="16"/>
+      <c r="AJ26" s="16"/>
+      <c r="AK26" s="16"/>
+      <c r="AL26" s="16"/>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A27" s="11">
+        <v>24</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="13">
+        <f t="array" ref="K27">IF(MAX(FREQUENCY(IF(S27:AL27&gt;0,COLUMN(S27:AL27)),IF(S27:AL27&lt;=0,COLUMN(S27:AL27))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="16"/>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="16"/>
+      <c r="AA27" s="16"/>
+      <c r="AB27" s="16"/>
+      <c r="AC27" s="16"/>
+      <c r="AD27" s="16"/>
+      <c r="AE27" s="16"/>
+      <c r="AF27" s="16"/>
+      <c r="AG27" s="16"/>
+      <c r="AH27" s="16"/>
+      <c r="AI27" s="16"/>
+      <c r="AJ27" s="16"/>
+      <c r="AK27" s="16"/>
+      <c r="AL27" s="16"/>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A28" s="11">
+        <v>25</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="13">
+        <f t="array" ref="K28">IF(MAX(FREQUENCY(IF(S28:AL28&gt;0,COLUMN(S28:AL28)),IF(S28:AL28&lt;=0,COLUMN(S28:AL28))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="16"/>
+      <c r="Y28" s="16"/>
+      <c r="Z28" s="16"/>
+      <c r="AA28" s="16"/>
+      <c r="AB28" s="16"/>
+      <c r="AC28" s="16"/>
+      <c r="AD28" s="16"/>
+      <c r="AE28" s="16"/>
+      <c r="AF28" s="16"/>
+      <c r="AG28" s="16"/>
+      <c r="AH28" s="16"/>
+      <c r="AI28" s="16"/>
+      <c r="AJ28" s="16"/>
+      <c r="AK28" s="16"/>
+      <c r="AL28" s="16"/>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A29" s="11">
+        <v>26</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="13">
+        <f t="array" ref="K29">IF(MAX(FREQUENCY(IF(S29:AL29&gt;0,COLUMN(S29:AL29)),IF(S29:AL29&lt;=0,COLUMN(S29:AL29))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="16"/>
+      <c r="W29" s="16"/>
+      <c r="X29" s="16"/>
+      <c r="Y29" s="16"/>
+      <c r="Z29" s="16"/>
+      <c r="AA29" s="16"/>
+      <c r="AB29" s="16"/>
+      <c r="AC29" s="16"/>
+      <c r="AD29" s="16"/>
+      <c r="AE29" s="16"/>
+      <c r="AF29" s="16"/>
+      <c r="AG29" s="16"/>
+      <c r="AH29" s="16"/>
+      <c r="AI29" s="16"/>
+      <c r="AJ29" s="16"/>
+      <c r="AK29" s="16"/>
+      <c r="AL29" s="16"/>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A30" s="11">
+        <v>27</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="13">
+        <f t="array" ref="K30">IF(MAX(FREQUENCY(IF(S30:AL30&gt;0,COLUMN(S30:AL30)),IF(S30:AL30&lt;=0,COLUMN(S30:AL30))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="16"/>
+      <c r="W30" s="16"/>
+      <c r="X30" s="16"/>
+      <c r="Y30" s="16"/>
+      <c r="Z30" s="16"/>
+      <c r="AA30" s="16"/>
+      <c r="AB30" s="16"/>
+      <c r="AC30" s="16"/>
+      <c r="AD30" s="16"/>
+      <c r="AE30" s="16"/>
+      <c r="AF30" s="16"/>
+      <c r="AG30" s="16"/>
+      <c r="AH30" s="16"/>
+      <c r="AI30" s="16"/>
+      <c r="AJ30" s="16"/>
+      <c r="AK30" s="16"/>
+      <c r="AL30" s="16"/>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A31" s="11">
+        <v>28</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="13">
+        <f t="array" ref="K31">IF(MAX(FREQUENCY(IF(S31:AL31&gt;0,COLUMN(S31:AL31)),IF(S31:AL31&lt;=0,COLUMN(S31:AL31))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="16"/>
+      <c r="Z31" s="16"/>
+      <c r="AA31" s="16"/>
+      <c r="AB31" s="16"/>
+      <c r="AC31" s="16"/>
+      <c r="AD31" s="16"/>
+      <c r="AE31" s="16"/>
+      <c r="AF31" s="16"/>
+      <c r="AG31" s="16"/>
+      <c r="AH31" s="16"/>
+      <c r="AI31" s="16"/>
+      <c r="AJ31" s="16"/>
+      <c r="AK31" s="16"/>
+      <c r="AL31" s="16"/>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A32" s="11">
+        <v>29</v>
+      </c>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="13">
+        <f t="array" ref="K32">IF(MAX(FREQUENCY(IF(S32:AL32&gt;0,COLUMN(S32:AL32)),IF(S32:AL32&lt;=0,COLUMN(S32:AL32))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="16"/>
+      <c r="AA32" s="16"/>
+      <c r="AB32" s="16"/>
+      <c r="AC32" s="16"/>
+      <c r="AD32" s="16"/>
+      <c r="AE32" s="16"/>
+      <c r="AF32" s="16"/>
+      <c r="AG32" s="16"/>
+      <c r="AH32" s="16"/>
+      <c r="AI32" s="16"/>
+      <c r="AJ32" s="16"/>
+      <c r="AK32" s="16"/>
+      <c r="AL32" s="16"/>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A33" s="11">
+        <v>30</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="13">
+        <f t="array" ref="K33">IF(MAX(FREQUENCY(IF(S33:AL33&gt;0,COLUMN(S33:AL33)),IF(S33:AL33&lt;=0,COLUMN(S33:AL33))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="16"/>
+      <c r="AA33" s="16"/>
+      <c r="AB33" s="16"/>
+      <c r="AC33" s="16"/>
+      <c r="AD33" s="16"/>
+      <c r="AE33" s="16"/>
+      <c r="AF33" s="16"/>
+      <c r="AG33" s="16"/>
+      <c r="AH33" s="16"/>
+      <c r="AI33" s="16"/>
+      <c r="AJ33" s="16"/>
+      <c r="AK33" s="16"/>
+      <c r="AL33" s="16"/>
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A34" s="11">
+        <v>31</v>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="13">
+        <f t="array" ref="K34">IF(MAX(FREQUENCY(IF(S34:AL34&gt;0,COLUMN(S34:AL34)),IF(S34:AL34&lt;=0,COLUMN(S34:AL34))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="16"/>
+      <c r="X34" s="16"/>
+      <c r="Y34" s="16"/>
+      <c r="Z34" s="16"/>
+      <c r="AA34" s="16"/>
+      <c r="AB34" s="16"/>
+      <c r="AC34" s="16"/>
+      <c r="AD34" s="16"/>
+      <c r="AE34" s="16"/>
+      <c r="AF34" s="16"/>
+      <c r="AG34" s="16"/>
+      <c r="AH34" s="16"/>
+      <c r="AI34" s="16"/>
+      <c r="AJ34" s="16"/>
+      <c r="AK34" s="16"/>
+      <c r="AL34" s="16"/>
+    </row>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A35" s="11">
+        <v>32</v>
+      </c>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="13">
+        <f t="array" ref="K35">IF(MAX(FREQUENCY(IF(S35:AL35&gt;0,COLUMN(S35:AL35)),IF(S35:AL35&lt;=0,COLUMN(S35:AL35))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
+      <c r="W35" s="16"/>
+      <c r="X35" s="16"/>
+      <c r="Y35" s="16"/>
+      <c r="Z35" s="16"/>
+      <c r="AA35" s="16"/>
+      <c r="AB35" s="16"/>
+      <c r="AC35" s="16"/>
+      <c r="AD35" s="16"/>
+      <c r="AE35" s="16"/>
+      <c r="AF35" s="16"/>
+      <c r="AG35" s="16"/>
+      <c r="AH35" s="16"/>
+      <c r="AI35" s="16"/>
+      <c r="AJ35" s="16"/>
+      <c r="AK35" s="16"/>
+      <c r="AL35" s="16"/>
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A36" s="11">
+        <v>33</v>
+      </c>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="13">
+        <f t="array" ref="K36">IF(MAX(FREQUENCY(IF(S36:AL36&gt;0,COLUMN(S36:AL36)),IF(S36:AL36&lt;=0,COLUMN(S36:AL36))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="16"/>
+      <c r="W36" s="16"/>
+      <c r="X36" s="16"/>
+      <c r="Y36" s="16"/>
+      <c r="Z36" s="16"/>
+      <c r="AA36" s="16"/>
+      <c r="AB36" s="16"/>
+      <c r="AC36" s="16"/>
+      <c r="AD36" s="16"/>
+      <c r="AE36" s="16"/>
+      <c r="AF36" s="16"/>
+      <c r="AG36" s="16"/>
+      <c r="AH36" s="16"/>
+      <c r="AI36" s="16"/>
+      <c r="AJ36" s="16"/>
+      <c r="AK36" s="16"/>
+      <c r="AL36" s="16"/>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A37" s="11">
+        <v>34</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="13">
+        <f t="array" ref="K37">IF(MAX(FREQUENCY(IF(S37:AL37&gt;0,COLUMN(S37:AL37)),IF(S37:AL37&lt;=0,COLUMN(S37:AL37))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S37" s="16"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="16"/>
+      <c r="W37" s="16"/>
+      <c r="X37" s="16"/>
+      <c r="Y37" s="16"/>
+      <c r="Z37" s="16"/>
+      <c r="AA37" s="16"/>
+      <c r="AB37" s="16"/>
+      <c r="AC37" s="16"/>
+      <c r="AD37" s="16"/>
+      <c r="AE37" s="16"/>
+      <c r="AF37" s="16"/>
+      <c r="AG37" s="16"/>
+      <c r="AH37" s="16"/>
+      <c r="AI37" s="16"/>
+      <c r="AJ37" s="16"/>
+      <c r="AK37" s="16"/>
+      <c r="AL37" s="16"/>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A38" s="11">
+        <v>35</v>
+      </c>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="13">
+        <f t="array" ref="K38">IF(MAX(FREQUENCY(IF(S38:AL38&gt;0,COLUMN(S38:AL38)),IF(S38:AL38&lt;=0,COLUMN(S38:AL38))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="16"/>
+      <c r="X38" s="16"/>
+      <c r="Y38" s="16"/>
+      <c r="Z38" s="16"/>
+      <c r="AA38" s="16"/>
+      <c r="AB38" s="16"/>
+      <c r="AC38" s="16"/>
+      <c r="AD38" s="16"/>
+      <c r="AE38" s="16"/>
+      <c r="AF38" s="16"/>
+      <c r="AG38" s="16"/>
+      <c r="AH38" s="16"/>
+      <c r="AI38" s="16"/>
+      <c r="AJ38" s="16"/>
+      <c r="AK38" s="16"/>
+      <c r="AL38" s="16"/>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A39" s="11">
+        <v>36</v>
+      </c>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="13">
+        <f t="array" ref="K39">IF(MAX(FREQUENCY(IF(S39:AL39&gt;0,COLUMN(S39:AL39)),IF(S39:AL39&lt;=0,COLUMN(S39:AL39))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="16"/>
+      <c r="Y39" s="16"/>
+      <c r="Z39" s="16"/>
+      <c r="AA39" s="16"/>
+      <c r="AB39" s="16"/>
+      <c r="AC39" s="16"/>
+      <c r="AD39" s="16"/>
+      <c r="AE39" s="16"/>
+      <c r="AF39" s="16"/>
+      <c r="AG39" s="16"/>
+      <c r="AH39" s="16"/>
+      <c r="AI39" s="16"/>
+      <c r="AJ39" s="16"/>
+      <c r="AK39" s="16"/>
+      <c r="AL39" s="16"/>
+    </row>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A40" s="11">
+        <v>37</v>
+      </c>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="13">
+        <f t="array" ref="K40">IF(MAX(FREQUENCY(IF(S40:AL40&gt;0,COLUMN(S40:AL40)),IF(S40:AL40&lt;=0,COLUMN(S40:AL40))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S40" s="16"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="16"/>
+      <c r="W40" s="16"/>
+      <c r="X40" s="16"/>
+      <c r="Y40" s="16"/>
+      <c r="Z40" s="16"/>
+      <c r="AA40" s="16"/>
+      <c r="AB40" s="16"/>
+      <c r="AC40" s="16"/>
+      <c r="AD40" s="16"/>
+      <c r="AE40" s="16"/>
+      <c r="AF40" s="16"/>
+      <c r="AG40" s="16"/>
+      <c r="AH40" s="16"/>
+      <c r="AI40" s="16"/>
+      <c r="AJ40" s="16"/>
+      <c r="AK40" s="16"/>
+      <c r="AL40" s="16"/>
+    </row>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A41" s="11">
+        <v>38</v>
+      </c>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="13">
+        <f t="array" ref="K41">IF(MAX(FREQUENCY(IF(S41:AL41&gt;0,COLUMN(S41:AL41)),IF(S41:AL41&lt;=0,COLUMN(S41:AL41))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S41" s="16"/>
+      <c r="T41" s="16"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="16"/>
+      <c r="W41" s="16"/>
+      <c r="X41" s="16"/>
+      <c r="Y41" s="16"/>
+      <c r="Z41" s="16"/>
+      <c r="AA41" s="16"/>
+      <c r="AB41" s="16"/>
+      <c r="AC41" s="16"/>
+      <c r="AD41" s="16"/>
+      <c r="AE41" s="16"/>
+      <c r="AF41" s="16"/>
+      <c r="AG41" s="16"/>
+      <c r="AH41" s="16"/>
+      <c r="AI41" s="16"/>
+      <c r="AJ41" s="16"/>
+      <c r="AK41" s="16"/>
+      <c r="AL41" s="16"/>
+    </row>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A42" s="11">
+        <v>39</v>
+      </c>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="13">
+        <f t="array" ref="K42">IF(MAX(FREQUENCY(IF(S42:AL42&gt;0,COLUMN(S42:AL42)),IF(S42:AL42&lt;=0,COLUMN(S42:AL42))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S42" s="16"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="16"/>
+      <c r="X42" s="16"/>
+      <c r="Y42" s="16"/>
+      <c r="Z42" s="16"/>
+      <c r="AA42" s="16"/>
+      <c r="AB42" s="16"/>
+      <c r="AC42" s="16"/>
+      <c r="AD42" s="16"/>
+      <c r="AE42" s="16"/>
+      <c r="AF42" s="16"/>
+      <c r="AG42" s="16"/>
+      <c r="AH42" s="16"/>
+      <c r="AI42" s="16"/>
+      <c r="AJ42" s="16"/>
+      <c r="AK42" s="16"/>
+      <c r="AL42" s="16"/>
+    </row>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A43" s="11">
+        <v>40</v>
+      </c>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="13">
+        <f t="array" ref="K43">IF(MAX(FREQUENCY(IF(S43:AL43&gt;0,COLUMN(S43:AL43)),IF(S43:AL43&lt;=0,COLUMN(S43:AL43))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S43" s="16"/>
+      <c r="T43" s="16"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="16"/>
+      <c r="X43" s="16"/>
+      <c r="Y43" s="16"/>
+      <c r="Z43" s="16"/>
+      <c r="AA43" s="16"/>
+      <c r="AB43" s="16"/>
+      <c r="AC43" s="16"/>
+      <c r="AD43" s="16"/>
+      <c r="AE43" s="16"/>
+      <c r="AF43" s="16"/>
+      <c r="AG43" s="16"/>
+      <c r="AH43" s="16"/>
+      <c r="AI43" s="16"/>
+      <c r="AJ43" s="16"/>
+      <c r="AK43" s="16"/>
+      <c r="AL43" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="S2:AL2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247A2784-0518-447F-918A-28E207F2327C}">
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <f>'2Res Data'!A4</f>
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <f>'2Res Data'!R4</f>
+        <v>-</v>
+      </c>
+      <c r="C2">
+        <f>'2Res Data'!Q4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f>'2Res Data'!A5</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <f>'2Res Data'!R5</f>
+        <v>-</v>
+      </c>
+      <c r="C3">
+        <f>'2Res Data'!Q5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f>'2Res Data'!A6</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <f>'2Res Data'!R6</f>
+        <v>-</v>
+      </c>
+      <c r="C4">
+        <f>'2Res Data'!Q6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f>'2Res Data'!A7</f>
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <f>'2Res Data'!R7</f>
+        <v>-</v>
+      </c>
+      <c r="C5">
+        <f>'2Res Data'!Q7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f>'2Res Data'!A8</f>
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <f>'2Res Data'!R8</f>
+        <v>-</v>
+      </c>
+      <c r="C6">
+        <f>'2Res Data'!Q8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f>'2Res Data'!A9</f>
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <f>'2Res Data'!R9</f>
+        <v>-</v>
+      </c>
+      <c r="C7">
+        <f>'2Res Data'!Q9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f>'2Res Data'!A10</f>
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <f>'2Res Data'!R10</f>
+        <v>-</v>
+      </c>
+      <c r="C8">
+        <f>'2Res Data'!Q10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f>'2Res Data'!A11</f>
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <f>'2Res Data'!R11</f>
+        <v>-</v>
+      </c>
+      <c r="C9">
+        <f>'2Res Data'!Q11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f>'2Res Data'!A12</f>
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <f>'2Res Data'!R12</f>
+        <v>-</v>
+      </c>
+      <c r="C10">
+        <f>'2Res Data'!Q12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f>'2Res Data'!A13</f>
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <f>'2Res Data'!R13</f>
+        <v>-</v>
+      </c>
+      <c r="C11">
+        <f>'2Res Data'!Q13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f>'2Res Data'!A14</f>
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <f>'2Res Data'!R14</f>
+        <v>-</v>
+      </c>
+      <c r="C12">
+        <f>'2Res Data'!Q14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f>'2Res Data'!A15</f>
+        <v>12</v>
+      </c>
+      <c r="B13" t="str">
+        <f>'2Res Data'!R15</f>
+        <v>-</v>
+      </c>
+      <c r="C13">
+        <f>'2Res Data'!Q15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f>'2Res Data'!A16</f>
+        <v>13</v>
+      </c>
+      <c r="B14" t="str">
+        <f>'2Res Data'!R16</f>
+        <v>-</v>
+      </c>
+      <c r="C14">
+        <f>'2Res Data'!Q16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f>'2Res Data'!A17</f>
+        <v>14</v>
+      </c>
+      <c r="B15" t="str">
+        <f>'2Res Data'!R17</f>
+        <v>-</v>
+      </c>
+      <c r="C15">
+        <f>'2Res Data'!Q17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f>'2Res Data'!A18</f>
+        <v>15</v>
+      </c>
+      <c r="B16" t="str">
+        <f>'2Res Data'!R18</f>
+        <v>-</v>
+      </c>
+      <c r="C16">
+        <f>'2Res Data'!Q18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f>'2Res Data'!A19</f>
+        <v>16</v>
+      </c>
+      <c r="B17" t="str">
+        <f>'2Res Data'!R19</f>
+        <v>-</v>
+      </c>
+      <c r="C17">
+        <f>'2Res Data'!Q19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f>'2Res Data'!A20</f>
+        <v>17</v>
+      </c>
+      <c r="B18" t="str">
+        <f>'2Res Data'!R20</f>
+        <v>-</v>
+      </c>
+      <c r="C18">
+        <f>'2Res Data'!Q20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f>'2Res Data'!A21</f>
+        <v>18</v>
+      </c>
+      <c r="B19" t="str">
+        <f>'2Res Data'!R21</f>
+        <v>-</v>
+      </c>
+      <c r="C19">
+        <f>'2Res Data'!Q21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f>'2Res Data'!A22</f>
+        <v>19</v>
+      </c>
+      <c r="B20" t="str">
+        <f>'2Res Data'!R22</f>
+        <v>-</v>
+      </c>
+      <c r="C20">
+        <f>'2Res Data'!Q22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f>'2Res Data'!A23</f>
+        <v>20</v>
+      </c>
+      <c r="B21" t="str">
+        <f>'2Res Data'!R23</f>
+        <v>-</v>
+      </c>
+      <c r="C21">
+        <f>'2Res Data'!Q23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f>'2Res Data'!A24</f>
+        <v>21</v>
+      </c>
+      <c r="B22" t="str">
+        <f>'2Res Data'!R24</f>
+        <v>-</v>
+      </c>
+      <c r="C22">
+        <f>'2Res Data'!Q24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f>'2Res Data'!A25</f>
+        <v>22</v>
+      </c>
+      <c r="B23" t="str">
+        <f>'2Res Data'!R25</f>
+        <v>-</v>
+      </c>
+      <c r="C23">
+        <f>'2Res Data'!Q25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f>'2Res Data'!A26</f>
+        <v>23</v>
+      </c>
+      <c r="B24" t="str">
+        <f>'2Res Data'!R26</f>
+        <v>-</v>
+      </c>
+      <c r="C24">
+        <f>'2Res Data'!Q26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f>'2Res Data'!A27</f>
+        <v>24</v>
+      </c>
+      <c r="B25" t="str">
+        <f>'2Res Data'!R27</f>
+        <v>-</v>
+      </c>
+      <c r="C25">
+        <f>'2Res Data'!Q27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f>'2Res Data'!A28</f>
+        <v>25</v>
+      </c>
+      <c r="B26" t="str">
+        <f>'2Res Data'!R28</f>
+        <v>-</v>
+      </c>
+      <c r="C26">
+        <f>'2Res Data'!Q28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f>'2Res Data'!A29</f>
+        <v>26</v>
+      </c>
+      <c r="B27" t="str">
+        <f>'2Res Data'!R29</f>
+        <v>-</v>
+      </c>
+      <c r="C27">
+        <f>'2Res Data'!Q29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <f>'2Res Data'!A30</f>
+        <v>27</v>
+      </c>
+      <c r="B28" t="str">
+        <f>'2Res Data'!R30</f>
+        <v>-</v>
+      </c>
+      <c r="C28">
+        <f>'2Res Data'!Q30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <f>'2Res Data'!A31</f>
+        <v>28</v>
+      </c>
+      <c r="B29" t="str">
+        <f>'2Res Data'!R31</f>
+        <v>-</v>
+      </c>
+      <c r="C29">
+        <f>'2Res Data'!Q31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <f>'2Res Data'!A32</f>
+        <v>29</v>
+      </c>
+      <c r="B30" t="str">
+        <f>'2Res Data'!R32</f>
+        <v>-</v>
+      </c>
+      <c r="C30">
+        <f>'2Res Data'!Q32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <f>'2Res Data'!A33</f>
+        <v>30</v>
+      </c>
+      <c r="B31" t="str">
+        <f>'2Res Data'!R33</f>
+        <v>-</v>
+      </c>
+      <c r="C31">
+        <f>'2Res Data'!Q33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <f>'2Res Data'!A34</f>
+        <v>31</v>
+      </c>
+      <c r="B32" t="str">
+        <f>'2Res Data'!R34</f>
+        <v>-</v>
+      </c>
+      <c r="C32">
+        <f>'2Res Data'!Q34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <f>'2Res Data'!A35</f>
+        <v>32</v>
+      </c>
+      <c r="B33" t="str">
+        <f>'2Res Data'!R35</f>
+        <v>-</v>
+      </c>
+      <c r="C33">
+        <f>'2Res Data'!Q35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <f>'2Res Data'!A36</f>
+        <v>33</v>
+      </c>
+      <c r="B34" t="str">
+        <f>'2Res Data'!R36</f>
+        <v>-</v>
+      </c>
+      <c r="C34">
+        <f>'2Res Data'!Q36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <f>'2Res Data'!A37</f>
+        <v>34</v>
+      </c>
+      <c r="B35" t="str">
+        <f>'2Res Data'!R37</f>
+        <v>-</v>
+      </c>
+      <c r="C35">
+        <f>'2Res Data'!Q37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <f>'2Res Data'!A38</f>
+        <v>35</v>
+      </c>
+      <c r="B36" t="str">
+        <f>'2Res Data'!R38</f>
+        <v>-</v>
+      </c>
+      <c r="C36">
+        <f>'2Res Data'!Q38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <f>'2Res Data'!A39</f>
+        <v>36</v>
+      </c>
+      <c r="B37" t="str">
+        <f>'2Res Data'!R39</f>
+        <v>-</v>
+      </c>
+      <c r="C37">
+        <f>'2Res Data'!Q39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <f>'2Res Data'!A40</f>
+        <v>37</v>
+      </c>
+      <c r="B38" t="str">
+        <f>'2Res Data'!R40</f>
+        <v>-</v>
+      </c>
+      <c r="C38">
+        <f>'2Res Data'!Q40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <f>'2Res Data'!A41</f>
+        <v>38</v>
+      </c>
+      <c r="B39" t="str">
+        <f>'2Res Data'!R41</f>
+        <v>-</v>
+      </c>
+      <c r="C39">
+        <f>'2Res Data'!Q41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <f>'2Res Data'!A42</f>
+        <v>39</v>
+      </c>
+      <c r="B40" t="str">
+        <f>'2Res Data'!R42</f>
+        <v>-</v>
+      </c>
+      <c r="C40">
+        <f>'2Res Data'!Q42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <f>'2Res Data'!A43</f>
+        <v>40</v>
+      </c>
+      <c r="B41" t="str">
+        <f>'2Res Data'!R43</f>
+        <v>-</v>
+      </c>
+      <c r="C41">
+        <f>'2Res Data'!Q43</f>
         <v>0</v>
       </c>
     </row>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\65929\Desktop\website\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CF70D7-6B04-4D41-A865-D4070762DCB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1811EF6E-F132-4A42-8D14-F64440B76083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2Cou Data" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="109">
   <si>
     <t>Achievements</t>
   </si>
@@ -122,9 +122,6 @@
     <t>Jaidern</t>
   </si>
   <si>
-    <t>Calbri Kane</t>
-  </si>
-  <si>
     <t>phatman81kg</t>
   </si>
   <si>
@@ -158,9 +155,6 @@
     <t>Denzel</t>
   </si>
   <si>
-    <t>Skout</t>
-  </si>
-  <si>
     <t>Tristan</t>
   </si>
   <si>
@@ -272,7 +266,97 @@
     <t>Kerlyn</t>
   </si>
   <si>
-    <t>Wee Yang</t>
+    <t>Weeyang</t>
+  </si>
+  <si>
+    <t>Kaijie</t>
+  </si>
+  <si>
+    <t>Caleb</t>
+  </si>
+  <si>
+    <t>Charissa</t>
+  </si>
+  <si>
+    <t>Thaddeus</t>
+  </si>
+  <si>
+    <t>Ambrose</t>
+  </si>
+  <si>
+    <t>Zach</t>
+  </si>
+  <si>
+    <t>Joel</t>
+  </si>
+  <si>
+    <t>Janelle</t>
+  </si>
+  <si>
+    <t>Li Wen</t>
+  </si>
+  <si>
+    <t>Zachary</t>
+  </si>
+  <si>
+    <t>Xavier</t>
+  </si>
+  <si>
+    <t>Xinen</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>Koen</t>
+  </si>
+  <si>
+    <t>Clyde</t>
+  </si>
+  <si>
+    <t>Trina</t>
+  </si>
+  <si>
+    <t>Solomon</t>
+  </si>
+  <si>
+    <t>Caleah</t>
+  </si>
+  <si>
+    <t>Linus</t>
+  </si>
+  <si>
+    <t>Jayden T.</t>
+  </si>
+  <si>
+    <t>Natalie</t>
+  </si>
+  <si>
+    <t>Sherie</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>Lukas</t>
+  </si>
+  <si>
+    <t>Shania</t>
+  </si>
+  <si>
+    <t>Eunice</t>
+  </si>
+  <si>
+    <t>Nathan</t>
+  </si>
+  <si>
+    <t>Jeanette</t>
+  </si>
+  <si>
+    <t>Dylan</t>
+  </si>
+  <si>
+    <t>Lia</t>
   </si>
 </sst>
 </file>
@@ -821,9 +905,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T14" sqref="T14"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -966,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="T3" s="22" t="s">
         <v>26</v>
@@ -1148,7 +1232,7 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -1206,7 +1290,7 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -1442,7 +1526,7 @@
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1504,7 +1588,7 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -1560,7 +1644,7 @@
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B13" s="12">
         <v>1</v>
@@ -1622,7 +1706,7 @@
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -1678,7 +1762,7 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -1736,7 +1820,7 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -1794,7 +1878,7 @@
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -1850,7 +1934,7 @@
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -1906,7 +1990,7 @@
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -1962,7 +2046,7 @@
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -2020,7 +2104,7 @@
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -2076,7 +2160,7 @@
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -2134,7 +2218,7 @@
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -2192,7 +2276,7 @@
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -2252,7 +2336,7 @@
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12">
@@ -2316,7 +2400,7 @@
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -2372,7 +2456,7 @@
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -2430,7 +2514,7 @@
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -2488,7 +2572,7 @@
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -2548,7 +2632,7 @@
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -2606,7 +2690,7 @@
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -2664,7 +2748,7 @@
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B32" s="12">
         <v>1</v>
@@ -2724,7 +2808,7 @@
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -2782,7 +2866,7 @@
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -2840,7 +2924,7 @@
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -2898,7 +2982,7 @@
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -2956,7 +3040,7 @@
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -3014,7 +3098,7 @@
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -3072,7 +3156,7 @@
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -3130,7 +3214,7 @@
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -3188,7 +3272,7 @@
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -3246,7 +3330,7 @@
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -3304,7 +3388,7 @@
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -3386,7 +3470,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3496,7 +3580,7 @@
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>'2Cou Data'!A11</f>
-        <v>Calbri Kane</v>
+        <v>Caleb</v>
       </c>
       <c r="B9" t="str">
         <f>'2Cou Data'!R11</f>
@@ -3748,7 +3832,7 @@
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f>'2Cou Data'!A29</f>
-        <v>Skout</v>
+        <v>Kaijie</v>
       </c>
       <c r="B27" t="str">
         <f>'2Cou Data'!R29</f>
@@ -3944,7 +4028,7 @@
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f>'2Cou Data'!A43</f>
-        <v>Wee Yang</v>
+        <v>Weeyang</v>
       </c>
       <c r="B41" t="str">
         <f>'2Cou Data'!R43</f>
@@ -4163,7 +4247,7 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -4219,7 +4303,7 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -4275,7 +4359,7 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -4331,7 +4415,7 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -4389,7 +4473,7 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -4445,7 +4529,7 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -4501,7 +4585,7 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -4559,7 +4643,7 @@
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -4615,7 +4699,7 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -4671,7 +4755,7 @@
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -4727,7 +4811,7 @@
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -4785,7 +4869,7 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -4841,7 +4925,7 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -4897,7 +4981,7 @@
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -6381,7 +6465,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -6959,10 +7043,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848CF460-3EAC-4A7D-8560-52951FCF8A6B}">
   <dimension ref="A1:AL43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection activeCell="T17" sqref="T17"/>
-      <selection pane="topRight" activeCell="J23" sqref="J23"/>
+      <selection pane="topRight" activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7095,8 +7179,8 @@
       <c r="R3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="S3" s="22">
-        <v>1</v>
+      <c r="S3" s="22" t="s">
+        <v>26</v>
       </c>
       <c r="T3" s="22">
         <v>2</v>
@@ -7157,8 +7241,8 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
-        <v>1</v>
+      <c r="A4" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -7183,13 +7267,15 @@
       <c r="P4" s="14"/>
       <c r="Q4" s="15">
         <f>SUM(B4:G4)+3*SUM(H4:M4)+5*SUM(N4:P4)+SUM(S4:AL4)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R4" s="15" t="str">
         <f>CONCATENATE("-",IF(B4=1,$B$3&amp;", ",""),IF(C4=1,$C$3&amp;", ",""),IF(D4=1,$D$3&amp;", ",""),IF(E4=1,$E$3&amp;", ",""),IF(F4=1,$F$3&amp;", ",""),IF(G4=1,$G$3&amp;", ",""),IF(H4=1,$H$3&amp;", ",""),IF(I4=1,$I$3&amp;", ",""),IF(J4=1,$J$3&amp;", ",""),IF(K4=1,$K$3&amp;", ",""),IF(L4=1,$L$3&amp;", ",""),IF(M4=1,$M$3&amp;", ",""),IF(N4=1,$N$3&amp;", ",""),IF(O4=1,$O$3&amp;", ",""),IF(P4=1,$P$3&amp;", ",""))</f>
         <v>-</v>
       </c>
-      <c r="S4" s="16"/>
+      <c r="S4" s="16">
+        <v>3</v>
+      </c>
       <c r="T4" s="16"/>
       <c r="U4" s="16"/>
       <c r="V4" s="16"/>
@@ -7211,8 +7297,8 @@
       <c r="AL4" s="16"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
-        <v>2</v>
+      <c r="A5" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -7237,13 +7323,15 @@
       <c r="P5" s="14"/>
       <c r="Q5" s="15">
         <f t="shared" ref="Q5:Q43" si="1">SUM(B5:G5)+3*SUM(H5:L5)+5*SUM(M5:P5)+SUM(S5:AL5)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R5" s="15" t="str">
         <f t="shared" ref="R5:R43" si="2">CONCATENATE("-",IF(B5=1,$B$3&amp;", ",""),IF(C5=1,$C$3&amp;", ",""),IF(D5=1,$D$3&amp;", ",""),IF(E5=1,$E$3&amp;", ",""),IF(F5=1,$F$3&amp;", ",""),IF(G5=1,$G$3&amp;", ",""),IF(H5=1,$H$3&amp;", ",""),IF(I5=1,$I$3&amp;", ",""),IF(J5=1,$J$3&amp;", ",""),IF(K5=1,$K$3&amp;", ",""),IF(L5=1,$L$3&amp;", ",""),IF(M5=1,$M$3&amp;", ",""),IF(N5=1,$N$3&amp;", ",""),IF(O5=1,$O$3&amp;", ",""),IF(P5=1,$P$3&amp;", ",""))</f>
         <v>-</v>
       </c>
-      <c r="S5" s="16"/>
+      <c r="S5" s="16">
+        <v>4</v>
+      </c>
       <c r="T5" s="16"/>
       <c r="U5" s="16"/>
       <c r="V5" s="16"/>
@@ -7265,8 +7353,8 @@
       <c r="AL5" s="16"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
-        <v>3</v>
+      <c r="A6" s="11" t="s">
+        <v>83</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -7291,13 +7379,15 @@
       <c r="P6" s="14"/>
       <c r="Q6" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R6" s="15" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="S6" s="16"/>
+      <c r="S6" s="16">
+        <v>3</v>
+      </c>
       <c r="T6" s="16"/>
       <c r="U6" s="16"/>
       <c r="V6" s="16"/>
@@ -7319,8 +7409,8 @@
       <c r="AL6" s="16"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
-        <v>4</v>
+      <c r="A7" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -7345,13 +7435,15 @@
       <c r="P7" s="14"/>
       <c r="Q7" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R7" s="15" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="S7" s="16"/>
+      <c r="S7" s="16">
+        <v>3</v>
+      </c>
       <c r="T7" s="16"/>
       <c r="U7" s="16"/>
       <c r="V7" s="16"/>
@@ -7373,8 +7465,8 @@
       <c r="AL7" s="16"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
-        <v>5</v>
+      <c r="A8" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -7399,13 +7491,15 @@
       <c r="P8" s="14"/>
       <c r="Q8" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R8" s="15" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="S8" s="16"/>
+      <c r="S8" s="16">
+        <v>2</v>
+      </c>
       <c r="T8" s="16"/>
       <c r="U8" s="16"/>
       <c r="V8" s="16"/>
@@ -7427,8 +7521,8 @@
       <c r="AL8" s="16"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
-        <v>6</v>
+      <c r="A9" s="11" t="s">
+        <v>86</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -7436,7 +7530,9 @@
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="13"/>
+      <c r="H9" s="13">
+        <v>1</v>
+      </c>
       <c r="I9" s="13"/>
       <c r="J9" s="13">
         <f t="shared" si="0"/>
@@ -7453,13 +7549,15 @@
       <c r="P9" s="14"/>
       <c r="Q9" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R9" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S9" s="16"/>
+        <v xml:space="preserve">-Full Combo, </v>
+      </c>
+      <c r="S9" s="16">
+        <v>4</v>
+      </c>
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
@@ -7481,8 +7579,8 @@
       <c r="AL9" s="16"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
-        <v>7</v>
+      <c r="A10" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -7507,13 +7605,15 @@
       <c r="P10" s="14"/>
       <c r="Q10" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R10" s="15" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="S10" s="16"/>
+      <c r="S10" s="16">
+        <v>4</v>
+      </c>
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
       <c r="V10" s="16"/>
@@ -7535,8 +7635,8 @@
       <c r="AL10" s="16"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
-        <v>8</v>
+      <c r="A11" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -7561,13 +7661,15 @@
       <c r="P11" s="14"/>
       <c r="Q11" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R11" s="15" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="S11" s="16"/>
+      <c r="S11" s="16">
+        <v>3</v>
+      </c>
       <c r="T11" s="16"/>
       <c r="U11" s="16"/>
       <c r="V11" s="16"/>
@@ -7589,8 +7691,8 @@
       <c r="AL11" s="16"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
-        <v>9</v>
+      <c r="A12" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -7598,7 +7700,9 @@
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="13"/>
+      <c r="H12" s="13">
+        <v>1</v>
+      </c>
       <c r="I12" s="13"/>
       <c r="J12" s="13">
         <f t="shared" si="0"/>
@@ -7615,13 +7719,15 @@
       <c r="P12" s="14"/>
       <c r="Q12" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R12" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S12" s="16"/>
+        <v xml:space="preserve">-Full Combo, </v>
+      </c>
+      <c r="S12" s="16">
+        <v>4</v>
+      </c>
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
@@ -7643,8 +7749,8 @@
       <c r="AL12" s="16"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
-        <v>10</v>
+      <c r="A13" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -7669,13 +7775,15 @@
       <c r="P13" s="14"/>
       <c r="Q13" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R13" s="15" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="S13" s="16"/>
+      <c r="S13" s="16">
+        <v>2</v>
+      </c>
       <c r="T13" s="16"/>
       <c r="U13" s="16"/>
       <c r="V13" s="16"/>
@@ -7697,8 +7805,8 @@
       <c r="AL13" s="16"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
-        <v>11</v>
+      <c r="A14" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -7723,13 +7831,15 @@
       <c r="P14" s="14"/>
       <c r="Q14" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R14" s="15" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="S14" s="16"/>
+      <c r="S14" s="16">
+        <v>3</v>
+      </c>
       <c r="T14" s="16"/>
       <c r="U14" s="16"/>
       <c r="V14" s="16"/>
@@ -7751,8 +7861,8 @@
       <c r="AL14" s="16"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
-        <v>12</v>
+      <c r="A15" s="11" t="s">
+        <v>92</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -7777,13 +7887,15 @@
       <c r="P15" s="14"/>
       <c r="Q15" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R15" s="15" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="S15" s="16"/>
+      <c r="S15" s="16">
+        <v>2</v>
+      </c>
       <c r="T15" s="16"/>
       <c r="U15" s="16"/>
       <c r="V15" s="16"/>
@@ -7805,8 +7917,8 @@
       <c r="AL15" s="16"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
-        <v>13</v>
+      <c r="A16" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -7814,7 +7926,9 @@
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="13"/>
+      <c r="H16" s="13">
+        <v>1</v>
+      </c>
       <c r="I16" s="13"/>
       <c r="J16" s="13">
         <f t="shared" si="0"/>
@@ -7831,13 +7945,15 @@
       <c r="P16" s="14"/>
       <c r="Q16" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R16" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S16" s="16"/>
+        <v xml:space="preserve">-Full Combo, </v>
+      </c>
+      <c r="S16" s="16">
+        <v>4</v>
+      </c>
       <c r="T16" s="16"/>
       <c r="U16" s="16"/>
       <c r="V16" s="16"/>
@@ -7859,8 +7975,8 @@
       <c r="AL16" s="16"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
-        <v>14</v>
+      <c r="A17" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -7885,13 +8001,15 @@
       <c r="P17" s="14"/>
       <c r="Q17" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R17" s="15" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="S17" s="16"/>
+      <c r="S17" s="16">
+        <v>3</v>
+      </c>
       <c r="T17" s="16"/>
       <c r="U17" s="16"/>
       <c r="V17" s="16"/>
@@ -7913,8 +8031,8 @@
       <c r="AL17" s="16"/>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
-        <v>15</v>
+      <c r="A18" s="11" t="s">
+        <v>94</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -7939,13 +8057,15 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R18" s="15" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="S18" s="16"/>
+      <c r="S18" s="16">
+        <v>2</v>
+      </c>
       <c r="T18" s="16"/>
       <c r="U18" s="16"/>
       <c r="V18" s="16"/>
@@ -7967,8 +8087,8 @@
       <c r="AL18" s="16"/>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
-        <v>16</v>
+      <c r="A19" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -7993,13 +8113,15 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="15" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="S19" s="16"/>
+      <c r="S19" s="16">
+        <v>1</v>
+      </c>
       <c r="T19" s="16"/>
       <c r="U19" s="16"/>
       <c r="V19" s="16"/>
@@ -8021,8 +8143,8 @@
       <c r="AL19" s="16"/>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A20" s="11">
-        <v>17</v>
+      <c r="A20" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -8047,13 +8169,15 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R20" s="15" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="S20" s="16"/>
+      <c r="S20" s="16">
+        <v>3</v>
+      </c>
       <c r="T20" s="16"/>
       <c r="U20" s="16"/>
       <c r="V20" s="16"/>
@@ -8075,8 +8199,8 @@
       <c r="AL20" s="16"/>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
-        <v>18</v>
+      <c r="A21" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -8101,13 +8225,15 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R21" s="15" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="S21" s="16"/>
+      <c r="S21" s="16">
+        <v>3</v>
+      </c>
       <c r="T21" s="16"/>
       <c r="U21" s="16"/>
       <c r="V21" s="16"/>
@@ -8129,8 +8255,8 @@
       <c r="AL21" s="16"/>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A22" s="11">
-        <v>19</v>
+      <c r="A22" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -8155,13 +8281,15 @@
       <c r="P22" s="14"/>
       <c r="Q22" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R22" s="15" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="S22" s="16"/>
+      <c r="S22" s="16">
+        <v>3</v>
+      </c>
       <c r="T22" s="16"/>
       <c r="U22" s="16"/>
       <c r="V22" s="16"/>
@@ -8183,8 +8311,8 @@
       <c r="AL22" s="16"/>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A23" s="11">
-        <v>20</v>
+      <c r="A23" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -8209,13 +8337,15 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R23" s="15" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="S23" s="16"/>
+      <c r="S23" s="16">
+        <v>3</v>
+      </c>
       <c r="T23" s="16"/>
       <c r="U23" s="16"/>
       <c r="V23" s="16"/>
@@ -8237,8 +8367,8 @@
       <c r="AL23" s="16"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A24" s="11">
-        <v>21</v>
+      <c r="A24" s="11" t="s">
+        <v>100</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -8263,13 +8393,15 @@
       <c r="P24" s="14"/>
       <c r="Q24" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R24" s="15" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="S24" s="16"/>
+      <c r="S24" s="16">
+        <v>3</v>
+      </c>
       <c r="T24" s="16"/>
       <c r="U24" s="16"/>
       <c r="V24" s="16"/>
@@ -8291,8 +8423,8 @@
       <c r="AL24" s="16"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A25" s="11">
-        <v>22</v>
+      <c r="A25" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -8317,13 +8449,15 @@
       <c r="P25" s="14"/>
       <c r="Q25" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R25" s="15" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="S25" s="16"/>
+      <c r="S25" s="16">
+        <v>3</v>
+      </c>
       <c r="T25" s="16"/>
       <c r="U25" s="16"/>
       <c r="V25" s="16"/>
@@ -8345,8 +8479,8 @@
       <c r="AL25" s="16"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A26" s="11">
-        <v>23</v>
+      <c r="A26" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -8371,13 +8505,15 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R26" s="15" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="S26" s="16"/>
+      <c r="S26" s="16">
+        <v>4</v>
+      </c>
       <c r="T26" s="16"/>
       <c r="U26" s="16"/>
       <c r="V26" s="16"/>
@@ -8399,8 +8535,8 @@
       <c r="AL26" s="16"/>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A27" s="11">
-        <v>24</v>
+      <c r="A27" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -8425,13 +8561,15 @@
       <c r="P27" s="14"/>
       <c r="Q27" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R27" s="15" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="S27" s="16"/>
+      <c r="S27" s="16">
+        <v>4</v>
+      </c>
       <c r="T27" s="16"/>
       <c r="U27" s="16"/>
       <c r="V27" s="16"/>
@@ -8453,8 +8591,8 @@
       <c r="AL27" s="16"/>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A28" s="11">
-        <v>25</v>
+      <c r="A28" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -8479,13 +8617,15 @@
       <c r="P28" s="14"/>
       <c r="Q28" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R28" s="15" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="S28" s="16"/>
+      <c r="S28" s="16">
+        <v>3</v>
+      </c>
       <c r="T28" s="16"/>
       <c r="U28" s="16"/>
       <c r="V28" s="16"/>
@@ -8507,8 +8647,8 @@
       <c r="AL28" s="16"/>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A29" s="11">
-        <v>26</v>
+      <c r="A29" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -8533,13 +8673,15 @@
       <c r="P29" s="14"/>
       <c r="Q29" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R29" s="15" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="S29" s="16"/>
+      <c r="S29" s="16">
+        <v>4</v>
+      </c>
       <c r="T29" s="16"/>
       <c r="U29" s="16"/>
       <c r="V29" s="16"/>
@@ -8561,8 +8703,8 @@
       <c r="AL29" s="16"/>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A30" s="11">
-        <v>27</v>
+      <c r="A30" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -8587,13 +8729,15 @@
       <c r="P30" s="14"/>
       <c r="Q30" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R30" s="15" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="S30" s="16"/>
+      <c r="S30" s="16">
+        <v>3</v>
+      </c>
       <c r="T30" s="16"/>
       <c r="U30" s="16"/>
       <c r="V30" s="16"/>
@@ -8615,8 +8759,8 @@
       <c r="AL30" s="16"/>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A31" s="11">
-        <v>28</v>
+      <c r="A31" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -8641,13 +8785,15 @@
       <c r="P31" s="14"/>
       <c r="Q31" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R31" s="15" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="S31" s="16"/>
+      <c r="S31" s="16">
+        <v>3</v>
+      </c>
       <c r="T31" s="16"/>
       <c r="U31" s="16"/>
       <c r="V31" s="16"/>
@@ -8669,8 +8815,8 @@
       <c r="AL31" s="16"/>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A32" s="11">
-        <v>29</v>
+      <c r="A32" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -8695,13 +8841,15 @@
       <c r="P32" s="14"/>
       <c r="Q32" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R32" s="15" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="S32" s="16"/>
+      <c r="S32" s="16">
+        <v>3</v>
+      </c>
       <c r="T32" s="16"/>
       <c r="U32" s="16"/>
       <c r="V32" s="16"/>
@@ -9340,7 +9488,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -9350,9 +9498,9 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" t="str">
         <f>'2Res Data'!A4</f>
-        <v>1</v>
+        <v>Charissa</v>
       </c>
       <c r="B2" t="str">
         <f>'2Res Data'!R4</f>
@@ -9360,13 +9508,13 @@
       </c>
       <c r="C2">
         <f>'2Res Data'!Q4</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" t="str">
         <f>'2Res Data'!A5</f>
-        <v>2</v>
+        <v>Thaddeus</v>
       </c>
       <c r="B3" t="str">
         <f>'2Res Data'!R5</f>
@@ -9374,13 +9522,13 @@
       </c>
       <c r="C3">
         <f>'2Res Data'!Q5</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" t="str">
         <f>'2Res Data'!A6</f>
-        <v>3</v>
+        <v>Ambrose</v>
       </c>
       <c r="B4" t="str">
         <f>'2Res Data'!R6</f>
@@ -9388,13 +9536,13 @@
       </c>
       <c r="C4">
         <f>'2Res Data'!Q6</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" t="str">
         <f>'2Res Data'!A7</f>
-        <v>4</v>
+        <v>Zach</v>
       </c>
       <c r="B5" t="str">
         <f>'2Res Data'!R7</f>
@@ -9402,13 +9550,13 @@
       </c>
       <c r="C5">
         <f>'2Res Data'!Q7</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" t="str">
         <f>'2Res Data'!A8</f>
-        <v>5</v>
+        <v>Joel</v>
       </c>
       <c r="B6" t="str">
         <f>'2Res Data'!R8</f>
@@ -9416,27 +9564,27 @@
       </c>
       <c r="C6">
         <f>'2Res Data'!Q8</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" t="str">
         <f>'2Res Data'!A9</f>
-        <v>6</v>
+        <v>Janelle</v>
       </c>
       <c r="B7" t="str">
         <f>'2Res Data'!R9</f>
-        <v>-</v>
+        <v xml:space="preserve">-Full Combo, </v>
       </c>
       <c r="C7">
         <f>'2Res Data'!Q9</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" t="str">
         <f>'2Res Data'!A10</f>
-        <v>7</v>
+        <v>Li Wen</v>
       </c>
       <c r="B8" t="str">
         <f>'2Res Data'!R10</f>
@@ -9444,13 +9592,13 @@
       </c>
       <c r="C8">
         <f>'2Res Data'!Q10</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" t="str">
         <f>'2Res Data'!A11</f>
-        <v>8</v>
+        <v>Zachary</v>
       </c>
       <c r="B9" t="str">
         <f>'2Res Data'!R11</f>
@@ -9458,27 +9606,27 @@
       </c>
       <c r="C9">
         <f>'2Res Data'!Q11</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" t="str">
         <f>'2Res Data'!A12</f>
-        <v>9</v>
+        <v>Xavier</v>
       </c>
       <c r="B10" t="str">
         <f>'2Res Data'!R12</f>
-        <v>-</v>
+        <v xml:space="preserve">-Full Combo, </v>
       </c>
       <c r="C10">
         <f>'2Res Data'!Q12</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" t="str">
         <f>'2Res Data'!A13</f>
-        <v>10</v>
+        <v>Xinen</v>
       </c>
       <c r="B11" t="str">
         <f>'2Res Data'!R13</f>
@@ -9486,13 +9634,13 @@
       </c>
       <c r="C11">
         <f>'2Res Data'!Q13</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" t="str">
         <f>'2Res Data'!A14</f>
-        <v>11</v>
+        <v>ya</v>
       </c>
       <c r="B12" t="str">
         <f>'2Res Data'!R14</f>
@@ -9500,13 +9648,13 @@
       </c>
       <c r="C12">
         <f>'2Res Data'!Q14</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" t="str">
         <f>'2Res Data'!A15</f>
-        <v>12</v>
+        <v>Koen</v>
       </c>
       <c r="B13" t="str">
         <f>'2Res Data'!R15</f>
@@ -9514,27 +9662,27 @@
       </c>
       <c r="C13">
         <f>'2Res Data'!Q15</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" t="str">
         <f>'2Res Data'!A16</f>
-        <v>13</v>
+        <v>Clyde</v>
       </c>
       <c r="B14" t="str">
         <f>'2Res Data'!R16</f>
-        <v>-</v>
+        <v xml:space="preserve">-Full Combo, </v>
       </c>
       <c r="C14">
         <f>'2Res Data'!Q16</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" t="str">
         <f>'2Res Data'!A17</f>
-        <v>14</v>
+        <v>Jayden</v>
       </c>
       <c r="B15" t="str">
         <f>'2Res Data'!R17</f>
@@ -9542,13 +9690,13 @@
       </c>
       <c r="C15">
         <f>'2Res Data'!Q17</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" t="str">
         <f>'2Res Data'!A18</f>
-        <v>15</v>
+        <v>Trina</v>
       </c>
       <c r="B16" t="str">
         <f>'2Res Data'!R18</f>
@@ -9556,13 +9704,13 @@
       </c>
       <c r="C16">
         <f>'2Res Data'!Q18</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" t="str">
         <f>'2Res Data'!A19</f>
-        <v>16</v>
+        <v>Solomon</v>
       </c>
       <c r="B17" t="str">
         <f>'2Res Data'!R19</f>
@@ -9570,13 +9718,13 @@
       </c>
       <c r="C17">
         <f>'2Res Data'!Q19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" t="str">
         <f>'2Res Data'!A20</f>
-        <v>17</v>
+        <v>Caleah</v>
       </c>
       <c r="B18" t="str">
         <f>'2Res Data'!R20</f>
@@ -9584,13 +9732,13 @@
       </c>
       <c r="C18">
         <f>'2Res Data'!Q20</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" t="str">
         <f>'2Res Data'!A21</f>
-        <v>18</v>
+        <v>Linus</v>
       </c>
       <c r="B19" t="str">
         <f>'2Res Data'!R21</f>
@@ -9598,13 +9746,13 @@
       </c>
       <c r="C19">
         <f>'2Res Data'!Q21</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" t="str">
         <f>'2Res Data'!A22</f>
-        <v>19</v>
+        <v>Jayden T.</v>
       </c>
       <c r="B20" t="str">
         <f>'2Res Data'!R22</f>
@@ -9612,13 +9760,13 @@
       </c>
       <c r="C20">
         <f>'2Res Data'!Q22</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" t="str">
         <f>'2Res Data'!A23</f>
-        <v>20</v>
+        <v>Natalie</v>
       </c>
       <c r="B21" t="str">
         <f>'2Res Data'!R23</f>
@@ -9626,13 +9774,13 @@
       </c>
       <c r="C21">
         <f>'2Res Data'!Q23</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="A22" t="str">
         <f>'2Res Data'!A24</f>
-        <v>21</v>
+        <v>Sherie</v>
       </c>
       <c r="B22" t="str">
         <f>'2Res Data'!R24</f>
@@ -9640,13 +9788,13 @@
       </c>
       <c r="C22">
         <f>'2Res Data'!Q24</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="A23" t="str">
         <f>'2Res Data'!A25</f>
-        <v>22</v>
+        <v>Emma</v>
       </c>
       <c r="B23" t="str">
         <f>'2Res Data'!R25</f>
@@ -9654,13 +9802,13 @@
       </c>
       <c r="C23">
         <f>'2Res Data'!Q25</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="A24" t="str">
         <f>'2Res Data'!A26</f>
-        <v>23</v>
+        <v>Lukas</v>
       </c>
       <c r="B24" t="str">
         <f>'2Res Data'!R26</f>
@@ -9668,13 +9816,13 @@
       </c>
       <c r="C24">
         <f>'2Res Data'!Q26</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="A25" t="str">
         <f>'2Res Data'!A27</f>
-        <v>24</v>
+        <v>Shania</v>
       </c>
       <c r="B25" t="str">
         <f>'2Res Data'!R27</f>
@@ -9682,13 +9830,13 @@
       </c>
       <c r="C25">
         <f>'2Res Data'!Q27</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="A26" t="str">
         <f>'2Res Data'!A28</f>
-        <v>25</v>
+        <v>Eunice</v>
       </c>
       <c r="B26" t="str">
         <f>'2Res Data'!R28</f>
@@ -9696,13 +9844,13 @@
       </c>
       <c r="C26">
         <f>'2Res Data'!Q28</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="A27" t="str">
         <f>'2Res Data'!A29</f>
-        <v>26</v>
+        <v>Nathan</v>
       </c>
       <c r="B27" t="str">
         <f>'2Res Data'!R29</f>
@@ -9710,13 +9858,13 @@
       </c>
       <c r="C27">
         <f>'2Res Data'!Q29</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="A28" t="str">
         <f>'2Res Data'!A30</f>
-        <v>27</v>
+        <v>Jeanette</v>
       </c>
       <c r="B28" t="str">
         <f>'2Res Data'!R30</f>
@@ -9724,13 +9872,13 @@
       </c>
       <c r="C28">
         <f>'2Res Data'!Q30</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="A29" t="str">
         <f>'2Res Data'!A31</f>
-        <v>28</v>
+        <v>Dylan</v>
       </c>
       <c r="B29" t="str">
         <f>'2Res Data'!R31</f>
@@ -9738,13 +9886,13 @@
       </c>
       <c r="C29">
         <f>'2Res Data'!Q31</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="A30" t="str">
         <f>'2Res Data'!A32</f>
-        <v>29</v>
+        <v>Lia</v>
       </c>
       <c r="B30" t="str">
         <f>'2Res Data'!R32</f>
@@ -9752,7 +9900,7 @@
       </c>
       <c r="C30">
         <f>'2Res Data'!Q32</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\65929\Desktop\website\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1811EF6E-F132-4A42-8D14-F64440B76083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12BA802-8598-449E-9297-4BF0DB320EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2Cou Data" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="110">
   <si>
     <t>Achievements</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Star count</t>
   </si>
   <si>
-    <t>BaconBoiGaming</t>
-  </si>
-  <si>
     <t>rae</t>
   </si>
   <si>
@@ -122,9 +119,6 @@
     <t>Jaidern</t>
   </si>
   <si>
-    <t>phatman81kg</t>
-  </si>
-  <si>
     <t>oldchangkeeyummy</t>
   </si>
   <si>
@@ -134,24 +128,15 @@
     <t>MusicNerd10</t>
   </si>
   <si>
-    <t>Destineeee</t>
-  </si>
-  <si>
     <t>stars</t>
   </si>
   <si>
     <t>Valencia</t>
   </si>
   <si>
-    <t>Axel</t>
-  </si>
-  <si>
     <t>Jylan</t>
   </si>
   <si>
-    <t>Cownuker44</t>
-  </si>
-  <si>
     <t>Denzel</t>
   </si>
   <si>
@@ -357,6 +342,24 @@
   </si>
   <si>
     <t>Lia</t>
+  </si>
+  <si>
+    <t>Chloe</t>
+  </si>
+  <si>
+    <t>Amarnath</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>Kaelen</t>
+  </si>
+  <si>
+    <t>Destinee</t>
+  </si>
+  <si>
+    <t>Ethan</t>
   </si>
 </sst>
 </file>
@@ -905,9 +908,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J14" sqref="J14"/>
+      <selection pane="topRight" activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1050,10 +1053,10 @@
         <v>0</v>
       </c>
       <c r="S3" s="22" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="T3" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U3" s="22">
         <v>3</v>
@@ -1112,7 +1115,7 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="B4" s="12">
         <v>1</v>
@@ -1143,7 +1146,7 @@
       <c r="P4" s="14"/>
       <c r="Q4" s="15">
         <f>SUM(B4:G4)+3*SUM(H4:M4)+5*SUM(N4:P4)+SUM(S4:AL4)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R4" s="15" t="str">
         <f>CONCATENATE("-",IF(B4=1,$B$3&amp;", ",""),IF(C4=1,$C$3&amp;", ",""),IF(D4=1,$D$3&amp;", ",""),IF(E4=1,$E$3&amp;", ",""),IF(F4=1,$F$3&amp;", ",""),IF(G4=1,$G$3&amp;", ",""),IF(H4=1,$H$3&amp;", ",""),IF(I4=1,$I$3&amp;", ",""),IF(J4=1,$J$3&amp;", ",""),IF(K4=1,$K$3&amp;", ",""),IF(L4=1,$L$3&amp;", ",""),IF(M4=1,$M$3&amp;", ",""),IF(N4=1,$N$3&amp;", ",""),IF(O4=1,$O$3&amp;", ",""),IF(P4=1,$P$3&amp;", ",""))</f>
@@ -1152,7 +1155,9 @@
       <c r="S4" s="16">
         <v>0</v>
       </c>
-      <c r="T4" s="16"/>
+      <c r="T4" s="16">
+        <v>2</v>
+      </c>
       <c r="U4" s="16"/>
       <c r="V4" s="16"/>
       <c r="W4" s="16"/>
@@ -1174,7 +1179,7 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -1232,7 +1237,7 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -1290,7 +1295,7 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -1348,7 +1353,7 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -1406,7 +1411,7 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -1464,7 +1469,7 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -1524,9 +1529,9 @@
       <c r="AK10" s="16"/>
       <c r="AL10" s="16"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1588,7 +1593,7 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -1613,7 +1618,7 @@
       <c r="P12" s="14"/>
       <c r="Q12" s="15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R12" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1622,7 +1627,9 @@
       <c r="S12" s="16">
         <v>1</v>
       </c>
-      <c r="T12" s="16"/>
+      <c r="T12" s="16">
+        <v>1</v>
+      </c>
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
       <c r="W12" s="16"/>
@@ -1644,7 +1651,7 @@
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B13" s="12">
         <v>1</v>
@@ -1706,7 +1713,7 @@
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -1762,7 +1769,7 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -1820,7 +1827,7 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -1878,7 +1885,7 @@
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -1890,7 +1897,7 @@
       <c r="I17" s="13"/>
       <c r="J17" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="13">
         <f t="array" ref="K17">IF(MAX(FREQUENCY(IF(S17:AL17&gt;0,COLUMN(S17:AL17)),IF(S17:AL17&lt;=0,COLUMN(S17:AL17))))&gt;4,1,0)</f>
@@ -1903,16 +1910,18 @@
       <c r="P17" s="14"/>
       <c r="Q17" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R17" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="S17" s="16">
         <v>3</v>
       </c>
-      <c r="T17" s="16"/>
+      <c r="T17" s="16">
+        <v>3</v>
+      </c>
       <c r="U17" s="16"/>
       <c r="V17" s="16"/>
       <c r="W17" s="16"/>
@@ -1934,7 +1943,7 @@
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -1990,7 +1999,7 @@
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -2046,7 +2055,7 @@
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -2104,7 +2113,7 @@
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -2129,7 +2138,7 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="15">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R21" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2138,7 +2147,9 @@
       <c r="S21" s="16">
         <v>2</v>
       </c>
-      <c r="T21" s="16"/>
+      <c r="T21" s="16">
+        <v>3</v>
+      </c>
       <c r="U21" s="16"/>
       <c r="V21" s="16"/>
       <c r="W21" s="16"/>
@@ -2160,7 +2171,7 @@
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -2218,7 +2229,7 @@
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -2276,7 +2287,7 @@
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -2336,7 +2347,7 @@
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12">
@@ -2400,7 +2411,7 @@
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -2425,7 +2436,7 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="15">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R26" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2434,7 +2445,9 @@
       <c r="S26" s="16">
         <v>2</v>
       </c>
-      <c r="T26" s="16"/>
+      <c r="T26" s="16">
+        <v>2</v>
+      </c>
       <c r="U26" s="16"/>
       <c r="V26" s="16"/>
       <c r="W26" s="16"/>
@@ -2456,7 +2469,7 @@
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -2514,7 +2527,7 @@
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -2572,7 +2585,7 @@
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -2632,7 +2645,7 @@
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -2690,7 +2703,7 @@
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -2748,7 +2761,7 @@
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B32" s="12">
         <v>1</v>
@@ -2808,7 +2821,7 @@
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -2866,7 +2879,7 @@
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -2924,7 +2937,7 @@
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -2982,7 +2995,7 @@
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -3040,7 +3053,7 @@
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -3098,7 +3111,7 @@
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -3156,7 +3169,7 @@
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -3214,7 +3227,7 @@
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -3272,7 +3285,7 @@
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -3330,7 +3343,7 @@
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -3388,7 +3401,7 @@
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -3470,7 +3483,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3482,7 +3495,7 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>'2Cou Data'!A4</f>
-        <v>BaconBoiGaming</v>
+        <v>Amarnath</v>
       </c>
       <c r="B2" t="str">
         <f>'2Cou Data'!R4</f>
@@ -3490,7 +3503,7 @@
       </c>
       <c r="C2">
         <f>'2Cou Data'!Q4</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3594,7 +3607,7 @@
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>'2Cou Data'!A12</f>
-        <v>phatman81kg</v>
+        <v>Joe</v>
       </c>
       <c r="B10" t="str">
         <f>'2Cou Data'!R12</f>
@@ -3602,7 +3615,7 @@
       </c>
       <c r="C10">
         <f>'2Cou Data'!Q12</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -3664,15 +3677,15 @@
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>'2Cou Data'!A17</f>
-        <v>Destineeee</v>
+        <v>Destinee</v>
       </c>
       <c r="B15" t="str">
         <f>'2Cou Data'!R17</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C15">
         <f>'2Cou Data'!Q17</f>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -3720,7 +3733,7 @@
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f>'2Cou Data'!A21</f>
-        <v>Axel</v>
+        <v>Chloe</v>
       </c>
       <c r="B19" t="str">
         <f>'2Cou Data'!R21</f>
@@ -3728,7 +3741,7 @@
       </c>
       <c r="C19">
         <f>'2Cou Data'!Q21</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -3790,7 +3803,7 @@
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f>'2Cou Data'!A26</f>
-        <v>Cownuker44</v>
+        <v>Ethan</v>
       </c>
       <c r="B24" t="str">
         <f>'2Cou Data'!R26</f>
@@ -3798,7 +3811,7 @@
       </c>
       <c r="C24">
         <f>'2Cou Data'!Q26</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -4046,12 +4059,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A2BDAFE-D7DA-4F7A-977C-CD8AB5364EE7}">
-  <dimension ref="A1:AL43"/>
+  <dimension ref="A1:AL20"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="T17" sqref="T17"/>
-      <selection pane="topRight" activeCell="J38" sqref="J38"/>
+      <selection pane="topRight" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4247,7 +4260,7 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -4303,7 +4316,7 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -4314,7 +4327,7 @@
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13">
-        <f t="shared" ref="J5:J43" si="0">IF(COUNTIF(S5:AL5,"&gt;=3")&gt;=2,1,0)</f>
+        <f t="shared" ref="J5:J20" si="0">IF(COUNTIF(S5:AL5,"&gt;=3")&gt;=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="K5" s="13">
@@ -4327,11 +4340,11 @@
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="15">
-        <f t="shared" ref="Q5:Q43" si="1">SUM(B5:G5)+3*SUM(H5:L5)+5*SUM(M5:P5)+SUM(S5:AL5)</f>
+        <f t="shared" ref="Q5:Q20" si="1">SUM(B5:G5)+3*SUM(H5:L5)+5*SUM(M5:P5)+SUM(S5:AL5)</f>
         <v>3</v>
       </c>
       <c r="R5" s="15" t="str">
-        <f t="shared" ref="R5:R43" si="2">CONCATENATE("-",IF(B5=1,$B$3&amp;", ",""),IF(C5=1,$C$3&amp;", ",""),IF(D5=1,$D$3&amp;", ",""),IF(E5=1,$E$3&amp;", ",""),IF(F5=1,$F$3&amp;", ",""),IF(G5=1,$G$3&amp;", ",""),IF(H5=1,$H$3&amp;", ",""),IF(I5=1,$I$3&amp;", ",""),IF(J5=1,$J$3&amp;", ",""),IF(K5=1,$K$3&amp;", ",""),IF(L5=1,$L$3&amp;", ",""),IF(M5=1,$M$3&amp;", ",""),IF(N5=1,$N$3&amp;", ",""),IF(O5=1,$O$3&amp;", ",""),IF(P5=1,$P$3&amp;", ",""))</f>
+        <f t="shared" ref="R5:R20" si="2">CONCATENATE("-",IF(B5=1,$B$3&amp;", ",""),IF(C5=1,$C$3&amp;", ",""),IF(D5=1,$D$3&amp;", ",""),IF(E5=1,$E$3&amp;", ",""),IF(F5=1,$F$3&amp;", ",""),IF(G5=1,$G$3&amp;", ",""),IF(H5=1,$H$3&amp;", ",""),IF(I5=1,$I$3&amp;", ",""),IF(J5=1,$J$3&amp;", ",""),IF(K5=1,$K$3&amp;", ",""),IF(L5=1,$L$3&amp;", ",""),IF(M5=1,$M$3&amp;", ",""),IF(N5=1,$N$3&amp;", ",""),IF(O5=1,$O$3&amp;", ",""),IF(P5=1,$P$3&amp;", ",""))</f>
         <v>-</v>
       </c>
       <c r="S5" s="16">
@@ -4359,7 +4372,7 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -4415,7 +4428,7 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -4473,7 +4486,7 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -4529,7 +4542,7 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -4585,7 +4598,7 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -4643,7 +4656,7 @@
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -4699,7 +4712,7 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -4755,7 +4768,7 @@
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -4811,7 +4824,7 @@
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -4869,7 +4882,7 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -4925,7 +4938,7 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -4981,7 +4994,7 @@
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -5199,1248 +5212,6 @@
       <c r="AK20" s="16"/>
       <c r="AL20" s="16"/>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
-        <v>18</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="13">
-        <f t="array" ref="K21">IF(MAX(FREQUENCY(IF(S21:AL21&gt;0,COLUMN(S21:AL21)),IF(S21:AL21&lt;=0,COLUMN(S21:AL21))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="16"/>
-      <c r="Z21" s="16"/>
-      <c r="AA21" s="16"/>
-      <c r="AB21" s="16"/>
-      <c r="AC21" s="16"/>
-      <c r="AD21" s="16"/>
-      <c r="AE21" s="16"/>
-      <c r="AF21" s="16"/>
-      <c r="AG21" s="16"/>
-      <c r="AH21" s="16"/>
-      <c r="AI21" s="16"/>
-      <c r="AJ21" s="16"/>
-      <c r="AK21" s="16"/>
-      <c r="AL21" s="16"/>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A22" s="11">
-        <v>19</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="13">
-        <f t="array" ref="K22">IF(MAX(FREQUENCY(IF(S22:AL22&gt;0,COLUMN(S22:AL22)),IF(S22:AL22&lt;=0,COLUMN(S22:AL22))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="16"/>
-      <c r="Z22" s="16"/>
-      <c r="AA22" s="16"/>
-      <c r="AB22" s="16"/>
-      <c r="AC22" s="16"/>
-      <c r="AD22" s="16"/>
-      <c r="AE22" s="16"/>
-      <c r="AF22" s="16"/>
-      <c r="AG22" s="16"/>
-      <c r="AH22" s="16"/>
-      <c r="AI22" s="16"/>
-      <c r="AJ22" s="16"/>
-      <c r="AK22" s="16"/>
-      <c r="AL22" s="16"/>
-    </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A23" s="11">
-        <v>20</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="13">
-        <f t="array" ref="K23">IF(MAX(FREQUENCY(IF(S23:AL23&gt;0,COLUMN(S23:AL23)),IF(S23:AL23&lt;=0,COLUMN(S23:AL23))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R23" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="16"/>
-      <c r="Y23" s="16"/>
-      <c r="Z23" s="16"/>
-      <c r="AA23" s="16"/>
-      <c r="AB23" s="16"/>
-      <c r="AC23" s="16"/>
-      <c r="AD23" s="16"/>
-      <c r="AE23" s="16"/>
-      <c r="AF23" s="16"/>
-      <c r="AG23" s="16"/>
-      <c r="AH23" s="16"/>
-      <c r="AI23" s="16"/>
-      <c r="AJ23" s="16"/>
-      <c r="AK23" s="16"/>
-      <c r="AL23" s="16"/>
-    </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A24" s="11">
-        <v>21</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="13">
-        <f t="array" ref="K24">IF(MAX(FREQUENCY(IF(S24:AL24&gt;0,COLUMN(S24:AL24)),IF(S24:AL24&lt;=0,COLUMN(S24:AL24))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R24" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="16"/>
-      <c r="Y24" s="16"/>
-      <c r="Z24" s="16"/>
-      <c r="AA24" s="16"/>
-      <c r="AB24" s="16"/>
-      <c r="AC24" s="16"/>
-      <c r="AD24" s="16"/>
-      <c r="AE24" s="16"/>
-      <c r="AF24" s="16"/>
-      <c r="AG24" s="16"/>
-      <c r="AH24" s="16"/>
-      <c r="AI24" s="16"/>
-      <c r="AJ24" s="16"/>
-      <c r="AK24" s="16"/>
-      <c r="AL24" s="16"/>
-    </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A25" s="11">
-        <v>22</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="13">
-        <f t="array" ref="K25">IF(MAX(FREQUENCY(IF(S25:AL25&gt;0,COLUMN(S25:AL25)),IF(S25:AL25&lt;=0,COLUMN(S25:AL25))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R25" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="16"/>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="16"/>
-      <c r="Z25" s="16"/>
-      <c r="AA25" s="16"/>
-      <c r="AB25" s="16"/>
-      <c r="AC25" s="16"/>
-      <c r="AD25" s="16"/>
-      <c r="AE25" s="16"/>
-      <c r="AF25" s="16"/>
-      <c r="AG25" s="16"/>
-      <c r="AH25" s="16"/>
-      <c r="AI25" s="16"/>
-      <c r="AJ25" s="16"/>
-      <c r="AK25" s="16"/>
-      <c r="AL25" s="16"/>
-    </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A26" s="11">
-        <v>23</v>
-      </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="13">
-        <f t="array" ref="K26">IF(MAX(FREQUENCY(IF(S26:AL26&gt;0,COLUMN(S26:AL26)),IF(S26:AL26&lt;=0,COLUMN(S26:AL26))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R26" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
-      <c r="X26" s="16"/>
-      <c r="Y26" s="16"/>
-      <c r="Z26" s="16"/>
-      <c r="AA26" s="16"/>
-      <c r="AB26" s="16"/>
-      <c r="AC26" s="16"/>
-      <c r="AD26" s="16"/>
-      <c r="AE26" s="16"/>
-      <c r="AF26" s="16"/>
-      <c r="AG26" s="16"/>
-      <c r="AH26" s="16"/>
-      <c r="AI26" s="16"/>
-      <c r="AJ26" s="16"/>
-      <c r="AK26" s="16"/>
-      <c r="AL26" s="16"/>
-    </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A27" s="11">
-        <v>24</v>
-      </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="13">
-        <f t="array" ref="K27">IF(MAX(FREQUENCY(IF(S27:AL27&gt;0,COLUMN(S27:AL27)),IF(S27:AL27&lt;=0,COLUMN(S27:AL27))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R27" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="16"/>
-      <c r="Y27" s="16"/>
-      <c r="Z27" s="16"/>
-      <c r="AA27" s="16"/>
-      <c r="AB27" s="16"/>
-      <c r="AC27" s="16"/>
-      <c r="AD27" s="16"/>
-      <c r="AE27" s="16"/>
-      <c r="AF27" s="16"/>
-      <c r="AG27" s="16"/>
-      <c r="AH27" s="16"/>
-      <c r="AI27" s="16"/>
-      <c r="AJ27" s="16"/>
-      <c r="AK27" s="16"/>
-      <c r="AL27" s="16"/>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A28" s="11">
-        <v>25</v>
-      </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="13">
-        <f t="array" ref="K28">IF(MAX(FREQUENCY(IF(S28:AL28&gt;0,COLUMN(S28:AL28)),IF(S28:AL28&lt;=0,COLUMN(S28:AL28))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R28" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="16"/>
-      <c r="X28" s="16"/>
-      <c r="Y28" s="16"/>
-      <c r="Z28" s="16"/>
-      <c r="AA28" s="16"/>
-      <c r="AB28" s="16"/>
-      <c r="AC28" s="16"/>
-      <c r="AD28" s="16"/>
-      <c r="AE28" s="16"/>
-      <c r="AF28" s="16"/>
-      <c r="AG28" s="16"/>
-      <c r="AH28" s="16"/>
-      <c r="AI28" s="16"/>
-      <c r="AJ28" s="16"/>
-      <c r="AK28" s="16"/>
-      <c r="AL28" s="16"/>
-    </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A29" s="11">
-        <v>26</v>
-      </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="13">
-        <f t="array" ref="K29">IF(MAX(FREQUENCY(IF(S29:AL29&gt;0,COLUMN(S29:AL29)),IF(S29:AL29&lt;=0,COLUMN(S29:AL29))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R29" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S29" s="16"/>
-      <c r="T29" s="16"/>
-      <c r="U29" s="16"/>
-      <c r="V29" s="16"/>
-      <c r="W29" s="16"/>
-      <c r="X29" s="16"/>
-      <c r="Y29" s="16"/>
-      <c r="Z29" s="16"/>
-      <c r="AA29" s="16"/>
-      <c r="AB29" s="16"/>
-      <c r="AC29" s="16"/>
-      <c r="AD29" s="16"/>
-      <c r="AE29" s="16"/>
-      <c r="AF29" s="16"/>
-      <c r="AG29" s="16"/>
-      <c r="AH29" s="16"/>
-      <c r="AI29" s="16"/>
-      <c r="AJ29" s="16"/>
-      <c r="AK29" s="16"/>
-      <c r="AL29" s="16"/>
-    </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A30" s="11">
-        <v>27</v>
-      </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="13">
-        <f t="array" ref="K30">IF(MAX(FREQUENCY(IF(S30:AL30&gt;0,COLUMN(S30:AL30)),IF(S30:AL30&lt;=0,COLUMN(S30:AL30))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R30" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S30" s="16"/>
-      <c r="T30" s="16"/>
-      <c r="U30" s="16"/>
-      <c r="V30" s="16"/>
-      <c r="W30" s="16"/>
-      <c r="X30" s="16"/>
-      <c r="Y30" s="16"/>
-      <c r="Z30" s="16"/>
-      <c r="AA30" s="16"/>
-      <c r="AB30" s="16"/>
-      <c r="AC30" s="16"/>
-      <c r="AD30" s="16"/>
-      <c r="AE30" s="16"/>
-      <c r="AF30" s="16"/>
-      <c r="AG30" s="16"/>
-      <c r="AH30" s="16"/>
-      <c r="AI30" s="16"/>
-      <c r="AJ30" s="16"/>
-      <c r="AK30" s="16"/>
-      <c r="AL30" s="16"/>
-    </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A31" s="11">
-        <v>28</v>
-      </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="13">
-        <f t="array" ref="K31">IF(MAX(FREQUENCY(IF(S31:AL31&gt;0,COLUMN(S31:AL31)),IF(S31:AL31&lt;=0,COLUMN(S31:AL31))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R31" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16"/>
-      <c r="U31" s="16"/>
-      <c r="V31" s="16"/>
-      <c r="W31" s="16"/>
-      <c r="X31" s="16"/>
-      <c r="Y31" s="16"/>
-      <c r="Z31" s="16"/>
-      <c r="AA31" s="16"/>
-      <c r="AB31" s="16"/>
-      <c r="AC31" s="16"/>
-      <c r="AD31" s="16"/>
-      <c r="AE31" s="16"/>
-      <c r="AF31" s="16"/>
-      <c r="AG31" s="16"/>
-      <c r="AH31" s="16"/>
-      <c r="AI31" s="16"/>
-      <c r="AJ31" s="16"/>
-      <c r="AK31" s="16"/>
-      <c r="AL31" s="16"/>
-    </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A32" s="11">
-        <v>29</v>
-      </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="13">
-        <f t="array" ref="K32">IF(MAX(FREQUENCY(IF(S32:AL32&gt;0,COLUMN(S32:AL32)),IF(S32:AL32&lt;=0,COLUMN(S32:AL32))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R32" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S32" s="16"/>
-      <c r="T32" s="16"/>
-      <c r="U32" s="16"/>
-      <c r="V32" s="16"/>
-      <c r="W32" s="16"/>
-      <c r="X32" s="16"/>
-      <c r="Y32" s="16"/>
-      <c r="Z32" s="16"/>
-      <c r="AA32" s="16"/>
-      <c r="AB32" s="16"/>
-      <c r="AC32" s="16"/>
-      <c r="AD32" s="16"/>
-      <c r="AE32" s="16"/>
-      <c r="AF32" s="16"/>
-      <c r="AG32" s="16"/>
-      <c r="AH32" s="16"/>
-      <c r="AI32" s="16"/>
-      <c r="AJ32" s="16"/>
-      <c r="AK32" s="16"/>
-      <c r="AL32" s="16"/>
-    </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A33" s="11">
-        <v>30</v>
-      </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="13">
-        <f t="array" ref="K33">IF(MAX(FREQUENCY(IF(S33:AL33&gt;0,COLUMN(S33:AL33)),IF(S33:AL33&lt;=0,COLUMN(S33:AL33))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R33" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S33" s="16"/>
-      <c r="T33" s="16"/>
-      <c r="U33" s="16"/>
-      <c r="V33" s="16"/>
-      <c r="W33" s="16"/>
-      <c r="X33" s="16"/>
-      <c r="Y33" s="16"/>
-      <c r="Z33" s="16"/>
-      <c r="AA33" s="16"/>
-      <c r="AB33" s="16"/>
-      <c r="AC33" s="16"/>
-      <c r="AD33" s="16"/>
-      <c r="AE33" s="16"/>
-      <c r="AF33" s="16"/>
-      <c r="AG33" s="16"/>
-      <c r="AH33" s="16"/>
-      <c r="AI33" s="16"/>
-      <c r="AJ33" s="16"/>
-      <c r="AK33" s="16"/>
-      <c r="AL33" s="16"/>
-    </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A34" s="11">
-        <v>31</v>
-      </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="13">
-        <f t="array" ref="K34">IF(MAX(FREQUENCY(IF(S34:AL34&gt;0,COLUMN(S34:AL34)),IF(S34:AL34&lt;=0,COLUMN(S34:AL34))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R34" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S34" s="16"/>
-      <c r="T34" s="16"/>
-      <c r="U34" s="16"/>
-      <c r="V34" s="16"/>
-      <c r="W34" s="16"/>
-      <c r="X34" s="16"/>
-      <c r="Y34" s="16"/>
-      <c r="Z34" s="16"/>
-      <c r="AA34" s="16"/>
-      <c r="AB34" s="16"/>
-      <c r="AC34" s="16"/>
-      <c r="AD34" s="16"/>
-      <c r="AE34" s="16"/>
-      <c r="AF34" s="16"/>
-      <c r="AG34" s="16"/>
-      <c r="AH34" s="16"/>
-      <c r="AI34" s="16"/>
-      <c r="AJ34" s="16"/>
-      <c r="AK34" s="16"/>
-      <c r="AL34" s="16"/>
-    </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A35" s="11">
-        <v>32</v>
-      </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="13">
-        <f t="array" ref="K35">IF(MAX(FREQUENCY(IF(S35:AL35&gt;0,COLUMN(S35:AL35)),IF(S35:AL35&lt;=0,COLUMN(S35:AL35))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R35" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
-      <c r="U35" s="16"/>
-      <c r="V35" s="16"/>
-      <c r="W35" s="16"/>
-      <c r="X35" s="16"/>
-      <c r="Y35" s="16"/>
-      <c r="Z35" s="16"/>
-      <c r="AA35" s="16"/>
-      <c r="AB35" s="16"/>
-      <c r="AC35" s="16"/>
-      <c r="AD35" s="16"/>
-      <c r="AE35" s="16"/>
-      <c r="AF35" s="16"/>
-      <c r="AG35" s="16"/>
-      <c r="AH35" s="16"/>
-      <c r="AI35" s="16"/>
-      <c r="AJ35" s="16"/>
-      <c r="AK35" s="16"/>
-      <c r="AL35" s="16"/>
-    </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A36" s="11">
-        <v>33</v>
-      </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="13">
-        <f t="array" ref="K36">IF(MAX(FREQUENCY(IF(S36:AL36&gt;0,COLUMN(S36:AL36)),IF(S36:AL36&lt;=0,COLUMN(S36:AL36))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R36" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S36" s="16"/>
-      <c r="T36" s="16"/>
-      <c r="U36" s="16"/>
-      <c r="V36" s="16"/>
-      <c r="W36" s="16"/>
-      <c r="X36" s="16"/>
-      <c r="Y36" s="16"/>
-      <c r="Z36" s="16"/>
-      <c r="AA36" s="16"/>
-      <c r="AB36" s="16"/>
-      <c r="AC36" s="16"/>
-      <c r="AD36" s="16"/>
-      <c r="AE36" s="16"/>
-      <c r="AF36" s="16"/>
-      <c r="AG36" s="16"/>
-      <c r="AH36" s="16"/>
-      <c r="AI36" s="16"/>
-      <c r="AJ36" s="16"/>
-      <c r="AK36" s="16"/>
-      <c r="AL36" s="16"/>
-    </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A37" s="11">
-        <v>34</v>
-      </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="13">
-        <f t="array" ref="K37">IF(MAX(FREQUENCY(IF(S37:AL37&gt;0,COLUMN(S37:AL37)),IF(S37:AL37&lt;=0,COLUMN(S37:AL37))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R37" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S37" s="16"/>
-      <c r="T37" s="16"/>
-      <c r="U37" s="16"/>
-      <c r="V37" s="16"/>
-      <c r="W37" s="16"/>
-      <c r="X37" s="16"/>
-      <c r="Y37" s="16"/>
-      <c r="Z37" s="16"/>
-      <c r="AA37" s="16"/>
-      <c r="AB37" s="16"/>
-      <c r="AC37" s="16"/>
-      <c r="AD37" s="16"/>
-      <c r="AE37" s="16"/>
-      <c r="AF37" s="16"/>
-      <c r="AG37" s="16"/>
-      <c r="AH37" s="16"/>
-      <c r="AI37" s="16"/>
-      <c r="AJ37" s="16"/>
-      <c r="AK37" s="16"/>
-      <c r="AL37" s="16"/>
-    </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A38" s="11">
-        <v>35</v>
-      </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="13">
-        <f t="array" ref="K38">IF(MAX(FREQUENCY(IF(S38:AL38&gt;0,COLUMN(S38:AL38)),IF(S38:AL38&lt;=0,COLUMN(S38:AL38))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R38" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S38" s="16"/>
-      <c r="T38" s="16"/>
-      <c r="U38" s="16"/>
-      <c r="V38" s="16"/>
-      <c r="W38" s="16"/>
-      <c r="X38" s="16"/>
-      <c r="Y38" s="16"/>
-      <c r="Z38" s="16"/>
-      <c r="AA38" s="16"/>
-      <c r="AB38" s="16"/>
-      <c r="AC38" s="16"/>
-      <c r="AD38" s="16"/>
-      <c r="AE38" s="16"/>
-      <c r="AF38" s="16"/>
-      <c r="AG38" s="16"/>
-      <c r="AH38" s="16"/>
-      <c r="AI38" s="16"/>
-      <c r="AJ38" s="16"/>
-      <c r="AK38" s="16"/>
-      <c r="AL38" s="16"/>
-    </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A39" s="11">
-        <v>36</v>
-      </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="13">
-        <f t="array" ref="K39">IF(MAX(FREQUENCY(IF(S39:AL39&gt;0,COLUMN(S39:AL39)),IF(S39:AL39&lt;=0,COLUMN(S39:AL39))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R39" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S39" s="16"/>
-      <c r="T39" s="16"/>
-      <c r="U39" s="16"/>
-      <c r="V39" s="16"/>
-      <c r="W39" s="16"/>
-      <c r="X39" s="16"/>
-      <c r="Y39" s="16"/>
-      <c r="Z39" s="16"/>
-      <c r="AA39" s="16"/>
-      <c r="AB39" s="16"/>
-      <c r="AC39" s="16"/>
-      <c r="AD39" s="16"/>
-      <c r="AE39" s="16"/>
-      <c r="AF39" s="16"/>
-      <c r="AG39" s="16"/>
-      <c r="AH39" s="16"/>
-      <c r="AI39" s="16"/>
-      <c r="AJ39" s="16"/>
-      <c r="AK39" s="16"/>
-      <c r="AL39" s="16"/>
-    </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A40" s="11">
-        <v>37</v>
-      </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="13">
-        <f t="array" ref="K40">IF(MAX(FREQUENCY(IF(S40:AL40&gt;0,COLUMN(S40:AL40)),IF(S40:AL40&lt;=0,COLUMN(S40:AL40))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R40" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S40" s="16"/>
-      <c r="T40" s="16"/>
-      <c r="U40" s="16"/>
-      <c r="V40" s="16"/>
-      <c r="W40" s="16"/>
-      <c r="X40" s="16"/>
-      <c r="Y40" s="16"/>
-      <c r="Z40" s="16"/>
-      <c r="AA40" s="16"/>
-      <c r="AB40" s="16"/>
-      <c r="AC40" s="16"/>
-      <c r="AD40" s="16"/>
-      <c r="AE40" s="16"/>
-      <c r="AF40" s="16"/>
-      <c r="AG40" s="16"/>
-      <c r="AH40" s="16"/>
-      <c r="AI40" s="16"/>
-      <c r="AJ40" s="16"/>
-      <c r="AK40" s="16"/>
-      <c r="AL40" s="16"/>
-    </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A41" s="11">
-        <v>38</v>
-      </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="13">
-        <f t="array" ref="K41">IF(MAX(FREQUENCY(IF(S41:AL41&gt;0,COLUMN(S41:AL41)),IF(S41:AL41&lt;=0,COLUMN(S41:AL41))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R41" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S41" s="16"/>
-      <c r="T41" s="16"/>
-      <c r="U41" s="16"/>
-      <c r="V41" s="16"/>
-      <c r="W41" s="16"/>
-      <c r="X41" s="16"/>
-      <c r="Y41" s="16"/>
-      <c r="Z41" s="16"/>
-      <c r="AA41" s="16"/>
-      <c r="AB41" s="16"/>
-      <c r="AC41" s="16"/>
-      <c r="AD41" s="16"/>
-      <c r="AE41" s="16"/>
-      <c r="AF41" s="16"/>
-      <c r="AG41" s="16"/>
-      <c r="AH41" s="16"/>
-      <c r="AI41" s="16"/>
-      <c r="AJ41" s="16"/>
-      <c r="AK41" s="16"/>
-      <c r="AL41" s="16"/>
-    </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A42" s="11">
-        <v>39</v>
-      </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K42" s="13">
-        <f t="array" ref="K42">IF(MAX(FREQUENCY(IF(S42:AL42&gt;0,COLUMN(S42:AL42)),IF(S42:AL42&lt;=0,COLUMN(S42:AL42))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R42" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S42" s="16"/>
-      <c r="T42" s="16"/>
-      <c r="U42" s="16"/>
-      <c r="V42" s="16"/>
-      <c r="W42" s="16"/>
-      <c r="X42" s="16"/>
-      <c r="Y42" s="16"/>
-      <c r="Z42" s="16"/>
-      <c r="AA42" s="16"/>
-      <c r="AB42" s="16"/>
-      <c r="AC42" s="16"/>
-      <c r="AD42" s="16"/>
-      <c r="AE42" s="16"/>
-      <c r="AF42" s="16"/>
-      <c r="AG42" s="16"/>
-      <c r="AH42" s="16"/>
-      <c r="AI42" s="16"/>
-      <c r="AJ42" s="16"/>
-      <c r="AK42" s="16"/>
-      <c r="AL42" s="16"/>
-    </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A43" s="11">
-        <v>40</v>
-      </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="13">
-        <f t="array" ref="K43">IF(MAX(FREQUENCY(IF(S43:AL43&gt;0,COLUMN(S43:AL43)),IF(S43:AL43&lt;=0,COLUMN(S43:AL43))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R43" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S43" s="16"/>
-      <c r="T43" s="16"/>
-      <c r="U43" s="16"/>
-      <c r="V43" s="16"/>
-      <c r="W43" s="16"/>
-      <c r="X43" s="16"/>
-      <c r="Y43" s="16"/>
-      <c r="Z43" s="16"/>
-      <c r="AA43" s="16"/>
-      <c r="AB43" s="16"/>
-      <c r="AC43" s="16"/>
-      <c r="AD43" s="16"/>
-      <c r="AE43" s="16"/>
-      <c r="AF43" s="16"/>
-      <c r="AG43" s="16"/>
-      <c r="AH43" s="16"/>
-      <c r="AI43" s="16"/>
-      <c r="AJ43" s="16"/>
-      <c r="AK43" s="16"/>
-      <c r="AL43" s="16"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="S2:AL2"/>
@@ -6455,17 +5226,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D4A0D9-6E2F-42AC-B3E6-5121257CA31E}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -6709,328 +5480,6 @@
       </c>
       <c r="C18">
         <f>'3Exp Data'!Q20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <f>'3Exp Data'!A21</f>
-        <v>18</v>
-      </c>
-      <c r="B19" t="str">
-        <f>'3Exp Data'!R21</f>
-        <v>-</v>
-      </c>
-      <c r="C19">
-        <f>'3Exp Data'!Q21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <f>'3Exp Data'!A22</f>
-        <v>19</v>
-      </c>
-      <c r="B20" t="str">
-        <f>'3Exp Data'!R22</f>
-        <v>-</v>
-      </c>
-      <c r="C20">
-        <f>'3Exp Data'!Q22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <f>'3Exp Data'!A23</f>
-        <v>20</v>
-      </c>
-      <c r="B21" t="str">
-        <f>'3Exp Data'!R23</f>
-        <v>-</v>
-      </c>
-      <c r="C21">
-        <f>'3Exp Data'!Q23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <f>'3Exp Data'!A24</f>
-        <v>21</v>
-      </c>
-      <c r="B22" t="str">
-        <f>'3Exp Data'!R24</f>
-        <v>-</v>
-      </c>
-      <c r="C22">
-        <f>'3Exp Data'!Q24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <f>'3Exp Data'!A25</f>
-        <v>22</v>
-      </c>
-      <c r="B23" t="str">
-        <f>'3Exp Data'!R25</f>
-        <v>-</v>
-      </c>
-      <c r="C23">
-        <f>'3Exp Data'!Q25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <f>'3Exp Data'!A26</f>
-        <v>23</v>
-      </c>
-      <c r="B24" t="str">
-        <f>'3Exp Data'!R26</f>
-        <v>-</v>
-      </c>
-      <c r="C24">
-        <f>'3Exp Data'!Q26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <f>'3Exp Data'!A27</f>
-        <v>24</v>
-      </c>
-      <c r="B25" t="str">
-        <f>'3Exp Data'!R27</f>
-        <v>-</v>
-      </c>
-      <c r="C25">
-        <f>'3Exp Data'!Q27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <f>'3Exp Data'!A28</f>
-        <v>25</v>
-      </c>
-      <c r="B26" t="str">
-        <f>'3Exp Data'!R28</f>
-        <v>-</v>
-      </c>
-      <c r="C26">
-        <f>'3Exp Data'!Q28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <f>'3Exp Data'!A29</f>
-        <v>26</v>
-      </c>
-      <c r="B27" t="str">
-        <f>'3Exp Data'!R29</f>
-        <v>-</v>
-      </c>
-      <c r="C27">
-        <f>'3Exp Data'!Q29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <f>'3Exp Data'!A30</f>
-        <v>27</v>
-      </c>
-      <c r="B28" t="str">
-        <f>'3Exp Data'!R30</f>
-        <v>-</v>
-      </c>
-      <c r="C28">
-        <f>'3Exp Data'!Q30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <f>'3Exp Data'!A31</f>
-        <v>28</v>
-      </c>
-      <c r="B29" t="str">
-        <f>'3Exp Data'!R31</f>
-        <v>-</v>
-      </c>
-      <c r="C29">
-        <f>'3Exp Data'!Q31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <f>'3Exp Data'!A32</f>
-        <v>29</v>
-      </c>
-      <c r="B30" t="str">
-        <f>'3Exp Data'!R32</f>
-        <v>-</v>
-      </c>
-      <c r="C30">
-        <f>'3Exp Data'!Q32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <f>'3Exp Data'!A33</f>
-        <v>30</v>
-      </c>
-      <c r="B31" t="str">
-        <f>'3Exp Data'!R33</f>
-        <v>-</v>
-      </c>
-      <c r="C31">
-        <f>'3Exp Data'!Q33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <f>'3Exp Data'!A34</f>
-        <v>31</v>
-      </c>
-      <c r="B32" t="str">
-        <f>'3Exp Data'!R34</f>
-        <v>-</v>
-      </c>
-      <c r="C32">
-        <f>'3Exp Data'!Q34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <f>'3Exp Data'!A35</f>
-        <v>32</v>
-      </c>
-      <c r="B33" t="str">
-        <f>'3Exp Data'!R35</f>
-        <v>-</v>
-      </c>
-      <c r="C33">
-        <f>'3Exp Data'!Q35</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <f>'3Exp Data'!A36</f>
-        <v>33</v>
-      </c>
-      <c r="B34" t="str">
-        <f>'3Exp Data'!R36</f>
-        <v>-</v>
-      </c>
-      <c r="C34">
-        <f>'3Exp Data'!Q36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <f>'3Exp Data'!A37</f>
-        <v>34</v>
-      </c>
-      <c r="B35" t="str">
-        <f>'3Exp Data'!R37</f>
-        <v>-</v>
-      </c>
-      <c r="C35">
-        <f>'3Exp Data'!Q37</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <f>'3Exp Data'!A38</f>
-        <v>35</v>
-      </c>
-      <c r="B36" t="str">
-        <f>'3Exp Data'!R38</f>
-        <v>-</v>
-      </c>
-      <c r="C36">
-        <f>'3Exp Data'!Q38</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <f>'3Exp Data'!A39</f>
-        <v>36</v>
-      </c>
-      <c r="B37" t="str">
-        <f>'3Exp Data'!R39</f>
-        <v>-</v>
-      </c>
-      <c r="C37">
-        <f>'3Exp Data'!Q39</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <f>'3Exp Data'!A40</f>
-        <v>37</v>
-      </c>
-      <c r="B38" t="str">
-        <f>'3Exp Data'!R40</f>
-        <v>-</v>
-      </c>
-      <c r="C38">
-        <f>'3Exp Data'!Q40</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <f>'3Exp Data'!A41</f>
-        <v>38</v>
-      </c>
-      <c r="B39" t="str">
-        <f>'3Exp Data'!R41</f>
-        <v>-</v>
-      </c>
-      <c r="C39">
-        <f>'3Exp Data'!Q41</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <f>'3Exp Data'!A42</f>
-        <v>39</v>
-      </c>
-      <c r="B40" t="str">
-        <f>'3Exp Data'!R42</f>
-        <v>-</v>
-      </c>
-      <c r="C40">
-        <f>'3Exp Data'!Q42</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <f>'3Exp Data'!A43</f>
-        <v>40</v>
-      </c>
-      <c r="B41" t="str">
-        <f>'3Exp Data'!R43</f>
-        <v>-</v>
-      </c>
-      <c r="C41">
-        <f>'3Exp Data'!Q43</f>
         <v>0</v>
       </c>
     </row>
@@ -7043,10 +5492,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848CF460-3EAC-4A7D-8560-52951FCF8A6B}">
   <dimension ref="A1:AL43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection activeCell="T17" sqref="T17"/>
-      <selection pane="topRight" activeCell="V23" sqref="V23"/>
+      <selection pane="topRight" activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7180,7 +5629,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T3" s="22">
         <v>2</v>
@@ -7242,7 +5691,7 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -7298,12 +5747,14 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="E5" s="12">
+        <v>1</v>
+      </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="13"/>
@@ -7316,18 +5767,20 @@
         <f t="array" ref="K5">IF(MAX(FREQUENCY(IF(S5:AL5&gt;0,COLUMN(S5:AL5)),IF(S5:AL5&lt;=0,COLUMN(S5:AL5))))&gt;4,1,0)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="13"/>
+      <c r="L5" s="13">
+        <v>1</v>
+      </c>
       <c r="M5" s="13"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="15">
         <f t="shared" ref="Q5:Q43" si="1">SUM(B5:G5)+3*SUM(H5:L5)+5*SUM(M5:P5)+SUM(S5:AL5)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R5" s="15" t="str">
         <f t="shared" ref="R5:R43" si="2">CONCATENATE("-",IF(B5=1,$B$3&amp;", ",""),IF(C5=1,$C$3&amp;", ",""),IF(D5=1,$D$3&amp;", ",""),IF(E5=1,$E$3&amp;", ",""),IF(F5=1,$F$3&amp;", ",""),IF(G5=1,$G$3&amp;", ",""),IF(H5=1,$H$3&amp;", ",""),IF(I5=1,$I$3&amp;", ",""),IF(J5=1,$J$3&amp;", ",""),IF(K5=1,$K$3&amp;", ",""),IF(L5=1,$L$3&amp;", ",""),IF(M5=1,$M$3&amp;", ",""),IF(N5=1,$N$3&amp;", ",""),IF(O5=1,$O$3&amp;", ",""),IF(P5=1,$P$3&amp;", ",""))</f>
-        <v>-</v>
+        <v xml:space="preserve">-Gaming is life, Extra Credit, </v>
       </c>
       <c r="S5" s="16">
         <v>4</v>
@@ -7354,12 +5807,14 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="E6" s="12">
+        <v>1</v>
+      </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="13"/>
@@ -7372,18 +5827,20 @@
         <f t="array" ref="K6">IF(MAX(FREQUENCY(IF(S6:AL6&gt;0,COLUMN(S6:AL6)),IF(S6:AL6&lt;=0,COLUMN(S6:AL6))))&gt;4,1,0)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="13"/>
+      <c r="L6" s="13">
+        <v>1</v>
+      </c>
       <c r="M6" s="13"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
       <c r="Q6" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R6" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Gaming is life, Extra Credit, </v>
       </c>
       <c r="S6" s="16">
         <v>3</v>
@@ -7410,7 +5867,7 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -7466,7 +5923,7 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -7522,7 +5979,7 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -7580,7 +6037,7 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -7636,7 +6093,7 @@
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -7692,7 +6149,7 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -7750,7 +6207,7 @@
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -7806,7 +6263,7 @@
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -7862,7 +6319,7 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -7918,7 +6375,7 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -7976,7 +6433,7 @@
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -8032,7 +6489,7 @@
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -8088,7 +6545,7 @@
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -8144,7 +6601,7 @@
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -8200,7 +6657,7 @@
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -8256,7 +6713,7 @@
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -8312,7 +6769,7 @@
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -8368,7 +6825,7 @@
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -8424,7 +6881,7 @@
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -8480,7 +6937,7 @@
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -8536,7 +6993,7 @@
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -8592,7 +7049,7 @@
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -8648,7 +7105,7 @@
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -8704,7 +7161,7 @@
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -8760,7 +7217,7 @@
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -8816,7 +7273,7 @@
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -8871,8 +7328,8 @@
       <c r="AL32" s="16"/>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A33" s="11">
-        <v>30</v>
+      <c r="A33" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -8897,13 +7354,15 @@
       <c r="P33" s="14"/>
       <c r="Q33" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R33" s="15" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="S33" s="16"/>
+      <c r="S33" s="16">
+        <v>3</v>
+      </c>
       <c r="T33" s="16"/>
       <c r="U33" s="16"/>
       <c r="V33" s="16"/>
@@ -9488,7 +7947,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -9518,11 +7977,11 @@
       </c>
       <c r="B3" t="str">
         <f>'2Res Data'!R5</f>
-        <v>-</v>
+        <v xml:space="preserve">-Gaming is life, Extra Credit, </v>
       </c>
       <c r="C3">
         <f>'2Res Data'!Q5</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -9532,11 +7991,11 @@
       </c>
       <c r="B4" t="str">
         <f>'2Res Data'!R6</f>
-        <v>-</v>
+        <v xml:space="preserve">-Gaming is life, Extra Credit, </v>
       </c>
       <c r="C4">
         <f>'2Res Data'!Q6</f>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -9904,9 +8363,9 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="A31" t="str">
         <f>'2Res Data'!A33</f>
-        <v>30</v>
+        <v>Kaelen</v>
       </c>
       <c r="B31" t="str">
         <f>'2Res Data'!R33</f>
@@ -9914,7 +8373,7 @@
       </c>
       <c r="C31">
         <f>'2Res Data'!Q33</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\65929\Desktop\website\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12BA802-8598-449E-9297-4BF0DB320EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4E8E3E-DC3A-4A85-AAA7-FC0347494E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="110">
   <si>
     <t>Achievements</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Star count</t>
   </si>
   <si>
-    <t>rae</t>
-  </si>
-  <si>
     <t>Trigo</t>
   </si>
   <si>
@@ -119,18 +116,9 @@
     <t>Jaidern</t>
   </si>
   <si>
-    <t>oldchangkeeyummy</t>
-  </si>
-  <si>
     <t>Mabel</t>
   </si>
   <si>
-    <t>MusicNerd10</t>
-  </si>
-  <si>
-    <t>stars</t>
-  </si>
-  <si>
     <t>Valencia</t>
   </si>
   <si>
@@ -360,6 +348,18 @@
   </si>
   <si>
     <t>Ethan</t>
+  </si>
+  <si>
+    <t>Mesuration</t>
+  </si>
+  <si>
+    <t>Alexis</t>
+  </si>
+  <si>
+    <t>Siri</t>
+  </si>
+  <si>
+    <t>Rachael</t>
   </si>
 </sst>
 </file>
@@ -908,9 +908,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T5" sqref="T5"/>
+      <selection pane="topRight" activeCell="W28" sqref="W28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="S3" s="22" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="T3" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="U3" s="22">
-        <v>3</v>
+        <v>24</v>
+      </c>
+      <c r="U3" s="22" t="s">
+        <v>106</v>
       </c>
       <c r="V3" s="22">
         <v>4</v>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B4" s="12">
         <v>1</v>
@@ -1179,7 +1179,7 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -1206,7 +1206,7 @@
       <c r="P5" s="14"/>
       <c r="Q5" s="15">
         <f t="shared" ref="Q5:Q43" si="1">SUM(B5:G5)+3*SUM(H5:L5)+5*SUM(M5:P5)+SUM(S5:AL5)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R5" s="15" t="str">
         <f t="shared" ref="R5:R43" si="2">CONCATENATE("-",IF(B5=1,$B$3&amp;", ",""),IF(C5=1,$C$3&amp;", ",""),IF(D5=1,$D$3&amp;", ",""),IF(E5=1,$E$3&amp;", ",""),IF(F5=1,$F$3&amp;", ",""),IF(G5=1,$G$3&amp;", ",""),IF(H5=1,$H$3&amp;", ",""),IF(I5=1,$I$3&amp;", ",""),IF(J5=1,$J$3&amp;", ",""),IF(K5=1,$K$3&amp;", ",""),IF(L5=1,$L$3&amp;", ",""),IF(M5=1,$M$3&amp;", ",""),IF(N5=1,$N$3&amp;", ",""),IF(O5=1,$O$3&amp;", ",""),IF(P5=1,$P$3&amp;", ",""))</f>
@@ -1216,7 +1216,9 @@
         <v>0</v>
       </c>
       <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
+      <c r="U5" s="16">
+        <v>3</v>
+      </c>
       <c r="V5" s="16"/>
       <c r="W5" s="16"/>
       <c r="X5" s="16"/>
@@ -1237,7 +1239,7 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -1262,7 +1264,7 @@
       <c r="P6" s="14"/>
       <c r="Q6" s="15">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="R6" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1274,7 +1276,9 @@
       <c r="T6" s="16">
         <v>4</v>
       </c>
-      <c r="U6" s="16"/>
+      <c r="U6" s="16">
+        <v>3</v>
+      </c>
       <c r="V6" s="16"/>
       <c r="W6" s="16"/>
       <c r="X6" s="16"/>
@@ -1295,7 +1299,7 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -1320,7 +1324,7 @@
       <c r="P7" s="14"/>
       <c r="Q7" s="15">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R7" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1332,7 +1336,9 @@
       <c r="T7" s="16">
         <v>1</v>
       </c>
-      <c r="U7" s="16"/>
+      <c r="U7" s="16">
+        <v>2</v>
+      </c>
       <c r="V7" s="16"/>
       <c r="W7" s="16"/>
       <c r="X7" s="16"/>
@@ -1353,7 +1359,7 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -1411,7 +1417,7 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -1423,7 +1429,7 @@
       <c r="I9" s="13"/>
       <c r="J9" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="13">
         <f t="array" ref="K9">IF(MAX(FREQUENCY(IF(S9:AL9&gt;0,COLUMN(S9:AL9)),IF(S9:AL9&lt;=0,COLUMN(S9:AL9))))&gt;4,1,0)</f>
@@ -1436,11 +1442,11 @@
       <c r="P9" s="14"/>
       <c r="Q9" s="15">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="R9" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="S9" s="16">
         <v>2</v>
@@ -1448,7 +1454,9 @@
       <c r="T9" s="16">
         <v>4</v>
       </c>
-      <c r="U9" s="16"/>
+      <c r="U9" s="16">
+        <v>3</v>
+      </c>
       <c r="V9" s="16"/>
       <c r="W9" s="16"/>
       <c r="X9" s="16"/>
@@ -1469,7 +1477,7 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -1498,7 +1506,7 @@
       <c r="P10" s="14"/>
       <c r="Q10" s="15">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R10" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1510,7 +1518,9 @@
       <c r="T10" s="16">
         <v>2</v>
       </c>
-      <c r="U10" s="16"/>
+      <c r="U10" s="16">
+        <v>2</v>
+      </c>
       <c r="V10" s="16"/>
       <c r="W10" s="16"/>
       <c r="X10" s="16"/>
@@ -1531,7 +1541,7 @@
     </row>
     <row r="11" spans="1:38" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1560,7 +1570,7 @@
       <c r="P11" s="14"/>
       <c r="Q11" s="15">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R11" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1572,7 +1582,9 @@
       <c r="T11" s="16">
         <v>3</v>
       </c>
-      <c r="U11" s="16"/>
+      <c r="U11" s="16">
+        <v>2</v>
+      </c>
       <c r="V11" s="16"/>
       <c r="W11" s="16"/>
       <c r="X11" s="16"/>
@@ -1593,7 +1605,7 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -1618,7 +1630,7 @@
       <c r="P12" s="14"/>
       <c r="Q12" s="15">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R12" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1630,7 +1642,9 @@
       <c r="T12" s="16">
         <v>1</v>
       </c>
-      <c r="U12" s="16"/>
+      <c r="U12" s="16">
+        <v>2</v>
+      </c>
       <c r="V12" s="16"/>
       <c r="W12" s="16"/>
       <c r="X12" s="16"/>
@@ -1651,7 +1665,7 @@
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B13" s="12">
         <v>1</v>
@@ -1680,7 +1694,7 @@
       <c r="P13" s="14"/>
       <c r="Q13" s="15">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R13" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1692,7 +1706,9 @@
       <c r="T13" s="16">
         <v>4</v>
       </c>
-      <c r="U13" s="16"/>
+      <c r="U13" s="16">
+        <v>2</v>
+      </c>
       <c r="V13" s="16"/>
       <c r="W13" s="16"/>
       <c r="X13" s="16"/>
@@ -1713,7 +1729,7 @@
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -1738,7 +1754,7 @@
       <c r="P14" s="14"/>
       <c r="Q14" s="15">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R14" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1748,7 +1764,9 @@
         <v>2</v>
       </c>
       <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
+      <c r="U14" s="16">
+        <v>2</v>
+      </c>
       <c r="V14" s="16"/>
       <c r="W14" s="16"/>
       <c r="X14" s="16"/>
@@ -1769,7 +1787,7 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -1794,7 +1812,7 @@
       <c r="P15" s="14"/>
       <c r="Q15" s="15">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="R15" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1806,7 +1824,9 @@
       <c r="T15" s="16">
         <v>3</v>
       </c>
-      <c r="U15" s="16"/>
+      <c r="U15" s="16">
+        <v>4</v>
+      </c>
       <c r="V15" s="16"/>
       <c r="W15" s="16"/>
       <c r="X15" s="16"/>
@@ -1827,7 +1847,7 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -1852,7 +1872,7 @@
       <c r="P16" s="14"/>
       <c r="Q16" s="15">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R16" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1864,7 +1884,9 @@
       <c r="T16" s="16">
         <v>3</v>
       </c>
-      <c r="U16" s="16"/>
+      <c r="U16" s="16">
+        <v>2</v>
+      </c>
       <c r="V16" s="16"/>
       <c r="W16" s="16"/>
       <c r="X16" s="16"/>
@@ -1885,7 +1907,7 @@
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -1910,7 +1932,7 @@
       <c r="P17" s="14"/>
       <c r="Q17" s="15">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R17" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1922,7 +1944,9 @@
       <c r="T17" s="16">
         <v>3</v>
       </c>
-      <c r="U17" s="16"/>
+      <c r="U17" s="16">
+        <v>3</v>
+      </c>
       <c r="V17" s="16"/>
       <c r="W17" s="16"/>
       <c r="X17" s="16"/>
@@ -1943,7 +1967,7 @@
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -1968,7 +1992,7 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="15">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R18" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1978,7 +2002,9 @@
         <v>2</v>
       </c>
       <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
+      <c r="U18" s="16">
+        <v>2</v>
+      </c>
       <c r="V18" s="16"/>
       <c r="W18" s="16"/>
       <c r="X18" s="16"/>
@@ -1999,7 +2025,7 @@
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -2011,7 +2037,7 @@
       <c r="I19" s="13"/>
       <c r="J19" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="13">
         <f t="array" ref="K19">IF(MAX(FREQUENCY(IF(S19:AL19&gt;0,COLUMN(S19:AL19)),IF(S19:AL19&lt;=0,COLUMN(S19:AL19))))&gt;4,1,0)</f>
@@ -2024,17 +2050,19 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R19" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="S19" s="16">
         <v>3</v>
       </c>
       <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
+      <c r="U19" s="16">
+        <v>3</v>
+      </c>
       <c r="V19" s="16"/>
       <c r="W19" s="16"/>
       <c r="X19" s="16"/>
@@ -2055,7 +2083,7 @@
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -2080,7 +2108,7 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="15">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R20" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2092,7 +2120,9 @@
       <c r="T20" s="16">
         <v>3</v>
       </c>
-      <c r="U20" s="16"/>
+      <c r="U20" s="16">
+        <v>3</v>
+      </c>
       <c r="V20" s="16"/>
       <c r="W20" s="16"/>
       <c r="X20" s="16"/>
@@ -2113,7 +2143,7 @@
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -2138,7 +2168,7 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="15">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R21" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2150,7 +2180,9 @@
       <c r="T21" s="16">
         <v>3</v>
       </c>
-      <c r="U21" s="16"/>
+      <c r="U21" s="16">
+        <v>2</v>
+      </c>
       <c r="V21" s="16"/>
       <c r="W21" s="16"/>
       <c r="X21" s="16"/>
@@ -2171,7 +2203,7 @@
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -2229,7 +2261,7 @@
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -2254,7 +2286,7 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="15">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R23" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2266,7 +2298,9 @@
       <c r="T23" s="16">
         <v>3</v>
       </c>
-      <c r="U23" s="16"/>
+      <c r="U23" s="16">
+        <v>2</v>
+      </c>
       <c r="V23" s="16"/>
       <c r="W23" s="16"/>
       <c r="X23" s="16"/>
@@ -2287,7 +2321,7 @@
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -2314,7 +2348,7 @@
       <c r="P24" s="14"/>
       <c r="Q24" s="15">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R24" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2326,7 +2360,9 @@
       <c r="T24" s="16">
         <v>2</v>
       </c>
-      <c r="U24" s="16"/>
+      <c r="U24" s="16">
+        <v>2</v>
+      </c>
       <c r="V24" s="16"/>
       <c r="W24" s="16"/>
       <c r="X24" s="16"/>
@@ -2347,7 +2383,7 @@
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12">
@@ -2378,7 +2414,7 @@
       <c r="P25" s="14"/>
       <c r="Q25" s="15">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R25" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2390,7 +2426,9 @@
       <c r="T25" s="16">
         <v>2</v>
       </c>
-      <c r="U25" s="16"/>
+      <c r="U25" s="16">
+        <v>2</v>
+      </c>
       <c r="V25" s="16"/>
       <c r="W25" s="16"/>
       <c r="X25" s="16"/>
@@ -2411,7 +2449,7 @@
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -2469,7 +2507,7 @@
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -2494,7 +2532,7 @@
       <c r="P27" s="14"/>
       <c r="Q27" s="15">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R27" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2506,7 +2544,9 @@
       <c r="T27" s="16">
         <v>2</v>
       </c>
-      <c r="U27" s="16"/>
+      <c r="U27" s="16">
+        <v>3</v>
+      </c>
       <c r="V27" s="16"/>
       <c r="W27" s="16"/>
       <c r="X27" s="16"/>
@@ -2527,7 +2567,7 @@
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -2552,7 +2592,7 @@
       <c r="P28" s="14"/>
       <c r="Q28" s="15">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R28" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2564,7 +2604,9 @@
       <c r="T28" s="16">
         <v>3</v>
       </c>
-      <c r="U28" s="16"/>
+      <c r="U28" s="16">
+        <v>3</v>
+      </c>
       <c r="V28" s="16"/>
       <c r="W28" s="16"/>
       <c r="X28" s="16"/>
@@ -2585,7 +2627,7 @@
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -2612,7 +2654,7 @@
       <c r="P29" s="14"/>
       <c r="Q29" s="15">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="R29" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2624,7 +2666,9 @@
       <c r="T29" s="16">
         <v>4</v>
       </c>
-      <c r="U29" s="16"/>
+      <c r="U29" s="16">
+        <v>4</v>
+      </c>
       <c r="V29" s="16"/>
       <c r="W29" s="16"/>
       <c r="X29" s="16"/>
@@ -2645,7 +2689,7 @@
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -2657,7 +2701,7 @@
       <c r="I30" s="13"/>
       <c r="J30" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="13">
         <f t="array" ref="K30">IF(MAX(FREQUENCY(IF(S30:AL30&gt;0,COLUMN(S30:AL30)),IF(S30:AL30&lt;=0,COLUMN(S30:AL30))))&gt;4,1,0)</f>
@@ -2670,11 +2714,11 @@
       <c r="P30" s="14"/>
       <c r="Q30" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R30" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="S30" s="16">
         <v>0</v>
@@ -2682,7 +2726,9 @@
       <c r="T30" s="16">
         <v>3</v>
       </c>
-      <c r="U30" s="16"/>
+      <c r="U30" s="16">
+        <v>3</v>
+      </c>
       <c r="V30" s="16"/>
       <c r="W30" s="16"/>
       <c r="X30" s="16"/>
@@ -2703,7 +2749,7 @@
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -2715,7 +2761,7 @@
       <c r="I31" s="13"/>
       <c r="J31" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="13">
         <f t="array" ref="K31">IF(MAX(FREQUENCY(IF(S31:AL31&gt;0,COLUMN(S31:AL31)),IF(S31:AL31&lt;=0,COLUMN(S31:AL31))))&gt;4,1,0)</f>
@@ -2728,11 +2774,11 @@
       <c r="P31" s="14"/>
       <c r="Q31" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R31" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="S31" s="16">
         <v>0</v>
@@ -2740,7 +2786,9 @@
       <c r="T31" s="16">
         <v>3</v>
       </c>
-      <c r="U31" s="16"/>
+      <c r="U31" s="16">
+        <v>3</v>
+      </c>
       <c r="V31" s="16"/>
       <c r="W31" s="16"/>
       <c r="X31" s="16"/>
@@ -2761,7 +2809,7 @@
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B32" s="12">
         <v>1</v>
@@ -2788,7 +2836,7 @@
       <c r="P32" s="14"/>
       <c r="Q32" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R32" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2800,7 +2848,9 @@
       <c r="T32" s="16">
         <v>2</v>
       </c>
-      <c r="U32" s="16"/>
+      <c r="U32" s="16">
+        <v>2</v>
+      </c>
       <c r="V32" s="16"/>
       <c r="W32" s="16"/>
       <c r="X32" s="16"/>
@@ -2821,7 +2871,7 @@
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -2846,7 +2896,7 @@
       <c r="P33" s="14"/>
       <c r="Q33" s="15">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R33" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2858,7 +2908,9 @@
       <c r="T33" s="16">
         <v>2</v>
       </c>
-      <c r="U33" s="16"/>
+      <c r="U33" s="16">
+        <v>2</v>
+      </c>
       <c r="V33" s="16"/>
       <c r="W33" s="16"/>
       <c r="X33" s="16"/>
@@ -2879,7 +2931,7 @@
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -2891,7 +2943,7 @@
       <c r="I34" s="13"/>
       <c r="J34" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="13">
         <f t="array" ref="K34">IF(MAX(FREQUENCY(IF(S34:AL34&gt;0,COLUMN(S34:AL34)),IF(S34:AL34&lt;=0,COLUMN(S34:AL34))))&gt;4,1,0)</f>
@@ -2904,11 +2956,11 @@
       <c r="P34" s="14"/>
       <c r="Q34" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="R34" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="S34" s="16">
         <v>0</v>
@@ -2916,7 +2968,9 @@
       <c r="T34" s="16">
         <v>3</v>
       </c>
-      <c r="U34" s="16"/>
+      <c r="U34" s="16">
+        <v>4</v>
+      </c>
       <c r="V34" s="16"/>
       <c r="W34" s="16"/>
       <c r="X34" s="16"/>
@@ -2937,7 +2991,7 @@
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -2949,7 +3003,7 @@
       <c r="I35" s="13"/>
       <c r="J35" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="13">
         <f t="array" ref="K35">IF(MAX(FREQUENCY(IF(S35:AL35&gt;0,COLUMN(S35:AL35)),IF(S35:AL35&lt;=0,COLUMN(S35:AL35))))&gt;4,1,0)</f>
@@ -2962,11 +3016,11 @@
       <c r="P35" s="14"/>
       <c r="Q35" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R35" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="S35" s="16">
         <v>0</v>
@@ -2974,7 +3028,9 @@
       <c r="T35" s="16">
         <v>3</v>
       </c>
-      <c r="U35" s="16"/>
+      <c r="U35" s="16">
+        <v>3</v>
+      </c>
       <c r="V35" s="16"/>
       <c r="W35" s="16"/>
       <c r="X35" s="16"/>
@@ -2995,7 +3051,7 @@
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -3020,7 +3076,7 @@
       <c r="P36" s="14"/>
       <c r="Q36" s="15">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R36" s="15" t="str">
         <f t="shared" si="2"/>
@@ -3032,7 +3088,9 @@
       <c r="T36" s="16">
         <v>2</v>
       </c>
-      <c r="U36" s="16"/>
+      <c r="U36" s="16">
+        <v>2</v>
+      </c>
       <c r="V36" s="16"/>
       <c r="W36" s="16"/>
       <c r="X36" s="16"/>
@@ -3053,7 +3111,7 @@
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -3078,7 +3136,7 @@
       <c r="P37" s="14"/>
       <c r="Q37" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R37" s="15" t="str">
         <f t="shared" si="2"/>
@@ -3090,7 +3148,9 @@
       <c r="T37" s="16">
         <v>3</v>
       </c>
-      <c r="U37" s="16"/>
+      <c r="U37" s="16">
+        <v>2</v>
+      </c>
       <c r="V37" s="16"/>
       <c r="W37" s="16"/>
       <c r="X37" s="16"/>
@@ -3111,7 +3171,7 @@
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -3136,7 +3196,7 @@
       <c r="P38" s="14"/>
       <c r="Q38" s="15">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R38" s="15" t="str">
         <f t="shared" si="2"/>
@@ -3148,7 +3208,9 @@
       <c r="T38" s="16">
         <v>2</v>
       </c>
-      <c r="U38" s="16"/>
+      <c r="U38" s="16">
+        <v>2</v>
+      </c>
       <c r="V38" s="16"/>
       <c r="W38" s="16"/>
       <c r="X38" s="16"/>
@@ -3169,7 +3231,7 @@
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -3194,7 +3256,7 @@
       <c r="P39" s="14"/>
       <c r="Q39" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R39" s="15" t="str">
         <f t="shared" si="2"/>
@@ -3206,7 +3268,9 @@
       <c r="T39" s="16">
         <v>3</v>
       </c>
-      <c r="U39" s="16"/>
+      <c r="U39" s="16">
+        <v>2</v>
+      </c>
       <c r="V39" s="16"/>
       <c r="W39" s="16"/>
       <c r="X39" s="16"/>
@@ -3227,7 +3291,7 @@
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -3252,7 +3316,7 @@
       <c r="P40" s="14"/>
       <c r="Q40" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R40" s="15" t="str">
         <f t="shared" si="2"/>
@@ -3264,7 +3328,9 @@
       <c r="T40" s="16">
         <v>3</v>
       </c>
-      <c r="U40" s="16"/>
+      <c r="U40" s="16">
+        <v>2</v>
+      </c>
       <c r="V40" s="16"/>
       <c r="W40" s="16"/>
       <c r="X40" s="16"/>
@@ -3285,7 +3351,7 @@
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -3310,7 +3376,7 @@
       <c r="P41" s="14"/>
       <c r="Q41" s="15">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R41" s="15" t="str">
         <f t="shared" si="2"/>
@@ -3322,7 +3388,9 @@
       <c r="T41" s="16">
         <v>2</v>
       </c>
-      <c r="U41" s="16"/>
+      <c r="U41" s="16">
+        <v>2</v>
+      </c>
       <c r="V41" s="16"/>
       <c r="W41" s="16"/>
       <c r="X41" s="16"/>
@@ -3343,7 +3411,7 @@
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -3368,7 +3436,7 @@
       <c r="P42" s="14"/>
       <c r="Q42" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R42" s="15" t="str">
         <f t="shared" si="2"/>
@@ -3380,7 +3448,9 @@
       <c r="T42" s="16">
         <v>3</v>
       </c>
-      <c r="U42" s="16"/>
+      <c r="U42" s="16">
+        <v>2</v>
+      </c>
       <c r="V42" s="16"/>
       <c r="W42" s="16"/>
       <c r="X42" s="16"/>
@@ -3401,7 +3471,7 @@
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -3483,7 +3553,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3509,7 +3579,7 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>'2Cou Data'!A5</f>
-        <v>rae</v>
+        <v>Rachael</v>
       </c>
       <c r="B3" t="str">
         <f>'2Cou Data'!R5</f>
@@ -3517,7 +3587,7 @@
       </c>
       <c r="C3">
         <f>'2Cou Data'!Q5</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3531,7 +3601,7 @@
       </c>
       <c r="C4">
         <f>'2Cou Data'!Q6</f>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3545,7 +3615,7 @@
       </c>
       <c r="C5">
         <f>'2Cou Data'!Q7</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3569,11 +3639,11 @@
       </c>
       <c r="B7" t="str">
         <f>'2Cou Data'!R9</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C7">
         <f>'2Cou Data'!Q9</f>
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3587,7 +3657,7 @@
       </c>
       <c r="C8">
         <f>'2Cou Data'!Q10</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -3601,7 +3671,7 @@
       </c>
       <c r="C9">
         <f>'2Cou Data'!Q11</f>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -3615,7 +3685,7 @@
       </c>
       <c r="C10">
         <f>'2Cou Data'!Q12</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -3629,13 +3699,13 @@
       </c>
       <c r="C11">
         <f>'2Cou Data'!Q13</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>'2Cou Data'!A14</f>
-        <v>oldchangkeeyummy</v>
+        <v>Kerlyn</v>
       </c>
       <c r="B12" t="str">
         <f>'2Cou Data'!R14</f>
@@ -3643,7 +3713,7 @@
       </c>
       <c r="C12">
         <f>'2Cou Data'!Q14</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -3657,13 +3727,13 @@
       </c>
       <c r="C13">
         <f>'2Cou Data'!Q15</f>
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f>'2Cou Data'!A16</f>
-        <v>MusicNerd10</v>
+        <v>Alexis</v>
       </c>
       <c r="B14" t="str">
         <f>'2Cou Data'!R16</f>
@@ -3671,7 +3741,7 @@
       </c>
       <c r="C14">
         <f>'2Cou Data'!Q16</f>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -3685,13 +3755,13 @@
       </c>
       <c r="C15">
         <f>'2Cou Data'!Q17</f>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>'2Cou Data'!A18</f>
-        <v>stars</v>
+        <v>Siri</v>
       </c>
       <c r="B16" t="str">
         <f>'2Cou Data'!R18</f>
@@ -3699,7 +3769,7 @@
       </c>
       <c r="C16">
         <f>'2Cou Data'!Q18</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -3709,11 +3779,11 @@
       </c>
       <c r="B17" t="str">
         <f>'2Cou Data'!R19</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C17">
         <f>'2Cou Data'!Q19</f>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -3727,7 +3797,7 @@
       </c>
       <c r="C18">
         <f>'2Cou Data'!Q20</f>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -3741,7 +3811,7 @@
       </c>
       <c r="C19">
         <f>'2Cou Data'!Q21</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -3769,7 +3839,7 @@
       </c>
       <c r="C21">
         <f>'2Cou Data'!Q23</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -3783,7 +3853,7 @@
       </c>
       <c r="C22">
         <f>'2Cou Data'!Q24</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -3797,7 +3867,7 @@
       </c>
       <c r="C23">
         <f>'2Cou Data'!Q25</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -3825,7 +3895,7 @@
       </c>
       <c r="C25">
         <f>'2Cou Data'!Q27</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -3839,7 +3909,7 @@
       </c>
       <c r="C26">
         <f>'2Cou Data'!Q28</f>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -3853,7 +3923,7 @@
       </c>
       <c r="C27">
         <f>'2Cou Data'!Q29</f>
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -3863,11 +3933,11 @@
       </c>
       <c r="B28" t="str">
         <f>'2Cou Data'!R30</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C28">
         <f>'2Cou Data'!Q30</f>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -3877,11 +3947,11 @@
       </c>
       <c r="B29" t="str">
         <f>'2Cou Data'!R31</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C29">
         <f>'2Cou Data'!Q31</f>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -3895,7 +3965,7 @@
       </c>
       <c r="C30">
         <f>'2Cou Data'!Q32</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -3909,7 +3979,7 @@
       </c>
       <c r="C31">
         <f>'2Cou Data'!Q33</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -3919,11 +3989,11 @@
       </c>
       <c r="B32" t="str">
         <f>'2Cou Data'!R34</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C32">
         <f>'2Cou Data'!Q34</f>
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -3933,11 +4003,11 @@
       </c>
       <c r="B33" t="str">
         <f>'2Cou Data'!R35</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C33">
         <f>'2Cou Data'!Q35</f>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -3951,7 +4021,7 @@
       </c>
       <c r="C34">
         <f>'2Cou Data'!Q36</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -3965,7 +4035,7 @@
       </c>
       <c r="C35">
         <f>'2Cou Data'!Q37</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -3979,7 +4049,7 @@
       </c>
       <c r="C36">
         <f>'2Cou Data'!Q38</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -3993,7 +4063,7 @@
       </c>
       <c r="C37">
         <f>'2Cou Data'!Q39</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -4007,7 +4077,7 @@
       </c>
       <c r="C38">
         <f>'2Cou Data'!Q40</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -4021,7 +4091,7 @@
       </c>
       <c r="C39">
         <f>'2Cou Data'!Q41</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -4035,7 +4105,7 @@
       </c>
       <c r="C40">
         <f>'2Cou Data'!Q42</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -4260,7 +4330,7 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -4316,7 +4386,7 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -4372,7 +4442,7 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -4428,7 +4498,7 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -4486,7 +4556,7 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -4542,7 +4612,7 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -4598,7 +4668,7 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -4656,7 +4726,7 @@
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -4712,7 +4782,7 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -4768,7 +4838,7 @@
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -4824,7 +4894,7 @@
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -4882,7 +4952,7 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -4938,7 +5008,7 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -4994,7 +5064,7 @@
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -5236,7 +5306,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -5629,7 +5699,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T3" s="22">
         <v>2</v>
@@ -5691,7 +5761,7 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -5747,7 +5817,7 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -5807,7 +5877,7 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -5867,7 +5937,7 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -5923,7 +5993,7 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -5979,7 +6049,7 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -6037,7 +6107,7 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -6093,7 +6163,7 @@
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -6149,7 +6219,7 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -6207,7 +6277,7 @@
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -6263,7 +6333,7 @@
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -6319,7 +6389,7 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -6375,7 +6445,7 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -6433,7 +6503,7 @@
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -6489,7 +6559,7 @@
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -6545,7 +6615,7 @@
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -6601,7 +6671,7 @@
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -6657,7 +6727,7 @@
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -6713,7 +6783,7 @@
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -6769,7 +6839,7 @@
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -6825,7 +6895,7 @@
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -6881,7 +6951,7 @@
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -6937,7 +7007,7 @@
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -6993,7 +7063,7 @@
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -7049,7 +7119,7 @@
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -7105,7 +7175,7 @@
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -7161,7 +7231,7 @@
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -7217,7 +7287,7 @@
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -7273,7 +7343,7 @@
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -7329,7 +7399,7 @@
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -7947,7 +8017,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\65929\Desktop\website\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4E8E3E-DC3A-4A85-AAA7-FC0347494E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE0BFF0-4247-428F-B8AF-F5BCF095249E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2Cou Data" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="114">
   <si>
     <t>Achievements</t>
   </si>
@@ -278,9 +278,6 @@
     <t>Xinen</t>
   </si>
   <si>
-    <t>ya</t>
-  </si>
-  <si>
     <t>Koen</t>
   </si>
   <si>
@@ -360,6 +357,21 @@
   </si>
   <si>
     <t>Rachael</t>
+  </si>
+  <si>
+    <t>Mensuration</t>
+  </si>
+  <si>
+    <t>Miley</t>
+  </si>
+  <si>
+    <t>Lucius</t>
+  </si>
+  <si>
+    <t>Vera</t>
+  </si>
+  <si>
+    <t>Yanwu</t>
   </si>
 </sst>
 </file>
@@ -908,7 +920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="W28" sqref="W28"/>
     </sheetView>
@@ -1059,7 +1071,7 @@
         <v>24</v>
       </c>
       <c r="U3" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="V3" s="22">
         <v>4</v>
@@ -1115,7 +1127,7 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="12">
         <v>1</v>
@@ -1179,7 +1191,7 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -1605,7 +1617,7 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -1847,7 +1859,7 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -1907,7 +1919,7 @@
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -1967,7 +1979,7 @@
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -2143,7 +2155,7 @@
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -2449,7 +2461,7 @@
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -5562,10 +5574,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848CF460-3EAC-4A7D-8560-52951FCF8A6B}">
   <dimension ref="A1:AL43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="T17" sqref="T17"/>
-      <selection pane="topRight" activeCell="S34" sqref="S34"/>
+      <selection pane="topRight" activeCell="AC27" sqref="AC27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5701,8 +5713,8 @@
       <c r="S3" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="22">
-        <v>2</v>
+      <c r="T3" s="22" t="s">
+        <v>109</v>
       </c>
       <c r="U3" s="22">
         <v>3</v>
@@ -5831,7 +5843,7 @@
       <c r="I5" s="13"/>
       <c r="J5" s="13">
         <f t="shared" ref="J5:J43" si="0">IF(COUNTIF(S5:AL5,"&gt;=3")&gt;=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="13">
         <f t="array" ref="K5">IF(MAX(FREQUENCY(IF(S5:AL5&gt;0,COLUMN(S5:AL5)),IF(S5:AL5&lt;=0,COLUMN(S5:AL5))))&gt;4,1,0)</f>
@@ -5846,16 +5858,18 @@
       <c r="P5" s="14"/>
       <c r="Q5" s="15">
         <f t="shared" ref="Q5:Q43" si="1">SUM(B5:G5)+3*SUM(H5:L5)+5*SUM(M5:P5)+SUM(S5:AL5)</f>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="R5" s="15" t="str">
         <f t="shared" ref="R5:R43" si="2">CONCATENATE("-",IF(B5=1,$B$3&amp;", ",""),IF(C5=1,$C$3&amp;", ",""),IF(D5=1,$D$3&amp;", ",""),IF(E5=1,$E$3&amp;", ",""),IF(F5=1,$F$3&amp;", ",""),IF(G5=1,$G$3&amp;", ",""),IF(H5=1,$H$3&amp;", ",""),IF(I5=1,$I$3&amp;", ",""),IF(J5=1,$J$3&amp;", ",""),IF(K5=1,$K$3&amp;", ",""),IF(L5=1,$L$3&amp;", ",""),IF(M5=1,$M$3&amp;", ",""),IF(N5=1,$N$3&amp;", ",""),IF(O5=1,$O$3&amp;", ",""),IF(P5=1,$P$3&amp;", ",""))</f>
-        <v xml:space="preserve">-Gaming is life, Extra Credit, </v>
+        <v xml:space="preserve">-Gaming is life, Three-Star Wonder, Extra Credit, </v>
       </c>
       <c r="S5" s="16">
         <v>4</v>
       </c>
-      <c r="T5" s="16"/>
+      <c r="T5" s="16">
+        <v>4</v>
+      </c>
       <c r="U5" s="16"/>
       <c r="V5" s="16"/>
       <c r="W5" s="16"/>
@@ -5891,7 +5905,7 @@
       <c r="I6" s="13"/>
       <c r="J6" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="13">
         <f t="array" ref="K6">IF(MAX(FREQUENCY(IF(S6:AL6&gt;0,COLUMN(S6:AL6)),IF(S6:AL6&lt;=0,COLUMN(S6:AL6))))&gt;4,1,0)</f>
@@ -5906,16 +5920,18 @@
       <c r="P6" s="14"/>
       <c r="Q6" s="15">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="R6" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Gaming is life, Extra Credit, </v>
+        <v xml:space="preserve">-Gaming is life, Three-Star Wonder, Extra Credit, </v>
       </c>
       <c r="S6" s="16">
         <v>3</v>
       </c>
-      <c r="T6" s="16"/>
+      <c r="T6" s="16">
+        <v>4</v>
+      </c>
       <c r="U6" s="16"/>
       <c r="V6" s="16"/>
       <c r="W6" s="16"/>
@@ -5949,7 +5965,7 @@
       <c r="I7" s="13"/>
       <c r="J7" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="13">
         <f t="array" ref="K7">IF(MAX(FREQUENCY(IF(S7:AL7&gt;0,COLUMN(S7:AL7)),IF(S7:AL7&lt;=0,COLUMN(S7:AL7))))&gt;4,1,0)</f>
@@ -5962,16 +5978,18 @@
       <c r="P7" s="14"/>
       <c r="Q7" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="R7" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="S7" s="16">
         <v>3</v>
       </c>
-      <c r="T7" s="16"/>
+      <c r="T7" s="16">
+        <v>4</v>
+      </c>
       <c r="U7" s="16"/>
       <c r="V7" s="16"/>
       <c r="W7" s="16"/>
@@ -6018,7 +6036,7 @@
       <c r="P8" s="14"/>
       <c r="Q8" s="15">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R8" s="15" t="str">
         <f t="shared" si="2"/>
@@ -6027,7 +6045,9 @@
       <c r="S8" s="16">
         <v>2</v>
       </c>
-      <c r="T8" s="16"/>
+      <c r="T8" s="16">
+        <v>3</v>
+      </c>
       <c r="U8" s="16"/>
       <c r="V8" s="16"/>
       <c r="W8" s="16"/>
@@ -6063,7 +6083,7 @@
       <c r="I9" s="13"/>
       <c r="J9" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="13">
         <f t="array" ref="K9">IF(MAX(FREQUENCY(IF(S9:AL9&gt;0,COLUMN(S9:AL9)),IF(S9:AL9&lt;=0,COLUMN(S9:AL9))))&gt;4,1,0)</f>
@@ -6076,16 +6096,18 @@
       <c r="P9" s="14"/>
       <c r="Q9" s="15">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="R9" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Full Combo, </v>
+        <v xml:space="preserve">-Full Combo, Three-Star Wonder, </v>
       </c>
       <c r="S9" s="16">
         <v>4</v>
       </c>
-      <c r="T9" s="16"/>
+      <c r="T9" s="16">
+        <v>4</v>
+      </c>
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
       <c r="W9" s="16"/>
@@ -6119,7 +6141,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="13">
         <f t="array" ref="K10">IF(MAX(FREQUENCY(IF(S10:AL10&gt;0,COLUMN(S10:AL10)),IF(S10:AL10&lt;=0,COLUMN(S10:AL10))))&gt;4,1,0)</f>
@@ -6132,16 +6154,18 @@
       <c r="P10" s="14"/>
       <c r="Q10" s="15">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="R10" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="S10" s="16">
         <v>4</v>
       </c>
-      <c r="T10" s="16"/>
+      <c r="T10" s="16">
+        <v>4</v>
+      </c>
       <c r="U10" s="16"/>
       <c r="V10" s="16"/>
       <c r="W10" s="16"/>
@@ -6188,7 +6212,7 @@
       <c r="P11" s="14"/>
       <c r="Q11" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R11" s="15" t="str">
         <f t="shared" si="2"/>
@@ -6197,7 +6221,9 @@
       <c r="S11" s="16">
         <v>3</v>
       </c>
-      <c r="T11" s="16"/>
+      <c r="T11" s="16">
+        <v>1</v>
+      </c>
       <c r="U11" s="16"/>
       <c r="V11" s="16"/>
       <c r="W11" s="16"/>
@@ -6230,10 +6256,12 @@
       <c r="H12" s="13">
         <v>1</v>
       </c>
-      <c r="I12" s="13"/>
+      <c r="I12" s="13">
+        <v>1</v>
+      </c>
       <c r="J12" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="13">
         <f t="array" ref="K12">IF(MAX(FREQUENCY(IF(S12:AL12&gt;0,COLUMN(S12:AL12)),IF(S12:AL12&lt;=0,COLUMN(S12:AL12))))&gt;4,1,0)</f>
@@ -6246,16 +6274,18 @@
       <c r="P12" s="14"/>
       <c r="Q12" s="15">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="R12" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Full Combo, </v>
+        <v xml:space="preserve">-Full Combo, Math Ambassador, Three-Star Wonder, </v>
       </c>
       <c r="S12" s="16">
         <v>4</v>
       </c>
-      <c r="T12" s="16"/>
+      <c r="T12" s="16">
+        <v>4</v>
+      </c>
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
       <c r="W12" s="16"/>
@@ -6333,7 +6363,7 @@
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -6358,7 +6388,7 @@
       <c r="P14" s="14"/>
       <c r="Q14" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R14" s="15" t="str">
         <f t="shared" si="2"/>
@@ -6367,7 +6397,9 @@
       <c r="S14" s="16">
         <v>3</v>
       </c>
-      <c r="T14" s="16"/>
+      <c r="T14" s="16">
+        <v>1</v>
+      </c>
       <c r="U14" s="16"/>
       <c r="V14" s="16"/>
       <c r="W14" s="16"/>
@@ -6389,7 +6421,7 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -6414,7 +6446,7 @@
       <c r="P15" s="14"/>
       <c r="Q15" s="15">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R15" s="15" t="str">
         <f t="shared" si="2"/>
@@ -6423,7 +6455,9 @@
       <c r="S15" s="16">
         <v>2</v>
       </c>
-      <c r="T15" s="16"/>
+      <c r="T15" s="16">
+        <v>1</v>
+      </c>
       <c r="U15" s="16"/>
       <c r="V15" s="16"/>
       <c r="W15" s="16"/>
@@ -6445,7 +6479,7 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -6459,7 +6493,7 @@
       <c r="I16" s="13"/>
       <c r="J16" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="13">
         <f t="array" ref="K16">IF(MAX(FREQUENCY(IF(S16:AL16&gt;0,COLUMN(S16:AL16)),IF(S16:AL16&lt;=0,COLUMN(S16:AL16))))&gt;4,1,0)</f>
@@ -6472,16 +6506,18 @@
       <c r="P16" s="14"/>
       <c r="Q16" s="15">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="R16" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Full Combo, </v>
+        <v xml:space="preserve">-Full Combo, Three-Star Wonder, </v>
       </c>
       <c r="S16" s="16">
         <v>4</v>
       </c>
-      <c r="T16" s="16"/>
+      <c r="T16" s="16">
+        <v>4</v>
+      </c>
       <c r="U16" s="16"/>
       <c r="V16" s="16"/>
       <c r="W16" s="16"/>
@@ -6528,7 +6564,7 @@
       <c r="P17" s="14"/>
       <c r="Q17" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R17" s="15" t="str">
         <f t="shared" si="2"/>
@@ -6537,7 +6573,9 @@
       <c r="S17" s="16">
         <v>3</v>
       </c>
-      <c r="T17" s="16"/>
+      <c r="T17" s="16">
+        <v>1</v>
+      </c>
       <c r="U17" s="16"/>
       <c r="V17" s="16"/>
       <c r="W17" s="16"/>
@@ -6559,7 +6597,7 @@
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -6615,7 +6653,7 @@
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -6671,7 +6709,7 @@
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -6683,7 +6721,7 @@
       <c r="I20" s="13"/>
       <c r="J20" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="13">
         <f t="array" ref="K20">IF(MAX(FREQUENCY(IF(S20:AL20&gt;0,COLUMN(S20:AL20)),IF(S20:AL20&lt;=0,COLUMN(S20:AL20))))&gt;4,1,0)</f>
@@ -6696,16 +6734,18 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R20" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="S20" s="16">
         <v>3</v>
       </c>
-      <c r="T20" s="16"/>
+      <c r="T20" s="16">
+        <v>3</v>
+      </c>
       <c r="U20" s="16"/>
       <c r="V20" s="16"/>
       <c r="W20" s="16"/>
@@ -6727,7 +6767,7 @@
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -6752,7 +6792,7 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R21" s="15" t="str">
         <f t="shared" si="2"/>
@@ -6761,7 +6801,9 @@
       <c r="S21" s="16">
         <v>3</v>
       </c>
-      <c r="T21" s="16"/>
+      <c r="T21" s="16">
+        <v>2</v>
+      </c>
       <c r="U21" s="16"/>
       <c r="V21" s="16"/>
       <c r="W21" s="16"/>
@@ -6783,7 +6825,7 @@
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -6795,7 +6837,7 @@
       <c r="I22" s="13"/>
       <c r="J22" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="13">
         <f t="array" ref="K22">IF(MAX(FREQUENCY(IF(S22:AL22&gt;0,COLUMN(S22:AL22)),IF(S22:AL22&lt;=0,COLUMN(S22:AL22))))&gt;4,1,0)</f>
@@ -6808,16 +6850,18 @@
       <c r="P22" s="14"/>
       <c r="Q22" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R22" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="S22" s="16">
         <v>3</v>
       </c>
-      <c r="T22" s="16"/>
+      <c r="T22" s="16">
+        <v>3</v>
+      </c>
       <c r="U22" s="16"/>
       <c r="V22" s="16"/>
       <c r="W22" s="16"/>
@@ -6839,7 +6883,7 @@
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -6851,7 +6895,7 @@
       <c r="I23" s="13"/>
       <c r="J23" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="13">
         <f t="array" ref="K23">IF(MAX(FREQUENCY(IF(S23:AL23&gt;0,COLUMN(S23:AL23)),IF(S23:AL23&lt;=0,COLUMN(S23:AL23))))&gt;4,1,0)</f>
@@ -6864,16 +6908,18 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="R23" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="S23" s="16">
         <v>3</v>
       </c>
-      <c r="T23" s="16"/>
+      <c r="T23" s="16">
+        <v>4</v>
+      </c>
       <c r="U23" s="16"/>
       <c r="V23" s="16"/>
       <c r="W23" s="16"/>
@@ -6895,7 +6941,7 @@
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -6907,7 +6953,7 @@
       <c r="I24" s="13"/>
       <c r="J24" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="13">
         <f t="array" ref="K24">IF(MAX(FREQUENCY(IF(S24:AL24&gt;0,COLUMN(S24:AL24)),IF(S24:AL24&lt;=0,COLUMN(S24:AL24))))&gt;4,1,0)</f>
@@ -6920,16 +6966,18 @@
       <c r="P24" s="14"/>
       <c r="Q24" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R24" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="S24" s="16">
         <v>3</v>
       </c>
-      <c r="T24" s="16"/>
+      <c r="T24" s="16">
+        <v>3</v>
+      </c>
       <c r="U24" s="16"/>
       <c r="V24" s="16"/>
       <c r="W24" s="16"/>
@@ -6951,7 +6999,7 @@
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -6963,7 +7011,7 @@
       <c r="I25" s="13"/>
       <c r="J25" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="13">
         <f t="array" ref="K25">IF(MAX(FREQUENCY(IF(S25:AL25&gt;0,COLUMN(S25:AL25)),IF(S25:AL25&lt;=0,COLUMN(S25:AL25))))&gt;4,1,0)</f>
@@ -6976,16 +7024,18 @@
       <c r="P25" s="14"/>
       <c r="Q25" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="R25" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="S25" s="16">
         <v>3</v>
       </c>
-      <c r="T25" s="16"/>
+      <c r="T25" s="16">
+        <v>4</v>
+      </c>
       <c r="U25" s="16"/>
       <c r="V25" s="16"/>
       <c r="W25" s="16"/>
@@ -7007,7 +7057,7 @@
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -7019,7 +7069,7 @@
       <c r="I26" s="13"/>
       <c r="J26" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="13">
         <f t="array" ref="K26">IF(MAX(FREQUENCY(IF(S26:AL26&gt;0,COLUMN(S26:AL26)),IF(S26:AL26&lt;=0,COLUMN(S26:AL26))))&gt;4,1,0)</f>
@@ -7032,16 +7082,18 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="15">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="R26" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="S26" s="16">
         <v>4</v>
       </c>
-      <c r="T26" s="16"/>
+      <c r="T26" s="16">
+        <v>4</v>
+      </c>
       <c r="U26" s="16"/>
       <c r="V26" s="16"/>
       <c r="W26" s="16"/>
@@ -7063,7 +7115,7 @@
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -7088,7 +7140,7 @@
       <c r="P27" s="14"/>
       <c r="Q27" s="15">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R27" s="15" t="str">
         <f t="shared" si="2"/>
@@ -7097,7 +7149,9 @@
       <c r="S27" s="16">
         <v>4</v>
       </c>
-      <c r="T27" s="16"/>
+      <c r="T27" s="16">
+        <v>2</v>
+      </c>
       <c r="U27" s="16"/>
       <c r="V27" s="16"/>
       <c r="W27" s="16"/>
@@ -7119,7 +7173,7 @@
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -7131,7 +7185,7 @@
       <c r="I28" s="13"/>
       <c r="J28" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="13">
         <f t="array" ref="K28">IF(MAX(FREQUENCY(IF(S28:AL28&gt;0,COLUMN(S28:AL28)),IF(S28:AL28&lt;=0,COLUMN(S28:AL28))))&gt;4,1,0)</f>
@@ -7144,16 +7198,18 @@
       <c r="P28" s="14"/>
       <c r="Q28" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R28" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="S28" s="16">
         <v>3</v>
       </c>
-      <c r="T28" s="16"/>
+      <c r="T28" s="16">
+        <v>3</v>
+      </c>
       <c r="U28" s="16"/>
       <c r="V28" s="16"/>
       <c r="W28" s="16"/>
@@ -7175,7 +7231,7 @@
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -7187,7 +7243,7 @@
       <c r="I29" s="13"/>
       <c r="J29" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="13">
         <f t="array" ref="K29">IF(MAX(FREQUENCY(IF(S29:AL29&gt;0,COLUMN(S29:AL29)),IF(S29:AL29&lt;=0,COLUMN(S29:AL29))))&gt;4,1,0)</f>
@@ -7200,16 +7256,18 @@
       <c r="P29" s="14"/>
       <c r="Q29" s="15">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="R29" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="S29" s="16">
         <v>4</v>
       </c>
-      <c r="T29" s="16"/>
+      <c r="T29" s="16">
+        <v>3</v>
+      </c>
       <c r="U29" s="16"/>
       <c r="V29" s="16"/>
       <c r="W29" s="16"/>
@@ -7231,7 +7289,7 @@
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -7256,7 +7314,7 @@
       <c r="P30" s="14"/>
       <c r="Q30" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R30" s="15" t="str">
         <f t="shared" si="2"/>
@@ -7265,7 +7323,9 @@
       <c r="S30" s="16">
         <v>3</v>
       </c>
-      <c r="T30" s="16"/>
+      <c r="T30" s="16">
+        <v>2</v>
+      </c>
       <c r="U30" s="16"/>
       <c r="V30" s="16"/>
       <c r="W30" s="16"/>
@@ -7287,7 +7347,7 @@
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -7343,7 +7403,7 @@
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -7399,7 +7459,7 @@
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -7411,7 +7471,7 @@
       <c r="I33" s="13"/>
       <c r="J33" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="13">
         <f t="array" ref="K33">IF(MAX(FREQUENCY(IF(S33:AL33&gt;0,COLUMN(S33:AL33)),IF(S33:AL33&lt;=0,COLUMN(S33:AL33))))&gt;4,1,0)</f>
@@ -7424,16 +7484,18 @@
       <c r="P33" s="14"/>
       <c r="Q33" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R33" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="S33" s="16">
         <v>3</v>
       </c>
-      <c r="T33" s="16"/>
+      <c r="T33" s="16">
+        <v>3</v>
+      </c>
       <c r="U33" s="16"/>
       <c r="V33" s="16"/>
       <c r="W33" s="16"/>
@@ -7454,8 +7516,8 @@
       <c r="AL33" s="16"/>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A34" s="11">
-        <v>31</v>
+      <c r="A34" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -7467,7 +7529,7 @@
       <c r="I34" s="13"/>
       <c r="J34" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="13">
         <f t="array" ref="K34">IF(MAX(FREQUENCY(IF(S34:AL34&gt;0,COLUMN(S34:AL34)),IF(S34:AL34&lt;=0,COLUMN(S34:AL34))))&gt;4,1,0)</f>
@@ -7480,14 +7542,18 @@
       <c r="P34" s="14"/>
       <c r="Q34" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R34" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S34" s="16"/>
-      <c r="T34" s="16"/>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
+      </c>
+      <c r="S34" s="16">
+        <v>3</v>
+      </c>
+      <c r="T34" s="16">
+        <v>4</v>
+      </c>
       <c r="U34" s="16"/>
       <c r="V34" s="16"/>
       <c r="W34" s="16"/>
@@ -7508,8 +7574,8 @@
       <c r="AL34" s="16"/>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A35" s="11">
-        <v>32</v>
+      <c r="A35" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -7534,14 +7600,16 @@
       <c r="P35" s="14"/>
       <c r="Q35" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R35" s="15" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
+      <c r="T35" s="16">
+        <v>3</v>
+      </c>
       <c r="U35" s="16"/>
       <c r="V35" s="16"/>
       <c r="W35" s="16"/>
@@ -7562,8 +7630,8 @@
       <c r="AL35" s="16"/>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A36" s="11">
-        <v>33</v>
+      <c r="A36" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -7588,14 +7656,16 @@
       <c r="P36" s="14"/>
       <c r="Q36" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R36" s="15" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S36" s="16"/>
-      <c r="T36" s="16"/>
+      <c r="T36" s="16">
+        <v>2</v>
+      </c>
       <c r="U36" s="16"/>
       <c r="V36" s="16"/>
       <c r="W36" s="16"/>
@@ -8047,11 +8117,11 @@
       </c>
       <c r="B3" t="str">
         <f>'2Res Data'!R5</f>
-        <v xml:space="preserve">-Gaming is life, Extra Credit, </v>
+        <v xml:space="preserve">-Gaming is life, Three-Star Wonder, Extra Credit, </v>
       </c>
       <c r="C3">
         <f>'2Res Data'!Q5</f>
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -8061,11 +8131,11 @@
       </c>
       <c r="B4" t="str">
         <f>'2Res Data'!R6</f>
-        <v xml:space="preserve">-Gaming is life, Extra Credit, </v>
+        <v xml:space="preserve">-Gaming is life, Three-Star Wonder, Extra Credit, </v>
       </c>
       <c r="C4">
         <f>'2Res Data'!Q6</f>
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -8075,11 +8145,11 @@
       </c>
       <c r="B5" t="str">
         <f>'2Res Data'!R7</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C5">
         <f>'2Res Data'!Q7</f>
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -8093,7 +8163,7 @@
       </c>
       <c r="C6">
         <f>'2Res Data'!Q8</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -8103,11 +8173,11 @@
       </c>
       <c r="B7" t="str">
         <f>'2Res Data'!R9</f>
-        <v xml:space="preserve">-Full Combo, </v>
+        <v xml:space="preserve">-Full Combo, Three-Star Wonder, </v>
       </c>
       <c r="C7">
         <f>'2Res Data'!Q9</f>
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -8117,11 +8187,11 @@
       </c>
       <c r="B8" t="str">
         <f>'2Res Data'!R10</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C8">
         <f>'2Res Data'!Q10</f>
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -8135,7 +8205,7 @@
       </c>
       <c r="C9">
         <f>'2Res Data'!Q11</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -8145,11 +8215,11 @@
       </c>
       <c r="B10" t="str">
         <f>'2Res Data'!R12</f>
-        <v xml:space="preserve">-Full Combo, </v>
+        <v xml:space="preserve">-Full Combo, Math Ambassador, Three-Star Wonder, </v>
       </c>
       <c r="C10">
         <f>'2Res Data'!Q12</f>
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -8169,7 +8239,7 @@
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>'2Res Data'!A14</f>
-        <v>ya</v>
+        <v>Yanwu</v>
       </c>
       <c r="B12" t="str">
         <f>'2Res Data'!R14</f>
@@ -8177,7 +8247,7 @@
       </c>
       <c r="C12">
         <f>'2Res Data'!Q14</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -8191,7 +8261,7 @@
       </c>
       <c r="C13">
         <f>'2Res Data'!Q15</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -8201,11 +8271,11 @@
       </c>
       <c r="B14" t="str">
         <f>'2Res Data'!R16</f>
-        <v xml:space="preserve">-Full Combo, </v>
+        <v xml:space="preserve">-Full Combo, Three-Star Wonder, </v>
       </c>
       <c r="C14">
         <f>'2Res Data'!Q16</f>
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -8219,7 +8289,7 @@
       </c>
       <c r="C15">
         <f>'2Res Data'!Q17</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -8257,11 +8327,11 @@
       </c>
       <c r="B18" t="str">
         <f>'2Res Data'!R20</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C18">
         <f>'2Res Data'!Q20</f>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -8275,7 +8345,7 @@
       </c>
       <c r="C19">
         <f>'2Res Data'!Q21</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -8285,11 +8355,11 @@
       </c>
       <c r="B20" t="str">
         <f>'2Res Data'!R22</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C20">
         <f>'2Res Data'!Q22</f>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -8299,11 +8369,11 @@
       </c>
       <c r="B21" t="str">
         <f>'2Res Data'!R23</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C21">
         <f>'2Res Data'!Q23</f>
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -8313,11 +8383,11 @@
       </c>
       <c r="B22" t="str">
         <f>'2Res Data'!R24</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C22">
         <f>'2Res Data'!Q24</f>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -8327,11 +8397,11 @@
       </c>
       <c r="B23" t="str">
         <f>'2Res Data'!R25</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C23">
         <f>'2Res Data'!Q25</f>
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -8341,11 +8411,11 @@
       </c>
       <c r="B24" t="str">
         <f>'2Res Data'!R26</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C24">
         <f>'2Res Data'!Q26</f>
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -8359,7 +8429,7 @@
       </c>
       <c r="C25">
         <f>'2Res Data'!Q27</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -8369,11 +8439,11 @@
       </c>
       <c r="B26" t="str">
         <f>'2Res Data'!R28</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C26">
         <f>'2Res Data'!Q28</f>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -8383,11 +8453,11 @@
       </c>
       <c r="B27" t="str">
         <f>'2Res Data'!R29</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C27">
         <f>'2Res Data'!Q29</f>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -8401,7 +8471,7 @@
       </c>
       <c r="C28">
         <f>'2Res Data'!Q30</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -8439,31 +8509,31 @@
       </c>
       <c r="B31" t="str">
         <f>'2Res Data'!R33</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C31">
         <f>'2Res Data'!Q33</f>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="A32" t="str">
         <f>'2Res Data'!A34</f>
-        <v>31</v>
+        <v>Miley</v>
       </c>
       <c r="B32" t="str">
         <f>'2Res Data'!R34</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C32">
         <f>'2Res Data'!Q34</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="A33" t="str">
         <f>'2Res Data'!A35</f>
-        <v>32</v>
+        <v>Lucius</v>
       </c>
       <c r="B33" t="str">
         <f>'2Res Data'!R35</f>
@@ -8471,13 +8541,13 @@
       </c>
       <c r="C33">
         <f>'2Res Data'!Q35</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="A34" t="str">
         <f>'2Res Data'!A36</f>
-        <v>33</v>
+        <v>Vera</v>
       </c>
       <c r="B34" t="str">
         <f>'2Res Data'!R36</f>
@@ -8485,7 +8555,7 @@
       </c>
       <c r="C34">
         <f>'2Res Data'!Q36</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\65929\Desktop\website\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE0BFF0-4247-428F-B8AF-F5BCF095249E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDEB844-BF12-4F35-A9C0-83910EB702DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2Cou Data" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="116">
   <si>
     <t>Achievements</t>
   </si>
@@ -110,18 +110,12 @@
     <t>Xiang Rong</t>
   </si>
   <si>
-    <t>Zarele</t>
-  </si>
-  <si>
     <t>Jaidern</t>
   </si>
   <si>
     <t>Mabel</t>
   </si>
   <si>
-    <t>Valencia</t>
-  </si>
-  <si>
     <t>Jylan</t>
   </si>
   <si>
@@ -372,6 +366,18 @@
   </si>
   <si>
     <t>Yanwu</t>
+  </si>
+  <si>
+    <t>Class Test</t>
+  </si>
+  <si>
+    <t>Hayden</t>
+  </si>
+  <si>
+    <t>Zarek</t>
+  </si>
+  <si>
+    <t>Beckham</t>
   </si>
 </sst>
 </file>
@@ -920,9 +926,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W28" sqref="W28"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1065,16 +1071,16 @@
         <v>0</v>
       </c>
       <c r="S3" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="T3" s="22" t="s">
         <v>24</v>
       </c>
       <c r="U3" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="V3" s="22">
-        <v>4</v>
+        <v>103</v>
+      </c>
+      <c r="V3" s="22" t="s">
+        <v>112</v>
       </c>
       <c r="W3" s="22">
         <v>5</v>
@@ -1127,7 +1133,7 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B4" s="12">
         <v>1</v>
@@ -1158,7 +1164,7 @@
       <c r="P4" s="14"/>
       <c r="Q4" s="15">
         <f>SUM(B4:G4)+3*SUM(H4:M4)+5*SUM(N4:P4)+SUM(S4:AL4)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R4" s="15" t="str">
         <f>CONCATENATE("-",IF(B4=1,$B$3&amp;", ",""),IF(C4=1,$C$3&amp;", ",""),IF(D4=1,$D$3&amp;", ",""),IF(E4=1,$E$3&amp;", ",""),IF(F4=1,$F$3&amp;", ",""),IF(G4=1,$G$3&amp;", ",""),IF(H4=1,$H$3&amp;", ",""),IF(I4=1,$I$3&amp;", ",""),IF(J4=1,$J$3&amp;", ",""),IF(K4=1,$K$3&amp;", ",""),IF(L4=1,$L$3&amp;", ",""),IF(M4=1,$M$3&amp;", ",""),IF(N4=1,$N$3&amp;", ",""),IF(O4=1,$O$3&amp;", ",""),IF(P4=1,$P$3&amp;", ",""))</f>
@@ -1170,8 +1176,12 @@
       <c r="T4" s="16">
         <v>2</v>
       </c>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
+      <c r="U4" s="16">
+        <v>0</v>
+      </c>
+      <c r="V4" s="16">
+        <v>1</v>
+      </c>
       <c r="W4" s="16"/>
       <c r="X4" s="16"/>
       <c r="Y4" s="16"/>
@@ -1191,7 +1201,7 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -1218,7 +1228,7 @@
       <c r="P5" s="14"/>
       <c r="Q5" s="15">
         <f t="shared" ref="Q5:Q43" si="1">SUM(B5:G5)+3*SUM(H5:L5)+5*SUM(M5:P5)+SUM(S5:AL5)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R5" s="15" t="str">
         <f t="shared" ref="R5:R43" si="2">CONCATENATE("-",IF(B5=1,$B$3&amp;", ",""),IF(C5=1,$C$3&amp;", ",""),IF(D5=1,$D$3&amp;", ",""),IF(E5=1,$E$3&amp;", ",""),IF(F5=1,$F$3&amp;", ",""),IF(G5=1,$G$3&amp;", ",""),IF(H5=1,$H$3&amp;", ",""),IF(I5=1,$I$3&amp;", ",""),IF(J5=1,$J$3&amp;", ",""),IF(K5=1,$K$3&amp;", ",""),IF(L5=1,$L$3&amp;", ",""),IF(M5=1,$M$3&amp;", ",""),IF(N5=1,$N$3&amp;", ",""),IF(O5=1,$O$3&amp;", ",""),IF(P5=1,$P$3&amp;", ",""))</f>
@@ -1227,11 +1237,15 @@
       <c r="S5" s="16">
         <v>0</v>
       </c>
-      <c r="T5" s="16"/>
+      <c r="T5" s="16">
+        <v>0</v>
+      </c>
       <c r="U5" s="16">
         <v>3</v>
       </c>
-      <c r="V5" s="16"/>
+      <c r="V5" s="16">
+        <v>2</v>
+      </c>
       <c r="W5" s="16"/>
       <c r="X5" s="16"/>
       <c r="Y5" s="16"/>
@@ -1251,7 +1265,7 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -1276,7 +1290,7 @@
       <c r="P6" s="14"/>
       <c r="Q6" s="15">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="R6" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1291,7 +1305,9 @@
       <c r="U6" s="16">
         <v>3</v>
       </c>
-      <c r="V6" s="16"/>
+      <c r="V6" s="16">
+        <v>3</v>
+      </c>
       <c r="W6" s="16"/>
       <c r="X6" s="16"/>
       <c r="Y6" s="16"/>
@@ -1311,7 +1327,7 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -1336,7 +1352,7 @@
       <c r="P7" s="14"/>
       <c r="Q7" s="15">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R7" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1351,7 +1367,9 @@
       <c r="U7" s="16">
         <v>2</v>
       </c>
-      <c r="V7" s="16"/>
+      <c r="V7" s="16">
+        <v>3</v>
+      </c>
       <c r="W7" s="16"/>
       <c r="X7" s="16"/>
       <c r="Y7" s="16"/>
@@ -1396,7 +1414,7 @@
       <c r="P8" s="14"/>
       <c r="Q8" s="15">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R8" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1408,8 +1426,12 @@
       <c r="T8" s="16">
         <v>4</v>
       </c>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
+      <c r="U8" s="16">
+        <v>0</v>
+      </c>
+      <c r="V8" s="16">
+        <v>2</v>
+      </c>
       <c r="W8" s="16"/>
       <c r="X8" s="16"/>
       <c r="Y8" s="16"/>
@@ -1429,7 +1451,7 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -1454,7 +1476,7 @@
       <c r="P9" s="14"/>
       <c r="Q9" s="15">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R9" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1469,7 +1491,9 @@
       <c r="U9" s="16">
         <v>3</v>
       </c>
-      <c r="V9" s="16"/>
+      <c r="V9" s="16">
+        <v>3</v>
+      </c>
       <c r="W9" s="16"/>
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
@@ -1489,7 +1513,7 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -1518,7 +1542,7 @@
       <c r="P10" s="14"/>
       <c r="Q10" s="15">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="R10" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1533,7 +1557,9 @@
       <c r="U10" s="16">
         <v>2</v>
       </c>
-      <c r="V10" s="16"/>
+      <c r="V10" s="16">
+        <v>2</v>
+      </c>
       <c r="W10" s="16"/>
       <c r="X10" s="16"/>
       <c r="Y10" s="16"/>
@@ -1553,7 +1579,7 @@
     </row>
     <row r="11" spans="1:38" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1567,7 +1593,7 @@
       <c r="I11" s="13"/>
       <c r="J11" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="13">
         <f t="array" ref="K11">IF(MAX(FREQUENCY(IF(S11:AL11&gt;0,COLUMN(S11:AL11)),IF(S11:AL11&lt;=0,COLUMN(S11:AL11))))&gt;4,1,0)</f>
@@ -1582,11 +1608,11 @@
       <c r="P11" s="14"/>
       <c r="Q11" s="15">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="R11" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Blast to the Past, Extra Credit, </v>
+        <v xml:space="preserve">-Blast to the Past, Three-Star Wonder, Extra Credit, </v>
       </c>
       <c r="S11" s="16">
         <v>2</v>
@@ -1597,7 +1623,9 @@
       <c r="U11" s="16">
         <v>2</v>
       </c>
-      <c r="V11" s="16"/>
+      <c r="V11" s="16">
+        <v>3</v>
+      </c>
       <c r="W11" s="16"/>
       <c r="X11" s="16"/>
       <c r="Y11" s="16"/>
@@ -1617,7 +1645,7 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -1642,7 +1670,7 @@
       <c r="P12" s="14"/>
       <c r="Q12" s="15">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R12" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1657,7 +1685,9 @@
       <c r="U12" s="16">
         <v>2</v>
       </c>
-      <c r="V12" s="16"/>
+      <c r="V12" s="16">
+        <v>1</v>
+      </c>
       <c r="W12" s="16"/>
       <c r="X12" s="16"/>
       <c r="Y12" s="16"/>
@@ -1677,7 +1707,7 @@
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="12">
         <v>1</v>
@@ -1686,7 +1716,9 @@
         <v>1</v>
       </c>
       <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+      <c r="E13" s="12">
+        <v>1</v>
+      </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="13"/>
@@ -1706,11 +1738,11 @@
       <c r="P13" s="14"/>
       <c r="Q13" s="15">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="R13" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-I Love Math, I Say Hi, </v>
+        <v xml:space="preserve">-I Love Math, I Say Hi, Gaming is life, </v>
       </c>
       <c r="S13" s="16">
         <v>2</v>
@@ -1721,7 +1753,9 @@
       <c r="U13" s="16">
         <v>2</v>
       </c>
-      <c r="V13" s="16"/>
+      <c r="V13" s="16">
+        <v>2</v>
+      </c>
       <c r="W13" s="16"/>
       <c r="X13" s="16"/>
       <c r="Y13" s="16"/>
@@ -1741,7 +1775,7 @@
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -1766,7 +1800,7 @@
       <c r="P14" s="14"/>
       <c r="Q14" s="15">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R14" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1775,11 +1809,15 @@
       <c r="S14" s="16">
         <v>2</v>
       </c>
-      <c r="T14" s="16"/>
+      <c r="T14" s="16">
+        <v>0</v>
+      </c>
       <c r="U14" s="16">
         <v>2</v>
       </c>
-      <c r="V14" s="16"/>
+      <c r="V14" s="16">
+        <v>3</v>
+      </c>
       <c r="W14" s="16"/>
       <c r="X14" s="16"/>
       <c r="Y14" s="16"/>
@@ -1799,7 +1837,7 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -1824,7 +1862,7 @@
       <c r="P15" s="14"/>
       <c r="Q15" s="15">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="R15" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1839,7 +1877,9 @@
       <c r="U15" s="16">
         <v>4</v>
       </c>
-      <c r="V15" s="16"/>
+      <c r="V15" s="16">
+        <v>3</v>
+      </c>
       <c r="W15" s="16"/>
       <c r="X15" s="16"/>
       <c r="Y15" s="16"/>
@@ -1859,7 +1899,7 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -1884,7 +1924,7 @@
       <c r="P16" s="14"/>
       <c r="Q16" s="15">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="R16" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1899,7 +1939,9 @@
       <c r="U16" s="16">
         <v>2</v>
       </c>
-      <c r="V16" s="16"/>
+      <c r="V16" s="16">
+        <v>2</v>
+      </c>
       <c r="W16" s="16"/>
       <c r="X16" s="16"/>
       <c r="Y16" s="16"/>
@@ -1919,7 +1961,7 @@
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -1944,7 +1986,7 @@
       <c r="P17" s="14"/>
       <c r="Q17" s="15">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R17" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1959,7 +2001,9 @@
       <c r="U17" s="16">
         <v>3</v>
       </c>
-      <c r="V17" s="16"/>
+      <c r="V17" s="16">
+        <v>3</v>
+      </c>
       <c r="W17" s="16"/>
       <c r="X17" s="16"/>
       <c r="Y17" s="16"/>
@@ -1979,7 +2023,7 @@
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -2004,7 +2048,7 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="15">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R18" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2013,11 +2057,15 @@
       <c r="S18" s="16">
         <v>2</v>
       </c>
-      <c r="T18" s="16"/>
+      <c r="T18" s="16">
+        <v>0</v>
+      </c>
       <c r="U18" s="16">
         <v>2</v>
       </c>
-      <c r="V18" s="16"/>
+      <c r="V18" s="16">
+        <v>2</v>
+      </c>
       <c r="W18" s="16"/>
       <c r="X18" s="16"/>
       <c r="Y18" s="16"/>
@@ -2037,7 +2085,7 @@
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -2062,7 +2110,7 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="15">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R19" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2071,11 +2119,15 @@
       <c r="S19" s="16">
         <v>3</v>
       </c>
-      <c r="T19" s="16"/>
+      <c r="T19" s="16">
+        <v>0</v>
+      </c>
       <c r="U19" s="16">
         <v>3</v>
       </c>
-      <c r="V19" s="16"/>
+      <c r="V19" s="16">
+        <v>2</v>
+      </c>
       <c r="W19" s="16"/>
       <c r="X19" s="16"/>
       <c r="Y19" s="16"/>
@@ -2095,7 +2147,7 @@
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -2120,7 +2172,7 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="15">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="R20" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2135,7 +2187,9 @@
       <c r="U20" s="16">
         <v>3</v>
       </c>
-      <c r="V20" s="16"/>
+      <c r="V20" s="16">
+        <v>2</v>
+      </c>
       <c r="W20" s="16"/>
       <c r="X20" s="16"/>
       <c r="Y20" s="16"/>
@@ -2155,7 +2209,7 @@
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -2180,7 +2234,7 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="15">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R21" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2195,7 +2249,9 @@
       <c r="U21" s="16">
         <v>2</v>
       </c>
-      <c r="V21" s="16"/>
+      <c r="V21" s="16">
+        <v>1</v>
+      </c>
       <c r="W21" s="16"/>
       <c r="X21" s="16"/>
       <c r="Y21" s="16"/>
@@ -2215,7 +2271,7 @@
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -2240,7 +2296,7 @@
       <c r="P22" s="14"/>
       <c r="Q22" s="15">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R22" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2252,8 +2308,12 @@
       <c r="T22" s="16">
         <v>2</v>
       </c>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
+      <c r="U22" s="16">
+        <v>0</v>
+      </c>
+      <c r="V22" s="16">
+        <v>2</v>
+      </c>
       <c r="W22" s="16"/>
       <c r="X22" s="16"/>
       <c r="Y22" s="16"/>
@@ -2273,7 +2333,7 @@
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -2298,7 +2358,7 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="15">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R23" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2313,7 +2373,9 @@
       <c r="U23" s="16">
         <v>2</v>
       </c>
-      <c r="V23" s="16"/>
+      <c r="V23" s="16">
+        <v>2</v>
+      </c>
       <c r="W23" s="16"/>
       <c r="X23" s="16"/>
       <c r="Y23" s="16"/>
@@ -2333,7 +2395,7 @@
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -2360,7 +2422,7 @@
       <c r="P24" s="14"/>
       <c r="Q24" s="15">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R24" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2375,7 +2437,9 @@
       <c r="U24" s="16">
         <v>2</v>
       </c>
-      <c r="V24" s="16"/>
+      <c r="V24" s="16">
+        <v>2</v>
+      </c>
       <c r="W24" s="16"/>
       <c r="X24" s="16"/>
       <c r="Y24" s="16"/>
@@ -2395,7 +2459,7 @@
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12">
@@ -2426,7 +2490,7 @@
       <c r="P25" s="14"/>
       <c r="Q25" s="15">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="R25" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2441,7 +2505,9 @@
       <c r="U25" s="16">
         <v>2</v>
       </c>
-      <c r="V25" s="16"/>
+      <c r="V25" s="16">
+        <v>2</v>
+      </c>
       <c r="W25" s="16"/>
       <c r="X25" s="16"/>
       <c r="Y25" s="16"/>
@@ -2461,7 +2527,7 @@
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -2486,7 +2552,7 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="15">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R26" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2498,8 +2564,12 @@
       <c r="T26" s="16">
         <v>2</v>
       </c>
-      <c r="U26" s="16"/>
-      <c r="V26" s="16"/>
+      <c r="U26" s="16">
+        <v>0</v>
+      </c>
+      <c r="V26" s="16">
+        <v>1</v>
+      </c>
       <c r="W26" s="16"/>
       <c r="X26" s="16"/>
       <c r="Y26" s="16"/>
@@ -2519,7 +2589,7 @@
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -2544,7 +2614,7 @@
       <c r="P27" s="14"/>
       <c r="Q27" s="15">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R27" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2559,7 +2629,9 @@
       <c r="U27" s="16">
         <v>3</v>
       </c>
-      <c r="V27" s="16"/>
+      <c r="V27" s="16">
+        <v>2</v>
+      </c>
       <c r="W27" s="16"/>
       <c r="X27" s="16"/>
       <c r="Y27" s="16"/>
@@ -2579,7 +2651,7 @@
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -2604,7 +2676,7 @@
       <c r="P28" s="14"/>
       <c r="Q28" s="15">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R28" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2619,7 +2691,9 @@
       <c r="U28" s="16">
         <v>3</v>
       </c>
-      <c r="V28" s="16"/>
+      <c r="V28" s="16">
+        <v>1</v>
+      </c>
       <c r="W28" s="16"/>
       <c r="X28" s="16"/>
       <c r="Y28" s="16"/>
@@ -2639,7 +2713,7 @@
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -2666,7 +2740,7 @@
       <c r="P29" s="14"/>
       <c r="Q29" s="15">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="R29" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2681,7 +2755,9 @@
       <c r="U29" s="16">
         <v>4</v>
       </c>
-      <c r="V29" s="16"/>
+      <c r="V29" s="16">
+        <v>3</v>
+      </c>
       <c r="W29" s="16"/>
       <c r="X29" s="16"/>
       <c r="Y29" s="16"/>
@@ -2701,7 +2777,7 @@
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -2726,7 +2802,7 @@
       <c r="P30" s="14"/>
       <c r="Q30" s="15">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R30" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2741,7 +2817,9 @@
       <c r="U30" s="16">
         <v>3</v>
       </c>
-      <c r="V30" s="16"/>
+      <c r="V30" s="16">
+        <v>2</v>
+      </c>
       <c r="W30" s="16"/>
       <c r="X30" s="16"/>
       <c r="Y30" s="16"/>
@@ -2761,7 +2839,7 @@
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -2786,7 +2864,7 @@
       <c r="P31" s="14"/>
       <c r="Q31" s="15">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R31" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2801,7 +2879,9 @@
       <c r="U31" s="16">
         <v>3</v>
       </c>
-      <c r="V31" s="16"/>
+      <c r="V31" s="16">
+        <v>2</v>
+      </c>
       <c r="W31" s="16"/>
       <c r="X31" s="16"/>
       <c r="Y31" s="16"/>
@@ -2821,7 +2901,7 @@
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B32" s="12">
         <v>1</v>
@@ -2848,7 +2928,7 @@
       <c r="P32" s="14"/>
       <c r="Q32" s="15">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R32" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2863,7 +2943,9 @@
       <c r="U32" s="16">
         <v>2</v>
       </c>
-      <c r="V32" s="16"/>
+      <c r="V32" s="16">
+        <v>2</v>
+      </c>
       <c r="W32" s="16"/>
       <c r="X32" s="16"/>
       <c r="Y32" s="16"/>
@@ -2883,12 +2965,14 @@
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
+      <c r="E33" s="12">
+        <v>1</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="13"/>
@@ -2908,11 +2992,11 @@
       <c r="P33" s="14"/>
       <c r="Q33" s="15">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R33" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Gaming is life, </v>
       </c>
       <c r="S33" s="16">
         <v>0</v>
@@ -2923,7 +3007,9 @@
       <c r="U33" s="16">
         <v>2</v>
       </c>
-      <c r="V33" s="16"/>
+      <c r="V33" s="16">
+        <v>2</v>
+      </c>
       <c r="W33" s="16"/>
       <c r="X33" s="16"/>
       <c r="Y33" s="16"/>
@@ -2943,7 +3029,7 @@
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -2968,7 +3054,7 @@
       <c r="P34" s="14"/>
       <c r="Q34" s="15">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R34" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2983,7 +3069,9 @@
       <c r="U34" s="16">
         <v>4</v>
       </c>
-      <c r="V34" s="16"/>
+      <c r="V34" s="16">
+        <v>2</v>
+      </c>
       <c r="W34" s="16"/>
       <c r="X34" s="16"/>
       <c r="Y34" s="16"/>
@@ -3003,7 +3091,7 @@
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -3043,7 +3131,9 @@
       <c r="U35" s="16">
         <v>3</v>
       </c>
-      <c r="V35" s="16"/>
+      <c r="V35" s="16">
+        <v>0</v>
+      </c>
       <c r="W35" s="16"/>
       <c r="X35" s="16"/>
       <c r="Y35" s="16"/>
@@ -3063,7 +3153,7 @@
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -3088,7 +3178,7 @@
       <c r="P36" s="14"/>
       <c r="Q36" s="15">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R36" s="15" t="str">
         <f t="shared" si="2"/>
@@ -3103,7 +3193,9 @@
       <c r="U36" s="16">
         <v>2</v>
       </c>
-      <c r="V36" s="16"/>
+      <c r="V36" s="16">
+        <v>1</v>
+      </c>
       <c r="W36" s="16"/>
       <c r="X36" s="16"/>
       <c r="Y36" s="16"/>
@@ -3123,7 +3215,7 @@
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -3148,7 +3240,7 @@
       <c r="P37" s="14"/>
       <c r="Q37" s="15">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R37" s="15" t="str">
         <f t="shared" si="2"/>
@@ -3163,7 +3255,9 @@
       <c r="U37" s="16">
         <v>2</v>
       </c>
-      <c r="V37" s="16"/>
+      <c r="V37" s="16">
+        <v>2</v>
+      </c>
       <c r="W37" s="16"/>
       <c r="X37" s="16"/>
       <c r="Y37" s="16"/>
@@ -3183,7 +3277,7 @@
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -3208,7 +3302,7 @@
       <c r="P38" s="14"/>
       <c r="Q38" s="15">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R38" s="15" t="str">
         <f t="shared" si="2"/>
@@ -3223,7 +3317,9 @@
       <c r="U38" s="16">
         <v>2</v>
       </c>
-      <c r="V38" s="16"/>
+      <c r="V38" s="16">
+        <v>2</v>
+      </c>
       <c r="W38" s="16"/>
       <c r="X38" s="16"/>
       <c r="Y38" s="16"/>
@@ -3243,7 +3339,7 @@
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -3268,7 +3364,7 @@
       <c r="P39" s="14"/>
       <c r="Q39" s="15">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R39" s="15" t="str">
         <f t="shared" si="2"/>
@@ -3283,7 +3379,9 @@
       <c r="U39" s="16">
         <v>2</v>
       </c>
-      <c r="V39" s="16"/>
+      <c r="V39" s="16">
+        <v>2</v>
+      </c>
       <c r="W39" s="16"/>
       <c r="X39" s="16"/>
       <c r="Y39" s="16"/>
@@ -3303,7 +3401,7 @@
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -3328,7 +3426,7 @@
       <c r="P40" s="14"/>
       <c r="Q40" s="15">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R40" s="15" t="str">
         <f t="shared" si="2"/>
@@ -3343,7 +3441,9 @@
       <c r="U40" s="16">
         <v>2</v>
       </c>
-      <c r="V40" s="16"/>
+      <c r="V40" s="16">
+        <v>1</v>
+      </c>
       <c r="W40" s="16"/>
       <c r="X40" s="16"/>
       <c r="Y40" s="16"/>
@@ -3363,7 +3463,7 @@
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -3388,7 +3488,7 @@
       <c r="P41" s="14"/>
       <c r="Q41" s="15">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R41" s="15" t="str">
         <f t="shared" si="2"/>
@@ -3403,7 +3503,9 @@
       <c r="U41" s="16">
         <v>2</v>
       </c>
-      <c r="V41" s="16"/>
+      <c r="V41" s="16">
+        <v>3</v>
+      </c>
       <c r="W41" s="16"/>
       <c r="X41" s="16"/>
       <c r="Y41" s="16"/>
@@ -3423,7 +3525,7 @@
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -3435,7 +3537,7 @@
       <c r="I42" s="13"/>
       <c r="J42" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="13">
         <f t="array" ref="K42">IF(MAX(FREQUENCY(IF(S42:AL42&gt;0,COLUMN(S42:AL42)),IF(S42:AL42&lt;=0,COLUMN(S42:AL42))))&gt;4,1,0)</f>
@@ -3448,11 +3550,11 @@
       <c r="P42" s="14"/>
       <c r="Q42" s="15">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="R42" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="S42" s="16">
         <v>0</v>
@@ -3463,7 +3565,9 @@
       <c r="U42" s="16">
         <v>2</v>
       </c>
-      <c r="V42" s="16"/>
+      <c r="V42" s="16">
+        <v>3</v>
+      </c>
       <c r="W42" s="16"/>
       <c r="X42" s="16"/>
       <c r="Y42" s="16"/>
@@ -3483,7 +3587,7 @@
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -3508,7 +3612,7 @@
       <c r="P43" s="14"/>
       <c r="Q43" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R43" s="15" t="str">
         <f t="shared" si="2"/>
@@ -3520,8 +3624,12 @@
       <c r="T43" s="16">
         <v>3</v>
       </c>
-      <c r="U43" s="16"/>
-      <c r="V43" s="16"/>
+      <c r="U43" s="16">
+        <v>0</v>
+      </c>
+      <c r="V43" s="16">
+        <v>2</v>
+      </c>
       <c r="W43" s="16"/>
       <c r="X43" s="16"/>
       <c r="Y43" s="16"/>
@@ -3565,7 +3673,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3585,7 +3693,7 @@
       </c>
       <c r="C2">
         <f>'2Cou Data'!Q4</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3599,7 +3707,7 @@
       </c>
       <c r="C3">
         <f>'2Cou Data'!Q5</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3613,7 +3721,7 @@
       </c>
       <c r="C4">
         <f>'2Cou Data'!Q6</f>
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3627,7 +3735,7 @@
       </c>
       <c r="C5">
         <f>'2Cou Data'!Q7</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3641,13 +3749,13 @@
       </c>
       <c r="C6">
         <f>'2Cou Data'!Q8</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>'2Cou Data'!A9</f>
-        <v>Zarele</v>
+        <v>Zarek</v>
       </c>
       <c r="B7" t="str">
         <f>'2Cou Data'!R9</f>
@@ -3655,7 +3763,7 @@
       </c>
       <c r="C7">
         <f>'2Cou Data'!Q9</f>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3669,7 +3777,7 @@
       </c>
       <c r="C8">
         <f>'2Cou Data'!Q10</f>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -3679,11 +3787,11 @@
       </c>
       <c r="B9" t="str">
         <f>'2Cou Data'!R11</f>
-        <v xml:space="preserve">-Blast to the Past, Extra Credit, </v>
+        <v xml:space="preserve">-Blast to the Past, Three-Star Wonder, Extra Credit, </v>
       </c>
       <c r="C9">
         <f>'2Cou Data'!Q11</f>
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -3697,7 +3805,7 @@
       </c>
       <c r="C10">
         <f>'2Cou Data'!Q12</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -3707,11 +3815,11 @@
       </c>
       <c r="B11" t="str">
         <f>'2Cou Data'!R13</f>
-        <v xml:space="preserve">-I Love Math, I Say Hi, </v>
+        <v xml:space="preserve">-I Love Math, I Say Hi, Gaming is life, </v>
       </c>
       <c r="C11">
         <f>'2Cou Data'!Q13</f>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -3725,7 +3833,7 @@
       </c>
       <c r="C12">
         <f>'2Cou Data'!Q14</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -3739,7 +3847,7 @@
       </c>
       <c r="C13">
         <f>'2Cou Data'!Q15</f>
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -3753,7 +3861,7 @@
       </c>
       <c r="C14">
         <f>'2Cou Data'!Q16</f>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -3767,7 +3875,7 @@
       </c>
       <c r="C15">
         <f>'2Cou Data'!Q17</f>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -3781,13 +3889,13 @@
       </c>
       <c r="C16">
         <f>'2Cou Data'!Q18</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f>'2Cou Data'!A19</f>
-        <v>Valencia</v>
+        <v>Hayden</v>
       </c>
       <c r="B17" t="str">
         <f>'2Cou Data'!R19</f>
@@ -3795,7 +3903,7 @@
       </c>
       <c r="C17">
         <f>'2Cou Data'!Q19</f>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -3809,7 +3917,7 @@
       </c>
       <c r="C18">
         <f>'2Cou Data'!Q20</f>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -3823,7 +3931,7 @@
       </c>
       <c r="C19">
         <f>'2Cou Data'!Q21</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -3837,7 +3945,7 @@
       </c>
       <c r="C20">
         <f>'2Cou Data'!Q22</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -3851,7 +3959,7 @@
       </c>
       <c r="C21">
         <f>'2Cou Data'!Q23</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -3865,7 +3973,7 @@
       </c>
       <c r="C22">
         <f>'2Cou Data'!Q24</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -3879,7 +3987,7 @@
       </c>
       <c r="C23">
         <f>'2Cou Data'!Q25</f>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -3893,7 +4001,7 @@
       </c>
       <c r="C24">
         <f>'2Cou Data'!Q26</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -3907,7 +4015,7 @@
       </c>
       <c r="C25">
         <f>'2Cou Data'!Q27</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -3921,7 +4029,7 @@
       </c>
       <c r="C26">
         <f>'2Cou Data'!Q28</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -3935,7 +4043,7 @@
       </c>
       <c r="C27">
         <f>'2Cou Data'!Q29</f>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -3949,7 +4057,7 @@
       </c>
       <c r="C28">
         <f>'2Cou Data'!Q30</f>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -3963,7 +4071,7 @@
       </c>
       <c r="C29">
         <f>'2Cou Data'!Q31</f>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -3977,7 +4085,7 @@
       </c>
       <c r="C30">
         <f>'2Cou Data'!Q32</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -3987,11 +4095,11 @@
       </c>
       <c r="B31" t="str">
         <f>'2Cou Data'!R33</f>
-        <v>-</v>
+        <v xml:space="preserve">-Gaming is life, </v>
       </c>
       <c r="C31">
         <f>'2Cou Data'!Q33</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -4005,7 +4113,7 @@
       </c>
       <c r="C32">
         <f>'2Cou Data'!Q34</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -4033,7 +4141,7 @@
       </c>
       <c r="C34">
         <f>'2Cou Data'!Q36</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -4047,7 +4155,7 @@
       </c>
       <c r="C35">
         <f>'2Cou Data'!Q37</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -4061,7 +4169,7 @@
       </c>
       <c r="C36">
         <f>'2Cou Data'!Q38</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -4075,7 +4183,7 @@
       </c>
       <c r="C37">
         <f>'2Cou Data'!Q39</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -4089,7 +4197,7 @@
       </c>
       <c r="C38">
         <f>'2Cou Data'!Q40</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -4103,7 +4211,7 @@
       </c>
       <c r="C39">
         <f>'2Cou Data'!Q41</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -4113,11 +4221,11 @@
       </c>
       <c r="B40" t="str">
         <f>'2Cou Data'!R42</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C40">
         <f>'2Cou Data'!Q42</f>
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -4131,7 +4239,7 @@
       </c>
       <c r="C41">
         <f>'2Cou Data'!Q43</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -4342,7 +4450,7 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -4398,7 +4506,7 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -4454,7 +4562,7 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -4510,7 +4618,7 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -4568,7 +4676,7 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -4624,7 +4732,7 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -4680,7 +4788,7 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -4738,7 +4846,7 @@
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -4794,7 +4902,7 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -4850,7 +4958,7 @@
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -4906,7 +5014,7 @@
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -4964,7 +5072,7 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -5020,7 +5128,7 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -5076,7 +5184,7 @@
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -5318,7 +5426,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -5574,10 +5682,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848CF460-3EAC-4A7D-8560-52951FCF8A6B}">
   <dimension ref="A1:AL43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="T17" sqref="T17"/>
-      <selection pane="topRight" activeCell="AC27" sqref="AC27"/>
+      <selection pane="topRight" activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5714,10 +5822,10 @@
         <v>24</v>
       </c>
       <c r="T3" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="U3" s="22">
-        <v>3</v>
+        <v>107</v>
+      </c>
+      <c r="U3" s="22" t="s">
+        <v>112</v>
       </c>
       <c r="V3" s="22">
         <v>4</v>
@@ -5773,7 +5881,7 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -5785,7 +5893,7 @@
       <c r="I4" s="13"/>
       <c r="J4" s="13">
         <f>IF(COUNTIF(S4:AL4,"&gt;=3")&gt;=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="13">
         <f t="array" ref="K4">IF(MAX(FREQUENCY(IF(S4:AL4&gt;0,COLUMN(S4:AL4)),IF(S4:AL4&lt;=0,COLUMN(S4:AL4))))&gt;4,1,0)</f>
@@ -5798,17 +5906,19 @@
       <c r="P4" s="14"/>
       <c r="Q4" s="15">
         <f>SUM(B4:G4)+3*SUM(H4:M4)+5*SUM(N4:P4)+SUM(S4:AL4)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R4" s="15" t="str">
         <f>CONCATENATE("-",IF(B4=1,$B$3&amp;", ",""),IF(C4=1,$C$3&amp;", ",""),IF(D4=1,$D$3&amp;", ",""),IF(E4=1,$E$3&amp;", ",""),IF(F4=1,$F$3&amp;", ",""),IF(G4=1,$G$3&amp;", ",""),IF(H4=1,$H$3&amp;", ",""),IF(I4=1,$I$3&amp;", ",""),IF(J4=1,$J$3&amp;", ",""),IF(K4=1,$K$3&amp;", ",""),IF(L4=1,$L$3&amp;", ",""),IF(M4=1,$M$3&amp;", ",""),IF(N4=1,$N$3&amp;", ",""),IF(O4=1,$O$3&amp;", ",""),IF(P4=1,$P$3&amp;", ",""))</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="S4" s="16">
         <v>3</v>
       </c>
       <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
+      <c r="U4" s="16">
+        <v>3</v>
+      </c>
       <c r="V4" s="16"/>
       <c r="W4" s="16"/>
       <c r="X4" s="16"/>
@@ -5829,7 +5939,7 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -5891,7 +6001,7 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -5953,7 +6063,7 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -6011,7 +6121,7 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -6036,7 +6146,7 @@
       <c r="P8" s="14"/>
       <c r="Q8" s="15">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R8" s="15" t="str">
         <f t="shared" si="2"/>
@@ -6048,7 +6158,9 @@
       <c r="T8" s="16">
         <v>3</v>
       </c>
-      <c r="U8" s="16"/>
+      <c r="U8" s="16">
+        <v>2</v>
+      </c>
       <c r="V8" s="16"/>
       <c r="W8" s="16"/>
       <c r="X8" s="16"/>
@@ -6069,7 +6181,7 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -6129,7 +6241,7 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -6154,7 +6266,7 @@
       <c r="P10" s="14"/>
       <c r="Q10" s="15">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="R10" s="15" t="str">
         <f t="shared" si="2"/>
@@ -6166,7 +6278,9 @@
       <c r="T10" s="16">
         <v>4</v>
       </c>
-      <c r="U10" s="16"/>
+      <c r="U10" s="16">
+        <v>3</v>
+      </c>
       <c r="V10" s="16"/>
       <c r="W10" s="16"/>
       <c r="X10" s="16"/>
@@ -6187,7 +6301,7 @@
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -6245,7 +6359,7 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -6274,7 +6388,7 @@
       <c r="P12" s="14"/>
       <c r="Q12" s="15">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="R12" s="15" t="str">
         <f t="shared" si="2"/>
@@ -6286,7 +6400,9 @@
       <c r="T12" s="16">
         <v>4</v>
       </c>
-      <c r="U12" s="16"/>
+      <c r="U12" s="16">
+        <v>3</v>
+      </c>
       <c r="V12" s="16"/>
       <c r="W12" s="16"/>
       <c r="X12" s="16"/>
@@ -6307,7 +6423,7 @@
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -6332,7 +6448,7 @@
       <c r="P13" s="14"/>
       <c r="Q13" s="15">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R13" s="15" t="str">
         <f t="shared" si="2"/>
@@ -6342,7 +6458,9 @@
         <v>2</v>
       </c>
       <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
+      <c r="U13" s="16">
+        <v>2</v>
+      </c>
       <c r="V13" s="16"/>
       <c r="W13" s="16"/>
       <c r="X13" s="16"/>
@@ -6363,7 +6481,7 @@
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -6388,7 +6506,7 @@
       <c r="P14" s="14"/>
       <c r="Q14" s="15">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R14" s="15" t="str">
         <f t="shared" si="2"/>
@@ -6400,7 +6518,9 @@
       <c r="T14" s="16">
         <v>1</v>
       </c>
-      <c r="U14" s="16"/>
+      <c r="U14" s="16">
+        <v>2</v>
+      </c>
       <c r="V14" s="16"/>
       <c r="W14" s="16"/>
       <c r="X14" s="16"/>
@@ -6421,7 +6541,7 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -6446,7 +6566,7 @@
       <c r="P15" s="14"/>
       <c r="Q15" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R15" s="15" t="str">
         <f t="shared" si="2"/>
@@ -6458,7 +6578,9 @@
       <c r="T15" s="16">
         <v>1</v>
       </c>
-      <c r="U15" s="16"/>
+      <c r="U15" s="16">
+        <v>1</v>
+      </c>
       <c r="V15" s="16"/>
       <c r="W15" s="16"/>
       <c r="X15" s="16"/>
@@ -6479,7 +6601,7 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -6506,7 +6628,7 @@
       <c r="P16" s="14"/>
       <c r="Q16" s="15">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="R16" s="15" t="str">
         <f t="shared" si="2"/>
@@ -6518,7 +6640,9 @@
       <c r="T16" s="16">
         <v>4</v>
       </c>
-      <c r="U16" s="16"/>
+      <c r="U16" s="16">
+        <v>3</v>
+      </c>
       <c r="V16" s="16"/>
       <c r="W16" s="16"/>
       <c r="X16" s="16"/>
@@ -6539,7 +6663,7 @@
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -6597,7 +6721,7 @@
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -6653,7 +6777,7 @@
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -6709,7 +6833,7 @@
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -6767,7 +6891,7 @@
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -6779,7 +6903,7 @@
       <c r="I21" s="13"/>
       <c r="J21" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="13">
         <f t="array" ref="K21">IF(MAX(FREQUENCY(IF(S21:AL21&gt;0,COLUMN(S21:AL21)),IF(S21:AL21&lt;=0,COLUMN(S21:AL21))))&gt;4,1,0)</f>
@@ -6792,11 +6916,11 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="15">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="R21" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="S21" s="16">
         <v>3</v>
@@ -6804,7 +6928,9 @@
       <c r="T21" s="16">
         <v>2</v>
       </c>
-      <c r="U21" s="16"/>
+      <c r="U21" s="16">
+        <v>3</v>
+      </c>
       <c r="V21" s="16"/>
       <c r="W21" s="16"/>
       <c r="X21" s="16"/>
@@ -6825,7 +6951,7 @@
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -6883,7 +7009,7 @@
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -6908,7 +7034,7 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="15">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R23" s="15" t="str">
         <f t="shared" si="2"/>
@@ -6920,7 +7046,9 @@
       <c r="T23" s="16">
         <v>4</v>
       </c>
-      <c r="U23" s="16"/>
+      <c r="U23" s="16">
+        <v>2</v>
+      </c>
       <c r="V23" s="16"/>
       <c r="W23" s="16"/>
       <c r="X23" s="16"/>
@@ -6941,7 +7069,7 @@
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -6966,7 +7094,7 @@
       <c r="P24" s="14"/>
       <c r="Q24" s="15">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R24" s="15" t="str">
         <f t="shared" si="2"/>
@@ -6978,7 +7106,9 @@
       <c r="T24" s="16">
         <v>3</v>
       </c>
-      <c r="U24" s="16"/>
+      <c r="U24" s="16">
+        <v>2</v>
+      </c>
       <c r="V24" s="16"/>
       <c r="W24" s="16"/>
       <c r="X24" s="16"/>
@@ -6999,7 +7129,7 @@
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -7057,7 +7187,7 @@
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -7115,7 +7245,7 @@
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -7127,7 +7257,7 @@
       <c r="I27" s="13"/>
       <c r="J27" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="13">
         <f t="array" ref="K27">IF(MAX(FREQUENCY(IF(S27:AL27&gt;0,COLUMN(S27:AL27)),IF(S27:AL27&lt;=0,COLUMN(S27:AL27))))&gt;4,1,0)</f>
@@ -7140,11 +7270,11 @@
       <c r="P27" s="14"/>
       <c r="Q27" s="15">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="R27" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="S27" s="16">
         <v>4</v>
@@ -7152,7 +7282,9 @@
       <c r="T27" s="16">
         <v>2</v>
       </c>
-      <c r="U27" s="16"/>
+      <c r="U27" s="16">
+        <v>3</v>
+      </c>
       <c r="V27" s="16"/>
       <c r="W27" s="16"/>
       <c r="X27" s="16"/>
@@ -7173,7 +7305,7 @@
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -7198,7 +7330,7 @@
       <c r="P28" s="14"/>
       <c r="Q28" s="15">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R28" s="15" t="str">
         <f t="shared" si="2"/>
@@ -7210,7 +7342,9 @@
       <c r="T28" s="16">
         <v>3</v>
       </c>
-      <c r="U28" s="16"/>
+      <c r="U28" s="16">
+        <v>2</v>
+      </c>
       <c r="V28" s="16"/>
       <c r="W28" s="16"/>
       <c r="X28" s="16"/>
@@ -7231,7 +7365,7 @@
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -7289,7 +7423,7 @@
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -7347,7 +7481,7 @@
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -7403,7 +7537,7 @@
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -7459,7 +7593,7 @@
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -7484,7 +7618,7 @@
       <c r="P33" s="14"/>
       <c r="Q33" s="15">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R33" s="15" t="str">
         <f t="shared" si="2"/>
@@ -7496,7 +7630,9 @@
       <c r="T33" s="16">
         <v>3</v>
       </c>
-      <c r="U33" s="16"/>
+      <c r="U33" s="16">
+        <v>2</v>
+      </c>
       <c r="V33" s="16"/>
       <c r="W33" s="16"/>
       <c r="X33" s="16"/>
@@ -7517,7 +7653,7 @@
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -7575,7 +7711,7 @@
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -7631,7 +7767,7 @@
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -7686,8 +7822,8 @@
       <c r="AL36" s="16"/>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A37" s="11">
-        <v>34</v>
+      <c r="A37" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -7712,7 +7848,7 @@
       <c r="P37" s="14"/>
       <c r="Q37" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R37" s="15" t="str">
         <f t="shared" si="2"/>
@@ -7720,7 +7856,9 @@
       </c>
       <c r="S37" s="16"/>
       <c r="T37" s="16"/>
-      <c r="U37" s="16"/>
+      <c r="U37" s="16">
+        <v>2</v>
+      </c>
       <c r="V37" s="16"/>
       <c r="W37" s="16"/>
       <c r="X37" s="16"/>
@@ -8087,7 +8225,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -8103,11 +8241,11 @@
       </c>
       <c r="B2" t="str">
         <f>'2Res Data'!R4</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C2">
         <f>'2Res Data'!Q4</f>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -8163,7 +8301,7 @@
       </c>
       <c r="C6">
         <f>'2Res Data'!Q8</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -8191,7 +8329,7 @@
       </c>
       <c r="C8">
         <f>'2Res Data'!Q10</f>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -8219,7 +8357,7 @@
       </c>
       <c r="C10">
         <f>'2Res Data'!Q12</f>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -8233,7 +8371,7 @@
       </c>
       <c r="C11">
         <f>'2Res Data'!Q13</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -8247,7 +8385,7 @@
       </c>
       <c r="C12">
         <f>'2Res Data'!Q14</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -8261,7 +8399,7 @@
       </c>
       <c r="C13">
         <f>'2Res Data'!Q15</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -8275,7 +8413,7 @@
       </c>
       <c r="C14">
         <f>'2Res Data'!Q16</f>
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -8341,11 +8479,11 @@
       </c>
       <c r="B19" t="str">
         <f>'2Res Data'!R21</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C19">
         <f>'2Res Data'!Q21</f>
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -8373,7 +8511,7 @@
       </c>
       <c r="C21">
         <f>'2Res Data'!Q23</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -8387,7 +8525,7 @@
       </c>
       <c r="C22">
         <f>'2Res Data'!Q24</f>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -8425,11 +8563,11 @@
       </c>
       <c r="B25" t="str">
         <f>'2Res Data'!R27</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C25">
         <f>'2Res Data'!Q27</f>
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -8443,7 +8581,7 @@
       </c>
       <c r="C26">
         <f>'2Res Data'!Q28</f>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -8513,7 +8651,7 @@
       </c>
       <c r="C31">
         <f>'2Res Data'!Q33</f>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -8559,9 +8697,9 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="A35" t="str">
         <f>'2Res Data'!A37</f>
-        <v>34</v>
+        <v>Beckham</v>
       </c>
       <c r="B35" t="str">
         <f>'2Res Data'!R37</f>
@@ -8569,7 +8707,7 @@
       </c>
       <c r="C35">
         <f>'2Res Data'!Q37</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -1,24 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\65929\Desktop\website\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngwen\Desktop\website\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDEB844-BF12-4F35-A9C0-83910EB702DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07BF74C-F20D-430D-A92D-893B7AD5D725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2Cou Data" sheetId="1" r:id="rId1"/>
-    <sheet name="2Cou" sheetId="4" r:id="rId2"/>
-    <sheet name="3Exp Data" sheetId="6" r:id="rId3"/>
-    <sheet name="3Exp" sheetId="5" r:id="rId4"/>
-    <sheet name="2Res Data" sheetId="7" r:id="rId5"/>
-    <sheet name="2Res" sheetId="8" r:id="rId6"/>
+    <sheet name="Sec 1 Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sec 1" sheetId="4" r:id="rId2"/>
+    <sheet name="Sec 2 Data" sheetId="7" r:id="rId3"/>
+    <sheet name="Sec 2" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
   <si>
     <t>Achievements</t>
   </si>
@@ -104,280 +102,7 @@
     <t>Star count</t>
   </si>
   <si>
-    <t>Trigo</t>
-  </si>
-  <si>
-    <t>Xiang Rong</t>
-  </si>
-  <si>
-    <t>Jaidern</t>
-  </si>
-  <si>
-    <t>Mabel</t>
-  </si>
-  <si>
-    <t>Jylan</t>
-  </si>
-  <si>
-    <t>Denzel</t>
-  </si>
-  <si>
-    <t>Tristan</t>
-  </si>
-  <si>
     <t>Nickname</t>
-  </si>
-  <si>
-    <t>XueWen</t>
-  </si>
-  <si>
-    <t>Dean</t>
-  </si>
-  <si>
-    <t>Angelo</t>
-  </si>
-  <si>
-    <t>Kyle</t>
-  </si>
-  <si>
-    <t>Jayden</t>
-  </si>
-  <si>
-    <t>Auston</t>
-  </si>
-  <si>
-    <t>Jia Xiang</t>
-  </si>
-  <si>
-    <t>Faith</t>
-  </si>
-  <si>
-    <t>Hiroshi</t>
-  </si>
-  <si>
-    <t>Luke</t>
-  </si>
-  <si>
-    <t>Alicia</t>
-  </si>
-  <si>
-    <t>Rayden</t>
-  </si>
-  <si>
-    <t>Darren</t>
-  </si>
-  <si>
-    <t>Lucas</t>
-  </si>
-  <si>
-    <t>Pythagoras</t>
-  </si>
-  <si>
-    <t>Yijie</t>
-  </si>
-  <si>
-    <t>Shannon</t>
-  </si>
-  <si>
-    <t>Yuxin</t>
-  </si>
-  <si>
-    <t>Shermin</t>
-  </si>
-  <si>
-    <t>Jovan</t>
-  </si>
-  <si>
-    <t>Joshua</t>
-  </si>
-  <si>
-    <t>Zhikei</t>
-  </si>
-  <si>
-    <t>Gina</t>
-  </si>
-  <si>
-    <t>Yuxuan</t>
-  </si>
-  <si>
-    <t>Chuhan</t>
-  </si>
-  <si>
-    <t>Guanxin</t>
-  </si>
-  <si>
-    <t>Yohana</t>
-  </si>
-  <si>
-    <t>Erin</t>
-  </si>
-  <si>
-    <t>Gerard</t>
-  </si>
-  <si>
-    <t>Anya</t>
-  </si>
-  <si>
-    <t>Leo</t>
-  </si>
-  <si>
-    <t>Zayden</t>
-  </si>
-  <si>
-    <t>Clarice</t>
-  </si>
-  <si>
-    <t>Chervel</t>
-  </si>
-  <si>
-    <t>Kerlyn</t>
-  </si>
-  <si>
-    <t>Weeyang</t>
-  </si>
-  <si>
-    <t>Kaijie</t>
-  </si>
-  <si>
-    <t>Caleb</t>
-  </si>
-  <si>
-    <t>Charissa</t>
-  </si>
-  <si>
-    <t>Thaddeus</t>
-  </si>
-  <si>
-    <t>Ambrose</t>
-  </si>
-  <si>
-    <t>Zach</t>
-  </si>
-  <si>
-    <t>Joel</t>
-  </si>
-  <si>
-    <t>Janelle</t>
-  </si>
-  <si>
-    <t>Li Wen</t>
-  </si>
-  <si>
-    <t>Zachary</t>
-  </si>
-  <si>
-    <t>Xavier</t>
-  </si>
-  <si>
-    <t>Xinen</t>
-  </si>
-  <si>
-    <t>Koen</t>
-  </si>
-  <si>
-    <t>Clyde</t>
-  </si>
-  <si>
-    <t>Trina</t>
-  </si>
-  <si>
-    <t>Solomon</t>
-  </si>
-  <si>
-    <t>Caleah</t>
-  </si>
-  <si>
-    <t>Linus</t>
-  </si>
-  <si>
-    <t>Jayden T.</t>
-  </si>
-  <si>
-    <t>Natalie</t>
-  </si>
-  <si>
-    <t>Sherie</t>
-  </si>
-  <si>
-    <t>Emma</t>
-  </si>
-  <si>
-    <t>Lukas</t>
-  </si>
-  <si>
-    <t>Shania</t>
-  </si>
-  <si>
-    <t>Eunice</t>
-  </si>
-  <si>
-    <t>Nathan</t>
-  </si>
-  <si>
-    <t>Jeanette</t>
-  </si>
-  <si>
-    <t>Dylan</t>
-  </si>
-  <si>
-    <t>Lia</t>
-  </si>
-  <si>
-    <t>Chloe</t>
-  </si>
-  <si>
-    <t>Amarnath</t>
-  </si>
-  <si>
-    <t>Joe</t>
-  </si>
-  <si>
-    <t>Kaelen</t>
-  </si>
-  <si>
-    <t>Destinee</t>
-  </si>
-  <si>
-    <t>Ethan</t>
-  </si>
-  <si>
-    <t>Mesuration</t>
-  </si>
-  <si>
-    <t>Alexis</t>
-  </si>
-  <si>
-    <t>Siri</t>
-  </si>
-  <si>
-    <t>Rachael</t>
-  </si>
-  <si>
-    <t>Mensuration</t>
-  </si>
-  <si>
-    <t>Miley</t>
-  </si>
-  <si>
-    <t>Lucius</t>
-  </si>
-  <si>
-    <t>Vera</t>
-  </si>
-  <si>
-    <t>Yanwu</t>
-  </si>
-  <si>
-    <t>Class Test</t>
-  </si>
-  <si>
-    <t>Hayden</t>
-  </si>
-  <si>
-    <t>Zarek</t>
-  </si>
-  <si>
-    <t>Beckham</t>
   </si>
 </sst>
 </file>
@@ -926,9 +651,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I20" sqref="I20"/>
+      <selection pane="topRight" activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1070,17 +795,17 @@
       <c r="R3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="S3" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="T3" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="U3" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="V3" s="22" t="s">
-        <v>112</v>
+      <c r="S3" s="22">
+        <v>1</v>
+      </c>
+      <c r="T3" s="22">
+        <v>2</v>
+      </c>
+      <c r="U3" s="22">
+        <v>3</v>
+      </c>
+      <c r="V3" s="22">
+        <v>4</v>
       </c>
       <c r="W3" s="22">
         <v>5</v>
@@ -1132,56 +857,34 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="12">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12">
-        <v>1</v>
-      </c>
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
-      <c r="J4" s="13">
-        <f>IF(COUNTIF(S4:AL4,"&gt;=3")&gt;=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="13">
-        <f t="array" ref="K4">IF(MAX(FREQUENCY(IF(S4:AL4&gt;0,COLUMN(S4:AL4)),IF(S4:AL4&lt;=0,COLUMN(S4:AL4))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
       <c r="L4" s="13"/>
-      <c r="M4" s="13">
-        <v>1</v>
-      </c>
+      <c r="M4" s="13"/>
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
       <c r="Q4" s="15">
         <f>SUM(B4:G4)+3*SUM(H4:M4)+5*SUM(N4:P4)+SUM(S4:AL4)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R4" s="15" t="str">
         <f>CONCATENATE("-",IF(B4=1,$B$3&amp;", ",""),IF(C4=1,$C$3&amp;", ",""),IF(D4=1,$D$3&amp;", ",""),IF(E4=1,$E$3&amp;", ",""),IF(F4=1,$F$3&amp;", ",""),IF(G4=1,$G$3&amp;", ",""),IF(H4=1,$H$3&amp;", ",""),IF(I4=1,$I$3&amp;", ",""),IF(J4=1,$J$3&amp;", ",""),IF(K4=1,$K$3&amp;", ",""),IF(L4=1,$L$3&amp;", ",""),IF(M4=1,$M$3&amp;", ",""),IF(N4=1,$N$3&amp;", ",""),IF(O4=1,$O$3&amp;", ",""),IF(P4=1,$P$3&amp;", ",""))</f>
-        <v xml:space="preserve">-I Love Math, I Say Hi, Memelord, </v>
-      </c>
-      <c r="S4" s="16">
-        <v>0</v>
-      </c>
-      <c r="T4" s="16">
-        <v>2</v>
-      </c>
-      <c r="U4" s="16">
-        <v>0</v>
-      </c>
-      <c r="V4" s="16">
-        <v>1</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
       <c r="W4" s="16"/>
       <c r="X4" s="16"/>
       <c r="Y4" s="16"/>
@@ -1200,52 +903,34 @@
       <c r="AL4" s="16"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>106</v>
-      </c>
+      <c r="A5" s="11"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="12">
-        <v>1</v>
-      </c>
+      <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
-      <c r="J5" s="13">
-        <f t="shared" ref="J5:J43" si="0">IF(COUNTIF(S5:AL5,"&gt;=3")&gt;=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="13">
-        <f t="array" ref="K5">IF(MAX(FREQUENCY(IF(S5:AL5&gt;0,COLUMN(S5:AL5)),IF(S5:AL5&lt;=0,COLUMN(S5:AL5))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="15">
-        <f t="shared" ref="Q5:Q43" si="1">SUM(B5:G5)+3*SUM(H5:L5)+5*SUM(M5:P5)+SUM(S5:AL5)</f>
-        <v>6</v>
+        <f t="shared" ref="Q5:Q43" si="0">SUM(B5:G5)+3*SUM(H5:L5)+5*SUM(M5:P5)+SUM(S5:AL5)</f>
+        <v>0</v>
       </c>
       <c r="R5" s="15" t="str">
-        <f t="shared" ref="R5:R43" si="2">CONCATENATE("-",IF(B5=1,$B$3&amp;", ",""),IF(C5=1,$C$3&amp;", ",""),IF(D5=1,$D$3&amp;", ",""),IF(E5=1,$E$3&amp;", ",""),IF(F5=1,$F$3&amp;", ",""),IF(G5=1,$G$3&amp;", ",""),IF(H5=1,$H$3&amp;", ",""),IF(I5=1,$I$3&amp;", ",""),IF(J5=1,$J$3&amp;", ",""),IF(K5=1,$K$3&amp;", ",""),IF(L5=1,$L$3&amp;", ",""),IF(M5=1,$M$3&amp;", ",""),IF(N5=1,$N$3&amp;", ",""),IF(O5=1,$O$3&amp;", ",""),IF(P5=1,$P$3&amp;", ",""))</f>
-        <v xml:space="preserve">-Blast to the Past, </v>
-      </c>
-      <c r="S5" s="16">
-        <v>0</v>
-      </c>
-      <c r="T5" s="16">
-        <v>0</v>
-      </c>
-      <c r="U5" s="16">
-        <v>3</v>
-      </c>
-      <c r="V5" s="16">
-        <v>2</v>
-      </c>
+        <f t="shared" ref="R5:R43" si="1">CONCATENATE("-",IF(B5=1,$B$3&amp;", ",""),IF(C5=1,$C$3&amp;", ",""),IF(D5=1,$D$3&amp;", ",""),IF(E5=1,$E$3&amp;", ",""),IF(F5=1,$F$3&amp;", ",""),IF(G5=1,$G$3&amp;", ",""),IF(H5=1,$H$3&amp;", ",""),IF(I5=1,$I$3&amp;", ",""),IF(J5=1,$J$3&amp;", ",""),IF(K5=1,$K$3&amp;", ",""),IF(L5=1,$L$3&amp;", ",""),IF(M5=1,$M$3&amp;", ",""),IF(N5=1,$N$3&amp;", ",""),IF(O5=1,$O$3&amp;", ",""),IF(P5=1,$P$3&amp;", ",""))</f>
+        <v>-</v>
+      </c>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
       <c r="W5" s="16"/>
       <c r="X5" s="16"/>
       <c r="Y5" s="16"/>
@@ -1264,9 +949,7 @@
       <c r="AL5" s="16"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>56</v>
-      </c>
+      <c r="A6" s="11"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -1275,39 +958,25 @@
       <c r="G6" s="12"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
-      <c r="J6" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K6" s="13">
-        <f t="array" ref="K6">IF(MAX(FREQUENCY(IF(S6:AL6&gt;0,COLUMN(S6:AL6)),IF(S6:AL6&lt;=0,COLUMN(S6:AL6))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
       <c r="Q6" s="15">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R6" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
-      </c>
-      <c r="S6" s="16">
-        <v>3</v>
-      </c>
-      <c r="T6" s="16">
-        <v>4</v>
-      </c>
-      <c r="U6" s="16">
-        <v>3</v>
-      </c>
-      <c r="V6" s="16">
-        <v>3</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
       <c r="W6" s="16"/>
       <c r="X6" s="16"/>
       <c r="Y6" s="16"/>
@@ -1326,9 +995,7 @@
       <c r="AL6" s="16"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>60</v>
-      </c>
+      <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -1337,39 +1004,25 @@
       <c r="G7" s="12"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="13">
-        <f t="array" ref="K7">IF(MAX(FREQUENCY(IF(S7:AL7&gt;0,COLUMN(S7:AL7)),IF(S7:AL7&lt;=0,COLUMN(S7:AL7))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="15">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R7" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S7" s="16">
-        <v>1</v>
-      </c>
-      <c r="T7" s="16">
-        <v>1</v>
-      </c>
-      <c r="U7" s="16">
-        <v>2</v>
-      </c>
-      <c r="V7" s="16">
-        <v>3</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
       <c r="W7" s="16"/>
       <c r="X7" s="16"/>
       <c r="Y7" s="16"/>
@@ -1388,9 +1041,7 @@
       <c r="AL7" s="16"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>25</v>
-      </c>
+      <c r="A8" s="11"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -1399,39 +1050,25 @@
       <c r="G8" s="12"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="13">
-        <f t="array" ref="K8">IF(MAX(FREQUENCY(IF(S8:AL8&gt;0,COLUMN(S8:AL8)),IF(S8:AL8&lt;=0,COLUMN(S8:AL8))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="15">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R8" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S8" s="16">
-        <v>2</v>
-      </c>
-      <c r="T8" s="16">
-        <v>4</v>
-      </c>
-      <c r="U8" s="16">
-        <v>0</v>
-      </c>
-      <c r="V8" s="16">
-        <v>2</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
       <c r="W8" s="16"/>
       <c r="X8" s="16"/>
       <c r="Y8" s="16"/>
@@ -1450,9 +1087,7 @@
       <c r="AL8" s="16"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>114</v>
-      </c>
+      <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -1461,39 +1096,25 @@
       <c r="G9" s="12"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
-      <c r="J9" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K9" s="13">
-        <f t="array" ref="K9">IF(MAX(FREQUENCY(IF(S9:AL9&gt;0,COLUMN(S9:AL9)),IF(S9:AL9&lt;=0,COLUMN(S9:AL9))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
       <c r="Q9" s="15">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R9" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
-      </c>
-      <c r="S9" s="16">
-        <v>2</v>
-      </c>
-      <c r="T9" s="16">
-        <v>4</v>
-      </c>
-      <c r="U9" s="16">
-        <v>3</v>
-      </c>
-      <c r="V9" s="16">
-        <v>3</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
       <c r="W9" s="16"/>
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
@@ -1512,54 +1133,34 @@
       <c r="AL9" s="16"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="12">
-        <v>1</v>
-      </c>
+      <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
-      <c r="J10" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="13">
-        <f t="array" ref="K10">IF(MAX(FREQUENCY(IF(S10:AL10&gt;0,COLUMN(S10:AL10)),IF(S10:AL10&lt;=0,COLUMN(S10:AL10))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
       <c r="L10" s="13"/>
-      <c r="M10" s="13">
-        <v>1</v>
-      </c>
+      <c r="M10" s="13"/>
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="15">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R10" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">-Blast to the Past, Memelord, </v>
-      </c>
-      <c r="S10" s="16">
-        <v>2</v>
-      </c>
-      <c r="T10" s="16">
-        <v>2</v>
-      </c>
-      <c r="U10" s="16">
-        <v>2</v>
-      </c>
-      <c r="V10" s="16">
-        <v>2</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
       <c r="W10" s="16"/>
       <c r="X10" s="16"/>
       <c r="Y10" s="16"/>
@@ -1578,54 +1179,34 @@
       <c r="AL10" s="16"/>
     </row>
     <row r="11" spans="1:38" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>69</v>
-      </c>
+      <c r="A11" s="11"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="12">
-        <v>1</v>
-      </c>
+      <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
-      <c r="J11" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K11" s="13">
-        <f t="array" ref="K11">IF(MAX(FREQUENCY(IF(S11:AL11&gt;0,COLUMN(S11:AL11)),IF(S11:AL11&lt;=0,COLUMN(S11:AL11))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="13">
-        <v>1</v>
-      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
       <c r="M11" s="13"/>
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
       <c r="Q11" s="15">
-        <f t="shared" si="1"/>
-        <v>17</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R11" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">-Blast to the Past, Three-Star Wonder, Extra Credit, </v>
-      </c>
-      <c r="S11" s="16">
-        <v>2</v>
-      </c>
-      <c r="T11" s="16">
-        <v>3</v>
-      </c>
-      <c r="U11" s="16">
-        <v>2</v>
-      </c>
-      <c r="V11" s="16">
-        <v>3</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
       <c r="W11" s="16"/>
       <c r="X11" s="16"/>
       <c r="Y11" s="16"/>
@@ -1644,9 +1225,7 @@
       <c r="AL11" s="16"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>99</v>
-      </c>
+      <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -1655,39 +1234,25 @@
       <c r="G12" s="12"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
-      <c r="J12" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="13">
-        <f t="array" ref="K12">IF(MAX(FREQUENCY(IF(S12:AL12&gt;0,COLUMN(S12:AL12)),IF(S12:AL12&lt;=0,COLUMN(S12:AL12))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
       <c r="N12" s="14"/>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
       <c r="Q12" s="15">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R12" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S12" s="16">
-        <v>1</v>
-      </c>
-      <c r="T12" s="16">
-        <v>1</v>
-      </c>
-      <c r="U12" s="16">
-        <v>2</v>
-      </c>
-      <c r="V12" s="16">
-        <v>1</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
       <c r="W12" s="16"/>
       <c r="X12" s="16"/>
       <c r="Y12" s="16"/>
@@ -1706,56 +1271,34 @@
       <c r="AL12" s="16"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="12">
-        <v>1</v>
-      </c>
-      <c r="C13" s="12">
-        <v>1</v>
-      </c>
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="12">
-        <v>1</v>
-      </c>
+      <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
-      <c r="J13" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="13">
-        <f t="array" ref="K13">IF(MAX(FREQUENCY(IF(S13:AL13&gt;0,COLUMN(S13:AL13)),IF(S13:AL13&lt;=0,COLUMN(S13:AL13))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
       <c r="Q13" s="15">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R13" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">-I Love Math, I Say Hi, Gaming is life, </v>
-      </c>
-      <c r="S13" s="16">
-        <v>2</v>
-      </c>
-      <c r="T13" s="16">
-        <v>4</v>
-      </c>
-      <c r="U13" s="16">
-        <v>2</v>
-      </c>
-      <c r="V13" s="16">
-        <v>2</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
       <c r="W13" s="16"/>
       <c r="X13" s="16"/>
       <c r="Y13" s="16"/>
@@ -1774,9 +1317,7 @@
       <c r="AL13" s="16"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
-        <v>66</v>
-      </c>
+      <c r="A14" s="11"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -1785,39 +1326,25 @@
       <c r="G14" s="12"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
-      <c r="J14" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="13">
-        <f t="array" ref="K14">IF(MAX(FREQUENCY(IF(S14:AL14&gt;0,COLUMN(S14:AL14)),IF(S14:AL14&lt;=0,COLUMN(S14:AL14))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
       <c r="Q14" s="15">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R14" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S14" s="16">
-        <v>2</v>
-      </c>
-      <c r="T14" s="16">
-        <v>0</v>
-      </c>
-      <c r="U14" s="16">
-        <v>2</v>
-      </c>
-      <c r="V14" s="16">
-        <v>3</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
       <c r="W14" s="16"/>
       <c r="X14" s="16"/>
       <c r="Y14" s="16"/>
@@ -1836,9 +1363,7 @@
       <c r="AL14" s="16"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -1847,39 +1372,25 @@
       <c r="G15" s="12"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
-      <c r="J15" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K15" s="13">
-        <f t="array" ref="K15">IF(MAX(FREQUENCY(IF(S15:AL15&gt;0,COLUMN(S15:AL15)),IF(S15:AL15&lt;=0,COLUMN(S15:AL15))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="15">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R15" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
-      </c>
-      <c r="S15" s="16">
-        <v>3</v>
-      </c>
-      <c r="T15" s="16">
-        <v>3</v>
-      </c>
-      <c r="U15" s="16">
-        <v>4</v>
-      </c>
-      <c r="V15" s="16">
-        <v>3</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
       <c r="W15" s="16"/>
       <c r="X15" s="16"/>
       <c r="Y15" s="16"/>
@@ -1898,9 +1409,7 @@
       <c r="AL15" s="16"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>104</v>
-      </c>
+      <c r="A16" s="11"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -1909,39 +1418,25 @@
       <c r="G16" s="12"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
-      <c r="J16" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K16" s="13">
-        <f t="array" ref="K16">IF(MAX(FREQUENCY(IF(S16:AL16&gt;0,COLUMN(S16:AL16)),IF(S16:AL16&lt;=0,COLUMN(S16:AL16))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="15">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R16" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
-      </c>
-      <c r="S16" s="16">
-        <v>3</v>
-      </c>
-      <c r="T16" s="16">
-        <v>3</v>
-      </c>
-      <c r="U16" s="16">
-        <v>2</v>
-      </c>
-      <c r="V16" s="16">
-        <v>2</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
       <c r="W16" s="16"/>
       <c r="X16" s="16"/>
       <c r="Y16" s="16"/>
@@ -1960,9 +1455,7 @@
       <c r="AL16" s="16"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
-        <v>101</v>
-      </c>
+      <c r="A17" s="11"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -1971,39 +1464,25 @@
       <c r="G17" s="12"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K17" s="13">
-        <f t="array" ref="K17">IF(MAX(FREQUENCY(IF(S17:AL17&gt;0,COLUMN(S17:AL17)),IF(S17:AL17&lt;=0,COLUMN(S17:AL17))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
       <c r="N17" s="14"/>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
       <c r="Q17" s="15">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R17" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
-      </c>
-      <c r="S17" s="16">
-        <v>3</v>
-      </c>
-      <c r="T17" s="16">
-        <v>3</v>
-      </c>
-      <c r="U17" s="16">
-        <v>3</v>
-      </c>
-      <c r="V17" s="16">
-        <v>3</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
       <c r="W17" s="16"/>
       <c r="X17" s="16"/>
       <c r="Y17" s="16"/>
@@ -2022,9 +1501,7 @@
       <c r="AL17" s="16"/>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
-        <v>105</v>
-      </c>
+      <c r="A18" s="11"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -2033,39 +1510,25 @@
       <c r="G18" s="12"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
-      <c r="J18" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="13">
-        <f t="array" ref="K18">IF(MAX(FREQUENCY(IF(S18:AL18&gt;0,COLUMN(S18:AL18)),IF(S18:AL18&lt;=0,COLUMN(S18:AL18))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
       <c r="N18" s="14"/>
       <c r="O18" s="14"/>
       <c r="P18" s="14"/>
       <c r="Q18" s="15">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R18" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S18" s="16">
-        <v>2</v>
-      </c>
-      <c r="T18" s="16">
-        <v>0</v>
-      </c>
-      <c r="U18" s="16">
-        <v>2</v>
-      </c>
-      <c r="V18" s="16">
-        <v>2</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
       <c r="W18" s="16"/>
       <c r="X18" s="16"/>
       <c r="Y18" s="16"/>
@@ -2084,9 +1547,7 @@
       <c r="AL18" s="16"/>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
-        <v>113</v>
-      </c>
+      <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -2095,39 +1556,25 @@
       <c r="G19" s="12"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K19" s="13">
-        <f t="array" ref="K19">IF(MAX(FREQUENCY(IF(S19:AL19&gt;0,COLUMN(S19:AL19)),IF(S19:AL19&lt;=0,COLUMN(S19:AL19))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
       <c r="P19" s="14"/>
       <c r="Q19" s="15">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R19" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
-      </c>
-      <c r="S19" s="16">
-        <v>3</v>
-      </c>
-      <c r="T19" s="16">
-        <v>0</v>
-      </c>
-      <c r="U19" s="16">
-        <v>3</v>
-      </c>
-      <c r="V19" s="16">
-        <v>2</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
       <c r="W19" s="16"/>
       <c r="X19" s="16"/>
       <c r="Y19" s="16"/>
@@ -2146,9 +1593,7 @@
       <c r="AL19" s="16"/>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>53</v>
-      </c>
+      <c r="A20" s="11"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -2157,39 +1602,25 @@
       <c r="G20" s="12"/>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
-      <c r="J20" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K20" s="13">
-        <f t="array" ref="K20">IF(MAX(FREQUENCY(IF(S20:AL20&gt;0,COLUMN(S20:AL20)),IF(S20:AL20&lt;=0,COLUMN(S20:AL20))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
       <c r="N20" s="14"/>
       <c r="O20" s="14"/>
       <c r="P20" s="14"/>
       <c r="Q20" s="15">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R20" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
-      </c>
-      <c r="S20" s="16">
-        <v>3</v>
-      </c>
-      <c r="T20" s="16">
-        <v>3</v>
-      </c>
-      <c r="U20" s="16">
-        <v>3</v>
-      </c>
-      <c r="V20" s="16">
-        <v>2</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
       <c r="W20" s="16"/>
       <c r="X20" s="16"/>
       <c r="Y20" s="16"/>
@@ -2208,9 +1639,7 @@
       <c r="AL20" s="16"/>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
-        <v>97</v>
-      </c>
+      <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -2219,39 +1648,25 @@
       <c r="G21" s="12"/>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="13">
-        <f t="array" ref="K21">IF(MAX(FREQUENCY(IF(S21:AL21&gt;0,COLUMN(S21:AL21)),IF(S21:AL21&lt;=0,COLUMN(S21:AL21))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
       <c r="P21" s="14"/>
       <c r="Q21" s="15">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R21" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S21" s="16">
-        <v>2</v>
-      </c>
-      <c r="T21" s="16">
-        <v>3</v>
-      </c>
-      <c r="U21" s="16">
-        <v>2</v>
-      </c>
-      <c r="V21" s="16">
-        <v>1</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
       <c r="W21" s="16"/>
       <c r="X21" s="16"/>
       <c r="Y21" s="16"/>
@@ -2270,9 +1685,7 @@
       <c r="AL21" s="16"/>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
-        <v>47</v>
-      </c>
+      <c r="A22" s="11"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -2281,39 +1694,25 @@
       <c r="G22" s="12"/>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
-      <c r="J22" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="13">
-        <f t="array" ref="K22">IF(MAX(FREQUENCY(IF(S22:AL22&gt;0,COLUMN(S22:AL22)),IF(S22:AL22&lt;=0,COLUMN(S22:AL22))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
       <c r="N22" s="14"/>
       <c r="O22" s="14"/>
       <c r="P22" s="14"/>
       <c r="Q22" s="15">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R22" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S22" s="16">
-        <v>3</v>
-      </c>
-      <c r="T22" s="16">
-        <v>2</v>
-      </c>
-      <c r="U22" s="16">
-        <v>0</v>
-      </c>
-      <c r="V22" s="16">
-        <v>2</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
       <c r="W22" s="16"/>
       <c r="X22" s="16"/>
       <c r="Y22" s="16"/>
@@ -2332,9 +1731,7 @@
       <c r="AL22" s="16"/>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="A23" s="11"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -2343,39 +1740,25 @@
       <c r="G23" s="12"/>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="13">
-        <f t="array" ref="K23">IF(MAX(FREQUENCY(IF(S23:AL23&gt;0,COLUMN(S23:AL23)),IF(S23:AL23&lt;=0,COLUMN(S23:AL23))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
       <c r="P23" s="14"/>
       <c r="Q23" s="15">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R23" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S23" s="16">
-        <v>2</v>
-      </c>
-      <c r="T23" s="16">
-        <v>3</v>
-      </c>
-      <c r="U23" s="16">
-        <v>2</v>
-      </c>
-      <c r="V23" s="16">
-        <v>2</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
       <c r="W23" s="16"/>
       <c r="X23" s="16"/>
       <c r="Y23" s="16"/>
@@ -2394,52 +1777,34 @@
       <c r="AL23" s="16"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
-        <v>63</v>
-      </c>
+      <c r="A24" s="11"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="12">
-        <v>1</v>
-      </c>
+      <c r="G24" s="12"/>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
-      <c r="J24" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="13">
-        <f t="array" ref="K24">IF(MAX(FREQUENCY(IF(S24:AL24&gt;0,COLUMN(S24:AL24)),IF(S24:AL24&lt;=0,COLUMN(S24:AL24))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
       <c r="N24" s="14"/>
       <c r="O24" s="14"/>
       <c r="P24" s="14"/>
       <c r="Q24" s="15">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R24" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">-Help a friend!, </v>
-      </c>
-      <c r="S24" s="16">
-        <v>3</v>
-      </c>
-      <c r="T24" s="16">
-        <v>2</v>
-      </c>
-      <c r="U24" s="16">
-        <v>2</v>
-      </c>
-      <c r="V24" s="16">
-        <v>2</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
       <c r="W24" s="16"/>
       <c r="X24" s="16"/>
       <c r="Y24" s="16"/>
@@ -2458,56 +1823,34 @@
       <c r="AL24" s="16"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
-        <v>64</v>
-      </c>
+      <c r="A25" s="11"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="12">
-        <v>1</v>
-      </c>
+      <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
-      <c r="G25" s="12">
-        <v>1</v>
-      </c>
-      <c r="H25" s="13">
-        <v>1</v>
-      </c>
+      <c r="G25" s="12"/>
+      <c r="H25" s="13"/>
       <c r="I25" s="13"/>
-      <c r="J25" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="13">
-        <f t="array" ref="K25">IF(MAX(FREQUENCY(IF(S25:AL25&gt;0,COLUMN(S25:AL25)),IF(S25:AL25&lt;=0,COLUMN(S25:AL25))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
       <c r="L25" s="13"/>
       <c r="M25" s="13"/>
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
       <c r="P25" s="14"/>
       <c r="Q25" s="15">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R25" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">-I Say Hi, Help a friend!, Full Combo, </v>
-      </c>
-      <c r="S25" s="16">
-        <v>3</v>
-      </c>
-      <c r="T25" s="16">
-        <v>2</v>
-      </c>
-      <c r="U25" s="16">
-        <v>2</v>
-      </c>
-      <c r="V25" s="16">
-        <v>2</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
       <c r="W25" s="16"/>
       <c r="X25" s="16"/>
       <c r="Y25" s="16"/>
@@ -2526,9 +1869,7 @@
       <c r="AL25" s="16"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
-        <v>102</v>
-      </c>
+      <c r="A26" s="11"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -2537,39 +1878,25 @@
       <c r="G26" s="12"/>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
-      <c r="J26" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="13">
-        <f t="array" ref="K26">IF(MAX(FREQUENCY(IF(S26:AL26&gt;0,COLUMN(S26:AL26)),IF(S26:AL26&lt;=0,COLUMN(S26:AL26))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
       <c r="L26" s="13"/>
       <c r="M26" s="13"/>
       <c r="N26" s="14"/>
       <c r="O26" s="14"/>
       <c r="P26" s="14"/>
       <c r="Q26" s="15">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R26" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S26" s="16">
-        <v>2</v>
-      </c>
-      <c r="T26" s="16">
-        <v>2</v>
-      </c>
-      <c r="U26" s="16">
-        <v>0</v>
-      </c>
-      <c r="V26" s="16">
-        <v>1</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
       <c r="W26" s="16"/>
       <c r="X26" s="16"/>
       <c r="Y26" s="16"/>
@@ -2588,9 +1915,7 @@
       <c r="AL26" s="16"/>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
-        <v>29</v>
-      </c>
+      <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
@@ -2599,39 +1924,25 @@
       <c r="G27" s="12"/>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
-      <c r="J27" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="13">
-        <f t="array" ref="K27">IF(MAX(FREQUENCY(IF(S27:AL27&gt;0,COLUMN(S27:AL27)),IF(S27:AL27&lt;=0,COLUMN(S27:AL27))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
       <c r="P27" s="14"/>
       <c r="Q27" s="15">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R27" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S27" s="16">
-        <v>2</v>
-      </c>
-      <c r="T27" s="16">
-        <v>2</v>
-      </c>
-      <c r="U27" s="16">
-        <v>3</v>
-      </c>
-      <c r="V27" s="16">
-        <v>2</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="16"/>
       <c r="W27" s="16"/>
       <c r="X27" s="16"/>
       <c r="Y27" s="16"/>
@@ -2650,9 +1961,7 @@
       <c r="AL27" s="16"/>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
-        <v>59</v>
-      </c>
+      <c r="A28" s="11"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
@@ -2661,39 +1970,25 @@
       <c r="G28" s="12"/>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
-      <c r="J28" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K28" s="13">
-        <f t="array" ref="K28">IF(MAX(FREQUENCY(IF(S28:AL28&gt;0,COLUMN(S28:AL28)),IF(S28:AL28&lt;=0,COLUMN(S28:AL28))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>
       <c r="P28" s="14"/>
       <c r="Q28" s="15">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R28" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
-      </c>
-      <c r="S28" s="16">
-        <v>3</v>
-      </c>
-      <c r="T28" s="16">
-        <v>3</v>
-      </c>
-      <c r="U28" s="16">
-        <v>3</v>
-      </c>
-      <c r="V28" s="16">
-        <v>1</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
       <c r="W28" s="16"/>
       <c r="X28" s="16"/>
       <c r="Y28" s="16"/>
@@ -2712,52 +2007,34 @@
       <c r="AL28" s="16"/>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
-        <v>68</v>
-      </c>
+      <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="13">
-        <v>1</v>
-      </c>
+      <c r="H29" s="13"/>
       <c r="I29" s="13"/>
-      <c r="J29" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K29" s="13">
-        <f t="array" ref="K29">IF(MAX(FREQUENCY(IF(S29:AL29&gt;0,COLUMN(S29:AL29)),IF(S29:AL29&lt;=0,COLUMN(S29:AL29))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
       <c r="P29" s="14"/>
       <c r="Q29" s="15">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R29" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">-Full Combo, Three-Star Wonder, </v>
-      </c>
-      <c r="S29" s="16">
-        <v>3</v>
-      </c>
-      <c r="T29" s="16">
-        <v>4</v>
-      </c>
-      <c r="U29" s="16">
-        <v>4</v>
-      </c>
-      <c r="V29" s="16">
-        <v>3</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="16"/>
       <c r="W29" s="16"/>
       <c r="X29" s="16"/>
       <c r="Y29" s="16"/>
@@ -2776,9 +2053,7 @@
       <c r="AL29" s="16"/>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
-        <v>52</v>
-      </c>
+      <c r="A30" s="11"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
@@ -2787,39 +2062,25 @@
       <c r="G30" s="12"/>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
-      <c r="J30" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K30" s="13">
-        <f t="array" ref="K30">IF(MAX(FREQUENCY(IF(S30:AL30&gt;0,COLUMN(S30:AL30)),IF(S30:AL30&lt;=0,COLUMN(S30:AL30))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
       <c r="L30" s="13"/>
       <c r="M30" s="13"/>
       <c r="N30" s="14"/>
       <c r="O30" s="14"/>
       <c r="P30" s="14"/>
       <c r="Q30" s="15">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R30" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
-      </c>
-      <c r="S30" s="16">
-        <v>0</v>
-      </c>
-      <c r="T30" s="16">
-        <v>3</v>
-      </c>
-      <c r="U30" s="16">
-        <v>3</v>
-      </c>
-      <c r="V30" s="16">
-        <v>2</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="16"/>
       <c r="W30" s="16"/>
       <c r="X30" s="16"/>
       <c r="Y30" s="16"/>
@@ -2838,9 +2099,7 @@
       <c r="AL30" s="16"/>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="A31" s="11"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
@@ -2849,39 +2108,25 @@
       <c r="G31" s="12"/>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
-      <c r="J31" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K31" s="13">
-        <f t="array" ref="K31">IF(MAX(FREQUENCY(IF(S31:AL31&gt;0,COLUMN(S31:AL31)),IF(S31:AL31&lt;=0,COLUMN(S31:AL31))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
       <c r="L31" s="13"/>
       <c r="M31" s="13"/>
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
       <c r="P31" s="14"/>
       <c r="Q31" s="15">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R31" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
-      </c>
-      <c r="S31" s="16">
-        <v>0</v>
-      </c>
-      <c r="T31" s="16">
-        <v>3</v>
-      </c>
-      <c r="U31" s="16">
-        <v>3</v>
-      </c>
-      <c r="V31" s="16">
-        <v>2</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="16"/>
       <c r="W31" s="16"/>
       <c r="X31" s="16"/>
       <c r="Y31" s="16"/>
@@ -2900,12 +2145,8 @@
       <c r="AL31" s="16"/>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="12">
-        <v>1</v>
-      </c>
+      <c r="A32" s="11"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
@@ -2913,39 +2154,25 @@
       <c r="G32" s="12"/>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
-      <c r="J32" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="13">
-        <f t="array" ref="K32">IF(MAX(FREQUENCY(IF(S32:AL32&gt;0,COLUMN(S32:AL32)),IF(S32:AL32&lt;=0,COLUMN(S32:AL32))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
       <c r="P32" s="14"/>
       <c r="Q32" s="15">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R32" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">-I Love Math, </v>
-      </c>
-      <c r="S32" s="16">
-        <v>0</v>
-      </c>
-      <c r="T32" s="16">
-        <v>2</v>
-      </c>
-      <c r="U32" s="16">
-        <v>2</v>
-      </c>
-      <c r="V32" s="16">
-        <v>2</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
       <c r="W32" s="16"/>
       <c r="X32" s="16"/>
       <c r="Y32" s="16"/>
@@ -2964,52 +2191,34 @@
       <c r="AL32" s="16"/>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
-        <v>48</v>
-      </c>
+      <c r="A33" s="11"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
-      <c r="E33" s="12">
-        <v>1</v>
-      </c>
+      <c r="E33" s="12"/>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
-      <c r="J33" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="13">
-        <f t="array" ref="K33">IF(MAX(FREQUENCY(IF(S33:AL33&gt;0,COLUMN(S33:AL33)),IF(S33:AL33&lt;=0,COLUMN(S33:AL33))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
       <c r="N33" s="14"/>
       <c r="O33" s="14"/>
       <c r="P33" s="14"/>
       <c r="Q33" s="15">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R33" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">-Gaming is life, </v>
-      </c>
-      <c r="S33" s="16">
-        <v>0</v>
-      </c>
-      <c r="T33" s="16">
-        <v>2</v>
-      </c>
-      <c r="U33" s="16">
-        <v>2</v>
-      </c>
-      <c r="V33" s="16">
-        <v>2</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
       <c r="W33" s="16"/>
       <c r="X33" s="16"/>
       <c r="Y33" s="16"/>
@@ -3028,9 +2237,7 @@
       <c r="AL33" s="16"/>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A34" s="11" t="s">
-        <v>49</v>
-      </c>
+      <c r="A34" s="11"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
@@ -3039,39 +2246,25 @@
       <c r="G34" s="12"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
-      <c r="J34" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K34" s="13">
-        <f t="array" ref="K34">IF(MAX(FREQUENCY(IF(S34:AL34&gt;0,COLUMN(S34:AL34)),IF(S34:AL34&lt;=0,COLUMN(S34:AL34))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
       <c r="N34" s="14"/>
       <c r="O34" s="14"/>
       <c r="P34" s="14"/>
       <c r="Q34" s="15">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R34" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
-      </c>
-      <c r="S34" s="16">
-        <v>0</v>
-      </c>
-      <c r="T34" s="16">
-        <v>3</v>
-      </c>
-      <c r="U34" s="16">
-        <v>4</v>
-      </c>
-      <c r="V34" s="16">
-        <v>2</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16"/>
       <c r="W34" s="16"/>
       <c r="X34" s="16"/>
       <c r="Y34" s="16"/>
@@ -3090,9 +2283,7 @@
       <c r="AL34" s="16"/>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
-        <v>50</v>
-      </c>
+      <c r="A35" s="11"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
@@ -3101,39 +2292,25 @@
       <c r="G35" s="12"/>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
-      <c r="J35" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K35" s="13">
-        <f t="array" ref="K35">IF(MAX(FREQUENCY(IF(S35:AL35&gt;0,COLUMN(S35:AL35)),IF(S35:AL35&lt;=0,COLUMN(S35:AL35))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
       <c r="L35" s="13"/>
       <c r="M35" s="13"/>
       <c r="N35" s="14"/>
       <c r="O35" s="14"/>
       <c r="P35" s="14"/>
       <c r="Q35" s="15">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R35" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
-      </c>
-      <c r="S35" s="16">
-        <v>0</v>
-      </c>
-      <c r="T35" s="16">
-        <v>3</v>
-      </c>
-      <c r="U35" s="16">
-        <v>3</v>
-      </c>
-      <c r="V35" s="16">
-        <v>0</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
       <c r="W35" s="16"/>
       <c r="X35" s="16"/>
       <c r="Y35" s="16"/>
@@ -3152,9 +2329,7 @@
       <c r="AL35" s="16"/>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A36" s="11" t="s">
-        <v>51</v>
-      </c>
+      <c r="A36" s="11"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
@@ -3163,39 +2338,25 @@
       <c r="G36" s="12"/>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
-      <c r="J36" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="13">
-        <f t="array" ref="K36">IF(MAX(FREQUENCY(IF(S36:AL36&gt;0,COLUMN(S36:AL36)),IF(S36:AL36&lt;=0,COLUMN(S36:AL36))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
       <c r="L36" s="13"/>
       <c r="M36" s="13"/>
       <c r="N36" s="14"/>
       <c r="O36" s="14"/>
       <c r="P36" s="14"/>
       <c r="Q36" s="15">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R36" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S36" s="16">
-        <v>0</v>
-      </c>
-      <c r="T36" s="16">
-        <v>2</v>
-      </c>
-      <c r="U36" s="16">
-        <v>2</v>
-      </c>
-      <c r="V36" s="16">
-        <v>1</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="16"/>
       <c r="W36" s="16"/>
       <c r="X36" s="16"/>
       <c r="Y36" s="16"/>
@@ -3214,9 +2375,7 @@
       <c r="AL36" s="16"/>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
-        <v>54</v>
-      </c>
+      <c r="A37" s="11"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
@@ -3225,39 +2384,25 @@
       <c r="G37" s="12"/>
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
-      <c r="J37" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="13">
-        <f t="array" ref="K37">IF(MAX(FREQUENCY(IF(S37:AL37&gt;0,COLUMN(S37:AL37)),IF(S37:AL37&lt;=0,COLUMN(S37:AL37))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
       <c r="L37" s="13"/>
       <c r="M37" s="13"/>
       <c r="N37" s="14"/>
       <c r="O37" s="14"/>
       <c r="P37" s="14"/>
       <c r="Q37" s="15">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R37" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S37" s="16">
-        <v>0</v>
-      </c>
-      <c r="T37" s="16">
-        <v>3</v>
-      </c>
-      <c r="U37" s="16">
-        <v>2</v>
-      </c>
-      <c r="V37" s="16">
-        <v>2</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S37" s="16"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="16"/>
       <c r="W37" s="16"/>
       <c r="X37" s="16"/>
       <c r="Y37" s="16"/>
@@ -3276,9 +2421,7 @@
       <c r="AL37" s="16"/>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
-        <v>55</v>
-      </c>
+      <c r="A38" s="11"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
@@ -3287,39 +2430,25 @@
       <c r="G38" s="12"/>
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
-      <c r="J38" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="13">
-        <f t="array" ref="K38">IF(MAX(FREQUENCY(IF(S38:AL38&gt;0,COLUMN(S38:AL38)),IF(S38:AL38&lt;=0,COLUMN(S38:AL38))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
       <c r="L38" s="13"/>
       <c r="M38" s="13"/>
       <c r="N38" s="14"/>
       <c r="O38" s="14"/>
       <c r="P38" s="14"/>
       <c r="Q38" s="15">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R38" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S38" s="16">
-        <v>0</v>
-      </c>
-      <c r="T38" s="16">
-        <v>2</v>
-      </c>
-      <c r="U38" s="16">
-        <v>2</v>
-      </c>
-      <c r="V38" s="16">
-        <v>2</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="16"/>
       <c r="W38" s="16"/>
       <c r="X38" s="16"/>
       <c r="Y38" s="16"/>
@@ -3338,9 +2467,7 @@
       <c r="AL38" s="16"/>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
-        <v>57</v>
-      </c>
+      <c r="A39" s="11"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
@@ -3349,39 +2476,25 @@
       <c r="G39" s="12"/>
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
-      <c r="J39" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="13">
-        <f t="array" ref="K39">IF(MAX(FREQUENCY(IF(S39:AL39&gt;0,COLUMN(S39:AL39)),IF(S39:AL39&lt;=0,COLUMN(S39:AL39))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
       <c r="L39" s="13"/>
       <c r="M39" s="13"/>
       <c r="N39" s="14"/>
       <c r="O39" s="14"/>
       <c r="P39" s="14"/>
       <c r="Q39" s="15">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R39" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S39" s="16">
-        <v>0</v>
-      </c>
-      <c r="T39" s="16">
-        <v>3</v>
-      </c>
-      <c r="U39" s="16">
-        <v>2</v>
-      </c>
-      <c r="V39" s="16">
-        <v>2</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
       <c r="W39" s="16"/>
       <c r="X39" s="16"/>
       <c r="Y39" s="16"/>
@@ -3400,9 +2513,7 @@
       <c r="AL39" s="16"/>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A40" s="11" t="s">
-        <v>58</v>
-      </c>
+      <c r="A40" s="11"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
@@ -3411,39 +2522,25 @@
       <c r="G40" s="12"/>
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
-      <c r="J40" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="13">
-        <f t="array" ref="K40">IF(MAX(FREQUENCY(IF(S40:AL40&gt;0,COLUMN(S40:AL40)),IF(S40:AL40&lt;=0,COLUMN(S40:AL40))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
       <c r="L40" s="13"/>
       <c r="M40" s="13"/>
       <c r="N40" s="14"/>
       <c r="O40" s="14"/>
       <c r="P40" s="14"/>
       <c r="Q40" s="15">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R40" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S40" s="16">
-        <v>0</v>
-      </c>
-      <c r="T40" s="16">
-        <v>3</v>
-      </c>
-      <c r="U40" s="16">
-        <v>2</v>
-      </c>
-      <c r="V40" s="16">
-        <v>1</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S40" s="16"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="16"/>
       <c r="W40" s="16"/>
       <c r="X40" s="16"/>
       <c r="Y40" s="16"/>
@@ -3462,9 +2559,7 @@
       <c r="AL40" s="16"/>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A41" s="11" t="s">
-        <v>62</v>
-      </c>
+      <c r="A41" s="11"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
@@ -3473,39 +2568,25 @@
       <c r="G41" s="12"/>
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
-      <c r="J41" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="13">
-        <f t="array" ref="K41">IF(MAX(FREQUENCY(IF(S41:AL41&gt;0,COLUMN(S41:AL41)),IF(S41:AL41&lt;=0,COLUMN(S41:AL41))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
       <c r="L41" s="13"/>
       <c r="M41" s="13"/>
       <c r="N41" s="14"/>
       <c r="O41" s="14"/>
       <c r="P41" s="14"/>
       <c r="Q41" s="15">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R41" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S41" s="16">
-        <v>0</v>
-      </c>
-      <c r="T41" s="16">
-        <v>2</v>
-      </c>
-      <c r="U41" s="16">
-        <v>2</v>
-      </c>
-      <c r="V41" s="16">
-        <v>3</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S41" s="16"/>
+      <c r="T41" s="16"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="16"/>
       <c r="W41" s="16"/>
       <c r="X41" s="16"/>
       <c r="Y41" s="16"/>
@@ -3524,9 +2605,7 @@
       <c r="AL41" s="16"/>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A42" s="11" t="s">
-        <v>66</v>
-      </c>
+      <c r="A42" s="11"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
@@ -3535,39 +2614,25 @@
       <c r="G42" s="12"/>
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
-      <c r="J42" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K42" s="13">
-        <f t="array" ref="K42">IF(MAX(FREQUENCY(IF(S42:AL42&gt;0,COLUMN(S42:AL42)),IF(S42:AL42&lt;=0,COLUMN(S42:AL42))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
       <c r="L42" s="13"/>
       <c r="M42" s="13"/>
       <c r="N42" s="14"/>
       <c r="O42" s="14"/>
       <c r="P42" s="14"/>
       <c r="Q42" s="15">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R42" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
-      </c>
-      <c r="S42" s="16">
-        <v>0</v>
-      </c>
-      <c r="T42" s="16">
-        <v>3</v>
-      </c>
-      <c r="U42" s="16">
-        <v>2</v>
-      </c>
-      <c r="V42" s="16">
-        <v>3</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S42" s="16"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="16"/>
       <c r="W42" s="16"/>
       <c r="X42" s="16"/>
       <c r="Y42" s="16"/>
@@ -3586,9 +2651,7 @@
       <c r="AL42" s="16"/>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A43" s="11" t="s">
-        <v>67</v>
-      </c>
+      <c r="A43" s="11"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
@@ -3597,39 +2660,25 @@
       <c r="G43" s="12"/>
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
-      <c r="J43" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="13">
-        <f t="array" ref="K43">IF(MAX(FREQUENCY(IF(S43:AL43&gt;0,COLUMN(S43:AL43)),IF(S43:AL43&lt;=0,COLUMN(S43:AL43))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
       <c r="L43" s="13"/>
       <c r="M43" s="13"/>
       <c r="N43" s="14"/>
       <c r="O43" s="14"/>
       <c r="P43" s="14"/>
       <c r="Q43" s="15">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R43" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S43" s="16">
-        <v>0</v>
-      </c>
-      <c r="T43" s="16">
-        <v>3</v>
-      </c>
-      <c r="U43" s="16">
-        <v>0</v>
-      </c>
-      <c r="V43" s="16">
-        <v>2</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S43" s="16"/>
+      <c r="T43" s="16"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="16"/>
       <c r="W43" s="16"/>
       <c r="X43" s="16"/>
       <c r="Y43" s="16"/>
@@ -3673,7 +2722,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3683,563 +2732,563 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="str">
-        <f>'2Cou Data'!A4</f>
-        <v>Amarnath</v>
+      <c r="A2">
+        <f>'Sec 1 Data'!A4</f>
+        <v>0</v>
       </c>
       <c r="B2" t="str">
-        <f>'2Cou Data'!R4</f>
-        <v xml:space="preserve">-I Love Math, I Say Hi, Memelord, </v>
+        <f>'Sec 1 Data'!R4</f>
+        <v>-</v>
       </c>
       <c r="C2">
-        <f>'2Cou Data'!Q4</f>
-        <v>8</v>
+        <f>'Sec 1 Data'!Q4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
-        <f>'2Cou Data'!A5</f>
-        <v>Rachael</v>
+      <c r="A3">
+        <f>'Sec 1 Data'!A5</f>
+        <v>0</v>
       </c>
       <c r="B3" t="str">
-        <f>'2Cou Data'!R5</f>
-        <v xml:space="preserve">-Blast to the Past, </v>
+        <f>'Sec 1 Data'!R5</f>
+        <v>-</v>
       </c>
       <c r="C3">
-        <f>'2Cou Data'!Q5</f>
-        <v>6</v>
+        <f>'Sec 1 Data'!Q5</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="str">
-        <f>'2Cou Data'!A6</f>
-        <v>Chuhan</v>
+      <c r="A4">
+        <f>'Sec 1 Data'!A6</f>
+        <v>0</v>
       </c>
       <c r="B4" t="str">
-        <f>'2Cou Data'!R6</f>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <f>'Sec 1 Data'!R6</f>
+        <v>-</v>
       </c>
       <c r="C4">
-        <f>'2Cou Data'!Q6</f>
-        <v>16</v>
+        <f>'Sec 1 Data'!Q6</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="str">
-        <f>'2Cou Data'!A7</f>
-        <v>Gerard</v>
+      <c r="A5">
+        <f>'Sec 1 Data'!A7</f>
+        <v>0</v>
       </c>
       <c r="B5" t="str">
-        <f>'2Cou Data'!R7</f>
+        <f>'Sec 1 Data'!R7</f>
         <v>-</v>
       </c>
       <c r="C5">
-        <f>'2Cou Data'!Q7</f>
-        <v>7</v>
+        <f>'Sec 1 Data'!Q7</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="str">
-        <f>'2Cou Data'!A8</f>
-        <v>Xiang Rong</v>
+      <c r="A6">
+        <f>'Sec 1 Data'!A8</f>
+        <v>0</v>
       </c>
       <c r="B6" t="str">
-        <f>'2Cou Data'!R8</f>
+        <f>'Sec 1 Data'!R8</f>
         <v>-</v>
       </c>
       <c r="C6">
-        <f>'2Cou Data'!Q8</f>
-        <v>8</v>
+        <f>'Sec 1 Data'!Q8</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="str">
-        <f>'2Cou Data'!A9</f>
-        <v>Zarek</v>
+      <c r="A7">
+        <f>'Sec 1 Data'!A9</f>
+        <v>0</v>
       </c>
       <c r="B7" t="str">
-        <f>'2Cou Data'!R9</f>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <f>'Sec 1 Data'!R9</f>
+        <v>-</v>
       </c>
       <c r="C7">
-        <f>'2Cou Data'!Q9</f>
-        <v>15</v>
+        <f>'Sec 1 Data'!Q9</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="str">
-        <f>'2Cou Data'!A10</f>
-        <v>Jaidern</v>
+      <c r="A8">
+        <f>'Sec 1 Data'!A10</f>
+        <v>0</v>
       </c>
       <c r="B8" t="str">
-        <f>'2Cou Data'!R10</f>
-        <v xml:space="preserve">-Blast to the Past, Memelord, </v>
+        <f>'Sec 1 Data'!R10</f>
+        <v>-</v>
       </c>
       <c r="C8">
-        <f>'2Cou Data'!Q10</f>
-        <v>14</v>
+        <f>'Sec 1 Data'!Q10</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="str">
-        <f>'2Cou Data'!A11</f>
-        <v>Caleb</v>
+      <c r="A9">
+        <f>'Sec 1 Data'!A11</f>
+        <v>0</v>
       </c>
       <c r="B9" t="str">
-        <f>'2Cou Data'!R11</f>
-        <v xml:space="preserve">-Blast to the Past, Three-Star Wonder, Extra Credit, </v>
+        <f>'Sec 1 Data'!R11</f>
+        <v>-</v>
       </c>
       <c r="C9">
-        <f>'2Cou Data'!Q11</f>
-        <v>17</v>
+        <f>'Sec 1 Data'!Q11</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="str">
-        <f>'2Cou Data'!A12</f>
-        <v>Joe</v>
+      <c r="A10">
+        <f>'Sec 1 Data'!A12</f>
+        <v>0</v>
       </c>
       <c r="B10" t="str">
-        <f>'2Cou Data'!R12</f>
+        <f>'Sec 1 Data'!R12</f>
         <v>-</v>
       </c>
       <c r="C10">
-        <f>'2Cou Data'!Q12</f>
-        <v>5</v>
+        <f>'Sec 1 Data'!Q12</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="str">
-        <f>'2Cou Data'!A13</f>
-        <v>Chervel</v>
+      <c r="A11">
+        <f>'Sec 1 Data'!A13</f>
+        <v>0</v>
       </c>
       <c r="B11" t="str">
-        <f>'2Cou Data'!R13</f>
-        <v xml:space="preserve">-I Love Math, I Say Hi, Gaming is life, </v>
+        <f>'Sec 1 Data'!R13</f>
+        <v>-</v>
       </c>
       <c r="C11">
-        <f>'2Cou Data'!Q13</f>
-        <v>13</v>
+        <f>'Sec 1 Data'!Q13</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="str">
-        <f>'2Cou Data'!A14</f>
-        <v>Kerlyn</v>
+      <c r="A12">
+        <f>'Sec 1 Data'!A14</f>
+        <v>0</v>
       </c>
       <c r="B12" t="str">
-        <f>'2Cou Data'!R14</f>
+        <f>'Sec 1 Data'!R14</f>
         <v>-</v>
       </c>
       <c r="C12">
-        <f>'2Cou Data'!Q14</f>
-        <v>7</v>
+        <f>'Sec 1 Data'!Q14</f>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="str">
-        <f>'2Cou Data'!A15</f>
-        <v>Mabel</v>
+      <c r="A13">
+        <f>'Sec 1 Data'!A15</f>
+        <v>0</v>
       </c>
       <c r="B13" t="str">
-        <f>'2Cou Data'!R15</f>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <f>'Sec 1 Data'!R15</f>
+        <v>-</v>
       </c>
       <c r="C13">
-        <f>'2Cou Data'!Q15</f>
-        <v>16</v>
+        <f>'Sec 1 Data'!Q15</f>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="str">
-        <f>'2Cou Data'!A16</f>
-        <v>Alexis</v>
+      <c r="A14">
+        <f>'Sec 1 Data'!A16</f>
+        <v>0</v>
       </c>
       <c r="B14" t="str">
-        <f>'2Cou Data'!R16</f>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <f>'Sec 1 Data'!R16</f>
+        <v>-</v>
       </c>
       <c r="C14">
-        <f>'2Cou Data'!Q16</f>
-        <v>13</v>
+        <f>'Sec 1 Data'!Q16</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="str">
-        <f>'2Cou Data'!A17</f>
-        <v>Destinee</v>
+      <c r="A15">
+        <f>'Sec 1 Data'!A17</f>
+        <v>0</v>
       </c>
       <c r="B15" t="str">
-        <f>'2Cou Data'!R17</f>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <f>'Sec 1 Data'!R17</f>
+        <v>-</v>
       </c>
       <c r="C15">
-        <f>'2Cou Data'!Q17</f>
-        <v>15</v>
+        <f>'Sec 1 Data'!Q17</f>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="str">
-        <f>'2Cou Data'!A18</f>
-        <v>Siri</v>
+      <c r="A16">
+        <f>'Sec 1 Data'!A18</f>
+        <v>0</v>
       </c>
       <c r="B16" t="str">
-        <f>'2Cou Data'!R18</f>
+        <f>'Sec 1 Data'!R18</f>
         <v>-</v>
       </c>
       <c r="C16">
-        <f>'2Cou Data'!Q18</f>
-        <v>6</v>
+        <f>'Sec 1 Data'!Q18</f>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="str">
-        <f>'2Cou Data'!A19</f>
-        <v>Hayden</v>
+      <c r="A17">
+        <f>'Sec 1 Data'!A19</f>
+        <v>0</v>
       </c>
       <c r="B17" t="str">
-        <f>'2Cou Data'!R19</f>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <f>'Sec 1 Data'!R19</f>
+        <v>-</v>
       </c>
       <c r="C17">
-        <f>'2Cou Data'!Q19</f>
-        <v>11</v>
+        <f>'Sec 1 Data'!Q19</f>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="str">
-        <f>'2Cou Data'!A20</f>
-        <v>Zhikei</v>
+      <c r="A18">
+        <f>'Sec 1 Data'!A20</f>
+        <v>0</v>
       </c>
       <c r="B18" t="str">
-        <f>'2Cou Data'!R20</f>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <f>'Sec 1 Data'!R20</f>
+        <v>-</v>
       </c>
       <c r="C18">
-        <f>'2Cou Data'!Q20</f>
-        <v>14</v>
+        <f>'Sec 1 Data'!Q20</f>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="str">
-        <f>'2Cou Data'!A21</f>
-        <v>Chloe</v>
+      <c r="A19">
+        <f>'Sec 1 Data'!A21</f>
+        <v>0</v>
       </c>
       <c r="B19" t="str">
-        <f>'2Cou Data'!R21</f>
+        <f>'Sec 1 Data'!R21</f>
         <v>-</v>
       </c>
       <c r="C19">
-        <f>'2Cou Data'!Q21</f>
-        <v>8</v>
+        <f>'Sec 1 Data'!Q21</f>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="str">
-        <f>'2Cou Data'!A22</f>
-        <v>Yijie</v>
+      <c r="A20">
+        <f>'Sec 1 Data'!A22</f>
+        <v>0</v>
       </c>
       <c r="B20" t="str">
-        <f>'2Cou Data'!R22</f>
+        <f>'Sec 1 Data'!R22</f>
         <v>-</v>
       </c>
       <c r="C20">
-        <f>'2Cou Data'!Q22</f>
-        <v>7</v>
+        <f>'Sec 1 Data'!Q22</f>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="str">
-        <f>'2Cou Data'!A23</f>
-        <v>Jylan</v>
+      <c r="A21">
+        <f>'Sec 1 Data'!A23</f>
+        <v>0</v>
       </c>
       <c r="B21" t="str">
-        <f>'2Cou Data'!R23</f>
+        <f>'Sec 1 Data'!R23</f>
         <v>-</v>
       </c>
       <c r="C21">
-        <f>'2Cou Data'!Q23</f>
-        <v>9</v>
+        <f>'Sec 1 Data'!Q23</f>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="str">
-        <f>'2Cou Data'!A24</f>
-        <v>Zayden</v>
+      <c r="A22">
+        <f>'Sec 1 Data'!A24</f>
+        <v>0</v>
       </c>
       <c r="B22" t="str">
-        <f>'2Cou Data'!R24</f>
-        <v xml:space="preserve">-Help a friend!, </v>
+        <f>'Sec 1 Data'!R24</f>
+        <v>-</v>
       </c>
       <c r="C22">
-        <f>'2Cou Data'!Q24</f>
-        <v>10</v>
+        <f>'Sec 1 Data'!Q24</f>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="str">
-        <f>'2Cou Data'!A25</f>
-        <v>Clarice</v>
+      <c r="A23">
+        <f>'Sec 1 Data'!A25</f>
+        <v>0</v>
       </c>
       <c r="B23" t="str">
-        <f>'2Cou Data'!R25</f>
-        <v xml:space="preserve">-I Say Hi, Help a friend!, Full Combo, </v>
+        <f>'Sec 1 Data'!R25</f>
+        <v>-</v>
       </c>
       <c r="C23">
-        <f>'2Cou Data'!Q25</f>
-        <v>14</v>
+        <f>'Sec 1 Data'!Q25</f>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="str">
-        <f>'2Cou Data'!A26</f>
-        <v>Ethan</v>
+      <c r="A24">
+        <f>'Sec 1 Data'!A26</f>
+        <v>0</v>
       </c>
       <c r="B24" t="str">
-        <f>'2Cou Data'!R26</f>
+        <f>'Sec 1 Data'!R26</f>
         <v>-</v>
       </c>
       <c r="C24">
-        <f>'2Cou Data'!Q26</f>
-        <v>5</v>
+        <f>'Sec 1 Data'!Q26</f>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="str">
-        <f>'2Cou Data'!A27</f>
-        <v>Denzel</v>
+      <c r="A25">
+        <f>'Sec 1 Data'!A27</f>
+        <v>0</v>
       </c>
       <c r="B25" t="str">
-        <f>'2Cou Data'!R27</f>
+        <f>'Sec 1 Data'!R27</f>
         <v>-</v>
       </c>
       <c r="C25">
-        <f>'2Cou Data'!Q27</f>
-        <v>9</v>
+        <f>'Sec 1 Data'!Q27</f>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="str">
-        <f>'2Cou Data'!A28</f>
-        <v>Erin</v>
+      <c r="A26">
+        <f>'Sec 1 Data'!A28</f>
+        <v>0</v>
       </c>
       <c r="B26" t="str">
-        <f>'2Cou Data'!R28</f>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <f>'Sec 1 Data'!R28</f>
+        <v>-</v>
       </c>
       <c r="C26">
-        <f>'2Cou Data'!Q28</f>
-        <v>13</v>
+        <f>'Sec 1 Data'!Q28</f>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="str">
-        <f>'2Cou Data'!A29</f>
-        <v>Kaijie</v>
+      <c r="A27">
+        <f>'Sec 1 Data'!A29</f>
+        <v>0</v>
       </c>
       <c r="B27" t="str">
-        <f>'2Cou Data'!R29</f>
-        <v xml:space="preserve">-Full Combo, Three-Star Wonder, </v>
+        <f>'Sec 1 Data'!R29</f>
+        <v>-</v>
       </c>
       <c r="C27">
-        <f>'2Cou Data'!Q29</f>
-        <v>20</v>
+        <f>'Sec 1 Data'!Q29</f>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="str">
-        <f>'2Cou Data'!A30</f>
-        <v>Joshua</v>
+      <c r="A28">
+        <f>'Sec 1 Data'!A30</f>
+        <v>0</v>
       </c>
       <c r="B28" t="str">
-        <f>'2Cou Data'!R30</f>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <f>'Sec 1 Data'!R30</f>
+        <v>-</v>
       </c>
       <c r="C28">
-        <f>'2Cou Data'!Q30</f>
-        <v>11</v>
+        <f>'Sec 1 Data'!Q30</f>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="str">
-        <f>'2Cou Data'!A31</f>
-        <v>Tristan</v>
+      <c r="A29">
+        <f>'Sec 1 Data'!A31</f>
+        <v>0</v>
       </c>
       <c r="B29" t="str">
-        <f>'2Cou Data'!R31</f>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <f>'Sec 1 Data'!R31</f>
+        <v>-</v>
       </c>
       <c r="C29">
-        <f>'2Cou Data'!Q31</f>
-        <v>11</v>
+        <f>'Sec 1 Data'!Q31</f>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="str">
-        <f>'2Cou Data'!A32</f>
-        <v>Anya</v>
+      <c r="A30">
+        <f>'Sec 1 Data'!A32</f>
+        <v>0</v>
       </c>
       <c r="B30" t="str">
-        <f>'2Cou Data'!R32</f>
-        <v xml:space="preserve">-I Love Math, </v>
+        <f>'Sec 1 Data'!R32</f>
+        <v>-</v>
       </c>
       <c r="C30">
-        <f>'2Cou Data'!Q32</f>
-        <v>7</v>
+        <f>'Sec 1 Data'!Q32</f>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="str">
-        <f>'2Cou Data'!A33</f>
-        <v>Shannon</v>
+      <c r="A31">
+        <f>'Sec 1 Data'!A33</f>
+        <v>0</v>
       </c>
       <c r="B31" t="str">
-        <f>'2Cou Data'!R33</f>
-        <v xml:space="preserve">-Gaming is life, </v>
+        <f>'Sec 1 Data'!R33</f>
+        <v>-</v>
       </c>
       <c r="C31">
-        <f>'2Cou Data'!Q33</f>
-        <v>7</v>
+        <f>'Sec 1 Data'!Q33</f>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="str">
-        <f>'2Cou Data'!A34</f>
-        <v>Yuxin</v>
+      <c r="A32">
+        <f>'Sec 1 Data'!A34</f>
+        <v>0</v>
       </c>
       <c r="B32" t="str">
-        <f>'2Cou Data'!R34</f>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <f>'Sec 1 Data'!R34</f>
+        <v>-</v>
       </c>
       <c r="C32">
-        <f>'2Cou Data'!Q34</f>
-        <v>12</v>
+        <f>'Sec 1 Data'!Q34</f>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="str">
-        <f>'2Cou Data'!A35</f>
-        <v>Shermin</v>
+      <c r="A33">
+        <f>'Sec 1 Data'!A35</f>
+        <v>0</v>
       </c>
       <c r="B33" t="str">
-        <f>'2Cou Data'!R35</f>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <f>'Sec 1 Data'!R35</f>
+        <v>-</v>
       </c>
       <c r="C33">
-        <f>'2Cou Data'!Q35</f>
-        <v>9</v>
+        <f>'Sec 1 Data'!Q35</f>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="str">
-        <f>'2Cou Data'!A36</f>
-        <v>Jovan</v>
+      <c r="A34">
+        <f>'Sec 1 Data'!A36</f>
+        <v>0</v>
       </c>
       <c r="B34" t="str">
-        <f>'2Cou Data'!R36</f>
+        <f>'Sec 1 Data'!R36</f>
         <v>-</v>
       </c>
       <c r="C34">
-        <f>'2Cou Data'!Q36</f>
-        <v>5</v>
+        <f>'Sec 1 Data'!Q36</f>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="str">
-        <f>'2Cou Data'!A37</f>
-        <v>Gina</v>
+      <c r="A35">
+        <f>'Sec 1 Data'!A37</f>
+        <v>0</v>
       </c>
       <c r="B35" t="str">
-        <f>'2Cou Data'!R37</f>
+        <f>'Sec 1 Data'!R37</f>
         <v>-</v>
       </c>
       <c r="C35">
-        <f>'2Cou Data'!Q37</f>
-        <v>7</v>
+        <f>'Sec 1 Data'!Q37</f>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="str">
-        <f>'2Cou Data'!A38</f>
-        <v>Yuxuan</v>
+      <c r="A36">
+        <f>'Sec 1 Data'!A38</f>
+        <v>0</v>
       </c>
       <c r="B36" t="str">
-        <f>'2Cou Data'!R38</f>
+        <f>'Sec 1 Data'!R38</f>
         <v>-</v>
       </c>
       <c r="C36">
-        <f>'2Cou Data'!Q38</f>
-        <v>6</v>
+        <f>'Sec 1 Data'!Q38</f>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="str">
-        <f>'2Cou Data'!A39</f>
-        <v>Guanxin</v>
+      <c r="A37">
+        <f>'Sec 1 Data'!A39</f>
+        <v>0</v>
       </c>
       <c r="B37" t="str">
-        <f>'2Cou Data'!R39</f>
+        <f>'Sec 1 Data'!R39</f>
         <v>-</v>
       </c>
       <c r="C37">
-        <f>'2Cou Data'!Q39</f>
-        <v>7</v>
+        <f>'Sec 1 Data'!Q39</f>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="str">
-        <f>'2Cou Data'!A40</f>
-        <v>Yohana</v>
+      <c r="A38">
+        <f>'Sec 1 Data'!A40</f>
+        <v>0</v>
       </c>
       <c r="B38" t="str">
-        <f>'2Cou Data'!R40</f>
+        <f>'Sec 1 Data'!R40</f>
         <v>-</v>
       </c>
       <c r="C38">
-        <f>'2Cou Data'!Q40</f>
-        <v>6</v>
+        <f>'Sec 1 Data'!Q40</f>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="str">
-        <f>'2Cou Data'!A41</f>
-        <v>Leo</v>
+      <c r="A39">
+        <f>'Sec 1 Data'!A41</f>
+        <v>0</v>
       </c>
       <c r="B39" t="str">
-        <f>'2Cou Data'!R41</f>
+        <f>'Sec 1 Data'!R41</f>
         <v>-</v>
       </c>
       <c r="C39">
-        <f>'2Cou Data'!Q41</f>
-        <v>7</v>
+        <f>'Sec 1 Data'!Q41</f>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="str">
-        <f>'2Cou Data'!A42</f>
-        <v>Kerlyn</v>
+      <c r="A40">
+        <f>'Sec 1 Data'!A42</f>
+        <v>0</v>
       </c>
       <c r="B40" t="str">
-        <f>'2Cou Data'!R42</f>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <f>'Sec 1 Data'!R42</f>
+        <v>-</v>
       </c>
       <c r="C40">
-        <f>'2Cou Data'!Q42</f>
-        <v>11</v>
+        <f>'Sec 1 Data'!Q42</f>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="str">
-        <f>'2Cou Data'!A43</f>
-        <v>Weeyang</v>
+      <c r="A41">
+        <f>'Sec 1 Data'!A43</f>
+        <v>0</v>
       </c>
       <c r="B41" t="str">
-        <f>'2Cou Data'!R43</f>
+        <f>'Sec 1 Data'!R43</f>
         <v>-</v>
       </c>
       <c r="C41">
-        <f>'2Cou Data'!Q43</f>
-        <v>5</v>
+        <f>'Sec 1 Data'!Q43</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4248,13 +3297,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A2BDAFE-D7DA-4F7A-977C-CD8AB5364EE7}">
-  <dimension ref="A1:AL20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848CF460-3EAC-4A7D-8560-52951FCF8A6B}">
+  <dimension ref="A1:AL43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="T17" sqref="T17"/>
-      <selection pane="topRight" activeCell="I32" sqref="I32"/>
+      <selection pane="topRight" activeCell="S4" sqref="S4:U43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4449,9 +3498,7 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="A4" s="11"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -4460,14 +3507,8 @@
       <c r="G4" s="12"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
-      <c r="J4" s="13">
-        <f>IF(COUNTIF(S4:AL4,"&gt;=3")&gt;=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="13">
-        <f t="array" ref="K4">IF(MAX(FREQUENCY(IF(S4:AL4&gt;0,COLUMN(S4:AL4)),IF(S4:AL4&lt;=0,COLUMN(S4:AL4))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
       <c r="N4" s="14"/>
@@ -4475,15 +3516,13 @@
       <c r="P4" s="14"/>
       <c r="Q4" s="15">
         <f>SUM(B4:G4)+3*SUM(H4:M4)+5*SUM(N4:P4)+SUM(S4:AL4)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R4" s="15" t="str">
         <f>CONCATENATE("-",IF(B4=1,$B$3&amp;", ",""),IF(C4=1,$C$3&amp;", ",""),IF(D4=1,$D$3&amp;", ",""),IF(E4=1,$E$3&amp;", ",""),IF(F4=1,$F$3&amp;", ",""),IF(G4=1,$G$3&amp;", ",""),IF(H4=1,$H$3&amp;", ",""),IF(I4=1,$I$3&amp;", ",""),IF(J4=1,$J$3&amp;", ",""),IF(K4=1,$K$3&amp;", ",""),IF(L4=1,$L$3&amp;", ",""),IF(M4=1,$M$3&amp;", ",""),IF(N4=1,$N$3&amp;", ",""),IF(O4=1,$O$3&amp;", ",""),IF(P4=1,$P$3&amp;", ",""))</f>
         <v>-</v>
       </c>
-      <c r="S4" s="16">
-        <v>3</v>
-      </c>
+      <c r="S4" s="16"/>
       <c r="T4" s="16"/>
       <c r="U4" s="16"/>
       <c r="V4" s="16"/>
@@ -4505,9 +3544,7 @@
       <c r="AL4" s="16"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="A5" s="11"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -4516,30 +3553,22 @@
       <c r="G5" s="12"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
-      <c r="J5" s="13">
-        <f t="shared" ref="J5:J20" si="0">IF(COUNTIF(S5:AL5,"&gt;=3")&gt;=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="13">
-        <f t="array" ref="K5">IF(MAX(FREQUENCY(IF(S5:AL5&gt;0,COLUMN(S5:AL5)),IF(S5:AL5&lt;=0,COLUMN(S5:AL5))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="15">
-        <f t="shared" ref="Q5:Q20" si="1">SUM(B5:G5)+3*SUM(H5:L5)+5*SUM(M5:P5)+SUM(S5:AL5)</f>
-        <v>3</v>
+        <f t="shared" ref="Q5:Q43" si="0">SUM(B5:G5)+3*SUM(H5:L5)+5*SUM(M5:P5)+SUM(S5:AL5)</f>
+        <v>0</v>
       </c>
       <c r="R5" s="15" t="str">
-        <f t="shared" ref="R5:R20" si="2">CONCATENATE("-",IF(B5=1,$B$3&amp;", ",""),IF(C5=1,$C$3&amp;", ",""),IF(D5=1,$D$3&amp;", ",""),IF(E5=1,$E$3&amp;", ",""),IF(F5=1,$F$3&amp;", ",""),IF(G5=1,$G$3&amp;", ",""),IF(H5=1,$H$3&amp;", ",""),IF(I5=1,$I$3&amp;", ",""),IF(J5=1,$J$3&amp;", ",""),IF(K5=1,$K$3&amp;", ",""),IF(L5=1,$L$3&amp;", ",""),IF(M5=1,$M$3&amp;", ",""),IF(N5=1,$N$3&amp;", ",""),IF(O5=1,$O$3&amp;", ",""),IF(P5=1,$P$3&amp;", ",""))</f>
-        <v>-</v>
-      </c>
-      <c r="S5" s="16">
-        <v>3</v>
-      </c>
+        <f t="shared" ref="R5:R43" si="1">CONCATENATE("-",IF(B5=1,$B$3&amp;", ",""),IF(C5=1,$C$3&amp;", ",""),IF(D5=1,$D$3&amp;", ",""),IF(E5=1,$E$3&amp;", ",""),IF(F5=1,$F$3&amp;", ",""),IF(G5=1,$G$3&amp;", ",""),IF(H5=1,$H$3&amp;", ",""),IF(I5=1,$I$3&amp;", ",""),IF(J5=1,$J$3&amp;", ",""),IF(K5=1,$K$3&amp;", ",""),IF(L5=1,$L$3&amp;", ",""),IF(M5=1,$M$3&amp;", ",""),IF(N5=1,$N$3&amp;", ",""),IF(O5=1,$O$3&amp;", ",""),IF(P5=1,$P$3&amp;", ",""))</f>
+        <v>-</v>
+      </c>
+      <c r="S5" s="16"/>
       <c r="T5" s="16"/>
       <c r="U5" s="16"/>
       <c r="V5" s="16"/>
@@ -4561,9 +3590,7 @@
       <c r="AL5" s="16"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>34</v>
-      </c>
+      <c r="A6" s="11"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -4572,30 +3599,22 @@
       <c r="G6" s="12"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
-      <c r="J6" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="13">
-        <f t="array" ref="K6">IF(MAX(FREQUENCY(IF(S6:AL6&gt;0,COLUMN(S6:AL6)),IF(S6:AL6&lt;=0,COLUMN(S6:AL6))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
       <c r="Q6" s="15">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R6" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S6" s="16">
-        <v>3</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S6" s="16"/>
       <c r="T6" s="16"/>
       <c r="U6" s="16"/>
       <c r="V6" s="16"/>
@@ -4617,43 +3636,31 @@
       <c r="AL6" s="16"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>35</v>
-      </c>
+      <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="12">
-        <v>1</v>
-      </c>
+      <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="13">
-        <f t="array" ref="K7">IF(MAX(FREQUENCY(IF(S7:AL7&gt;0,COLUMN(S7:AL7)),IF(S7:AL7&lt;=0,COLUMN(S7:AL7))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="15">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R7" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">-Gaming is life, </v>
-      </c>
-      <c r="S7" s="16">
-        <v>2</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S7" s="16"/>
       <c r="T7" s="16"/>
       <c r="U7" s="16"/>
       <c r="V7" s="16"/>
@@ -4675,9 +3682,7 @@
       <c r="AL7" s="16"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>36</v>
-      </c>
+      <c r="A8" s="11"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -4686,30 +3691,22 @@
       <c r="G8" s="12"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="13">
-        <f t="array" ref="K8">IF(MAX(FREQUENCY(IF(S8:AL8&gt;0,COLUMN(S8:AL8)),IF(S8:AL8&lt;=0,COLUMN(S8:AL8))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="15">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R8" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S8" s="16">
-        <v>3</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S8" s="16"/>
       <c r="T8" s="16"/>
       <c r="U8" s="16"/>
       <c r="V8" s="16"/>
@@ -4731,9 +3728,7 @@
       <c r="AL8" s="16"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>37</v>
-      </c>
+      <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -4742,30 +3737,22 @@
       <c r="G9" s="12"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
-      <c r="J9" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="13">
-        <f t="array" ref="K9">IF(MAX(FREQUENCY(IF(S9:AL9&gt;0,COLUMN(S9:AL9)),IF(S9:AL9&lt;=0,COLUMN(S9:AL9))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
       <c r="Q9" s="15">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R9" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S9" s="16">
-        <v>3</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S9" s="16"/>
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
@@ -4787,43 +3774,31 @@
       <c r="AL9" s="16"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>38</v>
-      </c>
+      <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="13">
-        <v>1</v>
-      </c>
+      <c r="H10" s="13"/>
       <c r="I10" s="13"/>
-      <c r="J10" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="13">
-        <f t="array" ref="K10">IF(MAX(FREQUENCY(IF(S10:AL10&gt;0,COLUMN(S10:AL10)),IF(S10:AL10&lt;=0,COLUMN(S10:AL10))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="15">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R10" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">-Full Combo, </v>
-      </c>
-      <c r="S10" s="16">
-        <v>3</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S10" s="16"/>
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
       <c r="V10" s="16"/>
@@ -4845,9 +3820,7 @@
       <c r="AL10" s="16"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>39</v>
-      </c>
+      <c r="A11" s="11"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -4856,30 +3829,22 @@
       <c r="G11" s="12"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
-      <c r="J11" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="13">
-        <f t="array" ref="K11">IF(MAX(FREQUENCY(IF(S11:AL11&gt;0,COLUMN(S11:AL11)),IF(S11:AL11&lt;=0,COLUMN(S11:AL11))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
       <c r="Q11" s="15">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R11" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S11" s="16">
-        <v>2</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S11" s="16"/>
       <c r="T11" s="16"/>
       <c r="U11" s="16"/>
       <c r="V11" s="16"/>
@@ -4901,9 +3866,7 @@
       <c r="AL11" s="16"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>40</v>
-      </c>
+      <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -4912,30 +3875,22 @@
       <c r="G12" s="12"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
-      <c r="J12" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="13">
-        <f t="array" ref="K12">IF(MAX(FREQUENCY(IF(S12:AL12&gt;0,COLUMN(S12:AL12)),IF(S12:AL12&lt;=0,COLUMN(S12:AL12))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
       <c r="N12" s="14"/>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
       <c r="Q12" s="15">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R12" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S12" s="16">
-        <v>2</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S12" s="16"/>
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
@@ -4957,9 +3912,7 @@
       <c r="AL12" s="16"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
-        <v>41</v>
-      </c>
+      <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -4968,30 +3921,22 @@
       <c r="G13" s="12"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
-      <c r="J13" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="13">
-        <f t="array" ref="K13">IF(MAX(FREQUENCY(IF(S13:AL13&gt;0,COLUMN(S13:AL13)),IF(S13:AL13&lt;=0,COLUMN(S13:AL13))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
       <c r="Q13" s="15">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R13" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S13" s="16">
-        <v>3</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S13" s="16"/>
       <c r="T13" s="16"/>
       <c r="U13" s="16"/>
       <c r="V13" s="16"/>
@@ -5013,43 +3958,31 @@
       <c r="AL13" s="16"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
-        <v>42</v>
-      </c>
+      <c r="A14" s="11"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="12">
-        <v>1</v>
-      </c>
+      <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
-      <c r="J14" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="13">
-        <f t="array" ref="K14">IF(MAX(FREQUENCY(IF(S14:AL14&gt;0,COLUMN(S14:AL14)),IF(S14:AL14&lt;=0,COLUMN(S14:AL14))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
       <c r="Q14" s="15">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R14" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">-Gaming is life, </v>
-      </c>
-      <c r="S14" s="16">
-        <v>2</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S14" s="16"/>
       <c r="T14" s="16"/>
       <c r="U14" s="16"/>
       <c r="V14" s="16"/>
@@ -5071,9 +4004,7 @@
       <c r="AL14" s="16"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>43</v>
-      </c>
+      <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -5082,30 +4013,22 @@
       <c r="G15" s="12"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
-      <c r="J15" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="13">
-        <f t="array" ref="K15">IF(MAX(FREQUENCY(IF(S15:AL15&gt;0,COLUMN(S15:AL15)),IF(S15:AL15&lt;=0,COLUMN(S15:AL15))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="15">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R15" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S15" s="16">
-        <v>3</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S15" s="16"/>
       <c r="T15" s="16"/>
       <c r="U15" s="16"/>
       <c r="V15" s="16"/>
@@ -5127,9 +4050,7 @@
       <c r="AL15" s="16"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>44</v>
-      </c>
+      <c r="A16" s="11"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -5138,30 +4059,22 @@
       <c r="G16" s="12"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
-      <c r="J16" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="13">
-        <f t="array" ref="K16">IF(MAX(FREQUENCY(IF(S16:AL16&gt;0,COLUMN(S16:AL16)),IF(S16:AL16&lt;=0,COLUMN(S16:AL16))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="15">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R16" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S16" s="16">
-        <v>3</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S16" s="16"/>
       <c r="T16" s="16"/>
       <c r="U16" s="16"/>
       <c r="V16" s="16"/>
@@ -5183,43 +4096,31 @@
       <c r="AL16" s="16"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
-        <v>45</v>
-      </c>
+      <c r="A17" s="11"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="13">
-        <v>1</v>
-      </c>
+      <c r="H17" s="13"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="13">
-        <f t="array" ref="K17">IF(MAX(FREQUENCY(IF(S17:AL17&gt;0,COLUMN(S17:AL17)),IF(S17:AL17&lt;=0,COLUMN(S17:AL17))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
       <c r="N17" s="14"/>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
       <c r="Q17" s="15">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R17" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">-Full Combo, </v>
-      </c>
-      <c r="S17" s="16">
-        <v>3</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S17" s="16"/>
       <c r="T17" s="16"/>
       <c r="U17" s="16"/>
       <c r="V17" s="16"/>
@@ -5241,9 +4142,7 @@
       <c r="AL17" s="16"/>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
-        <v>15</v>
-      </c>
+      <c r="A18" s="11"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -5252,25 +4151,19 @@
       <c r="G18" s="12"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
-      <c r="J18" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="13">
-        <f t="array" ref="K18">IF(MAX(FREQUENCY(IF(S18:AL18&gt;0,COLUMN(S18:AL18)),IF(S18:AL18&lt;=0,COLUMN(S18:AL18))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
       <c r="N18" s="14"/>
       <c r="O18" s="14"/>
       <c r="P18" s="14"/>
       <c r="Q18" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R18" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="S18" s="16"/>
@@ -5295,9 +4188,7 @@
       <c r="AL18" s="16"/>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
-        <v>16</v>
-      </c>
+      <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -5306,25 +4197,19 @@
       <c r="G19" s="12"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="13">
-        <f t="array" ref="K19">IF(MAX(FREQUENCY(IF(S19:AL19&gt;0,COLUMN(S19:AL19)),IF(S19:AL19&lt;=0,COLUMN(S19:AL19))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
       <c r="P19" s="14"/>
       <c r="Q19" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R19" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="S19" s="16"/>
@@ -5349,9 +4234,7 @@
       <c r="AL19" s="16"/>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A20" s="11">
-        <v>17</v>
-      </c>
+      <c r="A20" s="11"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -5360,25 +4243,19 @@
       <c r="G20" s="12"/>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
-      <c r="J20" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="13">
-        <f t="array" ref="K20">IF(MAX(FREQUENCY(IF(S20:AL20&gt;0,COLUMN(S20:AL20)),IF(S20:AL20&lt;=0,COLUMN(S20:AL20))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
       <c r="N20" s="14"/>
       <c r="O20" s="14"/>
       <c r="P20" s="14"/>
       <c r="Q20" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R20" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="S20" s="16"/>
@@ -5402,1497 +4279,8 @@
       <c r="AK20" s="16"/>
       <c r="AL20" s="16"/>
     </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="S2:AL2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B2:G2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D4A0D9-6E2F-42AC-B3E6-5121257CA31E}">
-  <dimension ref="A1:C18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="str">
-        <f>'3Exp Data'!A4</f>
-        <v>XueWen</v>
-      </c>
-      <c r="B2" t="str">
-        <f>'3Exp Data'!R4</f>
-        <v>-</v>
-      </c>
-      <c r="C2">
-        <f>'3Exp Data'!Q4</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
-        <f>'3Exp Data'!A5</f>
-        <v>Dean</v>
-      </c>
-      <c r="B3" t="str">
-        <f>'3Exp Data'!R5</f>
-        <v>-</v>
-      </c>
-      <c r="C3">
-        <f>'3Exp Data'!Q5</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="str">
-        <f>'3Exp Data'!A6</f>
-        <v>Angelo</v>
-      </c>
-      <c r="B4" t="str">
-        <f>'3Exp Data'!R6</f>
-        <v>-</v>
-      </c>
-      <c r="C4">
-        <f>'3Exp Data'!Q6</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="str">
-        <f>'3Exp Data'!A7</f>
-        <v>Kyle</v>
-      </c>
-      <c r="B5" t="str">
-        <f>'3Exp Data'!R7</f>
-        <v xml:space="preserve">-Gaming is life, </v>
-      </c>
-      <c r="C5">
-        <f>'3Exp Data'!Q7</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="str">
-        <f>'3Exp Data'!A8</f>
-        <v>Jayden</v>
-      </c>
-      <c r="B6" t="str">
-        <f>'3Exp Data'!R8</f>
-        <v>-</v>
-      </c>
-      <c r="C6">
-        <f>'3Exp Data'!Q8</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="str">
-        <f>'3Exp Data'!A9</f>
-        <v>Auston</v>
-      </c>
-      <c r="B7" t="str">
-        <f>'3Exp Data'!R9</f>
-        <v>-</v>
-      </c>
-      <c r="C7">
-        <f>'3Exp Data'!Q9</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="str">
-        <f>'3Exp Data'!A10</f>
-        <v>Jia Xiang</v>
-      </c>
-      <c r="B8" t="str">
-        <f>'3Exp Data'!R10</f>
-        <v xml:space="preserve">-Full Combo, </v>
-      </c>
-      <c r="C8">
-        <f>'3Exp Data'!Q10</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="str">
-        <f>'3Exp Data'!A11</f>
-        <v>Faith</v>
-      </c>
-      <c r="B9" t="str">
-        <f>'3Exp Data'!R11</f>
-        <v>-</v>
-      </c>
-      <c r="C9">
-        <f>'3Exp Data'!Q11</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="str">
-        <f>'3Exp Data'!A12</f>
-        <v>Hiroshi</v>
-      </c>
-      <c r="B10" t="str">
-        <f>'3Exp Data'!R12</f>
-        <v>-</v>
-      </c>
-      <c r="C10">
-        <f>'3Exp Data'!Q12</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="str">
-        <f>'3Exp Data'!A13</f>
-        <v>Luke</v>
-      </c>
-      <c r="B11" t="str">
-        <f>'3Exp Data'!R13</f>
-        <v>-</v>
-      </c>
-      <c r="C11">
-        <f>'3Exp Data'!Q13</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="str">
-        <f>'3Exp Data'!A14</f>
-        <v>Alicia</v>
-      </c>
-      <c r="B12" t="str">
-        <f>'3Exp Data'!R14</f>
-        <v xml:space="preserve">-Gaming is life, </v>
-      </c>
-      <c r="C12">
-        <f>'3Exp Data'!Q14</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="str">
-        <f>'3Exp Data'!A15</f>
-        <v>Rayden</v>
-      </c>
-      <c r="B13" t="str">
-        <f>'3Exp Data'!R15</f>
-        <v>-</v>
-      </c>
-      <c r="C13">
-        <f>'3Exp Data'!Q15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="str">
-        <f>'3Exp Data'!A16</f>
-        <v>Darren</v>
-      </c>
-      <c r="B14" t="str">
-        <f>'3Exp Data'!R16</f>
-        <v>-</v>
-      </c>
-      <c r="C14">
-        <f>'3Exp Data'!Q16</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="str">
-        <f>'3Exp Data'!A17</f>
-        <v>Lucas</v>
-      </c>
-      <c r="B15" t="str">
-        <f>'3Exp Data'!R17</f>
-        <v xml:space="preserve">-Full Combo, </v>
-      </c>
-      <c r="C15">
-        <f>'3Exp Data'!Q17</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <f>'3Exp Data'!A18</f>
-        <v>15</v>
-      </c>
-      <c r="B16" t="str">
-        <f>'3Exp Data'!R18</f>
-        <v>-</v>
-      </c>
-      <c r="C16">
-        <f>'3Exp Data'!Q18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <f>'3Exp Data'!A19</f>
-        <v>16</v>
-      </c>
-      <c r="B17" t="str">
-        <f>'3Exp Data'!R19</f>
-        <v>-</v>
-      </c>
-      <c r="C17">
-        <f>'3Exp Data'!Q19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <f>'3Exp Data'!A20</f>
-        <v>17</v>
-      </c>
-      <c r="B18" t="str">
-        <f>'3Exp Data'!R20</f>
-        <v>-</v>
-      </c>
-      <c r="C18">
-        <f>'3Exp Data'!Q20</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848CF460-3EAC-4A7D-8560-52951FCF8A6B}">
-  <dimension ref="A1:AL43"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection activeCell="T17" sqref="T17"/>
-      <selection pane="topRight" activeCell="V25" sqref="V25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.44140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.88671875" style="8"/>
-    <col min="20" max="37" width="8.88671875" style="9"/>
-    <col min="38" max="38" width="8.88671875" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="B2" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="35"/>
-      <c r="P2" s="36"/>
-      <c r="S2" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q3" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="R3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="T3" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="U3" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="V3" s="22">
-        <v>4</v>
-      </c>
-      <c r="W3" s="22">
-        <v>5</v>
-      </c>
-      <c r="X3" s="22">
-        <v>6</v>
-      </c>
-      <c r="Y3" s="22">
-        <v>7</v>
-      </c>
-      <c r="Z3" s="22">
-        <v>8</v>
-      </c>
-      <c r="AA3" s="22">
-        <v>9</v>
-      </c>
-      <c r="AB3" s="22">
-        <v>10</v>
-      </c>
-      <c r="AC3" s="22">
-        <v>11</v>
-      </c>
-      <c r="AD3" s="22">
-        <v>12</v>
-      </c>
-      <c r="AE3" s="22">
-        <v>13</v>
-      </c>
-      <c r="AF3" s="22">
-        <v>14</v>
-      </c>
-      <c r="AG3" s="22">
-        <v>15</v>
-      </c>
-      <c r="AH3" s="22">
-        <v>16</v>
-      </c>
-      <c r="AI3" s="22">
-        <v>17</v>
-      </c>
-      <c r="AJ3" s="22">
-        <v>18</v>
-      </c>
-      <c r="AK3" s="22">
-        <v>19</v>
-      </c>
-      <c r="AL3" s="22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13">
-        <f>IF(COUNTIF(S4:AL4,"&gt;=3")&gt;=2,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="K4" s="13">
-        <f t="array" ref="K4">IF(MAX(FREQUENCY(IF(S4:AL4&gt;0,COLUMN(S4:AL4)),IF(S4:AL4&lt;=0,COLUMN(S4:AL4))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="15">
-        <f>SUM(B4:G4)+3*SUM(H4:M4)+5*SUM(N4:P4)+SUM(S4:AL4)</f>
-        <v>9</v>
-      </c>
-      <c r="R4" s="15" t="str">
-        <f>CONCATENATE("-",IF(B4=1,$B$3&amp;", ",""),IF(C4=1,$C$3&amp;", ",""),IF(D4=1,$D$3&amp;", ",""),IF(E4=1,$E$3&amp;", ",""),IF(F4=1,$F$3&amp;", ",""),IF(G4=1,$G$3&amp;", ",""),IF(H4=1,$H$3&amp;", ",""),IF(I4=1,$I$3&amp;", ",""),IF(J4=1,$J$3&amp;", ",""),IF(K4=1,$K$3&amp;", ",""),IF(L4=1,$L$3&amp;", ",""),IF(M4=1,$M$3&amp;", ",""),IF(N4=1,$N$3&amp;", ",""),IF(O4=1,$O$3&amp;", ",""),IF(P4=1,$P$3&amp;", ",""))</f>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
-      </c>
-      <c r="S4" s="16">
-        <v>3</v>
-      </c>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16">
-        <v>3</v>
-      </c>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="16"/>
-      <c r="AD4" s="16"/>
-      <c r="AE4" s="16"/>
-      <c r="AF4" s="16"/>
-      <c r="AG4" s="16"/>
-      <c r="AH4" s="16"/>
-      <c r="AI4" s="16"/>
-      <c r="AJ4" s="16"/>
-      <c r="AK4" s="16"/>
-      <c r="AL4" s="16"/>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12">
-        <v>1</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13">
-        <f t="shared" ref="J5:J43" si="0">IF(COUNTIF(S5:AL5,"&gt;=3")&gt;=2,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="K5" s="13">
-        <f t="array" ref="K5">IF(MAX(FREQUENCY(IF(S5:AL5&gt;0,COLUMN(S5:AL5)),IF(S5:AL5&lt;=0,COLUMN(S5:AL5))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="13">
-        <v>1</v>
-      </c>
-      <c r="M5" s="13"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="15">
-        <f t="shared" ref="Q5:Q43" si="1">SUM(B5:G5)+3*SUM(H5:L5)+5*SUM(M5:P5)+SUM(S5:AL5)</f>
-        <v>15</v>
-      </c>
-      <c r="R5" s="15" t="str">
-        <f t="shared" ref="R5:R43" si="2">CONCATENATE("-",IF(B5=1,$B$3&amp;", ",""),IF(C5=1,$C$3&amp;", ",""),IF(D5=1,$D$3&amp;", ",""),IF(E5=1,$E$3&amp;", ",""),IF(F5=1,$F$3&amp;", ",""),IF(G5=1,$G$3&amp;", ",""),IF(H5=1,$H$3&amp;", ",""),IF(I5=1,$I$3&amp;", ",""),IF(J5=1,$J$3&amp;", ",""),IF(K5=1,$K$3&amp;", ",""),IF(L5=1,$L$3&amp;", ",""),IF(M5=1,$M$3&amp;", ",""),IF(N5=1,$N$3&amp;", ",""),IF(O5=1,$O$3&amp;", ",""),IF(P5=1,$P$3&amp;", ",""))</f>
-        <v xml:space="preserve">-Gaming is life, Three-Star Wonder, Extra Credit, </v>
-      </c>
-      <c r="S5" s="16">
-        <v>4</v>
-      </c>
-      <c r="T5" s="16">
-        <v>4</v>
-      </c>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="16"/>
-      <c r="AD5" s="16"/>
-      <c r="AE5" s="16"/>
-      <c r="AF5" s="16"/>
-      <c r="AG5" s="16"/>
-      <c r="AH5" s="16"/>
-      <c r="AI5" s="16"/>
-      <c r="AJ5" s="16"/>
-      <c r="AK5" s="16"/>
-      <c r="AL5" s="16"/>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12">
-        <v>1</v>
-      </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K6" s="13">
-        <f t="array" ref="K6">IF(MAX(FREQUENCY(IF(S6:AL6&gt;0,COLUMN(S6:AL6)),IF(S6:AL6&lt;=0,COLUMN(S6:AL6))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="13">
-        <v>1</v>
-      </c>
-      <c r="M6" s="13"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="15">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="R6" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">-Gaming is life, Three-Star Wonder, Extra Credit, </v>
-      </c>
-      <c r="S6" s="16">
-        <v>3</v>
-      </c>
-      <c r="T6" s="16">
-        <v>4</v>
-      </c>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="16"/>
-      <c r="AD6" s="16"/>
-      <c r="AE6" s="16"/>
-      <c r="AF6" s="16"/>
-      <c r="AG6" s="16"/>
-      <c r="AH6" s="16"/>
-      <c r="AI6" s="16"/>
-      <c r="AJ6" s="16"/>
-      <c r="AK6" s="16"/>
-      <c r="AL6" s="16"/>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K7" s="13">
-        <f t="array" ref="K7">IF(MAX(FREQUENCY(IF(S7:AL7&gt;0,COLUMN(S7:AL7)),IF(S7:AL7&lt;=0,COLUMN(S7:AL7))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="15">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="R7" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
-      </c>
-      <c r="S7" s="16">
-        <v>3</v>
-      </c>
-      <c r="T7" s="16">
-        <v>4</v>
-      </c>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="16"/>
-      <c r="AC7" s="16"/>
-      <c r="AD7" s="16"/>
-      <c r="AE7" s="16"/>
-      <c r="AF7" s="16"/>
-      <c r="AG7" s="16"/>
-      <c r="AH7" s="16"/>
-      <c r="AI7" s="16"/>
-      <c r="AJ7" s="16"/>
-      <c r="AK7" s="16"/>
-      <c r="AL7" s="16"/>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="13">
-        <f t="array" ref="K8">IF(MAX(FREQUENCY(IF(S8:AL8&gt;0,COLUMN(S8:AL8)),IF(S8:AL8&lt;=0,COLUMN(S8:AL8))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="15">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="R8" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S8" s="16">
-        <v>2</v>
-      </c>
-      <c r="T8" s="16">
-        <v>3</v>
-      </c>
-      <c r="U8" s="16">
-        <v>2</v>
-      </c>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="16"/>
-      <c r="AA8" s="16"/>
-      <c r="AB8" s="16"/>
-      <c r="AC8" s="16"/>
-      <c r="AD8" s="16"/>
-      <c r="AE8" s="16"/>
-      <c r="AF8" s="16"/>
-      <c r="AG8" s="16"/>
-      <c r="AH8" s="16"/>
-      <c r="AI8" s="16"/>
-      <c r="AJ8" s="16"/>
-      <c r="AK8" s="16"/>
-      <c r="AL8" s="16"/>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13">
-        <v>1</v>
-      </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K9" s="13">
-        <f t="array" ref="K9">IF(MAX(FREQUENCY(IF(S9:AL9&gt;0,COLUMN(S9:AL9)),IF(S9:AL9&lt;=0,COLUMN(S9:AL9))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="15">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="R9" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">-Full Combo, Three-Star Wonder, </v>
-      </c>
-      <c r="S9" s="16">
-        <v>4</v>
-      </c>
-      <c r="T9" s="16">
-        <v>4</v>
-      </c>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="16"/>
-      <c r="AE9" s="16"/>
-      <c r="AF9" s="16"/>
-      <c r="AG9" s="16"/>
-      <c r="AH9" s="16"/>
-      <c r="AI9" s="16"/>
-      <c r="AJ9" s="16"/>
-      <c r="AK9" s="16"/>
-      <c r="AL9" s="16"/>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K10" s="13">
-        <f t="array" ref="K10">IF(MAX(FREQUENCY(IF(S10:AL10&gt;0,COLUMN(S10:AL10)),IF(S10:AL10&lt;=0,COLUMN(S10:AL10))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="15">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="R10" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
-      </c>
-      <c r="S10" s="16">
-        <v>4</v>
-      </c>
-      <c r="T10" s="16">
-        <v>4</v>
-      </c>
-      <c r="U10" s="16">
-        <v>3</v>
-      </c>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="16"/>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="16"/>
-      <c r="AG10" s="16"/>
-      <c r="AH10" s="16"/>
-      <c r="AI10" s="16"/>
-      <c r="AJ10" s="16"/>
-      <c r="AK10" s="16"/>
-      <c r="AL10" s="16"/>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="13">
-        <f t="array" ref="K11">IF(MAX(FREQUENCY(IF(S11:AL11&gt;0,COLUMN(S11:AL11)),IF(S11:AL11&lt;=0,COLUMN(S11:AL11))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="15">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="R11" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S11" s="16">
-        <v>3</v>
-      </c>
-      <c r="T11" s="16">
-        <v>1</v>
-      </c>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="16"/>
-      <c r="AD11" s="16"/>
-      <c r="AE11" s="16"/>
-      <c r="AF11" s="16"/>
-      <c r="AG11" s="16"/>
-      <c r="AH11" s="16"/>
-      <c r="AI11" s="16"/>
-      <c r="AJ11" s="16"/>
-      <c r="AK11" s="16"/>
-      <c r="AL11" s="16"/>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13">
-        <v>1</v>
-      </c>
-      <c r="I12" s="13">
-        <v>1</v>
-      </c>
-      <c r="J12" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K12" s="13">
-        <f t="array" ref="K12">IF(MAX(FREQUENCY(IF(S12:AL12&gt;0,COLUMN(S12:AL12)),IF(S12:AL12&lt;=0,COLUMN(S12:AL12))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="15">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="R12" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">-Full Combo, Math Ambassador, Three-Star Wonder, </v>
-      </c>
-      <c r="S12" s="16">
-        <v>4</v>
-      </c>
-      <c r="T12" s="16">
-        <v>4</v>
-      </c>
-      <c r="U12" s="16">
-        <v>3</v>
-      </c>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="16"/>
-      <c r="AE12" s="16"/>
-      <c r="AF12" s="16"/>
-      <c r="AG12" s="16"/>
-      <c r="AH12" s="16"/>
-      <c r="AI12" s="16"/>
-      <c r="AJ12" s="16"/>
-      <c r="AK12" s="16"/>
-      <c r="AL12" s="16"/>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="13">
-        <f t="array" ref="K13">IF(MAX(FREQUENCY(IF(S13:AL13&gt;0,COLUMN(S13:AL13)),IF(S13:AL13&lt;=0,COLUMN(S13:AL13))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="15">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="R13" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S13" s="16">
-        <v>2</v>
-      </c>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16">
-        <v>2</v>
-      </c>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="16"/>
-      <c r="AE13" s="16"/>
-      <c r="AF13" s="16"/>
-      <c r="AG13" s="16"/>
-      <c r="AH13" s="16"/>
-      <c r="AI13" s="16"/>
-      <c r="AJ13" s="16"/>
-      <c r="AK13" s="16"/>
-      <c r="AL13" s="16"/>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="13">
-        <f t="array" ref="K14">IF(MAX(FREQUENCY(IF(S14:AL14&gt;0,COLUMN(S14:AL14)),IF(S14:AL14&lt;=0,COLUMN(S14:AL14))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="15">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="R14" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S14" s="16">
-        <v>3</v>
-      </c>
-      <c r="T14" s="16">
-        <v>1</v>
-      </c>
-      <c r="U14" s="16">
-        <v>2</v>
-      </c>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="16"/>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="16"/>
-      <c r="AE14" s="16"/>
-      <c r="AF14" s="16"/>
-      <c r="AG14" s="16"/>
-      <c r="AH14" s="16"/>
-      <c r="AI14" s="16"/>
-      <c r="AJ14" s="16"/>
-      <c r="AK14" s="16"/>
-      <c r="AL14" s="16"/>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="13">
-        <f t="array" ref="K15">IF(MAX(FREQUENCY(IF(S15:AL15&gt;0,COLUMN(S15:AL15)),IF(S15:AL15&lt;=0,COLUMN(S15:AL15))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="15">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="R15" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S15" s="16">
-        <v>2</v>
-      </c>
-      <c r="T15" s="16">
-        <v>1</v>
-      </c>
-      <c r="U15" s="16">
-        <v>1</v>
-      </c>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="16"/>
-      <c r="AA15" s="16"/>
-      <c r="AB15" s="16"/>
-      <c r="AC15" s="16"/>
-      <c r="AD15" s="16"/>
-      <c r="AE15" s="16"/>
-      <c r="AF15" s="16"/>
-      <c r="AG15" s="16"/>
-      <c r="AH15" s="16"/>
-      <c r="AI15" s="16"/>
-      <c r="AJ15" s="16"/>
-      <c r="AK15" s="16"/>
-      <c r="AL15" s="16"/>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13">
-        <v>1</v>
-      </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K16" s="13">
-        <f t="array" ref="K16">IF(MAX(FREQUENCY(IF(S16:AL16&gt;0,COLUMN(S16:AL16)),IF(S16:AL16&lt;=0,COLUMN(S16:AL16))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="15">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="R16" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">-Full Combo, Three-Star Wonder, </v>
-      </c>
-      <c r="S16" s="16">
-        <v>4</v>
-      </c>
-      <c r="T16" s="16">
-        <v>4</v>
-      </c>
-      <c r="U16" s="16">
-        <v>3</v>
-      </c>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="16"/>
-      <c r="AB16" s="16"/>
-      <c r="AC16" s="16"/>
-      <c r="AD16" s="16"/>
-      <c r="AE16" s="16"/>
-      <c r="AF16" s="16"/>
-      <c r="AG16" s="16"/>
-      <c r="AH16" s="16"/>
-      <c r="AI16" s="16"/>
-      <c r="AJ16" s="16"/>
-      <c r="AK16" s="16"/>
-      <c r="AL16" s="16"/>
-    </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="13">
-        <f t="array" ref="K17">IF(MAX(FREQUENCY(IF(S17:AL17&gt;0,COLUMN(S17:AL17)),IF(S17:AL17&lt;=0,COLUMN(S17:AL17))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="15">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="R17" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S17" s="16">
-        <v>3</v>
-      </c>
-      <c r="T17" s="16">
-        <v>1</v>
-      </c>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="16"/>
-      <c r="AC17" s="16"/>
-      <c r="AD17" s="16"/>
-      <c r="AE17" s="16"/>
-      <c r="AF17" s="16"/>
-      <c r="AG17" s="16"/>
-      <c r="AH17" s="16"/>
-      <c r="AI17" s="16"/>
-      <c r="AJ17" s="16"/>
-      <c r="AK17" s="16"/>
-      <c r="AL17" s="16"/>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="13">
-        <f t="array" ref="K18">IF(MAX(FREQUENCY(IF(S18:AL18&gt;0,COLUMN(S18:AL18)),IF(S18:AL18&lt;=0,COLUMN(S18:AL18))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="15">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="R18" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S18" s="16">
-        <v>2</v>
-      </c>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="16"/>
-      <c r="AE18" s="16"/>
-      <c r="AF18" s="16"/>
-      <c r="AG18" s="16"/>
-      <c r="AH18" s="16"/>
-      <c r="AI18" s="16"/>
-      <c r="AJ18" s="16"/>
-      <c r="AK18" s="16"/>
-      <c r="AL18" s="16"/>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="13">
-        <f t="array" ref="K19">IF(MAX(FREQUENCY(IF(S19:AL19&gt;0,COLUMN(S19:AL19)),IF(S19:AL19&lt;=0,COLUMN(S19:AL19))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="15">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R19" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S19" s="16">
-        <v>1</v>
-      </c>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="16"/>
-      <c r="AC19" s="16"/>
-      <c r="AD19" s="16"/>
-      <c r="AE19" s="16"/>
-      <c r="AF19" s="16"/>
-      <c r="AG19" s="16"/>
-      <c r="AH19" s="16"/>
-      <c r="AI19" s="16"/>
-      <c r="AJ19" s="16"/>
-      <c r="AK19" s="16"/>
-      <c r="AL19" s="16"/>
-    </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K20" s="13">
-        <f t="array" ref="K20">IF(MAX(FREQUENCY(IF(S20:AL20&gt;0,COLUMN(S20:AL20)),IF(S20:AL20&lt;=0,COLUMN(S20:AL20))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="15">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="R20" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
-      </c>
-      <c r="S20" s="16">
-        <v>3</v>
-      </c>
-      <c r="T20" s="16">
-        <v>3</v>
-      </c>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="16"/>
-      <c r="AA20" s="16"/>
-      <c r="AB20" s="16"/>
-      <c r="AC20" s="16"/>
-      <c r="AD20" s="16"/>
-      <c r="AE20" s="16"/>
-      <c r="AF20" s="16"/>
-      <c r="AG20" s="16"/>
-      <c r="AH20" s="16"/>
-      <c r="AI20" s="16"/>
-      <c r="AJ20" s="16"/>
-      <c r="AK20" s="16"/>
-      <c r="AL20" s="16"/>
-    </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
-        <v>85</v>
-      </c>
+      <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -6901,36 +4289,24 @@
       <c r="G21" s="12"/>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K21" s="13">
-        <f t="array" ref="K21">IF(MAX(FREQUENCY(IF(S21:AL21&gt;0,COLUMN(S21:AL21)),IF(S21:AL21&lt;=0,COLUMN(S21:AL21))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
       <c r="P21" s="14"/>
       <c r="Q21" s="15">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R21" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
-      </c>
-      <c r="S21" s="16">
-        <v>3</v>
-      </c>
-      <c r="T21" s="16">
-        <v>2</v>
-      </c>
-      <c r="U21" s="16">
-        <v>3</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
       <c r="V21" s="16"/>
       <c r="W21" s="16"/>
       <c r="X21" s="16"/>
@@ -6950,9 +4326,7 @@
       <c r="AL21" s="16"/>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
-        <v>86</v>
-      </c>
+      <c r="A22" s="11"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -6961,33 +4335,23 @@
       <c r="G22" s="12"/>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
-      <c r="J22" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K22" s="13">
-        <f t="array" ref="K22">IF(MAX(FREQUENCY(IF(S22:AL22&gt;0,COLUMN(S22:AL22)),IF(S22:AL22&lt;=0,COLUMN(S22:AL22))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
       <c r="N22" s="14"/>
       <c r="O22" s="14"/>
       <c r="P22" s="14"/>
       <c r="Q22" s="15">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R22" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
-      </c>
-      <c r="S22" s="16">
-        <v>3</v>
-      </c>
-      <c r="T22" s="16">
-        <v>3</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
       <c r="U22" s="16"/>
       <c r="V22" s="16"/>
       <c r="W22" s="16"/>
@@ -7008,9 +4372,7 @@
       <c r="AL22" s="16"/>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
-        <v>87</v>
-      </c>
+      <c r="A23" s="11"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -7019,36 +4381,24 @@
       <c r="G23" s="12"/>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K23" s="13">
-        <f t="array" ref="K23">IF(MAX(FREQUENCY(IF(S23:AL23&gt;0,COLUMN(S23:AL23)),IF(S23:AL23&lt;=0,COLUMN(S23:AL23))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
       <c r="P23" s="14"/>
       <c r="Q23" s="15">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R23" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
-      </c>
-      <c r="S23" s="16">
-        <v>3</v>
-      </c>
-      <c r="T23" s="16">
-        <v>4</v>
-      </c>
-      <c r="U23" s="16">
-        <v>2</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
       <c r="V23" s="16"/>
       <c r="W23" s="16"/>
       <c r="X23" s="16"/>
@@ -7068,9 +4418,7 @@
       <c r="AL23" s="16"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
-        <v>88</v>
-      </c>
+      <c r="A24" s="11"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -7079,36 +4427,24 @@
       <c r="G24" s="12"/>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
-      <c r="J24" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K24" s="13">
-        <f t="array" ref="K24">IF(MAX(FREQUENCY(IF(S24:AL24&gt;0,COLUMN(S24:AL24)),IF(S24:AL24&lt;=0,COLUMN(S24:AL24))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
       <c r="N24" s="14"/>
       <c r="O24" s="14"/>
       <c r="P24" s="14"/>
       <c r="Q24" s="15">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R24" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
-      </c>
-      <c r="S24" s="16">
-        <v>3</v>
-      </c>
-      <c r="T24" s="16">
-        <v>3</v>
-      </c>
-      <c r="U24" s="16">
-        <v>2</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
       <c r="V24" s="16"/>
       <c r="W24" s="16"/>
       <c r="X24" s="16"/>
@@ -7128,9 +4464,7 @@
       <c r="AL24" s="16"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
-        <v>89</v>
-      </c>
+      <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
@@ -7139,33 +4473,23 @@
       <c r="G25" s="12"/>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
-      <c r="J25" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K25" s="13">
-        <f t="array" ref="K25">IF(MAX(FREQUENCY(IF(S25:AL25&gt;0,COLUMN(S25:AL25)),IF(S25:AL25&lt;=0,COLUMN(S25:AL25))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
       <c r="L25" s="13"/>
       <c r="M25" s="13"/>
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
       <c r="P25" s="14"/>
       <c r="Q25" s="15">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R25" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
-      </c>
-      <c r="S25" s="16">
-        <v>3</v>
-      </c>
-      <c r="T25" s="16">
-        <v>4</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
       <c r="U25" s="16"/>
       <c r="V25" s="16"/>
       <c r="W25" s="16"/>
@@ -7186,9 +4510,7 @@
       <c r="AL25" s="16"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
-        <v>90</v>
-      </c>
+      <c r="A26" s="11"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -7197,33 +4519,23 @@
       <c r="G26" s="12"/>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
-      <c r="J26" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K26" s="13">
-        <f t="array" ref="K26">IF(MAX(FREQUENCY(IF(S26:AL26&gt;0,COLUMN(S26:AL26)),IF(S26:AL26&lt;=0,COLUMN(S26:AL26))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
       <c r="L26" s="13"/>
       <c r="M26" s="13"/>
       <c r="N26" s="14"/>
       <c r="O26" s="14"/>
       <c r="P26" s="14"/>
       <c r="Q26" s="15">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R26" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
-      </c>
-      <c r="S26" s="16">
-        <v>4</v>
-      </c>
-      <c r="T26" s="16">
-        <v>4</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
       <c r="U26" s="16"/>
       <c r="V26" s="16"/>
       <c r="W26" s="16"/>
@@ -7244,9 +4556,7 @@
       <c r="AL26" s="16"/>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
-        <v>91</v>
-      </c>
+      <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
@@ -7255,36 +4565,24 @@
       <c r="G27" s="12"/>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
-      <c r="J27" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K27" s="13">
-        <f t="array" ref="K27">IF(MAX(FREQUENCY(IF(S27:AL27&gt;0,COLUMN(S27:AL27)),IF(S27:AL27&lt;=0,COLUMN(S27:AL27))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
       <c r="P27" s="14"/>
       <c r="Q27" s="15">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R27" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
-      </c>
-      <c r="S27" s="16">
-        <v>4</v>
-      </c>
-      <c r="T27" s="16">
-        <v>2</v>
-      </c>
-      <c r="U27" s="16">
-        <v>3</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
       <c r="V27" s="16"/>
       <c r="W27" s="16"/>
       <c r="X27" s="16"/>
@@ -7304,9 +4602,7 @@
       <c r="AL27" s="16"/>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
-        <v>92</v>
-      </c>
+      <c r="A28" s="11"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
@@ -7315,36 +4611,24 @@
       <c r="G28" s="12"/>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
-      <c r="J28" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K28" s="13">
-        <f t="array" ref="K28">IF(MAX(FREQUENCY(IF(S28:AL28&gt;0,COLUMN(S28:AL28)),IF(S28:AL28&lt;=0,COLUMN(S28:AL28))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>
       <c r="P28" s="14"/>
       <c r="Q28" s="15">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R28" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
-      </c>
-      <c r="S28" s="16">
-        <v>3</v>
-      </c>
-      <c r="T28" s="16">
-        <v>3</v>
-      </c>
-      <c r="U28" s="16">
-        <v>2</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
       <c r="V28" s="16"/>
       <c r="W28" s="16"/>
       <c r="X28" s="16"/>
@@ -7364,9 +4648,7 @@
       <c r="AL28" s="16"/>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
-        <v>93</v>
-      </c>
+      <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
@@ -7375,33 +4657,23 @@
       <c r="G29" s="12"/>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
-      <c r="J29" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K29" s="13">
-        <f t="array" ref="K29">IF(MAX(FREQUENCY(IF(S29:AL29&gt;0,COLUMN(S29:AL29)),IF(S29:AL29&lt;=0,COLUMN(S29:AL29))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
       <c r="P29" s="14"/>
       <c r="Q29" s="15">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R29" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
-      </c>
-      <c r="S29" s="16">
-        <v>4</v>
-      </c>
-      <c r="T29" s="16">
-        <v>3</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
       <c r="U29" s="16"/>
       <c r="V29" s="16"/>
       <c r="W29" s="16"/>
@@ -7422,9 +4694,7 @@
       <c r="AL29" s="16"/>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
-        <v>94</v>
-      </c>
+      <c r="A30" s="11"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
@@ -7433,33 +4703,23 @@
       <c r="G30" s="12"/>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
-      <c r="J30" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="13">
-        <f t="array" ref="K30">IF(MAX(FREQUENCY(IF(S30:AL30&gt;0,COLUMN(S30:AL30)),IF(S30:AL30&lt;=0,COLUMN(S30:AL30))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
       <c r="L30" s="13"/>
       <c r="M30" s="13"/>
       <c r="N30" s="14"/>
       <c r="O30" s="14"/>
       <c r="P30" s="14"/>
       <c r="Q30" s="15">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R30" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S30" s="16">
-        <v>3</v>
-      </c>
-      <c r="T30" s="16">
-        <v>2</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
       <c r="U30" s="16"/>
       <c r="V30" s="16"/>
       <c r="W30" s="16"/>
@@ -7480,9 +4740,7 @@
       <c r="AL30" s="16"/>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
-        <v>95</v>
-      </c>
+      <c r="A31" s="11"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
@@ -7491,30 +4749,22 @@
       <c r="G31" s="12"/>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
-      <c r="J31" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="13">
-        <f t="array" ref="K31">IF(MAX(FREQUENCY(IF(S31:AL31&gt;0,COLUMN(S31:AL31)),IF(S31:AL31&lt;=0,COLUMN(S31:AL31))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
       <c r="L31" s="13"/>
       <c r="M31" s="13"/>
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
       <c r="P31" s="14"/>
       <c r="Q31" s="15">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R31" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S31" s="16">
-        <v>3</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S31" s="16"/>
       <c r="T31" s="16"/>
       <c r="U31" s="16"/>
       <c r="V31" s="16"/>
@@ -7536,9 +4786,7 @@
       <c r="AL31" s="16"/>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
-        <v>96</v>
-      </c>
+      <c r="A32" s="11"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
@@ -7547,30 +4795,22 @@
       <c r="G32" s="12"/>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
-      <c r="J32" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="13">
-        <f t="array" ref="K32">IF(MAX(FREQUENCY(IF(S32:AL32&gt;0,COLUMN(S32:AL32)),IF(S32:AL32&lt;=0,COLUMN(S32:AL32))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
       <c r="P32" s="14"/>
       <c r="Q32" s="15">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R32" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S32" s="16">
-        <v>3</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S32" s="16"/>
       <c r="T32" s="16"/>
       <c r="U32" s="16"/>
       <c r="V32" s="16"/>
@@ -7592,9 +4832,7 @@
       <c r="AL32" s="16"/>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
-        <v>100</v>
-      </c>
+      <c r="A33" s="11"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
@@ -7603,36 +4841,24 @@
       <c r="G33" s="12"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
-      <c r="J33" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K33" s="13">
-        <f t="array" ref="K33">IF(MAX(FREQUENCY(IF(S33:AL33&gt;0,COLUMN(S33:AL33)),IF(S33:AL33&lt;=0,COLUMN(S33:AL33))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
       <c r="N33" s="14"/>
       <c r="O33" s="14"/>
       <c r="P33" s="14"/>
       <c r="Q33" s="15">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R33" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
-      </c>
-      <c r="S33" s="16">
-        <v>3</v>
-      </c>
-      <c r="T33" s="16">
-        <v>3</v>
-      </c>
-      <c r="U33" s="16">
-        <v>2</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
       <c r="V33" s="16"/>
       <c r="W33" s="16"/>
       <c r="X33" s="16"/>
@@ -7652,9 +4878,7 @@
       <c r="AL33" s="16"/>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A34" s="11" t="s">
-        <v>108</v>
-      </c>
+      <c r="A34" s="11"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
@@ -7663,33 +4887,23 @@
       <c r="G34" s="12"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
-      <c r="J34" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K34" s="13">
-        <f t="array" ref="K34">IF(MAX(FREQUENCY(IF(S34:AL34&gt;0,COLUMN(S34:AL34)),IF(S34:AL34&lt;=0,COLUMN(S34:AL34))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
       <c r="N34" s="14"/>
       <c r="O34" s="14"/>
       <c r="P34" s="14"/>
       <c r="Q34" s="15">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R34" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
-      </c>
-      <c r="S34" s="16">
-        <v>3</v>
-      </c>
-      <c r="T34" s="16">
-        <v>4</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
       <c r="U34" s="16"/>
       <c r="V34" s="16"/>
       <c r="W34" s="16"/>
@@ -7710,9 +4924,7 @@
       <c r="AL34" s="16"/>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
-        <v>109</v>
-      </c>
+      <c r="A35" s="11"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
@@ -7721,31 +4933,23 @@
       <c r="G35" s="12"/>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
-      <c r="J35" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="13">
-        <f t="array" ref="K35">IF(MAX(FREQUENCY(IF(S35:AL35&gt;0,COLUMN(S35:AL35)),IF(S35:AL35&lt;=0,COLUMN(S35:AL35))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
       <c r="L35" s="13"/>
       <c r="M35" s="13"/>
       <c r="N35" s="14"/>
       <c r="O35" s="14"/>
       <c r="P35" s="14"/>
       <c r="Q35" s="15">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R35" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="S35" s="16"/>
-      <c r="T35" s="16">
-        <v>3</v>
-      </c>
+      <c r="T35" s="16"/>
       <c r="U35" s="16"/>
       <c r="V35" s="16"/>
       <c r="W35" s="16"/>
@@ -7766,9 +4970,7 @@
       <c r="AL35" s="16"/>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A36" s="11" t="s">
-        <v>110</v>
-      </c>
+      <c r="A36" s="11"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
@@ -7777,31 +4979,23 @@
       <c r="G36" s="12"/>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
-      <c r="J36" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="13">
-        <f t="array" ref="K36">IF(MAX(FREQUENCY(IF(S36:AL36&gt;0,COLUMN(S36:AL36)),IF(S36:AL36&lt;=0,COLUMN(S36:AL36))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
       <c r="L36" s="13"/>
       <c r="M36" s="13"/>
       <c r="N36" s="14"/>
       <c r="O36" s="14"/>
       <c r="P36" s="14"/>
       <c r="Q36" s="15">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R36" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="S36" s="16"/>
-      <c r="T36" s="16">
-        <v>2</v>
-      </c>
+      <c r="T36" s="16"/>
       <c r="U36" s="16"/>
       <c r="V36" s="16"/>
       <c r="W36" s="16"/>
@@ -7822,9 +5016,7 @@
       <c r="AL36" s="16"/>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
-        <v>115</v>
-      </c>
+      <c r="A37" s="11"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
@@ -7833,32 +5025,24 @@
       <c r="G37" s="12"/>
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
-      <c r="J37" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="13">
-        <f t="array" ref="K37">IF(MAX(FREQUENCY(IF(S37:AL37&gt;0,COLUMN(S37:AL37)),IF(S37:AL37&lt;=0,COLUMN(S37:AL37))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
       <c r="L37" s="13"/>
       <c r="M37" s="13"/>
       <c r="N37" s="14"/>
       <c r="O37" s="14"/>
       <c r="P37" s="14"/>
       <c r="Q37" s="15">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R37" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="S37" s="16"/>
       <c r="T37" s="16"/>
-      <c r="U37" s="16">
-        <v>2</v>
-      </c>
+      <c r="U37" s="16"/>
       <c r="V37" s="16"/>
       <c r="W37" s="16"/>
       <c r="X37" s="16"/>
@@ -7878,9 +5062,7 @@
       <c r="AL37" s="16"/>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A38" s="11">
-        <v>35</v>
-      </c>
+      <c r="A38" s="11"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
@@ -7889,25 +5071,19 @@
       <c r="G38" s="12"/>
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
-      <c r="J38" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="13">
-        <f t="array" ref="K38">IF(MAX(FREQUENCY(IF(S38:AL38&gt;0,COLUMN(S38:AL38)),IF(S38:AL38&lt;=0,COLUMN(S38:AL38))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
       <c r="L38" s="13"/>
       <c r="M38" s="13"/>
       <c r="N38" s="14"/>
       <c r="O38" s="14"/>
       <c r="P38" s="14"/>
       <c r="Q38" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R38" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="S38" s="16"/>
@@ -7932,9 +5108,7 @@
       <c r="AL38" s="16"/>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A39" s="11">
-        <v>36</v>
-      </c>
+      <c r="A39" s="11"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
@@ -7943,25 +5117,19 @@
       <c r="G39" s="12"/>
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
-      <c r="J39" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="13">
-        <f t="array" ref="K39">IF(MAX(FREQUENCY(IF(S39:AL39&gt;0,COLUMN(S39:AL39)),IF(S39:AL39&lt;=0,COLUMN(S39:AL39))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
       <c r="L39" s="13"/>
       <c r="M39" s="13"/>
       <c r="N39" s="14"/>
       <c r="O39" s="14"/>
       <c r="P39" s="14"/>
       <c r="Q39" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R39" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="S39" s="16"/>
@@ -7986,9 +5154,7 @@
       <c r="AL39" s="16"/>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A40" s="11">
-        <v>37</v>
-      </c>
+      <c r="A40" s="11"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
@@ -7997,25 +5163,19 @@
       <c r="G40" s="12"/>
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
-      <c r="J40" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="13">
-        <f t="array" ref="K40">IF(MAX(FREQUENCY(IF(S40:AL40&gt;0,COLUMN(S40:AL40)),IF(S40:AL40&lt;=0,COLUMN(S40:AL40))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
       <c r="L40" s="13"/>
       <c r="M40" s="13"/>
       <c r="N40" s="14"/>
       <c r="O40" s="14"/>
       <c r="P40" s="14"/>
       <c r="Q40" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R40" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="S40" s="16"/>
@@ -8040,9 +5200,7 @@
       <c r="AL40" s="16"/>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A41" s="11">
-        <v>38</v>
-      </c>
+      <c r="A41" s="11"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
@@ -8051,25 +5209,19 @@
       <c r="G41" s="12"/>
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
-      <c r="J41" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="13">
-        <f t="array" ref="K41">IF(MAX(FREQUENCY(IF(S41:AL41&gt;0,COLUMN(S41:AL41)),IF(S41:AL41&lt;=0,COLUMN(S41:AL41))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
       <c r="L41" s="13"/>
       <c r="M41" s="13"/>
       <c r="N41" s="14"/>
       <c r="O41" s="14"/>
       <c r="P41" s="14"/>
       <c r="Q41" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R41" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="S41" s="16"/>
@@ -8094,9 +5246,7 @@
       <c r="AL41" s="16"/>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A42" s="11">
-        <v>39</v>
-      </c>
+      <c r="A42" s="11"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
@@ -8105,25 +5255,19 @@
       <c r="G42" s="12"/>
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
-      <c r="J42" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K42" s="13">
-        <f t="array" ref="K42">IF(MAX(FREQUENCY(IF(S42:AL42&gt;0,COLUMN(S42:AL42)),IF(S42:AL42&lt;=0,COLUMN(S42:AL42))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
       <c r="L42" s="13"/>
       <c r="M42" s="13"/>
       <c r="N42" s="14"/>
       <c r="O42" s="14"/>
       <c r="P42" s="14"/>
       <c r="Q42" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R42" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="S42" s="16"/>
@@ -8148,9 +5292,7 @@
       <c r="AL42" s="16"/>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A43" s="11">
-        <v>40</v>
-      </c>
+      <c r="A43" s="11"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
@@ -8159,25 +5301,19 @@
       <c r="G43" s="12"/>
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
-      <c r="J43" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="13">
-        <f t="array" ref="K43">IF(MAX(FREQUENCY(IF(S43:AL43&gt;0,COLUMN(S43:AL43)),IF(S43:AL43&lt;=0,COLUMN(S43:AL43))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
       <c r="L43" s="13"/>
       <c r="M43" s="13"/>
       <c r="N43" s="14"/>
       <c r="O43" s="14"/>
       <c r="P43" s="14"/>
       <c r="Q43" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R43" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="S43" s="16"/>
@@ -8213,7 +5349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247A2784-0518-447F-918A-28E207F2327C}">
   <dimension ref="A1:C41"/>
   <sheetViews>
@@ -8225,7 +5361,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -8235,562 +5371,562 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="str">
-        <f>'2Res Data'!A4</f>
-        <v>Charissa</v>
+      <c r="A2">
+        <f>'Sec 2 Data'!A4</f>
+        <v>0</v>
       </c>
       <c r="B2" t="str">
-        <f>'2Res Data'!R4</f>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <f>'Sec 2 Data'!R4</f>
+        <v>-</v>
       </c>
       <c r="C2">
-        <f>'2Res Data'!Q4</f>
-        <v>9</v>
+        <f>'Sec 2 Data'!Q4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
-        <f>'2Res Data'!A5</f>
-        <v>Thaddeus</v>
+      <c r="A3">
+        <f>'Sec 2 Data'!A5</f>
+        <v>0</v>
       </c>
       <c r="B3" t="str">
-        <f>'2Res Data'!R5</f>
-        <v xml:space="preserve">-Gaming is life, Three-Star Wonder, Extra Credit, </v>
+        <f>'Sec 2 Data'!R5</f>
+        <v>-</v>
       </c>
       <c r="C3">
-        <f>'2Res Data'!Q5</f>
-        <v>15</v>
+        <f>'Sec 2 Data'!Q5</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="str">
-        <f>'2Res Data'!A6</f>
-        <v>Ambrose</v>
+      <c r="A4">
+        <f>'Sec 2 Data'!A6</f>
+        <v>0</v>
       </c>
       <c r="B4" t="str">
-        <f>'2Res Data'!R6</f>
-        <v xml:space="preserve">-Gaming is life, Three-Star Wonder, Extra Credit, </v>
+        <f>'Sec 2 Data'!R6</f>
+        <v>-</v>
       </c>
       <c r="C4">
-        <f>'2Res Data'!Q6</f>
-        <v>14</v>
+        <f>'Sec 2 Data'!Q6</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="str">
-        <f>'2Res Data'!A7</f>
-        <v>Zach</v>
+      <c r="A5">
+        <f>'Sec 2 Data'!A7</f>
+        <v>0</v>
       </c>
       <c r="B5" t="str">
-        <f>'2Res Data'!R7</f>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <f>'Sec 2 Data'!R7</f>
+        <v>-</v>
       </c>
       <c r="C5">
-        <f>'2Res Data'!Q7</f>
-        <v>10</v>
+        <f>'Sec 2 Data'!Q7</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="str">
-        <f>'2Res Data'!A8</f>
-        <v>Joel</v>
+      <c r="A6">
+        <f>'Sec 2 Data'!A8</f>
+        <v>0</v>
       </c>
       <c r="B6" t="str">
-        <f>'2Res Data'!R8</f>
+        <f>'Sec 2 Data'!R8</f>
         <v>-</v>
       </c>
       <c r="C6">
-        <f>'2Res Data'!Q8</f>
-        <v>7</v>
+        <f>'Sec 2 Data'!Q8</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="str">
-        <f>'2Res Data'!A9</f>
-        <v>Janelle</v>
+      <c r="A7">
+        <f>'Sec 2 Data'!A9</f>
+        <v>0</v>
       </c>
       <c r="B7" t="str">
-        <f>'2Res Data'!R9</f>
-        <v xml:space="preserve">-Full Combo, Three-Star Wonder, </v>
+        <f>'Sec 2 Data'!R9</f>
+        <v>-</v>
       </c>
       <c r="C7">
-        <f>'2Res Data'!Q9</f>
-        <v>14</v>
+        <f>'Sec 2 Data'!Q9</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="str">
-        <f>'2Res Data'!A10</f>
-        <v>Li Wen</v>
+      <c r="A8">
+        <f>'Sec 2 Data'!A10</f>
+        <v>0</v>
       </c>
       <c r="B8" t="str">
-        <f>'2Res Data'!R10</f>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <f>'Sec 2 Data'!R10</f>
+        <v>-</v>
       </c>
       <c r="C8">
-        <f>'2Res Data'!Q10</f>
-        <v>14</v>
+        <f>'Sec 2 Data'!Q10</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="str">
-        <f>'2Res Data'!A11</f>
-        <v>Zachary</v>
+      <c r="A9">
+        <f>'Sec 2 Data'!A11</f>
+        <v>0</v>
       </c>
       <c r="B9" t="str">
-        <f>'2Res Data'!R11</f>
+        <f>'Sec 2 Data'!R11</f>
         <v>-</v>
       </c>
       <c r="C9">
-        <f>'2Res Data'!Q11</f>
-        <v>4</v>
+        <f>'Sec 2 Data'!Q11</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="str">
-        <f>'2Res Data'!A12</f>
-        <v>Xavier</v>
+      <c r="A10">
+        <f>'Sec 2 Data'!A12</f>
+        <v>0</v>
       </c>
       <c r="B10" t="str">
-        <f>'2Res Data'!R12</f>
-        <v xml:space="preserve">-Full Combo, Math Ambassador, Three-Star Wonder, </v>
+        <f>'Sec 2 Data'!R12</f>
+        <v>-</v>
       </c>
       <c r="C10">
-        <f>'2Res Data'!Q12</f>
-        <v>20</v>
+        <f>'Sec 2 Data'!Q12</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="str">
-        <f>'2Res Data'!A13</f>
-        <v>Xinen</v>
+      <c r="A11">
+        <f>'Sec 2 Data'!A13</f>
+        <v>0</v>
       </c>
       <c r="B11" t="str">
-        <f>'2Res Data'!R13</f>
+        <f>'Sec 2 Data'!R13</f>
         <v>-</v>
       </c>
       <c r="C11">
-        <f>'2Res Data'!Q13</f>
-        <v>4</v>
+        <f>'Sec 2 Data'!Q13</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="str">
-        <f>'2Res Data'!A14</f>
-        <v>Yanwu</v>
+      <c r="A12">
+        <f>'Sec 2 Data'!A14</f>
+        <v>0</v>
       </c>
       <c r="B12" t="str">
-        <f>'2Res Data'!R14</f>
+        <f>'Sec 2 Data'!R14</f>
         <v>-</v>
       </c>
       <c r="C12">
-        <f>'2Res Data'!Q14</f>
-        <v>6</v>
+        <f>'Sec 2 Data'!Q14</f>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="str">
-        <f>'2Res Data'!A15</f>
-        <v>Koen</v>
+      <c r="A13">
+        <f>'Sec 2 Data'!A15</f>
+        <v>0</v>
       </c>
       <c r="B13" t="str">
-        <f>'2Res Data'!R15</f>
+        <f>'Sec 2 Data'!R15</f>
         <v>-</v>
       </c>
       <c r="C13">
-        <f>'2Res Data'!Q15</f>
-        <v>4</v>
+        <f>'Sec 2 Data'!Q15</f>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="str">
-        <f>'2Res Data'!A16</f>
-        <v>Clyde</v>
+      <c r="A14">
+        <f>'Sec 2 Data'!A16</f>
+        <v>0</v>
       </c>
       <c r="B14" t="str">
-        <f>'2Res Data'!R16</f>
-        <v xml:space="preserve">-Full Combo, Three-Star Wonder, </v>
+        <f>'Sec 2 Data'!R16</f>
+        <v>-</v>
       </c>
       <c r="C14">
-        <f>'2Res Data'!Q16</f>
-        <v>17</v>
+        <f>'Sec 2 Data'!Q16</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="str">
-        <f>'2Res Data'!A17</f>
-        <v>Jayden</v>
+      <c r="A15">
+        <f>'Sec 2 Data'!A17</f>
+        <v>0</v>
       </c>
       <c r="B15" t="str">
-        <f>'2Res Data'!R17</f>
+        <f>'Sec 2 Data'!R17</f>
         <v>-</v>
       </c>
       <c r="C15">
-        <f>'2Res Data'!Q17</f>
-        <v>4</v>
+        <f>'Sec 2 Data'!Q17</f>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="str">
-        <f>'2Res Data'!A18</f>
-        <v>Trina</v>
+      <c r="A16">
+        <f>'Sec 2 Data'!A18</f>
+        <v>0</v>
       </c>
       <c r="B16" t="str">
-        <f>'2Res Data'!R18</f>
+        <f>'Sec 2 Data'!R18</f>
         <v>-</v>
       </c>
       <c r="C16">
-        <f>'2Res Data'!Q18</f>
-        <v>2</v>
+        <f>'Sec 2 Data'!Q18</f>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="str">
-        <f>'2Res Data'!A19</f>
-        <v>Solomon</v>
+      <c r="A17">
+        <f>'Sec 2 Data'!A19</f>
+        <v>0</v>
       </c>
       <c r="B17" t="str">
-        <f>'2Res Data'!R19</f>
+        <f>'Sec 2 Data'!R19</f>
         <v>-</v>
       </c>
       <c r="C17">
-        <f>'2Res Data'!Q19</f>
-        <v>1</v>
+        <f>'Sec 2 Data'!Q19</f>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="str">
-        <f>'2Res Data'!A20</f>
-        <v>Caleah</v>
+      <c r="A18">
+        <f>'Sec 2 Data'!A20</f>
+        <v>0</v>
       </c>
       <c r="B18" t="str">
-        <f>'2Res Data'!R20</f>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <f>'Sec 2 Data'!R20</f>
+        <v>-</v>
       </c>
       <c r="C18">
-        <f>'2Res Data'!Q20</f>
-        <v>9</v>
+        <f>'Sec 2 Data'!Q20</f>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="str">
-        <f>'2Res Data'!A21</f>
-        <v>Linus</v>
+      <c r="A19">
+        <f>'Sec 2 Data'!A21</f>
+        <v>0</v>
       </c>
       <c r="B19" t="str">
-        <f>'2Res Data'!R21</f>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <f>'Sec 2 Data'!R21</f>
+        <v>-</v>
       </c>
       <c r="C19">
-        <f>'2Res Data'!Q21</f>
-        <v>11</v>
+        <f>'Sec 2 Data'!Q21</f>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="str">
-        <f>'2Res Data'!A22</f>
-        <v>Jayden T.</v>
+      <c r="A20">
+        <f>'Sec 2 Data'!A22</f>
+        <v>0</v>
       </c>
       <c r="B20" t="str">
-        <f>'2Res Data'!R22</f>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <f>'Sec 2 Data'!R22</f>
+        <v>-</v>
       </c>
       <c r="C20">
-        <f>'2Res Data'!Q22</f>
-        <v>9</v>
+        <f>'Sec 2 Data'!Q22</f>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="str">
-        <f>'2Res Data'!A23</f>
-        <v>Natalie</v>
+      <c r="A21">
+        <f>'Sec 2 Data'!A23</f>
+        <v>0</v>
       </c>
       <c r="B21" t="str">
-        <f>'2Res Data'!R23</f>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <f>'Sec 2 Data'!R23</f>
+        <v>-</v>
       </c>
       <c r="C21">
-        <f>'2Res Data'!Q23</f>
-        <v>12</v>
+        <f>'Sec 2 Data'!Q23</f>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="str">
-        <f>'2Res Data'!A24</f>
-        <v>Sherie</v>
+      <c r="A22">
+        <f>'Sec 2 Data'!A24</f>
+        <v>0</v>
       </c>
       <c r="B22" t="str">
-        <f>'2Res Data'!R24</f>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <f>'Sec 2 Data'!R24</f>
+        <v>-</v>
       </c>
       <c r="C22">
-        <f>'2Res Data'!Q24</f>
-        <v>11</v>
+        <f>'Sec 2 Data'!Q24</f>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="str">
-        <f>'2Res Data'!A25</f>
-        <v>Emma</v>
+      <c r="A23">
+        <f>'Sec 2 Data'!A25</f>
+        <v>0</v>
       </c>
       <c r="B23" t="str">
-        <f>'2Res Data'!R25</f>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <f>'Sec 2 Data'!R25</f>
+        <v>-</v>
       </c>
       <c r="C23">
-        <f>'2Res Data'!Q25</f>
-        <v>10</v>
+        <f>'Sec 2 Data'!Q25</f>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="str">
-        <f>'2Res Data'!A26</f>
-        <v>Lukas</v>
+      <c r="A24">
+        <f>'Sec 2 Data'!A26</f>
+        <v>0</v>
       </c>
       <c r="B24" t="str">
-        <f>'2Res Data'!R26</f>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <f>'Sec 2 Data'!R26</f>
+        <v>-</v>
       </c>
       <c r="C24">
-        <f>'2Res Data'!Q26</f>
-        <v>11</v>
+        <f>'Sec 2 Data'!Q26</f>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="str">
-        <f>'2Res Data'!A27</f>
-        <v>Shania</v>
+      <c r="A25">
+        <f>'Sec 2 Data'!A27</f>
+        <v>0</v>
       </c>
       <c r="B25" t="str">
-        <f>'2Res Data'!R27</f>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <f>'Sec 2 Data'!R27</f>
+        <v>-</v>
       </c>
       <c r="C25">
-        <f>'2Res Data'!Q27</f>
-        <v>12</v>
+        <f>'Sec 2 Data'!Q27</f>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="str">
-        <f>'2Res Data'!A28</f>
-        <v>Eunice</v>
+      <c r="A26">
+        <f>'Sec 2 Data'!A28</f>
+        <v>0</v>
       </c>
       <c r="B26" t="str">
-        <f>'2Res Data'!R28</f>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <f>'Sec 2 Data'!R28</f>
+        <v>-</v>
       </c>
       <c r="C26">
-        <f>'2Res Data'!Q28</f>
-        <v>11</v>
+        <f>'Sec 2 Data'!Q28</f>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="str">
-        <f>'2Res Data'!A29</f>
-        <v>Nathan</v>
+      <c r="A27">
+        <f>'Sec 2 Data'!A29</f>
+        <v>0</v>
       </c>
       <c r="B27" t="str">
-        <f>'2Res Data'!R29</f>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <f>'Sec 2 Data'!R29</f>
+        <v>-</v>
       </c>
       <c r="C27">
-        <f>'2Res Data'!Q29</f>
-        <v>10</v>
+        <f>'Sec 2 Data'!Q29</f>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="str">
-        <f>'2Res Data'!A30</f>
-        <v>Jeanette</v>
+      <c r="A28">
+        <f>'Sec 2 Data'!A30</f>
+        <v>0</v>
       </c>
       <c r="B28" t="str">
-        <f>'2Res Data'!R30</f>
+        <f>'Sec 2 Data'!R30</f>
         <v>-</v>
       </c>
       <c r="C28">
-        <f>'2Res Data'!Q30</f>
-        <v>5</v>
+        <f>'Sec 2 Data'!Q30</f>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="str">
-        <f>'2Res Data'!A31</f>
-        <v>Dylan</v>
+      <c r="A29">
+        <f>'Sec 2 Data'!A31</f>
+        <v>0</v>
       </c>
       <c r="B29" t="str">
-        <f>'2Res Data'!R31</f>
+        <f>'Sec 2 Data'!R31</f>
         <v>-</v>
       </c>
       <c r="C29">
-        <f>'2Res Data'!Q31</f>
-        <v>3</v>
+        <f>'Sec 2 Data'!Q31</f>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="str">
-        <f>'2Res Data'!A32</f>
-        <v>Lia</v>
+      <c r="A30">
+        <f>'Sec 2 Data'!A32</f>
+        <v>0</v>
       </c>
       <c r="B30" t="str">
-        <f>'2Res Data'!R32</f>
+        <f>'Sec 2 Data'!R32</f>
         <v>-</v>
       </c>
       <c r="C30">
-        <f>'2Res Data'!Q32</f>
-        <v>3</v>
+        <f>'Sec 2 Data'!Q32</f>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="str">
-        <f>'2Res Data'!A33</f>
-        <v>Kaelen</v>
+      <c r="A31">
+        <f>'Sec 2 Data'!A33</f>
+        <v>0</v>
       </c>
       <c r="B31" t="str">
-        <f>'2Res Data'!R33</f>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <f>'Sec 2 Data'!R33</f>
+        <v>-</v>
       </c>
       <c r="C31">
-        <f>'2Res Data'!Q33</f>
-        <v>11</v>
+        <f>'Sec 2 Data'!Q33</f>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="str">
-        <f>'2Res Data'!A34</f>
-        <v>Miley</v>
+      <c r="A32">
+        <f>'Sec 2 Data'!A34</f>
+        <v>0</v>
       </c>
       <c r="B32" t="str">
-        <f>'2Res Data'!R34</f>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <f>'Sec 2 Data'!R34</f>
+        <v>-</v>
       </c>
       <c r="C32">
-        <f>'2Res Data'!Q34</f>
-        <v>10</v>
+        <f>'Sec 2 Data'!Q34</f>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="str">
-        <f>'2Res Data'!A35</f>
-        <v>Lucius</v>
+      <c r="A33">
+        <f>'Sec 2 Data'!A35</f>
+        <v>0</v>
       </c>
       <c r="B33" t="str">
-        <f>'2Res Data'!R35</f>
+        <f>'Sec 2 Data'!R35</f>
         <v>-</v>
       </c>
       <c r="C33">
-        <f>'2Res Data'!Q35</f>
-        <v>3</v>
+        <f>'Sec 2 Data'!Q35</f>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="str">
-        <f>'2Res Data'!A36</f>
-        <v>Vera</v>
+      <c r="A34">
+        <f>'Sec 2 Data'!A36</f>
+        <v>0</v>
       </c>
       <c r="B34" t="str">
-        <f>'2Res Data'!R36</f>
+        <f>'Sec 2 Data'!R36</f>
         <v>-</v>
       </c>
       <c r="C34">
-        <f>'2Res Data'!Q36</f>
-        <v>2</v>
+        <f>'Sec 2 Data'!Q36</f>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="str">
-        <f>'2Res Data'!A37</f>
-        <v>Beckham</v>
+      <c r="A35">
+        <f>'Sec 2 Data'!A37</f>
+        <v>0</v>
       </c>
       <c r="B35" t="str">
-        <f>'2Res Data'!R37</f>
+        <f>'Sec 2 Data'!R37</f>
         <v>-</v>
       </c>
       <c r="C35">
-        <f>'2Res Data'!Q37</f>
-        <v>2</v>
+        <f>'Sec 2 Data'!Q37</f>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
-        <f>'2Res Data'!A38</f>
-        <v>35</v>
+        <f>'Sec 2 Data'!A38</f>
+        <v>0</v>
       </c>
       <c r="B36" t="str">
-        <f>'2Res Data'!R38</f>
+        <f>'Sec 2 Data'!R38</f>
         <v>-</v>
       </c>
       <c r="C36">
-        <f>'2Res Data'!Q38</f>
+        <f>'Sec 2 Data'!Q38</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
-        <f>'2Res Data'!A39</f>
-        <v>36</v>
+        <f>'Sec 2 Data'!A39</f>
+        <v>0</v>
       </c>
       <c r="B37" t="str">
-        <f>'2Res Data'!R39</f>
+        <f>'Sec 2 Data'!R39</f>
         <v>-</v>
       </c>
       <c r="C37">
-        <f>'2Res Data'!Q39</f>
+        <f>'Sec 2 Data'!Q39</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
-        <f>'2Res Data'!A40</f>
-        <v>37</v>
+        <f>'Sec 2 Data'!A40</f>
+        <v>0</v>
       </c>
       <c r="B38" t="str">
-        <f>'2Res Data'!R40</f>
+        <f>'Sec 2 Data'!R40</f>
         <v>-</v>
       </c>
       <c r="C38">
-        <f>'2Res Data'!Q40</f>
+        <f>'Sec 2 Data'!Q40</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
-        <f>'2Res Data'!A41</f>
-        <v>38</v>
+        <f>'Sec 2 Data'!A41</f>
+        <v>0</v>
       </c>
       <c r="B39" t="str">
-        <f>'2Res Data'!R41</f>
+        <f>'Sec 2 Data'!R41</f>
         <v>-</v>
       </c>
       <c r="C39">
-        <f>'2Res Data'!Q41</f>
+        <f>'Sec 2 Data'!Q41</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
-        <f>'2Res Data'!A42</f>
-        <v>39</v>
+        <f>'Sec 2 Data'!A42</f>
+        <v>0</v>
       </c>
       <c r="B40" t="str">
-        <f>'2Res Data'!R42</f>
+        <f>'Sec 2 Data'!R42</f>
         <v>-</v>
       </c>
       <c r="C40">
-        <f>'2Res Data'!Q42</f>
+        <f>'Sec 2 Data'!Q42</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
-        <f>'2Res Data'!A43</f>
-        <v>40</v>
+        <f>'Sec 2 Data'!A43</f>
+        <v>0</v>
       </c>
       <c r="B41" t="str">
-        <f>'2Res Data'!R43</f>
+        <f>'Sec 2 Data'!R43</f>
         <v>-</v>
       </c>
       <c r="C41">
-        <f>'2Res Data'!Q43</f>
+        <f>'Sec 2 Data'!Q43</f>
         <v>0</v>
       </c>
     </row>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngwen\Desktop\website\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07BF74C-F20D-430D-A92D-893B7AD5D725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF306E63-E5A0-46E3-A55F-48829B4C4790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>Achievements</t>
   </si>
@@ -102,7 +102,208 @@
     <t>Star count</t>
   </si>
   <si>
-    <t>Nickname</t>
+    <t>Lee Ren</t>
+  </si>
+  <si>
+    <t>Ting Wei</t>
+  </si>
+  <si>
+    <t>Bao Le</t>
+  </si>
+  <si>
+    <t>Sofia</t>
+  </si>
+  <si>
+    <t>Geng Qi</t>
+  </si>
+  <si>
+    <t>Qiu Yun</t>
+  </si>
+  <si>
+    <t>Rui Xuan</t>
+  </si>
+  <si>
+    <t>Vivian</t>
+  </si>
+  <si>
+    <t>Arissa</t>
+  </si>
+  <si>
+    <t>Zavier</t>
+  </si>
+  <si>
+    <t>Kah Jun</t>
+  </si>
+  <si>
+    <t>Fu Ying</t>
+  </si>
+  <si>
+    <t>Chevelle</t>
+  </si>
+  <si>
+    <t>Derric</t>
+  </si>
+  <si>
+    <t>Edward</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>Geneve</t>
+  </si>
+  <si>
+    <t>Hayley</t>
+  </si>
+  <si>
+    <t>Joyce</t>
+  </si>
+  <si>
+    <t>Qing Tian</t>
+  </si>
+  <si>
+    <t>Adrien</t>
+  </si>
+  <si>
+    <t>Claire</t>
+  </si>
+  <si>
+    <t>Jayden Lee</t>
+  </si>
+  <si>
+    <t>Jayden Soh</t>
+  </si>
+  <si>
+    <t>Raeanne</t>
+  </si>
+  <si>
+    <t>Zong Han</t>
+  </si>
+  <si>
+    <t>Yue Tong</t>
+  </si>
+  <si>
+    <t>Hao Yi</t>
+  </si>
+  <si>
+    <t>Keegan</t>
+  </si>
+  <si>
+    <t>Jing Le</t>
+  </si>
+  <si>
+    <t>Kai Qi</t>
+  </si>
+  <si>
+    <t>Alicia</t>
+  </si>
+  <si>
+    <t>Jacinda</t>
+  </si>
+  <si>
+    <t>Shabib</t>
+  </si>
+  <si>
+    <t>Ashley</t>
+  </si>
+  <si>
+    <t>Taven</t>
+  </si>
+  <si>
+    <t>Kaidy</t>
+  </si>
+  <si>
+    <t>Felix</t>
+  </si>
+  <si>
+    <t>Jey En</t>
+  </si>
+  <si>
+    <t>Zachary</t>
+  </si>
+  <si>
+    <t>Zhi Xing</t>
+  </si>
+  <si>
+    <t>Xin Ying</t>
+  </si>
+  <si>
+    <t>Yik Yan</t>
+  </si>
+  <si>
+    <t>Yixuan</t>
+  </si>
+  <si>
+    <t>Kaylie</t>
+  </si>
+  <si>
+    <t>Emmy</t>
+  </si>
+  <si>
+    <t>Kee Yuk</t>
+  </si>
+  <si>
+    <t>Le Xiang</t>
+  </si>
+  <si>
+    <t>Javis</t>
+  </si>
+  <si>
+    <t>Jayson</t>
+  </si>
+  <si>
+    <t>Joey</t>
+  </si>
+  <si>
+    <t>Jaden</t>
+  </si>
+  <si>
+    <t>Yan Cheng</t>
+  </si>
+  <si>
+    <t>Rui Ci</t>
+  </si>
+  <si>
+    <t>Regneth</t>
+  </si>
+  <si>
+    <t>Shu Phing</t>
+  </si>
+  <si>
+    <t>Linus</t>
+  </si>
+  <si>
+    <t>Shi Heng</t>
+  </si>
+  <si>
+    <t>Jamie</t>
+  </si>
+  <si>
+    <t>Tang Jin</t>
+  </si>
+  <si>
+    <t>Kaelyn</t>
+  </si>
+  <si>
+    <t>Issac</t>
+  </si>
+  <si>
+    <t>Zaviour</t>
+  </si>
+  <si>
+    <t>Julian</t>
+  </si>
+  <si>
+    <t>Le Qi</t>
+  </si>
+  <si>
+    <t>Zi Shan</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -653,7 +854,7 @@
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X4" sqref="X4"/>
+      <selection pane="topRight" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -857,7 +1058,9 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
+      <c r="A4" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -903,7 +1106,9 @@
       <c r="AL4" s="16"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+      <c r="A5" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -949,7 +1154,9 @@
       <c r="AL5" s="16"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+      <c r="A6" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -995,7 +1202,9 @@
       <c r="AL6" s="16"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+      <c r="A7" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -1041,7 +1250,9 @@
       <c r="AL7" s="16"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+      <c r="A8" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -1087,7 +1298,9 @@
       <c r="AL8" s="16"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
+      <c r="A9" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -1133,7 +1346,9 @@
       <c r="AL9" s="16"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
+      <c r="A10" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -1179,7 +1394,9 @@
       <c r="AL10" s="16"/>
     </row>
     <row r="11" spans="1:38" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
+      <c r="A11" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -1225,7 +1442,9 @@
       <c r="AL11" s="16"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
+      <c r="A12" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -1271,7 +1490,9 @@
       <c r="AL12" s="16"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
+      <c r="A13" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -1317,7 +1538,9 @@
       <c r="AL13" s="16"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
+      <c r="A14" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -1363,7 +1586,9 @@
       <c r="AL14" s="16"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
+      <c r="A15" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -1409,7 +1634,9 @@
       <c r="AL15" s="16"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
+      <c r="A16" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -1455,7 +1682,9 @@
       <c r="AL16" s="16"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
+      <c r="A17" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -1501,7 +1730,9 @@
       <c r="AL17" s="16"/>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
+      <c r="A18" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -1547,7 +1778,9 @@
       <c r="AL18" s="16"/>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
+      <c r="A19" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -1593,7 +1826,9 @@
       <c r="AL19" s="16"/>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
+      <c r="A20" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -1639,7 +1874,9 @@
       <c r="AL20" s="16"/>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
+      <c r="A21" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -1685,7 +1922,9 @@
       <c r="AL21" s="16"/>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
+      <c r="A22" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -1731,7 +1970,9 @@
       <c r="AL22" s="16"/>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
+      <c r="A23" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -1777,7 +2018,9 @@
       <c r="AL23" s="16"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
+      <c r="A24" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -1823,7 +2066,9 @@
       <c r="AL24" s="16"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
+      <c r="A25" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
@@ -1869,7 +2114,9 @@
       <c r="AL25" s="16"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
+      <c r="A26" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -1915,7 +2162,9 @@
       <c r="AL26" s="16"/>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
+      <c r="A27" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
@@ -1961,7 +2210,9 @@
       <c r="AL27" s="16"/>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
+      <c r="A28" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
@@ -2007,7 +2258,9 @@
       <c r="AL28" s="16"/>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
+      <c r="A29" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
@@ -2053,7 +2306,9 @@
       <c r="AL29" s="16"/>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
+      <c r="A30" s="11" t="s">
+        <v>50</v>
+      </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
@@ -2099,7 +2354,9 @@
       <c r="AL30" s="16"/>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A31" s="11"/>
+      <c r="A31" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
@@ -2145,7 +2402,9 @@
       <c r="AL31" s="16"/>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
+      <c r="A32" s="11" t="s">
+        <v>52</v>
+      </c>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
@@ -2191,7 +2450,9 @@
       <c r="AL32" s="16"/>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
+      <c r="A33" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
@@ -2237,7 +2498,9 @@
       <c r="AL33" s="16"/>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A34" s="11"/>
+      <c r="A34" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
@@ -2283,7 +2546,9 @@
       <c r="AL34" s="16"/>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
+      <c r="A35" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
@@ -2329,7 +2594,9 @@
       <c r="AL35" s="16"/>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
+      <c r="A36" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
@@ -2375,7 +2642,9 @@
       <c r="AL36" s="16"/>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A37" s="11"/>
+      <c r="A37" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
@@ -2421,7 +2690,9 @@
       <c r="AL37" s="16"/>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A38" s="11"/>
+      <c r="A38" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
@@ -2467,7 +2738,9 @@
       <c r="AL38" s="16"/>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A39" s="11"/>
+      <c r="A39" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
@@ -2714,15 +2987,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10534E12-96AC-44F1-9431-EFE9F0397466}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2732,9 +3003,9 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" t="str">
         <f>'Sec 1 Data'!A4</f>
-        <v>0</v>
+        <v>Lee Ren</v>
       </c>
       <c r="B2" t="str">
         <f>'Sec 1 Data'!R4</f>
@@ -2746,9 +3017,9 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" t="str">
         <f>'Sec 1 Data'!A5</f>
-        <v>0</v>
+        <v>Ting Wei</v>
       </c>
       <c r="B3" t="str">
         <f>'Sec 1 Data'!R5</f>
@@ -2760,9 +3031,9 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" t="str">
         <f>'Sec 1 Data'!A6</f>
-        <v>0</v>
+        <v>Bao Le</v>
       </c>
       <c r="B4" t="str">
         <f>'Sec 1 Data'!R6</f>
@@ -2774,9 +3045,9 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" t="str">
         <f>'Sec 1 Data'!A7</f>
-        <v>0</v>
+        <v>Sofia</v>
       </c>
       <c r="B5" t="str">
         <f>'Sec 1 Data'!R7</f>
@@ -2788,9 +3059,9 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" t="str">
         <f>'Sec 1 Data'!A8</f>
-        <v>0</v>
+        <v>Jayden Soh</v>
       </c>
       <c r="B6" t="str">
         <f>'Sec 1 Data'!R8</f>
@@ -2802,9 +3073,9 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" t="str">
         <f>'Sec 1 Data'!A9</f>
-        <v>0</v>
+        <v>Geng Qi</v>
       </c>
       <c r="B7" t="str">
         <f>'Sec 1 Data'!R9</f>
@@ -2816,9 +3087,9 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" t="str">
         <f>'Sec 1 Data'!A10</f>
-        <v>0</v>
+        <v>Qiu Yun</v>
       </c>
       <c r="B8" t="str">
         <f>'Sec 1 Data'!R10</f>
@@ -2830,9 +3101,9 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" t="str">
         <f>'Sec 1 Data'!A11</f>
-        <v>0</v>
+        <v>Rui Xuan</v>
       </c>
       <c r="B9" t="str">
         <f>'Sec 1 Data'!R11</f>
@@ -2844,9 +3115,9 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" t="str">
         <f>'Sec 1 Data'!A12</f>
-        <v>0</v>
+        <v>Vivian</v>
       </c>
       <c r="B10" t="str">
         <f>'Sec 1 Data'!R12</f>
@@ -2858,9 +3129,9 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" t="str">
         <f>'Sec 1 Data'!A13</f>
-        <v>0</v>
+        <v>Arissa</v>
       </c>
       <c r="B11" t="str">
         <f>'Sec 1 Data'!R13</f>
@@ -2872,9 +3143,9 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" t="str">
         <f>'Sec 1 Data'!A14</f>
-        <v>0</v>
+        <v>Zavier</v>
       </c>
       <c r="B12" t="str">
         <f>'Sec 1 Data'!R14</f>
@@ -2886,9 +3157,9 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" t="str">
         <f>'Sec 1 Data'!A15</f>
-        <v>0</v>
+        <v>Kah Jun</v>
       </c>
       <c r="B13" t="str">
         <f>'Sec 1 Data'!R15</f>
@@ -2900,9 +3171,9 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" t="str">
         <f>'Sec 1 Data'!A16</f>
-        <v>0</v>
+        <v>Fu Ying</v>
       </c>
       <c r="B14" t="str">
         <f>'Sec 1 Data'!R16</f>
@@ -2914,9 +3185,9 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" t="str">
         <f>'Sec 1 Data'!A17</f>
-        <v>0</v>
+        <v>Chevelle</v>
       </c>
       <c r="B15" t="str">
         <f>'Sec 1 Data'!R17</f>
@@ -2928,9 +3199,9 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" t="str">
         <f>'Sec 1 Data'!A18</f>
-        <v>0</v>
+        <v>Derric</v>
       </c>
       <c r="B16" t="str">
         <f>'Sec 1 Data'!R18</f>
@@ -2942,9 +3213,9 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" t="str">
         <f>'Sec 1 Data'!A19</f>
-        <v>0</v>
+        <v>Edward</v>
       </c>
       <c r="B17" t="str">
         <f>'Sec 1 Data'!R19</f>
@@ -2956,9 +3227,9 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" t="str">
         <f>'Sec 1 Data'!A20</f>
-        <v>0</v>
+        <v>Elizabeth</v>
       </c>
       <c r="B18" t="str">
         <f>'Sec 1 Data'!R20</f>
@@ -2970,9 +3241,9 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" t="str">
         <f>'Sec 1 Data'!A21</f>
-        <v>0</v>
+        <v>Geneve</v>
       </c>
       <c r="B19" t="str">
         <f>'Sec 1 Data'!R21</f>
@@ -2984,9 +3255,9 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" t="str">
         <f>'Sec 1 Data'!A22</f>
-        <v>0</v>
+        <v>Hayley</v>
       </c>
       <c r="B20" t="str">
         <f>'Sec 1 Data'!R22</f>
@@ -2998,9 +3269,9 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" t="str">
         <f>'Sec 1 Data'!A23</f>
-        <v>0</v>
+        <v>Joyce</v>
       </c>
       <c r="B21" t="str">
         <f>'Sec 1 Data'!R23</f>
@@ -3012,9 +3283,9 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="A22" t="str">
         <f>'Sec 1 Data'!A24</f>
-        <v>0</v>
+        <v>Qing Tian</v>
       </c>
       <c r="B22" t="str">
         <f>'Sec 1 Data'!R24</f>
@@ -3026,9 +3297,9 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="A23" t="str">
         <f>'Sec 1 Data'!A25</f>
-        <v>0</v>
+        <v>Adrien</v>
       </c>
       <c r="B23" t="str">
         <f>'Sec 1 Data'!R25</f>
@@ -3040,9 +3311,9 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="A24" t="str">
         <f>'Sec 1 Data'!A26</f>
-        <v>0</v>
+        <v>Claire</v>
       </c>
       <c r="B24" t="str">
         <f>'Sec 1 Data'!R26</f>
@@ -3054,9 +3325,9 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="A25" t="str">
         <f>'Sec 1 Data'!A27</f>
-        <v>0</v>
+        <v>Jayden Lee</v>
       </c>
       <c r="B25" t="str">
         <f>'Sec 1 Data'!R27</f>
@@ -3068,9 +3339,9 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="A26" t="str">
         <f>'Sec 1 Data'!A28</f>
-        <v>0</v>
+        <v>Raeanne</v>
       </c>
       <c r="B26" t="str">
         <f>'Sec 1 Data'!R28</f>
@@ -3082,9 +3353,9 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="A27" t="str">
         <f>'Sec 1 Data'!A29</f>
-        <v>0</v>
+        <v>Zong Han</v>
       </c>
       <c r="B27" t="str">
         <f>'Sec 1 Data'!R29</f>
@@ -3096,9 +3367,9 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="A28" t="str">
         <f>'Sec 1 Data'!A30</f>
-        <v>0</v>
+        <v>Yue Tong</v>
       </c>
       <c r="B28" t="str">
         <f>'Sec 1 Data'!R30</f>
@@ -3110,9 +3381,9 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="A29" t="str">
         <f>'Sec 1 Data'!A31</f>
-        <v>0</v>
+        <v>Hao Yi</v>
       </c>
       <c r="B29" t="str">
         <f>'Sec 1 Data'!R31</f>
@@ -3124,9 +3395,9 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="A30" t="str">
         <f>'Sec 1 Data'!A32</f>
-        <v>0</v>
+        <v>Keegan</v>
       </c>
       <c r="B30" t="str">
         <f>'Sec 1 Data'!R32</f>
@@ -3138,9 +3409,9 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="A31" t="str">
         <f>'Sec 1 Data'!A33</f>
-        <v>0</v>
+        <v>Jing Le</v>
       </c>
       <c r="B31" t="str">
         <f>'Sec 1 Data'!R33</f>
@@ -3152,9 +3423,9 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="A32" t="str">
         <f>'Sec 1 Data'!A34</f>
-        <v>0</v>
+        <v>Kai Qi</v>
       </c>
       <c r="B32" t="str">
         <f>'Sec 1 Data'!R34</f>
@@ -3166,9 +3437,9 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="A33" t="str">
         <f>'Sec 1 Data'!A35</f>
-        <v>0</v>
+        <v>Alicia</v>
       </c>
       <c r="B33" t="str">
         <f>'Sec 1 Data'!R35</f>
@@ -3180,9 +3451,9 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="A34" t="str">
         <f>'Sec 1 Data'!A36</f>
-        <v>0</v>
+        <v>Jacinda</v>
       </c>
       <c r="B34" t="str">
         <f>'Sec 1 Data'!R36</f>
@@ -3194,9 +3465,9 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="A35" t="str">
         <f>'Sec 1 Data'!A37</f>
-        <v>0</v>
+        <v>Shabib</v>
       </c>
       <c r="B35" t="str">
         <f>'Sec 1 Data'!R37</f>
@@ -3208,9 +3479,9 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="A36" t="str">
         <f>'Sec 1 Data'!A38</f>
-        <v>0</v>
+        <v>Ashley</v>
       </c>
       <c r="B36" t="str">
         <f>'Sec 1 Data'!R38</f>
@@ -3222,9 +3493,9 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37">
+      <c r="A37" t="str">
         <f>'Sec 1 Data'!A39</f>
-        <v>0</v>
+        <v>Taven</v>
       </c>
       <c r="B37" t="str">
         <f>'Sec 1 Data'!R39</f>
@@ -3300,10 +3571,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848CF460-3EAC-4A7D-8560-52951FCF8A6B}">
   <dimension ref="A1:AL43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="T17" sqref="T17"/>
-      <selection pane="topRight" activeCell="S4" sqref="S4:U43"/>
+      <selection pane="topRight" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3498,7 +3769,9 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
+      <c r="A4" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -3544,7 +3817,9 @@
       <c r="AL4" s="16"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+      <c r="A5" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -3590,7 +3865,9 @@
       <c r="AL5" s="16"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+      <c r="A6" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -3636,7 +3913,9 @@
       <c r="AL6" s="16"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+      <c r="A7" s="11" t="s">
+        <v>63</v>
+      </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -3682,7 +3961,9 @@
       <c r="AL7" s="16"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+      <c r="A8" s="11" t="s">
+        <v>64</v>
+      </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -3728,7 +4009,9 @@
       <c r="AL8" s="16"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
+      <c r="A9" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -3774,7 +4057,9 @@
       <c r="AL9" s="16"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
+      <c r="A10" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -3820,7 +4105,9 @@
       <c r="AL10" s="16"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
+      <c r="A11" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -3866,7 +4153,9 @@
       <c r="AL11" s="16"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
+      <c r="A12" s="11" t="s">
+        <v>67</v>
+      </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -3912,7 +4201,9 @@
       <c r="AL12" s="16"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
+      <c r="A13" s="11" t="s">
+        <v>68</v>
+      </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -3958,7 +4249,9 @@
       <c r="AL13" s="16"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
+      <c r="A14" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -4004,7 +4297,9 @@
       <c r="AL14" s="16"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
+      <c r="A15" s="11" t="s">
+        <v>70</v>
+      </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -4050,7 +4345,9 @@
       <c r="AL15" s="16"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
+      <c r="A16" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -4096,7 +4393,9 @@
       <c r="AL16" s="16"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
+      <c r="A17" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -4142,7 +4441,9 @@
       <c r="AL17" s="16"/>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
+      <c r="A18" s="11" t="s">
+        <v>73</v>
+      </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -4188,7 +4489,9 @@
       <c r="AL18" s="16"/>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
+      <c r="A19" s="11" t="s">
+        <v>74</v>
+      </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -4234,7 +4537,9 @@
       <c r="AL19" s="16"/>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
+      <c r="A20" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -4280,7 +4585,9 @@
       <c r="AL20" s="16"/>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
+      <c r="A21" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -4326,7 +4633,9 @@
       <c r="AL21" s="16"/>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
+      <c r="A22" s="11" t="s">
+        <v>77</v>
+      </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -4372,7 +4681,9 @@
       <c r="AL22" s="16"/>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
+      <c r="A23" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -4418,7 +4729,9 @@
       <c r="AL23" s="16"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
+      <c r="A24" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -4464,7 +4777,9 @@
       <c r="AL24" s="16"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
+      <c r="A25" s="11" t="s">
+        <v>80</v>
+      </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
@@ -4510,7 +4825,9 @@
       <c r="AL25" s="16"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
+      <c r="A26" s="11" t="s">
+        <v>81</v>
+      </c>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -4556,7 +4873,9 @@
       <c r="AL26" s="16"/>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
+      <c r="A27" s="11" t="s">
+        <v>82</v>
+      </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
@@ -4602,7 +4921,9 @@
       <c r="AL27" s="16"/>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
+      <c r="A28" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
@@ -4648,7 +4969,9 @@
       <c r="AL28" s="16"/>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
+      <c r="A29" s="11" t="s">
+        <v>84</v>
+      </c>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
@@ -4694,7 +5017,9 @@
       <c r="AL29" s="16"/>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
+      <c r="A30" s="11" t="s">
+        <v>85</v>
+      </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
@@ -4740,7 +5065,9 @@
       <c r="AL30" s="16"/>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A31" s="11"/>
+      <c r="A31" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
@@ -4786,7 +5113,9 @@
       <c r="AL31" s="16"/>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
+      <c r="A32" s="11" t="s">
+        <v>87</v>
+      </c>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
@@ -4832,7 +5161,9 @@
       <c r="AL32" s="16"/>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
+      <c r="A33" s="11" t="s">
+        <v>88</v>
+      </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
@@ -4878,7 +5209,9 @@
       <c r="AL33" s="16"/>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A34" s="11"/>
+      <c r="A34" s="11" t="s">
+        <v>89</v>
+      </c>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
@@ -4924,7 +5257,9 @@
       <c r="AL34" s="16"/>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
+      <c r="A35" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
@@ -4970,7 +5305,6 @@
       <c r="AL35" s="16"/>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
@@ -5354,14 +5688,14 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -5371,9 +5705,9 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" t="str">
         <f>'Sec 2 Data'!A4</f>
-        <v>0</v>
+        <v>Kaidy</v>
       </c>
       <c r="B2" t="str">
         <f>'Sec 2 Data'!R4</f>
@@ -5385,9 +5719,9 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" t="str">
         <f>'Sec 2 Data'!A5</f>
-        <v>0</v>
+        <v>Felix</v>
       </c>
       <c r="B3" t="str">
         <f>'Sec 2 Data'!R5</f>
@@ -5399,9 +5733,9 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" t="str">
         <f>'Sec 2 Data'!A6</f>
-        <v>0</v>
+        <v>Jey En</v>
       </c>
       <c r="B4" t="str">
         <f>'Sec 2 Data'!R6</f>
@@ -5413,9 +5747,9 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" t="str">
         <f>'Sec 2 Data'!A7</f>
-        <v>0</v>
+        <v>Zachary</v>
       </c>
       <c r="B5" t="str">
         <f>'Sec 2 Data'!R7</f>
@@ -5427,9 +5761,9 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" t="str">
         <f>'Sec 2 Data'!A8</f>
-        <v>0</v>
+        <v>Zhi Xing</v>
       </c>
       <c r="B6" t="str">
         <f>'Sec 2 Data'!R8</f>
@@ -5441,9 +5775,9 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" t="str">
         <f>'Sec 2 Data'!A9</f>
-        <v>0</v>
+        <v>Xin Ying</v>
       </c>
       <c r="B7" t="str">
         <f>'Sec 2 Data'!R9</f>
@@ -5455,9 +5789,9 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" t="str">
         <f>'Sec 2 Data'!A10</f>
-        <v>0</v>
+        <v>Yik Yan</v>
       </c>
       <c r="B8" t="str">
         <f>'Sec 2 Data'!R10</f>
@@ -5469,9 +5803,9 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" t="str">
         <f>'Sec 2 Data'!A11</f>
-        <v>0</v>
+        <v>Ashley</v>
       </c>
       <c r="B9" t="str">
         <f>'Sec 2 Data'!R11</f>
@@ -5483,9 +5817,9 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" t="str">
         <f>'Sec 2 Data'!A12</f>
-        <v>0</v>
+        <v>Yixuan</v>
       </c>
       <c r="B10" t="str">
         <f>'Sec 2 Data'!R12</f>
@@ -5497,9 +5831,9 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" t="str">
         <f>'Sec 2 Data'!A13</f>
-        <v>0</v>
+        <v>Kaylie</v>
       </c>
       <c r="B11" t="str">
         <f>'Sec 2 Data'!R13</f>
@@ -5511,9 +5845,9 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" t="str">
         <f>'Sec 2 Data'!A14</f>
-        <v>0</v>
+        <v>Emmy</v>
       </c>
       <c r="B12" t="str">
         <f>'Sec 2 Data'!R14</f>
@@ -5525,9 +5859,9 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" t="str">
         <f>'Sec 2 Data'!A15</f>
-        <v>0</v>
+        <v>Kee Yuk</v>
       </c>
       <c r="B13" t="str">
         <f>'Sec 2 Data'!R15</f>
@@ -5539,9 +5873,9 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" t="str">
         <f>'Sec 2 Data'!A16</f>
-        <v>0</v>
+        <v>Le Xiang</v>
       </c>
       <c r="B14" t="str">
         <f>'Sec 2 Data'!R16</f>
@@ -5553,9 +5887,9 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" t="str">
         <f>'Sec 2 Data'!A17</f>
-        <v>0</v>
+        <v>Javis</v>
       </c>
       <c r="B15" t="str">
         <f>'Sec 2 Data'!R17</f>
@@ -5567,9 +5901,9 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <f>'Sec 2 Data'!A18</f>
-        <v>0</v>
+      <c r="A16" t="e">
+        <f>'Sec 2 Data'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="B16" t="str">
         <f>'Sec 2 Data'!R18</f>
@@ -5581,9 +5915,9 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <f>'Sec 2 Data'!A19</f>
-        <v>0</v>
+      <c r="A17" t="str">
+        <f>'Sec 2 Data'!A18</f>
+        <v>Jayson</v>
       </c>
       <c r="B17" t="str">
         <f>'Sec 2 Data'!R19</f>
@@ -5595,9 +5929,9 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <f>'Sec 2 Data'!A20</f>
-        <v>0</v>
+      <c r="A18" t="str">
+        <f>'Sec 2 Data'!A19</f>
+        <v>Joey</v>
       </c>
       <c r="B18" t="str">
         <f>'Sec 2 Data'!R20</f>
@@ -5609,9 +5943,9 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <f>'Sec 2 Data'!A21</f>
-        <v>0</v>
+      <c r="A19" t="str">
+        <f>'Sec 2 Data'!A20</f>
+        <v>Jaden</v>
       </c>
       <c r="B19" t="str">
         <f>'Sec 2 Data'!R21</f>
@@ -5623,9 +5957,9 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <f>'Sec 2 Data'!A22</f>
-        <v>0</v>
+      <c r="A20" t="str">
+        <f>'Sec 2 Data'!A21</f>
+        <v>Yan Cheng</v>
       </c>
       <c r="B20" t="str">
         <f>'Sec 2 Data'!R22</f>
@@ -5637,9 +5971,9 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <f>'Sec 2 Data'!A23</f>
-        <v>0</v>
+      <c r="A21" t="str">
+        <f>'Sec 2 Data'!A22</f>
+        <v>Rui Ci</v>
       </c>
       <c r="B21" t="str">
         <f>'Sec 2 Data'!R23</f>
@@ -5651,9 +5985,9 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <f>'Sec 2 Data'!A24</f>
-        <v>0</v>
+      <c r="A22" t="str">
+        <f>'Sec 2 Data'!A23</f>
+        <v>Regneth</v>
       </c>
       <c r="B22" t="str">
         <f>'Sec 2 Data'!R24</f>
@@ -5665,9 +5999,9 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <f>'Sec 2 Data'!A25</f>
-        <v>0</v>
+      <c r="A23" t="str">
+        <f>'Sec 2 Data'!A24</f>
+        <v>Shu Phing</v>
       </c>
       <c r="B23" t="str">
         <f>'Sec 2 Data'!R25</f>
@@ -5679,9 +6013,9 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <f>'Sec 2 Data'!A26</f>
-        <v>0</v>
+      <c r="A24" t="str">
+        <f>'Sec 2 Data'!A25</f>
+        <v>Linus</v>
       </c>
       <c r="B24" t="str">
         <f>'Sec 2 Data'!R26</f>
@@ -5693,9 +6027,9 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <f>'Sec 2 Data'!A27</f>
-        <v>0</v>
+      <c r="A25" t="str">
+        <f>'Sec 2 Data'!A26</f>
+        <v>Shi Heng</v>
       </c>
       <c r="B25" t="str">
         <f>'Sec 2 Data'!R27</f>
@@ -5707,9 +6041,9 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <f>'Sec 2 Data'!A28</f>
-        <v>0</v>
+      <c r="A26" t="str">
+        <f>'Sec 2 Data'!A27</f>
+        <v>Jamie</v>
       </c>
       <c r="B26" t="str">
         <f>'Sec 2 Data'!R28</f>
@@ -5721,9 +6055,9 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <f>'Sec 2 Data'!A29</f>
-        <v>0</v>
+      <c r="A27" t="str">
+        <f>'Sec 2 Data'!A28</f>
+        <v>Tang Jin</v>
       </c>
       <c r="B27" t="str">
         <f>'Sec 2 Data'!R29</f>
@@ -5735,9 +6069,9 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <f>'Sec 2 Data'!A30</f>
-        <v>0</v>
+      <c r="A28" t="str">
+        <f>'Sec 2 Data'!A29</f>
+        <v>Kaelyn</v>
       </c>
       <c r="B28" t="str">
         <f>'Sec 2 Data'!R30</f>
@@ -5749,9 +6083,9 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <f>'Sec 2 Data'!A31</f>
-        <v>0</v>
+      <c r="A29" t="str">
+        <f>'Sec 2 Data'!A30</f>
+        <v>Issac</v>
       </c>
       <c r="B29" t="str">
         <f>'Sec 2 Data'!R31</f>
@@ -5763,9 +6097,9 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <f>'Sec 2 Data'!A32</f>
-        <v>0</v>
+      <c r="A30" t="str">
+        <f>'Sec 2 Data'!A31</f>
+        <v>Zaviour</v>
       </c>
       <c r="B30" t="str">
         <f>'Sec 2 Data'!R32</f>
@@ -5777,9 +6111,9 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <f>'Sec 2 Data'!A33</f>
-        <v>0</v>
+      <c r="A31" t="str">
+        <f>'Sec 2 Data'!A32</f>
+        <v>Julian</v>
       </c>
       <c r="B31" t="str">
         <f>'Sec 2 Data'!R33</f>
@@ -5791,9 +6125,9 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <f>'Sec 2 Data'!A34</f>
-        <v>0</v>
+      <c r="A32" t="str">
+        <f>'Sec 2 Data'!A33</f>
+        <v>Le Qi</v>
       </c>
       <c r="B32" t="str">
         <f>'Sec 2 Data'!R34</f>
@@ -5805,9 +6139,9 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <f>'Sec 2 Data'!A35</f>
-        <v>0</v>
+      <c r="A33" t="str">
+        <f>'Sec 2 Data'!A34</f>
+        <v>Zi Shan</v>
       </c>
       <c r="B33" t="str">
         <f>'Sec 2 Data'!R35</f>
@@ -5819,9 +6153,9 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <f>'Sec 2 Data'!A36</f>
-        <v>0</v>
+      <c r="A34" t="str">
+        <f>'Sec 2 Data'!A35</f>
+        <v>Jack</v>
       </c>
       <c r="B34" t="str">
         <f>'Sec 2 Data'!R36</f>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngwen\Desktop\website\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF306E63-E5A0-46E3-A55F-48829B4C4790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E138E5-888C-4398-ABDE-32B4F48A5BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sec 1 Data" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="91">
   <si>
     <t>Achievements</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Lee Ren</t>
   </si>
   <si>
-    <t>Ting Wei</t>
-  </si>
-  <si>
     <t>Bao Le</t>
   </si>
   <si>
@@ -225,15 +222,9 @@
     <t>Zhi Xing</t>
   </si>
   <si>
-    <t>Xin Ying</t>
-  </si>
-  <si>
     <t>Yik Yan</t>
   </si>
   <si>
-    <t>Yixuan</t>
-  </si>
-  <si>
     <t>Kaylie</t>
   </si>
   <si>
@@ -261,12 +252,6 @@
     <t>Yan Cheng</t>
   </si>
   <si>
-    <t>Rui Ci</t>
-  </si>
-  <si>
-    <t>Regneth</t>
-  </si>
-  <si>
     <t>Shu Phing</t>
   </si>
   <si>
@@ -279,9 +264,6 @@
     <t>Jamie</t>
   </si>
   <si>
-    <t>Tang Jin</t>
-  </si>
-  <si>
     <t>Kaelyn</t>
   </si>
   <si>
@@ -304,6 +286,21 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Rae</t>
+  </si>
+  <si>
+    <t>Ethan</t>
+  </si>
+  <si>
+    <t>Reigneth</t>
+  </si>
+  <si>
+    <t>Xin Ting</t>
+  </si>
+  <si>
+    <t>Andreas</t>
   </si>
 </sst>
 </file>
@@ -852,29 +849,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL43"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K21" sqref="K21"/>
+      <selection pane="topRight" activeCell="AD31" sqref="AD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" style="4" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="4" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" style="4" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="4" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" style="6" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="6" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" style="6" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" style="6" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="14.21875" style="7" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="19.21875" style="7" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="11.21875" style="7" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="25.44140625" style="1" customWidth="1"/>
     <col min="19" max="19" width="8.88671875" style="8"/>
@@ -1078,13 +1075,15 @@
       <c r="P4" s="14"/>
       <c r="Q4" s="15">
         <f>SUM(B4:G4)+3*SUM(H4:M4)+5*SUM(N4:P4)+SUM(S4:AL4)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R4" s="15" t="str">
         <f>CONCATENATE("-",IF(B4=1,$B$3&amp;", ",""),IF(C4=1,$C$3&amp;", ",""),IF(D4=1,$D$3&amp;", ",""),IF(E4=1,$E$3&amp;", ",""),IF(F4=1,$F$3&amp;", ",""),IF(G4=1,$G$3&amp;", ",""),IF(H4=1,$H$3&amp;", ",""),IF(I4=1,$I$3&amp;", ",""),IF(J4=1,$J$3&amp;", ",""),IF(K4=1,$K$3&amp;", ",""),IF(L4=1,$L$3&amp;", ",""),IF(M4=1,$M$3&amp;", ",""),IF(N4=1,$N$3&amp;", ",""),IF(O4=1,$O$3&amp;", ",""),IF(P4=1,$P$3&amp;", ",""))</f>
         <v>-</v>
       </c>
-      <c r="S4" s="16"/>
+      <c r="S4" s="16">
+        <v>2</v>
+      </c>
       <c r="T4" s="16"/>
       <c r="U4" s="16"/>
       <c r="V4" s="16"/>
@@ -1107,7 +1106,7 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -1126,13 +1125,15 @@
       <c r="P5" s="14"/>
       <c r="Q5" s="15">
         <f t="shared" ref="Q5:Q43" si="0">SUM(B5:G5)+3*SUM(H5:L5)+5*SUM(M5:P5)+SUM(S5:AL5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="15" t="str">
         <f t="shared" ref="R5:R43" si="1">CONCATENATE("-",IF(B5=1,$B$3&amp;", ",""),IF(C5=1,$C$3&amp;", ",""),IF(D5=1,$D$3&amp;", ",""),IF(E5=1,$E$3&amp;", ",""),IF(F5=1,$F$3&amp;", ",""),IF(G5=1,$G$3&amp;", ",""),IF(H5=1,$H$3&amp;", ",""),IF(I5=1,$I$3&amp;", ",""),IF(J5=1,$J$3&amp;", ",""),IF(K5=1,$K$3&amp;", ",""),IF(L5=1,$L$3&amp;", ",""),IF(M5=1,$M$3&amp;", ",""),IF(N5=1,$N$3&amp;", ",""),IF(O5=1,$O$3&amp;", ",""),IF(P5=1,$P$3&amp;", ",""))</f>
         <v>-</v>
       </c>
-      <c r="S5" s="16"/>
+      <c r="S5" s="16">
+        <v>1</v>
+      </c>
       <c r="T5" s="16"/>
       <c r="U5" s="16"/>
       <c r="V5" s="16"/>
@@ -1155,7 +1156,7 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -1174,13 +1175,15 @@
       <c r="P6" s="14"/>
       <c r="Q6" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R6" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S6" s="16"/>
+      <c r="S6" s="16">
+        <v>3</v>
+      </c>
       <c r="T6" s="16"/>
       <c r="U6" s="16"/>
       <c r="V6" s="16"/>
@@ -1203,7 +1206,7 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -1222,13 +1225,15 @@
       <c r="P7" s="14"/>
       <c r="Q7" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S7" s="16"/>
+      <c r="S7" s="16">
+        <v>1</v>
+      </c>
       <c r="T7" s="16"/>
       <c r="U7" s="16"/>
       <c r="V7" s="16"/>
@@ -1251,7 +1256,7 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -1270,13 +1275,15 @@
       <c r="P8" s="14"/>
       <c r="Q8" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R8" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S8" s="16"/>
+      <c r="S8" s="16">
+        <v>3</v>
+      </c>
       <c r="T8" s="16"/>
       <c r="U8" s="16"/>
       <c r="V8" s="16"/>
@@ -1299,7 +1306,7 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -1318,13 +1325,15 @@
       <c r="P9" s="14"/>
       <c r="Q9" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R9" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S9" s="16"/>
+      <c r="S9" s="16">
+        <v>3</v>
+      </c>
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
@@ -1347,7 +1356,7 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -1366,13 +1375,15 @@
       <c r="P10" s="14"/>
       <c r="Q10" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R10" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S10" s="16"/>
+      <c r="S10" s="16">
+        <v>3</v>
+      </c>
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
       <c r="V10" s="16"/>
@@ -1395,7 +1406,7 @@
     </row>
     <row r="11" spans="1:38" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1414,13 +1425,15 @@
       <c r="P11" s="14"/>
       <c r="Q11" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S11" s="16"/>
+      <c r="S11" s="16">
+        <v>1</v>
+      </c>
       <c r="T11" s="16"/>
       <c r="U11" s="16"/>
       <c r="V11" s="16"/>
@@ -1443,7 +1456,7 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -1462,13 +1475,15 @@
       <c r="P12" s="14"/>
       <c r="Q12" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R12" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S12" s="16"/>
+      <c r="S12" s="16">
+        <v>2</v>
+      </c>
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
@@ -1491,7 +1506,7 @@
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -1510,13 +1525,15 @@
       <c r="P13" s="14"/>
       <c r="Q13" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R13" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S13" s="16"/>
+      <c r="S13" s="16">
+        <v>2</v>
+      </c>
       <c r="T13" s="16"/>
       <c r="U13" s="16"/>
       <c r="V13" s="16"/>
@@ -1539,7 +1556,7 @@
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -1558,13 +1575,15 @@
       <c r="P14" s="14"/>
       <c r="Q14" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R14" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S14" s="16"/>
+      <c r="S14" s="16">
+        <v>3</v>
+      </c>
       <c r="T14" s="16"/>
       <c r="U14" s="16"/>
       <c r="V14" s="16"/>
@@ -1587,7 +1606,7 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -1606,13 +1625,15 @@
       <c r="P15" s="14"/>
       <c r="Q15" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R15" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S15" s="16"/>
+      <c r="S15" s="16">
+        <v>2</v>
+      </c>
       <c r="T15" s="16"/>
       <c r="U15" s="16"/>
       <c r="V15" s="16"/>
@@ -1635,7 +1656,7 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -1654,13 +1675,15 @@
       <c r="P16" s="14"/>
       <c r="Q16" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R16" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S16" s="16"/>
+      <c r="S16" s="16">
+        <v>2</v>
+      </c>
       <c r="T16" s="16"/>
       <c r="U16" s="16"/>
       <c r="V16" s="16"/>
@@ -1683,7 +1706,7 @@
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -1702,13 +1725,15 @@
       <c r="P17" s="14"/>
       <c r="Q17" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R17" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S17" s="16"/>
+      <c r="S17" s="16">
+        <v>2</v>
+      </c>
       <c r="T17" s="16"/>
       <c r="U17" s="16"/>
       <c r="V17" s="16"/>
@@ -1731,7 +1756,7 @@
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -1750,13 +1775,15 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R18" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S18" s="16"/>
+      <c r="S18" s="16">
+        <v>2</v>
+      </c>
       <c r="T18" s="16"/>
       <c r="U18" s="16"/>
       <c r="V18" s="16"/>
@@ -1779,7 +1806,7 @@
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -1798,13 +1825,15 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R19" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S19" s="16"/>
+      <c r="S19" s="16">
+        <v>3</v>
+      </c>
       <c r="T19" s="16"/>
       <c r="U19" s="16"/>
       <c r="V19" s="16"/>
@@ -1827,7 +1856,7 @@
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -1846,13 +1875,15 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R20" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S20" s="16"/>
+      <c r="S20" s="16">
+        <v>3</v>
+      </c>
       <c r="T20" s="16"/>
       <c r="U20" s="16"/>
       <c r="V20" s="16"/>
@@ -1875,7 +1906,7 @@
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -1894,13 +1925,15 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R21" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S21" s="16"/>
+      <c r="S21" s="16">
+        <v>3</v>
+      </c>
       <c r="T21" s="16"/>
       <c r="U21" s="16"/>
       <c r="V21" s="16"/>
@@ -1923,7 +1956,7 @@
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -1942,13 +1975,15 @@
       <c r="P22" s="14"/>
       <c r="Q22" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R22" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S22" s="16"/>
+      <c r="S22" s="16">
+        <v>2</v>
+      </c>
       <c r="T22" s="16"/>
       <c r="U22" s="16"/>
       <c r="V22" s="16"/>
@@ -1971,7 +2006,7 @@
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -1990,13 +2025,15 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R23" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S23" s="16"/>
+      <c r="S23" s="16">
+        <v>2</v>
+      </c>
       <c r="T23" s="16"/>
       <c r="U23" s="16"/>
       <c r="V23" s="16"/>
@@ -2019,7 +2056,7 @@
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -2038,13 +2075,15 @@
       <c r="P24" s="14"/>
       <c r="Q24" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R24" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S24" s="16"/>
+      <c r="S24" s="16">
+        <v>3</v>
+      </c>
       <c r="T24" s="16"/>
       <c r="U24" s="16"/>
       <c r="V24" s="16"/>
@@ -2067,7 +2106,7 @@
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -2086,13 +2125,15 @@
       <c r="P25" s="14"/>
       <c r="Q25" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R25" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S25" s="16"/>
+      <c r="S25" s="16">
+        <v>3</v>
+      </c>
       <c r="T25" s="16"/>
       <c r="U25" s="16"/>
       <c r="V25" s="16"/>
@@ -2115,7 +2156,7 @@
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -2134,13 +2175,15 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R26" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S26" s="16"/>
+      <c r="S26" s="16">
+        <v>3</v>
+      </c>
       <c r="T26" s="16"/>
       <c r="U26" s="16"/>
       <c r="V26" s="16"/>
@@ -2163,7 +2206,7 @@
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -2182,13 +2225,15 @@
       <c r="P27" s="14"/>
       <c r="Q27" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R27" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S27" s="16"/>
+      <c r="S27" s="16">
+        <v>2</v>
+      </c>
       <c r="T27" s="16"/>
       <c r="U27" s="16"/>
       <c r="V27" s="16"/>
@@ -2211,7 +2256,7 @@
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -2230,13 +2275,15 @@
       <c r="P28" s="14"/>
       <c r="Q28" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R28" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S28" s="16"/>
+      <c r="S28" s="16">
+        <v>2</v>
+      </c>
       <c r="T28" s="16"/>
       <c r="U28" s="16"/>
       <c r="V28" s="16"/>
@@ -2259,7 +2306,7 @@
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -2307,7 +2354,7 @@
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -2326,13 +2373,15 @@
       <c r="P30" s="14"/>
       <c r="Q30" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R30" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S30" s="16"/>
+      <c r="S30" s="16">
+        <v>2</v>
+      </c>
       <c r="T30" s="16"/>
       <c r="U30" s="16"/>
       <c r="V30" s="16"/>
@@ -2355,7 +2404,7 @@
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -2374,13 +2423,15 @@
       <c r="P31" s="14"/>
       <c r="Q31" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R31" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S31" s="16"/>
+      <c r="S31" s="16">
+        <v>3</v>
+      </c>
       <c r="T31" s="16"/>
       <c r="U31" s="16"/>
       <c r="V31" s="16"/>
@@ -2403,7 +2454,7 @@
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -2422,13 +2473,15 @@
       <c r="P32" s="14"/>
       <c r="Q32" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R32" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S32" s="16"/>
+      <c r="S32" s="16">
+        <v>3</v>
+      </c>
       <c r="T32" s="16"/>
       <c r="U32" s="16"/>
       <c r="V32" s="16"/>
@@ -2451,7 +2504,7 @@
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -2470,13 +2523,15 @@
       <c r="P33" s="14"/>
       <c r="Q33" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S33" s="16"/>
+      <c r="S33" s="16">
+        <v>1</v>
+      </c>
       <c r="T33" s="16"/>
       <c r="U33" s="16"/>
       <c r="V33" s="16"/>
@@ -2499,7 +2554,7 @@
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -2518,13 +2573,15 @@
       <c r="P34" s="14"/>
       <c r="Q34" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R34" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S34" s="16"/>
+      <c r="S34" s="16">
+        <v>2</v>
+      </c>
       <c r="T34" s="16"/>
       <c r="U34" s="16"/>
       <c r="V34" s="16"/>
@@ -2547,7 +2604,7 @@
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -2566,13 +2623,15 @@
       <c r="P35" s="14"/>
       <c r="Q35" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R35" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S35" s="16"/>
+      <c r="S35" s="16">
+        <v>2</v>
+      </c>
       <c r="T35" s="16"/>
       <c r="U35" s="16"/>
       <c r="V35" s="16"/>
@@ -2595,7 +2654,7 @@
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -2614,13 +2673,15 @@
       <c r="P36" s="14"/>
       <c r="Q36" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R36" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S36" s="16"/>
+      <c r="S36" s="16">
+        <v>2</v>
+      </c>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
       <c r="V36" s="16"/>
@@ -2643,7 +2704,7 @@
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -2662,13 +2723,15 @@
       <c r="P37" s="14"/>
       <c r="Q37" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R37" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S37" s="16"/>
+      <c r="S37" s="16">
+        <v>3</v>
+      </c>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
       <c r="V37" s="16"/>
@@ -2691,7 +2754,7 @@
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -2710,13 +2773,15 @@
       <c r="P38" s="14"/>
       <c r="Q38" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S38" s="16"/>
+      <c r="S38" s="16">
+        <v>1</v>
+      </c>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
       <c r="V38" s="16"/>
@@ -2739,7 +2804,7 @@
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -2758,13 +2823,15 @@
       <c r="P39" s="14"/>
       <c r="Q39" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R39" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S39" s="16"/>
+      <c r="S39" s="16">
+        <v>3</v>
+      </c>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
       <c r="V39" s="16"/>
@@ -2993,7 +3060,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3013,13 +3080,13 @@
       </c>
       <c r="C2">
         <f>'Sec 1 Data'!Q4</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>'Sec 1 Data'!A5</f>
-        <v>Ting Wei</v>
+        <v>Andreas</v>
       </c>
       <c r="B3" t="str">
         <f>'Sec 1 Data'!R5</f>
@@ -3027,7 +3094,7 @@
       </c>
       <c r="C3">
         <f>'Sec 1 Data'!Q5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3041,7 +3108,7 @@
       </c>
       <c r="C4">
         <f>'Sec 1 Data'!Q6</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3055,7 +3122,7 @@
       </c>
       <c r="C5">
         <f>'Sec 1 Data'!Q7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3069,7 +3136,7 @@
       </c>
       <c r="C6">
         <f>'Sec 1 Data'!Q8</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -3083,7 +3150,7 @@
       </c>
       <c r="C7">
         <f>'Sec 1 Data'!Q9</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3097,7 +3164,7 @@
       </c>
       <c r="C8">
         <f>'Sec 1 Data'!Q10</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -3111,7 +3178,7 @@
       </c>
       <c r="C9">
         <f>'Sec 1 Data'!Q11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -3125,7 +3192,7 @@
       </c>
       <c r="C10">
         <f>'Sec 1 Data'!Q12</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -3139,7 +3206,7 @@
       </c>
       <c r="C11">
         <f>'Sec 1 Data'!Q13</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -3153,7 +3220,7 @@
       </c>
       <c r="C12">
         <f>'Sec 1 Data'!Q14</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -3167,7 +3234,7 @@
       </c>
       <c r="C13">
         <f>'Sec 1 Data'!Q15</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -3181,7 +3248,7 @@
       </c>
       <c r="C14">
         <f>'Sec 1 Data'!Q16</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -3195,7 +3262,7 @@
       </c>
       <c r="C15">
         <f>'Sec 1 Data'!Q17</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -3209,7 +3276,7 @@
       </c>
       <c r="C16">
         <f>'Sec 1 Data'!Q18</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -3223,7 +3290,7 @@
       </c>
       <c r="C17">
         <f>'Sec 1 Data'!Q19</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -3237,7 +3304,7 @@
       </c>
       <c r="C18">
         <f>'Sec 1 Data'!Q20</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -3251,7 +3318,7 @@
       </c>
       <c r="C19">
         <f>'Sec 1 Data'!Q21</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -3265,7 +3332,7 @@
       </c>
       <c r="C20">
         <f>'Sec 1 Data'!Q22</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -3279,7 +3346,7 @@
       </c>
       <c r="C21">
         <f>'Sec 1 Data'!Q23</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -3293,7 +3360,7 @@
       </c>
       <c r="C22">
         <f>'Sec 1 Data'!Q24</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -3307,7 +3374,7 @@
       </c>
       <c r="C23">
         <f>'Sec 1 Data'!Q25</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -3321,7 +3388,7 @@
       </c>
       <c r="C24">
         <f>'Sec 1 Data'!Q26</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -3335,7 +3402,7 @@
       </c>
       <c r="C25">
         <f>'Sec 1 Data'!Q27</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -3349,7 +3416,7 @@
       </c>
       <c r="C26">
         <f>'Sec 1 Data'!Q28</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -3377,7 +3444,7 @@
       </c>
       <c r="C28">
         <f>'Sec 1 Data'!Q30</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -3391,7 +3458,7 @@
       </c>
       <c r="C29">
         <f>'Sec 1 Data'!Q31</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -3405,7 +3472,7 @@
       </c>
       <c r="C30">
         <f>'Sec 1 Data'!Q32</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -3419,7 +3486,7 @@
       </c>
       <c r="C31">
         <f>'Sec 1 Data'!Q33</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -3433,7 +3500,7 @@
       </c>
       <c r="C32">
         <f>'Sec 1 Data'!Q34</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -3447,7 +3514,7 @@
       </c>
       <c r="C33">
         <f>'Sec 1 Data'!Q35</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -3461,7 +3528,7 @@
       </c>
       <c r="C34">
         <f>'Sec 1 Data'!Q36</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -3475,7 +3542,7 @@
       </c>
       <c r="C35">
         <f>'Sec 1 Data'!Q37</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -3489,7 +3556,7 @@
       </c>
       <c r="C36">
         <f>'Sec 1 Data'!Q38</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -3503,7 +3570,7 @@
       </c>
       <c r="C37">
         <f>'Sec 1 Data'!Q39</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -3571,30 +3638,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848CF460-3EAC-4A7D-8560-52951FCF8A6B}">
   <dimension ref="A1:AL43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="T17" sqref="T17"/>
-      <selection pane="topRight" activeCell="A36" sqref="A36"/>
+      <selection pane="topRight" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12" style="4" customWidth="1"/>
     <col min="8" max="8" width="10.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" style="6" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="14.21875" style="7" customWidth="1"/>
+    <col min="15" max="15" width="19.21875" style="7" customWidth="1"/>
+    <col min="16" max="16" width="11.21875" style="7" customWidth="1"/>
     <col min="17" max="17" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="25.44140625" style="1" customWidth="1"/>
     <col min="19" max="19" width="8.88671875" style="8"/>
@@ -3770,7 +3837,7 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -3778,7 +3845,9 @@
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
+      <c r="H4" s="13">
+        <v>1</v>
+      </c>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
@@ -3789,13 +3858,15 @@
       <c r="P4" s="14"/>
       <c r="Q4" s="15">
         <f>SUM(B4:G4)+3*SUM(H4:M4)+5*SUM(N4:P4)+SUM(S4:AL4)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R4" s="15" t="str">
         <f>CONCATENATE("-",IF(B4=1,$B$3&amp;", ",""),IF(C4=1,$C$3&amp;", ",""),IF(D4=1,$D$3&amp;", ",""),IF(E4=1,$E$3&amp;", ",""),IF(F4=1,$F$3&amp;", ",""),IF(G4=1,$G$3&amp;", ",""),IF(H4=1,$H$3&amp;", ",""),IF(I4=1,$I$3&amp;", ",""),IF(J4=1,$J$3&amp;", ",""),IF(K4=1,$K$3&amp;", ",""),IF(L4=1,$L$3&amp;", ",""),IF(M4=1,$M$3&amp;", ",""),IF(N4=1,$N$3&amp;", ",""),IF(O4=1,$O$3&amp;", ",""),IF(P4=1,$P$3&amp;", ",""))</f>
-        <v>-</v>
-      </c>
-      <c r="S4" s="16"/>
+        <v xml:space="preserve">-Full Combo, </v>
+      </c>
+      <c r="S4" s="16">
+        <v>3</v>
+      </c>
       <c r="T4" s="16"/>
       <c r="U4" s="16"/>
       <c r="V4" s="16"/>
@@ -3818,7 +3889,7 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -3837,13 +3908,15 @@
       <c r="P5" s="14"/>
       <c r="Q5" s="15">
         <f t="shared" ref="Q5:Q43" si="0">SUM(B5:G5)+3*SUM(H5:L5)+5*SUM(M5:P5)+SUM(S5:AL5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="15" t="str">
         <f t="shared" ref="R5:R43" si="1">CONCATENATE("-",IF(B5=1,$B$3&amp;", ",""),IF(C5=1,$C$3&amp;", ",""),IF(D5=1,$D$3&amp;", ",""),IF(E5=1,$E$3&amp;", ",""),IF(F5=1,$F$3&amp;", ",""),IF(G5=1,$G$3&amp;", ",""),IF(H5=1,$H$3&amp;", ",""),IF(I5=1,$I$3&amp;", ",""),IF(J5=1,$J$3&amp;", ",""),IF(K5=1,$K$3&amp;", ",""),IF(L5=1,$L$3&amp;", ",""),IF(M5=1,$M$3&amp;", ",""),IF(N5=1,$N$3&amp;", ",""),IF(O5=1,$O$3&amp;", ",""),IF(P5=1,$P$3&amp;", ",""))</f>
         <v>-</v>
       </c>
-      <c r="S5" s="16"/>
+      <c r="S5" s="16">
+        <v>1</v>
+      </c>
       <c r="T5" s="16"/>
       <c r="U5" s="16"/>
       <c r="V5" s="16"/>
@@ -3866,7 +3939,7 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -3874,7 +3947,9 @@
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
-      <c r="H6" s="13"/>
+      <c r="H6" s="13">
+        <v>1</v>
+      </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
@@ -3885,13 +3960,15 @@
       <c r="P6" s="14"/>
       <c r="Q6" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R6" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S6" s="16"/>
+        <v xml:space="preserve">-Full Combo, </v>
+      </c>
+      <c r="S6" s="16">
+        <v>3</v>
+      </c>
       <c r="T6" s="16"/>
       <c r="U6" s="16"/>
       <c r="V6" s="16"/>
@@ -3914,7 +3991,7 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -3933,13 +4010,15 @@
       <c r="P7" s="14"/>
       <c r="Q7" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S7" s="16"/>
+      <c r="S7" s="16">
+        <v>1</v>
+      </c>
       <c r="T7" s="16"/>
       <c r="U7" s="16"/>
       <c r="V7" s="16"/>
@@ -3962,7 +4041,7 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -4010,7 +4089,7 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -4018,7 +4097,9 @@
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="13"/>
+      <c r="H9" s="13">
+        <v>1</v>
+      </c>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
@@ -4029,13 +4110,15 @@
       <c r="P9" s="14"/>
       <c r="Q9" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R9" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S9" s="16"/>
+        <v xml:space="preserve">-Full Combo, </v>
+      </c>
+      <c r="S9" s="16">
+        <v>3</v>
+      </c>
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
@@ -4058,7 +4141,7 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -4077,13 +4160,15 @@
       <c r="P10" s="14"/>
       <c r="Q10" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R10" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S10" s="16"/>
+      <c r="S10" s="16">
+        <v>3</v>
+      </c>
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
       <c r="V10" s="16"/>
@@ -4106,7 +4191,7 @@
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -4125,13 +4210,15 @@
       <c r="P11" s="14"/>
       <c r="Q11" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R11" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S11" s="16"/>
+      <c r="S11" s="16">
+        <v>3</v>
+      </c>
       <c r="T11" s="16"/>
       <c r="U11" s="16"/>
       <c r="V11" s="16"/>
@@ -4154,7 +4241,7 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -4162,7 +4249,9 @@
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="13"/>
+      <c r="H12" s="13">
+        <v>1</v>
+      </c>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
@@ -4173,13 +4262,15 @@
       <c r="P12" s="14"/>
       <c r="Q12" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R12" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S12" s="16"/>
+        <v xml:space="preserve">-Full Combo, </v>
+      </c>
+      <c r="S12" s="16">
+        <v>3</v>
+      </c>
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
@@ -4202,7 +4293,7 @@
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -4221,13 +4312,15 @@
       <c r="P13" s="14"/>
       <c r="Q13" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S13" s="16"/>
+      <c r="S13" s="16">
+        <v>1</v>
+      </c>
       <c r="T13" s="16"/>
       <c r="U13" s="16"/>
       <c r="V13" s="16"/>
@@ -4250,7 +4343,7 @@
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -4269,13 +4362,15 @@
       <c r="P14" s="14"/>
       <c r="Q14" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R14" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S14" s="16"/>
+      <c r="S14" s="16">
+        <v>2</v>
+      </c>
       <c r="T14" s="16"/>
       <c r="U14" s="16"/>
       <c r="V14" s="16"/>
@@ -4298,7 +4393,7 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -4317,13 +4412,15 @@
       <c r="P15" s="14"/>
       <c r="Q15" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R15" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S15" s="16"/>
+      <c r="S15" s="16">
+        <v>2</v>
+      </c>
       <c r="T15" s="16"/>
       <c r="U15" s="16"/>
       <c r="V15" s="16"/>
@@ -4346,7 +4443,7 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -4365,13 +4462,15 @@
       <c r="P16" s="14"/>
       <c r="Q16" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R16" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S16" s="16"/>
+      <c r="S16" s="16">
+        <v>2</v>
+      </c>
       <c r="T16" s="16"/>
       <c r="U16" s="16"/>
       <c r="V16" s="16"/>
@@ -4394,7 +4493,7 @@
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -4413,13 +4512,15 @@
       <c r="P17" s="14"/>
       <c r="Q17" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S17" s="16"/>
+      <c r="S17" s="16">
+        <v>1</v>
+      </c>
       <c r="T17" s="16"/>
       <c r="U17" s="16"/>
       <c r="V17" s="16"/>
@@ -4442,7 +4543,7 @@
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -4461,13 +4562,15 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S18" s="16"/>
+      <c r="S18" s="16">
+        <v>1</v>
+      </c>
       <c r="T18" s="16"/>
       <c r="U18" s="16"/>
       <c r="V18" s="16"/>
@@ -4490,7 +4593,7 @@
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -4498,7 +4601,9 @@
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="13"/>
+      <c r="H19" s="13">
+        <v>1</v>
+      </c>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
@@ -4509,13 +4614,15 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R19" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S19" s="16"/>
+        <v xml:space="preserve">-Full Combo, </v>
+      </c>
+      <c r="S19" s="16">
+        <v>3</v>
+      </c>
       <c r="T19" s="16"/>
       <c r="U19" s="16"/>
       <c r="V19" s="16"/>
@@ -4538,7 +4645,7 @@
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -4557,13 +4664,15 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S20" s="16"/>
+      <c r="S20" s="16">
+        <v>1</v>
+      </c>
       <c r="T20" s="16"/>
       <c r="U20" s="16"/>
       <c r="V20" s="16"/>
@@ -4586,7 +4695,7 @@
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -4605,13 +4714,15 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R21" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S21" s="16"/>
+      <c r="S21" s="16">
+        <v>3</v>
+      </c>
       <c r="T21" s="16"/>
       <c r="U21" s="16"/>
       <c r="V21" s="16"/>
@@ -4634,7 +4745,7 @@
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -4642,7 +4753,9 @@
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="13"/>
+      <c r="H22" s="13">
+        <v>1</v>
+      </c>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
@@ -4653,13 +4766,15 @@
       <c r="P22" s="14"/>
       <c r="Q22" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R22" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S22" s="16"/>
+        <v xml:space="preserve">-Full Combo, </v>
+      </c>
+      <c r="S22" s="16">
+        <v>3</v>
+      </c>
       <c r="T22" s="16"/>
       <c r="U22" s="16"/>
       <c r="V22" s="16"/>
@@ -4682,7 +4797,7 @@
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -4701,13 +4816,15 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S23" s="16"/>
+      <c r="S23" s="16">
+        <v>1</v>
+      </c>
       <c r="T23" s="16"/>
       <c r="U23" s="16"/>
       <c r="V23" s="16"/>
@@ -4730,7 +4847,7 @@
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -4738,7 +4855,9 @@
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="13"/>
+      <c r="H24" s="13">
+        <v>1</v>
+      </c>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
@@ -4749,13 +4868,15 @@
       <c r="P24" s="14"/>
       <c r="Q24" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R24" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S24" s="16"/>
+        <v xml:space="preserve">-Full Combo, </v>
+      </c>
+      <c r="S24" s="16">
+        <v>3</v>
+      </c>
       <c r="T24" s="16"/>
       <c r="U24" s="16"/>
       <c r="V24" s="16"/>
@@ -4778,7 +4899,7 @@
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -4797,13 +4918,15 @@
       <c r="P25" s="14"/>
       <c r="Q25" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S25" s="16"/>
+      <c r="S25" s="16">
+        <v>1</v>
+      </c>
       <c r="T25" s="16"/>
       <c r="U25" s="16"/>
       <c r="V25" s="16"/>
@@ -4826,7 +4949,7 @@
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -4845,13 +4968,15 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R26" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S26" s="16"/>
+      <c r="S26" s="16">
+        <v>2</v>
+      </c>
       <c r="T26" s="16"/>
       <c r="U26" s="16"/>
       <c r="V26" s="16"/>
@@ -4874,7 +4999,7 @@
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -4893,13 +5018,15 @@
       <c r="P27" s="14"/>
       <c r="Q27" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R27" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S27" s="16"/>
+      <c r="S27" s="16">
+        <v>3</v>
+      </c>
       <c r="T27" s="16"/>
       <c r="U27" s="16"/>
       <c r="V27" s="16"/>
@@ -4922,7 +5049,7 @@
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -4941,13 +5068,15 @@
       <c r="P28" s="14"/>
       <c r="Q28" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R28" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S28" s="16"/>
+      <c r="S28" s="16">
+        <v>2</v>
+      </c>
       <c r="T28" s="16"/>
       <c r="U28" s="16"/>
       <c r="V28" s="16"/>
@@ -4970,7 +5099,7 @@
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -5018,7 +5147,7 @@
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -5037,13 +5166,15 @@
       <c r="P30" s="14"/>
       <c r="Q30" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S30" s="16"/>
+      <c r="S30" s="16">
+        <v>1</v>
+      </c>
       <c r="T30" s="16"/>
       <c r="U30" s="16"/>
       <c r="V30" s="16"/>
@@ -5066,7 +5197,7 @@
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -5085,13 +5216,15 @@
       <c r="P31" s="14"/>
       <c r="Q31" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R31" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S31" s="16"/>
+      <c r="S31" s="16">
+        <v>2</v>
+      </c>
       <c r="T31" s="16"/>
       <c r="U31" s="16"/>
       <c r="V31" s="16"/>
@@ -5114,7 +5247,7 @@
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -5122,7 +5255,9 @@
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
-      <c r="H32" s="13"/>
+      <c r="H32" s="13">
+        <v>1</v>
+      </c>
       <c r="I32" s="13"/>
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
@@ -5133,13 +5268,15 @@
       <c r="P32" s="14"/>
       <c r="Q32" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R32" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="S32" s="16"/>
+        <v xml:space="preserve">-Full Combo, </v>
+      </c>
+      <c r="S32" s="16">
+        <v>3</v>
+      </c>
       <c r="T32" s="16"/>
       <c r="U32" s="16"/>
       <c r="V32" s="16"/>
@@ -5162,7 +5299,7 @@
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -5181,13 +5318,15 @@
       <c r="P33" s="14"/>
       <c r="Q33" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R33" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S33" s="16"/>
+      <c r="S33" s="16">
+        <v>2</v>
+      </c>
       <c r="T33" s="16"/>
       <c r="U33" s="16"/>
       <c r="V33" s="16"/>
@@ -5210,7 +5349,7 @@
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -5229,13 +5368,15 @@
       <c r="P34" s="14"/>
       <c r="Q34" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R34" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S34" s="16"/>
+      <c r="S34" s="16">
+        <v>2</v>
+      </c>
       <c r="T34" s="16"/>
       <c r="U34" s="16"/>
       <c r="V34" s="16"/>
@@ -5258,7 +5399,7 @@
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -5277,13 +5418,15 @@
       <c r="P35" s="14"/>
       <c r="Q35" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R35" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S35" s="16"/>
+      <c r="S35" s="16">
+        <v>2</v>
+      </c>
       <c r="T35" s="16"/>
       <c r="U35" s="16"/>
       <c r="V35" s="16"/>
@@ -5695,7 +5838,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -5711,11 +5854,11 @@
       </c>
       <c r="B2" t="str">
         <f>'Sec 2 Data'!R4</f>
-        <v>-</v>
+        <v xml:space="preserve">-Full Combo, </v>
       </c>
       <c r="C2">
         <f>'Sec 2 Data'!Q4</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -5729,7 +5872,7 @@
       </c>
       <c r="C3">
         <f>'Sec 2 Data'!Q5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -5739,11 +5882,11 @@
       </c>
       <c r="B4" t="str">
         <f>'Sec 2 Data'!R6</f>
-        <v>-</v>
+        <v xml:space="preserve">-Full Combo, </v>
       </c>
       <c r="C4">
         <f>'Sec 2 Data'!Q6</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -5757,7 +5900,7 @@
       </c>
       <c r="C5">
         <f>'Sec 2 Data'!Q7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -5777,15 +5920,15 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>'Sec 2 Data'!A9</f>
-        <v>Xin Ying</v>
+        <v>Xin Ting</v>
       </c>
       <c r="B7" t="str">
         <f>'Sec 2 Data'!R9</f>
-        <v>-</v>
+        <v xml:space="preserve">-Full Combo, </v>
       </c>
       <c r="C7">
         <f>'Sec 2 Data'!Q9</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -5799,7 +5942,7 @@
       </c>
       <c r="C8">
         <f>'Sec 2 Data'!Q10</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -5813,21 +5956,21 @@
       </c>
       <c r="C9">
         <f>'Sec 2 Data'!Q11</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>'Sec 2 Data'!A12</f>
-        <v>Yixuan</v>
+        <v>Claire</v>
       </c>
       <c r="B10" t="str">
         <f>'Sec 2 Data'!R12</f>
-        <v>-</v>
+        <v xml:space="preserve">-Full Combo, </v>
       </c>
       <c r="C10">
         <f>'Sec 2 Data'!Q12</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -5841,7 +5984,7 @@
       </c>
       <c r="C11">
         <f>'Sec 2 Data'!Q13</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -5855,7 +5998,7 @@
       </c>
       <c r="C12">
         <f>'Sec 2 Data'!Q14</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -5869,7 +6012,7 @@
       </c>
       <c r="C13">
         <f>'Sec 2 Data'!Q15</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -5883,7 +6026,7 @@
       </c>
       <c r="C14">
         <f>'Sec 2 Data'!Q16</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -5897,7 +6040,7 @@
       </c>
       <c r="C15">
         <f>'Sec 2 Data'!Q17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -5911,7 +6054,7 @@
       </c>
       <c r="C16">
         <f>'Sec 2 Data'!Q18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -5921,11 +6064,11 @@
       </c>
       <c r="B17" t="str">
         <f>'Sec 2 Data'!R19</f>
-        <v>-</v>
+        <v xml:space="preserve">-Full Combo, </v>
       </c>
       <c r="C17">
         <f>'Sec 2 Data'!Q19</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -5939,7 +6082,7 @@
       </c>
       <c r="C18">
         <f>'Sec 2 Data'!Q20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -5953,7 +6096,7 @@
       </c>
       <c r="C19">
         <f>'Sec 2 Data'!Q21</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -5963,17 +6106,17 @@
       </c>
       <c r="B20" t="str">
         <f>'Sec 2 Data'!R22</f>
-        <v>-</v>
+        <v xml:space="preserve">-Full Combo, </v>
       </c>
       <c r="C20">
         <f>'Sec 2 Data'!Q22</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f>'Sec 2 Data'!A22</f>
-        <v>Rui Ci</v>
+        <v>Rae</v>
       </c>
       <c r="B21" t="str">
         <f>'Sec 2 Data'!R23</f>
@@ -5981,21 +6124,21 @@
       </c>
       <c r="C21">
         <f>'Sec 2 Data'!Q23</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f>'Sec 2 Data'!A23</f>
-        <v>Regneth</v>
+        <v>Reigneth</v>
       </c>
       <c r="B22" t="str">
         <f>'Sec 2 Data'!R24</f>
-        <v>-</v>
+        <v xml:space="preserve">-Full Combo, </v>
       </c>
       <c r="C22">
         <f>'Sec 2 Data'!Q24</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -6009,7 +6152,7 @@
       </c>
       <c r="C23">
         <f>'Sec 2 Data'!Q25</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -6023,7 +6166,7 @@
       </c>
       <c r="C24">
         <f>'Sec 2 Data'!Q26</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -6037,7 +6180,7 @@
       </c>
       <c r="C25">
         <f>'Sec 2 Data'!Q27</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -6051,13 +6194,13 @@
       </c>
       <c r="C26">
         <f>'Sec 2 Data'!Q28</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f>'Sec 2 Data'!A28</f>
-        <v>Tang Jin</v>
+        <v>Ethan</v>
       </c>
       <c r="B27" t="str">
         <f>'Sec 2 Data'!R29</f>
@@ -6079,7 +6222,7 @@
       </c>
       <c r="C28">
         <f>'Sec 2 Data'!Q30</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -6093,7 +6236,7 @@
       </c>
       <c r="C29">
         <f>'Sec 2 Data'!Q31</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -6103,11 +6246,11 @@
       </c>
       <c r="B30" t="str">
         <f>'Sec 2 Data'!R32</f>
-        <v>-</v>
+        <v xml:space="preserve">-Full Combo, </v>
       </c>
       <c r="C30">
         <f>'Sec 2 Data'!Q32</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -6121,7 +6264,7 @@
       </c>
       <c r="C31">
         <f>'Sec 2 Data'!Q33</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -6135,7 +6278,7 @@
       </c>
       <c r="C32">
         <f>'Sec 2 Data'!Q34</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -6149,7 +6292,7 @@
       </c>
       <c r="C33">
         <f>'Sec 2 Data'!Q35</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngwen\Desktop\website\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E138E5-888C-4398-ABDE-32B4F48A5BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C706C5-8DFF-4AEB-AD0D-EE8AF5686408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sec 1 Data" sheetId="1" r:id="rId1"/>
@@ -849,9 +849,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD31" sqref="AD31"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -863,7 +863,7 @@
     <col min="5" max="5" width="11.77734375" style="4" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="4" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="4" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" style="6" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" style="6" customWidth="1"/>
     <col min="9" max="9" width="15.88671875" style="5" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="16.6640625" style="6" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="15.88671875" style="6" hidden="1" customWidth="1"/>
@@ -1075,7 +1075,7 @@
       <c r="P4" s="14"/>
       <c r="Q4" s="15">
         <f>SUM(B4:G4)+3*SUM(H4:M4)+5*SUM(N4:P4)+SUM(S4:AL4)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R4" s="15" t="str">
         <f>CONCATENATE("-",IF(B4=1,$B$3&amp;", ",""),IF(C4=1,$C$3&amp;", ",""),IF(D4=1,$D$3&amp;", ",""),IF(E4=1,$E$3&amp;", ",""),IF(F4=1,$F$3&amp;", ",""),IF(G4=1,$G$3&amp;", ",""),IF(H4=1,$H$3&amp;", ",""),IF(I4=1,$I$3&amp;", ",""),IF(J4=1,$J$3&amp;", ",""),IF(K4=1,$K$3&amp;", ",""),IF(L4=1,$L$3&amp;", ",""),IF(M4=1,$M$3&amp;", ",""),IF(N4=1,$N$3&amp;", ",""),IF(O4=1,$O$3&amp;", ",""),IF(P4=1,$P$3&amp;", ",""))</f>
@@ -1084,7 +1084,9 @@
       <c r="S4" s="16">
         <v>2</v>
       </c>
-      <c r="T4" s="16"/>
+      <c r="T4" s="16">
+        <v>3</v>
+      </c>
       <c r="U4" s="16"/>
       <c r="V4" s="16"/>
       <c r="W4" s="16"/>
@@ -1175,7 +1177,7 @@
       <c r="P6" s="14"/>
       <c r="Q6" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R6" s="15" t="str">
         <f t="shared" si="1"/>
@@ -1184,7 +1186,9 @@
       <c r="S6" s="16">
         <v>3</v>
       </c>
-      <c r="T6" s="16"/>
+      <c r="T6" s="16">
+        <v>1</v>
+      </c>
       <c r="U6" s="16"/>
       <c r="V6" s="16"/>
       <c r="W6" s="16"/>
@@ -1225,7 +1229,7 @@
       <c r="P7" s="14"/>
       <c r="Q7" s="15">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R7" s="15" t="str">
         <f t="shared" si="1"/>
@@ -1234,7 +1238,9 @@
       <c r="S7" s="16">
         <v>1</v>
       </c>
-      <c r="T7" s="16"/>
+      <c r="T7" s="16">
+        <v>1</v>
+      </c>
       <c r="U7" s="16"/>
       <c r="V7" s="16"/>
       <c r="W7" s="16"/>
@@ -1275,7 +1281,7 @@
       <c r="P8" s="14"/>
       <c r="Q8" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R8" s="15" t="str">
         <f t="shared" si="1"/>
@@ -1284,7 +1290,9 @@
       <c r="S8" s="16">
         <v>3</v>
       </c>
-      <c r="T8" s="16"/>
+      <c r="T8" s="16">
+        <v>1</v>
+      </c>
       <c r="U8" s="16"/>
       <c r="V8" s="16"/>
       <c r="W8" s="16"/>
@@ -1334,7 +1342,9 @@
       <c r="S9" s="16">
         <v>3</v>
       </c>
-      <c r="T9" s="16"/>
+      <c r="T9" s="16">
+        <v>0</v>
+      </c>
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
       <c r="W9" s="16"/>
@@ -1375,7 +1385,7 @@
       <c r="P10" s="14"/>
       <c r="Q10" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R10" s="15" t="str">
         <f t="shared" si="1"/>
@@ -1384,7 +1394,9 @@
       <c r="S10" s="16">
         <v>3</v>
       </c>
-      <c r="T10" s="16"/>
+      <c r="T10" s="16">
+        <v>3</v>
+      </c>
       <c r="U10" s="16"/>
       <c r="V10" s="16"/>
       <c r="W10" s="16"/>
@@ -1425,7 +1437,7 @@
       <c r="P11" s="14"/>
       <c r="Q11" s="15">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R11" s="15" t="str">
         <f t="shared" si="1"/>
@@ -1434,7 +1446,9 @@
       <c r="S11" s="16">
         <v>1</v>
       </c>
-      <c r="T11" s="16"/>
+      <c r="T11" s="16">
+        <v>2</v>
+      </c>
       <c r="U11" s="16"/>
       <c r="V11" s="16"/>
       <c r="W11" s="16"/>
@@ -1475,7 +1489,7 @@
       <c r="P12" s="14"/>
       <c r="Q12" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R12" s="15" t="str">
         <f t="shared" si="1"/>
@@ -1484,7 +1498,9 @@
       <c r="S12" s="16">
         <v>2</v>
       </c>
-      <c r="T12" s="16"/>
+      <c r="T12" s="16">
+        <v>2</v>
+      </c>
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
       <c r="W12" s="16"/>
@@ -1514,7 +1530,9 @@
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="13"/>
+      <c r="H13" s="13">
+        <v>1</v>
+      </c>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
@@ -1525,16 +1543,18 @@
       <c r="P13" s="14"/>
       <c r="Q13" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R13" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v xml:space="preserve">-Full Combo, </v>
       </c>
       <c r="S13" s="16">
         <v>2</v>
       </c>
-      <c r="T13" s="16"/>
+      <c r="T13" s="16">
+        <v>3</v>
+      </c>
       <c r="U13" s="16"/>
       <c r="V13" s="16"/>
       <c r="W13" s="16"/>
@@ -1575,7 +1595,7 @@
       <c r="P14" s="14"/>
       <c r="Q14" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R14" s="15" t="str">
         <f t="shared" si="1"/>
@@ -1584,7 +1604,9 @@
       <c r="S14" s="16">
         <v>3</v>
       </c>
-      <c r="T14" s="16"/>
+      <c r="T14" s="16">
+        <v>3</v>
+      </c>
       <c r="U14" s="16"/>
       <c r="V14" s="16"/>
       <c r="W14" s="16"/>
@@ -1625,7 +1647,7 @@
       <c r="P15" s="14"/>
       <c r="Q15" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R15" s="15" t="str">
         <f t="shared" si="1"/>
@@ -1634,7 +1656,9 @@
       <c r="S15" s="16">
         <v>2</v>
       </c>
-      <c r="T15" s="16"/>
+      <c r="T15" s="16">
+        <v>1</v>
+      </c>
       <c r="U15" s="16"/>
       <c r="V15" s="16"/>
       <c r="W15" s="16"/>
@@ -1675,7 +1699,7 @@
       <c r="P16" s="14"/>
       <c r="Q16" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R16" s="15" t="str">
         <f t="shared" si="1"/>
@@ -1684,7 +1708,9 @@
       <c r="S16" s="16">
         <v>2</v>
       </c>
-      <c r="T16" s="16"/>
+      <c r="T16" s="16">
+        <v>3</v>
+      </c>
       <c r="U16" s="16"/>
       <c r="V16" s="16"/>
       <c r="W16" s="16"/>
@@ -1725,7 +1751,7 @@
       <c r="P17" s="14"/>
       <c r="Q17" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R17" s="15" t="str">
         <f t="shared" si="1"/>
@@ -1734,7 +1760,9 @@
       <c r="S17" s="16">
         <v>2</v>
       </c>
-      <c r="T17" s="16"/>
+      <c r="T17" s="16">
+        <v>3</v>
+      </c>
       <c r="U17" s="16"/>
       <c r="V17" s="16"/>
       <c r="W17" s="16"/>
@@ -1775,7 +1803,7 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R18" s="15" t="str">
         <f t="shared" si="1"/>
@@ -1784,7 +1812,9 @@
       <c r="S18" s="16">
         <v>2</v>
       </c>
-      <c r="T18" s="16"/>
+      <c r="T18" s="16">
+        <v>2</v>
+      </c>
       <c r="U18" s="16"/>
       <c r="V18" s="16"/>
       <c r="W18" s="16"/>
@@ -1825,7 +1855,7 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R19" s="15" t="str">
         <f t="shared" si="1"/>
@@ -1834,7 +1864,9 @@
       <c r="S19" s="16">
         <v>3</v>
       </c>
-      <c r="T19" s="16"/>
+      <c r="T19" s="16">
+        <v>1</v>
+      </c>
       <c r="U19" s="16"/>
       <c r="V19" s="16"/>
       <c r="W19" s="16"/>
@@ -1864,7 +1896,9 @@
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="13"/>
+      <c r="H20" s="13">
+        <v>1</v>
+      </c>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
@@ -1875,16 +1909,18 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R20" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v xml:space="preserve">-Full Combo, </v>
       </c>
       <c r="S20" s="16">
         <v>3</v>
       </c>
-      <c r="T20" s="16"/>
+      <c r="T20" s="16">
+        <v>3</v>
+      </c>
       <c r="U20" s="16"/>
       <c r="V20" s="16"/>
       <c r="W20" s="16"/>
@@ -1925,7 +1961,7 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R21" s="15" t="str">
         <f t="shared" si="1"/>
@@ -1934,7 +1970,9 @@
       <c r="S21" s="16">
         <v>3</v>
       </c>
-      <c r="T21" s="16"/>
+      <c r="T21" s="16">
+        <v>3</v>
+      </c>
       <c r="U21" s="16"/>
       <c r="V21" s="16"/>
       <c r="W21" s="16"/>
@@ -1975,7 +2013,7 @@
       <c r="P22" s="14"/>
       <c r="Q22" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R22" s="15" t="str">
         <f t="shared" si="1"/>
@@ -1984,7 +2022,9 @@
       <c r="S22" s="16">
         <v>2</v>
       </c>
-      <c r="T22" s="16"/>
+      <c r="T22" s="16">
+        <v>3</v>
+      </c>
       <c r="U22" s="16"/>
       <c r="V22" s="16"/>
       <c r="W22" s="16"/>
@@ -2025,7 +2065,7 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R23" s="15" t="str">
         <f t="shared" si="1"/>
@@ -2034,7 +2074,9 @@
       <c r="S23" s="16">
         <v>2</v>
       </c>
-      <c r="T23" s="16"/>
+      <c r="T23" s="16">
+        <v>2</v>
+      </c>
       <c r="U23" s="16"/>
       <c r="V23" s="16"/>
       <c r="W23" s="16"/>
@@ -2125,7 +2167,7 @@
       <c r="P25" s="14"/>
       <c r="Q25" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R25" s="15" t="str">
         <f t="shared" si="1"/>
@@ -2134,7 +2176,9 @@
       <c r="S25" s="16">
         <v>3</v>
       </c>
-      <c r="T25" s="16"/>
+      <c r="T25" s="16">
+        <v>3</v>
+      </c>
       <c r="U25" s="16"/>
       <c r="V25" s="16"/>
       <c r="W25" s="16"/>
@@ -2175,7 +2219,7 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R26" s="15" t="str">
         <f t="shared" si="1"/>
@@ -2184,7 +2228,9 @@
       <c r="S26" s="16">
         <v>3</v>
       </c>
-      <c r="T26" s="16"/>
+      <c r="T26" s="16">
+        <v>2</v>
+      </c>
       <c r="U26" s="16"/>
       <c r="V26" s="16"/>
       <c r="W26" s="16"/>
@@ -2225,7 +2271,7 @@
       <c r="P27" s="14"/>
       <c r="Q27" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R27" s="15" t="str">
         <f t="shared" si="1"/>
@@ -2234,7 +2280,9 @@
       <c r="S27" s="16">
         <v>2</v>
       </c>
-      <c r="T27" s="16"/>
+      <c r="T27" s="16">
+        <v>2</v>
+      </c>
       <c r="U27" s="16"/>
       <c r="V27" s="16"/>
       <c r="W27" s="16"/>
@@ -2275,7 +2323,7 @@
       <c r="P28" s="14"/>
       <c r="Q28" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R28" s="15" t="str">
         <f t="shared" si="1"/>
@@ -2284,7 +2332,9 @@
       <c r="S28" s="16">
         <v>2</v>
       </c>
-      <c r="T28" s="16"/>
+      <c r="T28" s="16">
+        <v>1</v>
+      </c>
       <c r="U28" s="16"/>
       <c r="V28" s="16"/>
       <c r="W28" s="16"/>
@@ -2331,8 +2381,12 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S29" s="16"/>
-      <c r="T29" s="16"/>
+      <c r="S29" s="16">
+        <v>0</v>
+      </c>
+      <c r="T29" s="16">
+        <v>0</v>
+      </c>
       <c r="U29" s="16"/>
       <c r="V29" s="16"/>
       <c r="W29" s="16"/>
@@ -2382,7 +2436,9 @@
       <c r="S30" s="16">
         <v>2</v>
       </c>
-      <c r="T30" s="16"/>
+      <c r="T30" s="16">
+        <v>0</v>
+      </c>
       <c r="U30" s="16"/>
       <c r="V30" s="16"/>
       <c r="W30" s="16"/>
@@ -2423,7 +2479,7 @@
       <c r="P31" s="14"/>
       <c r="Q31" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R31" s="15" t="str">
         <f t="shared" si="1"/>
@@ -2432,7 +2488,9 @@
       <c r="S31" s="16">
         <v>3</v>
       </c>
-      <c r="T31" s="16"/>
+      <c r="T31" s="16">
+        <v>3</v>
+      </c>
       <c r="U31" s="16"/>
       <c r="V31" s="16"/>
       <c r="W31" s="16"/>
@@ -2463,7 +2521,9 @@
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
+      <c r="I32" s="13">
+        <v>1</v>
+      </c>
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
@@ -2473,16 +2533,18 @@
       <c r="P32" s="14"/>
       <c r="Q32" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R32" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v xml:space="preserve">-Math Ambassador, </v>
       </c>
       <c r="S32" s="16">
         <v>3</v>
       </c>
-      <c r="T32" s="16"/>
+      <c r="T32" s="16">
+        <v>3</v>
+      </c>
       <c r="U32" s="16"/>
       <c r="V32" s="16"/>
       <c r="W32" s="16"/>
@@ -2523,7 +2585,7 @@
       <c r="P33" s="14"/>
       <c r="Q33" s="15">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R33" s="15" t="str">
         <f t="shared" si="1"/>
@@ -2532,7 +2594,9 @@
       <c r="S33" s="16">
         <v>1</v>
       </c>
-      <c r="T33" s="16"/>
+      <c r="T33" s="16">
+        <v>1</v>
+      </c>
       <c r="U33" s="16"/>
       <c r="V33" s="16"/>
       <c r="W33" s="16"/>
@@ -2582,7 +2646,9 @@
       <c r="S34" s="16">
         <v>2</v>
       </c>
-      <c r="T34" s="16"/>
+      <c r="T34" s="16">
+        <v>0</v>
+      </c>
       <c r="U34" s="16"/>
       <c r="V34" s="16"/>
       <c r="W34" s="16"/>
@@ -2623,7 +2689,7 @@
       <c r="P35" s="14"/>
       <c r="Q35" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R35" s="15" t="str">
         <f t="shared" si="1"/>
@@ -2632,7 +2698,9 @@
       <c r="S35" s="16">
         <v>2</v>
       </c>
-      <c r="T35" s="16"/>
+      <c r="T35" s="16">
+        <v>2</v>
+      </c>
       <c r="U35" s="16"/>
       <c r="V35" s="16"/>
       <c r="W35" s="16"/>
@@ -2673,7 +2741,7 @@
       <c r="P36" s="14"/>
       <c r="Q36" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R36" s="15" t="str">
         <f t="shared" si="1"/>
@@ -2682,7 +2750,9 @@
       <c r="S36" s="16">
         <v>2</v>
       </c>
-      <c r="T36" s="16"/>
+      <c r="T36" s="16">
+        <v>2</v>
+      </c>
       <c r="U36" s="16"/>
       <c r="V36" s="16"/>
       <c r="W36" s="16"/>
@@ -2773,7 +2843,7 @@
       <c r="P38" s="14"/>
       <c r="Q38" s="15">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R38" s="15" t="str">
         <f t="shared" si="1"/>
@@ -2782,7 +2852,9 @@
       <c r="S38" s="16">
         <v>1</v>
       </c>
-      <c r="T38" s="16"/>
+      <c r="T38" s="16">
+        <v>1</v>
+      </c>
       <c r="U38" s="16"/>
       <c r="V38" s="16"/>
       <c r="W38" s="16"/>
@@ -2823,7 +2895,7 @@
       <c r="P39" s="14"/>
       <c r="Q39" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R39" s="15" t="str">
         <f t="shared" si="1"/>
@@ -2832,7 +2904,9 @@
       <c r="S39" s="16">
         <v>3</v>
       </c>
-      <c r="T39" s="16"/>
+      <c r="T39" s="16">
+        <v>1</v>
+      </c>
       <c r="U39" s="16"/>
       <c r="V39" s="16"/>
       <c r="W39" s="16"/>
@@ -3054,7 +3128,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10534E12-96AC-44F1-9431-EFE9F0397466}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -3080,7 +3156,7 @@
       </c>
       <c r="C2">
         <f>'Sec 1 Data'!Q4</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3108,7 +3184,7 @@
       </c>
       <c r="C4">
         <f>'Sec 1 Data'!Q6</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3122,7 +3198,7 @@
       </c>
       <c r="C5">
         <f>'Sec 1 Data'!Q7</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3136,7 +3212,7 @@
       </c>
       <c r="C6">
         <f>'Sec 1 Data'!Q8</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -3164,7 +3240,7 @@
       </c>
       <c r="C8">
         <f>'Sec 1 Data'!Q10</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -3178,7 +3254,7 @@
       </c>
       <c r="C9">
         <f>'Sec 1 Data'!Q11</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -3192,7 +3268,7 @@
       </c>
       <c r="C10">
         <f>'Sec 1 Data'!Q12</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -3202,11 +3278,11 @@
       </c>
       <c r="B11" t="str">
         <f>'Sec 1 Data'!R13</f>
-        <v>-</v>
+        <v xml:space="preserve">-Full Combo, </v>
       </c>
       <c r="C11">
         <f>'Sec 1 Data'!Q13</f>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -3220,7 +3296,7 @@
       </c>
       <c r="C12">
         <f>'Sec 1 Data'!Q14</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -3234,7 +3310,7 @@
       </c>
       <c r="C13">
         <f>'Sec 1 Data'!Q15</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -3248,7 +3324,7 @@
       </c>
       <c r="C14">
         <f>'Sec 1 Data'!Q16</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -3262,7 +3338,7 @@
       </c>
       <c r="C15">
         <f>'Sec 1 Data'!Q17</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -3276,7 +3352,7 @@
       </c>
       <c r="C16">
         <f>'Sec 1 Data'!Q18</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -3290,7 +3366,7 @@
       </c>
       <c r="C17">
         <f>'Sec 1 Data'!Q19</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -3300,11 +3376,11 @@
       </c>
       <c r="B18" t="str">
         <f>'Sec 1 Data'!R20</f>
-        <v>-</v>
+        <v xml:space="preserve">-Full Combo, </v>
       </c>
       <c r="C18">
         <f>'Sec 1 Data'!Q20</f>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -3318,7 +3394,7 @@
       </c>
       <c r="C19">
         <f>'Sec 1 Data'!Q21</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -3332,7 +3408,7 @@
       </c>
       <c r="C20">
         <f>'Sec 1 Data'!Q22</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -3346,7 +3422,7 @@
       </c>
       <c r="C21">
         <f>'Sec 1 Data'!Q23</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -3374,7 +3450,7 @@
       </c>
       <c r="C23">
         <f>'Sec 1 Data'!Q25</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -3388,7 +3464,7 @@
       </c>
       <c r="C24">
         <f>'Sec 1 Data'!Q26</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -3402,7 +3478,7 @@
       </c>
       <c r="C25">
         <f>'Sec 1 Data'!Q27</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -3416,7 +3492,7 @@
       </c>
       <c r="C26">
         <f>'Sec 1 Data'!Q28</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -3458,7 +3534,7 @@
       </c>
       <c r="C29">
         <f>'Sec 1 Data'!Q31</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -3468,11 +3544,11 @@
       </c>
       <c r="B30" t="str">
         <f>'Sec 1 Data'!R32</f>
-        <v>-</v>
+        <v xml:space="preserve">-Math Ambassador, </v>
       </c>
       <c r="C30">
         <f>'Sec 1 Data'!Q32</f>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -3486,7 +3562,7 @@
       </c>
       <c r="C31">
         <f>'Sec 1 Data'!Q33</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -3514,7 +3590,7 @@
       </c>
       <c r="C33">
         <f>'Sec 1 Data'!Q35</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -3528,7 +3604,7 @@
       </c>
       <c r="C34">
         <f>'Sec 1 Data'!Q36</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -3556,7 +3632,7 @@
       </c>
       <c r="C36">
         <f>'Sec 1 Data'!Q38</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -3570,7 +3646,7 @@
       </c>
       <c r="C37">
         <f>'Sec 1 Data'!Q39</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -3638,30 +3714,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848CF460-3EAC-4A7D-8560-52951FCF8A6B}">
   <dimension ref="A1:AL43"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="T17" sqref="T17"/>
-      <selection pane="topRight" activeCell="K20" sqref="K20"/>
+      <selection pane="topRight" activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" style="4" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="4" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" style="4" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="4" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="10.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="15.88671875" style="6" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" style="6" customWidth="1"/>
-    <col min="13" max="13" width="9.44140625" style="5" customWidth="1"/>
-    <col min="14" max="14" width="14.21875" style="7" customWidth="1"/>
-    <col min="15" max="15" width="19.21875" style="7" customWidth="1"/>
-    <col min="16" max="16" width="11.21875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="6" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" style="6" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" style="6" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="14.21875" style="7" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="19.21875" style="7" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="11.21875" style="7" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="25.44140625" style="1" customWidth="1"/>
     <col min="19" max="19" width="8.88671875" style="8"/>
@@ -3848,7 +3924,9 @@
       <c r="H4" s="13">
         <v>1</v>
       </c>
-      <c r="I4" s="13"/>
+      <c r="I4" s="13">
+        <v>1</v>
+      </c>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
@@ -3858,16 +3936,18 @@
       <c r="P4" s="14"/>
       <c r="Q4" s="15">
         <f>SUM(B4:G4)+3*SUM(H4:M4)+5*SUM(N4:P4)+SUM(S4:AL4)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="R4" s="15" t="str">
         <f>CONCATENATE("-",IF(B4=1,$B$3&amp;", ",""),IF(C4=1,$C$3&amp;", ",""),IF(D4=1,$D$3&amp;", ",""),IF(E4=1,$E$3&amp;", ",""),IF(F4=1,$F$3&amp;", ",""),IF(G4=1,$G$3&amp;", ",""),IF(H4=1,$H$3&amp;", ",""),IF(I4=1,$I$3&amp;", ",""),IF(J4=1,$J$3&amp;", ",""),IF(K4=1,$K$3&amp;", ",""),IF(L4=1,$L$3&amp;", ",""),IF(M4=1,$M$3&amp;", ",""),IF(N4=1,$N$3&amp;", ",""),IF(O4=1,$O$3&amp;", ",""),IF(P4=1,$P$3&amp;", ",""))</f>
-        <v xml:space="preserve">-Full Combo, </v>
+        <v xml:space="preserve">-Full Combo, Math Ambassador, </v>
       </c>
       <c r="S4" s="16">
         <v>3</v>
       </c>
-      <c r="T4" s="16"/>
+      <c r="T4" s="16">
+        <v>2</v>
+      </c>
       <c r="U4" s="16"/>
       <c r="V4" s="16"/>
       <c r="W4" s="16"/>
@@ -3908,7 +3988,7 @@
       <c r="P5" s="14"/>
       <c r="Q5" s="15">
         <f t="shared" ref="Q5:Q43" si="0">SUM(B5:G5)+3*SUM(H5:L5)+5*SUM(M5:P5)+SUM(S5:AL5)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R5" s="15" t="str">
         <f t="shared" ref="R5:R43" si="1">CONCATENATE("-",IF(B5=1,$B$3&amp;", ",""),IF(C5=1,$C$3&amp;", ",""),IF(D5=1,$D$3&amp;", ",""),IF(E5=1,$E$3&amp;", ",""),IF(F5=1,$F$3&amp;", ",""),IF(G5=1,$G$3&amp;", ",""),IF(H5=1,$H$3&amp;", ",""),IF(I5=1,$I$3&amp;", ",""),IF(J5=1,$J$3&amp;", ",""),IF(K5=1,$K$3&amp;", ",""),IF(L5=1,$L$3&amp;", ",""),IF(M5=1,$M$3&amp;", ",""),IF(N5=1,$N$3&amp;", ",""),IF(O5=1,$O$3&amp;", ",""),IF(P5=1,$P$3&amp;", ",""))</f>
@@ -3917,7 +3997,9 @@
       <c r="S5" s="16">
         <v>1</v>
       </c>
-      <c r="T5" s="16"/>
+      <c r="T5" s="16">
+        <v>2</v>
+      </c>
       <c r="U5" s="16"/>
       <c r="V5" s="16"/>
       <c r="W5" s="16"/>
@@ -3960,7 +4042,7 @@
       <c r="P6" s="14"/>
       <c r="Q6" s="15">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R6" s="15" t="str">
         <f t="shared" si="1"/>
@@ -3969,7 +4051,9 @@
       <c r="S6" s="16">
         <v>3</v>
       </c>
-      <c r="T6" s="16"/>
+      <c r="T6" s="16">
+        <v>3</v>
+      </c>
       <c r="U6" s="16"/>
       <c r="V6" s="16"/>
       <c r="W6" s="16"/>
@@ -4010,7 +4094,7 @@
       <c r="P7" s="14"/>
       <c r="Q7" s="15">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R7" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4019,7 +4103,9 @@
       <c r="S7" s="16">
         <v>1</v>
       </c>
-      <c r="T7" s="16"/>
+      <c r="T7" s="16">
+        <v>1</v>
+      </c>
       <c r="U7" s="16"/>
       <c r="V7" s="16"/>
       <c r="W7" s="16"/>
@@ -4066,7 +4152,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S8" s="16"/>
+      <c r="S8" s="16">
+        <v>0</v>
+      </c>
       <c r="T8" s="16"/>
       <c r="U8" s="16"/>
       <c r="V8" s="16"/>
@@ -4110,7 +4198,7 @@
       <c r="P9" s="14"/>
       <c r="Q9" s="15">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R9" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4119,7 +4207,9 @@
       <c r="S9" s="16">
         <v>3</v>
       </c>
-      <c r="T9" s="16"/>
+      <c r="T9" s="16">
+        <v>2</v>
+      </c>
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
       <c r="W9" s="16"/>
@@ -4160,7 +4250,7 @@
       <c r="P10" s="14"/>
       <c r="Q10" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R10" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4169,7 +4259,9 @@
       <c r="S10" s="16">
         <v>3</v>
       </c>
-      <c r="T10" s="16"/>
+      <c r="T10" s="16">
+        <v>2</v>
+      </c>
       <c r="U10" s="16"/>
       <c r="V10" s="16"/>
       <c r="W10" s="16"/>
@@ -4199,7 +4291,9 @@
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="13"/>
+      <c r="H11" s="13">
+        <v>1</v>
+      </c>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
@@ -4210,16 +4304,18 @@
       <c r="P11" s="14"/>
       <c r="Q11" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R11" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v xml:space="preserve">-Full Combo, </v>
       </c>
       <c r="S11" s="16">
         <v>3</v>
       </c>
-      <c r="T11" s="16"/>
+      <c r="T11" s="16">
+        <v>3</v>
+      </c>
       <c r="U11" s="16"/>
       <c r="V11" s="16"/>
       <c r="W11" s="16"/>
@@ -4262,7 +4358,7 @@
       <c r="P12" s="14"/>
       <c r="Q12" s="15">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R12" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4271,7 +4367,9 @@
       <c r="S12" s="16">
         <v>3</v>
       </c>
-      <c r="T12" s="16"/>
+      <c r="T12" s="16">
+        <v>3</v>
+      </c>
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
       <c r="W12" s="16"/>
@@ -4312,7 +4410,7 @@
       <c r="P13" s="14"/>
       <c r="Q13" s="15">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R13" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4321,7 +4419,9 @@
       <c r="S13" s="16">
         <v>1</v>
       </c>
-      <c r="T13" s="16"/>
+      <c r="T13" s="16">
+        <v>2</v>
+      </c>
       <c r="U13" s="16"/>
       <c r="V13" s="16"/>
       <c r="W13" s="16"/>
@@ -4362,7 +4462,7 @@
       <c r="P14" s="14"/>
       <c r="Q14" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R14" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4371,7 +4471,9 @@
       <c r="S14" s="16">
         <v>2</v>
       </c>
-      <c r="T14" s="16"/>
+      <c r="T14" s="16">
+        <v>2</v>
+      </c>
       <c r="U14" s="16"/>
       <c r="V14" s="16"/>
       <c r="W14" s="16"/>
@@ -4412,7 +4514,7 @@
       <c r="P15" s="14"/>
       <c r="Q15" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R15" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4421,7 +4523,9 @@
       <c r="S15" s="16">
         <v>2</v>
       </c>
-      <c r="T15" s="16"/>
+      <c r="T15" s="16">
+        <v>3</v>
+      </c>
       <c r="U15" s="16"/>
       <c r="V15" s="16"/>
       <c r="W15" s="16"/>
@@ -4462,7 +4566,7 @@
       <c r="P16" s="14"/>
       <c r="Q16" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R16" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4471,7 +4575,9 @@
       <c r="S16" s="16">
         <v>2</v>
       </c>
-      <c r="T16" s="16"/>
+      <c r="T16" s="16">
+        <v>1</v>
+      </c>
       <c r="U16" s="16"/>
       <c r="V16" s="16"/>
       <c r="W16" s="16"/>
@@ -4521,7 +4627,9 @@
       <c r="S17" s="16">
         <v>1</v>
       </c>
-      <c r="T17" s="16"/>
+      <c r="T17" s="16">
+        <v>0</v>
+      </c>
       <c r="U17" s="16"/>
       <c r="V17" s="16"/>
       <c r="W17" s="16"/>
@@ -4562,7 +4670,7 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="15">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R18" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4571,7 +4679,9 @@
       <c r="S18" s="16">
         <v>1</v>
       </c>
-      <c r="T18" s="16"/>
+      <c r="T18" s="16">
+        <v>1</v>
+      </c>
       <c r="U18" s="16"/>
       <c r="V18" s="16"/>
       <c r="W18" s="16"/>
@@ -4614,7 +4724,7 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="15">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R19" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4623,7 +4733,9 @@
       <c r="S19" s="16">
         <v>3</v>
       </c>
-      <c r="T19" s="16"/>
+      <c r="T19" s="16">
+        <v>3</v>
+      </c>
       <c r="U19" s="16"/>
       <c r="V19" s="16"/>
       <c r="W19" s="16"/>
@@ -4664,7 +4776,7 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="15">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R20" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4673,7 +4785,9 @@
       <c r="S20" s="16">
         <v>1</v>
       </c>
-      <c r="T20" s="16"/>
+      <c r="T20" s="16">
+        <v>2</v>
+      </c>
       <c r="U20" s="16"/>
       <c r="V20" s="16"/>
       <c r="W20" s="16"/>
@@ -4714,7 +4828,7 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R21" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4723,7 +4837,9 @@
       <c r="S21" s="16">
         <v>3</v>
       </c>
-      <c r="T21" s="16"/>
+      <c r="T21" s="16">
+        <v>3</v>
+      </c>
       <c r="U21" s="16"/>
       <c r="V21" s="16"/>
       <c r="W21" s="16"/>
@@ -4766,7 +4882,7 @@
       <c r="P22" s="14"/>
       <c r="Q22" s="15">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R22" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4775,7 +4891,9 @@
       <c r="S22" s="16">
         <v>3</v>
       </c>
-      <c r="T22" s="16"/>
+      <c r="T22" s="16">
+        <v>2</v>
+      </c>
       <c r="U22" s="16"/>
       <c r="V22" s="16"/>
       <c r="W22" s="16"/>
@@ -4816,7 +4934,7 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="15">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R23" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4825,7 +4943,9 @@
       <c r="S23" s="16">
         <v>1</v>
       </c>
-      <c r="T23" s="16"/>
+      <c r="T23" s="16">
+        <v>3</v>
+      </c>
       <c r="U23" s="16"/>
       <c r="V23" s="16"/>
       <c r="W23" s="16"/>
@@ -4868,7 +4988,7 @@
       <c r="P24" s="14"/>
       <c r="Q24" s="15">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R24" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4877,7 +4997,9 @@
       <c r="S24" s="16">
         <v>3</v>
       </c>
-      <c r="T24" s="16"/>
+      <c r="T24" s="16">
+        <v>3</v>
+      </c>
       <c r="U24" s="16"/>
       <c r="V24" s="16"/>
       <c r="W24" s="16"/>
@@ -4968,7 +5090,7 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R26" s="15" t="str">
         <f t="shared" si="1"/>
@@ -4977,7 +5099,9 @@
       <c r="S26" s="16">
         <v>2</v>
       </c>
-      <c r="T26" s="16"/>
+      <c r="T26" s="16">
+        <v>2</v>
+      </c>
       <c r="U26" s="16"/>
       <c r="V26" s="16"/>
       <c r="W26" s="16"/>
@@ -5018,7 +5142,7 @@
       <c r="P27" s="14"/>
       <c r="Q27" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R27" s="15" t="str">
         <f t="shared" si="1"/>
@@ -5027,7 +5151,9 @@
       <c r="S27" s="16">
         <v>3</v>
       </c>
-      <c r="T27" s="16"/>
+      <c r="T27" s="16">
+        <v>3</v>
+      </c>
       <c r="U27" s="16"/>
       <c r="V27" s="16"/>
       <c r="W27" s="16"/>
@@ -5068,7 +5194,7 @@
       <c r="P28" s="14"/>
       <c r="Q28" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R28" s="15" t="str">
         <f t="shared" si="1"/>
@@ -5077,7 +5203,9 @@
       <c r="S28" s="16">
         <v>2</v>
       </c>
-      <c r="T28" s="16"/>
+      <c r="T28" s="16">
+        <v>2</v>
+      </c>
       <c r="U28" s="16"/>
       <c r="V28" s="16"/>
       <c r="W28" s="16"/>
@@ -5118,14 +5246,18 @@
       <c r="P29" s="14"/>
       <c r="Q29" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R29" s="15" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="S29" s="16"/>
-      <c r="T29" s="16"/>
+      <c r="S29" s="16">
+        <v>3</v>
+      </c>
+      <c r="T29" s="16">
+        <v>2</v>
+      </c>
       <c r="U29" s="16"/>
       <c r="V29" s="16"/>
       <c r="W29" s="16"/>
@@ -5166,7 +5298,7 @@
       <c r="P30" s="14"/>
       <c r="Q30" s="15">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R30" s="15" t="str">
         <f t="shared" si="1"/>
@@ -5175,7 +5307,9 @@
       <c r="S30" s="16">
         <v>1</v>
       </c>
-      <c r="T30" s="16"/>
+      <c r="T30" s="16">
+        <v>3</v>
+      </c>
       <c r="U30" s="16"/>
       <c r="V30" s="16"/>
       <c r="W30" s="16"/>
@@ -5268,7 +5402,7 @@
       <c r="P32" s="14"/>
       <c r="Q32" s="15">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R32" s="15" t="str">
         <f t="shared" si="1"/>
@@ -5277,7 +5411,9 @@
       <c r="S32" s="16">
         <v>3</v>
       </c>
-      <c r="T32" s="16"/>
+      <c r="T32" s="16">
+        <v>3</v>
+      </c>
       <c r="U32" s="16"/>
       <c r="V32" s="16"/>
       <c r="W32" s="16"/>
@@ -5318,7 +5454,7 @@
       <c r="P33" s="14"/>
       <c r="Q33" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R33" s="15" t="str">
         <f t="shared" si="1"/>
@@ -5327,7 +5463,9 @@
       <c r="S33" s="16">
         <v>2</v>
       </c>
-      <c r="T33" s="16"/>
+      <c r="T33" s="16">
+        <v>2</v>
+      </c>
       <c r="U33" s="16"/>
       <c r="V33" s="16"/>
       <c r="W33" s="16"/>
@@ -5368,7 +5506,7 @@
       <c r="P34" s="14"/>
       <c r="Q34" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R34" s="15" t="str">
         <f t="shared" si="1"/>
@@ -5377,7 +5515,9 @@
       <c r="S34" s="16">
         <v>2</v>
       </c>
-      <c r="T34" s="16"/>
+      <c r="T34" s="16">
+        <v>2</v>
+      </c>
       <c r="U34" s="16"/>
       <c r="V34" s="16"/>
       <c r="W34" s="16"/>
@@ -5418,7 +5558,7 @@
       <c r="P35" s="14"/>
       <c r="Q35" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R35" s="15" t="str">
         <f t="shared" si="1"/>
@@ -5427,7 +5567,9 @@
       <c r="S35" s="16">
         <v>2</v>
       </c>
-      <c r="T35" s="16"/>
+      <c r="T35" s="16">
+        <v>2</v>
+      </c>
       <c r="U35" s="16"/>
       <c r="V35" s="16"/>
       <c r="W35" s="16"/>
@@ -5828,10 +5970,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247A2784-0518-447F-918A-28E207F2327C}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5854,11 +5996,11 @@
       </c>
       <c r="B2" t="str">
         <f>'Sec 2 Data'!R4</f>
-        <v xml:space="preserve">-Full Combo, </v>
+        <v xml:space="preserve">-Full Combo, Math Ambassador, </v>
       </c>
       <c r="C2">
         <f>'Sec 2 Data'!Q4</f>
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -5872,7 +6014,7 @@
       </c>
       <c r="C3">
         <f>'Sec 2 Data'!Q5</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -5886,7 +6028,7 @@
       </c>
       <c r="C4">
         <f>'Sec 2 Data'!Q6</f>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -5900,7 +6042,7 @@
       </c>
       <c r="C5">
         <f>'Sec 2 Data'!Q7</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -5928,7 +6070,7 @@
       </c>
       <c r="C7">
         <f>'Sec 2 Data'!Q9</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -5942,7 +6084,7 @@
       </c>
       <c r="C8">
         <f>'Sec 2 Data'!Q10</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -5952,11 +6094,11 @@
       </c>
       <c r="B9" t="str">
         <f>'Sec 2 Data'!R11</f>
-        <v>-</v>
+        <v xml:space="preserve">-Full Combo, </v>
       </c>
       <c r="C9">
         <f>'Sec 2 Data'!Q11</f>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -5970,7 +6112,7 @@
       </c>
       <c r="C10">
         <f>'Sec 2 Data'!Q12</f>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -5984,7 +6126,7 @@
       </c>
       <c r="C11">
         <f>'Sec 2 Data'!Q13</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -5998,7 +6140,7 @@
       </c>
       <c r="C12">
         <f>'Sec 2 Data'!Q14</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -6012,7 +6154,7 @@
       </c>
       <c r="C13">
         <f>'Sec 2 Data'!Q15</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -6026,7 +6168,7 @@
       </c>
       <c r="C14">
         <f>'Sec 2 Data'!Q16</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -6044,9 +6186,9 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="e">
-        <f>'Sec 2 Data'!#REF!</f>
-        <v>#REF!</v>
+      <c r="A16" t="str">
+        <f>'Sec 2 Data'!A18</f>
+        <v>Jayson</v>
       </c>
       <c r="B16" t="str">
         <f>'Sec 2 Data'!R18</f>
@@ -6054,13 +6196,13 @@
       </c>
       <c r="C16">
         <f>'Sec 2 Data'!Q18</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
-        <f>'Sec 2 Data'!A18</f>
-        <v>Jayson</v>
+        <f>'Sec 2 Data'!A19</f>
+        <v>Joey</v>
       </c>
       <c r="B17" t="str">
         <f>'Sec 2 Data'!R19</f>
@@ -6068,13 +6210,13 @@
       </c>
       <c r="C17">
         <f>'Sec 2 Data'!Q19</f>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
-        <f>'Sec 2 Data'!A19</f>
-        <v>Joey</v>
+        <f>'Sec 2 Data'!A20</f>
+        <v>Jaden</v>
       </c>
       <c r="B18" t="str">
         <f>'Sec 2 Data'!R20</f>
@@ -6082,13 +6224,13 @@
       </c>
       <c r="C18">
         <f>'Sec 2 Data'!Q20</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
-        <f>'Sec 2 Data'!A20</f>
-        <v>Jaden</v>
+        <f>'Sec 2 Data'!A21</f>
+        <v>Yan Cheng</v>
       </c>
       <c r="B19" t="str">
         <f>'Sec 2 Data'!R21</f>
@@ -6096,13 +6238,13 @@
       </c>
       <c r="C19">
         <f>'Sec 2 Data'!Q21</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
-        <f>'Sec 2 Data'!A21</f>
-        <v>Yan Cheng</v>
+        <f>'Sec 2 Data'!A22</f>
+        <v>Rae</v>
       </c>
       <c r="B20" t="str">
         <f>'Sec 2 Data'!R22</f>
@@ -6110,13 +6252,13 @@
       </c>
       <c r="C20">
         <f>'Sec 2 Data'!Q22</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
-        <f>'Sec 2 Data'!A22</f>
-        <v>Rae</v>
+        <f>'Sec 2 Data'!A23</f>
+        <v>Reigneth</v>
       </c>
       <c r="B21" t="str">
         <f>'Sec 2 Data'!R23</f>
@@ -6124,13 +6266,13 @@
       </c>
       <c r="C21">
         <f>'Sec 2 Data'!Q23</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
-        <f>'Sec 2 Data'!A23</f>
-        <v>Reigneth</v>
+        <f>'Sec 2 Data'!A24</f>
+        <v>Shu Phing</v>
       </c>
       <c r="B22" t="str">
         <f>'Sec 2 Data'!R24</f>
@@ -6138,13 +6280,13 @@
       </c>
       <c r="C22">
         <f>'Sec 2 Data'!Q24</f>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
-        <f>'Sec 2 Data'!A24</f>
-        <v>Shu Phing</v>
+        <f>'Sec 2 Data'!A25</f>
+        <v>Linus</v>
       </c>
       <c r="B23" t="str">
         <f>'Sec 2 Data'!R25</f>
@@ -6157,8 +6299,8 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
-        <f>'Sec 2 Data'!A25</f>
-        <v>Linus</v>
+        <f>'Sec 2 Data'!A26</f>
+        <v>Shi Heng</v>
       </c>
       <c r="B24" t="str">
         <f>'Sec 2 Data'!R26</f>
@@ -6166,13 +6308,13 @@
       </c>
       <c r="C24">
         <f>'Sec 2 Data'!Q26</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
-        <f>'Sec 2 Data'!A26</f>
-        <v>Shi Heng</v>
+        <f>'Sec 2 Data'!A27</f>
+        <v>Jamie</v>
       </c>
       <c r="B25" t="str">
         <f>'Sec 2 Data'!R27</f>
@@ -6180,13 +6322,13 @@
       </c>
       <c r="C25">
         <f>'Sec 2 Data'!Q27</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
-        <f>'Sec 2 Data'!A27</f>
-        <v>Jamie</v>
+        <f>'Sec 2 Data'!A28</f>
+        <v>Ethan</v>
       </c>
       <c r="B26" t="str">
         <f>'Sec 2 Data'!R28</f>
@@ -6194,13 +6336,13 @@
       </c>
       <c r="C26">
         <f>'Sec 2 Data'!Q28</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
-        <f>'Sec 2 Data'!A28</f>
-        <v>Ethan</v>
+        <f>'Sec 2 Data'!A29</f>
+        <v>Kaelyn</v>
       </c>
       <c r="B27" t="str">
         <f>'Sec 2 Data'!R29</f>
@@ -6208,13 +6350,13 @@
       </c>
       <c r="C27">
         <f>'Sec 2 Data'!Q29</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
-        <f>'Sec 2 Data'!A29</f>
-        <v>Kaelyn</v>
+        <f>'Sec 2 Data'!A30</f>
+        <v>Issac</v>
       </c>
       <c r="B28" t="str">
         <f>'Sec 2 Data'!R30</f>
@@ -6222,13 +6364,13 @@
       </c>
       <c r="C28">
         <f>'Sec 2 Data'!Q30</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
-        <f>'Sec 2 Data'!A30</f>
-        <v>Issac</v>
+        <f>'Sec 2 Data'!A31</f>
+        <v>Zaviour</v>
       </c>
       <c r="B29" t="str">
         <f>'Sec 2 Data'!R31</f>
@@ -6241,8 +6383,8 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
-        <f>'Sec 2 Data'!A31</f>
-        <v>Zaviour</v>
+        <f>'Sec 2 Data'!A32</f>
+        <v>Julian</v>
       </c>
       <c r="B30" t="str">
         <f>'Sec 2 Data'!R32</f>
@@ -6250,13 +6392,13 @@
       </c>
       <c r="C30">
         <f>'Sec 2 Data'!Q32</f>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
-        <f>'Sec 2 Data'!A32</f>
-        <v>Julian</v>
+        <f>'Sec 2 Data'!A33</f>
+        <v>Le Qi</v>
       </c>
       <c r="B31" t="str">
         <f>'Sec 2 Data'!R33</f>
@@ -6264,13 +6406,13 @@
       </c>
       <c r="C31">
         <f>'Sec 2 Data'!Q33</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
-        <f>'Sec 2 Data'!A33</f>
-        <v>Le Qi</v>
+        <f>'Sec 2 Data'!A34</f>
+        <v>Zi Shan</v>
       </c>
       <c r="B32" t="str">
         <f>'Sec 2 Data'!R34</f>
@@ -6278,13 +6420,13 @@
       </c>
       <c r="C32">
         <f>'Sec 2 Data'!Q34</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
-        <f>'Sec 2 Data'!A34</f>
-        <v>Zi Shan</v>
+        <f>'Sec 2 Data'!A35</f>
+        <v>Jack</v>
       </c>
       <c r="B33" t="str">
         <f>'Sec 2 Data'!R35</f>
@@ -6292,117 +6434,103 @@
       </c>
       <c r="C33">
         <f>'Sec 2 Data'!Q35</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="str">
-        <f>'Sec 2 Data'!A35</f>
-        <v>Jack</v>
+      <c r="A34">
+        <f>'Sec 2 Data'!A37</f>
+        <v>0</v>
       </c>
       <c r="B34" t="str">
-        <f>'Sec 2 Data'!R36</f>
+        <f>'Sec 2 Data'!R37</f>
         <v>-</v>
       </c>
       <c r="C34">
-        <f>'Sec 2 Data'!Q36</f>
+        <f>'Sec 2 Data'!Q37</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
-        <f>'Sec 2 Data'!A37</f>
+        <f>'Sec 2 Data'!A38</f>
         <v>0</v>
       </c>
       <c r="B35" t="str">
-        <f>'Sec 2 Data'!R37</f>
+        <f>'Sec 2 Data'!R38</f>
         <v>-</v>
       </c>
       <c r="C35">
-        <f>'Sec 2 Data'!Q37</f>
+        <f>'Sec 2 Data'!Q38</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
-        <f>'Sec 2 Data'!A38</f>
+        <f>'Sec 2 Data'!A39</f>
         <v>0</v>
       </c>
       <c r="B36" t="str">
-        <f>'Sec 2 Data'!R38</f>
+        <f>'Sec 2 Data'!R39</f>
         <v>-</v>
       </c>
       <c r="C36">
-        <f>'Sec 2 Data'!Q38</f>
+        <f>'Sec 2 Data'!Q39</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
-        <f>'Sec 2 Data'!A39</f>
+        <f>'Sec 2 Data'!A40</f>
         <v>0</v>
       </c>
       <c r="B37" t="str">
-        <f>'Sec 2 Data'!R39</f>
+        <f>'Sec 2 Data'!R40</f>
         <v>-</v>
       </c>
       <c r="C37">
-        <f>'Sec 2 Data'!Q39</f>
+        <f>'Sec 2 Data'!Q40</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
-        <f>'Sec 2 Data'!A40</f>
+        <f>'Sec 2 Data'!A41</f>
         <v>0</v>
       </c>
       <c r="B38" t="str">
-        <f>'Sec 2 Data'!R40</f>
+        <f>'Sec 2 Data'!R41</f>
         <v>-</v>
       </c>
       <c r="C38">
-        <f>'Sec 2 Data'!Q40</f>
+        <f>'Sec 2 Data'!Q41</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
-        <f>'Sec 2 Data'!A41</f>
+        <f>'Sec 2 Data'!A42</f>
         <v>0</v>
       </c>
       <c r="B39" t="str">
-        <f>'Sec 2 Data'!R41</f>
+        <f>'Sec 2 Data'!R42</f>
         <v>-</v>
       </c>
       <c r="C39">
-        <f>'Sec 2 Data'!Q41</f>
+        <f>'Sec 2 Data'!Q42</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
-        <f>'Sec 2 Data'!A42</f>
-        <v>0</v>
-      </c>
-      <c r="B40" t="str">
-        <f>'Sec 2 Data'!R42</f>
-        <v>-</v>
-      </c>
-      <c r="C40">
-        <f>'Sec 2 Data'!Q42</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41">
         <f>'Sec 2 Data'!A43</f>
         <v>0</v>
       </c>
-      <c r="B41" t="str">
+      <c r="B40" t="str">
         <f>'Sec 2 Data'!R43</f>
         <v>-</v>
       </c>
-      <c r="C41">
+      <c r="C40">
         <f>'Sec 2 Data'!Q43</f>
         <v>0</v>
       </c>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngwen\Desktop\website\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C706C5-8DFF-4AEB-AD0D-EE8AF5686408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0E786E-2A45-48CB-A25E-2777B8D87915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -850,29 +850,29 @@
   <dimension ref="A1:AL43"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T24" sqref="T24"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" style="4" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="4" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="4" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="4" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="4" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12" style="4" customWidth="1"/>
     <col min="8" max="8" width="10.109375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" style="6" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="15.88671875" style="6" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" style="6" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="9.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="14.21875" style="7" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="19.21875" style="7" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="11.21875" style="7" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" style="6" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="14.21875" style="7" customWidth="1"/>
+    <col min="15" max="15" width="19.21875" style="7" customWidth="1"/>
+    <col min="16" max="16" width="11.21875" style="7" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" style="2" customWidth="1"/>
     <col min="18" max="18" width="25.44140625" style="1" customWidth="1"/>
     <col min="19" max="19" width="8.88671875" style="8"/>
     <col min="20" max="37" width="8.88671875" style="9"/>
@@ -1066,8 +1066,14 @@
       <c r="G4" s="12"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
+      <c r="J4" s="13">
+        <f>IF(COUNTIF(S4:AL4,"&gt;=3")&gt;=2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="13">
+        <f t="array" ref="K4">IF(MAX(FREQUENCY(IF(S4:AL4&gt;0,COLUMN(S4:AL4)),IF(S4:AL4&lt;=0,COLUMN(S4:AL4))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
       <c r="N4" s="14"/>
@@ -1075,7 +1081,7 @@
       <c r="P4" s="14"/>
       <c r="Q4" s="15">
         <f>SUM(B4:G4)+3*SUM(H4:M4)+5*SUM(N4:P4)+SUM(S4:AL4)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R4" s="15" t="str">
         <f>CONCATENATE("-",IF(B4=1,$B$3&amp;", ",""),IF(C4=1,$C$3&amp;", ",""),IF(D4=1,$D$3&amp;", ",""),IF(E4=1,$E$3&amp;", ",""),IF(F4=1,$F$3&amp;", ",""),IF(G4=1,$G$3&amp;", ",""),IF(H4=1,$H$3&amp;", ",""),IF(I4=1,$I$3&amp;", ",""),IF(J4=1,$J$3&amp;", ",""),IF(K4=1,$K$3&amp;", ",""),IF(L4=1,$L$3&amp;", ",""),IF(M4=1,$M$3&amp;", ",""),IF(N4=1,$N$3&amp;", ",""),IF(O4=1,$O$3&amp;", ",""),IF(P4=1,$P$3&amp;", ",""))</f>
@@ -1085,7 +1091,7 @@
         <v>2</v>
       </c>
       <c r="T4" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U4" s="16"/>
       <c r="V4" s="16"/>
@@ -1118,25 +1124,33 @@
       <c r="G5" s="12"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
+      <c r="J5" s="13">
+        <f t="shared" ref="J5:J39" si="0">IF(COUNTIF(S5:AL5,"&gt;=3")&gt;=2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="13">
+        <f t="array" ref="K5">IF(MAX(FREQUENCY(IF(S5:AL5&gt;0,COLUMN(S5:AL5)),IF(S5:AL5&lt;=0,COLUMN(S5:AL5))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="15">
-        <f t="shared" ref="Q5:Q43" si="0">SUM(B5:G5)+3*SUM(H5:L5)+5*SUM(M5:P5)+SUM(S5:AL5)</f>
-        <v>1</v>
+        <f t="shared" ref="Q5:Q43" si="1">SUM(B5:G5)+3*SUM(H5:L5)+5*SUM(M5:P5)+SUM(S5:AL5)</f>
+        <v>2</v>
       </c>
       <c r="R5" s="15" t="str">
-        <f t="shared" ref="R5:R43" si="1">CONCATENATE("-",IF(B5=1,$B$3&amp;", ",""),IF(C5=1,$C$3&amp;", ",""),IF(D5=1,$D$3&amp;", ",""),IF(E5=1,$E$3&amp;", ",""),IF(F5=1,$F$3&amp;", ",""),IF(G5=1,$G$3&amp;", ",""),IF(H5=1,$H$3&amp;", ",""),IF(I5=1,$I$3&amp;", ",""),IF(J5=1,$J$3&amp;", ",""),IF(K5=1,$K$3&amp;", ",""),IF(L5=1,$L$3&amp;", ",""),IF(M5=1,$M$3&amp;", ",""),IF(N5=1,$N$3&amp;", ",""),IF(O5=1,$O$3&amp;", ",""),IF(P5=1,$P$3&amp;", ",""))</f>
+        <f t="shared" ref="R5:R43" si="2">CONCATENATE("-",IF(B5=1,$B$3&amp;", ",""),IF(C5=1,$C$3&amp;", ",""),IF(D5=1,$D$3&amp;", ",""),IF(E5=1,$E$3&amp;", ",""),IF(F5=1,$F$3&amp;", ",""),IF(G5=1,$G$3&amp;", ",""),IF(H5=1,$H$3&amp;", ",""),IF(I5=1,$I$3&amp;", ",""),IF(J5=1,$J$3&amp;", ",""),IF(K5=1,$K$3&amp;", ",""),IF(L5=1,$L$3&amp;", ",""),IF(M5=1,$M$3&amp;", ",""),IF(N5=1,$N$3&amp;", ",""),IF(O5=1,$O$3&amp;", ",""),IF(P5=1,$P$3&amp;", ",""))</f>
         <v>-</v>
       </c>
       <c r="S5" s="16">
         <v>1</v>
       </c>
-      <c r="T5" s="16"/>
+      <c r="T5" s="16">
+        <v>1</v>
+      </c>
       <c r="U5" s="16"/>
       <c r="V5" s="16"/>
       <c r="W5" s="16"/>
@@ -1168,26 +1182,32 @@
       <c r="G6" s="12"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
+      <c r="J6" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="13">
+        <f t="array" ref="K6">IF(MAX(FREQUENCY(IF(S6:AL6&gt;0,COLUMN(S6:AL6)),IF(S6:AL6&lt;=0,COLUMN(S6:AL6))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
       <c r="Q6" s="15">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="R6" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S6" s="16">
         <v>3</v>
       </c>
       <c r="T6" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U6" s="16"/>
       <c r="V6" s="16"/>
@@ -1220,26 +1240,32 @@
       <c r="G7" s="12"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
+      <c r="J7" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="13">
+        <f t="array" ref="K7">IF(MAX(FREQUENCY(IF(S7:AL7&gt;0,COLUMN(S7:AL7)),IF(S7:AL7&lt;=0,COLUMN(S7:AL7))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="15">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="R7" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S7" s="16">
         <v>1</v>
       </c>
       <c r="T7" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U7" s="16"/>
       <c r="V7" s="16"/>
@@ -1272,26 +1298,32 @@
       <c r="G8" s="12"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
+      <c r="J8" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="13">
+        <f t="array" ref="K8">IF(MAX(FREQUENCY(IF(S8:AL8&gt;0,COLUMN(S8:AL8)),IF(S8:AL8&lt;=0,COLUMN(S8:AL8))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="15">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="R8" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S8" s="16">
         <v>3</v>
       </c>
       <c r="T8" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U8" s="16"/>
       <c r="V8" s="16"/>
@@ -1324,26 +1356,32 @@
       <c r="G9" s="12"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
+      <c r="J9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="13">
+        <f t="array" ref="K9">IF(MAX(FREQUENCY(IF(S9:AL9&gt;0,COLUMN(S9:AL9)),IF(S9:AL9&lt;=0,COLUMN(S9:AL9))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
       <c r="Q9" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="R9" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S9" s="16">
         <v>3</v>
       </c>
       <c r="T9" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
@@ -1376,26 +1414,32 @@
       <c r="G10" s="12"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
+      <c r="J10" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K10" s="13">
+        <f t="array" ref="K10">IF(MAX(FREQUENCY(IF(S10:AL10&gt;0,COLUMN(S10:AL10)),IF(S10:AL10&lt;=0,COLUMN(S10:AL10))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="15">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="R10" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="S10" s="16">
         <v>3</v>
       </c>
       <c r="T10" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U10" s="16"/>
       <c r="V10" s="16"/>
@@ -1428,26 +1472,32 @@
       <c r="G11" s="12"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
+      <c r="J11" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="13">
+        <f t="array" ref="K11">IF(MAX(FREQUENCY(IF(S11:AL11&gt;0,COLUMN(S11:AL11)),IF(S11:AL11&lt;=0,COLUMN(S11:AL11))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
       <c r="Q11" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="R11" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S11" s="16">
         <v>1</v>
       </c>
       <c r="T11" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U11" s="16"/>
       <c r="V11" s="16"/>
@@ -1480,26 +1530,32 @@
       <c r="G12" s="12"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
+      <c r="J12" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="13">
+        <f t="array" ref="K12">IF(MAX(FREQUENCY(IF(S12:AL12&gt;0,COLUMN(S12:AL12)),IF(S12:AL12&lt;=0,COLUMN(S12:AL12))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
       <c r="N12" s="14"/>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
       <c r="Q12" s="15">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="R12" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S12" s="16">
         <v>2</v>
       </c>
       <c r="T12" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
@@ -1534,26 +1590,32 @@
         <v>1</v>
       </c>
       <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
+      <c r="J13" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="13">
+        <f t="array" ref="K13">IF(MAX(FREQUENCY(IF(S13:AL13&gt;0,COLUMN(S13:AL13)),IF(S13:AL13&lt;=0,COLUMN(S13:AL13))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
       <c r="Q13" s="15">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="R13" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">-Full Combo, </v>
       </c>
       <c r="S13" s="16">
         <v>2</v>
       </c>
       <c r="T13" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U13" s="16"/>
       <c r="V13" s="16"/>
@@ -1586,26 +1648,32 @@
       <c r="G14" s="12"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
+      <c r="J14" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K14" s="13">
+        <f t="array" ref="K14">IF(MAX(FREQUENCY(IF(S14:AL14&gt;0,COLUMN(S14:AL14)),IF(S14:AL14&lt;=0,COLUMN(S14:AL14))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
       <c r="Q14" s="15">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="R14" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="S14" s="16">
         <v>3</v>
       </c>
       <c r="T14" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U14" s="16"/>
       <c r="V14" s="16"/>
@@ -1638,19 +1706,25 @@
       <c r="G15" s="12"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
+      <c r="J15" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <f t="array" ref="K15">IF(MAX(FREQUENCY(IF(S15:AL15&gt;0,COLUMN(S15:AL15)),IF(S15:AL15&lt;=0,COLUMN(S15:AL15))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="R15" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S15" s="16">
@@ -1690,19 +1764,25 @@
       <c r="G16" s="12"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
+      <c r="J16" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="13">
+        <f t="array" ref="K16">IF(MAX(FREQUENCY(IF(S16:AL16&gt;0,COLUMN(S16:AL16)),IF(S16:AL16&lt;=0,COLUMN(S16:AL16))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="R16" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S16" s="16">
@@ -1742,19 +1822,25 @@
       <c r="G17" s="12"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
+      <c r="J17" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="13">
+        <f t="array" ref="K17">IF(MAX(FREQUENCY(IF(S17:AL17&gt;0,COLUMN(S17:AL17)),IF(S17:AL17&lt;=0,COLUMN(S17:AL17))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
       <c r="N17" s="14"/>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
       <c r="Q17" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="R17" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S17" s="16">
@@ -1794,19 +1880,25 @@
       <c r="G18" s="12"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
+      <c r="J18" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="13">
+        <f t="array" ref="K18">IF(MAX(FREQUENCY(IF(S18:AL18&gt;0,COLUMN(S18:AL18)),IF(S18:AL18&lt;=0,COLUMN(S18:AL18))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
       <c r="N18" s="14"/>
       <c r="O18" s="14"/>
       <c r="P18" s="14"/>
       <c r="Q18" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="R18" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S18" s="16">
@@ -1846,19 +1938,25 @@
       <c r="G19" s="12"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
+      <c r="J19" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="13">
+        <f t="array" ref="K19">IF(MAX(FREQUENCY(IF(S19:AL19&gt;0,COLUMN(S19:AL19)),IF(S19:AL19&lt;=0,COLUMN(S19:AL19))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
       <c r="P19" s="14"/>
       <c r="Q19" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="R19" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S19" s="16">
@@ -1900,20 +1998,26 @@
         <v>1</v>
       </c>
       <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
+      <c r="J20" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K20" s="13">
+        <f t="array" ref="K20">IF(MAX(FREQUENCY(IF(S20:AL20&gt;0,COLUMN(S20:AL20)),IF(S20:AL20&lt;=0,COLUMN(S20:AL20))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
       <c r="N20" s="14"/>
       <c r="O20" s="14"/>
       <c r="P20" s="14"/>
       <c r="Q20" s="15">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="R20" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">-Full Combo, </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">-Full Combo, Three-Star Wonder, </v>
       </c>
       <c r="S20" s="16">
         <v>3</v>
@@ -1952,20 +2056,26 @@
       <c r="G21" s="12"/>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
+      <c r="J21" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K21" s="13">
+        <f t="array" ref="K21">IF(MAX(FREQUENCY(IF(S21:AL21&gt;0,COLUMN(S21:AL21)),IF(S21:AL21&lt;=0,COLUMN(S21:AL21))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
       <c r="P21" s="14"/>
       <c r="Q21" s="15">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="R21" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="S21" s="16">
         <v>3</v>
@@ -2004,19 +2114,25 @@
       <c r="G22" s="12"/>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
+      <c r="J22" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="13">
+        <f t="array" ref="K22">IF(MAX(FREQUENCY(IF(S22:AL22&gt;0,COLUMN(S22:AL22)),IF(S22:AL22&lt;=0,COLUMN(S22:AL22))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
       <c r="N22" s="14"/>
       <c r="O22" s="14"/>
       <c r="P22" s="14"/>
       <c r="Q22" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="R22" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S22" s="16">
@@ -2056,19 +2172,25 @@
       <c r="G23" s="12"/>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
+      <c r="J23" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="13">
+        <f t="array" ref="K23">IF(MAX(FREQUENCY(IF(S23:AL23&gt;0,COLUMN(S23:AL23)),IF(S23:AL23&lt;=0,COLUMN(S23:AL23))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
       <c r="P23" s="14"/>
       <c r="Q23" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="R23" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S23" s="16">
@@ -2108,19 +2230,25 @@
       <c r="G24" s="12"/>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
+      <c r="J24" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="13">
+        <f t="array" ref="K24">IF(MAX(FREQUENCY(IF(S24:AL24&gt;0,COLUMN(S24:AL24)),IF(S24:AL24&lt;=0,COLUMN(S24:AL24))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
       <c r="N24" s="14"/>
       <c r="O24" s="14"/>
       <c r="P24" s="14"/>
       <c r="Q24" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="R24" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S24" s="16">
@@ -2158,20 +2286,26 @@
       <c r="G25" s="12"/>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
+      <c r="J25" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K25" s="13">
+        <f t="array" ref="K25">IF(MAX(FREQUENCY(IF(S25:AL25&gt;0,COLUMN(S25:AL25)),IF(S25:AL25&lt;=0,COLUMN(S25:AL25))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L25" s="13"/>
       <c r="M25" s="13"/>
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
       <c r="P25" s="14"/>
       <c r="Q25" s="15">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="R25" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="S25" s="16">
         <v>3</v>
@@ -2210,19 +2344,25 @@
       <c r="G26" s="12"/>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
+      <c r="J26" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="13">
+        <f t="array" ref="K26">IF(MAX(FREQUENCY(IF(S26:AL26&gt;0,COLUMN(S26:AL26)),IF(S26:AL26&lt;=0,COLUMN(S26:AL26))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L26" s="13"/>
       <c r="M26" s="13"/>
       <c r="N26" s="14"/>
       <c r="O26" s="14"/>
       <c r="P26" s="14"/>
       <c r="Q26" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="R26" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S26" s="16">
@@ -2262,19 +2402,25 @@
       <c r="G27" s="12"/>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
+      <c r="J27" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="13">
+        <f t="array" ref="K27">IF(MAX(FREQUENCY(IF(S27:AL27&gt;0,COLUMN(S27:AL27)),IF(S27:AL27&lt;=0,COLUMN(S27:AL27))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
       <c r="P27" s="14"/>
       <c r="Q27" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="R27" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S27" s="16">
@@ -2314,19 +2460,25 @@
       <c r="G28" s="12"/>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
+      <c r="J28" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="13">
+        <f t="array" ref="K28">IF(MAX(FREQUENCY(IF(S28:AL28&gt;0,COLUMN(S28:AL28)),IF(S28:AL28&lt;=0,COLUMN(S28:AL28))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>
       <c r="P28" s="14"/>
       <c r="Q28" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="R28" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S28" s="16">
@@ -2366,19 +2518,25 @@
       <c r="G29" s="12"/>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
+      <c r="J29" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="13">
+        <f t="array" ref="K29">IF(MAX(FREQUENCY(IF(S29:AL29&gt;0,COLUMN(S29:AL29)),IF(S29:AL29&lt;=0,COLUMN(S29:AL29))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
       <c r="P29" s="14"/>
       <c r="Q29" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R29" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S29" s="16">
@@ -2418,19 +2576,25 @@
       <c r="G30" s="12"/>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
+      <c r="J30" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="13">
+        <f t="array" ref="K30">IF(MAX(FREQUENCY(IF(S30:AL30&gt;0,COLUMN(S30:AL30)),IF(S30:AL30&lt;=0,COLUMN(S30:AL30))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L30" s="13"/>
       <c r="M30" s="13"/>
       <c r="N30" s="14"/>
       <c r="O30" s="14"/>
       <c r="P30" s="14"/>
       <c r="Q30" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="R30" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S30" s="16">
@@ -2470,20 +2634,26 @@
       <c r="G31" s="12"/>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
+      <c r="J31" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K31" s="13">
+        <f t="array" ref="K31">IF(MAX(FREQUENCY(IF(S31:AL31&gt;0,COLUMN(S31:AL31)),IF(S31:AL31&lt;=0,COLUMN(S31:AL31))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L31" s="13"/>
       <c r="M31" s="13"/>
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
       <c r="P31" s="14"/>
       <c r="Q31" s="15">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="R31" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="S31" s="16">
         <v>3</v>
@@ -2524,20 +2694,26 @@
       <c r="I32" s="13">
         <v>1</v>
       </c>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
+      <c r="J32" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K32" s="13">
+        <f t="array" ref="K32">IF(MAX(FREQUENCY(IF(S32:AL32&gt;0,COLUMN(S32:AL32)),IF(S32:AL32&lt;=0,COLUMN(S32:AL32))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
       <c r="P32" s="14"/>
       <c r="Q32" s="15">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="R32" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">-Math Ambassador, </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">-Math Ambassador, Three-Star Wonder, </v>
       </c>
       <c r="S32" s="16">
         <v>3</v>
@@ -2576,19 +2752,25 @@
       <c r="G33" s="12"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
+      <c r="J33" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="13">
+        <f t="array" ref="K33">IF(MAX(FREQUENCY(IF(S33:AL33&gt;0,COLUMN(S33:AL33)),IF(S33:AL33&lt;=0,COLUMN(S33:AL33))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
       <c r="N33" s="14"/>
       <c r="O33" s="14"/>
       <c r="P33" s="14"/>
       <c r="Q33" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="R33" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S33" s="16">
@@ -2628,19 +2810,25 @@
       <c r="G34" s="12"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
+      <c r="J34" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="13">
+        <f t="array" ref="K34">IF(MAX(FREQUENCY(IF(S34:AL34&gt;0,COLUMN(S34:AL34)),IF(S34:AL34&lt;=0,COLUMN(S34:AL34))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
       <c r="N34" s="14"/>
       <c r="O34" s="14"/>
       <c r="P34" s="14"/>
       <c r="Q34" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="R34" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S34" s="16">
@@ -2680,19 +2868,25 @@
       <c r="G35" s="12"/>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
+      <c r="J35" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="13">
+        <f t="array" ref="K35">IF(MAX(FREQUENCY(IF(S35:AL35&gt;0,COLUMN(S35:AL35)),IF(S35:AL35&lt;=0,COLUMN(S35:AL35))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L35" s="13"/>
       <c r="M35" s="13"/>
       <c r="N35" s="14"/>
       <c r="O35" s="14"/>
       <c r="P35" s="14"/>
       <c r="Q35" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="R35" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S35" s="16">
@@ -2732,19 +2926,25 @@
       <c r="G36" s="12"/>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
+      <c r="J36" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="13">
+        <f t="array" ref="K36">IF(MAX(FREQUENCY(IF(S36:AL36&gt;0,COLUMN(S36:AL36)),IF(S36:AL36&lt;=0,COLUMN(S36:AL36))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L36" s="13"/>
       <c r="M36" s="13"/>
       <c r="N36" s="14"/>
       <c r="O36" s="14"/>
       <c r="P36" s="14"/>
       <c r="Q36" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="R36" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S36" s="16">
@@ -2784,19 +2984,25 @@
       <c r="G37" s="12"/>
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
+      <c r="J37" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="13">
+        <f t="array" ref="K37">IF(MAX(FREQUENCY(IF(S37:AL37&gt;0,COLUMN(S37:AL37)),IF(S37:AL37&lt;=0,COLUMN(S37:AL37))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L37" s="13"/>
       <c r="M37" s="13"/>
       <c r="N37" s="14"/>
       <c r="O37" s="14"/>
       <c r="P37" s="14"/>
       <c r="Q37" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="R37" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S37" s="16">
@@ -2834,19 +3040,25 @@
       <c r="G38" s="12"/>
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
+      <c r="J38" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="13">
+        <f t="array" ref="K38">IF(MAX(FREQUENCY(IF(S38:AL38&gt;0,COLUMN(S38:AL38)),IF(S38:AL38&lt;=0,COLUMN(S38:AL38))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L38" s="13"/>
       <c r="M38" s="13"/>
       <c r="N38" s="14"/>
       <c r="O38" s="14"/>
       <c r="P38" s="14"/>
       <c r="Q38" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="R38" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S38" s="16">
@@ -2886,19 +3098,25 @@
       <c r="G39" s="12"/>
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
+      <c r="J39" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="13">
+        <f t="array" ref="K39">IF(MAX(FREQUENCY(IF(S39:AL39&gt;0,COLUMN(S39:AL39)),IF(S39:AL39&lt;=0,COLUMN(S39:AL39))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L39" s="13"/>
       <c r="M39" s="13"/>
       <c r="N39" s="14"/>
       <c r="O39" s="14"/>
       <c r="P39" s="14"/>
       <c r="Q39" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="R39" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S39" s="16">
@@ -2944,11 +3162,11 @@
       <c r="O40" s="14"/>
       <c r="P40" s="14"/>
       <c r="Q40" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R40" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S40" s="16"/>
@@ -2990,11 +3208,11 @@
       <c r="O41" s="14"/>
       <c r="P41" s="14"/>
       <c r="Q41" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R41" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S41" s="16"/>
@@ -3036,11 +3254,11 @@
       <c r="O42" s="14"/>
       <c r="P42" s="14"/>
       <c r="Q42" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R42" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S42" s="16"/>
@@ -3082,11 +3300,11 @@
       <c r="O43" s="14"/>
       <c r="P43" s="14"/>
       <c r="Q43" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R43" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S43" s="16"/>
@@ -3128,8 +3346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10534E12-96AC-44F1-9431-EFE9F0397466}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3156,7 +3374,7 @@
       </c>
       <c r="C2">
         <f>'Sec 1 Data'!Q4</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3170,7 +3388,7 @@
       </c>
       <c r="C3">
         <f>'Sec 1 Data'!Q5</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3184,7 +3402,7 @@
       </c>
       <c r="C4">
         <f>'Sec 1 Data'!Q6</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3198,7 +3416,7 @@
       </c>
       <c r="C5">
         <f>'Sec 1 Data'!Q7</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3212,7 +3430,7 @@
       </c>
       <c r="C6">
         <f>'Sec 1 Data'!Q8</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -3226,7 +3444,7 @@
       </c>
       <c r="C7">
         <f>'Sec 1 Data'!Q9</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3236,11 +3454,11 @@
       </c>
       <c r="B8" t="str">
         <f>'Sec 1 Data'!R10</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C8">
         <f>'Sec 1 Data'!Q10</f>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -3254,7 +3472,7 @@
       </c>
       <c r="C9">
         <f>'Sec 1 Data'!Q11</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -3268,7 +3486,7 @@
       </c>
       <c r="C10">
         <f>'Sec 1 Data'!Q12</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -3282,7 +3500,7 @@
       </c>
       <c r="C11">
         <f>'Sec 1 Data'!Q13</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -3292,11 +3510,11 @@
       </c>
       <c r="B12" t="str">
         <f>'Sec 1 Data'!R14</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C12">
         <f>'Sec 1 Data'!Q14</f>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -3376,11 +3594,11 @@
       </c>
       <c r="B18" t="str">
         <f>'Sec 1 Data'!R20</f>
-        <v xml:space="preserve">-Full Combo, </v>
+        <v xml:space="preserve">-Full Combo, Three-Star Wonder, </v>
       </c>
       <c r="C18">
         <f>'Sec 1 Data'!Q20</f>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -3390,11 +3608,11 @@
       </c>
       <c r="B19" t="str">
         <f>'Sec 1 Data'!R21</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C19">
         <f>'Sec 1 Data'!Q21</f>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -3446,11 +3664,11 @@
       </c>
       <c r="B23" t="str">
         <f>'Sec 1 Data'!R25</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C23">
         <f>'Sec 1 Data'!Q25</f>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -3530,11 +3748,11 @@
       </c>
       <c r="B29" t="str">
         <f>'Sec 1 Data'!R31</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C29">
         <f>'Sec 1 Data'!Q31</f>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -3544,11 +3762,11 @@
       </c>
       <c r="B30" t="str">
         <f>'Sec 1 Data'!R32</f>
-        <v xml:space="preserve">-Math Ambassador, </v>
+        <v xml:space="preserve">-Math Ambassador, Three-Star Wonder, </v>
       </c>
       <c r="C30">
         <f>'Sec 1 Data'!Q32</f>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -3715,29 +3933,29 @@
   <dimension ref="A1:AL43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="T17" sqref="T17"/>
-      <selection pane="topRight" activeCell="T31" sqref="T31"/>
+      <selection pane="topRight" activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" style="4" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="4" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="4" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="4" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="4" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12" style="4" customWidth="1"/>
     <col min="8" max="8" width="10.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" style="6" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="15.88671875" style="6" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" style="6" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="9.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="14.21875" style="7" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="19.21875" style="7" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="11.21875" style="7" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" style="6" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="14.21875" style="7" customWidth="1"/>
+    <col min="15" max="15" width="19.21875" style="7" customWidth="1"/>
+    <col min="16" max="16" width="11.21875" style="7" customWidth="1"/>
     <col min="17" max="17" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="25.44140625" style="1" customWidth="1"/>
     <col min="19" max="19" width="8.88671875" style="8"/>
@@ -3927,8 +4145,14 @@
       <c r="I4" s="13">
         <v>1</v>
       </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
+      <c r="J4" s="13">
+        <f>IF(COUNTIF(S4:AL4,"&gt;=3")&gt;=2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="13">
+        <f t="array" ref="K4">IF(MAX(FREQUENCY(IF(S4:AL4&gt;0,COLUMN(S4:AL4)),IF(S4:AL4&lt;=0,COLUMN(S4:AL4))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
       <c r="N4" s="14"/>
@@ -3936,7 +4160,7 @@
       <c r="P4" s="14"/>
       <c r="Q4" s="15">
         <f>SUM(B4:G4)+3*SUM(H4:M4)+5*SUM(N4:P4)+SUM(S4:AL4)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="R4" s="15" t="str">
         <f>CONCATENATE("-",IF(B4=1,$B$3&amp;", ",""),IF(C4=1,$C$3&amp;", ",""),IF(D4=1,$D$3&amp;", ",""),IF(E4=1,$E$3&amp;", ",""),IF(F4=1,$F$3&amp;", ",""),IF(G4=1,$G$3&amp;", ",""),IF(H4=1,$H$3&amp;", ",""),IF(I4=1,$I$3&amp;", ",""),IF(J4=1,$J$3&amp;", ",""),IF(K4=1,$K$3&amp;", ",""),IF(L4=1,$L$3&amp;", ",""),IF(M4=1,$M$3&amp;", ",""),IF(N4=1,$N$3&amp;", ",""),IF(O4=1,$O$3&amp;", ",""),IF(P4=1,$P$3&amp;", ",""))</f>
@@ -3948,7 +4172,9 @@
       <c r="T4" s="16">
         <v>2</v>
       </c>
-      <c r="U4" s="16"/>
+      <c r="U4" s="16">
+        <v>2</v>
+      </c>
       <c r="V4" s="16"/>
       <c r="W4" s="16"/>
       <c r="X4" s="16"/>
@@ -3979,19 +4205,25 @@
       <c r="G5" s="12"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
+      <c r="J5" s="13">
+        <f t="shared" ref="J5:J35" si="0">IF(COUNTIF(S5:AL5,"&gt;=3")&gt;=2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="13">
+        <f t="array" ref="K5">IF(MAX(FREQUENCY(IF(S5:AL5&gt;0,COLUMN(S5:AL5)),IF(S5:AL5&lt;=0,COLUMN(S5:AL5))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="15">
-        <f t="shared" ref="Q5:Q43" si="0">SUM(B5:G5)+3*SUM(H5:L5)+5*SUM(M5:P5)+SUM(S5:AL5)</f>
-        <v>3</v>
+        <f t="shared" ref="Q5:Q43" si="1">SUM(B5:G5)+3*SUM(H5:L5)+5*SUM(M5:P5)+SUM(S5:AL5)</f>
+        <v>5</v>
       </c>
       <c r="R5" s="15" t="str">
-        <f t="shared" ref="R5:R43" si="1">CONCATENATE("-",IF(B5=1,$B$3&amp;", ",""),IF(C5=1,$C$3&amp;", ",""),IF(D5=1,$D$3&amp;", ",""),IF(E5=1,$E$3&amp;", ",""),IF(F5=1,$F$3&amp;", ",""),IF(G5=1,$G$3&amp;", ",""),IF(H5=1,$H$3&amp;", ",""),IF(I5=1,$I$3&amp;", ",""),IF(J5=1,$J$3&amp;", ",""),IF(K5=1,$K$3&amp;", ",""),IF(L5=1,$L$3&amp;", ",""),IF(M5=1,$M$3&amp;", ",""),IF(N5=1,$N$3&amp;", ",""),IF(O5=1,$O$3&amp;", ",""),IF(P5=1,$P$3&amp;", ",""))</f>
+        <f t="shared" ref="R5:R43" si="2">CONCATENATE("-",IF(B5=1,$B$3&amp;", ",""),IF(C5=1,$C$3&amp;", ",""),IF(D5=1,$D$3&amp;", ",""),IF(E5=1,$E$3&amp;", ",""),IF(F5=1,$F$3&amp;", ",""),IF(G5=1,$G$3&amp;", ",""),IF(H5=1,$H$3&amp;", ",""),IF(I5=1,$I$3&amp;", ",""),IF(J5=1,$J$3&amp;", ",""),IF(K5=1,$K$3&amp;", ",""),IF(L5=1,$L$3&amp;", ",""),IF(M5=1,$M$3&amp;", ",""),IF(N5=1,$N$3&amp;", ",""),IF(O5=1,$O$3&amp;", ",""),IF(P5=1,$P$3&amp;", ",""))</f>
         <v>-</v>
       </c>
       <c r="S5" s="16">
@@ -4000,7 +4232,9 @@
       <c r="T5" s="16">
         <v>2</v>
       </c>
-      <c r="U5" s="16"/>
+      <c r="U5" s="16">
+        <v>2</v>
+      </c>
       <c r="V5" s="16"/>
       <c r="W5" s="16"/>
       <c r="X5" s="16"/>
@@ -4033,20 +4267,26 @@
         <v>1</v>
       </c>
       <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
+      <c r="J6" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K6" s="13">
+        <f t="array" ref="K6">IF(MAX(FREQUENCY(IF(S6:AL6&gt;0,COLUMN(S6:AL6)),IF(S6:AL6&lt;=0,COLUMN(S6:AL6))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
       <c r="Q6" s="15">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="R6" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">-Full Combo, </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">-Full Combo, Three-Star Wonder, </v>
       </c>
       <c r="S6" s="16">
         <v>3</v>
@@ -4054,7 +4294,9 @@
       <c r="T6" s="16">
         <v>3</v>
       </c>
-      <c r="U6" s="16"/>
+      <c r="U6" s="16">
+        <v>3</v>
+      </c>
       <c r="V6" s="16"/>
       <c r="W6" s="16"/>
       <c r="X6" s="16"/>
@@ -4085,19 +4327,25 @@
       <c r="G7" s="12"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
+      <c r="J7" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="13">
+        <f t="array" ref="K7">IF(MAX(FREQUENCY(IF(S7:AL7&gt;0,COLUMN(S7:AL7)),IF(S7:AL7&lt;=0,COLUMN(S7:AL7))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="15">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="R7" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S7" s="16">
@@ -4106,7 +4354,9 @@
       <c r="T7" s="16">
         <v>1</v>
       </c>
-      <c r="U7" s="16"/>
+      <c r="U7" s="16">
+        <v>2</v>
+      </c>
       <c r="V7" s="16"/>
       <c r="W7" s="16"/>
       <c r="X7" s="16"/>
@@ -4137,25 +4387,33 @@
       <c r="G8" s="12"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
+      <c r="J8" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="13">
+        <f t="array" ref="K8">IF(MAX(FREQUENCY(IF(S8:AL8&gt;0,COLUMN(S8:AL8)),IF(S8:AL8&lt;=0,COLUMN(S8:AL8))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R8" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S8" s="16">
         <v>0</v>
       </c>
-      <c r="T8" s="16"/>
+      <c r="T8" s="16">
+        <v>0</v>
+      </c>
       <c r="U8" s="16"/>
       <c r="V8" s="16"/>
       <c r="W8" s="16"/>
@@ -4189,19 +4447,25 @@
         <v>1</v>
       </c>
       <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
+      <c r="J9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="13">
+        <f t="array" ref="K9">IF(MAX(FREQUENCY(IF(S9:AL9&gt;0,COLUMN(S9:AL9)),IF(S9:AL9&lt;=0,COLUMN(S9:AL9))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
       <c r="Q9" s="15">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="R9" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">-Full Combo, </v>
       </c>
       <c r="S9" s="16">
@@ -4210,7 +4474,9 @@
       <c r="T9" s="16">
         <v>2</v>
       </c>
-      <c r="U9" s="16"/>
+      <c r="U9" s="16">
+        <v>2</v>
+      </c>
       <c r="V9" s="16"/>
       <c r="W9" s="16"/>
       <c r="X9" s="16"/>
@@ -4241,20 +4507,26 @@
       <c r="G10" s="12"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
+      <c r="J10" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K10" s="13">
+        <f t="array" ref="K10">IF(MAX(FREQUENCY(IF(S10:AL10&gt;0,COLUMN(S10:AL10)),IF(S10:AL10&lt;=0,COLUMN(S10:AL10))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="15">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="R10" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="S10" s="16">
         <v>3</v>
@@ -4262,7 +4534,9 @@
       <c r="T10" s="16">
         <v>2</v>
       </c>
-      <c r="U10" s="16"/>
+      <c r="U10" s="16">
+        <v>3</v>
+      </c>
       <c r="V10" s="16"/>
       <c r="W10" s="16"/>
       <c r="X10" s="16"/>
@@ -4295,20 +4569,26 @@
         <v>1</v>
       </c>
       <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
+      <c r="J11" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K11" s="13">
+        <f t="array" ref="K11">IF(MAX(FREQUENCY(IF(S11:AL11&gt;0,COLUMN(S11:AL11)),IF(S11:AL11&lt;=0,COLUMN(S11:AL11))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
       <c r="Q11" s="15">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="R11" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">-Full Combo, </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">-Full Combo, Three-Star Wonder, </v>
       </c>
       <c r="S11" s="16">
         <v>3</v>
@@ -4316,7 +4596,9 @@
       <c r="T11" s="16">
         <v>3</v>
       </c>
-      <c r="U11" s="16"/>
+      <c r="U11" s="16">
+        <v>3</v>
+      </c>
       <c r="V11" s="16"/>
       <c r="W11" s="16"/>
       <c r="X11" s="16"/>
@@ -4349,20 +4631,26 @@
         <v>1</v>
       </c>
       <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
+      <c r="J12" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K12" s="13">
+        <f t="array" ref="K12">IF(MAX(FREQUENCY(IF(S12:AL12&gt;0,COLUMN(S12:AL12)),IF(S12:AL12&lt;=0,COLUMN(S12:AL12))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
       <c r="N12" s="14"/>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
       <c r="Q12" s="15">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="R12" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">-Full Combo, </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">-Full Combo, Three-Star Wonder, </v>
       </c>
       <c r="S12" s="16">
         <v>3</v>
@@ -4370,7 +4658,9 @@
       <c r="T12" s="16">
         <v>3</v>
       </c>
-      <c r="U12" s="16"/>
+      <c r="U12" s="16">
+        <v>3</v>
+      </c>
       <c r="V12" s="16"/>
       <c r="W12" s="16"/>
       <c r="X12" s="16"/>
@@ -4401,19 +4691,25 @@
       <c r="G13" s="12"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
+      <c r="J13" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="13">
+        <f t="array" ref="K13">IF(MAX(FREQUENCY(IF(S13:AL13&gt;0,COLUMN(S13:AL13)),IF(S13:AL13&lt;=0,COLUMN(S13:AL13))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
       <c r="Q13" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="R13" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S13" s="16">
@@ -4422,7 +4718,9 @@
       <c r="T13" s="16">
         <v>2</v>
       </c>
-      <c r="U13" s="16"/>
+      <c r="U13" s="16">
+        <v>3</v>
+      </c>
       <c r="V13" s="16"/>
       <c r="W13" s="16"/>
       <c r="X13" s="16"/>
@@ -4453,19 +4751,25 @@
       <c r="G14" s="12"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
+      <c r="J14" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="13">
+        <f t="array" ref="K14">IF(MAX(FREQUENCY(IF(S14:AL14&gt;0,COLUMN(S14:AL14)),IF(S14:AL14&lt;=0,COLUMN(S14:AL14))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
       <c r="Q14" s="15">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="R14" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S14" s="16">
@@ -4474,7 +4778,9 @@
       <c r="T14" s="16">
         <v>2</v>
       </c>
-      <c r="U14" s="16"/>
+      <c r="U14" s="16">
+        <v>2</v>
+      </c>
       <c r="V14" s="16"/>
       <c r="W14" s="16"/>
       <c r="X14" s="16"/>
@@ -4505,20 +4811,26 @@
       <c r="G15" s="12"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
+      <c r="J15" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K15" s="13">
+        <f t="array" ref="K15">IF(MAX(FREQUENCY(IF(S15:AL15&gt;0,COLUMN(S15:AL15)),IF(S15:AL15&lt;=0,COLUMN(S15:AL15))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="15">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="R15" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="S15" s="16">
         <v>2</v>
@@ -4526,7 +4838,9 @@
       <c r="T15" s="16">
         <v>3</v>
       </c>
-      <c r="U15" s="16"/>
+      <c r="U15" s="16">
+        <v>4</v>
+      </c>
       <c r="V15" s="16"/>
       <c r="W15" s="16"/>
       <c r="X15" s="16"/>
@@ -4557,19 +4871,25 @@
       <c r="G16" s="12"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
+      <c r="J16" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="13">
+        <f t="array" ref="K16">IF(MAX(FREQUENCY(IF(S16:AL16&gt;0,COLUMN(S16:AL16)),IF(S16:AL16&lt;=0,COLUMN(S16:AL16))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="R16" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S16" s="16">
@@ -4578,7 +4898,9 @@
       <c r="T16" s="16">
         <v>1</v>
       </c>
-      <c r="U16" s="16"/>
+      <c r="U16" s="16">
+        <v>2</v>
+      </c>
       <c r="V16" s="16"/>
       <c r="W16" s="16"/>
       <c r="X16" s="16"/>
@@ -4609,19 +4931,25 @@
       <c r="G17" s="12"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
+      <c r="J17" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="13">
+        <f t="array" ref="K17">IF(MAX(FREQUENCY(IF(S17:AL17&gt;0,COLUMN(S17:AL17)),IF(S17:AL17&lt;=0,COLUMN(S17:AL17))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
       <c r="N17" s="14"/>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
       <c r="Q17" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R17" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S17" s="16">
@@ -4661,19 +4989,25 @@
       <c r="G18" s="12"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
+      <c r="J18" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="13">
+        <f t="array" ref="K18">IF(MAX(FREQUENCY(IF(S18:AL18&gt;0,COLUMN(S18:AL18)),IF(S18:AL18&lt;=0,COLUMN(S18:AL18))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
       <c r="N18" s="14"/>
       <c r="O18" s="14"/>
       <c r="P18" s="14"/>
       <c r="Q18" s="15">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="R18" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S18" s="16">
@@ -4682,7 +5016,9 @@
       <c r="T18" s="16">
         <v>1</v>
       </c>
-      <c r="U18" s="16"/>
+      <c r="U18" s="16">
+        <v>2</v>
+      </c>
       <c r="V18" s="16"/>
       <c r="W18" s="16"/>
       <c r="X18" s="16"/>
@@ -4715,20 +5051,26 @@
         <v>1</v>
       </c>
       <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
+      <c r="J19" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K19" s="13">
+        <f t="array" ref="K19">IF(MAX(FREQUENCY(IF(S19:AL19&gt;0,COLUMN(S19:AL19)),IF(S19:AL19&lt;=0,COLUMN(S19:AL19))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
       <c r="P19" s="14"/>
       <c r="Q19" s="15">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="R19" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">-Full Combo, </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">-Full Combo, Three-Star Wonder, </v>
       </c>
       <c r="S19" s="16">
         <v>3</v>
@@ -4736,7 +5078,9 @@
       <c r="T19" s="16">
         <v>3</v>
       </c>
-      <c r="U19" s="16"/>
+      <c r="U19" s="16">
+        <v>2</v>
+      </c>
       <c r="V19" s="16"/>
       <c r="W19" s="16"/>
       <c r="X19" s="16"/>
@@ -4767,19 +5111,25 @@
       <c r="G20" s="12"/>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
+      <c r="J20" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="13">
+        <f t="array" ref="K20">IF(MAX(FREQUENCY(IF(S20:AL20&gt;0,COLUMN(S20:AL20)),IF(S20:AL20&lt;=0,COLUMN(S20:AL20))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
       <c r="N20" s="14"/>
       <c r="O20" s="14"/>
       <c r="P20" s="14"/>
       <c r="Q20" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="R20" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S20" s="16">
@@ -4788,7 +5138,9 @@
       <c r="T20" s="16">
         <v>2</v>
       </c>
-      <c r="U20" s="16"/>
+      <c r="U20" s="16">
+        <v>2</v>
+      </c>
       <c r="V20" s="16"/>
       <c r="W20" s="16"/>
       <c r="X20" s="16"/>
@@ -4819,20 +5171,26 @@
       <c r="G21" s="12"/>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
+      <c r="J21" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K21" s="13">
+        <f t="array" ref="K21">IF(MAX(FREQUENCY(IF(S21:AL21&gt;0,COLUMN(S21:AL21)),IF(S21:AL21&lt;=0,COLUMN(S21:AL21))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
       <c r="P21" s="14"/>
       <c r="Q21" s="15">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="R21" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="S21" s="16">
         <v>3</v>
@@ -4840,7 +5198,9 @@
       <c r="T21" s="16">
         <v>3</v>
       </c>
-      <c r="U21" s="16"/>
+      <c r="U21" s="16">
+        <v>2</v>
+      </c>
       <c r="V21" s="16"/>
       <c r="W21" s="16"/>
       <c r="X21" s="16"/>
@@ -4873,19 +5233,25 @@
         <v>1</v>
       </c>
       <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
+      <c r="J22" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="13">
+        <f t="array" ref="K22">IF(MAX(FREQUENCY(IF(S22:AL22&gt;0,COLUMN(S22:AL22)),IF(S22:AL22&lt;=0,COLUMN(S22:AL22))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
       <c r="N22" s="14"/>
       <c r="O22" s="14"/>
       <c r="P22" s="14"/>
       <c r="Q22" s="15">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="R22" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">-Full Combo, </v>
       </c>
       <c r="S22" s="16">
@@ -4894,7 +5260,9 @@
       <c r="T22" s="16">
         <v>2</v>
       </c>
-      <c r="U22" s="16"/>
+      <c r="U22" s="16">
+        <v>2</v>
+      </c>
       <c r="V22" s="16"/>
       <c r="W22" s="16"/>
       <c r="X22" s="16"/>
@@ -4925,20 +5293,26 @@
       <c r="G23" s="12"/>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
+      <c r="J23" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K23" s="13">
+        <f t="array" ref="K23">IF(MAX(FREQUENCY(IF(S23:AL23&gt;0,COLUMN(S23:AL23)),IF(S23:AL23&lt;=0,COLUMN(S23:AL23))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
       <c r="P23" s="14"/>
       <c r="Q23" s="15">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="R23" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="S23" s="16">
         <v>1</v>
@@ -4946,7 +5320,9 @@
       <c r="T23" s="16">
         <v>3</v>
       </c>
-      <c r="U23" s="16"/>
+      <c r="U23" s="16">
+        <v>4</v>
+      </c>
       <c r="V23" s="16"/>
       <c r="W23" s="16"/>
       <c r="X23" s="16"/>
@@ -4979,20 +5355,26 @@
         <v>1</v>
       </c>
       <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
+      <c r="J24" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K24" s="13">
+        <f t="array" ref="K24">IF(MAX(FREQUENCY(IF(S24:AL24&gt;0,COLUMN(S24:AL24)),IF(S24:AL24&lt;=0,COLUMN(S24:AL24))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
       <c r="N24" s="14"/>
       <c r="O24" s="14"/>
       <c r="P24" s="14"/>
       <c r="Q24" s="15">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="R24" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">-Full Combo, </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">-Full Combo, Three-Star Wonder, </v>
       </c>
       <c r="S24" s="16">
         <v>3</v>
@@ -5000,7 +5382,9 @@
       <c r="T24" s="16">
         <v>3</v>
       </c>
-      <c r="U24" s="16"/>
+      <c r="U24" s="16">
+        <v>3</v>
+      </c>
       <c r="V24" s="16"/>
       <c r="W24" s="16"/>
       <c r="X24" s="16"/>
@@ -5031,26 +5415,36 @@
       <c r="G25" s="12"/>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
+      <c r="J25" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="13">
+        <f t="array" ref="K25">IF(MAX(FREQUENCY(IF(S25:AL25&gt;0,COLUMN(S25:AL25)),IF(S25:AL25&lt;=0,COLUMN(S25:AL25))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L25" s="13"/>
       <c r="M25" s="13"/>
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
       <c r="P25" s="14"/>
       <c r="Q25" s="15">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="R25" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S25" s="16">
         <v>1</v>
       </c>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
+      <c r="T25" s="16">
+        <v>0</v>
+      </c>
+      <c r="U25" s="16">
+        <v>2</v>
+      </c>
       <c r="V25" s="16"/>
       <c r="W25" s="16"/>
       <c r="X25" s="16"/>
@@ -5081,19 +5475,25 @@
       <c r="G26" s="12"/>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
+      <c r="J26" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="13">
+        <f t="array" ref="K26">IF(MAX(FREQUENCY(IF(S26:AL26&gt;0,COLUMN(S26:AL26)),IF(S26:AL26&lt;=0,COLUMN(S26:AL26))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L26" s="13"/>
       <c r="M26" s="13"/>
       <c r="N26" s="14"/>
       <c r="O26" s="14"/>
       <c r="P26" s="14"/>
       <c r="Q26" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="R26" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S26" s="16">
@@ -5133,20 +5533,26 @@
       <c r="G27" s="12"/>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
+      <c r="J27" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K27" s="13">
+        <f t="array" ref="K27">IF(MAX(FREQUENCY(IF(S27:AL27&gt;0,COLUMN(S27:AL27)),IF(S27:AL27&lt;=0,COLUMN(S27:AL27))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
       <c r="P27" s="14"/>
       <c r="Q27" s="15">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="R27" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="S27" s="16">
         <v>3</v>
@@ -5154,7 +5560,9 @@
       <c r="T27" s="16">
         <v>3</v>
       </c>
-      <c r="U27" s="16"/>
+      <c r="U27" s="16">
+        <v>3</v>
+      </c>
       <c r="V27" s="16"/>
       <c r="W27" s="16"/>
       <c r="X27" s="16"/>
@@ -5185,19 +5593,25 @@
       <c r="G28" s="12"/>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
+      <c r="J28" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="13">
+        <f t="array" ref="K28">IF(MAX(FREQUENCY(IF(S28:AL28&gt;0,COLUMN(S28:AL28)),IF(S28:AL28&lt;=0,COLUMN(S28:AL28))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>
       <c r="P28" s="14"/>
       <c r="Q28" s="15">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="R28" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S28" s="16">
@@ -5206,7 +5620,9 @@
       <c r="T28" s="16">
         <v>2</v>
       </c>
-      <c r="U28" s="16"/>
+      <c r="U28" s="16">
+        <v>2</v>
+      </c>
       <c r="V28" s="16"/>
       <c r="W28" s="16"/>
       <c r="X28" s="16"/>
@@ -5237,20 +5653,26 @@
       <c r="G29" s="12"/>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
+      <c r="J29" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K29" s="13">
+        <f t="array" ref="K29">IF(MAX(FREQUENCY(IF(S29:AL29&gt;0,COLUMN(S29:AL29)),IF(S29:AL29&lt;=0,COLUMN(S29:AL29))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
       <c r="P29" s="14"/>
       <c r="Q29" s="15">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="R29" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="S29" s="16">
         <v>3</v>
@@ -5258,7 +5680,9 @@
       <c r="T29" s="16">
         <v>2</v>
       </c>
-      <c r="U29" s="16"/>
+      <c r="U29" s="16">
+        <v>3</v>
+      </c>
       <c r="V29" s="16"/>
       <c r="W29" s="16"/>
       <c r="X29" s="16"/>
@@ -5289,19 +5713,25 @@
       <c r="G30" s="12"/>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
+      <c r="J30" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="13">
+        <f t="array" ref="K30">IF(MAX(FREQUENCY(IF(S30:AL30&gt;0,COLUMN(S30:AL30)),IF(S30:AL30&lt;=0,COLUMN(S30:AL30))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L30" s="13"/>
       <c r="M30" s="13"/>
       <c r="N30" s="14"/>
       <c r="O30" s="14"/>
       <c r="P30" s="14"/>
       <c r="Q30" s="15">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="R30" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S30" s="16">
@@ -5310,7 +5740,9 @@
       <c r="T30" s="16">
         <v>3</v>
       </c>
-      <c r="U30" s="16"/>
+      <c r="U30" s="16">
+        <v>2</v>
+      </c>
       <c r="V30" s="16"/>
       <c r="W30" s="16"/>
       <c r="X30" s="16"/>
@@ -5341,25 +5773,33 @@
       <c r="G31" s="12"/>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
+      <c r="J31" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="13">
+        <f t="array" ref="K31">IF(MAX(FREQUENCY(IF(S31:AL31&gt;0,COLUMN(S31:AL31)),IF(S31:AL31&lt;=0,COLUMN(S31:AL31))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L31" s="13"/>
       <c r="M31" s="13"/>
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
       <c r="P31" s="14"/>
       <c r="Q31" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="R31" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S31" s="16">
         <v>2</v>
       </c>
-      <c r="T31" s="16"/>
+      <c r="T31" s="16">
+        <v>0</v>
+      </c>
       <c r="U31" s="16"/>
       <c r="V31" s="16"/>
       <c r="W31" s="16"/>
@@ -5393,20 +5833,26 @@
         <v>1</v>
       </c>
       <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
+      <c r="J32" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K32" s="13">
+        <f t="array" ref="K32">IF(MAX(FREQUENCY(IF(S32:AL32&gt;0,COLUMN(S32:AL32)),IF(S32:AL32&lt;=0,COLUMN(S32:AL32))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
       <c r="P32" s="14"/>
       <c r="Q32" s="15">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="R32" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">-Full Combo, </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">-Full Combo, Three-Star Wonder, </v>
       </c>
       <c r="S32" s="16">
         <v>3</v>
@@ -5414,7 +5860,9 @@
       <c r="T32" s="16">
         <v>3</v>
       </c>
-      <c r="U32" s="16"/>
+      <c r="U32" s="16">
+        <v>3</v>
+      </c>
       <c r="V32" s="16"/>
       <c r="W32" s="16"/>
       <c r="X32" s="16"/>
@@ -5445,19 +5893,25 @@
       <c r="G33" s="12"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
+      <c r="J33" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="13">
+        <f t="array" ref="K33">IF(MAX(FREQUENCY(IF(S33:AL33&gt;0,COLUMN(S33:AL33)),IF(S33:AL33&lt;=0,COLUMN(S33:AL33))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
       <c r="N33" s="14"/>
       <c r="O33" s="14"/>
       <c r="P33" s="14"/>
       <c r="Q33" s="15">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="R33" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S33" s="16">
@@ -5466,7 +5920,9 @@
       <c r="T33" s="16">
         <v>2</v>
       </c>
-      <c r="U33" s="16"/>
+      <c r="U33" s="16">
+        <v>3</v>
+      </c>
       <c r="V33" s="16"/>
       <c r="W33" s="16"/>
       <c r="X33" s="16"/>
@@ -5497,19 +5953,25 @@
       <c r="G34" s="12"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
+      <c r="J34" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="13">
+        <f t="array" ref="K34">IF(MAX(FREQUENCY(IF(S34:AL34&gt;0,COLUMN(S34:AL34)),IF(S34:AL34&lt;=0,COLUMN(S34:AL34))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
       <c r="N34" s="14"/>
       <c r="O34" s="14"/>
       <c r="P34" s="14"/>
       <c r="Q34" s="15">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="R34" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S34" s="16">
@@ -5518,7 +5980,9 @@
       <c r="T34" s="16">
         <v>2</v>
       </c>
-      <c r="U34" s="16"/>
+      <c r="U34" s="16">
+        <v>2</v>
+      </c>
       <c r="V34" s="16"/>
       <c r="W34" s="16"/>
       <c r="X34" s="16"/>
@@ -5549,19 +6013,25 @@
       <c r="G35" s="12"/>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
+      <c r="J35" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="13">
+        <f t="array" ref="K35">IF(MAX(FREQUENCY(IF(S35:AL35&gt;0,COLUMN(S35:AL35)),IF(S35:AL35&lt;=0,COLUMN(S35:AL35))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L35" s="13"/>
       <c r="M35" s="13"/>
       <c r="N35" s="14"/>
       <c r="O35" s="14"/>
       <c r="P35" s="14"/>
       <c r="Q35" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="R35" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S35" s="16">
@@ -5606,11 +6076,11 @@
       <c r="O36" s="14"/>
       <c r="P36" s="14"/>
       <c r="Q36" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R36" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S36" s="16"/>
@@ -5652,11 +6122,11 @@
       <c r="O37" s="14"/>
       <c r="P37" s="14"/>
       <c r="Q37" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R37" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S37" s="16"/>
@@ -5698,11 +6168,11 @@
       <c r="O38" s="14"/>
       <c r="P38" s="14"/>
       <c r="Q38" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R38" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S38" s="16"/>
@@ -5744,11 +6214,11 @@
       <c r="O39" s="14"/>
       <c r="P39" s="14"/>
       <c r="Q39" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R39" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S39" s="16"/>
@@ -5790,11 +6260,11 @@
       <c r="O40" s="14"/>
       <c r="P40" s="14"/>
       <c r="Q40" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R40" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S40" s="16"/>
@@ -5836,11 +6306,11 @@
       <c r="O41" s="14"/>
       <c r="P41" s="14"/>
       <c r="Q41" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R41" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S41" s="16"/>
@@ -5882,11 +6352,11 @@
       <c r="O42" s="14"/>
       <c r="P42" s="14"/>
       <c r="Q42" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R42" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S42" s="16"/>
@@ -5928,11 +6398,11 @@
       <c r="O43" s="14"/>
       <c r="P43" s="14"/>
       <c r="Q43" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R43" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="S43" s="16"/>
@@ -6000,7 +6470,7 @@
       </c>
       <c r="C2">
         <f>'Sec 2 Data'!Q4</f>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -6014,7 +6484,7 @@
       </c>
       <c r="C3">
         <f>'Sec 2 Data'!Q5</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -6024,11 +6494,11 @@
       </c>
       <c r="B4" t="str">
         <f>'Sec 2 Data'!R6</f>
-        <v xml:space="preserve">-Full Combo, </v>
+        <v xml:space="preserve">-Full Combo, Three-Star Wonder, </v>
       </c>
       <c r="C4">
         <f>'Sec 2 Data'!Q6</f>
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -6042,7 +6512,7 @@
       </c>
       <c r="C5">
         <f>'Sec 2 Data'!Q7</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -6070,7 +6540,7 @@
       </c>
       <c r="C7">
         <f>'Sec 2 Data'!Q9</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -6080,11 +6550,11 @@
       </c>
       <c r="B8" t="str">
         <f>'Sec 2 Data'!R10</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C8">
         <f>'Sec 2 Data'!Q10</f>
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -6094,11 +6564,11 @@
       </c>
       <c r="B9" t="str">
         <f>'Sec 2 Data'!R11</f>
-        <v xml:space="preserve">-Full Combo, </v>
+        <v xml:space="preserve">-Full Combo, Three-Star Wonder, </v>
       </c>
       <c r="C9">
         <f>'Sec 2 Data'!Q11</f>
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -6108,11 +6578,11 @@
       </c>
       <c r="B10" t="str">
         <f>'Sec 2 Data'!R12</f>
-        <v xml:space="preserve">-Full Combo, </v>
+        <v xml:space="preserve">-Full Combo, Three-Star Wonder, </v>
       </c>
       <c r="C10">
         <f>'Sec 2 Data'!Q12</f>
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -6126,7 +6596,7 @@
       </c>
       <c r="C11">
         <f>'Sec 2 Data'!Q13</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -6140,7 +6610,7 @@
       </c>
       <c r="C12">
         <f>'Sec 2 Data'!Q14</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -6150,11 +6620,11 @@
       </c>
       <c r="B13" t="str">
         <f>'Sec 2 Data'!R15</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C13">
         <f>'Sec 2 Data'!Q15</f>
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -6168,7 +6638,7 @@
       </c>
       <c r="C14">
         <f>'Sec 2 Data'!Q16</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -6196,7 +6666,7 @@
       </c>
       <c r="C16">
         <f>'Sec 2 Data'!Q18</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -6206,11 +6676,11 @@
       </c>
       <c r="B17" t="str">
         <f>'Sec 2 Data'!R19</f>
-        <v xml:space="preserve">-Full Combo, </v>
+        <v xml:space="preserve">-Full Combo, Three-Star Wonder, </v>
       </c>
       <c r="C17">
         <f>'Sec 2 Data'!Q19</f>
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -6224,7 +6694,7 @@
       </c>
       <c r="C18">
         <f>'Sec 2 Data'!Q20</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -6234,11 +6704,11 @@
       </c>
       <c r="B19" t="str">
         <f>'Sec 2 Data'!R21</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C19">
         <f>'Sec 2 Data'!Q21</f>
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -6252,7 +6722,7 @@
       </c>
       <c r="C20">
         <f>'Sec 2 Data'!Q22</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -6262,11 +6732,11 @@
       </c>
       <c r="B21" t="str">
         <f>'Sec 2 Data'!R23</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C21">
         <f>'Sec 2 Data'!Q23</f>
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -6276,11 +6746,11 @@
       </c>
       <c r="B22" t="str">
         <f>'Sec 2 Data'!R24</f>
-        <v xml:space="preserve">-Full Combo, </v>
+        <v xml:space="preserve">-Full Combo, Three-Star Wonder, </v>
       </c>
       <c r="C22">
         <f>'Sec 2 Data'!Q24</f>
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -6294,7 +6764,7 @@
       </c>
       <c r="C23">
         <f>'Sec 2 Data'!Q25</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -6318,11 +6788,11 @@
       </c>
       <c r="B25" t="str">
         <f>'Sec 2 Data'!R27</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C25">
         <f>'Sec 2 Data'!Q27</f>
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -6336,7 +6806,7 @@
       </c>
       <c r="C26">
         <f>'Sec 2 Data'!Q28</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -6346,11 +6816,11 @@
       </c>
       <c r="B27" t="str">
         <f>'Sec 2 Data'!R29</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C27">
         <f>'Sec 2 Data'!Q29</f>
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -6364,7 +6834,7 @@
       </c>
       <c r="C28">
         <f>'Sec 2 Data'!Q30</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -6388,11 +6858,11 @@
       </c>
       <c r="B30" t="str">
         <f>'Sec 2 Data'!R32</f>
-        <v xml:space="preserve">-Full Combo, </v>
+        <v xml:space="preserve">-Full Combo, Three-Star Wonder, </v>
       </c>
       <c r="C30">
         <f>'Sec 2 Data'!Q32</f>
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -6406,7 +6876,7 @@
       </c>
       <c r="C31">
         <f>'Sec 2 Data'!Q33</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -6420,7 +6890,7 @@
       </c>
       <c r="C32">
         <f>'Sec 2 Data'!Q34</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngwen\Desktop\website\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0E786E-2A45-48CB-A25E-2777B8D87915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF06786-8936-41ED-BD82-9FFFE4340B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -851,7 +851,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K31" sqref="K31"/>
+      <selection pane="topRight" activeCell="J4" sqref="J4:J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1067,7 +1067,7 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13">
-        <f>IF(COUNTIF(S4:AL4,"&gt;=3")&gt;=2,1,0)</f>
+        <f>IF(COUNTIF(S4:AL4,"&gt;=3")&gt;=3,1,0)</f>
         <v>0</v>
       </c>
       <c r="K4" s="13">
@@ -1125,7 +1125,7 @@
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13">
-        <f t="shared" ref="J5:J39" si="0">IF(COUNTIF(S5:AL5,"&gt;=3")&gt;=2,1,0)</f>
+        <f t="shared" ref="J5:J39" si="0">IF(COUNTIF(S5:AL5,"&gt;=3")&gt;=3,1,0)</f>
         <v>0</v>
       </c>
       <c r="K5" s="13">
@@ -1416,7 +1416,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="13">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="13">
         <f t="array" ref="K10">IF(MAX(FREQUENCY(IF(S10:AL10&gt;0,COLUMN(S10:AL10)),IF(S10:AL10&lt;=0,COLUMN(S10:AL10))))&gt;4,1,0)</f>
@@ -1429,11 +1429,11 @@
       <c r="P10" s="14"/>
       <c r="Q10" s="15">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="R10" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <v>-</v>
       </c>
       <c r="S10" s="16">
         <v>3</v>
@@ -1650,7 +1650,7 @@
       <c r="I14" s="13"/>
       <c r="J14" s="13">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="13">
         <f t="array" ref="K14">IF(MAX(FREQUENCY(IF(S14:AL14&gt;0,COLUMN(S14:AL14)),IF(S14:AL14&lt;=0,COLUMN(S14:AL14))))&gt;4,1,0)</f>
@@ -1663,11 +1663,11 @@
       <c r="P14" s="14"/>
       <c r="Q14" s="15">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="R14" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <v>-</v>
       </c>
       <c r="S14" s="16">
         <v>3</v>
@@ -2000,7 +2000,7 @@
       <c r="I20" s="13"/>
       <c r="J20" s="13">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="13">
         <f t="array" ref="K20">IF(MAX(FREQUENCY(IF(S20:AL20&gt;0,COLUMN(S20:AL20)),IF(S20:AL20&lt;=0,COLUMN(S20:AL20))))&gt;4,1,0)</f>
@@ -2013,11 +2013,11 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="15">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="R20" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Full Combo, Three-Star Wonder, </v>
+        <v xml:space="preserve">-Full Combo, </v>
       </c>
       <c r="S20" s="16">
         <v>3</v>
@@ -2058,7 +2058,7 @@
       <c r="I21" s="13"/>
       <c r="J21" s="13">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="13">
         <f t="array" ref="K21">IF(MAX(FREQUENCY(IF(S21:AL21&gt;0,COLUMN(S21:AL21)),IF(S21:AL21&lt;=0,COLUMN(S21:AL21))))&gt;4,1,0)</f>
@@ -2071,11 +2071,11 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="15">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R21" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <v>-</v>
       </c>
       <c r="S21" s="16">
         <v>3</v>
@@ -2288,7 +2288,7 @@
       <c r="I25" s="13"/>
       <c r="J25" s="13">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="13">
         <f t="array" ref="K25">IF(MAX(FREQUENCY(IF(S25:AL25&gt;0,COLUMN(S25:AL25)),IF(S25:AL25&lt;=0,COLUMN(S25:AL25))))&gt;4,1,0)</f>
@@ -2301,11 +2301,11 @@
       <c r="P25" s="14"/>
       <c r="Q25" s="15">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R25" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <v>-</v>
       </c>
       <c r="S25" s="16">
         <v>3</v>
@@ -2636,7 +2636,7 @@
       <c r="I31" s="13"/>
       <c r="J31" s="13">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="13">
         <f t="array" ref="K31">IF(MAX(FREQUENCY(IF(S31:AL31&gt;0,COLUMN(S31:AL31)),IF(S31:AL31&lt;=0,COLUMN(S31:AL31))))&gt;4,1,0)</f>
@@ -2649,11 +2649,11 @@
       <c r="P31" s="14"/>
       <c r="Q31" s="15">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R31" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <v>-</v>
       </c>
       <c r="S31" s="16">
         <v>3</v>
@@ -2696,7 +2696,7 @@
       </c>
       <c r="J32" s="13">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="13">
         <f t="array" ref="K32">IF(MAX(FREQUENCY(IF(S32:AL32&gt;0,COLUMN(S32:AL32)),IF(S32:AL32&lt;=0,COLUMN(S32:AL32))))&gt;4,1,0)</f>
@@ -2709,11 +2709,11 @@
       <c r="P32" s="14"/>
       <c r="Q32" s="15">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="R32" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Math Ambassador, Three-Star Wonder, </v>
+        <v xml:space="preserve">-Math Ambassador, </v>
       </c>
       <c r="S32" s="16">
         <v>3</v>
@@ -3454,11 +3454,11 @@
       </c>
       <c r="B8" t="str">
         <f>'Sec 1 Data'!R10</f>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <v>-</v>
       </c>
       <c r="C8">
         <f>'Sec 1 Data'!Q10</f>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -3510,11 +3510,11 @@
       </c>
       <c r="B12" t="str">
         <f>'Sec 1 Data'!R14</f>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <v>-</v>
       </c>
       <c r="C12">
         <f>'Sec 1 Data'!Q14</f>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -3594,11 +3594,11 @@
       </c>
       <c r="B18" t="str">
         <f>'Sec 1 Data'!R20</f>
-        <v xml:space="preserve">-Full Combo, Three-Star Wonder, </v>
+        <v xml:space="preserve">-Full Combo, </v>
       </c>
       <c r="C18">
         <f>'Sec 1 Data'!Q20</f>
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -3608,11 +3608,11 @@
       </c>
       <c r="B19" t="str">
         <f>'Sec 1 Data'!R21</f>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <v>-</v>
       </c>
       <c r="C19">
         <f>'Sec 1 Data'!Q21</f>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -3664,11 +3664,11 @@
       </c>
       <c r="B23" t="str">
         <f>'Sec 1 Data'!R25</f>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <v>-</v>
       </c>
       <c r="C23">
         <f>'Sec 1 Data'!Q25</f>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -3748,11 +3748,11 @@
       </c>
       <c r="B29" t="str">
         <f>'Sec 1 Data'!R31</f>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <v>-</v>
       </c>
       <c r="C29">
         <f>'Sec 1 Data'!Q31</f>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -3762,11 +3762,11 @@
       </c>
       <c r="B30" t="str">
         <f>'Sec 1 Data'!R32</f>
-        <v xml:space="preserve">-Math Ambassador, Three-Star Wonder, </v>
+        <v xml:space="preserve">-Math Ambassador, </v>
       </c>
       <c r="C30">
         <f>'Sec 1 Data'!Q32</f>
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -3935,7 +3935,7 @@
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="T17" sqref="T17"/>
-      <selection pane="topRight" activeCell="V15" sqref="V15"/>
+      <selection pane="topRight" activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4146,7 +4146,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="13">
-        <f>IF(COUNTIF(S4:AL4,"&gt;=3")&gt;=2,1,0)</f>
+        <f>IF(COUNTIF(S4:AL4,"&gt;=3")&gt;=3,1,0)</f>
         <v>0</v>
       </c>
       <c r="K4" s="13">
@@ -4206,7 +4206,7 @@
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13">
-        <f t="shared" ref="J5:J35" si="0">IF(COUNTIF(S5:AL5,"&gt;=3")&gt;=2,1,0)</f>
+        <f t="shared" ref="J5:J35" si="0">IF(COUNTIF(S5:AL5,"&gt;=3")&gt;=3,1,0)</f>
         <v>0</v>
       </c>
       <c r="K5" s="13">
@@ -4509,7 +4509,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="13">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="13">
         <f t="array" ref="K10">IF(MAX(FREQUENCY(IF(S10:AL10&gt;0,COLUMN(S10:AL10)),IF(S10:AL10&lt;=0,COLUMN(S10:AL10))))&gt;4,1,0)</f>
@@ -4522,11 +4522,11 @@
       <c r="P10" s="14"/>
       <c r="Q10" s="15">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="R10" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <v>-</v>
       </c>
       <c r="S10" s="16">
         <v>3</v>
@@ -4813,7 +4813,7 @@
       <c r="I15" s="13"/>
       <c r="J15" s="13">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="13">
         <f t="array" ref="K15">IF(MAX(FREQUENCY(IF(S15:AL15&gt;0,COLUMN(S15:AL15)),IF(S15:AL15&lt;=0,COLUMN(S15:AL15))))&gt;4,1,0)</f>
@@ -4826,11 +4826,11 @@
       <c r="P15" s="14"/>
       <c r="Q15" s="15">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="R15" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <v>-</v>
       </c>
       <c r="S15" s="16">
         <v>2</v>
@@ -5053,7 +5053,7 @@
       <c r="I19" s="13"/>
       <c r="J19" s="13">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="13">
         <f t="array" ref="K19">IF(MAX(FREQUENCY(IF(S19:AL19&gt;0,COLUMN(S19:AL19)),IF(S19:AL19&lt;=0,COLUMN(S19:AL19))))&gt;4,1,0)</f>
@@ -5066,11 +5066,11 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="15">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="R19" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Full Combo, Three-Star Wonder, </v>
+        <v xml:space="preserve">-Full Combo, </v>
       </c>
       <c r="S19" s="16">
         <v>3</v>
@@ -5173,7 +5173,7 @@
       <c r="I21" s="13"/>
       <c r="J21" s="13">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="13">
         <f t="array" ref="K21">IF(MAX(FREQUENCY(IF(S21:AL21&gt;0,COLUMN(S21:AL21)),IF(S21:AL21&lt;=0,COLUMN(S21:AL21))))&gt;4,1,0)</f>
@@ -5186,11 +5186,11 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="15">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="R21" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <v>-</v>
       </c>
       <c r="S21" s="16">
         <v>3</v>
@@ -5295,7 +5295,7 @@
       <c r="I23" s="13"/>
       <c r="J23" s="13">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="13">
         <f t="array" ref="K23">IF(MAX(FREQUENCY(IF(S23:AL23&gt;0,COLUMN(S23:AL23)),IF(S23:AL23&lt;=0,COLUMN(S23:AL23))))&gt;4,1,0)</f>
@@ -5308,11 +5308,11 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="15">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="R23" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <v>-</v>
       </c>
       <c r="S23" s="16">
         <v>1</v>
@@ -5655,7 +5655,7 @@
       <c r="I29" s="13"/>
       <c r="J29" s="13">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="13">
         <f t="array" ref="K29">IF(MAX(FREQUENCY(IF(S29:AL29&gt;0,COLUMN(S29:AL29)),IF(S29:AL29&lt;=0,COLUMN(S29:AL29))))&gt;4,1,0)</f>
@@ -5668,11 +5668,11 @@
       <c r="P29" s="14"/>
       <c r="Q29" s="15">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="R29" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <v>-</v>
       </c>
       <c r="S29" s="16">
         <v>3</v>
@@ -6550,11 +6550,11 @@
       </c>
       <c r="B8" t="str">
         <f>'Sec 2 Data'!R10</f>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <v>-</v>
       </c>
       <c r="C8">
         <f>'Sec 2 Data'!Q10</f>
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -6620,11 +6620,11 @@
       </c>
       <c r="B13" t="str">
         <f>'Sec 2 Data'!R15</f>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <v>-</v>
       </c>
       <c r="C13">
         <f>'Sec 2 Data'!Q15</f>
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -6676,11 +6676,11 @@
       </c>
       <c r="B17" t="str">
         <f>'Sec 2 Data'!R19</f>
-        <v xml:space="preserve">-Full Combo, Three-Star Wonder, </v>
+        <v xml:space="preserve">-Full Combo, </v>
       </c>
       <c r="C17">
         <f>'Sec 2 Data'!Q19</f>
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -6704,11 +6704,11 @@
       </c>
       <c r="B19" t="str">
         <f>'Sec 2 Data'!R21</f>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <v>-</v>
       </c>
       <c r="C19">
         <f>'Sec 2 Data'!Q21</f>
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -6732,11 +6732,11 @@
       </c>
       <c r="B21" t="str">
         <f>'Sec 2 Data'!R23</f>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <v>-</v>
       </c>
       <c r="C21">
         <f>'Sec 2 Data'!Q23</f>
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -6816,11 +6816,11 @@
       </c>
       <c r="B27" t="str">
         <f>'Sec 2 Data'!R29</f>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <v>-</v>
       </c>
       <c r="C27">
         <f>'Sec 2 Data'!Q29</f>
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngwen\Desktop\website\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF06786-8936-41ED-BD82-9FFFE4340B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90B5653-42EF-4A5B-AF3D-A31A7E7FA5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sec 1 Data" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>Achievements</t>
   </si>
@@ -45,9 +45,6 @@
     <t>I Say Hi</t>
   </si>
   <si>
-    <t>Consultation Star</t>
-  </si>
-  <si>
     <t>Gaming is life</t>
   </si>
   <si>
@@ -301,6 +298,12 @@
   </si>
   <si>
     <t>Andreas</t>
+  </si>
+  <si>
+    <t>STRIKE</t>
+  </si>
+  <si>
+    <t>Nowhere to Hide</t>
   </si>
 </sst>
 </file>
@@ -849,9 +852,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL43"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J4" sqref="J4:J39"/>
+      <selection pane="topRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -895,7 +898,7 @@
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B2" s="29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -903,7 +906,7 @@
       <c r="F2" s="29"/>
       <c r="G2" s="30"/>
       <c r="H2" s="31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" s="32"/>
       <c r="J2" s="32"/>
@@ -911,12 +914,12 @@
       <c r="L2" s="32"/>
       <c r="M2" s="33"/>
       <c r="N2" s="34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O2" s="35"/>
       <c r="P2" s="36"/>
       <c r="S2" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T2" s="28"/>
       <c r="U2" s="28"/>
@@ -949,46 +952,46 @@
         <v>4</v>
       </c>
       <c r="D3" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="F3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="G3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="19" t="s">
+      <c r="I3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="J3" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>10</v>
-      </c>
       <c r="M3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="O3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="P3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="20" t="s">
-        <v>19</v>
-      </c>
       <c r="Q3" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R3" s="21" t="s">
         <v>0</v>
@@ -1056,7 +1059,7 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -1081,7 +1084,7 @@
       <c r="P4" s="14"/>
       <c r="Q4" s="15">
         <f>SUM(B4:G4)+3*SUM(H4:M4)+5*SUM(N4:P4)+SUM(S4:AL4)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R4" s="15" t="str">
         <f>CONCATENATE("-",IF(B4=1,$B$3&amp;", ",""),IF(C4=1,$C$3&amp;", ",""),IF(D4=1,$D$3&amp;", ",""),IF(E4=1,$E$3&amp;", ",""),IF(F4=1,$F$3&amp;", ",""),IF(G4=1,$G$3&amp;", ",""),IF(H4=1,$H$3&amp;", ",""),IF(I4=1,$I$3&amp;", ",""),IF(J4=1,$J$3&amp;", ",""),IF(K4=1,$K$3&amp;", ",""),IF(L4=1,$L$3&amp;", ",""),IF(M4=1,$M$3&amp;", ",""),IF(N4=1,$N$3&amp;", ",""),IF(O4=1,$O$3&amp;", ",""),IF(P4=1,$P$3&amp;", ",""))</f>
@@ -1093,7 +1096,9 @@
       <c r="T4" s="16">
         <v>4</v>
       </c>
-      <c r="U4" s="16"/>
+      <c r="U4" s="16">
+        <v>3</v>
+      </c>
       <c r="V4" s="16"/>
       <c r="W4" s="16"/>
       <c r="X4" s="16"/>
@@ -1114,7 +1119,7 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -1172,7 +1177,7 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -1197,7 +1202,7 @@
       <c r="P6" s="14"/>
       <c r="Q6" s="15">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R6" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1209,7 +1214,9 @@
       <c r="T6" s="16">
         <v>2</v>
       </c>
-      <c r="U6" s="16"/>
+      <c r="U6" s="16">
+        <v>2</v>
+      </c>
       <c r="V6" s="16"/>
       <c r="W6" s="16"/>
       <c r="X6" s="16"/>
@@ -1230,7 +1237,7 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -1255,7 +1262,7 @@
       <c r="P7" s="14"/>
       <c r="Q7" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R7" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1267,7 +1274,9 @@
       <c r="T7" s="16">
         <v>2</v>
       </c>
-      <c r="U7" s="16"/>
+      <c r="U7" s="16">
+        <v>2</v>
+      </c>
       <c r="V7" s="16"/>
       <c r="W7" s="16"/>
       <c r="X7" s="16"/>
@@ -1288,7 +1297,7 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -1313,7 +1322,7 @@
       <c r="P8" s="14"/>
       <c r="Q8" s="15">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R8" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1325,7 +1334,9 @@
       <c r="T8" s="16">
         <v>2</v>
       </c>
-      <c r="U8" s="16"/>
+      <c r="U8" s="16">
+        <v>1</v>
+      </c>
       <c r="V8" s="16"/>
       <c r="W8" s="16"/>
       <c r="X8" s="16"/>
@@ -1346,7 +1357,7 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -1371,7 +1382,7 @@
       <c r="P9" s="14"/>
       <c r="Q9" s="15">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R9" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1383,7 +1394,9 @@
       <c r="T9" s="16">
         <v>1</v>
       </c>
-      <c r="U9" s="16"/>
+      <c r="U9" s="16">
+        <v>3</v>
+      </c>
       <c r="V9" s="16"/>
       <c r="W9" s="16"/>
       <c r="X9" s="16"/>
@@ -1404,7 +1417,7 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -1416,7 +1429,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="13">
         <f t="array" ref="K10">IF(MAX(FREQUENCY(IF(S10:AL10&gt;0,COLUMN(S10:AL10)),IF(S10:AL10&lt;=0,COLUMN(S10:AL10))))&gt;4,1,0)</f>
@@ -1429,11 +1442,11 @@
       <c r="P10" s="14"/>
       <c r="Q10" s="15">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="R10" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="S10" s="16">
         <v>3</v>
@@ -1441,7 +1454,9 @@
       <c r="T10" s="16">
         <v>4</v>
       </c>
-      <c r="U10" s="16"/>
+      <c r="U10" s="16">
+        <v>3</v>
+      </c>
       <c r="V10" s="16"/>
       <c r="W10" s="16"/>
       <c r="X10" s="16"/>
@@ -1462,7 +1477,7 @@
     </row>
     <row r="11" spans="1:38" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1487,7 +1502,7 @@
       <c r="P11" s="14"/>
       <c r="Q11" s="15">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R11" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1499,7 +1514,9 @@
       <c r="T11" s="16">
         <v>3</v>
       </c>
-      <c r="U11" s="16"/>
+      <c r="U11" s="16">
+        <v>2</v>
+      </c>
       <c r="V11" s="16"/>
       <c r="W11" s="16"/>
       <c r="X11" s="16"/>
@@ -1520,7 +1537,7 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -1545,7 +1562,7 @@
       <c r="P12" s="14"/>
       <c r="Q12" s="15">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R12" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1557,7 +1574,9 @@
       <c r="T12" s="16">
         <v>3</v>
       </c>
-      <c r="U12" s="16"/>
+      <c r="U12" s="16">
+        <v>3</v>
+      </c>
       <c r="V12" s="16"/>
       <c r="W12" s="16"/>
       <c r="X12" s="16"/>
@@ -1578,7 +1597,7 @@
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -1605,7 +1624,7 @@
       <c r="P13" s="14"/>
       <c r="Q13" s="15">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R13" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1617,7 +1636,9 @@
       <c r="T13" s="16">
         <v>4</v>
       </c>
-      <c r="U13" s="16"/>
+      <c r="U13" s="16">
+        <v>3</v>
+      </c>
       <c r="V13" s="16"/>
       <c r="W13" s="16"/>
       <c r="X13" s="16"/>
@@ -1638,7 +1659,7 @@
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -1650,7 +1671,7 @@
       <c r="I14" s="13"/>
       <c r="J14" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="13">
         <f t="array" ref="K14">IF(MAX(FREQUENCY(IF(S14:AL14&gt;0,COLUMN(S14:AL14)),IF(S14:AL14&lt;=0,COLUMN(S14:AL14))))&gt;4,1,0)</f>
@@ -1663,11 +1684,11 @@
       <c r="P14" s="14"/>
       <c r="Q14" s="15">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="R14" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="S14" s="16">
         <v>3</v>
@@ -1675,7 +1696,9 @@
       <c r="T14" s="16">
         <v>4</v>
       </c>
-      <c r="U14" s="16"/>
+      <c r="U14" s="16">
+        <v>4</v>
+      </c>
       <c r="V14" s="16"/>
       <c r="W14" s="16"/>
       <c r="X14" s="16"/>
@@ -1696,7 +1719,7 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -1721,7 +1744,7 @@
       <c r="P15" s="14"/>
       <c r="Q15" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R15" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1733,7 +1756,9 @@
       <c r="T15" s="16">
         <v>1</v>
       </c>
-      <c r="U15" s="16"/>
+      <c r="U15" s="16">
+        <v>1</v>
+      </c>
       <c r="V15" s="16"/>
       <c r="W15" s="16"/>
       <c r="X15" s="16"/>
@@ -1754,7 +1779,7 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -1779,7 +1804,7 @@
       <c r="P16" s="14"/>
       <c r="Q16" s="15">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R16" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1791,7 +1816,9 @@
       <c r="T16" s="16">
         <v>3</v>
       </c>
-      <c r="U16" s="16"/>
+      <c r="U16" s="16">
+        <v>2</v>
+      </c>
       <c r="V16" s="16"/>
       <c r="W16" s="16"/>
       <c r="X16" s="16"/>
@@ -1812,7 +1839,7 @@
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -1837,7 +1864,7 @@
       <c r="P17" s="14"/>
       <c r="Q17" s="15">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R17" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1849,7 +1876,9 @@
       <c r="T17" s="16">
         <v>3</v>
       </c>
-      <c r="U17" s="16"/>
+      <c r="U17" s="16">
+        <v>3</v>
+      </c>
       <c r="V17" s="16"/>
       <c r="W17" s="16"/>
       <c r="X17" s="16"/>
@@ -1870,7 +1899,7 @@
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -1895,7 +1924,7 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="15">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R18" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1907,7 +1936,9 @@
       <c r="T18" s="16">
         <v>2</v>
       </c>
-      <c r="U18" s="16"/>
+      <c r="U18" s="16">
+        <v>2</v>
+      </c>
       <c r="V18" s="16"/>
       <c r="W18" s="16"/>
       <c r="X18" s="16"/>
@@ -1928,7 +1959,7 @@
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -1953,7 +1984,7 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="15">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R19" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1965,7 +1996,9 @@
       <c r="T19" s="16">
         <v>1</v>
       </c>
-      <c r="U19" s="16"/>
+      <c r="U19" s="16">
+        <v>3</v>
+      </c>
       <c r="V19" s="16"/>
       <c r="W19" s="16"/>
       <c r="X19" s="16"/>
@@ -1986,7 +2019,7 @@
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -2013,7 +2046,7 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="15">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R20" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2025,7 +2058,9 @@
       <c r="T20" s="16">
         <v>3</v>
       </c>
-      <c r="U20" s="16"/>
+      <c r="U20" s="16">
+        <v>2</v>
+      </c>
       <c r="V20" s="16"/>
       <c r="W20" s="16"/>
       <c r="X20" s="16"/>
@@ -2046,7 +2081,7 @@
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -2071,7 +2106,7 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="15">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R21" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2083,7 +2118,9 @@
       <c r="T21" s="16">
         <v>3</v>
       </c>
-      <c r="U21" s="16"/>
+      <c r="U21" s="16">
+        <v>2</v>
+      </c>
       <c r="V21" s="16"/>
       <c r="W21" s="16"/>
       <c r="X21" s="16"/>
@@ -2104,7 +2141,7 @@
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -2129,7 +2166,7 @@
       <c r="P22" s="14"/>
       <c r="Q22" s="15">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R22" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2141,7 +2178,9 @@
       <c r="T22" s="16">
         <v>3</v>
       </c>
-      <c r="U22" s="16"/>
+      <c r="U22" s="16">
+        <v>3</v>
+      </c>
       <c r="V22" s="16"/>
       <c r="W22" s="16"/>
       <c r="X22" s="16"/>
@@ -2162,7 +2201,7 @@
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -2187,7 +2226,7 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="15">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R23" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2199,7 +2238,9 @@
       <c r="T23" s="16">
         <v>2</v>
       </c>
-      <c r="U23" s="16"/>
+      <c r="U23" s="16">
+        <v>3</v>
+      </c>
       <c r="V23" s="16"/>
       <c r="W23" s="16"/>
       <c r="X23" s="16"/>
@@ -2220,7 +2261,7 @@
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -2245,7 +2286,7 @@
       <c r="P24" s="14"/>
       <c r="Q24" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R24" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2254,8 +2295,12 @@
       <c r="S24" s="16">
         <v>3</v>
       </c>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
+      <c r="T24" s="16">
+        <v>0</v>
+      </c>
+      <c r="U24" s="16">
+        <v>3</v>
+      </c>
       <c r="V24" s="16"/>
       <c r="W24" s="16"/>
       <c r="X24" s="16"/>
@@ -2276,7 +2321,7 @@
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -2288,7 +2333,7 @@
       <c r="I25" s="13"/>
       <c r="J25" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="13">
         <f t="array" ref="K25">IF(MAX(FREQUENCY(IF(S25:AL25&gt;0,COLUMN(S25:AL25)),IF(S25:AL25&lt;=0,COLUMN(S25:AL25))))&gt;4,1,0)</f>
@@ -2301,11 +2346,11 @@
       <c r="P25" s="14"/>
       <c r="Q25" s="15">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="R25" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="S25" s="16">
         <v>3</v>
@@ -2313,7 +2358,9 @@
       <c r="T25" s="16">
         <v>3</v>
       </c>
-      <c r="U25" s="16"/>
+      <c r="U25" s="16">
+        <v>3</v>
+      </c>
       <c r="V25" s="16"/>
       <c r="W25" s="16"/>
       <c r="X25" s="16"/>
@@ -2334,7 +2381,7 @@
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -2359,7 +2406,7 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="15">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R26" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2371,7 +2418,9 @@
       <c r="T26" s="16">
         <v>2</v>
       </c>
-      <c r="U26" s="16"/>
+      <c r="U26" s="16">
+        <v>3</v>
+      </c>
       <c r="V26" s="16"/>
       <c r="W26" s="16"/>
       <c r="X26" s="16"/>
@@ -2392,7 +2441,7 @@
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -2417,7 +2466,7 @@
       <c r="P27" s="14"/>
       <c r="Q27" s="15">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R27" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2429,7 +2478,9 @@
       <c r="T27" s="16">
         <v>2</v>
       </c>
-      <c r="U27" s="16"/>
+      <c r="U27" s="16">
+        <v>3</v>
+      </c>
       <c r="V27" s="16"/>
       <c r="W27" s="16"/>
       <c r="X27" s="16"/>
@@ -2450,7 +2501,7 @@
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -2475,7 +2526,7 @@
       <c r="P28" s="14"/>
       <c r="Q28" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R28" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2487,7 +2538,9 @@
       <c r="T28" s="16">
         <v>1</v>
       </c>
-      <c r="U28" s="16"/>
+      <c r="U28" s="16">
+        <v>2</v>
+      </c>
       <c r="V28" s="16"/>
       <c r="W28" s="16"/>
       <c r="X28" s="16"/>
@@ -2508,7 +2561,7 @@
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -2533,7 +2586,7 @@
       <c r="P29" s="14"/>
       <c r="Q29" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R29" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2545,7 +2598,9 @@
       <c r="T29" s="16">
         <v>0</v>
       </c>
-      <c r="U29" s="16"/>
+      <c r="U29" s="16">
+        <v>2</v>
+      </c>
       <c r="V29" s="16"/>
       <c r="W29" s="16"/>
       <c r="X29" s="16"/>
@@ -2566,7 +2621,7 @@
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -2591,7 +2646,7 @@
       <c r="P30" s="14"/>
       <c r="Q30" s="15">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R30" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2603,7 +2658,9 @@
       <c r="T30" s="16">
         <v>0</v>
       </c>
-      <c r="U30" s="16"/>
+      <c r="U30" s="16">
+        <v>3</v>
+      </c>
       <c r="V30" s="16"/>
       <c r="W30" s="16"/>
       <c r="X30" s="16"/>
@@ -2624,7 +2681,7 @@
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -2636,7 +2693,7 @@
       <c r="I31" s="13"/>
       <c r="J31" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="13">
         <f t="array" ref="K31">IF(MAX(FREQUENCY(IF(S31:AL31&gt;0,COLUMN(S31:AL31)),IF(S31:AL31&lt;=0,COLUMN(S31:AL31))))&gt;4,1,0)</f>
@@ -2649,11 +2706,11 @@
       <c r="P31" s="14"/>
       <c r="Q31" s="15">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="R31" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="S31" s="16">
         <v>3</v>
@@ -2661,7 +2718,9 @@
       <c r="T31" s="16">
         <v>3</v>
       </c>
-      <c r="U31" s="16"/>
+      <c r="U31" s="16">
+        <v>3</v>
+      </c>
       <c r="V31" s="16"/>
       <c r="W31" s="16"/>
       <c r="X31" s="16"/>
@@ -2682,7 +2741,7 @@
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -2696,7 +2755,7 @@
       </c>
       <c r="J32" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="13">
         <f t="array" ref="K32">IF(MAX(FREQUENCY(IF(S32:AL32&gt;0,COLUMN(S32:AL32)),IF(S32:AL32&lt;=0,COLUMN(S32:AL32))))&gt;4,1,0)</f>
@@ -2709,11 +2768,11 @@
       <c r="P32" s="14"/>
       <c r="Q32" s="15">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="R32" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Math Ambassador, </v>
+        <v xml:space="preserve">-Math Ambassador, Three-Star Wonder, </v>
       </c>
       <c r="S32" s="16">
         <v>3</v>
@@ -2721,7 +2780,9 @@
       <c r="T32" s="16">
         <v>3</v>
       </c>
-      <c r="U32" s="16"/>
+      <c r="U32" s="16">
+        <v>3</v>
+      </c>
       <c r="V32" s="16"/>
       <c r="W32" s="16"/>
       <c r="X32" s="16"/>
@@ -2742,7 +2803,7 @@
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -2767,7 +2828,7 @@
       <c r="P33" s="14"/>
       <c r="Q33" s="15">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R33" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2779,7 +2840,9 @@
       <c r="T33" s="16">
         <v>1</v>
       </c>
-      <c r="U33" s="16"/>
+      <c r="U33" s="16">
+        <v>2</v>
+      </c>
       <c r="V33" s="16"/>
       <c r="W33" s="16"/>
       <c r="X33" s="16"/>
@@ -2800,7 +2863,7 @@
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -2825,7 +2888,7 @@
       <c r="P34" s="14"/>
       <c r="Q34" s="15">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R34" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2837,7 +2900,9 @@
       <c r="T34" s="16">
         <v>0</v>
       </c>
-      <c r="U34" s="16"/>
+      <c r="U34" s="16">
+        <v>3</v>
+      </c>
       <c r="V34" s="16"/>
       <c r="W34" s="16"/>
       <c r="X34" s="16"/>
@@ -2858,7 +2923,7 @@
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -2883,7 +2948,7 @@
       <c r="P35" s="14"/>
       <c r="Q35" s="15">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R35" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2895,7 +2960,9 @@
       <c r="T35" s="16">
         <v>2</v>
       </c>
-      <c r="U35" s="16"/>
+      <c r="U35" s="16">
+        <v>2</v>
+      </c>
       <c r="V35" s="16"/>
       <c r="W35" s="16"/>
       <c r="X35" s="16"/>
@@ -2916,7 +2983,7 @@
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -2941,7 +3008,7 @@
       <c r="P36" s="14"/>
       <c r="Q36" s="15">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R36" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2953,7 +3020,9 @@
       <c r="T36" s="16">
         <v>2</v>
       </c>
-      <c r="U36" s="16"/>
+      <c r="U36" s="16">
+        <v>2</v>
+      </c>
       <c r="V36" s="16"/>
       <c r="W36" s="16"/>
       <c r="X36" s="16"/>
@@ -2974,7 +3043,7 @@
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -3030,7 +3099,7 @@
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -3055,7 +3124,7 @@
       <c r="P38" s="14"/>
       <c r="Q38" s="15">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R38" s="15" t="str">
         <f t="shared" si="2"/>
@@ -3067,7 +3136,9 @@
       <c r="T38" s="16">
         <v>1</v>
       </c>
-      <c r="U38" s="16"/>
+      <c r="U38" s="16">
+        <v>2</v>
+      </c>
       <c r="V38" s="16"/>
       <c r="W38" s="16"/>
       <c r="X38" s="16"/>
@@ -3088,7 +3159,7 @@
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -3113,7 +3184,7 @@
       <c r="P39" s="14"/>
       <c r="Q39" s="15">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R39" s="15" t="str">
         <f t="shared" si="2"/>
@@ -3125,7 +3196,9 @@
       <c r="T39" s="16">
         <v>1</v>
       </c>
-      <c r="U39" s="16"/>
+      <c r="U39" s="16">
+        <v>2</v>
+      </c>
       <c r="V39" s="16"/>
       <c r="W39" s="16"/>
       <c r="X39" s="16"/>
@@ -3354,13 +3427,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -3374,7 +3447,7 @@
       </c>
       <c r="C2">
         <f>'Sec 1 Data'!Q4</f>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3402,7 +3475,7 @@
       </c>
       <c r="C4">
         <f>'Sec 1 Data'!Q6</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3416,7 +3489,7 @@
       </c>
       <c r="C5">
         <f>'Sec 1 Data'!Q7</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3430,7 +3503,7 @@
       </c>
       <c r="C6">
         <f>'Sec 1 Data'!Q8</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -3444,7 +3517,7 @@
       </c>
       <c r="C7">
         <f>'Sec 1 Data'!Q9</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3454,11 +3527,11 @@
       </c>
       <c r="B8" t="str">
         <f>'Sec 1 Data'!R10</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C8">
         <f>'Sec 1 Data'!Q10</f>
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -3472,7 +3545,7 @@
       </c>
       <c r="C9">
         <f>'Sec 1 Data'!Q11</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -3486,7 +3559,7 @@
       </c>
       <c r="C10">
         <f>'Sec 1 Data'!Q12</f>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -3500,7 +3573,7 @@
       </c>
       <c r="C11">
         <f>'Sec 1 Data'!Q13</f>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -3510,11 +3583,11 @@
       </c>
       <c r="B12" t="str">
         <f>'Sec 1 Data'!R14</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C12">
         <f>'Sec 1 Data'!Q14</f>
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -3528,7 +3601,7 @@
       </c>
       <c r="C13">
         <f>'Sec 1 Data'!Q15</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -3542,7 +3615,7 @@
       </c>
       <c r="C14">
         <f>'Sec 1 Data'!Q16</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -3556,7 +3629,7 @@
       </c>
       <c r="C15">
         <f>'Sec 1 Data'!Q17</f>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -3570,7 +3643,7 @@
       </c>
       <c r="C16">
         <f>'Sec 1 Data'!Q18</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -3584,7 +3657,7 @@
       </c>
       <c r="C17">
         <f>'Sec 1 Data'!Q19</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -3598,7 +3671,7 @@
       </c>
       <c r="C18">
         <f>'Sec 1 Data'!Q20</f>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -3612,7 +3685,7 @@
       </c>
       <c r="C19">
         <f>'Sec 1 Data'!Q21</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -3626,7 +3699,7 @@
       </c>
       <c r="C20">
         <f>'Sec 1 Data'!Q22</f>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -3640,7 +3713,7 @@
       </c>
       <c r="C21">
         <f>'Sec 1 Data'!Q23</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -3654,7 +3727,7 @@
       </c>
       <c r="C22">
         <f>'Sec 1 Data'!Q24</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -3664,11 +3737,11 @@
       </c>
       <c r="B23" t="str">
         <f>'Sec 1 Data'!R25</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C23">
         <f>'Sec 1 Data'!Q25</f>
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -3682,7 +3755,7 @@
       </c>
       <c r="C24">
         <f>'Sec 1 Data'!Q26</f>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -3696,7 +3769,7 @@
       </c>
       <c r="C25">
         <f>'Sec 1 Data'!Q27</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -3710,7 +3783,7 @@
       </c>
       <c r="C26">
         <f>'Sec 1 Data'!Q28</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -3724,7 +3797,7 @@
       </c>
       <c r="C27">
         <f>'Sec 1 Data'!Q29</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -3738,7 +3811,7 @@
       </c>
       <c r="C28">
         <f>'Sec 1 Data'!Q30</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -3748,11 +3821,11 @@
       </c>
       <c r="B29" t="str">
         <f>'Sec 1 Data'!R31</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C29">
         <f>'Sec 1 Data'!Q31</f>
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -3762,11 +3835,11 @@
       </c>
       <c r="B30" t="str">
         <f>'Sec 1 Data'!R32</f>
-        <v xml:space="preserve">-Math Ambassador, </v>
+        <v xml:space="preserve">-Math Ambassador, Three-Star Wonder, </v>
       </c>
       <c r="C30">
         <f>'Sec 1 Data'!Q32</f>
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -3780,7 +3853,7 @@
       </c>
       <c r="C31">
         <f>'Sec 1 Data'!Q33</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -3794,7 +3867,7 @@
       </c>
       <c r="C32">
         <f>'Sec 1 Data'!Q34</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -3808,7 +3881,7 @@
       </c>
       <c r="C33">
         <f>'Sec 1 Data'!Q35</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -3822,7 +3895,7 @@
       </c>
       <c r="C34">
         <f>'Sec 1 Data'!Q36</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -3850,7 +3923,7 @@
       </c>
       <c r="C36">
         <f>'Sec 1 Data'!Q38</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -3864,7 +3937,7 @@
       </c>
       <c r="C37">
         <f>'Sec 1 Data'!Q39</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -3932,10 +4005,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848CF460-3EAC-4A7D-8560-52951FCF8A6B}">
   <dimension ref="A1:AL43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="T17" sqref="T17"/>
-      <selection pane="topRight" activeCell="U13" sqref="U13"/>
+      <selection pane="topRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3947,7 +4020,7 @@
     <col min="5" max="5" width="11.77734375" style="4" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="4" customWidth="1"/>
     <col min="7" max="7" width="12" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" style="6" customWidth="1"/>
     <col min="9" max="9" width="15.88671875" style="5" customWidth="1"/>
     <col min="10" max="10" width="16.6640625" style="6" customWidth="1"/>
     <col min="11" max="11" width="15.88671875" style="6" customWidth="1"/>
@@ -3956,10 +4029,11 @@
     <col min="14" max="14" width="14.21875" style="7" customWidth="1"/>
     <col min="15" max="15" width="19.21875" style="7" customWidth="1"/>
     <col min="16" max="16" width="11.21875" style="7" customWidth="1"/>
-    <col min="17" max="17" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" style="2" customWidth="1"/>
     <col min="18" max="18" width="25.44140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.88671875" style="8"/>
-    <col min="20" max="37" width="8.88671875" style="9"/>
+    <col min="19" max="19" width="8.88671875" style="8" customWidth="1"/>
+    <col min="20" max="22" width="8.88671875" style="9" customWidth="1"/>
+    <col min="23" max="37" width="8.88671875" style="9"/>
     <col min="38" max="38" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
@@ -3970,7 +4044,7 @@
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B2" s="30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37"/>
@@ -3978,7 +4052,7 @@
       <c r="F2" s="37"/>
       <c r="G2" s="38"/>
       <c r="H2" s="31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" s="32"/>
       <c r="J2" s="32"/>
@@ -3986,12 +4060,12 @@
       <c r="L2" s="32"/>
       <c r="M2" s="33"/>
       <c r="N2" s="34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O2" s="35"/>
       <c r="P2" s="36"/>
       <c r="S2" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T2" s="28"/>
       <c r="U2" s="28"/>
@@ -4024,46 +4098,46 @@
         <v>4</v>
       </c>
       <c r="D3" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="F3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="G3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="19" t="s">
+      <c r="I3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="J3" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>10</v>
-      </c>
       <c r="M3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="O3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="P3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="20" t="s">
-        <v>19</v>
-      </c>
       <c r="Q3" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R3" s="21" t="s">
         <v>0</v>
@@ -4131,7 +4205,7 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -4160,7 +4234,7 @@
       <c r="P4" s="14"/>
       <c r="Q4" s="15">
         <f>SUM(B4:G4)+3*SUM(H4:M4)+5*SUM(N4:P4)+SUM(S4:AL4)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="R4" s="15" t="str">
         <f>CONCATENATE("-",IF(B4=1,$B$3&amp;", ",""),IF(C4=1,$C$3&amp;", ",""),IF(D4=1,$D$3&amp;", ",""),IF(E4=1,$E$3&amp;", ",""),IF(F4=1,$F$3&amp;", ",""),IF(G4=1,$G$3&amp;", ",""),IF(H4=1,$H$3&amp;", ",""),IF(I4=1,$I$3&amp;", ",""),IF(J4=1,$J$3&amp;", ",""),IF(K4=1,$K$3&amp;", ",""),IF(L4=1,$L$3&amp;", ",""),IF(M4=1,$M$3&amp;", ",""),IF(N4=1,$N$3&amp;", ",""),IF(O4=1,$O$3&amp;", ",""),IF(P4=1,$P$3&amp;", ",""))</f>
@@ -4175,7 +4249,9 @@
       <c r="U4" s="16">
         <v>2</v>
       </c>
-      <c r="V4" s="16"/>
+      <c r="V4" s="16">
+        <v>3</v>
+      </c>
       <c r="W4" s="16"/>
       <c r="X4" s="16"/>
       <c r="Y4" s="16"/>
@@ -4195,7 +4271,7 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -4220,7 +4296,7 @@
       <c r="P5" s="14"/>
       <c r="Q5" s="15">
         <f t="shared" ref="Q5:Q43" si="1">SUM(B5:G5)+3*SUM(H5:L5)+5*SUM(M5:P5)+SUM(S5:AL5)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R5" s="15" t="str">
         <f t="shared" ref="R5:R43" si="2">CONCATENATE("-",IF(B5=1,$B$3&amp;", ",""),IF(C5=1,$C$3&amp;", ",""),IF(D5=1,$D$3&amp;", ",""),IF(E5=1,$E$3&amp;", ",""),IF(F5=1,$F$3&amp;", ",""),IF(G5=1,$G$3&amp;", ",""),IF(H5=1,$H$3&amp;", ",""),IF(I5=1,$I$3&amp;", ",""),IF(J5=1,$J$3&amp;", ",""),IF(K5=1,$K$3&amp;", ",""),IF(L5=1,$L$3&amp;", ",""),IF(M5=1,$M$3&amp;", ",""),IF(N5=1,$N$3&amp;", ",""),IF(O5=1,$O$3&amp;", ",""),IF(P5=1,$P$3&amp;", ",""))</f>
@@ -4235,7 +4311,9 @@
       <c r="U5" s="16">
         <v>2</v>
       </c>
-      <c r="V5" s="16"/>
+      <c r="V5" s="16">
+        <v>2</v>
+      </c>
       <c r="W5" s="16"/>
       <c r="X5" s="16"/>
       <c r="Y5" s="16"/>
@@ -4255,7 +4333,7 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -4282,7 +4360,7 @@
       <c r="P6" s="14"/>
       <c r="Q6" s="15">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R6" s="15" t="str">
         <f t="shared" si="2"/>
@@ -4297,7 +4375,9 @@
       <c r="U6" s="16">
         <v>3</v>
       </c>
-      <c r="V6" s="16"/>
+      <c r="V6" s="16">
+        <v>3</v>
+      </c>
       <c r="W6" s="16"/>
       <c r="X6" s="16"/>
       <c r="Y6" s="16"/>
@@ -4317,7 +4397,7 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -4342,7 +4422,7 @@
       <c r="P7" s="14"/>
       <c r="Q7" s="15">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R7" s="15" t="str">
         <f t="shared" si="2"/>
@@ -4357,7 +4437,9 @@
       <c r="U7" s="16">
         <v>2</v>
       </c>
-      <c r="V7" s="16"/>
+      <c r="V7" s="16">
+        <v>2</v>
+      </c>
       <c r="W7" s="16"/>
       <c r="X7" s="16"/>
       <c r="Y7" s="16"/>
@@ -4377,7 +4459,7 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -4385,7 +4467,9 @@
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
-      <c r="H8" s="13"/>
+      <c r="H8" s="13">
+        <v>1</v>
+      </c>
       <c r="I8" s="13"/>
       <c r="J8" s="13">
         <f t="shared" si="0"/>
@@ -4402,11 +4486,11 @@
       <c r="P8" s="14"/>
       <c r="Q8" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R8" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Full Combo, </v>
       </c>
       <c r="S8" s="16">
         <v>0</v>
@@ -4414,8 +4498,12 @@
       <c r="T8" s="16">
         <v>0</v>
       </c>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
+      <c r="U8" s="16">
+        <v>0</v>
+      </c>
+      <c r="V8" s="16">
+        <v>3</v>
+      </c>
       <c r="W8" s="16"/>
       <c r="X8" s="16"/>
       <c r="Y8" s="16"/>
@@ -4435,7 +4523,7 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -4462,7 +4550,7 @@
       <c r="P9" s="14"/>
       <c r="Q9" s="15">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="R9" s="15" t="str">
         <f t="shared" si="2"/>
@@ -4477,7 +4565,9 @@
       <c r="U9" s="16">
         <v>2</v>
       </c>
-      <c r="V9" s="16"/>
+      <c r="V9" s="16">
+        <v>3</v>
+      </c>
       <c r="W9" s="16"/>
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
@@ -4497,7 +4587,7 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -4522,7 +4612,7 @@
       <c r="P10" s="14"/>
       <c r="Q10" s="15">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R10" s="15" t="str">
         <f t="shared" si="2"/>
@@ -4537,7 +4627,9 @@
       <c r="U10" s="16">
         <v>3</v>
       </c>
-      <c r="V10" s="16"/>
+      <c r="V10" s="16">
+        <v>2</v>
+      </c>
       <c r="W10" s="16"/>
       <c r="X10" s="16"/>
       <c r="Y10" s="16"/>
@@ -4557,7 +4649,7 @@
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -4584,7 +4676,7 @@
       <c r="P11" s="14"/>
       <c r="Q11" s="15">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R11" s="15" t="str">
         <f t="shared" si="2"/>
@@ -4599,7 +4691,9 @@
       <c r="U11" s="16">
         <v>3</v>
       </c>
-      <c r="V11" s="16"/>
+      <c r="V11" s="16">
+        <v>3</v>
+      </c>
       <c r="W11" s="16"/>
       <c r="X11" s="16"/>
       <c r="Y11" s="16"/>
@@ -4619,7 +4713,7 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -4646,7 +4740,7 @@
       <c r="P12" s="14"/>
       <c r="Q12" s="15">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R12" s="15" t="str">
         <f t="shared" si="2"/>
@@ -4661,7 +4755,9 @@
       <c r="U12" s="16">
         <v>3</v>
       </c>
-      <c r="V12" s="16"/>
+      <c r="V12" s="16">
+        <v>3</v>
+      </c>
       <c r="W12" s="16"/>
       <c r="X12" s="16"/>
       <c r="Y12" s="16"/>
@@ -4681,7 +4777,7 @@
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -4706,7 +4802,7 @@
       <c r="P13" s="14"/>
       <c r="Q13" s="15">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R13" s="15" t="str">
         <f t="shared" si="2"/>
@@ -4721,7 +4817,9 @@
       <c r="U13" s="16">
         <v>3</v>
       </c>
-      <c r="V13" s="16"/>
+      <c r="V13" s="16">
+        <v>2</v>
+      </c>
       <c r="W13" s="16"/>
       <c r="X13" s="16"/>
       <c r="Y13" s="16"/>
@@ -4741,7 +4839,7 @@
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -4766,7 +4864,7 @@
       <c r="P14" s="14"/>
       <c r="Q14" s="15">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R14" s="15" t="str">
         <f t="shared" si="2"/>
@@ -4781,7 +4879,9 @@
       <c r="U14" s="16">
         <v>2</v>
       </c>
-      <c r="V14" s="16"/>
+      <c r="V14" s="16">
+        <v>1</v>
+      </c>
       <c r="W14" s="16"/>
       <c r="X14" s="16"/>
       <c r="Y14" s="16"/>
@@ -4801,7 +4901,7 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -4826,7 +4926,7 @@
       <c r="P15" s="14"/>
       <c r="Q15" s="15">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R15" s="15" t="str">
         <f t="shared" si="2"/>
@@ -4841,7 +4941,9 @@
       <c r="U15" s="16">
         <v>4</v>
       </c>
-      <c r="V15" s="16"/>
+      <c r="V15" s="16">
+        <v>2</v>
+      </c>
       <c r="W15" s="16"/>
       <c r="X15" s="16"/>
       <c r="Y15" s="16"/>
@@ -4861,7 +4963,7 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -4901,7 +5003,9 @@
       <c r="U16" s="16">
         <v>2</v>
       </c>
-      <c r="V16" s="16"/>
+      <c r="V16" s="16" t="s">
+        <v>90</v>
+      </c>
       <c r="W16" s="16"/>
       <c r="X16" s="16"/>
       <c r="Y16" s="16"/>
@@ -4921,7 +5025,7 @@
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -4958,8 +5062,12 @@
       <c r="T17" s="16">
         <v>0</v>
       </c>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
+      <c r="U17" s="16">
+        <v>0</v>
+      </c>
+      <c r="V17" s="16" t="s">
+        <v>90</v>
+      </c>
       <c r="W17" s="16"/>
       <c r="X17" s="16"/>
       <c r="Y17" s="16"/>
@@ -4979,7 +5087,7 @@
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -5019,7 +5127,9 @@
       <c r="U18" s="16">
         <v>2</v>
       </c>
-      <c r="V18" s="16"/>
+      <c r="V18" s="16" t="s">
+        <v>90</v>
+      </c>
       <c r="W18" s="16"/>
       <c r="X18" s="16"/>
       <c r="Y18" s="16"/>
@@ -5039,7 +5149,7 @@
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -5081,7 +5191,9 @@
       <c r="U19" s="16">
         <v>2</v>
       </c>
-      <c r="V19" s="16"/>
+      <c r="V19" s="16">
+        <v>0</v>
+      </c>
       <c r="W19" s="16"/>
       <c r="X19" s="16"/>
       <c r="Y19" s="16"/>
@@ -5101,7 +5213,7 @@
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -5126,7 +5238,7 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="15">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R20" s="15" t="str">
         <f t="shared" si="2"/>
@@ -5141,7 +5253,9 @@
       <c r="U20" s="16">
         <v>2</v>
       </c>
-      <c r="V20" s="16"/>
+      <c r="V20" s="16">
+        <v>2</v>
+      </c>
       <c r="W20" s="16"/>
       <c r="X20" s="16"/>
       <c r="Y20" s="16"/>
@@ -5161,7 +5275,7 @@
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -5173,7 +5287,7 @@
       <c r="I21" s="13"/>
       <c r="J21" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="13">
         <f t="array" ref="K21">IF(MAX(FREQUENCY(IF(S21:AL21&gt;0,COLUMN(S21:AL21)),IF(S21:AL21&lt;=0,COLUMN(S21:AL21))))&gt;4,1,0)</f>
@@ -5186,11 +5300,11 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="15">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="R21" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="S21" s="16">
         <v>3</v>
@@ -5201,7 +5315,9 @@
       <c r="U21" s="16">
         <v>2</v>
       </c>
-      <c r="V21" s="16"/>
+      <c r="V21" s="16">
+        <v>3</v>
+      </c>
       <c r="W21" s="16"/>
       <c r="X21" s="16"/>
       <c r="Y21" s="16"/>
@@ -5221,7 +5337,7 @@
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -5248,7 +5364,7 @@
       <c r="P22" s="14"/>
       <c r="Q22" s="15">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R22" s="15" t="str">
         <f t="shared" si="2"/>
@@ -5263,7 +5379,9 @@
       <c r="U22" s="16">
         <v>2</v>
       </c>
-      <c r="V22" s="16"/>
+      <c r="V22" s="16">
+        <v>2</v>
+      </c>
       <c r="W22" s="16"/>
       <c r="X22" s="16"/>
       <c r="Y22" s="16"/>
@@ -5283,7 +5401,7 @@
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -5295,7 +5413,7 @@
       <c r="I23" s="13"/>
       <c r="J23" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="13">
         <f t="array" ref="K23">IF(MAX(FREQUENCY(IF(S23:AL23&gt;0,COLUMN(S23:AL23)),IF(S23:AL23&lt;=0,COLUMN(S23:AL23))))&gt;4,1,0)</f>
@@ -5308,11 +5426,11 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="15">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="R23" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="S23" s="16">
         <v>1</v>
@@ -5323,7 +5441,9 @@
       <c r="U23" s="16">
         <v>4</v>
       </c>
-      <c r="V23" s="16"/>
+      <c r="V23" s="16">
+        <v>3</v>
+      </c>
       <c r="W23" s="16"/>
       <c r="X23" s="16"/>
       <c r="Y23" s="16"/>
@@ -5343,7 +5463,7 @@
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -5370,7 +5490,7 @@
       <c r="P24" s="14"/>
       <c r="Q24" s="15">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R24" s="15" t="str">
         <f t="shared" si="2"/>
@@ -5385,7 +5505,9 @@
       <c r="U24" s="16">
         <v>3</v>
       </c>
-      <c r="V24" s="16"/>
+      <c r="V24" s="16">
+        <v>3</v>
+      </c>
       <c r="W24" s="16"/>
       <c r="X24" s="16"/>
       <c r="Y24" s="16"/>
@@ -5405,7 +5527,7 @@
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -5430,7 +5552,7 @@
       <c r="P25" s="14"/>
       <c r="Q25" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R25" s="15" t="str">
         <f t="shared" si="2"/>
@@ -5445,7 +5567,9 @@
       <c r="U25" s="16">
         <v>2</v>
       </c>
-      <c r="V25" s="16"/>
+      <c r="V25" s="16">
+        <v>3</v>
+      </c>
       <c r="W25" s="16"/>
       <c r="X25" s="16"/>
       <c r="Y25" s="16"/>
@@ -5465,7 +5589,7 @@
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -5490,7 +5614,7 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="15">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R26" s="15" t="str">
         <f t="shared" si="2"/>
@@ -5502,8 +5626,12 @@
       <c r="T26" s="16">
         <v>2</v>
       </c>
-      <c r="U26" s="16"/>
-      <c r="V26" s="16"/>
+      <c r="U26" s="16">
+        <v>0</v>
+      </c>
+      <c r="V26" s="16">
+        <v>3</v>
+      </c>
       <c r="W26" s="16"/>
       <c r="X26" s="16"/>
       <c r="Y26" s="16"/>
@@ -5523,7 +5651,7 @@
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -5548,7 +5676,7 @@
       <c r="P27" s="14"/>
       <c r="Q27" s="15">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="R27" s="15" t="str">
         <f t="shared" si="2"/>
@@ -5563,7 +5691,9 @@
       <c r="U27" s="16">
         <v>3</v>
       </c>
-      <c r="V27" s="16"/>
+      <c r="V27" s="16">
+        <v>2</v>
+      </c>
       <c r="W27" s="16"/>
       <c r="X27" s="16"/>
       <c r="Y27" s="16"/>
@@ -5583,7 +5713,7 @@
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -5623,7 +5753,9 @@
       <c r="U28" s="16">
         <v>2</v>
       </c>
-      <c r="V28" s="16"/>
+      <c r="V28" s="16">
+        <v>0</v>
+      </c>
       <c r="W28" s="16"/>
       <c r="X28" s="16"/>
       <c r="Y28" s="16"/>
@@ -5643,7 +5775,7 @@
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -5655,7 +5787,7 @@
       <c r="I29" s="13"/>
       <c r="J29" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="13">
         <f t="array" ref="K29">IF(MAX(FREQUENCY(IF(S29:AL29&gt;0,COLUMN(S29:AL29)),IF(S29:AL29&lt;=0,COLUMN(S29:AL29))))&gt;4,1,0)</f>
@@ -5668,11 +5800,11 @@
       <c r="P29" s="14"/>
       <c r="Q29" s="15">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="R29" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="S29" s="16">
         <v>3</v>
@@ -5683,7 +5815,9 @@
       <c r="U29" s="16">
         <v>3</v>
       </c>
-      <c r="V29" s="16"/>
+      <c r="V29" s="16">
+        <v>3</v>
+      </c>
       <c r="W29" s="16"/>
       <c r="X29" s="16"/>
       <c r="Y29" s="16"/>
@@ -5703,7 +5837,7 @@
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -5743,7 +5877,9 @@
       <c r="U30" s="16">
         <v>2</v>
       </c>
-      <c r="V30" s="16"/>
+      <c r="V30" s="16">
+        <v>0</v>
+      </c>
       <c r="W30" s="16"/>
       <c r="X30" s="16"/>
       <c r="Y30" s="16"/>
@@ -5763,7 +5899,7 @@
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -5788,7 +5924,7 @@
       <c r="P31" s="14"/>
       <c r="Q31" s="15">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R31" s="15" t="str">
         <f t="shared" si="2"/>
@@ -5800,8 +5936,12 @@
       <c r="T31" s="16">
         <v>0</v>
       </c>
-      <c r="U31" s="16"/>
-      <c r="V31" s="16"/>
+      <c r="U31" s="16">
+        <v>0</v>
+      </c>
+      <c r="V31" s="16">
+        <v>3</v>
+      </c>
       <c r="W31" s="16"/>
       <c r="X31" s="16"/>
       <c r="Y31" s="16"/>
@@ -5821,7 +5961,7 @@
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -5848,7 +5988,7 @@
       <c r="P32" s="14"/>
       <c r="Q32" s="15">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="R32" s="15" t="str">
         <f t="shared" si="2"/>
@@ -5863,7 +6003,9 @@
       <c r="U32" s="16">
         <v>3</v>
       </c>
-      <c r="V32" s="16"/>
+      <c r="V32" s="16">
+        <v>2</v>
+      </c>
       <c r="W32" s="16"/>
       <c r="X32" s="16"/>
       <c r="Y32" s="16"/>
@@ -5883,7 +6025,7 @@
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -5908,7 +6050,7 @@
       <c r="P33" s="14"/>
       <c r="Q33" s="15">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R33" s="15" t="str">
         <f t="shared" si="2"/>
@@ -5923,7 +6065,9 @@
       <c r="U33" s="16">
         <v>3</v>
       </c>
-      <c r="V33" s="16"/>
+      <c r="V33" s="16">
+        <v>2</v>
+      </c>
       <c r="W33" s="16"/>
       <c r="X33" s="16"/>
       <c r="Y33" s="16"/>
@@ -5943,7 +6087,7 @@
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -5968,7 +6112,7 @@
       <c r="P34" s="14"/>
       <c r="Q34" s="15">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R34" s="15" t="str">
         <f t="shared" si="2"/>
@@ -5983,7 +6127,9 @@
       <c r="U34" s="16">
         <v>2</v>
       </c>
-      <c r="V34" s="16"/>
+      <c r="V34" s="16">
+        <v>2</v>
+      </c>
       <c r="W34" s="16"/>
       <c r="X34" s="16"/>
       <c r="Y34" s="16"/>
@@ -6003,7 +6149,7 @@
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -6028,7 +6174,7 @@
       <c r="P35" s="14"/>
       <c r="Q35" s="15">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R35" s="15" t="str">
         <f t="shared" si="2"/>
@@ -6040,8 +6186,12 @@
       <c r="T35" s="16">
         <v>2</v>
       </c>
-      <c r="U35" s="16"/>
-      <c r="V35" s="16"/>
+      <c r="U35" s="16">
+        <v>0</v>
+      </c>
+      <c r="V35" s="16">
+        <v>3</v>
+      </c>
       <c r="W35" s="16"/>
       <c r="X35" s="16"/>
       <c r="Y35" s="16"/>
@@ -6450,13 +6600,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -6470,7 +6620,7 @@
       </c>
       <c r="C2">
         <f>'Sec 2 Data'!Q4</f>
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -6484,7 +6634,7 @@
       </c>
       <c r="C3">
         <f>'Sec 2 Data'!Q5</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -6498,7 +6648,7 @@
       </c>
       <c r="C4">
         <f>'Sec 2 Data'!Q6</f>
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -6512,7 +6662,7 @@
       </c>
       <c r="C5">
         <f>'Sec 2 Data'!Q7</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -6522,11 +6672,11 @@
       </c>
       <c r="B6" t="str">
         <f>'Sec 2 Data'!R8</f>
-        <v>-</v>
+        <v xml:space="preserve">-Full Combo, </v>
       </c>
       <c r="C6">
         <f>'Sec 2 Data'!Q8</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -6540,7 +6690,7 @@
       </c>
       <c r="C7">
         <f>'Sec 2 Data'!Q9</f>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -6554,7 +6704,7 @@
       </c>
       <c r="C8">
         <f>'Sec 2 Data'!Q10</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -6568,7 +6718,7 @@
       </c>
       <c r="C9">
         <f>'Sec 2 Data'!Q11</f>
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -6582,7 +6732,7 @@
       </c>
       <c r="C10">
         <f>'Sec 2 Data'!Q12</f>
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -6596,7 +6746,7 @@
       </c>
       <c r="C11">
         <f>'Sec 2 Data'!Q13</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -6610,7 +6760,7 @@
       </c>
       <c r="C12">
         <f>'Sec 2 Data'!Q14</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -6624,7 +6774,7 @@
       </c>
       <c r="C13">
         <f>'Sec 2 Data'!Q15</f>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -6694,7 +6844,7 @@
       </c>
       <c r="C18">
         <f>'Sec 2 Data'!Q20</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -6704,11 +6854,11 @@
       </c>
       <c r="B19" t="str">
         <f>'Sec 2 Data'!R21</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C19">
         <f>'Sec 2 Data'!Q21</f>
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -6722,7 +6872,7 @@
       </c>
       <c r="C20">
         <f>'Sec 2 Data'!Q22</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -6732,11 +6882,11 @@
       </c>
       <c r="B21" t="str">
         <f>'Sec 2 Data'!R23</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C21">
         <f>'Sec 2 Data'!Q23</f>
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -6750,7 +6900,7 @@
       </c>
       <c r="C22">
         <f>'Sec 2 Data'!Q24</f>
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -6764,7 +6914,7 @@
       </c>
       <c r="C23">
         <f>'Sec 2 Data'!Q25</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -6778,7 +6928,7 @@
       </c>
       <c r="C24">
         <f>'Sec 2 Data'!Q26</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -6792,7 +6942,7 @@
       </c>
       <c r="C25">
         <f>'Sec 2 Data'!Q27</f>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -6816,11 +6966,11 @@
       </c>
       <c r="B27" t="str">
         <f>'Sec 2 Data'!R29</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C27">
         <f>'Sec 2 Data'!Q29</f>
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -6848,7 +6998,7 @@
       </c>
       <c r="C29">
         <f>'Sec 2 Data'!Q31</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -6862,7 +7012,7 @@
       </c>
       <c r="C30">
         <f>'Sec 2 Data'!Q32</f>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -6876,7 +7026,7 @@
       </c>
       <c r="C31">
         <f>'Sec 2 Data'!Q33</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -6890,7 +7040,7 @@
       </c>
       <c r="C32">
         <f>'Sec 2 Data'!Q34</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -6904,7 +7054,7 @@
       </c>
       <c r="C33">
         <f>'Sec 2 Data'!Q35</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngwen\Desktop\website\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90B5653-42EF-4A5B-AF3D-A31A7E7FA5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390261BE-43AA-44D8-A936-190AEA005104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -854,7 +854,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I10" sqref="I10"/>
+      <selection pane="topRight" activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1156,7 +1156,9 @@
       <c r="T5" s="16">
         <v>1</v>
       </c>
-      <c r="U5" s="16"/>
+      <c r="U5" s="16">
+        <v>0</v>
+      </c>
       <c r="V5" s="16"/>
       <c r="W5" s="16"/>
       <c r="X5" s="16"/>
@@ -4008,7 +4010,7 @@
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="T17" sqref="T17"/>
-      <selection pane="topRight" activeCell="D3" sqref="D3"/>
+      <selection pane="topRight" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4275,7 +4277,9 @@
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
@@ -4296,11 +4300,11 @@
       <c r="P5" s="14"/>
       <c r="Q5" s="15">
         <f t="shared" ref="Q5:Q43" si="1">SUM(B5:G5)+3*SUM(H5:L5)+5*SUM(M5:P5)+SUM(S5:AL5)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R5" s="15" t="str">
         <f t="shared" ref="R5:R43" si="2">CONCATENATE("-",IF(B5=1,$B$3&amp;", ",""),IF(C5=1,$C$3&amp;", ",""),IF(D5=1,$D$3&amp;", ",""),IF(E5=1,$E$3&amp;", ",""),IF(F5=1,$F$3&amp;", ",""),IF(G5=1,$G$3&amp;", ",""),IF(H5=1,$H$3&amp;", ",""),IF(I5=1,$I$3&amp;", ",""),IF(J5=1,$J$3&amp;", ",""),IF(K5=1,$K$3&amp;", ",""),IF(L5=1,$L$3&amp;", ",""),IF(M5=1,$M$3&amp;", ",""),IF(N5=1,$N$3&amp;", ",""),IF(O5=1,$O$3&amp;", ",""),IF(P5=1,$P$3&amp;", ",""))</f>
-        <v>-</v>
+        <v xml:space="preserve">-Nowhere to Hide, </v>
       </c>
       <c r="S5" s="16">
         <v>1</v>
@@ -4905,7 +4909,9 @@
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
+      <c r="D15" s="12">
+        <v>1</v>
+      </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -4926,11 +4932,11 @@
       <c r="P15" s="14"/>
       <c r="Q15" s="15">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R15" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Nowhere to Hide, </v>
       </c>
       <c r="S15" s="16">
         <v>2</v>
@@ -5153,7 +5159,9 @@
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
+      <c r="D19" s="12">
+        <v>1</v>
+      </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -5176,11 +5184,11 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="15">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R19" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Full Combo, </v>
+        <v xml:space="preserve">-Nowhere to Hide, Full Combo, </v>
       </c>
       <c r="S19" s="16">
         <v>3</v>
@@ -6029,7 +6037,9 @@
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
+      <c r="D33" s="12">
+        <v>1</v>
+      </c>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
@@ -6050,11 +6060,11 @@
       <c r="P33" s="14"/>
       <c r="Q33" s="15">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R33" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Nowhere to Hide, </v>
       </c>
       <c r="S33" s="16">
         <v>2</v>
@@ -6630,11 +6640,11 @@
       </c>
       <c r="B3" t="str">
         <f>'Sec 2 Data'!R5</f>
-        <v>-</v>
+        <v xml:space="preserve">-Nowhere to Hide, </v>
       </c>
       <c r="C3">
         <f>'Sec 2 Data'!Q5</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -6770,11 +6780,11 @@
       </c>
       <c r="B13" t="str">
         <f>'Sec 2 Data'!R15</f>
-        <v>-</v>
+        <v xml:space="preserve">-Nowhere to Hide, </v>
       </c>
       <c r="C13">
         <f>'Sec 2 Data'!Q15</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -6826,11 +6836,11 @@
       </c>
       <c r="B17" t="str">
         <f>'Sec 2 Data'!R19</f>
-        <v xml:space="preserve">-Full Combo, </v>
+        <v xml:space="preserve">-Nowhere to Hide, Full Combo, </v>
       </c>
       <c r="C17">
         <f>'Sec 2 Data'!Q19</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -7022,11 +7032,11 @@
       </c>
       <c r="B31" t="str">
         <f>'Sec 2 Data'!R33</f>
-        <v>-</v>
+        <v xml:space="preserve">-Nowhere to Hide, </v>
       </c>
       <c r="C31">
         <f>'Sec 2 Data'!Q33</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngwen\Desktop\website\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390261BE-43AA-44D8-A936-190AEA005104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D04EAE-0E66-4A21-A46E-F0302FE27240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -854,7 +854,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U14" sqref="U14"/>
+      <selection pane="topRight" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1969,7 +1969,9 @@
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="13"/>
+      <c r="H19" s="13">
+        <v>1</v>
+      </c>
       <c r="I19" s="13"/>
       <c r="J19" s="13">
         <f t="shared" si="0"/>
@@ -1986,11 +1988,11 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="15">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R19" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Full Combo, </v>
       </c>
       <c r="S19" s="16">
         <v>3</v>
@@ -3655,11 +3657,11 @@
       </c>
       <c r="B17" t="str">
         <f>'Sec 1 Data'!R19</f>
-        <v>-</v>
+        <v xml:space="preserve">-Full Combo, </v>
       </c>
       <c r="C17">
         <f>'Sec 1 Data'!Q19</f>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -4010,7 +4012,7 @@
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="T17" sqref="T17"/>
-      <selection pane="topRight" activeCell="L19" sqref="L19"/>
+      <selection pane="topRight" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4404,9 +4406,13 @@
         <v>61</v>
       </c>
       <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
       <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="13"/>
@@ -4426,11 +4432,11 @@
       <c r="P7" s="14"/>
       <c r="Q7" s="15">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R7" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-I Say Hi, Gaming is life, </v>
       </c>
       <c r="S7" s="16">
         <v>1</v>
@@ -4596,7 +4602,9 @@
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="E10" s="12">
+        <v>1</v>
+      </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="13"/>
@@ -4616,11 +4624,11 @@
       <c r="P10" s="14"/>
       <c r="Q10" s="15">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R10" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Gaming is life, </v>
       </c>
       <c r="S10" s="16">
         <v>3</v>
@@ -4913,7 +4921,9 @@
         <v>1</v>
       </c>
       <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="F15" s="12">
+        <v>1</v>
+      </c>
       <c r="G15" s="12"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
@@ -4932,11 +4942,11 @@
       <c r="P15" s="14"/>
       <c r="Q15" s="15">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R15" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Nowhere to Hide, </v>
+        <v xml:space="preserve">-Nowhere to Hide, Blast to the Past, </v>
       </c>
       <c r="S15" s="16">
         <v>2</v>
@@ -5540,7 +5550,9 @@
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
+      <c r="E25" s="12">
+        <v>1</v>
+      </c>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="13"/>
@@ -5560,11 +5572,11 @@
       <c r="P25" s="14"/>
       <c r="Q25" s="15">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R25" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Gaming is life, </v>
       </c>
       <c r="S25" s="16">
         <v>1</v>
@@ -5602,7 +5614,9 @@
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="E26" s="12">
+        <v>1</v>
+      </c>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="13"/>
@@ -5622,11 +5636,11 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="15">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R26" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Gaming is life, </v>
       </c>
       <c r="S26" s="16">
         <v>2</v>
@@ -5910,7 +5924,9 @@
         <v>79</v>
       </c>
       <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
+      <c r="C31" s="12">
+        <v>1</v>
+      </c>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
@@ -5932,11 +5948,11 @@
       <c r="P31" s="14"/>
       <c r="Q31" s="15">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R31" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-I Say Hi, </v>
       </c>
       <c r="S31" s="16">
         <v>2</v>
@@ -5972,9 +5988,13 @@
         <v>80</v>
       </c>
       <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
+      <c r="C32" s="12">
+        <v>1</v>
+      </c>
       <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
+      <c r="E32" s="12">
+        <v>1</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="13">
@@ -5996,11 +6016,11 @@
       <c r="P32" s="14"/>
       <c r="Q32" s="15">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="R32" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Full Combo, Three-Star Wonder, </v>
+        <v xml:space="preserve">-I Say Hi, Gaming is life, Full Combo, Three-Star Wonder, </v>
       </c>
       <c r="S32" s="16">
         <v>3</v>
@@ -6668,11 +6688,11 @@
       </c>
       <c r="B5" t="str">
         <f>'Sec 2 Data'!R7</f>
-        <v>-</v>
+        <v xml:space="preserve">-I Say Hi, Gaming is life, </v>
       </c>
       <c r="C5">
         <f>'Sec 2 Data'!Q7</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -6710,11 +6730,11 @@
       </c>
       <c r="B8" t="str">
         <f>'Sec 2 Data'!R10</f>
-        <v>-</v>
+        <v xml:space="preserve">-Gaming is life, </v>
       </c>
       <c r="C8">
         <f>'Sec 2 Data'!Q10</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -6780,11 +6800,11 @@
       </c>
       <c r="B13" t="str">
         <f>'Sec 2 Data'!R15</f>
-        <v xml:space="preserve">-Nowhere to Hide, </v>
+        <v xml:space="preserve">-Nowhere to Hide, Blast to the Past, </v>
       </c>
       <c r="C13">
         <f>'Sec 2 Data'!Q15</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -6920,11 +6940,11 @@
       </c>
       <c r="B23" t="str">
         <f>'Sec 2 Data'!R25</f>
-        <v>-</v>
+        <v xml:space="preserve">-Gaming is life, </v>
       </c>
       <c r="C23">
         <f>'Sec 2 Data'!Q25</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -6934,11 +6954,11 @@
       </c>
       <c r="B24" t="str">
         <f>'Sec 2 Data'!R26</f>
-        <v>-</v>
+        <v xml:space="preserve">-Gaming is life, </v>
       </c>
       <c r="C24">
         <f>'Sec 2 Data'!Q26</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -7004,11 +7024,11 @@
       </c>
       <c r="B29" t="str">
         <f>'Sec 2 Data'!R31</f>
-        <v>-</v>
+        <v xml:space="preserve">-I Say Hi, </v>
       </c>
       <c r="C29">
         <f>'Sec 2 Data'!Q31</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -7018,11 +7038,11 @@
       </c>
       <c r="B30" t="str">
         <f>'Sec 2 Data'!R32</f>
-        <v xml:space="preserve">-Full Combo, Three-Star Wonder, </v>
+        <v xml:space="preserve">-I Say Hi, Gaming is life, Full Combo, Three-Star Wonder, </v>
       </c>
       <c r="C30">
         <f>'Sec 2 Data'!Q32</f>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngwen\Desktop\website\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D04EAE-0E66-4A21-A46E-F0302FE27240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0517BD3-72B4-4FB9-92FD-7A8551859438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sec 1 Data" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="93">
   <si>
     <t>Achievements</t>
   </si>
@@ -304,6 +304,9 @@
   </si>
   <si>
     <t>Nowhere to Hide</t>
+  </si>
+  <si>
+    <t>Bonus</t>
   </si>
 </sst>
 </file>
@@ -850,11 +853,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL43"/>
+  <dimension ref="A1:AM43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K17" sqref="K17"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AO22" sqref="AO22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -877,12 +880,13 @@
     <col min="16" max="16" width="11.21875" style="7" customWidth="1"/>
     <col min="17" max="17" width="9.6640625" style="2" customWidth="1"/>
     <col min="18" max="18" width="25.44140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.88671875" style="8"/>
-    <col min="20" max="37" width="8.88671875" style="9"/>
+    <col min="19" max="19" width="8.88671875" style="8" customWidth="1"/>
+    <col min="20" max="21" width="8.88671875" style="9" customWidth="1"/>
+    <col min="22" max="37" width="8.88671875" style="9"/>
     <col min="38" max="38" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -896,7 +900,7 @@
       <c r="O1" s="23"/>
       <c r="P1" s="24"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B2" s="29" t="s">
         <v>13</v>
       </c>
@@ -941,7 +945,7 @@
       <c r="AK2" s="28"/>
       <c r="AL2" s="28"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
@@ -1056,8 +1060,11 @@
       <c r="AL3" s="22">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AM3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>23</v>
       </c>
@@ -1083,8 +1090,8 @@
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
       <c r="Q4" s="15">
-        <f>SUM(B4:G4)+3*SUM(H4:M4)+5*SUM(N4:P4)+SUM(S4:AL4)</f>
-        <v>9</v>
+        <f>SUM(B4:G4)+3*SUM(H4:M4)+5*SUM(N4:P4)+SUM(S4:AM4)</f>
+        <v>12</v>
       </c>
       <c r="R4" s="15" t="str">
         <f>CONCATENATE("-",IF(B4=1,$B$3&amp;", ",""),IF(C4=1,$C$3&amp;", ",""),IF(D4=1,$D$3&amp;", ",""),IF(E4=1,$E$3&amp;", ",""),IF(F4=1,$F$3&amp;", ",""),IF(G4=1,$G$3&amp;", ",""),IF(H4=1,$H$3&amp;", ",""),IF(I4=1,$I$3&amp;", ",""),IF(J4=1,$J$3&amp;", ",""),IF(K4=1,$K$3&amp;", ",""),IF(L4=1,$L$3&amp;", ",""),IF(M4=1,$M$3&amp;", ",""),IF(N4=1,$N$3&amp;", ",""),IF(O4=1,$O$3&amp;", ",""),IF(P4=1,$P$3&amp;", ",""))</f>
@@ -1099,7 +1106,9 @@
       <c r="U4" s="16">
         <v>3</v>
       </c>
-      <c r="V4" s="16"/>
+      <c r="V4" s="16">
+        <v>2</v>
+      </c>
       <c r="W4" s="16"/>
       <c r="X4" s="16"/>
       <c r="Y4" s="16"/>
@@ -1116,8 +1125,11 @@
       <c r="AJ4" s="16"/>
       <c r="AK4" s="16"/>
       <c r="AL4" s="16"/>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AM4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>89</v>
       </c>
@@ -1143,8 +1155,8 @@
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="15">
-        <f t="shared" ref="Q5:Q43" si="1">SUM(B5:G5)+3*SUM(H5:L5)+5*SUM(M5:P5)+SUM(S5:AL5)</f>
-        <v>2</v>
+        <f t="shared" ref="Q5:Q43" si="1">SUM(B5:G5)+3*SUM(H5:M5)+5*SUM(N5:P5)+SUM(S5:AM5)</f>
+        <v>3</v>
       </c>
       <c r="R5" s="15" t="str">
         <f t="shared" ref="R5:R43" si="2">CONCATENATE("-",IF(B5=1,$B$3&amp;", ",""),IF(C5=1,$C$3&amp;", ",""),IF(D5=1,$D$3&amp;", ",""),IF(E5=1,$E$3&amp;", ",""),IF(F5=1,$F$3&amp;", ",""),IF(G5=1,$G$3&amp;", ",""),IF(H5=1,$H$3&amp;", ",""),IF(I5=1,$I$3&amp;", ",""),IF(J5=1,$J$3&amp;", ",""),IF(K5=1,$K$3&amp;", ",""),IF(L5=1,$L$3&amp;", ",""),IF(M5=1,$M$3&amp;", ",""),IF(N5=1,$N$3&amp;", ",""),IF(O5=1,$O$3&amp;", ",""),IF(P5=1,$P$3&amp;", ",""))</f>
@@ -1176,8 +1188,11 @@
       <c r="AJ5" s="16"/>
       <c r="AK5" s="16"/>
       <c r="AL5" s="16"/>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AM5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>24</v>
       </c>
@@ -1204,7 +1219,7 @@
       <c r="P6" s="14"/>
       <c r="Q6" s="15">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R6" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1219,7 +1234,9 @@
       <c r="U6" s="16">
         <v>2</v>
       </c>
-      <c r="V6" s="16"/>
+      <c r="V6" s="16">
+        <v>1</v>
+      </c>
       <c r="W6" s="16"/>
       <c r="X6" s="16"/>
       <c r="Y6" s="16"/>
@@ -1236,8 +1253,11 @@
       <c r="AJ6" s="16"/>
       <c r="AK6" s="16"/>
       <c r="AL6" s="16"/>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AM6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>25</v>
       </c>
@@ -1264,7 +1284,7 @@
       <c r="P7" s="14"/>
       <c r="Q7" s="15">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R7" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1296,8 +1316,11 @@
       <c r="AJ7" s="16"/>
       <c r="AK7" s="16"/>
       <c r="AL7" s="16"/>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AM7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>45</v>
       </c>
@@ -1324,7 +1347,7 @@
       <c r="P8" s="14"/>
       <c r="Q8" s="15">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R8" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1339,7 +1362,9 @@
       <c r="U8" s="16">
         <v>1</v>
       </c>
-      <c r="V8" s="16"/>
+      <c r="V8" s="16">
+        <v>2</v>
+      </c>
       <c r="W8" s="16"/>
       <c r="X8" s="16"/>
       <c r="Y8" s="16"/>
@@ -1356,8 +1381,11 @@
       <c r="AJ8" s="16"/>
       <c r="AK8" s="16"/>
       <c r="AL8" s="16"/>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AM8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>26</v>
       </c>
@@ -1371,7 +1399,7 @@
       <c r="I9" s="13"/>
       <c r="J9" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="13">
         <f t="array" ref="K9">IF(MAX(FREQUENCY(IF(S9:AL9&gt;0,COLUMN(S9:AL9)),IF(S9:AL9&lt;=0,COLUMN(S9:AL9))))&gt;4,1,0)</f>
@@ -1384,11 +1412,11 @@
       <c r="P9" s="14"/>
       <c r="Q9" s="15">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="R9" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="S9" s="16">
         <v>3</v>
@@ -1399,7 +1427,9 @@
       <c r="U9" s="16">
         <v>3</v>
       </c>
-      <c r="V9" s="16"/>
+      <c r="V9" s="16">
+        <v>3</v>
+      </c>
       <c r="W9" s="16"/>
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
@@ -1416,8 +1446,11 @@
       <c r="AJ9" s="16"/>
       <c r="AK9" s="16"/>
       <c r="AL9" s="16"/>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AM9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>27</v>
       </c>
@@ -1444,7 +1477,7 @@
       <c r="P10" s="14"/>
       <c r="Q10" s="15">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="R10" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1459,7 +1492,9 @@
       <c r="U10" s="16">
         <v>3</v>
       </c>
-      <c r="V10" s="16"/>
+      <c r="V10" s="16">
+        <v>2</v>
+      </c>
       <c r="W10" s="16"/>
       <c r="X10" s="16"/>
       <c r="Y10" s="16"/>
@@ -1476,8 +1511,11 @@
       <c r="AJ10" s="16"/>
       <c r="AK10" s="16"/>
       <c r="AL10" s="16"/>
-    </row>
-    <row r="11" spans="1:38" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AM10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>28</v>
       </c>
@@ -1504,7 +1542,7 @@
       <c r="P11" s="14"/>
       <c r="Q11" s="15">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R11" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1519,7 +1557,9 @@
       <c r="U11" s="16">
         <v>2</v>
       </c>
-      <c r="V11" s="16"/>
+      <c r="V11" s="16">
+        <v>2</v>
+      </c>
       <c r="W11" s="16"/>
       <c r="X11" s="16"/>
       <c r="Y11" s="16"/>
@@ -1536,8 +1576,11 @@
       <c r="AJ11" s="16"/>
       <c r="AK11" s="16"/>
       <c r="AL11" s="16"/>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AM11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>29</v>
       </c>
@@ -1564,7 +1607,7 @@
       <c r="P12" s="14"/>
       <c r="Q12" s="15">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="R12" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1579,7 +1622,9 @@
       <c r="U12" s="16">
         <v>3</v>
       </c>
-      <c r="V12" s="16"/>
+      <c r="V12" s="16">
+        <v>2</v>
+      </c>
       <c r="W12" s="16"/>
       <c r="X12" s="16"/>
       <c r="Y12" s="16"/>
@@ -1596,8 +1641,11 @@
       <c r="AJ12" s="16"/>
       <c r="AK12" s="16"/>
       <c r="AL12" s="16"/>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AM12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>30</v>
       </c>
@@ -1626,7 +1674,7 @@
       <c r="P13" s="14"/>
       <c r="Q13" s="15">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="R13" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1641,7 +1689,9 @@
       <c r="U13" s="16">
         <v>3</v>
       </c>
-      <c r="V13" s="16"/>
+      <c r="V13" s="16">
+        <v>2</v>
+      </c>
       <c r="W13" s="16"/>
       <c r="X13" s="16"/>
       <c r="Y13" s="16"/>
@@ -1658,8 +1708,11 @@
       <c r="AJ13" s="16"/>
       <c r="AK13" s="16"/>
       <c r="AL13" s="16"/>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AM13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>31</v>
       </c>
@@ -1686,7 +1739,7 @@
       <c r="P14" s="14"/>
       <c r="Q14" s="15">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="R14" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1701,7 +1754,9 @@
       <c r="U14" s="16">
         <v>4</v>
       </c>
-      <c r="V14" s="16"/>
+      <c r="V14" s="16">
+        <v>3</v>
+      </c>
       <c r="W14" s="16"/>
       <c r="X14" s="16"/>
       <c r="Y14" s="16"/>
@@ -1718,8 +1773,11 @@
       <c r="AJ14" s="16"/>
       <c r="AK14" s="16"/>
       <c r="AL14" s="16"/>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AM14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>32</v>
       </c>
@@ -1746,7 +1804,7 @@
       <c r="P15" s="14"/>
       <c r="Q15" s="15">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R15" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1761,7 +1819,9 @@
       <c r="U15" s="16">
         <v>1</v>
       </c>
-      <c r="V15" s="16"/>
+      <c r="V15" s="16">
+        <v>3</v>
+      </c>
       <c r="W15" s="16"/>
       <c r="X15" s="16"/>
       <c r="Y15" s="16"/>
@@ -1778,8 +1838,11 @@
       <c r="AJ15" s="16"/>
       <c r="AK15" s="16"/>
       <c r="AL15" s="16"/>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AM15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>33</v>
       </c>
@@ -1806,7 +1869,7 @@
       <c r="P16" s="14"/>
       <c r="Q16" s="15">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R16" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1821,7 +1884,9 @@
       <c r="U16" s="16">
         <v>2</v>
       </c>
-      <c r="V16" s="16"/>
+      <c r="V16" s="16">
+        <v>2</v>
+      </c>
       <c r="W16" s="16"/>
       <c r="X16" s="16"/>
       <c r="Y16" s="16"/>
@@ -1838,8 +1903,11 @@
       <c r="AJ16" s="16"/>
       <c r="AK16" s="16"/>
       <c r="AL16" s="16"/>
-    </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AM16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>34</v>
       </c>
@@ -1853,7 +1921,7 @@
       <c r="I17" s="13"/>
       <c r="J17" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="13">
         <f t="array" ref="K17">IF(MAX(FREQUENCY(IF(S17:AL17&gt;0,COLUMN(S17:AL17)),IF(S17:AL17&lt;=0,COLUMN(S17:AL17))))&gt;4,1,0)</f>
@@ -1866,11 +1934,11 @@
       <c r="P17" s="14"/>
       <c r="Q17" s="15">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="R17" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="S17" s="16">
         <v>2</v>
@@ -1881,7 +1949,9 @@
       <c r="U17" s="16">
         <v>3</v>
       </c>
-      <c r="V17" s="16"/>
+      <c r="V17" s="16">
+        <v>3</v>
+      </c>
       <c r="W17" s="16"/>
       <c r="X17" s="16"/>
       <c r="Y17" s="16"/>
@@ -1898,8 +1968,11 @@
       <c r="AJ17" s="16"/>
       <c r="AK17" s="16"/>
       <c r="AL17" s="16"/>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AM17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>35</v>
       </c>
@@ -1926,7 +1999,7 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="15">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R18" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1941,7 +2014,9 @@
       <c r="U18" s="16">
         <v>2</v>
       </c>
-      <c r="V18" s="16"/>
+      <c r="V18" s="16">
+        <v>2</v>
+      </c>
       <c r="W18" s="16"/>
       <c r="X18" s="16"/>
       <c r="Y18" s="16"/>
@@ -1958,8 +2033,11 @@
       <c r="AJ18" s="16"/>
       <c r="AK18" s="16"/>
       <c r="AL18" s="16"/>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AM18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>36</v>
       </c>
@@ -1975,7 +2053,7 @@
       <c r="I19" s="13"/>
       <c r="J19" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="13">
         <f t="array" ref="K19">IF(MAX(FREQUENCY(IF(S19:AL19&gt;0,COLUMN(S19:AL19)),IF(S19:AL19&lt;=0,COLUMN(S19:AL19))))&gt;4,1,0)</f>
@@ -1988,11 +2066,11 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="15">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="R19" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Full Combo, </v>
+        <v xml:space="preserve">-Full Combo, Three-Star Wonder, </v>
       </c>
       <c r="S19" s="16">
         <v>3</v>
@@ -2003,7 +2081,9 @@
       <c r="U19" s="16">
         <v>3</v>
       </c>
-      <c r="V19" s="16"/>
+      <c r="V19" s="16">
+        <v>3</v>
+      </c>
       <c r="W19" s="16"/>
       <c r="X19" s="16"/>
       <c r="Y19" s="16"/>
@@ -2020,8 +2100,11 @@
       <c r="AJ19" s="16"/>
       <c r="AK19" s="16"/>
       <c r="AL19" s="16"/>
-    </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AM19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>37</v>
       </c>
@@ -2050,7 +2133,7 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="15">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="R20" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2065,7 +2148,9 @@
       <c r="U20" s="16">
         <v>2</v>
       </c>
-      <c r="V20" s="16"/>
+      <c r="V20" s="16">
+        <v>2</v>
+      </c>
       <c r="W20" s="16"/>
       <c r="X20" s="16"/>
       <c r="Y20" s="16"/>
@@ -2082,8 +2167,11 @@
       <c r="AJ20" s="16"/>
       <c r="AK20" s="16"/>
       <c r="AL20" s="16"/>
-    </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AM20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>38</v>
       </c>
@@ -2110,7 +2198,7 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="15">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="R21" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2125,7 +2213,9 @@
       <c r="U21" s="16">
         <v>2</v>
       </c>
-      <c r="V21" s="16"/>
+      <c r="V21" s="16">
+        <v>2</v>
+      </c>
       <c r="W21" s="16"/>
       <c r="X21" s="16"/>
       <c r="Y21" s="16"/>
@@ -2142,8 +2232,11 @@
       <c r="AJ21" s="16"/>
       <c r="AK21" s="16"/>
       <c r="AL21" s="16"/>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AM21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>39</v>
       </c>
@@ -2170,7 +2263,7 @@
       <c r="P22" s="14"/>
       <c r="Q22" s="15">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="R22" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2185,7 +2278,9 @@
       <c r="U22" s="16">
         <v>3</v>
       </c>
-      <c r="V22" s="16"/>
+      <c r="V22" s="16">
+        <v>2</v>
+      </c>
       <c r="W22" s="16"/>
       <c r="X22" s="16"/>
       <c r="Y22" s="16"/>
@@ -2202,8 +2297,11 @@
       <c r="AJ22" s="16"/>
       <c r="AK22" s="16"/>
       <c r="AL22" s="16"/>
-    </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AM22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>40</v>
       </c>
@@ -2230,7 +2328,7 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="15">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R23" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2245,7 +2343,9 @@
       <c r="U23" s="16">
         <v>3</v>
       </c>
-      <c r="V23" s="16"/>
+      <c r="V23" s="16">
+        <v>2</v>
+      </c>
       <c r="W23" s="16"/>
       <c r="X23" s="16"/>
       <c r="Y23" s="16"/>
@@ -2262,8 +2362,11 @@
       <c r="AJ23" s="16"/>
       <c r="AK23" s="16"/>
       <c r="AL23" s="16"/>
-    </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AM23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>41</v>
       </c>
@@ -2290,7 +2393,7 @@
       <c r="P24" s="14"/>
       <c r="Q24" s="15">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R24" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2305,7 +2408,9 @@
       <c r="U24" s="16">
         <v>3</v>
       </c>
-      <c r="V24" s="16"/>
+      <c r="V24" s="16">
+        <v>2</v>
+      </c>
       <c r="W24" s="16"/>
       <c r="X24" s="16"/>
       <c r="Y24" s="16"/>
@@ -2322,8 +2427,11 @@
       <c r="AJ24" s="16"/>
       <c r="AK24" s="16"/>
       <c r="AL24" s="16"/>
-    </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AM24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>42</v>
       </c>
@@ -2350,7 +2458,7 @@
       <c r="P25" s="14"/>
       <c r="Q25" s="15">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R25" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2365,7 +2473,9 @@
       <c r="U25" s="16">
         <v>3</v>
       </c>
-      <c r="V25" s="16"/>
+      <c r="V25" s="16">
+        <v>2</v>
+      </c>
       <c r="W25" s="16"/>
       <c r="X25" s="16"/>
       <c r="Y25" s="16"/>
@@ -2382,8 +2492,11 @@
       <c r="AJ25" s="16"/>
       <c r="AK25" s="16"/>
       <c r="AL25" s="16"/>
-    </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AM25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>43</v>
       </c>
@@ -2410,7 +2523,7 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="15">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R26" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2442,8 +2555,11 @@
       <c r="AJ26" s="16"/>
       <c r="AK26" s="16"/>
       <c r="AL26" s="16"/>
-    </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AM26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>44</v>
       </c>
@@ -2470,7 +2586,7 @@
       <c r="P27" s="14"/>
       <c r="Q27" s="15">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R27" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2485,7 +2601,9 @@
       <c r="U27" s="16">
         <v>3</v>
       </c>
-      <c r="V27" s="16"/>
+      <c r="V27" s="16">
+        <v>2</v>
+      </c>
       <c r="W27" s="16"/>
       <c r="X27" s="16"/>
       <c r="Y27" s="16"/>
@@ -2502,8 +2620,11 @@
       <c r="AJ27" s="16"/>
       <c r="AK27" s="16"/>
       <c r="AL27" s="16"/>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AM27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>46</v>
       </c>
@@ -2530,7 +2651,7 @@
       <c r="P28" s="14"/>
       <c r="Q28" s="15">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R28" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2545,7 +2666,9 @@
       <c r="U28" s="16">
         <v>2</v>
       </c>
-      <c r="V28" s="16"/>
+      <c r="V28" s="16">
+        <v>1</v>
+      </c>
       <c r="W28" s="16"/>
       <c r="X28" s="16"/>
       <c r="Y28" s="16"/>
@@ -2562,8 +2685,11 @@
       <c r="AJ28" s="16"/>
       <c r="AK28" s="16"/>
       <c r="AL28" s="16"/>
-    </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AM28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>47</v>
       </c>
@@ -2590,7 +2716,7 @@
       <c r="P29" s="14"/>
       <c r="Q29" s="15">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R29" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2605,7 +2731,9 @@
       <c r="U29" s="16">
         <v>2</v>
       </c>
-      <c r="V29" s="16"/>
+      <c r="V29" s="16">
+        <v>2</v>
+      </c>
       <c r="W29" s="16"/>
       <c r="X29" s="16"/>
       <c r="Y29" s="16"/>
@@ -2622,8 +2750,11 @@
       <c r="AJ29" s="16"/>
       <c r="AK29" s="16"/>
       <c r="AL29" s="16"/>
-    </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AM29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>48</v>
       </c>
@@ -2650,7 +2781,7 @@
       <c r="P30" s="14"/>
       <c r="Q30" s="15">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R30" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2665,7 +2796,9 @@
       <c r="U30" s="16">
         <v>3</v>
       </c>
-      <c r="V30" s="16"/>
+      <c r="V30" s="16">
+        <v>2</v>
+      </c>
       <c r="W30" s="16"/>
       <c r="X30" s="16"/>
       <c r="Y30" s="16"/>
@@ -2682,8 +2815,11 @@
       <c r="AJ30" s="16"/>
       <c r="AK30" s="16"/>
       <c r="AL30" s="16"/>
-    </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AM30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>49</v>
       </c>
@@ -2710,7 +2846,7 @@
       <c r="P31" s="14"/>
       <c r="Q31" s="15">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R31" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2725,7 +2861,9 @@
       <c r="U31" s="16">
         <v>3</v>
       </c>
-      <c r="V31" s="16"/>
+      <c r="V31" s="16">
+        <v>2</v>
+      </c>
       <c r="W31" s="16"/>
       <c r="X31" s="16"/>
       <c r="Y31" s="16"/>
@@ -2742,8 +2880,11 @@
       <c r="AJ31" s="16"/>
       <c r="AK31" s="16"/>
       <c r="AL31" s="16"/>
-    </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AM31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>50</v>
       </c>
@@ -2772,7 +2913,7 @@
       <c r="P32" s="14"/>
       <c r="Q32" s="15">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="R32" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2787,7 +2928,9 @@
       <c r="U32" s="16">
         <v>3</v>
       </c>
-      <c r="V32" s="16"/>
+      <c r="V32" s="16">
+        <v>3</v>
+      </c>
       <c r="W32" s="16"/>
       <c r="X32" s="16"/>
       <c r="Y32" s="16"/>
@@ -2804,8 +2947,11 @@
       <c r="AJ32" s="16"/>
       <c r="AK32" s="16"/>
       <c r="AL32" s="16"/>
-    </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AM32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>51</v>
       </c>
@@ -2832,7 +2978,7 @@
       <c r="P33" s="14"/>
       <c r="Q33" s="15">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R33" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2864,8 +3010,11 @@
       <c r="AJ33" s="16"/>
       <c r="AK33" s="16"/>
       <c r="AL33" s="16"/>
-    </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AM33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>52</v>
       </c>
@@ -2892,7 +3041,7 @@
       <c r="P34" s="14"/>
       <c r="Q34" s="15">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R34" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2907,7 +3056,9 @@
       <c r="U34" s="16">
         <v>3</v>
       </c>
-      <c r="V34" s="16"/>
+      <c r="V34" s="16">
+        <v>2</v>
+      </c>
       <c r="W34" s="16"/>
       <c r="X34" s="16"/>
       <c r="Y34" s="16"/>
@@ -2924,8 +3075,11 @@
       <c r="AJ34" s="16"/>
       <c r="AK34" s="16"/>
       <c r="AL34" s="16"/>
-    </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AM34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>53</v>
       </c>
@@ -2952,7 +3106,7 @@
       <c r="P35" s="14"/>
       <c r="Q35" s="15">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R35" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2967,7 +3121,9 @@
       <c r="U35" s="16">
         <v>2</v>
       </c>
-      <c r="V35" s="16"/>
+      <c r="V35" s="16">
+        <v>1</v>
+      </c>
       <c r="W35" s="16"/>
       <c r="X35" s="16"/>
       <c r="Y35" s="16"/>
@@ -2984,8 +3140,11 @@
       <c r="AJ35" s="16"/>
       <c r="AK35" s="16"/>
       <c r="AL35" s="16"/>
-    </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AM35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>54</v>
       </c>
@@ -3012,7 +3171,7 @@
       <c r="P36" s="14"/>
       <c r="Q36" s="15">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R36" s="15" t="str">
         <f t="shared" si="2"/>
@@ -3027,7 +3186,9 @@
       <c r="U36" s="16">
         <v>2</v>
       </c>
-      <c r="V36" s="16"/>
+      <c r="V36" s="16">
+        <v>2</v>
+      </c>
       <c r="W36" s="16"/>
       <c r="X36" s="16"/>
       <c r="Y36" s="16"/>
@@ -3044,8 +3205,11 @@
       <c r="AJ36" s="16"/>
       <c r="AK36" s="16"/>
       <c r="AL36" s="16"/>
-    </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AM36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>55</v>
       </c>
@@ -3072,7 +3236,7 @@
       <c r="P37" s="14"/>
       <c r="Q37" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R37" s="15" t="str">
         <f t="shared" si="2"/>
@@ -3100,8 +3264,11 @@
       <c r="AJ37" s="16"/>
       <c r="AK37" s="16"/>
       <c r="AL37" s="16"/>
-    </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AM37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>56</v>
       </c>
@@ -3128,7 +3295,7 @@
       <c r="P38" s="14"/>
       <c r="Q38" s="15">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R38" s="15" t="str">
         <f t="shared" si="2"/>
@@ -3143,7 +3310,9 @@
       <c r="U38" s="16">
         <v>2</v>
       </c>
-      <c r="V38" s="16"/>
+      <c r="V38" s="16">
+        <v>1</v>
+      </c>
       <c r="W38" s="16"/>
       <c r="X38" s="16"/>
       <c r="Y38" s="16"/>
@@ -3160,8 +3329,11 @@
       <c r="AJ38" s="16"/>
       <c r="AK38" s="16"/>
       <c r="AL38" s="16"/>
-    </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AM38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>57</v>
       </c>
@@ -3188,7 +3360,7 @@
       <c r="P39" s="14"/>
       <c r="Q39" s="15">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R39" s="15" t="str">
         <f t="shared" si="2"/>
@@ -3203,7 +3375,9 @@
       <c r="U39" s="16">
         <v>2</v>
       </c>
-      <c r="V39" s="16"/>
+      <c r="V39" s="16">
+        <v>2</v>
+      </c>
       <c r="W39" s="16"/>
       <c r="X39" s="16"/>
       <c r="Y39" s="16"/>
@@ -3220,8 +3394,11 @@
       <c r="AJ39" s="16"/>
       <c r="AK39" s="16"/>
       <c r="AL39" s="16"/>
-    </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AM39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -3267,7 +3444,7 @@
       <c r="AK40" s="16"/>
       <c r="AL40" s="16"/>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -3313,7 +3490,7 @@
       <c r="AK41" s="16"/>
       <c r="AL41" s="16"/>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -3359,7 +3536,7 @@
       <c r="AK42" s="16"/>
       <c r="AL42" s="16"/>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -3451,7 +3628,7 @@
       </c>
       <c r="C2">
         <f>'Sec 1 Data'!Q4</f>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3465,7 +3642,7 @@
       </c>
       <c r="C3">
         <f>'Sec 1 Data'!Q5</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3479,7 +3656,7 @@
       </c>
       <c r="C4">
         <f>'Sec 1 Data'!Q6</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3493,7 +3670,7 @@
       </c>
       <c r="C5">
         <f>'Sec 1 Data'!Q7</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3507,7 +3684,7 @@
       </c>
       <c r="C6">
         <f>'Sec 1 Data'!Q8</f>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -3517,11 +3694,11 @@
       </c>
       <c r="B7" t="str">
         <f>'Sec 1 Data'!R9</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C7">
         <f>'Sec 1 Data'!Q9</f>
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3535,7 +3712,7 @@
       </c>
       <c r="C8">
         <f>'Sec 1 Data'!Q10</f>
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -3549,7 +3726,7 @@
       </c>
       <c r="C9">
         <f>'Sec 1 Data'!Q11</f>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -3563,7 +3740,7 @@
       </c>
       <c r="C10">
         <f>'Sec 1 Data'!Q12</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -3577,7 +3754,7 @@
       </c>
       <c r="C11">
         <f>'Sec 1 Data'!Q13</f>
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -3591,7 +3768,7 @@
       </c>
       <c r="C12">
         <f>'Sec 1 Data'!Q14</f>
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -3605,7 +3782,7 @@
       </c>
       <c r="C13">
         <f>'Sec 1 Data'!Q15</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -3619,7 +3796,7 @@
       </c>
       <c r="C14">
         <f>'Sec 1 Data'!Q16</f>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -3629,11 +3806,11 @@
       </c>
       <c r="B15" t="str">
         <f>'Sec 1 Data'!R17</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C15">
         <f>'Sec 1 Data'!Q17</f>
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -3647,7 +3824,7 @@
       </c>
       <c r="C16">
         <f>'Sec 1 Data'!Q18</f>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -3657,11 +3834,11 @@
       </c>
       <c r="B17" t="str">
         <f>'Sec 1 Data'!R19</f>
-        <v xml:space="preserve">-Full Combo, </v>
+        <v xml:space="preserve">-Full Combo, Three-Star Wonder, </v>
       </c>
       <c r="C17">
         <f>'Sec 1 Data'!Q19</f>
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -3675,7 +3852,7 @@
       </c>
       <c r="C18">
         <f>'Sec 1 Data'!Q20</f>
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -3689,7 +3866,7 @@
       </c>
       <c r="C19">
         <f>'Sec 1 Data'!Q21</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -3703,7 +3880,7 @@
       </c>
       <c r="C20">
         <f>'Sec 1 Data'!Q22</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -3717,7 +3894,7 @@
       </c>
       <c r="C21">
         <f>'Sec 1 Data'!Q23</f>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -3731,7 +3908,7 @@
       </c>
       <c r="C22">
         <f>'Sec 1 Data'!Q24</f>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -3745,7 +3922,7 @@
       </c>
       <c r="C23">
         <f>'Sec 1 Data'!Q25</f>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -3759,7 +3936,7 @@
       </c>
       <c r="C24">
         <f>'Sec 1 Data'!Q26</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -3773,7 +3950,7 @@
       </c>
       <c r="C25">
         <f>'Sec 1 Data'!Q27</f>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -3787,7 +3964,7 @@
       </c>
       <c r="C26">
         <f>'Sec 1 Data'!Q28</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -3801,7 +3978,7 @@
       </c>
       <c r="C27">
         <f>'Sec 1 Data'!Q29</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -3815,7 +3992,7 @@
       </c>
       <c r="C28">
         <f>'Sec 1 Data'!Q30</f>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -3829,7 +4006,7 @@
       </c>
       <c r="C29">
         <f>'Sec 1 Data'!Q31</f>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -3843,7 +4020,7 @@
       </c>
       <c r="C30">
         <f>'Sec 1 Data'!Q32</f>
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -3857,7 +4034,7 @@
       </c>
       <c r="C31">
         <f>'Sec 1 Data'!Q33</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -3871,7 +4048,7 @@
       </c>
       <c r="C32">
         <f>'Sec 1 Data'!Q34</f>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -3885,7 +4062,7 @@
       </c>
       <c r="C33">
         <f>'Sec 1 Data'!Q35</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -3899,7 +4076,7 @@
       </c>
       <c r="C34">
         <f>'Sec 1 Data'!Q36</f>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -3913,7 +4090,7 @@
       </c>
       <c r="C35">
         <f>'Sec 1 Data'!Q37</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -3927,7 +4104,7 @@
       </c>
       <c r="C36">
         <f>'Sec 1 Data'!Q38</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -3941,7 +4118,7 @@
       </c>
       <c r="C37">
         <f>'Sec 1 Data'!Q39</f>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -4009,10 +4186,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848CF460-3EAC-4A7D-8560-52951FCF8A6B}">
   <dimension ref="A1:AL43"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="T17" sqref="T17"/>
-      <selection pane="topRight" activeCell="J12" sqref="J12"/>
+      <selection pane="topRight" activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4942,7 +5119,7 @@
       <c r="P15" s="14"/>
       <c r="Q15" s="15">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R15" s="15" t="str">
         <f t="shared" si="2"/>
@@ -4961,7 +5138,9 @@
         <v>2</v>
       </c>
       <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
+      <c r="X15" s="16">
+        <v>1</v>
+      </c>
       <c r="Y15" s="16"/>
       <c r="Z15" s="16"/>
       <c r="AA15" s="16"/>
@@ -5318,7 +5497,7 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="15">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R21" s="15" t="str">
         <f t="shared" si="2"/>
@@ -5337,7 +5516,9 @@
         <v>3</v>
       </c>
       <c r="W21" s="16"/>
-      <c r="X21" s="16"/>
+      <c r="X21" s="16">
+        <v>1</v>
+      </c>
       <c r="Y21" s="16"/>
       <c r="Z21" s="16"/>
       <c r="AA21" s="16"/>
@@ -5444,7 +5625,7 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="15">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R23" s="15" t="str">
         <f t="shared" si="2"/>
@@ -5463,7 +5644,9 @@
         <v>3</v>
       </c>
       <c r="W23" s="16"/>
-      <c r="X23" s="16"/>
+      <c r="X23" s="16">
+        <v>1</v>
+      </c>
       <c r="Y23" s="16"/>
       <c r="Z23" s="16"/>
       <c r="AA23" s="16"/>
@@ -6804,7 +6987,7 @@
       </c>
       <c r="C13">
         <f>'Sec 2 Data'!Q15</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -6888,7 +7071,7 @@
       </c>
       <c r="C19">
         <f>'Sec 2 Data'!Q21</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -6916,7 +7099,7 @@
       </c>
       <c r="C21">
         <f>'Sec 2 Data'!Q23</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngwen\Desktop\website\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0517BD3-72B4-4FB9-92FD-7A8551859438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E075206B-6AD1-429A-955C-59E52302A522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="91">
   <si>
     <t>Achievements</t>
   </si>
@@ -195,9 +195,6 @@
     <t>Jacinda</t>
   </si>
   <si>
-    <t>Shabib</t>
-  </si>
-  <si>
     <t>Ashley</t>
   </si>
   <si>
@@ -298,9 +295,6 @@
   </si>
   <si>
     <t>Andreas</t>
-  </si>
-  <si>
-    <t>STRIKE</t>
   </si>
   <si>
     <t>Nowhere to Hide</t>
@@ -853,36 +847,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM43"/>
+  <dimension ref="A1:AM42"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AO22" sqref="AO22"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AQ26" sqref="AQ26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="15.88671875" style="6" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" style="6" customWidth="1"/>
-    <col min="13" max="13" width="9.44140625" style="5" customWidth="1"/>
-    <col min="14" max="14" width="14.21875" style="7" customWidth="1"/>
-    <col min="15" max="15" width="19.21875" style="7" customWidth="1"/>
-    <col min="16" max="16" width="11.21875" style="7" customWidth="1"/>
-    <col min="17" max="17" width="9.6640625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="25.44140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.88671875" style="8" customWidth="1"/>
-    <col min="20" max="21" width="8.88671875" style="9" customWidth="1"/>
-    <col min="22" max="37" width="8.88671875" style="9"/>
+    <col min="2" max="2" width="10.6640625" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" style="4" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="4" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" style="4" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="4" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" style="6" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="6" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" style="6" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" style="6" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="14.21875" style="7" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="19.21875" style="7" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="11.21875" style="7" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" style="2" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="25.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88671875" style="8" hidden="1" customWidth="1"/>
+    <col min="20" max="22" width="8.88671875" style="9" hidden="1" customWidth="1"/>
+    <col min="23" max="37" width="8.88671875" style="9"/>
     <col min="38" max="38" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
@@ -956,7 +950,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>5</v>
@@ -1061,7 +1055,7 @@
         <v>20</v>
       </c>
       <c r="AM3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.3">
@@ -1078,11 +1072,11 @@
       <c r="I4" s="13"/>
       <c r="J4" s="13">
         <f>IF(COUNTIF(S4:AL4,"&gt;=3")&gt;=3,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="13">
         <f t="array" ref="K4">IF(MAX(FREQUENCY(IF(S4:AL4&gt;0,COLUMN(S4:AL4)),IF(S4:AL4&lt;=0,COLUMN(S4:AL4))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
@@ -1091,11 +1085,11 @@
       <c r="P4" s="14"/>
       <c r="Q4" s="15">
         <f>SUM(B4:G4)+3*SUM(H4:M4)+5*SUM(N4:P4)+SUM(S4:AM4)</f>
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="R4" s="15" t="str">
         <f>CONCATENATE("-",IF(B4=1,$B$3&amp;", ",""),IF(C4=1,$C$3&amp;", ",""),IF(D4=1,$D$3&amp;", ",""),IF(E4=1,$E$3&amp;", ",""),IF(F4=1,$F$3&amp;", ",""),IF(G4=1,$G$3&amp;", ",""),IF(H4=1,$H$3&amp;", ",""),IF(I4=1,$I$3&amp;", ",""),IF(J4=1,$J$3&amp;", ",""),IF(K4=1,$K$3&amp;", ",""),IF(L4=1,$L$3&amp;", ",""),IF(M4=1,$M$3&amp;", ",""),IF(N4=1,$N$3&amp;", ",""),IF(O4=1,$O$3&amp;", ",""),IF(P4=1,$P$3&amp;", ",""))</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="S4" s="16">
         <v>2</v>
@@ -1109,7 +1103,9 @@
       <c r="V4" s="16">
         <v>2</v>
       </c>
-      <c r="W4" s="16"/>
+      <c r="W4" s="16">
+        <v>3</v>
+      </c>
       <c r="X4" s="16"/>
       <c r="Y4" s="16"/>
       <c r="Z4" s="16"/>
@@ -1131,7 +1127,7 @@
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -1142,7 +1138,7 @@
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13">
-        <f t="shared" ref="J5:J39" si="0">IF(COUNTIF(S5:AL5,"&gt;=3")&gt;=3,1,0)</f>
+        <f t="shared" ref="J5:J38" si="0">IF(COUNTIF(S5:AL5,"&gt;=3")&gt;=3,1,0)</f>
         <v>0</v>
       </c>
       <c r="K5" s="13">
@@ -1155,11 +1151,11 @@
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="15">
-        <f t="shared" ref="Q5:Q43" si="1">SUM(B5:G5)+3*SUM(H5:M5)+5*SUM(N5:P5)+SUM(S5:AM5)</f>
-        <v>3</v>
+        <f t="shared" ref="Q5:Q42" si="1">SUM(B5:G5)+3*SUM(H5:M5)+5*SUM(N5:P5)+SUM(S5:AM5)</f>
+        <v>4</v>
       </c>
       <c r="R5" s="15" t="str">
-        <f t="shared" ref="R5:R43" si="2">CONCATENATE("-",IF(B5=1,$B$3&amp;", ",""),IF(C5=1,$C$3&amp;", ",""),IF(D5=1,$D$3&amp;", ",""),IF(E5=1,$E$3&amp;", ",""),IF(F5=1,$F$3&amp;", ",""),IF(G5=1,$G$3&amp;", ",""),IF(H5=1,$H$3&amp;", ",""),IF(I5=1,$I$3&amp;", ",""),IF(J5=1,$J$3&amp;", ",""),IF(K5=1,$K$3&amp;", ",""),IF(L5=1,$L$3&amp;", ",""),IF(M5=1,$M$3&amp;", ",""),IF(N5=1,$N$3&amp;", ",""),IF(O5=1,$O$3&amp;", ",""),IF(P5=1,$P$3&amp;", ",""))</f>
+        <f t="shared" ref="R5:R42" si="2">CONCATENATE("-",IF(B5=1,$B$3&amp;", ",""),IF(C5=1,$C$3&amp;", ",""),IF(D5=1,$D$3&amp;", ",""),IF(E5=1,$E$3&amp;", ",""),IF(F5=1,$F$3&amp;", ",""),IF(G5=1,$G$3&amp;", ",""),IF(H5=1,$H$3&amp;", ",""),IF(I5=1,$I$3&amp;", ",""),IF(J5=1,$J$3&amp;", ",""),IF(K5=1,$K$3&amp;", ",""),IF(L5=1,$L$3&amp;", ",""),IF(M5=1,$M$3&amp;", ",""),IF(N5=1,$N$3&amp;", ",""),IF(O5=1,$O$3&amp;", ",""),IF(P5=1,$P$3&amp;", ",""))</f>
         <v>-</v>
       </c>
       <c r="S5" s="16">
@@ -1171,8 +1167,12 @@
       <c r="U5" s="16">
         <v>0</v>
       </c>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
+      <c r="V5" s="16">
+        <v>0</v>
+      </c>
+      <c r="W5" s="16">
+        <v>1</v>
+      </c>
       <c r="X5" s="16"/>
       <c r="Y5" s="16"/>
       <c r="Z5" s="16"/>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K6" s="13">
         <f t="array" ref="K6">IF(MAX(FREQUENCY(IF(S6:AL6&gt;0,COLUMN(S6:AL6)),IF(S6:AL6&lt;=0,COLUMN(S6:AL6))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
@@ -1219,11 +1219,11 @@
       <c r="P6" s="14"/>
       <c r="Q6" s="15">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="R6" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Consistency Is Key, </v>
       </c>
       <c r="S6" s="16">
         <v>3</v>
@@ -1237,7 +1237,9 @@
       <c r="V6" s="16">
         <v>1</v>
       </c>
-      <c r="W6" s="16"/>
+      <c r="W6" s="16">
+        <v>2</v>
+      </c>
       <c r="X6" s="16"/>
       <c r="Y6" s="16"/>
       <c r="Z6" s="16"/>
@@ -1275,7 +1277,7 @@
       </c>
       <c r="K7" s="13">
         <f t="array" ref="K7">IF(MAX(FREQUENCY(IF(S7:AL7&gt;0,COLUMN(S7:AL7)),IF(S7:AL7&lt;=0,COLUMN(S7:AL7))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
@@ -1284,11 +1286,11 @@
       <c r="P7" s="14"/>
       <c r="Q7" s="15">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="R7" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Consistency Is Key, </v>
       </c>
       <c r="S7" s="16">
         <v>1</v>
@@ -1299,8 +1301,12 @@
       <c r="U7" s="16">
         <v>2</v>
       </c>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
+      <c r="V7" s="16">
+        <v>2</v>
+      </c>
+      <c r="W7" s="16">
+        <v>2</v>
+      </c>
       <c r="X7" s="16"/>
       <c r="Y7" s="16"/>
       <c r="Z7" s="16"/>
@@ -1338,7 +1344,7 @@
       </c>
       <c r="K8" s="13">
         <f t="array" ref="K8">IF(MAX(FREQUENCY(IF(S8:AL8&gt;0,COLUMN(S8:AL8)),IF(S8:AL8&lt;=0,COLUMN(S8:AL8))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
@@ -1347,11 +1353,11 @@
       <c r="P8" s="14"/>
       <c r="Q8" s="15">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="R8" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Consistency Is Key, </v>
       </c>
       <c r="S8" s="16">
         <v>3</v>
@@ -1365,7 +1371,9 @@
       <c r="V8" s="16">
         <v>2</v>
       </c>
-      <c r="W8" s="16"/>
+      <c r="W8" s="16">
+        <v>3</v>
+      </c>
       <c r="X8" s="16"/>
       <c r="Y8" s="16"/>
       <c r="Z8" s="16"/>
@@ -1403,7 +1411,7 @@
       </c>
       <c r="K9" s="13">
         <f t="array" ref="K9">IF(MAX(FREQUENCY(IF(S9:AL9&gt;0,COLUMN(S9:AL9)),IF(S9:AL9&lt;=0,COLUMN(S9:AL9))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
@@ -1412,11 +1420,11 @@
       <c r="P9" s="14"/>
       <c r="Q9" s="15">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="R9" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <v xml:space="preserve">-Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="S9" s="16">
         <v>3</v>
@@ -1430,7 +1438,9 @@
       <c r="V9" s="16">
         <v>3</v>
       </c>
-      <c r="W9" s="16"/>
+      <c r="W9" s="16">
+        <v>3</v>
+      </c>
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
       <c r="Z9" s="16"/>
@@ -1468,7 +1478,7 @@
       </c>
       <c r="K10" s="13">
         <f t="array" ref="K10">IF(MAX(FREQUENCY(IF(S10:AL10&gt;0,COLUMN(S10:AL10)),IF(S10:AL10&lt;=0,COLUMN(S10:AL10))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
@@ -1477,11 +1487,11 @@
       <c r="P10" s="14"/>
       <c r="Q10" s="15">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="R10" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <v xml:space="preserve">-Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="S10" s="16">
         <v>3</v>
@@ -1495,7 +1505,9 @@
       <c r="V10" s="16">
         <v>2</v>
       </c>
-      <c r="W10" s="16"/>
+      <c r="W10" s="16">
+        <v>3</v>
+      </c>
       <c r="X10" s="16"/>
       <c r="Y10" s="16"/>
       <c r="Z10" s="16"/>
@@ -1533,7 +1545,7 @@
       </c>
       <c r="K11" s="13">
         <f t="array" ref="K11">IF(MAX(FREQUENCY(IF(S11:AL11&gt;0,COLUMN(S11:AL11)),IF(S11:AL11&lt;=0,COLUMN(S11:AL11))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
@@ -1542,11 +1554,11 @@
       <c r="P11" s="14"/>
       <c r="Q11" s="15">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="R11" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Consistency Is Key, </v>
       </c>
       <c r="S11" s="16">
         <v>1</v>
@@ -1560,7 +1572,9 @@
       <c r="V11" s="16">
         <v>2</v>
       </c>
-      <c r="W11" s="16"/>
+      <c r="W11" s="16">
+        <v>3</v>
+      </c>
       <c r="X11" s="16"/>
       <c r="Y11" s="16"/>
       <c r="Z11" s="16"/>
@@ -1598,7 +1612,7 @@
       </c>
       <c r="K12" s="13">
         <f t="array" ref="K12">IF(MAX(FREQUENCY(IF(S12:AL12&gt;0,COLUMN(S12:AL12)),IF(S12:AL12&lt;=0,COLUMN(S12:AL12))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
@@ -1607,11 +1621,11 @@
       <c r="P12" s="14"/>
       <c r="Q12" s="15">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="R12" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Consistency Is Key, </v>
       </c>
       <c r="S12" s="16">
         <v>2</v>
@@ -1625,7 +1639,9 @@
       <c r="V12" s="16">
         <v>2</v>
       </c>
-      <c r="W12" s="16"/>
+      <c r="W12" s="16">
+        <v>2</v>
+      </c>
       <c r="X12" s="16"/>
       <c r="Y12" s="16"/>
       <c r="Z12" s="16"/>
@@ -1665,7 +1681,7 @@
       </c>
       <c r="K13" s="13">
         <f t="array" ref="K13">IF(MAX(FREQUENCY(IF(S13:AL13&gt;0,COLUMN(S13:AL13)),IF(S13:AL13&lt;=0,COLUMN(S13:AL13))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
@@ -1674,11 +1690,11 @@
       <c r="P13" s="14"/>
       <c r="Q13" s="15">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="R13" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Full Combo, </v>
+        <v xml:space="preserve">-Full Combo, Consistency Is Key, </v>
       </c>
       <c r="S13" s="16">
         <v>2</v>
@@ -1692,7 +1708,9 @@
       <c r="V13" s="16">
         <v>2</v>
       </c>
-      <c r="W13" s="16"/>
+      <c r="W13" s="16">
+        <v>2</v>
+      </c>
       <c r="X13" s="16"/>
       <c r="Y13" s="16"/>
       <c r="Z13" s="16"/>
@@ -1730,7 +1748,7 @@
       </c>
       <c r="K14" s="13">
         <f t="array" ref="K14">IF(MAX(FREQUENCY(IF(S14:AL14&gt;0,COLUMN(S14:AL14)),IF(S14:AL14&lt;=0,COLUMN(S14:AL14))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
@@ -1739,11 +1757,11 @@
       <c r="P14" s="14"/>
       <c r="Q14" s="15">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="R14" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <v xml:space="preserve">-Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="S14" s="16">
         <v>3</v>
@@ -1757,7 +1775,9 @@
       <c r="V14" s="16">
         <v>3</v>
       </c>
-      <c r="W14" s="16"/>
+      <c r="W14" s="16">
+        <v>3</v>
+      </c>
       <c r="X14" s="16"/>
       <c r="Y14" s="16"/>
       <c r="Z14" s="16"/>
@@ -1774,7 +1794,7 @@
       <c r="AK14" s="16"/>
       <c r="AL14" s="16"/>
       <c r="AM14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.3">
@@ -1822,7 +1842,9 @@
       <c r="V15" s="16">
         <v>3</v>
       </c>
-      <c r="W15" s="16"/>
+      <c r="W15" s="16">
+        <v>0</v>
+      </c>
       <c r="X15" s="16"/>
       <c r="Y15" s="16"/>
       <c r="Z15" s="16"/>
@@ -1860,7 +1882,7 @@
       </c>
       <c r="K16" s="13">
         <f t="array" ref="K16">IF(MAX(FREQUENCY(IF(S16:AL16&gt;0,COLUMN(S16:AL16)),IF(S16:AL16&lt;=0,COLUMN(S16:AL16))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
@@ -1869,11 +1891,11 @@
       <c r="P16" s="14"/>
       <c r="Q16" s="15">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="R16" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Consistency Is Key, </v>
       </c>
       <c r="S16" s="16">
         <v>2</v>
@@ -1887,7 +1909,9 @@
       <c r="V16" s="16">
         <v>2</v>
       </c>
-      <c r="W16" s="16"/>
+      <c r="W16" s="16">
+        <v>3</v>
+      </c>
       <c r="X16" s="16"/>
       <c r="Y16" s="16"/>
       <c r="Z16" s="16"/>
@@ -1925,7 +1949,7 @@
       </c>
       <c r="K17" s="13">
         <f t="array" ref="K17">IF(MAX(FREQUENCY(IF(S17:AL17&gt;0,COLUMN(S17:AL17)),IF(S17:AL17&lt;=0,COLUMN(S17:AL17))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
@@ -1934,11 +1958,11 @@
       <c r="P17" s="14"/>
       <c r="Q17" s="15">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R17" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <v xml:space="preserve">-Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="S17" s="16">
         <v>2</v>
@@ -1952,7 +1976,9 @@
       <c r="V17" s="16">
         <v>3</v>
       </c>
-      <c r="W17" s="16"/>
+      <c r="W17" s="16">
+        <v>2</v>
+      </c>
       <c r="X17" s="16"/>
       <c r="Y17" s="16"/>
       <c r="Z17" s="16"/>
@@ -1990,7 +2016,7 @@
       </c>
       <c r="K18" s="13">
         <f t="array" ref="K18">IF(MAX(FREQUENCY(IF(S18:AL18&gt;0,COLUMN(S18:AL18)),IF(S18:AL18&lt;=0,COLUMN(S18:AL18))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
@@ -1999,11 +2025,11 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="15">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="R18" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Consistency Is Key, </v>
       </c>
       <c r="S18" s="16">
         <v>2</v>
@@ -2017,7 +2043,9 @@
       <c r="V18" s="16">
         <v>2</v>
       </c>
-      <c r="W18" s="16"/>
+      <c r="W18" s="16">
+        <v>3</v>
+      </c>
       <c r="X18" s="16"/>
       <c r="Y18" s="16"/>
       <c r="Z18" s="16"/>
@@ -2057,7 +2085,7 @@
       </c>
       <c r="K19" s="13">
         <f t="array" ref="K19">IF(MAX(FREQUENCY(IF(S19:AL19&gt;0,COLUMN(S19:AL19)),IF(S19:AL19&lt;=0,COLUMN(S19:AL19))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
@@ -2066,11 +2094,11 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="15">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="R19" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Full Combo, Three-Star Wonder, </v>
+        <v xml:space="preserve">-Full Combo, Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="S19" s="16">
         <v>3</v>
@@ -2084,7 +2112,9 @@
       <c r="V19" s="16">
         <v>3</v>
       </c>
-      <c r="W19" s="16"/>
+      <c r="W19" s="16">
+        <v>3</v>
+      </c>
       <c r="X19" s="16"/>
       <c r="Y19" s="16"/>
       <c r="Z19" s="16"/>
@@ -2120,11 +2150,11 @@
       <c r="I20" s="13"/>
       <c r="J20" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="13">
         <f t="array" ref="K20">IF(MAX(FREQUENCY(IF(S20:AL20&gt;0,COLUMN(S20:AL20)),IF(S20:AL20&lt;=0,COLUMN(S20:AL20))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
@@ -2133,11 +2163,11 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="15">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="R20" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Full Combo, </v>
+        <v xml:space="preserve">-Full Combo, Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="S20" s="16">
         <v>3</v>
@@ -2151,7 +2181,9 @@
       <c r="V20" s="16">
         <v>2</v>
       </c>
-      <c r="W20" s="16"/>
+      <c r="W20" s="16">
+        <v>3</v>
+      </c>
       <c r="X20" s="16"/>
       <c r="Y20" s="16"/>
       <c r="Z20" s="16"/>
@@ -2185,11 +2217,11 @@
       <c r="I21" s="13"/>
       <c r="J21" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="13">
         <f t="array" ref="K21">IF(MAX(FREQUENCY(IF(S21:AL21&gt;0,COLUMN(S21:AL21)),IF(S21:AL21&lt;=0,COLUMN(S21:AL21))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
@@ -2198,11 +2230,11 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="15">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="R21" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="S21" s="16">
         <v>3</v>
@@ -2216,7 +2248,9 @@
       <c r="V21" s="16">
         <v>2</v>
       </c>
-      <c r="W21" s="16"/>
+      <c r="W21" s="16">
+        <v>3</v>
+      </c>
       <c r="X21" s="16"/>
       <c r="Y21" s="16"/>
       <c r="Z21" s="16"/>
@@ -2250,11 +2284,11 @@
       <c r="I22" s="13"/>
       <c r="J22" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="13">
         <f t="array" ref="K22">IF(MAX(FREQUENCY(IF(S22:AL22&gt;0,COLUMN(S22:AL22)),IF(S22:AL22&lt;=0,COLUMN(S22:AL22))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
@@ -2263,11 +2297,11 @@
       <c r="P22" s="14"/>
       <c r="Q22" s="15">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="R22" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="S22" s="16">
         <v>2</v>
@@ -2281,7 +2315,9 @@
       <c r="V22" s="16">
         <v>2</v>
       </c>
-      <c r="W22" s="16"/>
+      <c r="W22" s="16">
+        <v>3</v>
+      </c>
       <c r="X22" s="16"/>
       <c r="Y22" s="16"/>
       <c r="Z22" s="16"/>
@@ -2319,7 +2355,7 @@
       </c>
       <c r="K23" s="13">
         <f t="array" ref="K23">IF(MAX(FREQUENCY(IF(S23:AL23&gt;0,COLUMN(S23:AL23)),IF(S23:AL23&lt;=0,COLUMN(S23:AL23))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
@@ -2328,11 +2364,11 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="15">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="R23" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Consistency Is Key, </v>
       </c>
       <c r="S23" s="16">
         <v>2</v>
@@ -2346,7 +2382,9 @@
       <c r="V23" s="16">
         <v>2</v>
       </c>
-      <c r="W23" s="16"/>
+      <c r="W23" s="16">
+        <v>3</v>
+      </c>
       <c r="X23" s="16"/>
       <c r="Y23" s="16"/>
       <c r="Z23" s="16"/>
@@ -2380,7 +2418,7 @@
       <c r="I24" s="13"/>
       <c r="J24" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="13">
         <f t="array" ref="K24">IF(MAX(FREQUENCY(IF(S24:AL24&gt;0,COLUMN(S24:AL24)),IF(S24:AL24&lt;=0,COLUMN(S24:AL24))))&gt;4,1,0)</f>
@@ -2393,11 +2431,11 @@
       <c r="P24" s="14"/>
       <c r="Q24" s="15">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="R24" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="S24" s="16">
         <v>3</v>
@@ -2411,7 +2449,9 @@
       <c r="V24" s="16">
         <v>2</v>
       </c>
-      <c r="W24" s="16"/>
+      <c r="W24" s="16">
+        <v>3</v>
+      </c>
       <c r="X24" s="16"/>
       <c r="Y24" s="16"/>
       <c r="Z24" s="16"/>
@@ -2449,7 +2489,7 @@
       </c>
       <c r="K25" s="13">
         <f t="array" ref="K25">IF(MAX(FREQUENCY(IF(S25:AL25&gt;0,COLUMN(S25:AL25)),IF(S25:AL25&lt;=0,COLUMN(S25:AL25))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="13"/>
       <c r="M25" s="13"/>
@@ -2458,11 +2498,11 @@
       <c r="P25" s="14"/>
       <c r="Q25" s="15">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="R25" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <v xml:space="preserve">-Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="S25" s="16">
         <v>3</v>
@@ -2476,7 +2516,9 @@
       <c r="V25" s="16">
         <v>2</v>
       </c>
-      <c r="W25" s="16"/>
+      <c r="W25" s="16">
+        <v>3</v>
+      </c>
       <c r="X25" s="16"/>
       <c r="Y25" s="16"/>
       <c r="Z25" s="16"/>
@@ -2493,7 +2535,7 @@
       <c r="AK25" s="16"/>
       <c r="AL25" s="16"/>
       <c r="AM25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.3">
@@ -2510,7 +2552,7 @@
       <c r="I26" s="13"/>
       <c r="J26" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="13">
         <f t="array" ref="K26">IF(MAX(FREQUENCY(IF(S26:AL26&gt;0,COLUMN(S26:AL26)),IF(S26:AL26&lt;=0,COLUMN(S26:AL26))))&gt;4,1,0)</f>
@@ -2523,11 +2565,11 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="15">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="R26" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="S26" s="16">
         <v>3</v>
@@ -2538,8 +2580,12 @@
       <c r="U26" s="16">
         <v>3</v>
       </c>
-      <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
+      <c r="V26" s="16">
+        <v>0</v>
+      </c>
+      <c r="W26" s="16">
+        <v>3</v>
+      </c>
       <c r="X26" s="16"/>
       <c r="Y26" s="16"/>
       <c r="Z26" s="16"/>
@@ -2577,7 +2623,7 @@
       </c>
       <c r="K27" s="13">
         <f t="array" ref="K27">IF(MAX(FREQUENCY(IF(S27:AL27&gt;0,COLUMN(S27:AL27)),IF(S27:AL27&lt;=0,COLUMN(S27:AL27))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
@@ -2586,11 +2632,11 @@
       <c r="P27" s="14"/>
       <c r="Q27" s="15">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="R27" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Consistency Is Key, </v>
       </c>
       <c r="S27" s="16">
         <v>2</v>
@@ -2604,7 +2650,9 @@
       <c r="V27" s="16">
         <v>2</v>
       </c>
-      <c r="W27" s="16"/>
+      <c r="W27" s="16">
+        <v>3</v>
+      </c>
       <c r="X27" s="16"/>
       <c r="Y27" s="16"/>
       <c r="Z27" s="16"/>
@@ -2621,7 +2669,7 @@
       <c r="AK27" s="16"/>
       <c r="AL27" s="16"/>
       <c r="AM27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.3">
@@ -2642,7 +2690,7 @@
       </c>
       <c r="K28" s="13">
         <f t="array" ref="K28">IF(MAX(FREQUENCY(IF(S28:AL28&gt;0,COLUMN(S28:AL28)),IF(S28:AL28&lt;=0,COLUMN(S28:AL28))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
@@ -2651,11 +2699,11 @@
       <c r="P28" s="14"/>
       <c r="Q28" s="15">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="R28" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Consistency Is Key, </v>
       </c>
       <c r="S28" s="16">
         <v>2</v>
@@ -2669,7 +2717,9 @@
       <c r="V28" s="16">
         <v>1</v>
       </c>
-      <c r="W28" s="16"/>
+      <c r="W28" s="16">
+        <v>3</v>
+      </c>
       <c r="X28" s="16"/>
       <c r="Y28" s="16"/>
       <c r="Z28" s="16"/>
@@ -2716,7 +2766,7 @@
       <c r="P29" s="14"/>
       <c r="Q29" s="15">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R29" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2734,7 +2784,9 @@
       <c r="V29" s="16">
         <v>2</v>
       </c>
-      <c r="W29" s="16"/>
+      <c r="W29" s="16">
+        <v>2</v>
+      </c>
       <c r="X29" s="16"/>
       <c r="Y29" s="16"/>
       <c r="Z29" s="16"/>
@@ -2781,7 +2833,7 @@
       <c r="P30" s="14"/>
       <c r="Q30" s="15">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="R30" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2799,7 +2851,9 @@
       <c r="V30" s="16">
         <v>2</v>
       </c>
-      <c r="W30" s="16"/>
+      <c r="W30" s="16">
+        <v>3</v>
+      </c>
       <c r="X30" s="16"/>
       <c r="Y30" s="16"/>
       <c r="Z30" s="16"/>
@@ -2837,7 +2891,7 @@
       </c>
       <c r="K31" s="13">
         <f t="array" ref="K31">IF(MAX(FREQUENCY(IF(S31:AL31&gt;0,COLUMN(S31:AL31)),IF(S31:AL31&lt;=0,COLUMN(S31:AL31))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" s="13"/>
       <c r="M31" s="13"/>
@@ -2846,11 +2900,11 @@
       <c r="P31" s="14"/>
       <c r="Q31" s="15">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="R31" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <v xml:space="preserve">-Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="S31" s="16">
         <v>3</v>
@@ -2864,7 +2918,9 @@
       <c r="V31" s="16">
         <v>2</v>
       </c>
-      <c r="W31" s="16"/>
+      <c r="W31" s="16">
+        <v>3</v>
+      </c>
       <c r="X31" s="16"/>
       <c r="Y31" s="16"/>
       <c r="Z31" s="16"/>
@@ -2904,7 +2960,7 @@
       </c>
       <c r="K32" s="13">
         <f t="array" ref="K32">IF(MAX(FREQUENCY(IF(S32:AL32&gt;0,COLUMN(S32:AL32)),IF(S32:AL32&lt;=0,COLUMN(S32:AL32))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
@@ -2913,11 +2969,11 @@
       <c r="P32" s="14"/>
       <c r="Q32" s="15">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R32" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Math Ambassador, Three-Star Wonder, </v>
+        <v xml:space="preserve">-Math Ambassador, Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="S32" s="16">
         <v>3</v>
@@ -2931,7 +2987,9 @@
       <c r="V32" s="16">
         <v>3</v>
       </c>
-      <c r="W32" s="16"/>
+      <c r="W32" s="16">
+        <v>3</v>
+      </c>
       <c r="X32" s="16"/>
       <c r="Y32" s="16"/>
       <c r="Z32" s="16"/>
@@ -2969,7 +3027,7 @@
       </c>
       <c r="K33" s="13">
         <f t="array" ref="K33">IF(MAX(FREQUENCY(IF(S33:AL33&gt;0,COLUMN(S33:AL33)),IF(S33:AL33&lt;=0,COLUMN(S33:AL33))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
@@ -2978,11 +3036,11 @@
       <c r="P33" s="14"/>
       <c r="Q33" s="15">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="R33" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Consistency Is Key, </v>
       </c>
       <c r="S33" s="16">
         <v>1</v>
@@ -2993,8 +3051,12 @@
       <c r="U33" s="16">
         <v>2</v>
       </c>
-      <c r="V33" s="16"/>
-      <c r="W33" s="16"/>
+      <c r="V33" s="16">
+        <v>1</v>
+      </c>
+      <c r="W33" s="16">
+        <v>2</v>
+      </c>
       <c r="X33" s="16"/>
       <c r="Y33" s="16"/>
       <c r="Z33" s="16"/>
@@ -3041,7 +3103,7 @@
       <c r="P34" s="14"/>
       <c r="Q34" s="15">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="R34" s="15" t="str">
         <f t="shared" si="2"/>
@@ -3059,7 +3121,9 @@
       <c r="V34" s="16">
         <v>2</v>
       </c>
-      <c r="W34" s="16"/>
+      <c r="W34" s="16">
+        <v>3</v>
+      </c>
       <c r="X34" s="16"/>
       <c r="Y34" s="16"/>
       <c r="Z34" s="16"/>
@@ -3097,7 +3161,7 @@
       </c>
       <c r="K35" s="13">
         <f t="array" ref="K35">IF(MAX(FREQUENCY(IF(S35:AL35&gt;0,COLUMN(S35:AL35)),IF(S35:AL35&lt;=0,COLUMN(S35:AL35))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="13"/>
       <c r="M35" s="13"/>
@@ -3106,11 +3170,11 @@
       <c r="P35" s="14"/>
       <c r="Q35" s="15">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R35" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Consistency Is Key, </v>
       </c>
       <c r="S35" s="16">
         <v>2</v>
@@ -3124,7 +3188,9 @@
       <c r="V35" s="16">
         <v>1</v>
       </c>
-      <c r="W35" s="16"/>
+      <c r="W35" s="16">
+        <v>1</v>
+      </c>
       <c r="X35" s="16"/>
       <c r="Y35" s="16"/>
       <c r="Z35" s="16"/>
@@ -3162,7 +3228,7 @@
       </c>
       <c r="K36" s="13">
         <f t="array" ref="K36">IF(MAX(FREQUENCY(IF(S36:AL36&gt;0,COLUMN(S36:AL36)),IF(S36:AL36&lt;=0,COLUMN(S36:AL36))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="13"/>
       <c r="M36" s="13"/>
@@ -3171,11 +3237,11 @@
       <c r="P36" s="14"/>
       <c r="Q36" s="15">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="R36" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Consistency Is Key, </v>
       </c>
       <c r="S36" s="16">
         <v>2</v>
@@ -3189,7 +3255,9 @@
       <c r="V36" s="16">
         <v>2</v>
       </c>
-      <c r="W36" s="16"/>
+      <c r="W36" s="16">
+        <v>2</v>
+      </c>
       <c r="X36" s="16"/>
       <c r="Y36" s="16"/>
       <c r="Z36" s="16"/>
@@ -3227,7 +3295,7 @@
       </c>
       <c r="K37" s="13">
         <f t="array" ref="K37">IF(MAX(FREQUENCY(IF(S37:AL37&gt;0,COLUMN(S37:AL37)),IF(S37:AL37&lt;=0,COLUMN(S37:AL37))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" s="13"/>
       <c r="M37" s="13"/>
@@ -3236,19 +3304,27 @@
       <c r="P37" s="14"/>
       <c r="Q37" s="15">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="R37" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Consistency Is Key, </v>
       </c>
       <c r="S37" s="16">
-        <v>3</v>
-      </c>
-      <c r="T37" s="16"/>
-      <c r="U37" s="16"/>
-      <c r="V37" s="16"/>
-      <c r="W37" s="16"/>
+        <v>1</v>
+      </c>
+      <c r="T37" s="16">
+        <v>1</v>
+      </c>
+      <c r="U37" s="16">
+        <v>2</v>
+      </c>
+      <c r="V37" s="16">
+        <v>1</v>
+      </c>
+      <c r="W37" s="16">
+        <v>2</v>
+      </c>
       <c r="X37" s="16"/>
       <c r="Y37" s="16"/>
       <c r="Z37" s="16"/>
@@ -3286,7 +3362,7 @@
       </c>
       <c r="K38" s="13">
         <f t="array" ref="K38">IF(MAX(FREQUENCY(IF(S38:AL38&gt;0,COLUMN(S38:AL38)),IF(S38:AL38&lt;=0,COLUMN(S38:AL38))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" s="13"/>
       <c r="M38" s="13"/>
@@ -3295,14 +3371,14 @@
       <c r="P38" s="14"/>
       <c r="Q38" s="15">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="R38" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Consistency Is Key, </v>
       </c>
       <c r="S38" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T38" s="16">
         <v>1</v>
@@ -3311,9 +3387,11 @@
         <v>2</v>
       </c>
       <c r="V38" s="16">
-        <v>1</v>
-      </c>
-      <c r="W38" s="16"/>
+        <v>2</v>
+      </c>
+      <c r="W38" s="16">
+        <v>3</v>
+      </c>
       <c r="X38" s="16"/>
       <c r="Y38" s="16"/>
       <c r="Z38" s="16"/>
@@ -3334,9 +3412,7 @@
       </c>
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
-        <v>57</v>
-      </c>
+      <c r="A39" s="11"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
@@ -3345,14 +3421,8 @@
       <c r="G39" s="12"/>
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
-      <c r="J39" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="13">
-        <f t="array" ref="K39">IF(MAX(FREQUENCY(IF(S39:AL39&gt;0,COLUMN(S39:AL39)),IF(S39:AL39&lt;=0,COLUMN(S39:AL39))))&gt;4,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
       <c r="L39" s="13"/>
       <c r="M39" s="13"/>
       <c r="N39" s="14"/>
@@ -3360,24 +3430,16 @@
       <c r="P39" s="14"/>
       <c r="Q39" s="15">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="R39" s="15" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="S39" s="16">
-        <v>3</v>
-      </c>
-      <c r="T39" s="16">
-        <v>1</v>
-      </c>
-      <c r="U39" s="16">
-        <v>2</v>
-      </c>
-      <c r="V39" s="16">
-        <v>2</v>
-      </c>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
       <c r="W39" s="16"/>
       <c r="X39" s="16"/>
       <c r="Y39" s="16"/>
@@ -3394,9 +3456,6 @@
       <c r="AJ39" s="16"/>
       <c r="AK39" s="16"/>
       <c r="AL39" s="16"/>
-      <c r="AM39">
-        <v>1</v>
-      </c>
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
@@ -3536,52 +3595,6 @@
       <c r="AK42" s="16"/>
       <c r="AL42" s="16"/>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A43" s="11"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R43" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="S43" s="16"/>
-      <c r="T43" s="16"/>
-      <c r="U43" s="16"/>
-      <c r="V43" s="16"/>
-      <c r="W43" s="16"/>
-      <c r="X43" s="16"/>
-      <c r="Y43" s="16"/>
-      <c r="Z43" s="16"/>
-      <c r="AA43" s="16"/>
-      <c r="AB43" s="16"/>
-      <c r="AC43" s="16"/>
-      <c r="AD43" s="16"/>
-      <c r="AE43" s="16"/>
-      <c r="AF43" s="16"/>
-      <c r="AG43" s="16"/>
-      <c r="AH43" s="16"/>
-      <c r="AI43" s="16"/>
-      <c r="AJ43" s="16"/>
-      <c r="AK43" s="16"/>
-      <c r="AL43" s="16"/>
-    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="N1:P1"/>
@@ -3598,17 +3611,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10534E12-96AC-44F1-9431-EFE9F0397466}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3624,11 +3637,11 @@
       </c>
       <c r="B2" t="str">
         <f>'Sec 1 Data'!R4</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="C2">
         <f>'Sec 1 Data'!Q4</f>
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3642,7 +3655,7 @@
       </c>
       <c r="C3">
         <f>'Sec 1 Data'!Q5</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3652,11 +3665,11 @@
       </c>
       <c r="B4" t="str">
         <f>'Sec 1 Data'!R6</f>
-        <v>-</v>
+        <v xml:space="preserve">-Consistency Is Key, </v>
       </c>
       <c r="C4">
         <f>'Sec 1 Data'!Q6</f>
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3666,11 +3679,11 @@
       </c>
       <c r="B5" t="str">
         <f>'Sec 1 Data'!R7</f>
-        <v>-</v>
+        <v xml:space="preserve">-Consistency Is Key, </v>
       </c>
       <c r="C5">
         <f>'Sec 1 Data'!Q7</f>
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3680,11 +3693,11 @@
       </c>
       <c r="B6" t="str">
         <f>'Sec 1 Data'!R8</f>
-        <v>-</v>
+        <v xml:space="preserve">-Consistency Is Key, </v>
       </c>
       <c r="C6">
         <f>'Sec 1 Data'!Q8</f>
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -3694,11 +3707,11 @@
       </c>
       <c r="B7" t="str">
         <f>'Sec 1 Data'!R9</f>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <v xml:space="preserve">-Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="C7">
         <f>'Sec 1 Data'!Q9</f>
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3708,11 +3721,11 @@
       </c>
       <c r="B8" t="str">
         <f>'Sec 1 Data'!R10</f>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <v xml:space="preserve">-Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="C8">
         <f>'Sec 1 Data'!Q10</f>
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -3722,11 +3735,11 @@
       </c>
       <c r="B9" t="str">
         <f>'Sec 1 Data'!R11</f>
-        <v>-</v>
+        <v xml:space="preserve">-Consistency Is Key, </v>
       </c>
       <c r="C9">
         <f>'Sec 1 Data'!Q11</f>
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -3736,11 +3749,11 @@
       </c>
       <c r="B10" t="str">
         <f>'Sec 1 Data'!R12</f>
-        <v>-</v>
+        <v xml:space="preserve">-Consistency Is Key, </v>
       </c>
       <c r="C10">
         <f>'Sec 1 Data'!Q12</f>
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -3750,11 +3763,11 @@
       </c>
       <c r="B11" t="str">
         <f>'Sec 1 Data'!R13</f>
-        <v xml:space="preserve">-Full Combo, </v>
+        <v xml:space="preserve">-Full Combo, Consistency Is Key, </v>
       </c>
       <c r="C11">
         <f>'Sec 1 Data'!Q13</f>
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -3764,11 +3777,11 @@
       </c>
       <c r="B12" t="str">
         <f>'Sec 1 Data'!R14</f>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <v xml:space="preserve">-Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="C12">
         <f>'Sec 1 Data'!Q14</f>
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -3792,11 +3805,11 @@
       </c>
       <c r="B14" t="str">
         <f>'Sec 1 Data'!R16</f>
-        <v>-</v>
+        <v xml:space="preserve">-Consistency Is Key, </v>
       </c>
       <c r="C14">
         <f>'Sec 1 Data'!Q16</f>
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -3806,11 +3819,11 @@
       </c>
       <c r="B15" t="str">
         <f>'Sec 1 Data'!R17</f>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <v xml:space="preserve">-Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="C15">
         <f>'Sec 1 Data'!Q17</f>
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -3820,11 +3833,11 @@
       </c>
       <c r="B16" t="str">
         <f>'Sec 1 Data'!R18</f>
-        <v>-</v>
+        <v xml:space="preserve">-Consistency Is Key, </v>
       </c>
       <c r="C16">
         <f>'Sec 1 Data'!Q18</f>
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -3834,11 +3847,11 @@
       </c>
       <c r="B17" t="str">
         <f>'Sec 1 Data'!R19</f>
-        <v xml:space="preserve">-Full Combo, Three-Star Wonder, </v>
+        <v xml:space="preserve">-Full Combo, Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="C17">
         <f>'Sec 1 Data'!Q19</f>
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -3848,11 +3861,11 @@
       </c>
       <c r="B18" t="str">
         <f>'Sec 1 Data'!R20</f>
-        <v xml:space="preserve">-Full Combo, </v>
+        <v xml:space="preserve">-Full Combo, Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="C18">
         <f>'Sec 1 Data'!Q20</f>
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -3862,11 +3875,11 @@
       </c>
       <c r="B19" t="str">
         <f>'Sec 1 Data'!R21</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="C19">
         <f>'Sec 1 Data'!Q21</f>
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -3876,11 +3889,11 @@
       </c>
       <c r="B20" t="str">
         <f>'Sec 1 Data'!R22</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="C20">
         <f>'Sec 1 Data'!Q22</f>
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -3890,11 +3903,11 @@
       </c>
       <c r="B21" t="str">
         <f>'Sec 1 Data'!R23</f>
-        <v>-</v>
+        <v xml:space="preserve">-Consistency Is Key, </v>
       </c>
       <c r="C21">
         <f>'Sec 1 Data'!Q23</f>
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -3904,11 +3917,11 @@
       </c>
       <c r="B22" t="str">
         <f>'Sec 1 Data'!R24</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C22">
         <f>'Sec 1 Data'!Q24</f>
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -3918,11 +3931,11 @@
       </c>
       <c r="B23" t="str">
         <f>'Sec 1 Data'!R25</f>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <v xml:space="preserve">-Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="C23">
         <f>'Sec 1 Data'!Q25</f>
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -3932,11 +3945,11 @@
       </c>
       <c r="B24" t="str">
         <f>'Sec 1 Data'!R26</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C24">
         <f>'Sec 1 Data'!Q26</f>
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -3946,11 +3959,11 @@
       </c>
       <c r="B25" t="str">
         <f>'Sec 1 Data'!R27</f>
-        <v>-</v>
+        <v xml:space="preserve">-Consistency Is Key, </v>
       </c>
       <c r="C25">
         <f>'Sec 1 Data'!Q27</f>
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -3960,11 +3973,11 @@
       </c>
       <c r="B26" t="str">
         <f>'Sec 1 Data'!R28</f>
-        <v>-</v>
+        <v xml:space="preserve">-Consistency Is Key, </v>
       </c>
       <c r="C26">
         <f>'Sec 1 Data'!Q28</f>
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -3978,7 +3991,7 @@
       </c>
       <c r="C27">
         <f>'Sec 1 Data'!Q29</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -3992,7 +4005,7 @@
       </c>
       <c r="C28">
         <f>'Sec 1 Data'!Q30</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -4002,11 +4015,11 @@
       </c>
       <c r="B29" t="str">
         <f>'Sec 1 Data'!R31</f>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <v xml:space="preserve">-Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="C29">
         <f>'Sec 1 Data'!Q31</f>
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -4016,11 +4029,11 @@
       </c>
       <c r="B30" t="str">
         <f>'Sec 1 Data'!R32</f>
-        <v xml:space="preserve">-Math Ambassador, Three-Star Wonder, </v>
+        <v xml:space="preserve">-Math Ambassador, Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="C30">
         <f>'Sec 1 Data'!Q32</f>
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -4030,11 +4043,11 @@
       </c>
       <c r="B31" t="str">
         <f>'Sec 1 Data'!R33</f>
-        <v>-</v>
+        <v xml:space="preserve">-Consistency Is Key, </v>
       </c>
       <c r="C31">
         <f>'Sec 1 Data'!Q33</f>
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -4048,7 +4061,7 @@
       </c>
       <c r="C32">
         <f>'Sec 1 Data'!Q34</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -4058,11 +4071,11 @@
       </c>
       <c r="B33" t="str">
         <f>'Sec 1 Data'!R35</f>
-        <v>-</v>
+        <v xml:space="preserve">-Consistency Is Key, </v>
       </c>
       <c r="C33">
         <f>'Sec 1 Data'!Q35</f>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -4072,45 +4085,45 @@
       </c>
       <c r="B34" t="str">
         <f>'Sec 1 Data'!R36</f>
-        <v>-</v>
+        <v xml:space="preserve">-Consistency Is Key, </v>
       </c>
       <c r="C34">
         <f>'Sec 1 Data'!Q36</f>
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f>'Sec 1 Data'!A37</f>
-        <v>Shabib</v>
+        <v>Ashley</v>
       </c>
       <c r="B35" t="str">
         <f>'Sec 1 Data'!R37</f>
-        <v>-</v>
+        <v xml:space="preserve">-Consistency Is Key, </v>
       </c>
       <c r="C35">
         <f>'Sec 1 Data'!Q37</f>
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f>'Sec 1 Data'!A38</f>
-        <v>Ashley</v>
+        <v>Taven</v>
       </c>
       <c r="B36" t="str">
         <f>'Sec 1 Data'!R38</f>
-        <v>-</v>
+        <v xml:space="preserve">-Consistency Is Key, </v>
       </c>
       <c r="C36">
         <f>'Sec 1 Data'!Q38</f>
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="str">
+      <c r="A37">
         <f>'Sec 1 Data'!A39</f>
-        <v>Taven</v>
+        <v>0</v>
       </c>
       <c r="B37" t="str">
         <f>'Sec 1 Data'!R39</f>
@@ -4118,7 +4131,7 @@
       </c>
       <c r="C37">
         <f>'Sec 1 Data'!Q39</f>
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -4160,20 +4173,6 @@
       </c>
       <c r="C40">
         <f>'Sec 1 Data'!Q42</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <f>'Sec 1 Data'!A43</f>
-        <v>0</v>
-      </c>
-      <c r="B41" t="str">
-        <f>'Sec 1 Data'!R43</f>
-        <v>-</v>
-      </c>
-      <c r="C41">
-        <f>'Sec 1 Data'!Q43</f>
         <v>0</v>
       </c>
     </row>
@@ -4189,7 +4188,7 @@
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="T17" sqref="T17"/>
-      <selection pane="topRight" activeCell="X28" sqref="X28"/>
+      <selection pane="topRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4279,7 +4278,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>5</v>
@@ -4386,7 +4385,7 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -4406,7 +4405,7 @@
       </c>
       <c r="K4" s="13">
         <f t="array" ref="K4">IF(MAX(FREQUENCY(IF(S4:AL4&gt;0,COLUMN(S4:AL4)),IF(S4:AL4&lt;=0,COLUMN(S4:AL4))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
@@ -4415,11 +4414,11 @@
       <c r="P4" s="14"/>
       <c r="Q4" s="15">
         <f>SUM(B4:G4)+3*SUM(H4:M4)+5*SUM(N4:P4)+SUM(S4:AL4)</f>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="R4" s="15" t="str">
         <f>CONCATENATE("-",IF(B4=1,$B$3&amp;", ",""),IF(C4=1,$C$3&amp;", ",""),IF(D4=1,$D$3&amp;", ",""),IF(E4=1,$E$3&amp;", ",""),IF(F4=1,$F$3&amp;", ",""),IF(G4=1,$G$3&amp;", ",""),IF(H4=1,$H$3&amp;", ",""),IF(I4=1,$I$3&amp;", ",""),IF(J4=1,$J$3&amp;", ",""),IF(K4=1,$K$3&amp;", ",""),IF(L4=1,$L$3&amp;", ",""),IF(M4=1,$M$3&amp;", ",""),IF(N4=1,$N$3&amp;", ",""),IF(O4=1,$O$3&amp;", ",""),IF(P4=1,$P$3&amp;", ",""))</f>
-        <v xml:space="preserve">-Full Combo, Math Ambassador, </v>
+        <v xml:space="preserve">-Full Combo, Math Ambassador, Consistency Is Key, </v>
       </c>
       <c r="S4" s="16">
         <v>3</v>
@@ -4433,7 +4432,9 @@
       <c r="V4" s="16">
         <v>3</v>
       </c>
-      <c r="W4" s="16"/>
+      <c r="W4" s="16">
+        <v>2</v>
+      </c>
       <c r="X4" s="16"/>
       <c r="Y4" s="16"/>
       <c r="Z4" s="16"/>
@@ -4452,7 +4453,7 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -4470,7 +4471,7 @@
       </c>
       <c r="K5" s="13">
         <f t="array" ref="K5">IF(MAX(FREQUENCY(IF(S5:AL5&gt;0,COLUMN(S5:AL5)),IF(S5:AL5&lt;=0,COLUMN(S5:AL5))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
@@ -4479,11 +4480,11 @@
       <c r="P5" s="14"/>
       <c r="Q5" s="15">
         <f t="shared" ref="Q5:Q43" si="1">SUM(B5:G5)+3*SUM(H5:L5)+5*SUM(M5:P5)+SUM(S5:AL5)</f>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="R5" s="15" t="str">
         <f t="shared" ref="R5:R43" si="2">CONCATENATE("-",IF(B5=1,$B$3&amp;", ",""),IF(C5=1,$C$3&amp;", ",""),IF(D5=1,$D$3&amp;", ",""),IF(E5=1,$E$3&amp;", ",""),IF(F5=1,$F$3&amp;", ",""),IF(G5=1,$G$3&amp;", ",""),IF(H5=1,$H$3&amp;", ",""),IF(I5=1,$I$3&amp;", ",""),IF(J5=1,$J$3&amp;", ",""),IF(K5=1,$K$3&amp;", ",""),IF(L5=1,$L$3&amp;", ",""),IF(M5=1,$M$3&amp;", ",""),IF(N5=1,$N$3&amp;", ",""),IF(O5=1,$O$3&amp;", ",""),IF(P5=1,$P$3&amp;", ",""))</f>
-        <v xml:space="preserve">-Nowhere to Hide, </v>
+        <v xml:space="preserve">-Nowhere to Hide, Consistency Is Key, </v>
       </c>
       <c r="S5" s="16">
         <v>1</v>
@@ -4497,7 +4498,9 @@
       <c r="V5" s="16">
         <v>2</v>
       </c>
-      <c r="W5" s="16"/>
+      <c r="W5" s="16">
+        <v>3</v>
+      </c>
       <c r="X5" s="16"/>
       <c r="Y5" s="16"/>
       <c r="Z5" s="16"/>
@@ -4516,14 +4519,16 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="G6" s="12">
+        <v>1</v>
+      </c>
       <c r="H6" s="13">
         <v>1</v>
       </c>
@@ -4534,7 +4539,7 @@
       </c>
       <c r="K6" s="13">
         <f t="array" ref="K6">IF(MAX(FREQUENCY(IF(S6:AL6&gt;0,COLUMN(S6:AL6)),IF(S6:AL6&lt;=0,COLUMN(S6:AL6))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
@@ -4543,11 +4548,11 @@
       <c r="P6" s="14"/>
       <c r="Q6" s="15">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="R6" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Full Combo, Three-Star Wonder, </v>
+        <v xml:space="preserve">-Help a friend!, Full Combo, Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="S6" s="16">
         <v>3</v>
@@ -4561,7 +4566,9 @@
       <c r="V6" s="16">
         <v>3</v>
       </c>
-      <c r="W6" s="16"/>
+      <c r="W6" s="16">
+        <v>3</v>
+      </c>
       <c r="X6" s="16"/>
       <c r="Y6" s="16"/>
       <c r="Z6" s="16"/>
@@ -4580,7 +4587,7 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12">
@@ -4600,7 +4607,7 @@
       </c>
       <c r="K7" s="13">
         <f t="array" ref="K7">IF(MAX(FREQUENCY(IF(S7:AL7&gt;0,COLUMN(S7:AL7)),IF(S7:AL7&lt;=0,COLUMN(S7:AL7))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
@@ -4609,11 +4616,11 @@
       <c r="P7" s="14"/>
       <c r="Q7" s="15">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R7" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-I Say Hi, Gaming is life, </v>
+        <v xml:space="preserve">-I Say Hi, Gaming is life, Consistency Is Key, </v>
       </c>
       <c r="S7" s="16">
         <v>1</v>
@@ -4627,7 +4634,9 @@
       <c r="V7" s="16">
         <v>2</v>
       </c>
-      <c r="W7" s="16"/>
+      <c r="W7" s="16">
+        <v>1</v>
+      </c>
       <c r="X7" s="16"/>
       <c r="Y7" s="16"/>
       <c r="Z7" s="16"/>
@@ -4646,7 +4655,7 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -4691,7 +4700,9 @@
       <c r="V8" s="16">
         <v>3</v>
       </c>
-      <c r="W8" s="16"/>
+      <c r="W8" s="16">
+        <v>0</v>
+      </c>
       <c r="X8" s="16"/>
       <c r="Y8" s="16"/>
       <c r="Z8" s="16"/>
@@ -4710,7 +4721,7 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -4724,11 +4735,11 @@
       <c r="I9" s="13"/>
       <c r="J9" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="13">
         <f t="array" ref="K9">IF(MAX(FREQUENCY(IF(S9:AL9&gt;0,COLUMN(S9:AL9)),IF(S9:AL9&lt;=0,COLUMN(S9:AL9))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
@@ -4737,11 +4748,11 @@
       <c r="P9" s="14"/>
       <c r="Q9" s="15">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="R9" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Full Combo, </v>
+        <v xml:space="preserve">-Full Combo, Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="S9" s="16">
         <v>3</v>
@@ -4755,7 +4766,9 @@
       <c r="V9" s="16">
         <v>3</v>
       </c>
-      <c r="W9" s="16"/>
+      <c r="W9" s="16">
+        <v>3</v>
+      </c>
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
       <c r="Z9" s="16"/>
@@ -4774,7 +4787,7 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -4792,7 +4805,7 @@
       </c>
       <c r="K10" s="13">
         <f t="array" ref="K10">IF(MAX(FREQUENCY(IF(S10:AL10&gt;0,COLUMN(S10:AL10)),IF(S10:AL10&lt;=0,COLUMN(S10:AL10))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
@@ -4801,11 +4814,11 @@
       <c r="P10" s="14"/>
       <c r="Q10" s="15">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="R10" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Gaming is life, </v>
+        <v xml:space="preserve">-Gaming is life, Consistency Is Key, </v>
       </c>
       <c r="S10" s="16">
         <v>3</v>
@@ -4819,7 +4832,9 @@
       <c r="V10" s="16">
         <v>2</v>
       </c>
-      <c r="W10" s="16"/>
+      <c r="W10" s="16">
+        <v>2</v>
+      </c>
       <c r="X10" s="16"/>
       <c r="Y10" s="16"/>
       <c r="Z10" s="16"/>
@@ -4838,7 +4853,7 @@
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -4856,7 +4871,7 @@
       </c>
       <c r="K11" s="13">
         <f t="array" ref="K11">IF(MAX(FREQUENCY(IF(S11:AL11&gt;0,COLUMN(S11:AL11)),IF(S11:AL11&lt;=0,COLUMN(S11:AL11))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
@@ -4865,11 +4880,11 @@
       <c r="P11" s="14"/>
       <c r="Q11" s="15">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="R11" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Full Combo, Three-Star Wonder, </v>
+        <v xml:space="preserve">-Full Combo, Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="S11" s="16">
         <v>3</v>
@@ -4883,7 +4898,9 @@
       <c r="V11" s="16">
         <v>3</v>
       </c>
-      <c r="W11" s="16"/>
+      <c r="W11" s="16">
+        <v>3</v>
+      </c>
       <c r="X11" s="16"/>
       <c r="Y11" s="16"/>
       <c r="Z11" s="16"/>
@@ -4920,7 +4937,7 @@
       </c>
       <c r="K12" s="13">
         <f t="array" ref="K12">IF(MAX(FREQUENCY(IF(S12:AL12&gt;0,COLUMN(S12:AL12)),IF(S12:AL12&lt;=0,COLUMN(S12:AL12))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
@@ -4929,11 +4946,11 @@
       <c r="P12" s="14"/>
       <c r="Q12" s="15">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="R12" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Full Combo, Three-Star Wonder, </v>
+        <v xml:space="preserve">-Full Combo, Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="S12" s="16">
         <v>3</v>
@@ -4947,7 +4964,9 @@
       <c r="V12" s="16">
         <v>3</v>
       </c>
-      <c r="W12" s="16"/>
+      <c r="W12" s="16">
+        <v>3</v>
+      </c>
       <c r="X12" s="16"/>
       <c r="Y12" s="16"/>
       <c r="Z12" s="16"/>
@@ -4966,7 +4985,7 @@
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -4982,7 +5001,7 @@
       </c>
       <c r="K13" s="13">
         <f t="array" ref="K13">IF(MAX(FREQUENCY(IF(S13:AL13&gt;0,COLUMN(S13:AL13)),IF(S13:AL13&lt;=0,COLUMN(S13:AL13))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
@@ -4991,11 +5010,11 @@
       <c r="P13" s="14"/>
       <c r="Q13" s="15">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="R13" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Consistency Is Key, </v>
       </c>
       <c r="S13" s="16">
         <v>1</v>
@@ -5009,7 +5028,9 @@
       <c r="V13" s="16">
         <v>2</v>
       </c>
-      <c r="W13" s="16"/>
+      <c r="W13" s="16">
+        <v>2</v>
+      </c>
       <c r="X13" s="16"/>
       <c r="Y13" s="16"/>
       <c r="Z13" s="16"/>
@@ -5028,7 +5049,7 @@
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -5044,7 +5065,7 @@
       </c>
       <c r="K14" s="13">
         <f t="array" ref="K14">IF(MAX(FREQUENCY(IF(S14:AL14&gt;0,COLUMN(S14:AL14)),IF(S14:AL14&lt;=0,COLUMN(S14:AL14))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
@@ -5053,11 +5074,11 @@
       <c r="P14" s="14"/>
       <c r="Q14" s="15">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="R14" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Consistency Is Key, </v>
       </c>
       <c r="S14" s="16">
         <v>2</v>
@@ -5071,7 +5092,9 @@
       <c r="V14" s="16">
         <v>1</v>
       </c>
-      <c r="W14" s="16"/>
+      <c r="W14" s="16">
+        <v>1</v>
+      </c>
       <c r="X14" s="16"/>
       <c r="Y14" s="16"/>
       <c r="Z14" s="16"/>
@@ -5090,7 +5113,7 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -5110,7 +5133,7 @@
       </c>
       <c r="K15" s="13">
         <f t="array" ref="K15">IF(MAX(FREQUENCY(IF(S15:AL15&gt;0,COLUMN(S15:AL15)),IF(S15:AL15&lt;=0,COLUMN(S15:AL15))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
@@ -5119,11 +5142,11 @@
       <c r="P15" s="14"/>
       <c r="Q15" s="15">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="R15" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Nowhere to Hide, Blast to the Past, </v>
+        <v xml:space="preserve">-Nowhere to Hide, Blast to the Past, Consistency Is Key, </v>
       </c>
       <c r="S15" s="16">
         <v>2</v>
@@ -5137,7 +5160,9 @@
       <c r="V15" s="16">
         <v>2</v>
       </c>
-      <c r="W15" s="16"/>
+      <c r="W15" s="16">
+        <v>2</v>
+      </c>
       <c r="X15" s="16">
         <v>1</v>
       </c>
@@ -5158,7 +5183,7 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -5198,10 +5223,12 @@
       <c r="U16" s="16">
         <v>2</v>
       </c>
-      <c r="V16" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="W16" s="16"/>
+      <c r="V16" s="16">
+        <v>0</v>
+      </c>
+      <c r="W16" s="16">
+        <v>0</v>
+      </c>
       <c r="X16" s="16"/>
       <c r="Y16" s="16"/>
       <c r="Z16" s="16"/>
@@ -5220,7 +5247,7 @@
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -5260,10 +5287,12 @@
       <c r="U17" s="16">
         <v>0</v>
       </c>
-      <c r="V17" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="W17" s="16"/>
+      <c r="V17" s="16">
+        <v>0</v>
+      </c>
+      <c r="W17" s="16">
+        <v>0</v>
+      </c>
       <c r="X17" s="16"/>
       <c r="Y17" s="16"/>
       <c r="Z17" s="16"/>
@@ -5282,7 +5311,7 @@
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -5322,10 +5351,12 @@
       <c r="U18" s="16">
         <v>2</v>
       </c>
-      <c r="V18" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="W18" s="16"/>
+      <c r="V18" s="16">
+        <v>0</v>
+      </c>
+      <c r="W18" s="16">
+        <v>0</v>
+      </c>
       <c r="X18" s="16"/>
       <c r="Y18" s="16"/>
       <c r="Z18" s="16"/>
@@ -5344,7 +5375,7 @@
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -5360,7 +5391,7 @@
       <c r="I19" s="13"/>
       <c r="J19" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="13">
         <f t="array" ref="K19">IF(MAX(FREQUENCY(IF(S19:AL19&gt;0,COLUMN(S19:AL19)),IF(S19:AL19&lt;=0,COLUMN(S19:AL19))))&gt;4,1,0)</f>
@@ -5373,11 +5404,11 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="15">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R19" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Nowhere to Hide, Full Combo, </v>
+        <v xml:space="preserve">-Nowhere to Hide, Full Combo, Three-Star Wonder, </v>
       </c>
       <c r="S19" s="16">
         <v>3</v>
@@ -5391,7 +5422,9 @@
       <c r="V19" s="16">
         <v>0</v>
       </c>
-      <c r="W19" s="16"/>
+      <c r="W19" s="16">
+        <v>3</v>
+      </c>
       <c r="X19" s="16"/>
       <c r="Y19" s="16"/>
       <c r="Z19" s="16"/>
@@ -5410,7 +5443,7 @@
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -5426,7 +5459,7 @@
       </c>
       <c r="K20" s="13">
         <f t="array" ref="K20">IF(MAX(FREQUENCY(IF(S20:AL20&gt;0,COLUMN(S20:AL20)),IF(S20:AL20&lt;=0,COLUMN(S20:AL20))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
@@ -5435,11 +5468,11 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="15">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="R20" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Consistency Is Key, </v>
       </c>
       <c r="S20" s="16">
         <v>1</v>
@@ -5453,7 +5486,9 @@
       <c r="V20" s="16">
         <v>2</v>
       </c>
-      <c r="W20" s="16"/>
+      <c r="W20" s="16">
+        <v>2</v>
+      </c>
       <c r="X20" s="16"/>
       <c r="Y20" s="16"/>
       <c r="Z20" s="16"/>
@@ -5472,7 +5507,7 @@
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -5515,7 +5550,9 @@
       <c r="V21" s="16">
         <v>3</v>
       </c>
-      <c r="W21" s="16"/>
+      <c r="W21" s="16">
+        <v>0</v>
+      </c>
       <c r="X21" s="16">
         <v>1</v>
       </c>
@@ -5536,7 +5573,7 @@
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -5554,7 +5591,7 @@
       </c>
       <c r="K22" s="13">
         <f t="array" ref="K22">IF(MAX(FREQUENCY(IF(S22:AL22&gt;0,COLUMN(S22:AL22)),IF(S22:AL22&lt;=0,COLUMN(S22:AL22))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
@@ -5563,11 +5600,11 @@
       <c r="P22" s="14"/>
       <c r="Q22" s="15">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="R22" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Full Combo, </v>
+        <v xml:space="preserve">-Full Combo, Consistency Is Key, </v>
       </c>
       <c r="S22" s="16">
         <v>3</v>
@@ -5581,7 +5618,9 @@
       <c r="V22" s="16">
         <v>2</v>
       </c>
-      <c r="W22" s="16"/>
+      <c r="W22" s="16">
+        <v>2</v>
+      </c>
       <c r="X22" s="16"/>
       <c r="Y22" s="16"/>
       <c r="Z22" s="16"/>
@@ -5600,7 +5639,7 @@
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -5616,7 +5655,7 @@
       </c>
       <c r="K23" s="13">
         <f t="array" ref="K23">IF(MAX(FREQUENCY(IF(S23:AL23&gt;0,COLUMN(S23:AL23)),IF(S23:AL23&lt;=0,COLUMN(S23:AL23))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
@@ -5625,11 +5664,11 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="15">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R23" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <v xml:space="preserve">-Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="S23" s="16">
         <v>1</v>
@@ -5643,7 +5682,9 @@
       <c r="V23" s="16">
         <v>3</v>
       </c>
-      <c r="W23" s="16"/>
+      <c r="W23" s="16">
+        <v>2</v>
+      </c>
       <c r="X23" s="16">
         <v>1</v>
       </c>
@@ -5664,14 +5705,16 @@
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
+      <c r="G24" s="12">
+        <v>1</v>
+      </c>
       <c r="H24" s="13">
         <v>1</v>
       </c>
@@ -5682,7 +5725,7 @@
       </c>
       <c r="K24" s="13">
         <f t="array" ref="K24">IF(MAX(FREQUENCY(IF(S24:AL24&gt;0,COLUMN(S24:AL24)),IF(S24:AL24&lt;=0,COLUMN(S24:AL24))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
@@ -5691,11 +5734,11 @@
       <c r="P24" s="14"/>
       <c r="Q24" s="15">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="R24" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Full Combo, Three-Star Wonder, </v>
+        <v xml:space="preserve">-Help a friend!, Full Combo, Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="S24" s="16">
         <v>3</v>
@@ -5709,7 +5752,9 @@
       <c r="V24" s="16">
         <v>3</v>
       </c>
-      <c r="W24" s="16"/>
+      <c r="W24" s="16">
+        <v>3</v>
+      </c>
       <c r="X24" s="16"/>
       <c r="Y24" s="16"/>
       <c r="Z24" s="16"/>
@@ -5728,7 +5773,7 @@
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -5755,7 +5800,7 @@
       <c r="P25" s="14"/>
       <c r="Q25" s="15">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R25" s="15" t="str">
         <f t="shared" si="2"/>
@@ -5773,7 +5818,9 @@
       <c r="V25" s="16">
         <v>3</v>
       </c>
-      <c r="W25" s="16"/>
+      <c r="W25" s="16">
+        <v>2</v>
+      </c>
       <c r="X25" s="16"/>
       <c r="Y25" s="16"/>
       <c r="Z25" s="16"/>
@@ -5792,7 +5839,7 @@
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -5819,7 +5866,7 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="15">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="R26" s="15" t="str">
         <f t="shared" si="2"/>
@@ -5837,7 +5884,9 @@
       <c r="V26" s="16">
         <v>3</v>
       </c>
-      <c r="W26" s="16"/>
+      <c r="W26" s="16">
+        <v>3</v>
+      </c>
       <c r="X26" s="16"/>
       <c r="Y26" s="16"/>
       <c r="Z26" s="16"/>
@@ -5856,7 +5905,7 @@
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -5872,7 +5921,7 @@
       </c>
       <c r="K27" s="13">
         <f t="array" ref="K27">IF(MAX(FREQUENCY(IF(S27:AL27&gt;0,COLUMN(S27:AL27)),IF(S27:AL27&lt;=0,COLUMN(S27:AL27))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
@@ -5881,11 +5930,11 @@
       <c r="P27" s="14"/>
       <c r="Q27" s="15">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="R27" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <v xml:space="preserve">-Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="S27" s="16">
         <v>3</v>
@@ -5899,7 +5948,9 @@
       <c r="V27" s="16">
         <v>2</v>
       </c>
-      <c r="W27" s="16"/>
+      <c r="W27" s="16">
+        <v>3</v>
+      </c>
       <c r="X27" s="16"/>
       <c r="Y27" s="16"/>
       <c r="Z27" s="16"/>
@@ -5918,7 +5969,7 @@
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -5943,7 +5994,7 @@
       <c r="P28" s="14"/>
       <c r="Q28" s="15">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R28" s="15" t="str">
         <f t="shared" si="2"/>
@@ -5961,7 +6012,9 @@
       <c r="V28" s="16">
         <v>0</v>
       </c>
-      <c r="W28" s="16"/>
+      <c r="W28" s="16">
+        <v>2</v>
+      </c>
       <c r="X28" s="16"/>
       <c r="Y28" s="16"/>
       <c r="Z28" s="16"/>
@@ -5980,7 +6033,7 @@
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -5996,7 +6049,7 @@
       </c>
       <c r="K29" s="13">
         <f t="array" ref="K29">IF(MAX(FREQUENCY(IF(S29:AL29&gt;0,COLUMN(S29:AL29)),IF(S29:AL29&lt;=0,COLUMN(S29:AL29))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
@@ -6005,11 +6058,11 @@
       <c r="P29" s="14"/>
       <c r="Q29" s="15">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="R29" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <v xml:space="preserve">-Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="S29" s="16">
         <v>3</v>
@@ -6023,7 +6076,9 @@
       <c r="V29" s="16">
         <v>3</v>
       </c>
-      <c r="W29" s="16"/>
+      <c r="W29" s="16">
+        <v>3</v>
+      </c>
       <c r="X29" s="16"/>
       <c r="Y29" s="16"/>
       <c r="Z29" s="16"/>
@@ -6042,12 +6097,14 @@
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
+      <c r="E30" s="12">
+        <v>1</v>
+      </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="13"/>
@@ -6067,11 +6124,11 @@
       <c r="P30" s="14"/>
       <c r="Q30" s="15">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R30" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Gaming is life, </v>
       </c>
       <c r="S30" s="16">
         <v>1</v>
@@ -6085,7 +6142,9 @@
       <c r="V30" s="16">
         <v>0</v>
       </c>
-      <c r="W30" s="16"/>
+      <c r="W30" s="16">
+        <v>2</v>
+      </c>
       <c r="X30" s="16"/>
       <c r="Y30" s="16"/>
       <c r="Z30" s="16"/>
@@ -6104,7 +6163,7 @@
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12">
@@ -6149,7 +6208,9 @@
       <c r="V31" s="16">
         <v>3</v>
       </c>
-      <c r="W31" s="16"/>
+      <c r="W31" s="16">
+        <v>0</v>
+      </c>
       <c r="X31" s="16"/>
       <c r="Y31" s="16"/>
       <c r="Z31" s="16"/>
@@ -6168,7 +6229,7 @@
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="12">
@@ -6190,7 +6251,7 @@
       </c>
       <c r="K32" s="13">
         <f t="array" ref="K32">IF(MAX(FREQUENCY(IF(S32:AL32&gt;0,COLUMN(S32:AL32)),IF(S32:AL32&lt;=0,COLUMN(S32:AL32))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
@@ -6199,11 +6260,11 @@
       <c r="P32" s="14"/>
       <c r="Q32" s="15">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R32" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-I Say Hi, Gaming is life, Full Combo, Three-Star Wonder, </v>
+        <v xml:space="preserve">-I Say Hi, Gaming is life, Full Combo, Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="S32" s="16">
         <v>3</v>
@@ -6217,7 +6278,9 @@
       <c r="V32" s="16">
         <v>2</v>
       </c>
-      <c r="W32" s="16"/>
+      <c r="W32" s="16">
+        <v>3</v>
+      </c>
       <c r="X32" s="16"/>
       <c r="Y32" s="16"/>
       <c r="Z32" s="16"/>
@@ -6236,7 +6299,7 @@
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -6254,7 +6317,7 @@
       </c>
       <c r="K33" s="13">
         <f t="array" ref="K33">IF(MAX(FREQUENCY(IF(S33:AL33&gt;0,COLUMN(S33:AL33)),IF(S33:AL33&lt;=0,COLUMN(S33:AL33))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
@@ -6263,11 +6326,11 @@
       <c r="P33" s="14"/>
       <c r="Q33" s="15">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R33" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Nowhere to Hide, </v>
+        <v xml:space="preserve">-Nowhere to Hide, Consistency Is Key, </v>
       </c>
       <c r="S33" s="16">
         <v>2</v>
@@ -6281,7 +6344,9 @@
       <c r="V33" s="16">
         <v>2</v>
       </c>
-      <c r="W33" s="16"/>
+      <c r="W33" s="16">
+        <v>2</v>
+      </c>
       <c r="X33" s="16"/>
       <c r="Y33" s="16"/>
       <c r="Z33" s="16"/>
@@ -6300,7 +6365,7 @@
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -6316,7 +6381,7 @@
       </c>
       <c r="K34" s="13">
         <f t="array" ref="K34">IF(MAX(FREQUENCY(IF(S34:AL34&gt;0,COLUMN(S34:AL34)),IF(S34:AL34&lt;=0,COLUMN(S34:AL34))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
@@ -6325,11 +6390,11 @@
       <c r="P34" s="14"/>
       <c r="Q34" s="15">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="R34" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Consistency Is Key, </v>
       </c>
       <c r="S34" s="16">
         <v>2</v>
@@ -6343,7 +6408,9 @@
       <c r="V34" s="16">
         <v>2</v>
       </c>
-      <c r="W34" s="16"/>
+      <c r="W34" s="16">
+        <v>3</v>
+      </c>
       <c r="X34" s="16"/>
       <c r="Y34" s="16"/>
       <c r="Z34" s="16"/>
@@ -6362,7 +6429,7 @@
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -6405,7 +6472,9 @@
       <c r="V35" s="16">
         <v>3</v>
       </c>
-      <c r="W35" s="16"/>
+      <c r="W35" s="16">
+        <v>0</v>
+      </c>
       <c r="X35" s="16"/>
       <c r="Y35" s="16"/>
       <c r="Z35" s="16"/>
@@ -6813,7 +6882,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -6829,11 +6898,11 @@
       </c>
       <c r="B2" t="str">
         <f>'Sec 2 Data'!R4</f>
-        <v xml:space="preserve">-Full Combo, Math Ambassador, </v>
+        <v xml:space="preserve">-Full Combo, Math Ambassador, Consistency Is Key, </v>
       </c>
       <c r="C2">
         <f>'Sec 2 Data'!Q4</f>
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -6843,11 +6912,11 @@
       </c>
       <c r="B3" t="str">
         <f>'Sec 2 Data'!R5</f>
-        <v xml:space="preserve">-Nowhere to Hide, </v>
+        <v xml:space="preserve">-Nowhere to Hide, Consistency Is Key, </v>
       </c>
       <c r="C3">
         <f>'Sec 2 Data'!Q5</f>
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -6857,11 +6926,11 @@
       </c>
       <c r="B4" t="str">
         <f>'Sec 2 Data'!R6</f>
-        <v xml:space="preserve">-Full Combo, Three-Star Wonder, </v>
+        <v xml:space="preserve">-Help a friend!, Full Combo, Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="C4">
         <f>'Sec 2 Data'!Q6</f>
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -6871,11 +6940,11 @@
       </c>
       <c r="B5" t="str">
         <f>'Sec 2 Data'!R7</f>
-        <v xml:space="preserve">-I Say Hi, Gaming is life, </v>
+        <v xml:space="preserve">-I Say Hi, Gaming is life, Consistency Is Key, </v>
       </c>
       <c r="C5">
         <f>'Sec 2 Data'!Q7</f>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -6899,11 +6968,11 @@
       </c>
       <c r="B7" t="str">
         <f>'Sec 2 Data'!R9</f>
-        <v xml:space="preserve">-Full Combo, </v>
+        <v xml:space="preserve">-Full Combo, Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="C7">
         <f>'Sec 2 Data'!Q9</f>
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -6913,11 +6982,11 @@
       </c>
       <c r="B8" t="str">
         <f>'Sec 2 Data'!R10</f>
-        <v xml:space="preserve">-Gaming is life, </v>
+        <v xml:space="preserve">-Gaming is life, Consistency Is Key, </v>
       </c>
       <c r="C8">
         <f>'Sec 2 Data'!Q10</f>
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -6927,11 +6996,11 @@
       </c>
       <c r="B9" t="str">
         <f>'Sec 2 Data'!R11</f>
-        <v xml:space="preserve">-Full Combo, Three-Star Wonder, </v>
+        <v xml:space="preserve">-Full Combo, Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="C9">
         <f>'Sec 2 Data'!Q11</f>
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -6941,11 +7010,11 @@
       </c>
       <c r="B10" t="str">
         <f>'Sec 2 Data'!R12</f>
-        <v xml:space="preserve">-Full Combo, Three-Star Wonder, </v>
+        <v xml:space="preserve">-Full Combo, Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="C10">
         <f>'Sec 2 Data'!Q12</f>
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -6955,11 +7024,11 @@
       </c>
       <c r="B11" t="str">
         <f>'Sec 2 Data'!R13</f>
-        <v>-</v>
+        <v xml:space="preserve">-Consistency Is Key, </v>
       </c>
       <c r="C11">
         <f>'Sec 2 Data'!Q13</f>
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -6969,11 +7038,11 @@
       </c>
       <c r="B12" t="str">
         <f>'Sec 2 Data'!R14</f>
-        <v>-</v>
+        <v xml:space="preserve">-Consistency Is Key, </v>
       </c>
       <c r="C12">
         <f>'Sec 2 Data'!Q14</f>
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -6983,11 +7052,11 @@
       </c>
       <c r="B13" t="str">
         <f>'Sec 2 Data'!R15</f>
-        <v xml:space="preserve">-Nowhere to Hide, Blast to the Past, </v>
+        <v xml:space="preserve">-Nowhere to Hide, Blast to the Past, Consistency Is Key, </v>
       </c>
       <c r="C13">
         <f>'Sec 2 Data'!Q15</f>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -7039,11 +7108,11 @@
       </c>
       <c r="B17" t="str">
         <f>'Sec 2 Data'!R19</f>
-        <v xml:space="preserve">-Nowhere to Hide, Full Combo, </v>
+        <v xml:space="preserve">-Nowhere to Hide, Full Combo, Three-Star Wonder, </v>
       </c>
       <c r="C17">
         <f>'Sec 2 Data'!Q19</f>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -7053,11 +7122,11 @@
       </c>
       <c r="B18" t="str">
         <f>'Sec 2 Data'!R20</f>
-        <v>-</v>
+        <v xml:space="preserve">-Consistency Is Key, </v>
       </c>
       <c r="C18">
         <f>'Sec 2 Data'!Q20</f>
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -7081,11 +7150,11 @@
       </c>
       <c r="B20" t="str">
         <f>'Sec 2 Data'!R22</f>
-        <v xml:space="preserve">-Full Combo, </v>
+        <v xml:space="preserve">-Full Combo, Consistency Is Key, </v>
       </c>
       <c r="C20">
         <f>'Sec 2 Data'!Q22</f>
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -7095,11 +7164,11 @@
       </c>
       <c r="B21" t="str">
         <f>'Sec 2 Data'!R23</f>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <v xml:space="preserve">-Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="C21">
         <f>'Sec 2 Data'!Q23</f>
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -7109,11 +7178,11 @@
       </c>
       <c r="B22" t="str">
         <f>'Sec 2 Data'!R24</f>
-        <v xml:space="preserve">-Full Combo, Three-Star Wonder, </v>
+        <v xml:space="preserve">-Help a friend!, Full Combo, Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="C22">
         <f>'Sec 2 Data'!Q24</f>
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -7127,7 +7196,7 @@
       </c>
       <c r="C23">
         <f>'Sec 2 Data'!Q25</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -7141,7 +7210,7 @@
       </c>
       <c r="C24">
         <f>'Sec 2 Data'!Q26</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -7151,11 +7220,11 @@
       </c>
       <c r="B25" t="str">
         <f>'Sec 2 Data'!R27</f>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <v xml:space="preserve">-Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="C25">
         <f>'Sec 2 Data'!Q27</f>
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -7169,7 +7238,7 @@
       </c>
       <c r="C26">
         <f>'Sec 2 Data'!Q28</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -7179,11 +7248,11 @@
       </c>
       <c r="B27" t="str">
         <f>'Sec 2 Data'!R29</f>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <v xml:space="preserve">-Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="C27">
         <f>'Sec 2 Data'!Q29</f>
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -7193,11 +7262,11 @@
       </c>
       <c r="B28" t="str">
         <f>'Sec 2 Data'!R30</f>
-        <v>-</v>
+        <v xml:space="preserve">-Gaming is life, </v>
       </c>
       <c r="C28">
         <f>'Sec 2 Data'!Q30</f>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -7221,11 +7290,11 @@
       </c>
       <c r="B30" t="str">
         <f>'Sec 2 Data'!R32</f>
-        <v xml:space="preserve">-I Say Hi, Gaming is life, Full Combo, Three-Star Wonder, </v>
+        <v xml:space="preserve">-I Say Hi, Gaming is life, Full Combo, Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="C30">
         <f>'Sec 2 Data'!Q32</f>
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -7235,11 +7304,11 @@
       </c>
       <c r="B31" t="str">
         <f>'Sec 2 Data'!R33</f>
-        <v xml:space="preserve">-Nowhere to Hide, </v>
+        <v xml:space="preserve">-Nowhere to Hide, Consistency Is Key, </v>
       </c>
       <c r="C31">
         <f>'Sec 2 Data'!Q33</f>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -7249,11 +7318,11 @@
       </c>
       <c r="B32" t="str">
         <f>'Sec 2 Data'!R34</f>
-        <v>-</v>
+        <v xml:space="preserve">-Consistency Is Key, </v>
       </c>
       <c r="C32">
         <f>'Sec 2 Data'!Q34</f>
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngwen\Desktop\website\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E075206B-6AD1-429A-955C-59E52302A522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C721B1-36A0-4BDC-821B-3E634DBDEAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sec 1 Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Sec 1" sheetId="4" r:id="rId2"/>
-    <sheet name="Sec 2 Data" sheetId="7" r:id="rId3"/>
-    <sheet name="Sec 2" sheetId="8" r:id="rId4"/>
+    <sheet name="Sec 3 Data" sheetId="11" r:id="rId1"/>
+    <sheet name="Sec 3" sheetId="12" r:id="rId2"/>
+    <sheet name="Sec 1 Data" sheetId="1" r:id="rId3"/>
+    <sheet name="Sec 1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sec 2 Data" sheetId="7" r:id="rId5"/>
+    <sheet name="Sec 2" sheetId="8" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="100">
   <si>
     <t>Achievements</t>
   </si>
@@ -301,6 +306,33 @@
   </si>
   <si>
     <t>Bonus</t>
+  </si>
+  <si>
+    <t>Nickname</t>
+  </si>
+  <si>
+    <t>Rui Ze</t>
+  </si>
+  <si>
+    <t>Yu Xuan</t>
+  </si>
+  <si>
+    <t>Etienne</t>
+  </si>
+  <si>
+    <t>Garrick</t>
+  </si>
+  <si>
+    <t>Gloria</t>
+  </si>
+  <si>
+    <t>Jia Jun</t>
+  </si>
+  <si>
+    <t>Malcom</t>
+  </si>
+  <si>
+    <t>Kenjoo</t>
   </si>
 </sst>
 </file>
@@ -469,7 +501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -519,28 +551,17 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -561,10 +582,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -582,6 +615,188 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Class data"/>
+      <sheetName val="Class"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="A4">
+            <v>1</v>
+          </cell>
+          <cell r="Q4">
+            <v>0</v>
+          </cell>
+          <cell r="R4" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="Q5">
+            <v>0</v>
+          </cell>
+          <cell r="R5" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="Q6">
+            <v>0</v>
+          </cell>
+          <cell r="R6" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="Q7">
+            <v>0</v>
+          </cell>
+          <cell r="R7" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="Q8">
+            <v>0</v>
+          </cell>
+          <cell r="R8" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="Q9">
+            <v>0</v>
+          </cell>
+          <cell r="R9" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="Q10">
+            <v>0</v>
+          </cell>
+          <cell r="R10" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="Q11">
+            <v>0</v>
+          </cell>
+          <cell r="R11" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="Q12">
+            <v>0</v>
+          </cell>
+          <cell r="R12" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="Q13">
+            <v>0</v>
+          </cell>
+          <cell r="R13" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="Q14">
+            <v>0</v>
+          </cell>
+          <cell r="R14" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="Q15">
+            <v>0</v>
+          </cell>
+          <cell r="R15" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="Q16">
+            <v>0</v>
+          </cell>
+          <cell r="R16" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="Q17">
+            <v>0</v>
+          </cell>
+          <cell r="R17" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="Q18">
+            <v>0</v>
+          </cell>
+          <cell r="R18" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="Q19">
+            <v>0</v>
+          </cell>
+          <cell r="R19" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="Q20">
+            <v>0</v>
+          </cell>
+          <cell r="R20" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="Q21">
+            <v>0</v>
+          </cell>
+          <cell r="R21" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="Q22">
+            <v>0</v>
+          </cell>
+          <cell r="R22" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="Q23">
+            <v>0</v>
+          </cell>
+          <cell r="R23" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -846,12 +1061,1621 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBF2991-A7AE-4D40-8DE9-12F11C48EB9C}">
+  <dimension ref="A1:AM23"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="H10" sqref="H10"/>
+      <selection pane="topRight" activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.44140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88671875" style="8"/>
+    <col min="20" max="37" width="8.88671875" style="9"/>
+    <col min="38" max="38" width="8.88671875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="B2" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="32"/>
+      <c r="P2" s="33"/>
+      <c r="S2" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="22">
+        <v>1</v>
+      </c>
+      <c r="T3" s="22">
+        <v>2</v>
+      </c>
+      <c r="U3" s="22">
+        <v>3</v>
+      </c>
+      <c r="V3" s="22">
+        <v>4</v>
+      </c>
+      <c r="W3" s="22">
+        <v>5</v>
+      </c>
+      <c r="X3" s="22">
+        <v>6</v>
+      </c>
+      <c r="Y3" s="22">
+        <v>7</v>
+      </c>
+      <c r="Z3" s="22">
+        <v>8</v>
+      </c>
+      <c r="AA3" s="22">
+        <v>9</v>
+      </c>
+      <c r="AB3" s="22">
+        <v>10</v>
+      </c>
+      <c r="AC3" s="22">
+        <v>11</v>
+      </c>
+      <c r="AD3" s="22">
+        <v>12</v>
+      </c>
+      <c r="AE3" s="22">
+        <v>13</v>
+      </c>
+      <c r="AF3" s="22">
+        <v>14</v>
+      </c>
+      <c r="AG3" s="22">
+        <v>15</v>
+      </c>
+      <c r="AH3" s="22">
+        <v>16</v>
+      </c>
+      <c r="AI3" s="22">
+        <v>17</v>
+      </c>
+      <c r="AJ3" s="22">
+        <v>18</v>
+      </c>
+      <c r="AK3" s="22">
+        <v>19</v>
+      </c>
+      <c r="AL3" s="22">
+        <v>20</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13">
+        <f>IF(COUNTIF(S4:AL4,"&gt;=3")&gt;=3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="13">
+        <f t="array" ref="K4">IF(MAX(FREQUENCY(IF(S4:AL4&gt;0,COLUMN(S4:AL4)),IF(S4:AL4&lt;=0,COLUMN(S4:AL4))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="15">
+        <f>SUM(B4:G4)+3*SUM(H4:M4)+5*SUM(N4:P4)+SUM(S4:AM4)</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="15" t="str">
+        <f>CONCATENATE("-",IF(B4=1,$B$3&amp;", ",""),IF(C4=1,$C$3&amp;", ",""),IF(D4=1,$D$3&amp;", ",""),IF(E4=1,$E$3&amp;", ",""),IF(F4=1,$F$3&amp;", ",""),IF(G4=1,$G$3&amp;", ",""),IF(H4=1,$H$3&amp;", ",""),IF(I4=1,$I$3&amp;", ",""),IF(J4=1,$J$3&amp;", ",""),IF(K4=1,$K$3&amp;", ",""),IF(L4=1,$L$3&amp;", ",""),IF(M4=1,$M$3&amp;", ",""),IF(N4=1,$N$3&amp;", ",""),IF(O4=1,$O$3&amp;", ",""),IF(P4=1,$P$3&amp;", ",""))</f>
+        <v>-</v>
+      </c>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="16"/>
+      <c r="AG4" s="16"/>
+      <c r="AH4" s="16"/>
+      <c r="AI4" s="16"/>
+      <c r="AJ4" s="16"/>
+      <c r="AK4" s="16"/>
+      <c r="AL4" s="16"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13">
+        <f t="shared" ref="J5:J23" si="0">IF(COUNTIF(S5:AL5,"&gt;=3")&gt;=3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="13">
+        <f t="array" ref="K5">IF(MAX(FREQUENCY(IF(S5:AL5&gt;0,COLUMN(S5:AL5)),IF(S5:AL5&lt;=0,COLUMN(S5:AL5))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="15">
+        <f t="shared" ref="Q5:Q23" si="1">SUM(B5:G5)+3*SUM(H5:M5)+5*SUM(N5:P5)+SUM(S5:AM5)</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="15" t="str">
+        <f t="shared" ref="R5:R23" si="2">CONCATENATE("-",IF(B5=1,$B$3&amp;", ",""),IF(C5=1,$C$3&amp;", ",""),IF(D5=1,$D$3&amp;", ",""),IF(E5=1,$E$3&amp;", ",""),IF(F5=1,$F$3&amp;", ",""),IF(G5=1,$G$3&amp;", ",""),IF(H5=1,$H$3&amp;", ",""),IF(I5=1,$I$3&amp;", ",""),IF(J5=1,$J$3&amp;", ",""),IF(K5=1,$K$3&amp;", ",""),IF(L5=1,$L$3&amp;", ",""),IF(M5=1,$M$3&amp;", ",""),IF(N5=1,$N$3&amp;", ",""),IF(O5=1,$O$3&amp;", ",""),IF(P5=1,$P$3&amp;", ",""))</f>
+        <v>-</v>
+      </c>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="16"/>
+      <c r="AG5" s="16"/>
+      <c r="AH5" s="16"/>
+      <c r="AI5" s="16"/>
+      <c r="AJ5" s="16"/>
+      <c r="AK5" s="16"/>
+      <c r="AL5" s="16"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="13">
+        <f t="array" ref="K6">IF(MAX(FREQUENCY(IF(S6:AL6&gt;0,COLUMN(S6:AL6)),IF(S6:AL6&lt;=0,COLUMN(S6:AL6))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="16"/>
+      <c r="AI6" s="16"/>
+      <c r="AJ6" s="16"/>
+      <c r="AK6" s="16"/>
+      <c r="AL6" s="16"/>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="13">
+        <f t="array" ref="K7">IF(MAX(FREQUENCY(IF(S7:AL7&gt;0,COLUMN(S7:AL7)),IF(S7:AL7&lt;=0,COLUMN(S7:AL7))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="16"/>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="16"/>
+      <c r="AG7" s="16"/>
+      <c r="AH7" s="16"/>
+      <c r="AI7" s="16"/>
+      <c r="AJ7" s="16"/>
+      <c r="AK7" s="16"/>
+      <c r="AL7" s="16"/>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="13">
+        <f t="array" ref="K8">IF(MAX(FREQUENCY(IF(S8:AL8&gt;0,COLUMN(S8:AL8)),IF(S8:AL8&lt;=0,COLUMN(S8:AL8))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="16"/>
+      <c r="AF8" s="16"/>
+      <c r="AG8" s="16"/>
+      <c r="AH8" s="16"/>
+      <c r="AI8" s="16"/>
+      <c r="AJ8" s="16"/>
+      <c r="AK8" s="16"/>
+      <c r="AL8" s="16"/>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="13">
+        <f t="array" ref="K9">IF(MAX(FREQUENCY(IF(S9:AL9&gt;0,COLUMN(S9:AL9)),IF(S9:AL9&lt;=0,COLUMN(S9:AL9))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="16"/>
+      <c r="AG9" s="16"/>
+      <c r="AH9" s="16"/>
+      <c r="AI9" s="16"/>
+      <c r="AJ9" s="16"/>
+      <c r="AK9" s="16"/>
+      <c r="AL9" s="16"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="13">
+        <f t="array" ref="K10">IF(MAX(FREQUENCY(IF(S10:AL10&gt;0,COLUMN(S10:AL10)),IF(S10:AL10&lt;=0,COLUMN(S10:AL10))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="16"/>
+      <c r="AG10" s="16"/>
+      <c r="AH10" s="16"/>
+      <c r="AI10" s="16"/>
+      <c r="AJ10" s="16"/>
+      <c r="AK10" s="16"/>
+      <c r="AL10" s="16"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="13">
+        <f t="array" ref="K11">IF(MAX(FREQUENCY(IF(S11:AL11&gt;0,COLUMN(S11:AL11)),IF(S11:AL11&lt;=0,COLUMN(S11:AL11))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="16"/>
+      <c r="AF11" s="16"/>
+      <c r="AG11" s="16"/>
+      <c r="AH11" s="16"/>
+      <c r="AI11" s="16"/>
+      <c r="AJ11" s="16"/>
+      <c r="AK11" s="16"/>
+      <c r="AL11" s="16"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>9</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="13">
+        <f t="array" ref="K12">IF(MAX(FREQUENCY(IF(S12:AL12&gt;0,COLUMN(S12:AL12)),IF(S12:AL12&lt;=0,COLUMN(S12:AL12))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="16"/>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="16"/>
+      <c r="AI12" s="16"/>
+      <c r="AJ12" s="16"/>
+      <c r="AK12" s="16"/>
+      <c r="AL12" s="16"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>10</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="13">
+        <f t="array" ref="K13">IF(MAX(FREQUENCY(IF(S13:AL13&gt;0,COLUMN(S13:AL13)),IF(S13:AL13&lt;=0,COLUMN(S13:AL13))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="16"/>
+      <c r="AG13" s="16"/>
+      <c r="AH13" s="16"/>
+      <c r="AI13" s="16"/>
+      <c r="AJ13" s="16"/>
+      <c r="AK13" s="16"/>
+      <c r="AL13" s="16"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>11</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="13">
+        <f t="array" ref="K14">IF(MAX(FREQUENCY(IF(S14:AL14&gt;0,COLUMN(S14:AL14)),IF(S14:AL14&lt;=0,COLUMN(S14:AL14))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="16"/>
+      <c r="AF14" s="16"/>
+      <c r="AG14" s="16"/>
+      <c r="AH14" s="16"/>
+      <c r="AI14" s="16"/>
+      <c r="AJ14" s="16"/>
+      <c r="AK14" s="16"/>
+      <c r="AL14" s="16"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>12</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <f t="array" ref="K15">IF(MAX(FREQUENCY(IF(S15:AL15&gt;0,COLUMN(S15:AL15)),IF(S15:AL15&lt;=0,COLUMN(S15:AL15))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
+      <c r="AD15" s="16"/>
+      <c r="AE15" s="16"/>
+      <c r="AF15" s="16"/>
+      <c r="AG15" s="16"/>
+      <c r="AH15" s="16"/>
+      <c r="AI15" s="16"/>
+      <c r="AJ15" s="16"/>
+      <c r="AK15" s="16"/>
+      <c r="AL15" s="16"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
+        <v>13</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="13">
+        <f t="array" ref="K16">IF(MAX(FREQUENCY(IF(S16:AL16&gt;0,COLUMN(S16:AL16)),IF(S16:AL16&lt;=0,COLUMN(S16:AL16))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="16"/>
+      <c r="AD16" s="16"/>
+      <c r="AE16" s="16"/>
+      <c r="AF16" s="16"/>
+      <c r="AG16" s="16"/>
+      <c r="AH16" s="16"/>
+      <c r="AI16" s="16"/>
+      <c r="AJ16" s="16"/>
+      <c r="AK16" s="16"/>
+      <c r="AL16" s="16"/>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>14</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="13">
+        <f t="array" ref="K17">IF(MAX(FREQUENCY(IF(S17:AL17&gt;0,COLUMN(S17:AL17)),IF(S17:AL17&lt;=0,COLUMN(S17:AL17))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="16"/>
+      <c r="AD17" s="16"/>
+      <c r="AE17" s="16"/>
+      <c r="AF17" s="16"/>
+      <c r="AG17" s="16"/>
+      <c r="AH17" s="16"/>
+      <c r="AI17" s="16"/>
+      <c r="AJ17" s="16"/>
+      <c r="AK17" s="16"/>
+      <c r="AL17" s="16"/>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
+        <v>15</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="13">
+        <f t="array" ref="K18">IF(MAX(FREQUENCY(IF(S18:AL18&gt;0,COLUMN(S18:AL18)),IF(S18:AL18&lt;=0,COLUMN(S18:AL18))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="16"/>
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="16"/>
+      <c r="AG18" s="16"/>
+      <c r="AH18" s="16"/>
+      <c r="AI18" s="16"/>
+      <c r="AJ18" s="16"/>
+      <c r="AK18" s="16"/>
+      <c r="AL18" s="16"/>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
+        <v>16</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="13">
+        <f t="array" ref="K19">IF(MAX(FREQUENCY(IF(S19:AL19&gt;0,COLUMN(S19:AL19)),IF(S19:AL19&lt;=0,COLUMN(S19:AL19))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16"/>
+      <c r="AD19" s="16"/>
+      <c r="AE19" s="16"/>
+      <c r="AF19" s="16"/>
+      <c r="AG19" s="16"/>
+      <c r="AH19" s="16"/>
+      <c r="AI19" s="16"/>
+      <c r="AJ19" s="16"/>
+      <c r="AK19" s="16"/>
+      <c r="AL19" s="16"/>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
+        <v>17</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="13">
+        <f t="array" ref="K20">IF(MAX(FREQUENCY(IF(S20:AL20&gt;0,COLUMN(S20:AL20)),IF(S20:AL20&lt;=0,COLUMN(S20:AL20))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="16"/>
+      <c r="AC20" s="16"/>
+      <c r="AD20" s="16"/>
+      <c r="AE20" s="16"/>
+      <c r="AF20" s="16"/>
+      <c r="AG20" s="16"/>
+      <c r="AH20" s="16"/>
+      <c r="AI20" s="16"/>
+      <c r="AJ20" s="16"/>
+      <c r="AK20" s="16"/>
+      <c r="AL20" s="16"/>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
+        <v>18</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="13">
+        <f t="array" ref="K21">IF(MAX(FREQUENCY(IF(S21:AL21&gt;0,COLUMN(S21:AL21)),IF(S21:AL21&lt;=0,COLUMN(S21:AL21))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="16"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="16"/>
+      <c r="AC21" s="16"/>
+      <c r="AD21" s="16"/>
+      <c r="AE21" s="16"/>
+      <c r="AF21" s="16"/>
+      <c r="AG21" s="16"/>
+      <c r="AH21" s="16"/>
+      <c r="AI21" s="16"/>
+      <c r="AJ21" s="16"/>
+      <c r="AK21" s="16"/>
+      <c r="AL21" s="16"/>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
+        <v>19</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="13">
+        <f t="array" ref="K22">IF(MAX(FREQUENCY(IF(S22:AL22&gt;0,COLUMN(S22:AL22)),IF(S22:AL22&lt;=0,COLUMN(S22:AL22))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="16"/>
+      <c r="AC22" s="16"/>
+      <c r="AD22" s="16"/>
+      <c r="AE22" s="16"/>
+      <c r="AF22" s="16"/>
+      <c r="AG22" s="16"/>
+      <c r="AH22" s="16"/>
+      <c r="AI22" s="16"/>
+      <c r="AJ22" s="16"/>
+      <c r="AK22" s="16"/>
+      <c r="AL22" s="16"/>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
+        <v>20</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="13">
+        <f t="array" ref="K23">IF(MAX(FREQUENCY(IF(S23:AL23&gt;0,COLUMN(S23:AL23)),IF(S23:AL23&lt;=0,COLUMN(S23:AL23))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="16"/>
+      <c r="AC23" s="16"/>
+      <c r="AD23" s="16"/>
+      <c r="AE23" s="16"/>
+      <c r="AF23" s="16"/>
+      <c r="AG23" s="16"/>
+      <c r="AH23" s="16"/>
+      <c r="AI23" s="16"/>
+      <c r="AJ23" s="16"/>
+      <c r="AK23" s="16"/>
+      <c r="AL23" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="S2:AL2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C529E76-3458-474D-9754-C8360280A5EC}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f>'Sec 3 Data'!A4</f>
+        <v>Rui Ze</v>
+      </c>
+      <c r="B2" t="str">
+        <f>'[1]Class data'!R4</f>
+        <v>-</v>
+      </c>
+      <c r="C2">
+        <f>'[1]Class data'!Q4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f>'Sec 3 Data'!A5</f>
+        <v>Yu Xuan</v>
+      </c>
+      <c r="B3" t="str">
+        <f>'[1]Class data'!R5</f>
+        <v>-</v>
+      </c>
+      <c r="C3">
+        <f>'[1]Class data'!Q5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f>'Sec 3 Data'!A6</f>
+        <v>Etienne</v>
+      </c>
+      <c r="B4" t="str">
+        <f>'[1]Class data'!R6</f>
+        <v>-</v>
+      </c>
+      <c r="C4">
+        <f>'[1]Class data'!Q6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <f>'Sec 3 Data'!A7</f>
+        <v>Garrick</v>
+      </c>
+      <c r="B5" t="str">
+        <f>'[1]Class data'!R7</f>
+        <v>-</v>
+      </c>
+      <c r="C5">
+        <f>'[1]Class data'!Q7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <f>'Sec 3 Data'!A8</f>
+        <v>Gloria</v>
+      </c>
+      <c r="B6" t="str">
+        <f>'[1]Class data'!R8</f>
+        <v>-</v>
+      </c>
+      <c r="C6">
+        <f>'[1]Class data'!Q8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <f>'Sec 3 Data'!A9</f>
+        <v>Jia Jun</v>
+      </c>
+      <c r="B7" t="str">
+        <f>'[1]Class data'!R9</f>
+        <v>-</v>
+      </c>
+      <c r="C7">
+        <f>'[1]Class data'!Q9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>'Sec 3 Data'!A10</f>
+        <v>Malcom</v>
+      </c>
+      <c r="B8" t="str">
+        <f>'[1]Class data'!R10</f>
+        <v>-</v>
+      </c>
+      <c r="C8">
+        <f>'[1]Class data'!Q10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>'Sec 3 Data'!A11</f>
+        <v>Kenjoo</v>
+      </c>
+      <c r="B9" t="str">
+        <f>'[1]Class data'!R11</f>
+        <v>-</v>
+      </c>
+      <c r="C9">
+        <f>'[1]Class data'!Q11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f>'Sec 3 Data'!A12</f>
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <f>'[1]Class data'!R12</f>
+        <v>-</v>
+      </c>
+      <c r="C10">
+        <f>'[1]Class data'!Q12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f>'Sec 3 Data'!A13</f>
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <f>'[1]Class data'!R13</f>
+        <v>-</v>
+      </c>
+      <c r="C11">
+        <f>'[1]Class data'!Q13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f>'Sec 3 Data'!A14</f>
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <f>'[1]Class data'!R14</f>
+        <v>-</v>
+      </c>
+      <c r="C12">
+        <f>'[1]Class data'!Q14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f>'Sec 3 Data'!A15</f>
+        <v>12</v>
+      </c>
+      <c r="B13" t="str">
+        <f>'[1]Class data'!R15</f>
+        <v>-</v>
+      </c>
+      <c r="C13">
+        <f>'[1]Class data'!Q15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f>'Sec 3 Data'!A16</f>
+        <v>13</v>
+      </c>
+      <c r="B14" t="str">
+        <f>'[1]Class data'!R16</f>
+        <v>-</v>
+      </c>
+      <c r="C14">
+        <f>'[1]Class data'!Q16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f>'Sec 3 Data'!A17</f>
+        <v>14</v>
+      </c>
+      <c r="B15" t="str">
+        <f>'[1]Class data'!R17</f>
+        <v>-</v>
+      </c>
+      <c r="C15">
+        <f>'[1]Class data'!Q17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f>'Sec 3 Data'!A18</f>
+        <v>15</v>
+      </c>
+      <c r="B16" t="str">
+        <f>'[1]Class data'!R18</f>
+        <v>-</v>
+      </c>
+      <c r="C16">
+        <f>'[1]Class data'!Q18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f>'Sec 3 Data'!A19</f>
+        <v>16</v>
+      </c>
+      <c r="B17" t="str">
+        <f>'[1]Class data'!R19</f>
+        <v>-</v>
+      </c>
+      <c r="C17">
+        <f>'[1]Class data'!Q19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f>'Sec 3 Data'!A20</f>
+        <v>17</v>
+      </c>
+      <c r="B18" t="str">
+        <f>'[1]Class data'!R20</f>
+        <v>-</v>
+      </c>
+      <c r="C18">
+        <f>'[1]Class data'!Q20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f>'Sec 3 Data'!A21</f>
+        <v>18</v>
+      </c>
+      <c r="B19" t="str">
+        <f>'[1]Class data'!R21</f>
+        <v>-</v>
+      </c>
+      <c r="C19">
+        <f>'[1]Class data'!Q21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f>'Sec 3 Data'!A22</f>
+        <v>19</v>
+      </c>
+      <c r="B20" t="str">
+        <f>'[1]Class data'!R22</f>
+        <v>-</v>
+      </c>
+      <c r="C20">
+        <f>'[1]Class data'!Q22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f>'Sec 3 Data'!A23</f>
+        <v>20</v>
+      </c>
+      <c r="B21" t="str">
+        <f>'[1]Class data'!R23</f>
+        <v>-</v>
+      </c>
+      <c r="C21">
+        <f>'[1]Class data'!Q23</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM42"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AQ26" sqref="AQ26"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="X1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AB23" sqref="AB23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -876,7 +2700,8 @@
     <col min="18" max="18" width="25.44140625" style="1" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="8.88671875" style="8" hidden="1" customWidth="1"/>
     <col min="20" max="22" width="8.88671875" style="9" hidden="1" customWidth="1"/>
-    <col min="23" max="37" width="8.88671875" style="9"/>
+    <col min="23" max="23" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="24" max="37" width="8.88671875" style="9"/>
     <col min="38" max="38" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
@@ -884,60 +2709,60 @@
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="24"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="37"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="34" t="s">
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="35"/>
-      <c r="P2" s="36"/>
-      <c r="S2" s="27" t="s">
+      <c r="O2" s="32"/>
+      <c r="P2" s="33"/>
+      <c r="S2" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
@@ -1085,7 +2910,7 @@
       <c r="P4" s="14"/>
       <c r="Q4" s="15">
         <f>SUM(B4:G4)+3*SUM(H4:M4)+5*SUM(N4:P4)+SUM(S4:AM4)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R4" s="15" t="str">
         <f>CONCATENATE("-",IF(B4=1,$B$3&amp;", ",""),IF(C4=1,$C$3&amp;", ",""),IF(D4=1,$D$3&amp;", ",""),IF(E4=1,$E$3&amp;", ",""),IF(F4=1,$F$3&amp;", ",""),IF(G4=1,$G$3&amp;", ",""),IF(H4=1,$H$3&amp;", ",""),IF(I4=1,$I$3&amp;", ",""),IF(J4=1,$J$3&amp;", ",""),IF(K4=1,$K$3&amp;", ",""),IF(L4=1,$L$3&amp;", ",""),IF(M4=1,$M$3&amp;", ",""),IF(N4=1,$N$3&amp;", ",""),IF(O4=1,$O$3&amp;", ",""),IF(P4=1,$P$3&amp;", ",""))</f>
@@ -1106,7 +2931,9 @@
       <c r="W4" s="16">
         <v>3</v>
       </c>
-      <c r="X4" s="16"/>
+      <c r="X4" s="16">
+        <v>2</v>
+      </c>
       <c r="Y4" s="16"/>
       <c r="Z4" s="16"/>
       <c r="AA4" s="16"/>
@@ -1173,7 +3000,9 @@
       <c r="W5" s="16">
         <v>1</v>
       </c>
-      <c r="X5" s="16"/>
+      <c r="X5" s="14">
+        <v>0</v>
+      </c>
       <c r="Y5" s="16"/>
       <c r="Z5" s="16"/>
       <c r="AA5" s="16"/>
@@ -1198,7 +3027,9 @@
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
+      <c r="D6" s="12">
+        <v>1</v>
+      </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -1219,11 +3050,11 @@
       <c r="P6" s="14"/>
       <c r="Q6" s="15">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R6" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Consistency Is Key, </v>
+        <v xml:space="preserve">-Nowhere to Hide, Consistency Is Key, </v>
       </c>
       <c r="S6" s="16">
         <v>3</v>
@@ -1240,7 +3071,9 @@
       <c r="W6" s="16">
         <v>2</v>
       </c>
-      <c r="X6" s="16"/>
+      <c r="X6" s="14">
+        <v>0</v>
+      </c>
       <c r="Y6" s="16"/>
       <c r="Z6" s="16"/>
       <c r="AA6" s="16"/>
@@ -1265,7 +3098,9 @@
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
+      <c r="D7" s="12">
+        <v>1</v>
+      </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -1286,11 +3121,11 @@
       <c r="P7" s="14"/>
       <c r="Q7" s="15">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="R7" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Consistency Is Key, </v>
+        <v xml:space="preserve">-Nowhere to Hide, Consistency Is Key, </v>
       </c>
       <c r="S7" s="16">
         <v>1</v>
@@ -1307,7 +3142,9 @@
       <c r="W7" s="16">
         <v>2</v>
       </c>
-      <c r="X7" s="16"/>
+      <c r="X7" s="16">
+        <v>1</v>
+      </c>
       <c r="Y7" s="16"/>
       <c r="Z7" s="16"/>
       <c r="AA7" s="16"/>
@@ -1353,7 +3190,7 @@
       <c r="P8" s="14"/>
       <c r="Q8" s="15">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="R8" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1374,7 +3211,9 @@
       <c r="W8" s="16">
         <v>3</v>
       </c>
-      <c r="X8" s="16"/>
+      <c r="X8" s="16">
+        <v>2</v>
+      </c>
       <c r="Y8" s="16"/>
       <c r="Z8" s="16"/>
       <c r="AA8" s="16"/>
@@ -1420,7 +3259,7 @@
       <c r="P9" s="14"/>
       <c r="Q9" s="15">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="R9" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1441,7 +3280,9 @@
       <c r="W9" s="16">
         <v>3</v>
       </c>
-      <c r="X9" s="16"/>
+      <c r="X9" s="16">
+        <v>2</v>
+      </c>
       <c r="Y9" s="16"/>
       <c r="Z9" s="16"/>
       <c r="AA9" s="16"/>
@@ -1487,7 +3328,7 @@
       <c r="P10" s="14"/>
       <c r="Q10" s="15">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R10" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1508,7 +3349,9 @@
       <c r="W10" s="16">
         <v>3</v>
       </c>
-      <c r="X10" s="16"/>
+      <c r="X10" s="16">
+        <v>3</v>
+      </c>
       <c r="Y10" s="16"/>
       <c r="Z10" s="16"/>
       <c r="AA10" s="16"/>
@@ -1541,7 +3384,7 @@
       <c r="I11" s="13"/>
       <c r="J11" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="13">
         <f t="array" ref="K11">IF(MAX(FREQUENCY(IF(S11:AL11&gt;0,COLUMN(S11:AL11)),IF(S11:AL11&lt;=0,COLUMN(S11:AL11))))&gt;4,1,0)</f>
@@ -1554,11 +3397,11 @@
       <c r="P11" s="14"/>
       <c r="Q11" s="15">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="R11" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Consistency Is Key, </v>
+        <v xml:space="preserve">-Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="S11" s="16">
         <v>1</v>
@@ -1575,7 +3418,9 @@
       <c r="W11" s="16">
         <v>3</v>
       </c>
-      <c r="X11" s="16"/>
+      <c r="X11" s="16">
+        <v>3</v>
+      </c>
       <c r="Y11" s="16"/>
       <c r="Z11" s="16"/>
       <c r="AA11" s="16"/>
@@ -1621,7 +3466,7 @@
       <c r="P12" s="14"/>
       <c r="Q12" s="15">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R12" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1642,7 +3487,9 @@
       <c r="W12" s="16">
         <v>2</v>
       </c>
-      <c r="X12" s="16"/>
+      <c r="X12" s="16">
+        <v>2</v>
+      </c>
       <c r="Y12" s="16"/>
       <c r="Z12" s="16"/>
       <c r="AA12" s="16"/>
@@ -1677,7 +3524,7 @@
       <c r="I13" s="13"/>
       <c r="J13" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="13">
         <f t="array" ref="K13">IF(MAX(FREQUENCY(IF(S13:AL13&gt;0,COLUMN(S13:AL13)),IF(S13:AL13&lt;=0,COLUMN(S13:AL13))))&gt;4,1,0)</f>
@@ -1690,11 +3537,11 @@
       <c r="P13" s="14"/>
       <c r="Q13" s="15">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="R13" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Full Combo, Consistency Is Key, </v>
+        <v xml:space="preserve">-Full Combo, Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="S13" s="16">
         <v>2</v>
@@ -1711,7 +3558,9 @@
       <c r="W13" s="16">
         <v>2</v>
       </c>
-      <c r="X13" s="16"/>
+      <c r="X13" s="16">
+        <v>3</v>
+      </c>
       <c r="Y13" s="16"/>
       <c r="Z13" s="16"/>
       <c r="AA13" s="16"/>
@@ -1757,7 +3606,7 @@
       <c r="P14" s="14"/>
       <c r="Q14" s="15">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R14" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1778,7 +3627,9 @@
       <c r="W14" s="16">
         <v>3</v>
       </c>
-      <c r="X14" s="16"/>
+      <c r="X14" s="16">
+        <v>3</v>
+      </c>
       <c r="Y14" s="16"/>
       <c r="Z14" s="16"/>
       <c r="AA14" s="16"/>
@@ -1814,8 +3665,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="13">
-        <f t="array" ref="K15">IF(MAX(FREQUENCY(IF(S15:AL15&gt;0,COLUMN(S15:AL15)),IF(S15:AL15&lt;=0,COLUMN(S15:AL15))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
@@ -1824,11 +3674,11 @@
       <c r="P15" s="14"/>
       <c r="Q15" s="15">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R15" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Consistency Is Key, </v>
       </c>
       <c r="S15" s="16">
         <v>2</v>
@@ -1845,7 +3695,9 @@
       <c r="W15" s="16">
         <v>0</v>
       </c>
-      <c r="X15" s="16"/>
+      <c r="X15" s="16">
+        <v>1</v>
+      </c>
       <c r="Y15" s="16"/>
       <c r="Z15" s="16"/>
       <c r="AA15" s="16"/>
@@ -1891,7 +3743,7 @@
       <c r="P16" s="14"/>
       <c r="Q16" s="15">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R16" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1912,7 +3764,9 @@
       <c r="W16" s="16">
         <v>3</v>
       </c>
-      <c r="X16" s="16"/>
+      <c r="X16" s="16">
+        <v>1</v>
+      </c>
       <c r="Y16" s="16"/>
       <c r="Z16" s="16"/>
       <c r="AA16" s="16"/>
@@ -1958,7 +3812,7 @@
       <c r="P17" s="14"/>
       <c r="Q17" s="15">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R17" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1979,7 +3833,9 @@
       <c r="W17" s="16">
         <v>2</v>
       </c>
-      <c r="X17" s="16"/>
+      <c r="X17" s="16">
+        <v>3</v>
+      </c>
       <c r="Y17" s="16"/>
       <c r="Z17" s="16"/>
       <c r="AA17" s="16"/>
@@ -2005,7 +3861,9 @@
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+      <c r="E18" s="12">
+        <v>1</v>
+      </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="13"/>
@@ -2025,11 +3883,11 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="15">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R18" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Consistency Is Key, </v>
+        <v xml:space="preserve">-Gaming is life, Consistency Is Key, </v>
       </c>
       <c r="S18" s="16">
         <v>2</v>
@@ -2046,7 +3904,9 @@
       <c r="W18" s="16">
         <v>3</v>
       </c>
-      <c r="X18" s="16"/>
+      <c r="X18" s="16">
+        <v>1</v>
+      </c>
       <c r="Y18" s="16"/>
       <c r="Z18" s="16"/>
       <c r="AA18" s="16"/>
@@ -2073,7 +3933,9 @@
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
+      <c r="F19" s="12">
+        <v>1</v>
+      </c>
       <c r="G19" s="12"/>
       <c r="H19" s="13">
         <v>1</v>
@@ -2094,11 +3956,11 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="15">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R19" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Full Combo, Three-Star Wonder, Consistency Is Key, </v>
+        <v xml:space="preserve">-Blast to the Past, Full Combo, Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="S19" s="16">
         <v>3</v>
@@ -2115,7 +3977,9 @@
       <c r="W19" s="16">
         <v>3</v>
       </c>
-      <c r="X19" s="16"/>
+      <c r="X19" s="14">
+        <v>0</v>
+      </c>
       <c r="Y19" s="16"/>
       <c r="Z19" s="16"/>
       <c r="AA19" s="16"/>
@@ -2140,8 +4004,12 @@
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="D20" s="12">
+        <v>1</v>
+      </c>
+      <c r="E20" s="12">
+        <v>1</v>
+      </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="13">
@@ -2163,11 +4031,11 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="15">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="R20" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Full Combo, Three-Star Wonder, Consistency Is Key, </v>
+        <v xml:space="preserve">-Nowhere to Hide, Gaming is life, Full Combo, Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="S20" s="16">
         <v>3</v>
@@ -2184,7 +4052,9 @@
       <c r="W20" s="16">
         <v>3</v>
       </c>
-      <c r="X20" s="16"/>
+      <c r="X20" s="16">
+        <v>1</v>
+      </c>
       <c r="Y20" s="16"/>
       <c r="Z20" s="16"/>
       <c r="AA20" s="16"/>
@@ -2209,10 +4079,14 @@
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
+      <c r="D21" s="12">
+        <v>1</v>
+      </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
+      <c r="G21" s="12">
+        <v>1</v>
+      </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13">
@@ -2230,11 +4104,11 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="15">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R21" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Three-Star Wonder, Consistency Is Key, </v>
+        <v xml:space="preserve">-Nowhere to Hide, Help a friend!, Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="S21" s="16">
         <v>3</v>
@@ -2251,7 +4125,9 @@
       <c r="W21" s="16">
         <v>3</v>
       </c>
-      <c r="X21" s="16"/>
+      <c r="X21" s="16">
+        <v>1</v>
+      </c>
       <c r="Y21" s="16"/>
       <c r="Z21" s="16"/>
       <c r="AA21" s="16"/>
@@ -2297,7 +4173,7 @@
       <c r="P22" s="14"/>
       <c r="Q22" s="15">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R22" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2318,7 +4194,9 @@
       <c r="W22" s="16">
         <v>3</v>
       </c>
-      <c r="X22" s="16"/>
+      <c r="X22" s="16">
+        <v>3</v>
+      </c>
       <c r="Y22" s="16"/>
       <c r="Z22" s="16"/>
       <c r="AA22" s="16"/>
@@ -2385,7 +4263,9 @@
       <c r="W23" s="16">
         <v>3</v>
       </c>
-      <c r="X23" s="16"/>
+      <c r="X23" s="14">
+        <v>0</v>
+      </c>
       <c r="Y23" s="16"/>
       <c r="Z23" s="16"/>
       <c r="AA23" s="16"/>
@@ -2409,10 +4289,16 @@
         <v>41</v>
       </c>
       <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
+      <c r="C24" s="12">
+        <v>1</v>
+      </c>
       <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
+      <c r="E24" s="12">
+        <v>1</v>
+      </c>
+      <c r="F24" s="12">
+        <v>1</v>
+      </c>
       <c r="G24" s="12"/>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
@@ -2431,11 +4317,11 @@
       <c r="P24" s="14"/>
       <c r="Q24" s="15">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="R24" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <v xml:space="preserve">-I Say Hi, Gaming is life, Blast to the Past, Three-Star Wonder, </v>
       </c>
       <c r="S24" s="16">
         <v>3</v>
@@ -2452,7 +4338,9 @@
       <c r="W24" s="16">
         <v>3</v>
       </c>
-      <c r="X24" s="16"/>
+      <c r="X24" s="16">
+        <v>3</v>
+      </c>
       <c r="Y24" s="16"/>
       <c r="Z24" s="16"/>
       <c r="AA24" s="16"/>
@@ -2498,7 +4386,7 @@
       <c r="P25" s="14"/>
       <c r="Q25" s="15">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R25" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2519,7 +4407,9 @@
       <c r="W25" s="16">
         <v>3</v>
       </c>
-      <c r="X25" s="16"/>
+      <c r="X25" s="16">
+        <v>3</v>
+      </c>
       <c r="Y25" s="16"/>
       <c r="Z25" s="16"/>
       <c r="AA25" s="16"/>
@@ -2547,7 +4437,9 @@
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
+      <c r="G26" s="12">
+        <v>1</v>
+      </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
       <c r="J26" s="13">
@@ -2565,11 +4457,11 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="15">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R26" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <v xml:space="preserve">-Help a friend!, Three-Star Wonder, </v>
       </c>
       <c r="S26" s="16">
         <v>3</v>
@@ -2586,7 +4478,9 @@
       <c r="W26" s="16">
         <v>3</v>
       </c>
-      <c r="X26" s="16"/>
+      <c r="X26" s="16">
+        <v>0</v>
+      </c>
       <c r="Y26" s="16"/>
       <c r="Z26" s="16"/>
       <c r="AA26" s="16"/>
@@ -2610,7 +4504,9 @@
         <v>44</v>
       </c>
       <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
+      <c r="C27" s="12">
+        <v>1</v>
+      </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
@@ -2632,11 +4528,11 @@
       <c r="P27" s="14"/>
       <c r="Q27" s="15">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="R27" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Consistency Is Key, </v>
+        <v xml:space="preserve">-I Say Hi, Consistency Is Key, </v>
       </c>
       <c r="S27" s="16">
         <v>2</v>
@@ -2653,7 +4549,9 @@
       <c r="W27" s="16">
         <v>3</v>
       </c>
-      <c r="X27" s="16"/>
+      <c r="X27" s="16">
+        <v>2</v>
+      </c>
       <c r="Y27" s="16"/>
       <c r="Z27" s="16"/>
       <c r="AA27" s="16"/>
@@ -2681,7 +4579,9 @@
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
+      <c r="G28" s="12">
+        <v>1</v>
+      </c>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
       <c r="J28" s="13">
@@ -2699,11 +4599,11 @@
       <c r="P28" s="14"/>
       <c r="Q28" s="15">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R28" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Consistency Is Key, </v>
+        <v xml:space="preserve">-Help a friend!, Consistency Is Key, </v>
       </c>
       <c r="S28" s="16">
         <v>2</v>
@@ -2720,7 +4620,9 @@
       <c r="W28" s="16">
         <v>3</v>
       </c>
-      <c r="X28" s="16"/>
+      <c r="X28" s="16">
+        <v>1</v>
+      </c>
       <c r="Y28" s="16"/>
       <c r="Z28" s="16"/>
       <c r="AA28" s="16"/>
@@ -2787,7 +4689,9 @@
       <c r="W29" s="16">
         <v>2</v>
       </c>
-      <c r="X29" s="16"/>
+      <c r="X29" s="14">
+        <v>0</v>
+      </c>
       <c r="Y29" s="16"/>
       <c r="Z29" s="16"/>
       <c r="AA29" s="16"/>
@@ -2833,7 +4737,7 @@
       <c r="P30" s="14"/>
       <c r="Q30" s="15">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R30" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2854,7 +4758,9 @@
       <c r="W30" s="16">
         <v>3</v>
       </c>
-      <c r="X30" s="16"/>
+      <c r="X30" s="16">
+        <v>1</v>
+      </c>
       <c r="Y30" s="16"/>
       <c r="Z30" s="16"/>
       <c r="AA30" s="16"/>
@@ -2900,7 +4806,7 @@
       <c r="P31" s="14"/>
       <c r="Q31" s="15">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R31" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2921,7 +4827,9 @@
       <c r="W31" s="16">
         <v>3</v>
       </c>
-      <c r="X31" s="16"/>
+      <c r="X31" s="16">
+        <v>2</v>
+      </c>
       <c r="Y31" s="16"/>
       <c r="Z31" s="16"/>
       <c r="AA31" s="16"/>
@@ -2969,7 +4877,7 @@
       <c r="P32" s="14"/>
       <c r="Q32" s="15">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R32" s="15" t="str">
         <f t="shared" si="2"/>
@@ -2990,7 +4898,9 @@
       <c r="W32" s="16">
         <v>3</v>
       </c>
-      <c r="X32" s="16"/>
+      <c r="X32" s="16">
+        <v>1</v>
+      </c>
       <c r="Y32" s="16"/>
       <c r="Z32" s="16"/>
       <c r="AA32" s="16"/>
@@ -3057,7 +4967,9 @@
       <c r="W33" s="16">
         <v>2</v>
       </c>
-      <c r="X33" s="16"/>
+      <c r="X33" s="14">
+        <v>0</v>
+      </c>
       <c r="Y33" s="16"/>
       <c r="Z33" s="16"/>
       <c r="AA33" s="16"/>
@@ -3103,7 +5015,7 @@
       <c r="P34" s="14"/>
       <c r="Q34" s="15">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R34" s="15" t="str">
         <f t="shared" si="2"/>
@@ -3124,7 +5036,9 @@
       <c r="W34" s="16">
         <v>3</v>
       </c>
-      <c r="X34" s="16"/>
+      <c r="X34" s="16">
+        <v>1</v>
+      </c>
       <c r="Y34" s="16"/>
       <c r="Z34" s="16"/>
       <c r="AA34" s="16"/>
@@ -3148,7 +5062,9 @@
         <v>53</v>
       </c>
       <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
+      <c r="C35" s="12">
+        <v>1</v>
+      </c>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
@@ -3170,11 +5086,11 @@
       <c r="P35" s="14"/>
       <c r="Q35" s="15">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R35" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Consistency Is Key, </v>
+        <v xml:space="preserve">-I Say Hi, Consistency Is Key, </v>
       </c>
       <c r="S35" s="16">
         <v>2</v>
@@ -3191,7 +5107,9 @@
       <c r="W35" s="16">
         <v>1</v>
       </c>
-      <c r="X35" s="16"/>
+      <c r="X35" s="16">
+        <v>2</v>
+      </c>
       <c r="Y35" s="16"/>
       <c r="Z35" s="16"/>
       <c r="AA35" s="16"/>
@@ -3237,7 +5155,7 @@
       <c r="P36" s="14"/>
       <c r="Q36" s="15">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R36" s="15" t="str">
         <f t="shared" si="2"/>
@@ -3258,7 +5176,9 @@
       <c r="W36" s="16">
         <v>2</v>
       </c>
-      <c r="X36" s="16"/>
+      <c r="X36" s="16">
+        <v>1</v>
+      </c>
       <c r="Y36" s="16"/>
       <c r="Z36" s="16"/>
       <c r="AA36" s="16"/>
@@ -3304,7 +5224,7 @@
       <c r="P37" s="14"/>
       <c r="Q37" s="15">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R37" s="15" t="str">
         <f t="shared" si="2"/>
@@ -3325,7 +5245,9 @@
       <c r="W37" s="16">
         <v>2</v>
       </c>
-      <c r="X37" s="16"/>
+      <c r="X37" s="16">
+        <v>1</v>
+      </c>
       <c r="Y37" s="16"/>
       <c r="Z37" s="16"/>
       <c r="AA37" s="16"/>
@@ -3351,7 +5273,9 @@
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
+      <c r="E38" s="12">
+        <v>1</v>
+      </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="13"/>
@@ -3371,11 +5295,11 @@
       <c r="P38" s="14"/>
       <c r="Q38" s="15">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="R38" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Consistency Is Key, </v>
+        <v xml:space="preserve">-Gaming is life, Consistency Is Key, </v>
       </c>
       <c r="S38" s="16">
         <v>3</v>
@@ -3392,7 +5316,9 @@
       <c r="W38" s="16">
         <v>3</v>
       </c>
-      <c r="X38" s="16"/>
+      <c r="X38" s="16">
+        <v>1</v>
+      </c>
       <c r="Y38" s="16"/>
       <c r="Z38" s="16"/>
       <c r="AA38" s="16"/>
@@ -3609,11 +5535,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10534E12-96AC-44F1-9431-EFE9F0397466}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
@@ -3641,7 +5567,7 @@
       </c>
       <c r="C2">
         <f>'Sec 1 Data'!Q4</f>
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3665,11 +5591,11 @@
       </c>
       <c r="B4" t="str">
         <f>'Sec 1 Data'!R6</f>
-        <v xml:space="preserve">-Consistency Is Key, </v>
+        <v xml:space="preserve">-Nowhere to Hide, Consistency Is Key, </v>
       </c>
       <c r="C4">
         <f>'Sec 1 Data'!Q6</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3679,11 +5605,11 @@
       </c>
       <c r="B5" t="str">
         <f>'Sec 1 Data'!R7</f>
-        <v xml:space="preserve">-Consistency Is Key, </v>
+        <v xml:space="preserve">-Nowhere to Hide, Consistency Is Key, </v>
       </c>
       <c r="C5">
         <f>'Sec 1 Data'!Q7</f>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3697,7 +5623,7 @@
       </c>
       <c r="C6">
         <f>'Sec 1 Data'!Q8</f>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -3711,7 +5637,7 @@
       </c>
       <c r="C7">
         <f>'Sec 1 Data'!Q9</f>
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3725,7 +5651,7 @@
       </c>
       <c r="C8">
         <f>'Sec 1 Data'!Q10</f>
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -3735,11 +5661,11 @@
       </c>
       <c r="B9" t="str">
         <f>'Sec 1 Data'!R11</f>
-        <v xml:space="preserve">-Consistency Is Key, </v>
+        <v xml:space="preserve">-Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="C9">
         <f>'Sec 1 Data'!Q11</f>
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -3753,7 +5679,7 @@
       </c>
       <c r="C10">
         <f>'Sec 1 Data'!Q12</f>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -3763,11 +5689,11 @@
       </c>
       <c r="B11" t="str">
         <f>'Sec 1 Data'!R13</f>
-        <v xml:space="preserve">-Full Combo, Consistency Is Key, </v>
+        <v xml:space="preserve">-Full Combo, Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="C11">
         <f>'Sec 1 Data'!Q13</f>
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -3781,7 +5707,7 @@
       </c>
       <c r="C12">
         <f>'Sec 1 Data'!Q14</f>
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -3791,11 +5717,11 @@
       </c>
       <c r="B13" t="str">
         <f>'Sec 1 Data'!R15</f>
-        <v>-</v>
+        <v xml:space="preserve">-Consistency Is Key, </v>
       </c>
       <c r="C13">
         <f>'Sec 1 Data'!Q15</f>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -3809,7 +5735,7 @@
       </c>
       <c r="C14">
         <f>'Sec 1 Data'!Q16</f>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -3823,7 +5749,7 @@
       </c>
       <c r="C15">
         <f>'Sec 1 Data'!Q17</f>
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -3833,11 +5759,11 @@
       </c>
       <c r="B16" t="str">
         <f>'Sec 1 Data'!R18</f>
-        <v xml:space="preserve">-Consistency Is Key, </v>
+        <v xml:space="preserve">-Gaming is life, Consistency Is Key, </v>
       </c>
       <c r="C16">
         <f>'Sec 1 Data'!Q18</f>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -3847,11 +5773,11 @@
       </c>
       <c r="B17" t="str">
         <f>'Sec 1 Data'!R19</f>
-        <v xml:space="preserve">-Full Combo, Three-Star Wonder, Consistency Is Key, </v>
+        <v xml:space="preserve">-Blast to the Past, Full Combo, Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="C17">
         <f>'Sec 1 Data'!Q19</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -3861,11 +5787,11 @@
       </c>
       <c r="B18" t="str">
         <f>'Sec 1 Data'!R20</f>
-        <v xml:space="preserve">-Full Combo, Three-Star Wonder, Consistency Is Key, </v>
+        <v xml:space="preserve">-Nowhere to Hide, Gaming is life, Full Combo, Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="C18">
         <f>'Sec 1 Data'!Q20</f>
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -3875,11 +5801,11 @@
       </c>
       <c r="B19" t="str">
         <f>'Sec 1 Data'!R21</f>
-        <v xml:space="preserve">-Three-Star Wonder, Consistency Is Key, </v>
+        <v xml:space="preserve">-Nowhere to Hide, Help a friend!, Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="C19">
         <f>'Sec 1 Data'!Q21</f>
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -3893,7 +5819,7 @@
       </c>
       <c r="C20">
         <f>'Sec 1 Data'!Q22</f>
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -3917,11 +5843,11 @@
       </c>
       <c r="B22" t="str">
         <f>'Sec 1 Data'!R24</f>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <v xml:space="preserve">-I Say Hi, Gaming is life, Blast to the Past, Three-Star Wonder, </v>
       </c>
       <c r="C22">
         <f>'Sec 1 Data'!Q24</f>
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -3935,7 +5861,7 @@
       </c>
       <c r="C23">
         <f>'Sec 1 Data'!Q25</f>
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -3945,11 +5871,11 @@
       </c>
       <c r="B24" t="str">
         <f>'Sec 1 Data'!R26</f>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <v xml:space="preserve">-Help a friend!, Three-Star Wonder, </v>
       </c>
       <c r="C24">
         <f>'Sec 1 Data'!Q26</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -3959,11 +5885,11 @@
       </c>
       <c r="B25" t="str">
         <f>'Sec 1 Data'!R27</f>
-        <v xml:space="preserve">-Consistency Is Key, </v>
+        <v xml:space="preserve">-I Say Hi, Consistency Is Key, </v>
       </c>
       <c r="C25">
         <f>'Sec 1 Data'!Q27</f>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -3973,11 +5899,11 @@
       </c>
       <c r="B26" t="str">
         <f>'Sec 1 Data'!R28</f>
-        <v xml:space="preserve">-Consistency Is Key, </v>
+        <v xml:space="preserve">-Help a friend!, Consistency Is Key, </v>
       </c>
       <c r="C26">
         <f>'Sec 1 Data'!Q28</f>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -4005,7 +5931,7 @@
       </c>
       <c r="C28">
         <f>'Sec 1 Data'!Q30</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -4019,7 +5945,7 @@
       </c>
       <c r="C29">
         <f>'Sec 1 Data'!Q31</f>
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -4033,7 +5959,7 @@
       </c>
       <c r="C30">
         <f>'Sec 1 Data'!Q32</f>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -4061,7 +5987,7 @@
       </c>
       <c r="C32">
         <f>'Sec 1 Data'!Q34</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -4071,11 +5997,11 @@
       </c>
       <c r="B33" t="str">
         <f>'Sec 1 Data'!R35</f>
-        <v xml:space="preserve">-Consistency Is Key, </v>
+        <v xml:space="preserve">-I Say Hi, Consistency Is Key, </v>
       </c>
       <c r="C33">
         <f>'Sec 1 Data'!Q35</f>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -4089,7 +6015,7 @@
       </c>
       <c r="C34">
         <f>'Sec 1 Data'!Q36</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -4103,7 +6029,7 @@
       </c>
       <c r="C35">
         <f>'Sec 1 Data'!Q37</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -4113,11 +6039,11 @@
       </c>
       <c r="B36" t="str">
         <f>'Sec 1 Data'!R38</f>
-        <v xml:space="preserve">-Consistency Is Key, </v>
+        <v xml:space="preserve">-Gaming is life, Consistency Is Key, </v>
       </c>
       <c r="C36">
         <f>'Sec 1 Data'!Q38</f>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -4181,14 +6107,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848CF460-3EAC-4A7D-8560-52951FCF8A6B}">
   <dimension ref="A1:AL43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection activeCell="T17" sqref="T17"/>
-      <selection pane="topRight" activeCell="E22" sqref="E22"/>
+      <selection activeCell="F9" sqref="F9"/>
+      <selection pane="topRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4223,49 +6149,49 @@
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="31" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="34" t="s">
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="35"/>
-      <c r="P2" s="36"/>
-      <c r="S2" s="27" t="s">
+      <c r="O2" s="32"/>
+      <c r="P2" s="33"/>
+      <c r="S2" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
@@ -5135,18 +7061,20 @@
         <f t="array" ref="K15">IF(MAX(FREQUENCY(IF(S15:AL15&gt;0,COLUMN(S15:AL15)),IF(S15:AL15&lt;=0,COLUMN(S15:AL15))))&gt;4,1,0)</f>
         <v>1</v>
       </c>
-      <c r="L15" s="13"/>
+      <c r="L15" s="13">
+        <v>1</v>
+      </c>
       <c r="M15" s="13"/>
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="15">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R15" s="15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Nowhere to Hide, Blast to the Past, Consistency Is Key, </v>
+        <v xml:space="preserve">-Nowhere to Hide, Blast to the Past, Consistency Is Key, Extra Credit, </v>
       </c>
       <c r="S15" s="16">
         <v>2</v>
@@ -6870,17 +8798,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247A2784-0518-447F-918A-28E207F2327C}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="47.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>83</v>
       </c>
@@ -6891,7 +8822,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>'Sec 2 Data'!A4</f>
         <v>Kaidy</v>
@@ -6904,8 +8835,11 @@
         <f>'Sec 2 Data'!Q4</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>'Sec 2 Data'!A5</f>
         <v>Felix</v>
@@ -6919,7 +8853,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>'Sec 2 Data'!A6</f>
         <v>Jey En</v>
@@ -6933,7 +8867,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>'Sec 2 Data'!A7</f>
         <v>Zachary</v>
@@ -6947,7 +8881,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>'Sec 2 Data'!A8</f>
         <v>Zhi Xing</v>
@@ -6961,7 +8895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>'Sec 2 Data'!A9</f>
         <v>Xin Ting</v>
@@ -6974,8 +8908,14 @@
         <f>'Sec 2 Data'!Q9</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>-7</v>
+      </c>
+      <c r="E7">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>'Sec 2 Data'!A10</f>
         <v>Yik Yan</v>
@@ -6989,7 +8929,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>'Sec 2 Data'!A11</f>
         <v>Ashley</v>
@@ -7003,7 +8943,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>'Sec 2 Data'!A12</f>
         <v>Claire</v>
@@ -7017,7 +8957,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>'Sec 2 Data'!A13</f>
         <v>Kaylie</v>
@@ -7031,7 +8971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>'Sec 2 Data'!A14</f>
         <v>Emmy</v>
@@ -7045,21 +8985,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f>'Sec 2 Data'!A15</f>
         <v>Kee Yuk</v>
       </c>
       <c r="B13" t="str">
         <f>'Sec 2 Data'!R15</f>
-        <v xml:space="preserve">-Nowhere to Hide, Blast to the Past, Consistency Is Key, </v>
+        <v xml:space="preserve">-Nowhere to Hide, Blast to the Past, Consistency Is Key, Extra Credit, </v>
       </c>
       <c r="C13">
         <f>'Sec 2 Data'!Q15</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f>'Sec 2 Data'!A16</f>
         <v>Le Xiang</v>
@@ -7073,7 +9016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>'Sec 2 Data'!A17</f>
         <v>Javis</v>
@@ -7087,7 +9030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>'Sec 2 Data'!A18</f>
         <v>Jayson</v>
@@ -7101,7 +9044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f>'Sec 2 Data'!A19</f>
         <v>Joey</v>
@@ -7115,7 +9058,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>'Sec 2 Data'!A20</f>
         <v>Jaden</v>
@@ -7128,8 +9071,11 @@
         <f>'Sec 2 Data'!Q20</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f>'Sec 2 Data'!A21</f>
         <v>Yan Cheng</v>
@@ -7143,7 +9089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f>'Sec 2 Data'!A22</f>
         <v>Rae</v>
@@ -7156,8 +9102,11 @@
         <f>'Sec 2 Data'!Q22</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f>'Sec 2 Data'!A23</f>
         <v>Reigneth</v>
@@ -7171,7 +9120,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f>'Sec 2 Data'!A24</f>
         <v>Shu Phing</v>
@@ -7185,7 +9134,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f>'Sec 2 Data'!A25</f>
         <v>Linus</v>
@@ -7199,7 +9148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f>'Sec 2 Data'!A26</f>
         <v>Shi Heng</v>
@@ -7213,7 +9162,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f>'Sec 2 Data'!A27</f>
         <v>Jamie</v>
@@ -7227,7 +9176,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f>'Sec 2 Data'!A28</f>
         <v>Ethan</v>
@@ -7241,7 +9190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f>'Sec 2 Data'!A29</f>
         <v>Kaelyn</v>
@@ -7254,8 +9203,11 @@
         <f>'Sec 2 Data'!Q29</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f>'Sec 2 Data'!A30</f>
         <v>Issac</v>
@@ -7269,7 +9221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f>'Sec 2 Data'!A31</f>
         <v>Zaviour</v>
@@ -7282,8 +9234,11 @@
         <f>'Sec 2 Data'!Q31</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f>'Sec 2 Data'!A32</f>
         <v>Julian</v>
@@ -7296,8 +9251,11 @@
         <f>'Sec 2 Data'!Q32</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f>'Sec 2 Data'!A33</f>
         <v>Le Qi</v>
@@ -7311,7 +9269,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f>'Sec 2 Data'!A34</f>
         <v>Zi Shan</v>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S9823846H\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngwen\Desktop\website\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E44CCA5-97CD-4B5C-87F6-71291B75AAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4179E0-654A-4067-9848-63D361C845E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sec 3 Data" sheetId="1" r:id="rId1"/>
@@ -20,19 +20,8 @@
     <sheet name="Sec 2 Data" sheetId="5" r:id="rId5"/>
     <sheet name="Sec 2" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataChecksum="Mr3tVAEpr4NlbUhNfuevPpMzV7Z7qtK3egGALkGDBFQ="/>
     </ext>
@@ -41,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="107">
   <si>
     <t>4A</t>
   </si>
@@ -341,9 +330,6 @@
   </si>
   <si>
     <t>Jack</t>
-  </si>
-  <si>
-    <t>#REF!</t>
   </si>
   <si>
     <t>Joash</t>
@@ -371,7 +357,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -913,35 +899,35 @@
   <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W11" sqref="W11"/>
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="6.90625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="15.08984375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.36328125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="12" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="10.08984375" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="15.90625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6328125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="15.90625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.54296875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="9.453125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="14.36328125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="19.36328125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="11.36328125" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.6328125" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="25.453125" hidden="1" customWidth="1"/>
-    <col min="19" max="38" width="8.90625" customWidth="1"/>
-    <col min="39" max="39" width="8.6328125" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" customWidth="1"/>
+    <col min="15" max="15" width="19.33203125" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" customWidth="1"/>
+    <col min="18" max="18" width="25.44140625" customWidth="1"/>
+    <col min="19" max="38" width="8.88671875" customWidth="1"/>
+    <col min="39" max="39" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -983,7 +969,7 @@
       <c r="AK1" s="8"/>
       <c r="AL1" s="9"/>
     </row>
-    <row r="2" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:39" ht="14.25" customHeight="1">
       <c r="B2" s="30" t="s">
         <v>1</v>
       </c>
@@ -1030,7 +1016,7 @@
       <c r="AK2" s="31"/>
       <c r="AL2" s="32"/>
     </row>
-    <row r="3" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:39" ht="14.25" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
@@ -1149,7 +1135,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:39" ht="14.25" customHeight="1">
       <c r="A4" s="16" t="s">
         <v>24</v>
       </c>
@@ -1205,7 +1191,7 @@
       <c r="AK4" s="21"/>
       <c r="AL4" s="21"/>
     </row>
-    <row r="5" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:39" ht="14.25" customHeight="1">
       <c r="A5" s="16" t="s">
         <v>25</v>
       </c>
@@ -1261,7 +1247,7 @@
       <c r="AK5" s="21"/>
       <c r="AL5" s="21"/>
     </row>
-    <row r="6" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:39" ht="14.25" customHeight="1">
       <c r="A6" s="16" t="s">
         <v>26</v>
       </c>
@@ -1317,7 +1303,7 @@
       <c r="AK6" s="21"/>
       <c r="AL6" s="21"/>
     </row>
-    <row r="7" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:39" ht="14.25" customHeight="1">
       <c r="A7" s="16" t="s">
         <v>27</v>
       </c>
@@ -1373,7 +1359,7 @@
       <c r="AK7" s="21"/>
       <c r="AL7" s="21"/>
     </row>
-    <row r="8" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:39" ht="14.25" customHeight="1">
       <c r="A8" s="16" t="s">
         <v>28</v>
       </c>
@@ -1429,7 +1415,7 @@
       <c r="AK8" s="21"/>
       <c r="AL8" s="21"/>
     </row>
-    <row r="9" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:39" ht="14.25" customHeight="1">
       <c r="A9" s="16" t="s">
         <v>29</v>
       </c>
@@ -1485,7 +1471,7 @@
       <c r="AK9" s="21"/>
       <c r="AL9" s="21"/>
     </row>
-    <row r="10" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:39" ht="14.25" customHeight="1">
       <c r="A10" s="16" t="s">
         <v>30</v>
       </c>
@@ -1541,7 +1527,7 @@
       <c r="AK10" s="21"/>
       <c r="AL10" s="21"/>
     </row>
-    <row r="11" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:39" ht="14.25" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>31</v>
       </c>
@@ -1597,7 +1583,7 @@
       <c r="AK11" s="21"/>
       <c r="AL11" s="21"/>
     </row>
-    <row r="12" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:39" ht="14.25" customHeight="1">
       <c r="A12" s="16" t="s">
         <v>67</v>
       </c>
@@ -1653,9 +1639,9 @@
       <c r="AK12" s="21"/>
       <c r="AL12" s="21"/>
     </row>
-    <row r="13" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:39" ht="14.25" customHeight="1">
       <c r="A13" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -1709,9 +1695,9 @@
       <c r="AK13" s="21"/>
       <c r="AL13" s="21"/>
     </row>
-    <row r="14" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:39" ht="14.25" customHeight="1">
       <c r="A14" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -1765,9 +1751,9 @@
       <c r="AK14" s="21"/>
       <c r="AL14" s="21"/>
     </row>
-    <row r="15" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:39" ht="14.25" customHeight="1">
       <c r="A15" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -1821,9 +1807,9 @@
       <c r="AK15" s="21"/>
       <c r="AL15" s="21"/>
     </row>
-    <row r="16" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:39" ht="14.25" customHeight="1">
       <c r="A16" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -1877,9 +1863,9 @@
       <c r="AK16" s="21"/>
       <c r="AL16" s="21"/>
     </row>
-    <row r="17" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:38" ht="14.25" customHeight="1">
       <c r="A17" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -1933,9 +1919,9 @@
       <c r="AK17" s="21"/>
       <c r="AL17" s="21"/>
     </row>
-    <row r="18" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:38" ht="14.25" customHeight="1">
       <c r="A18" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -1989,9 +1975,9 @@
       <c r="AK18" s="21"/>
       <c r="AL18" s="21"/>
     </row>
-    <row r="19" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:38" ht="14.25" customHeight="1">
       <c r="A19" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
@@ -2045,7 +2031,7 @@
       <c r="AK19" s="21"/>
       <c r="AL19" s="21"/>
     </row>
-    <row r="20" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:38" ht="14.25" customHeight="1">
       <c r="A20" s="16">
         <v>17</v>
       </c>
@@ -2099,7 +2085,7 @@
       <c r="AK20" s="21"/>
       <c r="AL20" s="21"/>
     </row>
-    <row r="21" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:38" ht="14.25" customHeight="1">
       <c r="A21" s="16">
         <v>18</v>
       </c>
@@ -2153,7 +2139,7 @@
       <c r="AK21" s="21"/>
       <c r="AL21" s="21"/>
     </row>
-    <row r="22" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:38" ht="14.25" customHeight="1">
       <c r="A22" s="16">
         <v>19</v>
       </c>
@@ -2207,7 +2193,7 @@
       <c r="AK22" s="21"/>
       <c r="AL22" s="21"/>
     </row>
-    <row r="23" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:38" ht="14.25" customHeight="1">
       <c r="A23" s="16">
         <v>20</v>
       </c>
@@ -2278,14 +2264,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="8.6328125" customWidth="1"/>
+    <col min="1" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -2296,244 +2284,284 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="str">
         <f>'Sec 3 Data'!A4</f>
         <v>Rui Ze</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="str">
+        <f>'Sec 3 Data'!R4</f>
+        <v>-</v>
+      </c>
+      <c r="C2" s="1">
+        <f>'Sec 3 Data'!Q4</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="str">
         <f>'Sec 3 Data'!A5</f>
         <v>Yu Xuan</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="str">
+        <f>'Sec 3 Data'!R5</f>
+        <v>-</v>
+      </c>
+      <c r="C3" s="1">
+        <f>'Sec 3 Data'!Q5</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="str">
         <f>'Sec 3 Data'!A6</f>
         <v>Etienne</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="str">
+        <f>'Sec 3 Data'!R6</f>
+        <v>-</v>
+      </c>
+      <c r="C4" s="1">
+        <f>'Sec 3 Data'!Q6</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="str">
         <f>'Sec 3 Data'!A7</f>
         <v>Garrick</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="str">
+        <f>'Sec 3 Data'!R7</f>
+        <v>-</v>
+      </c>
+      <c r="C5" s="1">
+        <f>'Sec 3 Data'!Q7</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="str">
         <f>'Sec 3 Data'!A8</f>
         <v>Gloria</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="str">
+        <f>'Sec 3 Data'!R8</f>
+        <v>-</v>
+      </c>
+      <c r="C6" s="1">
+        <f>'Sec 3 Data'!Q8</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="str">
         <f>'Sec 3 Data'!A9</f>
         <v>Jia Jun</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="str">
+        <f>'Sec 3 Data'!R9</f>
+        <v>-</v>
+      </c>
+      <c r="C7" s="1">
+        <f>'Sec 3 Data'!Q9</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="str">
         <f>'Sec 3 Data'!A10</f>
         <v>Malcom</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="str">
+        <f>'Sec 3 Data'!R10</f>
+        <v>-</v>
+      </c>
+      <c r="C8" s="1">
+        <f>'Sec 3 Data'!Q10</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="str">
         <f>'Sec 3 Data'!A11</f>
         <v>Kenjoo</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="1" t="str">
+        <f>'Sec 3 Data'!R11</f>
+        <v>-</v>
+      </c>
+      <c r="C9" s="1">
+        <f>'Sec 3 Data'!Q11</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="str">
         <f>'Sec 3 Data'!A12</f>
         <v>Ashley</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="1" t="str">
+        <f>'Sec 3 Data'!R12</f>
+        <v>-</v>
+      </c>
+      <c r="C10" s="1">
+        <f>'Sec 3 Data'!Q12</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="str">
         <f>'Sec 3 Data'!A13</f>
         <v>Joash</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="1" t="str">
+        <f>'Sec 3 Data'!R13</f>
+        <v>-</v>
+      </c>
+      <c r="C11" s="1">
+        <f>'Sec 3 Data'!Q13</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14.25" customHeight="1">
       <c r="A12" s="1" t="str">
         <f>'Sec 3 Data'!A14</f>
         <v>Kayla</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="str">
+        <f>'Sec 3 Data'!R14</f>
+        <v>-</v>
+      </c>
+      <c r="C12" s="1">
+        <f>'Sec 3 Data'!Q14</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14.25" customHeight="1">
       <c r="A13" s="1" t="str">
         <f>'Sec 3 Data'!A15</f>
         <v>Brandon</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="1" t="str">
+        <f>'Sec 3 Data'!R15</f>
+        <v>-</v>
+      </c>
+      <c r="C13" s="1">
+        <f>'Sec 3 Data'!Q15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="14.25" customHeight="1">
       <c r="A14" s="1" t="str">
         <f>'Sec 3 Data'!A16</f>
         <v>Siong Fong</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="1" t="str">
+        <f>'Sec 3 Data'!R16</f>
+        <v>-</v>
+      </c>
+      <c r="C14" s="1">
+        <f>'Sec 3 Data'!Q16</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="14.25" customHeight="1">
       <c r="A15" s="1" t="str">
         <f>'Sec 3 Data'!A17</f>
         <v>Jian Le</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="1" t="str">
+        <f>'Sec 3 Data'!R17</f>
+        <v>-</v>
+      </c>
+      <c r="C15" s="1">
+        <f>'Sec 3 Data'!Q17</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="14.25" customHeight="1">
       <c r="A16" s="1" t="str">
         <f>'Sec 3 Data'!A18</f>
         <v>Zhen You</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="1" t="str">
+        <f>'Sec 3 Data'!R18</f>
+        <v>-</v>
+      </c>
+      <c r="C16" s="1">
+        <f>'Sec 3 Data'!Q18</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14.25" customHeight="1">
       <c r="A17" s="1" t="str">
         <f>'Sec 3 Data'!A19</f>
         <v>Aiden</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="1" t="str">
+        <f>'Sec 3 Data'!R19</f>
+        <v>-</v>
+      </c>
+      <c r="C17" s="1">
+        <f>'Sec 3 Data'!Q19</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" s="1">
         <f>'Sec 3 Data'!A20</f>
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="1" t="str">
+        <f>'Sec 3 Data'!R20</f>
+        <v>-</v>
+      </c>
+      <c r="C18" s="1">
+        <f>'Sec 3 Data'!Q20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" s="1">
         <f>'Sec 3 Data'!A21</f>
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="1" t="str">
+        <f>'Sec 3 Data'!R21</f>
+        <v>-</v>
+      </c>
+      <c r="C19" s="1">
+        <f>'Sec 3 Data'!Q21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" s="1">
         <f>'Sec 3 Data'!A22</f>
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="1" t="str">
+        <f>'Sec 3 Data'!R22</f>
+        <v>-</v>
+      </c>
+      <c r="C20" s="1">
+        <f>'Sec 3 Data'!Q22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" s="1">
         <f>'Sec 3 Data'!A23</f>
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>100</v>
+      <c r="B21" s="1" t="str">
+        <f>'Sec 3 Data'!R23</f>
+        <v>-</v>
+      </c>
+      <c r="C21" s="1">
+        <f>'Sec 3 Data'!Q23</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2546,38 +2574,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AM42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.36328125" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="6.90625" customWidth="1"/>
-    <col min="4" max="4" width="15.08984375" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" customWidth="1"/>
-    <col min="6" max="6" width="14.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="10.08984375" customWidth="1"/>
-    <col min="9" max="9" width="15.90625" customWidth="1"/>
-    <col min="10" max="10" width="16.6328125" customWidth="1"/>
-    <col min="11" max="11" width="15.90625" customWidth="1"/>
-    <col min="12" max="12" width="10.54296875" customWidth="1"/>
-    <col min="13" max="13" width="9.453125" customWidth="1"/>
-    <col min="14" max="14" width="14.36328125" customWidth="1"/>
-    <col min="15" max="15" width="19.36328125" customWidth="1"/>
-    <col min="16" max="16" width="11.36328125" customWidth="1"/>
-    <col min="17" max="17" width="9.6328125" customWidth="1"/>
-    <col min="18" max="18" width="25.453125" customWidth="1"/>
-    <col min="19" max="22" width="8.90625" customWidth="1"/>
-    <col min="23" max="23" width="8.6328125" customWidth="1"/>
-    <col min="24" max="38" width="8.90625" customWidth="1"/>
-    <col min="39" max="39" width="8.6328125" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" customWidth="1"/>
+    <col min="15" max="15" width="19.33203125" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" customWidth="1"/>
+    <col min="18" max="18" width="25.44140625" customWidth="1"/>
+    <col min="19" max="22" width="8.88671875" customWidth="1"/>
+    <col min="23" max="23" width="8.6640625" customWidth="1"/>
+    <col min="24" max="38" width="8.88671875" customWidth="1"/>
+    <col min="39" max="39" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2619,7 +2647,7 @@
       <c r="AK1" s="8"/>
       <c r="AL1" s="9"/>
     </row>
-    <row r="2" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:39" ht="14.25" customHeight="1">
       <c r="B2" s="30" t="s">
         <v>1</v>
       </c>
@@ -2666,7 +2694,7 @@
       <c r="AK2" s="31"/>
       <c r="AL2" s="32"/>
     </row>
-    <row r="3" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:39" ht="14.25" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
@@ -2785,7 +2813,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:39" ht="14.25" customHeight="1">
       <c r="A4" s="16" t="s">
         <v>34</v>
       </c>
@@ -2858,7 +2886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:39" ht="14.25" customHeight="1">
       <c r="A5" s="16" t="s">
         <v>35</v>
       </c>
@@ -2931,7 +2959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:39" ht="14.25" customHeight="1">
       <c r="A6" s="16" t="s">
         <v>36</v>
       </c>
@@ -3006,7 +3034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:39" ht="14.25" customHeight="1">
       <c r="A7" s="16" t="s">
         <v>37</v>
       </c>
@@ -3083,7 +3111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:39" ht="14.25" customHeight="1">
       <c r="A8" s="16" t="s">
         <v>38</v>
       </c>
@@ -3156,7 +3184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:39" ht="14.25" customHeight="1">
       <c r="A9" s="16" t="s">
         <v>39</v>
       </c>
@@ -3231,7 +3259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:39" ht="14.25" customHeight="1">
       <c r="A10" s="16" t="s">
         <v>40</v>
       </c>
@@ -3306,7 +3334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:39" ht="13.5" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>41</v>
       </c>
@@ -3379,7 +3407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:39" ht="14.25" customHeight="1">
       <c r="A12" s="16" t="s">
         <v>42</v>
       </c>
@@ -3454,7 +3482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:39" ht="13.95" customHeight="1">
       <c r="A13" s="16" t="s">
         <v>43</v>
       </c>
@@ -3529,7 +3557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:39" ht="14.25" customHeight="1">
       <c r="A14" s="16" t="s">
         <v>44</v>
       </c>
@@ -3604,7 +3632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:39" ht="14.25" customHeight="1">
       <c r="A15" s="16" t="s">
         <v>45</v>
       </c>
@@ -3676,7 +3704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:39" ht="14.25" customHeight="1">
       <c r="A16" s="16" t="s">
         <v>46</v>
       </c>
@@ -3751,7 +3779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:39" ht="14.25" customHeight="1">
       <c r="A17" s="16" t="s">
         <v>47</v>
       </c>
@@ -3824,7 +3852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:39" ht="14.25" customHeight="1">
       <c r="A18" s="16" t="s">
         <v>48</v>
       </c>
@@ -3899,7 +3927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:39" ht="14.25" customHeight="1">
       <c r="A19" s="16" t="s">
         <v>49</v>
       </c>
@@ -3976,7 +4004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:39" ht="14.25" customHeight="1">
       <c r="A20" s="16" t="s">
         <v>50</v>
       </c>
@@ -4055,7 +4083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:39" ht="14.25" customHeight="1">
       <c r="A21" s="16" t="s">
         <v>51</v>
       </c>
@@ -4132,7 +4160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:39" ht="14.25" customHeight="1">
       <c r="A22" s="16" t="s">
         <v>52</v>
       </c>
@@ -4207,7 +4235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:39" ht="14.25" customHeight="1">
       <c r="A23" s="16" t="s">
         <v>53</v>
       </c>
@@ -4280,7 +4308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:39" ht="14.25" customHeight="1">
       <c r="A24" s="16" t="s">
         <v>54</v>
       </c>
@@ -4359,7 +4387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:39" ht="14.25" customHeight="1">
       <c r="A25" s="16" t="s">
         <v>55</v>
       </c>
@@ -4436,7 +4464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:39" ht="14.25" customHeight="1">
       <c r="A26" s="16" t="s">
         <v>56</v>
       </c>
@@ -4511,7 +4539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:39" ht="14.25" customHeight="1">
       <c r="A27" s="16" t="s">
         <v>57</v>
       </c>
@@ -4586,7 +4614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:39" ht="14.25" customHeight="1">
       <c r="A28" s="16" t="s">
         <v>58</v>
       </c>
@@ -4661,7 +4689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:39" ht="14.25" customHeight="1">
       <c r="A29" s="16" t="s">
         <v>59</v>
       </c>
@@ -4734,7 +4762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:39" ht="14.25" customHeight="1">
       <c r="A30" s="16" t="s">
         <v>60</v>
       </c>
@@ -4809,7 +4837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:39" ht="14.25" customHeight="1">
       <c r="A31" s="16" t="s">
         <v>61</v>
       </c>
@@ -4884,7 +4912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:39" ht="14.25" customHeight="1">
       <c r="A32" s="16" t="s">
         <v>62</v>
       </c>
@@ -4959,7 +4987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:39" ht="14.25" customHeight="1">
       <c r="A33" s="16" t="s">
         <v>63</v>
       </c>
@@ -5032,7 +5060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:39" ht="14.25" customHeight="1">
       <c r="A34" s="16" t="s">
         <v>64</v>
       </c>
@@ -5105,7 +5133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:39" ht="14.25" customHeight="1">
       <c r="A35" s="16" t="s">
         <v>65</v>
       </c>
@@ -5180,7 +5208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:39" ht="14.25" customHeight="1">
       <c r="A36" s="16" t="s">
         <v>66</v>
       </c>
@@ -5253,7 +5281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:39" ht="14.25" customHeight="1">
       <c r="A37" s="16" t="s">
         <v>67</v>
       </c>
@@ -5326,7 +5354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:39" ht="14.25" customHeight="1">
       <c r="A38" s="16" t="s">
         <v>68</v>
       </c>
@@ -5401,7 +5429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:39" ht="14.25" customHeight="1">
       <c r="A39" s="16"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -5447,7 +5475,7 @@
       <c r="AK39" s="21"/>
       <c r="AL39" s="21"/>
     </row>
-    <row r="40" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:39" ht="14.25" customHeight="1">
       <c r="A40" s="16"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -5493,7 +5521,7 @@
       <c r="AK40" s="21"/>
       <c r="AL40" s="21"/>
     </row>
-    <row r="41" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:39" ht="14.25" customHeight="1">
       <c r="A41" s="16"/>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
@@ -5539,7 +5567,7 @@
       <c r="AK41" s="21"/>
       <c r="AL41" s="21"/>
     </row>
-    <row r="42" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:39" ht="14.25" customHeight="1">
       <c r="A42" s="16"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -5605,12 +5633,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="8.6328125" customWidth="1"/>
+    <col min="1" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
@@ -5621,7 +5649,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="str">
         <f>'Sec 1 Data'!A4</f>
         <v>Lee Ren</v>
@@ -5635,7 +5663,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="str">
         <f>'Sec 1 Data'!A5</f>
         <v>Andreas</v>
@@ -5649,7 +5677,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="str">
         <f>'Sec 1 Data'!A6</f>
         <v>Bao Le</v>
@@ -5663,7 +5691,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="str">
         <f>'Sec 1 Data'!A7</f>
         <v>Sofia</v>
@@ -5677,7 +5705,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="str">
         <f>'Sec 1 Data'!A8</f>
         <v>Jayden Soh</v>
@@ -5691,7 +5719,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="str">
         <f>'Sec 1 Data'!A9</f>
         <v>Geng Qi</v>
@@ -5705,7 +5733,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="str">
         <f>'Sec 1 Data'!A10</f>
         <v>Qiu Yun</v>
@@ -5719,7 +5747,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="str">
         <f>'Sec 1 Data'!A11</f>
         <v>Rui Xuan</v>
@@ -5733,7 +5761,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="str">
         <f>'Sec 1 Data'!A12</f>
         <v>Vivian</v>
@@ -5747,7 +5775,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="str">
         <f>'Sec 1 Data'!A13</f>
         <v>Arissa</v>
@@ -5761,7 +5789,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="14.25" customHeight="1">
       <c r="A12" s="1" t="str">
         <f>'Sec 1 Data'!A14</f>
         <v>Zavier</v>
@@ -5775,7 +5803,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="14.25" customHeight="1">
       <c r="A13" s="1" t="str">
         <f>'Sec 1 Data'!A15</f>
         <v>Kah Jun</v>
@@ -5789,7 +5817,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="14.25" customHeight="1">
       <c r="A14" s="1" t="str">
         <f>'Sec 1 Data'!A16</f>
         <v>Fu Ying</v>
@@ -5803,7 +5831,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="14.25" customHeight="1">
       <c r="A15" s="1" t="str">
         <f>'Sec 1 Data'!A17</f>
         <v>Chevelle</v>
@@ -5817,7 +5845,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" ht="14.25" customHeight="1">
       <c r="A16" s="1" t="str">
         <f>'Sec 1 Data'!A18</f>
         <v>Derric</v>
@@ -5831,7 +5859,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="14.25" customHeight="1">
       <c r="A17" s="1" t="str">
         <f>'Sec 1 Data'!A19</f>
         <v>Edward</v>
@@ -5845,7 +5873,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" s="1" t="str">
         <f>'Sec 1 Data'!A20</f>
         <v>Elizabeth</v>
@@ -5859,7 +5887,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" s="1" t="str">
         <f>'Sec 1 Data'!A21</f>
         <v>Geneve</v>
@@ -5873,7 +5901,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" s="1" t="str">
         <f>'Sec 1 Data'!A22</f>
         <v>Hayley</v>
@@ -5887,7 +5915,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" s="1" t="str">
         <f>'Sec 1 Data'!A23</f>
         <v>Joyce</v>
@@ -5901,7 +5929,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" s="1" t="str">
         <f>'Sec 1 Data'!A24</f>
         <v>Qing Tian</v>
@@ -5915,7 +5943,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" s="1" t="str">
         <f>'Sec 1 Data'!A25</f>
         <v>Adrien</v>
@@ -5929,7 +5957,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" ht="14.25" customHeight="1">
       <c r="A24" s="1" t="str">
         <f>'Sec 1 Data'!A26</f>
         <v>Claire</v>
@@ -5943,7 +5971,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" s="1" t="str">
         <f>'Sec 1 Data'!A27</f>
         <v>Jayden Lee</v>
@@ -5957,7 +5985,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26" s="1" t="str">
         <f>'Sec 1 Data'!A28</f>
         <v>Raeanne</v>
@@ -5971,7 +5999,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" ht="14.25" customHeight="1">
       <c r="A27" s="1" t="str">
         <f>'Sec 1 Data'!A29</f>
         <v>Zong Han</v>
@@ -5985,7 +6013,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28" s="1" t="str">
         <f>'Sec 1 Data'!A30</f>
         <v>Yue Tong</v>
@@ -5999,7 +6027,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" s="1" t="str">
         <f>'Sec 1 Data'!A31</f>
         <v>Hao Yi</v>
@@ -6013,7 +6041,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" s="1" t="str">
         <f>'Sec 1 Data'!A32</f>
         <v>Keegan</v>
@@ -6027,7 +6055,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" s="1" t="str">
         <f>'Sec 1 Data'!A33</f>
         <v>Jing Le</v>
@@ -6041,7 +6069,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="A32" s="1" t="str">
         <f>'Sec 1 Data'!A34</f>
         <v>Kai Qi</v>
@@ -6055,7 +6083,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" ht="14.25" customHeight="1">
       <c r="A33" s="1" t="str">
         <f>'Sec 1 Data'!A35</f>
         <v>Alicia</v>
@@ -6069,7 +6097,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" ht="14.25" customHeight="1">
       <c r="A34" s="1" t="str">
         <f>'Sec 1 Data'!A36</f>
         <v>Jacinda</v>
@@ -6083,7 +6111,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" ht="14.25" customHeight="1">
       <c r="A35" s="1" t="str">
         <f>'Sec 1 Data'!A37</f>
         <v>Ashley</v>
@@ -6097,7 +6125,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" ht="14.25" customHeight="1">
       <c r="A36" s="1" t="str">
         <f>'Sec 1 Data'!A38</f>
         <v>Taven</v>
@@ -6111,7 +6139,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" ht="14.25" customHeight="1">
       <c r="A37" s="1">
         <f>'Sec 1 Data'!A39</f>
         <v>0</v>
@@ -6125,7 +6153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" ht="14.25" customHeight="1">
       <c r="A38" s="1">
         <f>'Sec 1 Data'!A40</f>
         <v>0</v>
@@ -6139,7 +6167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" ht="14.25" customHeight="1">
       <c r="A39" s="1">
         <f>'Sec 1 Data'!A41</f>
         <v>0</v>
@@ -6153,7 +6181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" ht="14.25" customHeight="1">
       <c r="A40" s="1">
         <f>'Sec 1 Data'!A42</f>
         <v>0</v>
@@ -6182,30 +6210,30 @@
       <selection pane="topRight" activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="6.90625" customWidth="1"/>
-    <col min="4" max="4" width="15.08984375" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" customWidth="1"/>
-    <col min="6" max="6" width="14.36328125" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="10.08984375" customWidth="1"/>
-    <col min="9" max="9" width="15.90625" customWidth="1"/>
-    <col min="10" max="10" width="16.6328125" customWidth="1"/>
-    <col min="11" max="11" width="15.90625" customWidth="1"/>
-    <col min="12" max="12" width="10.54296875" customWidth="1"/>
-    <col min="13" max="13" width="9.453125" customWidth="1"/>
-    <col min="14" max="14" width="14.36328125" customWidth="1"/>
-    <col min="15" max="15" width="19.36328125" customWidth="1"/>
-    <col min="16" max="16" width="11.36328125" customWidth="1"/>
-    <col min="17" max="17" width="9.6328125" customWidth="1"/>
-    <col min="18" max="18" width="25.453125" customWidth="1"/>
-    <col min="19" max="38" width="8.90625" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" customWidth="1"/>
+    <col min="15" max="15" width="19.33203125" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" customWidth="1"/>
+    <col min="18" max="18" width="25.44140625" customWidth="1"/>
+    <col min="19" max="38" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6247,7 +6275,7 @@
       <c r="AK1" s="8"/>
       <c r="AL1" s="9"/>
     </row>
-    <row r="2" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:38" ht="14.25" customHeight="1">
       <c r="B2" s="30" t="s">
         <v>1</v>
       </c>
@@ -6294,7 +6322,7 @@
       <c r="AK2" s="31"/>
       <c r="AL2" s="32"/>
     </row>
-    <row r="3" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:38" ht="14.25" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
@@ -6410,7 +6438,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:38" ht="14.25" customHeight="1">
       <c r="A4" s="16" t="s">
         <v>70</v>
       </c>
@@ -6478,7 +6506,7 @@
       <c r="AK4" s="21"/>
       <c r="AL4" s="21"/>
     </row>
-    <row r="5" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:38" ht="14.25" customHeight="1">
       <c r="A5" s="16" t="s">
         <v>71</v>
       </c>
@@ -6544,7 +6572,7 @@
       <c r="AK5" s="21"/>
       <c r="AL5" s="21"/>
     </row>
-    <row r="6" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:38" ht="14.25" customHeight="1">
       <c r="A6" s="16" t="s">
         <v>72</v>
       </c>
@@ -6612,7 +6640,7 @@
       <c r="AK6" s="21"/>
       <c r="AL6" s="21"/>
     </row>
-    <row r="7" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:38" ht="14.25" customHeight="1">
       <c r="A7" s="16" t="s">
         <v>73</v>
       </c>
@@ -6680,7 +6708,7 @@
       <c r="AK7" s="21"/>
       <c r="AL7" s="21"/>
     </row>
-    <row r="8" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:38" ht="14.25" customHeight="1">
       <c r="A8" s="16" t="s">
         <v>74</v>
       </c>
@@ -6746,7 +6774,7 @@
       <c r="AK8" s="21"/>
       <c r="AL8" s="21"/>
     </row>
-    <row r="9" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:38" ht="14.25" customHeight="1">
       <c r="A9" s="16" t="s">
         <v>75</v>
       </c>
@@ -6812,7 +6840,7 @@
       <c r="AK9" s="21"/>
       <c r="AL9" s="21"/>
     </row>
-    <row r="10" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:38" ht="14.25" customHeight="1">
       <c r="A10" s="16" t="s">
         <v>76</v>
       </c>
@@ -6878,7 +6906,7 @@
       <c r="AK10" s="21"/>
       <c r="AL10" s="21"/>
     </row>
-    <row r="11" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:38" ht="14.25" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>67</v>
       </c>
@@ -6944,7 +6972,7 @@
       <c r="AK11" s="21"/>
       <c r="AL11" s="21"/>
     </row>
-    <row r="12" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:38" ht="14.25" customHeight="1">
       <c r="A12" s="16" t="s">
         <v>56</v>
       </c>
@@ -7010,7 +7038,7 @@
       <c r="AK12" s="21"/>
       <c r="AL12" s="21"/>
     </row>
-    <row r="13" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:38" ht="14.25" customHeight="1">
       <c r="A13" s="16" t="s">
         <v>77</v>
       </c>
@@ -7074,7 +7102,7 @@
       <c r="AK13" s="21"/>
       <c r="AL13" s="21"/>
     </row>
-    <row r="14" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:38" ht="14.25" customHeight="1">
       <c r="A14" s="16" t="s">
         <v>78</v>
       </c>
@@ -7138,7 +7166,7 @@
       <c r="AK14" s="21"/>
       <c r="AL14" s="21"/>
     </row>
-    <row r="15" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:38" ht="14.25" customHeight="1">
       <c r="A15" s="16" t="s">
         <v>79</v>
       </c>
@@ -7210,7 +7238,7 @@
       <c r="AK15" s="21"/>
       <c r="AL15" s="21"/>
     </row>
-    <row r="16" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:38" ht="14.25" customHeight="1">
       <c r="A16" s="16" t="s">
         <v>80</v>
       </c>
@@ -7274,7 +7302,7 @@
       <c r="AK16" s="21"/>
       <c r="AL16" s="21"/>
     </row>
-    <row r="17" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:38" ht="14.25" customHeight="1">
       <c r="A17" s="16" t="s">
         <v>81</v>
       </c>
@@ -7338,7 +7366,7 @@
       <c r="AK17" s="21"/>
       <c r="AL17" s="21"/>
     </row>
-    <row r="18" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:38" ht="14.25" customHeight="1">
       <c r="A18" s="16" t="s">
         <v>82</v>
       </c>
@@ -7402,7 +7430,7 @@
       <c r="AK18" s="21"/>
       <c r="AL18" s="21"/>
     </row>
-    <row r="19" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:38" ht="14.25" customHeight="1">
       <c r="A19" s="16" t="s">
         <v>83</v>
       </c>
@@ -7470,7 +7498,7 @@
       <c r="AK19" s="21"/>
       <c r="AL19" s="21"/>
     </row>
-    <row r="20" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:38" ht="14.25" customHeight="1">
       <c r="A20" s="16" t="s">
         <v>84</v>
       </c>
@@ -7534,7 +7562,7 @@
       <c r="AK20" s="21"/>
       <c r="AL20" s="21"/>
     </row>
-    <row r="21" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:38" ht="14.25" customHeight="1">
       <c r="A21" s="16" t="s">
         <v>85</v>
       </c>
@@ -7600,7 +7628,7 @@
       <c r="AK21" s="21"/>
       <c r="AL21" s="21"/>
     </row>
-    <row r="22" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:38" ht="14.25" customHeight="1">
       <c r="A22" s="16" t="s">
         <v>86</v>
       </c>
@@ -7666,7 +7694,7 @@
       <c r="AK22" s="21"/>
       <c r="AL22" s="21"/>
     </row>
-    <row r="23" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:38" ht="14.25" customHeight="1">
       <c r="A23" s="16" t="s">
         <v>87</v>
       </c>
@@ -7732,7 +7760,7 @@
       <c r="AK23" s="21"/>
       <c r="AL23" s="21"/>
     </row>
-    <row r="24" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:38" ht="14.25" customHeight="1">
       <c r="A24" s="16" t="s">
         <v>88</v>
       </c>
@@ -7800,7 +7828,7 @@
       <c r="AK24" s="21"/>
       <c r="AL24" s="21"/>
     </row>
-    <row r="25" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:38" ht="14.25" customHeight="1">
       <c r="A25" s="16" t="s">
         <v>89</v>
       </c>
@@ -7866,7 +7894,7 @@
       <c r="AK25" s="21"/>
       <c r="AL25" s="21"/>
     </row>
-    <row r="26" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:38" ht="14.25" customHeight="1">
       <c r="A26" s="16" t="s">
         <v>90</v>
       </c>
@@ -7932,7 +7960,7 @@
       <c r="AK26" s="21"/>
       <c r="AL26" s="21"/>
     </row>
-    <row r="27" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:38" ht="14.25" customHeight="1">
       <c r="A27" s="16" t="s">
         <v>91</v>
       </c>
@@ -7996,7 +8024,7 @@
       <c r="AK27" s="21"/>
       <c r="AL27" s="21"/>
     </row>
-    <row r="28" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:38" ht="14.25" customHeight="1">
       <c r="A28" s="16" t="s">
         <v>92</v>
       </c>
@@ -8060,7 +8088,7 @@
       <c r="AK28" s="21"/>
       <c r="AL28" s="21"/>
     </row>
-    <row r="29" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:38" ht="14.25" customHeight="1">
       <c r="A29" s="16" t="s">
         <v>93</v>
       </c>
@@ -8124,7 +8152,7 @@
       <c r="AK29" s="21"/>
       <c r="AL29" s="21"/>
     </row>
-    <row r="30" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:38" ht="14.25" customHeight="1">
       <c r="A30" s="16" t="s">
         <v>94</v>
       </c>
@@ -8190,7 +8218,7 @@
       <c r="AK30" s="21"/>
       <c r="AL30" s="21"/>
     </row>
-    <row r="31" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:38" ht="14.25" customHeight="1">
       <c r="A31" s="16" t="s">
         <v>95</v>
       </c>
@@ -8256,7 +8284,7 @@
       <c r="AK31" s="21"/>
       <c r="AL31" s="21"/>
     </row>
-    <row r="32" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:38" ht="14.25" customHeight="1">
       <c r="A32" s="16" t="s">
         <v>96</v>
       </c>
@@ -8326,7 +8354,7 @@
       <c r="AK32" s="21"/>
       <c r="AL32" s="21"/>
     </row>
-    <row r="33" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:38" ht="14.25" customHeight="1">
       <c r="A33" s="16" t="s">
         <v>97</v>
       </c>
@@ -8392,7 +8420,7 @@
       <c r="AK33" s="21"/>
       <c r="AL33" s="21"/>
     </row>
-    <row r="34" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:38" ht="14.25" customHeight="1">
       <c r="A34" s="16" t="s">
         <v>98</v>
       </c>
@@ -8456,7 +8484,7 @@
       <c r="AK34" s="21"/>
       <c r="AL34" s="21"/>
     </row>
-    <row r="35" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:38" ht="14.25" customHeight="1">
       <c r="A35" s="16" t="s">
         <v>99</v>
       </c>
@@ -8520,7 +8548,7 @@
       <c r="AK35" s="21"/>
       <c r="AL35" s="21"/>
     </row>
-    <row r="36" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:38" ht="14.25" customHeight="1">
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
@@ -8565,7 +8593,7 @@
       <c r="AK36" s="21"/>
       <c r="AL36" s="21"/>
     </row>
-    <row r="37" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:38" ht="14.25" customHeight="1">
       <c r="A37" s="16"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
@@ -8611,7 +8639,7 @@
       <c r="AK37" s="21"/>
       <c r="AL37" s="21"/>
     </row>
-    <row r="38" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:38" ht="14.25" customHeight="1">
       <c r="A38" s="16"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -8657,7 +8685,7 @@
       <c r="AK38" s="21"/>
       <c r="AL38" s="21"/>
     </row>
-    <row r="39" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:38" ht="14.25" customHeight="1">
       <c r="A39" s="16"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -8703,7 +8731,7 @@
       <c r="AK39" s="21"/>
       <c r="AL39" s="21"/>
     </row>
-    <row r="40" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:38" ht="14.25" customHeight="1">
       <c r="A40" s="16"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -8749,7 +8777,7 @@
       <c r="AK40" s="21"/>
       <c r="AL40" s="21"/>
     </row>
-    <row r="41" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:38" ht="14.25" customHeight="1">
       <c r="A41" s="16"/>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
@@ -8795,7 +8823,7 @@
       <c r="AK41" s="21"/>
       <c r="AL41" s="21"/>
     </row>
-    <row r="42" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:38" ht="14.25" customHeight="1">
       <c r="A42" s="16"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -8841,7 +8869,7 @@
       <c r="AK42" s="21"/>
       <c r="AL42" s="21"/>
     </row>
-    <row r="43" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:38" ht="14.25" customHeight="1">
       <c r="A43" s="16"/>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
@@ -8903,16 +8931,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.6328125" customWidth="1"/>
-    <col min="2" max="2" width="47.54296875" customWidth="1"/>
-    <col min="3" max="26" width="8.6328125" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="47.5546875" customWidth="1"/>
+    <col min="3" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
@@ -8923,7 +8953,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="str">
         <f>'Sec 2 Data'!A4</f>
         <v>Kaidy</v>
@@ -8936,11 +8966,9 @@
         <f>'Sec 2 Data'!Q4</f>
         <v>21</v>
       </c>
-      <c r="D2" s="1">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="str">
         <f>'Sec 2 Data'!A5</f>
         <v>Felix</v>
@@ -8954,7 +8982,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="str">
         <f>'Sec 2 Data'!A6</f>
         <v>Jey En</v>
@@ -8968,7 +8996,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="str">
         <f>'Sec 2 Data'!A7</f>
         <v>Zachary</v>
@@ -8982,7 +9010,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="str">
         <f>'Sec 2 Data'!A8</f>
         <v>Zhi Xing</v>
@@ -8996,7 +9024,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="str">
         <f>'Sec 2 Data'!A9</f>
         <v>Xin Ting</v>
@@ -9009,14 +9037,10 @@
         <f>'Sec 2 Data'!Q9</f>
         <v>22</v>
       </c>
-      <c r="D7" s="1">
-        <v>-7</v>
-      </c>
-      <c r="E7" s="1">
-        <v>-15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="str">
         <f>'Sec 2 Data'!A10</f>
         <v>Yik Yan</v>
@@ -9030,7 +9054,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="str">
         <f>'Sec 2 Data'!A11</f>
         <v>Ashley</v>
@@ -9044,7 +9068,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="str">
         <f>'Sec 2 Data'!A12</f>
         <v>Claire</v>
@@ -9058,7 +9082,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="str">
         <f>'Sec 2 Data'!A13</f>
         <v>Kaylie</v>
@@ -9072,7 +9096,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="14.25" customHeight="1">
       <c r="A12" s="1" t="str">
         <f>'Sec 2 Data'!A14</f>
         <v>Emmy</v>
@@ -9086,7 +9110,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="14.25" customHeight="1">
       <c r="A13" s="1" t="str">
         <f>'Sec 2 Data'!A15</f>
         <v>Kee Yuk</v>
@@ -9099,11 +9123,9 @@
         <f>'Sec 2 Data'!Q15</f>
         <v>22</v>
       </c>
-      <c r="D13" s="1">
-        <v>-22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="14.25" customHeight="1">
       <c r="A14" s="1" t="str">
         <f>'Sec 2 Data'!A16</f>
         <v>Le Xiang</v>
@@ -9117,7 +9139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="14.25" customHeight="1">
       <c r="A15" s="1" t="str">
         <f>'Sec 2 Data'!A17</f>
         <v>Javis</v>
@@ -9131,7 +9153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="14.25" customHeight="1">
       <c r="A16" s="1" t="str">
         <f>'Sec 2 Data'!A18</f>
         <v>Jayson</v>
@@ -9145,7 +9167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="14.25" customHeight="1">
       <c r="A17" s="1" t="str">
         <f>'Sec 2 Data'!A19</f>
         <v>Joey</v>
@@ -9159,7 +9181,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="14.25" customHeight="1">
       <c r="A18" s="1" t="str">
         <f>'Sec 2 Data'!A20</f>
         <v>Jaden</v>
@@ -9172,11 +9194,9 @@
         <f>'Sec 2 Data'!Q20</f>
         <v>12</v>
       </c>
-      <c r="D18" s="1">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" ht="14.25" customHeight="1">
       <c r="A19" s="1" t="str">
         <f>'Sec 2 Data'!A21</f>
         <v>Yan Cheng</v>
@@ -9190,7 +9210,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="14.25" customHeight="1">
       <c r="A20" s="1" t="str">
         <f>'Sec 2 Data'!A22</f>
         <v>Rae</v>
@@ -9203,11 +9223,9 @@
         <f>'Sec 2 Data'!Q22</f>
         <v>17</v>
       </c>
-      <c r="D20" s="1">
-        <v>-15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" ht="14.25" customHeight="1">
       <c r="A21" s="1" t="str">
         <f>'Sec 2 Data'!A23</f>
         <v>Reigneth</v>
@@ -9221,7 +9239,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="14.25" customHeight="1">
       <c r="A22" s="1" t="str">
         <f>'Sec 2 Data'!A24</f>
         <v>Shu Phing</v>
@@ -9235,7 +9253,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="14.25" customHeight="1">
       <c r="A23" s="1" t="str">
         <f>'Sec 2 Data'!A25</f>
         <v>Linus</v>
@@ -9249,7 +9267,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="14.25" customHeight="1">
       <c r="A24" s="1" t="str">
         <f>'Sec 2 Data'!A26</f>
         <v>Shi Heng</v>
@@ -9263,7 +9281,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="14.25" customHeight="1">
       <c r="A25" s="1" t="str">
         <f>'Sec 2 Data'!A27</f>
         <v>Jamie</v>
@@ -9277,7 +9295,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="14.25" customHeight="1">
       <c r="A26" s="1" t="str">
         <f>'Sec 2 Data'!A28</f>
         <v>Ethan</v>
@@ -9291,7 +9309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="14.25" customHeight="1">
       <c r="A27" s="1" t="str">
         <f>'Sec 2 Data'!A29</f>
         <v>Kaelyn</v>
@@ -9304,11 +9322,9 @@
         <f>'Sec 2 Data'!Q29</f>
         <v>20</v>
       </c>
-      <c r="D27" s="1">
-        <v>-12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" ht="14.25" customHeight="1">
       <c r="A28" s="1" t="str">
         <f>'Sec 2 Data'!A30</f>
         <v>Issac</v>
@@ -9322,7 +9338,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="14.25" customHeight="1">
       <c r="A29" s="1" t="str">
         <f>'Sec 2 Data'!A31</f>
         <v>Zaviour</v>
@@ -9335,11 +9351,9 @@
         <f>'Sec 2 Data'!Q31</f>
         <v>6</v>
       </c>
-      <c r="D29" s="1">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" ht="14.25" customHeight="1">
       <c r="A30" s="1" t="str">
         <f>'Sec 2 Data'!A32</f>
         <v>Julian</v>
@@ -9352,11 +9366,9 @@
         <f>'Sec 2 Data'!Q32</f>
         <v>25</v>
       </c>
-      <c r="D30" s="1">
-        <v>-26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" ht="14.25" customHeight="1">
       <c r="A31" s="1" t="str">
         <f>'Sec 2 Data'!A33</f>
         <v>Le Qi</v>
@@ -9370,7 +9382,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="14.25" customHeight="1">
       <c r="A32" s="1" t="str">
         <f>'Sec 2 Data'!A34</f>
         <v>Zi Shan</v>
@@ -9384,7 +9396,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" ht="14.25" customHeight="1">
       <c r="A33" s="1" t="str">
         <f>'Sec 2 Data'!A35</f>
         <v>Jack</v>
@@ -9398,7 +9410,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" ht="14.25" customHeight="1">
       <c r="A34" s="1">
         <f>'Sec 2 Data'!A37</f>
         <v>0</v>
@@ -9412,7 +9424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" ht="14.25" customHeight="1">
       <c r="A35" s="1">
         <f>'Sec 2 Data'!A38</f>
         <v>0</v>
@@ -9426,7 +9438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" ht="14.25" customHeight="1">
       <c r="A36" s="1">
         <f>'Sec 2 Data'!A39</f>
         <v>0</v>
@@ -9440,7 +9452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" ht="14.25" customHeight="1">
       <c r="A37" s="1">
         <f>'Sec 2 Data'!A40</f>
         <v>0</v>
@@ -9454,7 +9466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" ht="14.25" customHeight="1">
       <c r="A38" s="1">
         <f>'Sec 2 Data'!A41</f>
         <v>0</v>
@@ -9468,7 +9480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" ht="14.25" customHeight="1">
       <c r="A39" s="1">
         <f>'Sec 2 Data'!A42</f>
         <v>0</v>
@@ -9482,7 +9494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" ht="14.25" customHeight="1">
       <c r="A40" s="1">
         <f>'Sec 2 Data'!A43</f>
         <v>0</v>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngwen\Desktop\website\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4179E0-654A-4067-9848-63D361C845E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EFDC4F-EE4F-4DDF-B891-A1AAE8896DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="108">
   <si>
     <t>4A</t>
   </si>
@@ -351,6 +351,9 @@
   </si>
   <si>
     <t>Aiden</t>
+  </si>
+  <si>
+    <t>6.1 6.2</t>
   </si>
 </sst>
 </file>
@@ -899,7 +902,7 @@
   <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
@@ -1162,7 +1165,7 @@
       <c r="P4" s="19"/>
       <c r="Q4" s="20">
         <f t="shared" ref="Q4:Q23" si="1">SUM(B4:G4)+3*SUM(H4:M4)+5*SUM(N4:P4)+SUM(S4:AM4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R4" s="20" t="str">
         <f t="shared" ref="R4:R23" si="2">CONCATENATE("-",IF(B4=1,$B$3&amp;", ",""),IF(C4=1,$C$3&amp;", ",""),IF(D4=1,$D$3&amp;", ",""),IF(E4=1,$E$3&amp;", ",""),IF(F4=1,$F$3&amp;", ",""),IF(G4=1,$G$3&amp;", ",""),IF(H4=1,$H$3&amp;", ",""),IF(I4=1,$I$3&amp;", ",""),IF(J4=1,$J$3&amp;", ",""),IF(K4=1,$K$3&amp;", ",""),IF(L4=1,$L$3&amp;", ",""),IF(M4=1,$M$3&amp;", ",""),IF(N4=1,$N$3&amp;", ",""),IF(O4=1,$O$3&amp;", ",""),IF(P4=1,$P$3&amp;", ",""))</f>
@@ -1171,7 +1174,9 @@
       <c r="S4" s="21">
         <v>2</v>
       </c>
-      <c r="T4" s="21"/>
+      <c r="T4" s="21">
+        <v>2</v>
+      </c>
       <c r="U4" s="21"/>
       <c r="V4" s="21"/>
       <c r="W4" s="21"/>
@@ -1218,7 +1223,7 @@
       <c r="P5" s="19"/>
       <c r="Q5" s="20">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R5" s="20" t="str">
         <f t="shared" si="2"/>
@@ -1227,7 +1232,9 @@
       <c r="S5" s="21">
         <v>3</v>
       </c>
-      <c r="T5" s="21"/>
+      <c r="T5" s="21">
+        <v>1</v>
+      </c>
       <c r="U5" s="21"/>
       <c r="V5" s="21"/>
       <c r="W5" s="21"/>
@@ -1274,7 +1281,7 @@
       <c r="P6" s="19"/>
       <c r="Q6" s="20">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R6" s="20" t="str">
         <f t="shared" si="2"/>
@@ -1283,7 +1290,9 @@
       <c r="S6" s="21">
         <v>2</v>
       </c>
-      <c r="T6" s="21"/>
+      <c r="T6" s="21">
+        <v>3</v>
+      </c>
       <c r="U6" s="21"/>
       <c r="V6" s="21"/>
       <c r="W6" s="21"/>
@@ -1330,7 +1339,7 @@
       <c r="P7" s="19"/>
       <c r="Q7" s="20">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R7" s="20" t="str">
         <f t="shared" si="2"/>
@@ -1339,7 +1348,9 @@
       <c r="S7" s="21">
         <v>2</v>
       </c>
-      <c r="T7" s="21"/>
+      <c r="T7" s="21">
+        <v>2</v>
+      </c>
       <c r="U7" s="21"/>
       <c r="V7" s="21"/>
       <c r="W7" s="21"/>
@@ -1386,7 +1397,7 @@
       <c r="P8" s="19"/>
       <c r="Q8" s="20">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R8" s="20" t="str">
         <f t="shared" si="2"/>
@@ -1395,7 +1406,9 @@
       <c r="S8" s="21">
         <v>2</v>
       </c>
-      <c r="T8" s="21"/>
+      <c r="T8" s="21">
+        <v>1</v>
+      </c>
       <c r="U8" s="21"/>
       <c r="V8" s="21"/>
       <c r="W8" s="21"/>
@@ -1442,7 +1455,7 @@
       <c r="P9" s="19"/>
       <c r="Q9" s="20">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R9" s="20" t="str">
         <f t="shared" si="2"/>
@@ -1451,7 +1464,9 @@
       <c r="S9" s="21">
         <v>3</v>
       </c>
-      <c r="T9" s="21"/>
+      <c r="T9" s="21">
+        <v>3</v>
+      </c>
       <c r="U9" s="21"/>
       <c r="V9" s="21"/>
       <c r="W9" s="21"/>
@@ -1498,7 +1513,7 @@
       <c r="P10" s="19"/>
       <c r="Q10" s="20">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R10" s="20" t="str">
         <f t="shared" si="2"/>
@@ -1507,7 +1522,9 @@
       <c r="S10" s="21">
         <v>2</v>
       </c>
-      <c r="T10" s="21"/>
+      <c r="T10" s="21">
+        <v>2</v>
+      </c>
       <c r="U10" s="21"/>
       <c r="V10" s="21"/>
       <c r="W10" s="21"/>
@@ -1554,7 +1571,7 @@
       <c r="P11" s="19"/>
       <c r="Q11" s="20">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R11" s="20" t="str">
         <f t="shared" si="2"/>
@@ -1563,7 +1580,9 @@
       <c r="S11" s="21">
         <v>2</v>
       </c>
-      <c r="T11" s="21"/>
+      <c r="T11" s="21">
+        <v>2</v>
+      </c>
       <c r="U11" s="21"/>
       <c r="V11" s="21"/>
       <c r="W11" s="21"/>
@@ -1610,7 +1629,7 @@
       <c r="P12" s="19"/>
       <c r="Q12" s="20">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R12" s="20" t="str">
         <f t="shared" si="2"/>
@@ -1619,7 +1638,9 @@
       <c r="S12" s="21">
         <v>3</v>
       </c>
-      <c r="T12" s="21"/>
+      <c r="T12" s="21">
+        <v>2</v>
+      </c>
       <c r="U12" s="21"/>
       <c r="V12" s="21"/>
       <c r="W12" s="21"/>
@@ -1666,7 +1687,7 @@
       <c r="P13" s="19"/>
       <c r="Q13" s="20">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R13" s="20" t="str">
         <f t="shared" si="2"/>
@@ -1675,7 +1696,9 @@
       <c r="S13" s="21">
         <v>3</v>
       </c>
-      <c r="T13" s="21"/>
+      <c r="T13" s="21">
+        <v>2</v>
+      </c>
       <c r="U13" s="21"/>
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
@@ -1722,7 +1745,7 @@
       <c r="P14" s="19"/>
       <c r="Q14" s="20">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R14" s="20" t="str">
         <f t="shared" si="2"/>
@@ -1731,7 +1754,9 @@
       <c r="S14" s="21">
         <v>3</v>
       </c>
-      <c r="T14" s="21"/>
+      <c r="T14" s="21">
+        <v>2</v>
+      </c>
       <c r="U14" s="21"/>
       <c r="V14" s="21"/>
       <c r="W14" s="21"/>
@@ -1778,7 +1803,7 @@
       <c r="P15" s="19"/>
       <c r="Q15" s="20">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R15" s="20" t="str">
         <f t="shared" si="2"/>
@@ -1787,7 +1812,9 @@
       <c r="S15" s="21">
         <v>3</v>
       </c>
-      <c r="T15" s="21"/>
+      <c r="T15" s="21">
+        <v>1</v>
+      </c>
       <c r="U15" s="21"/>
       <c r="V15" s="21"/>
       <c r="W15" s="21"/>
@@ -1834,7 +1861,7 @@
       <c r="P16" s="19"/>
       <c r="Q16" s="20">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R16" s="20" t="str">
         <f t="shared" si="2"/>
@@ -1843,7 +1870,9 @@
       <c r="S16" s="21">
         <v>1</v>
       </c>
-      <c r="T16" s="21"/>
+      <c r="T16" s="21">
+        <v>1</v>
+      </c>
       <c r="U16" s="21"/>
       <c r="V16" s="21"/>
       <c r="W16" s="21"/>
@@ -1890,7 +1919,7 @@
       <c r="P17" s="19"/>
       <c r="Q17" s="20">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R17" s="20" t="str">
         <f t="shared" si="2"/>
@@ -1899,7 +1928,9 @@
       <c r="S17" s="21">
         <v>3</v>
       </c>
-      <c r="T17" s="21"/>
+      <c r="T17" s="21">
+        <v>2</v>
+      </c>
       <c r="U17" s="21"/>
       <c r="V17" s="21"/>
       <c r="W17" s="21"/>
@@ -1955,7 +1986,9 @@
       <c r="S18" s="21">
         <v>1</v>
       </c>
-      <c r="T18" s="21"/>
+      <c r="T18" s="21">
+        <v>0</v>
+      </c>
       <c r="U18" s="21"/>
       <c r="V18" s="21"/>
       <c r="W18" s="21"/>
@@ -2002,7 +2035,7 @@
       <c r="P19" s="19"/>
       <c r="Q19" s="20">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R19" s="20" t="str">
         <f t="shared" si="2"/>
@@ -2011,7 +2044,9 @@
       <c r="S19" s="21">
         <v>3</v>
       </c>
-      <c r="T19" s="21"/>
+      <c r="T19" s="21">
+        <v>3</v>
+      </c>
       <c r="U19" s="21"/>
       <c r="V19" s="21"/>
       <c r="W19" s="21"/>
@@ -2265,7 +2300,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2295,7 +2330,7 @@
       </c>
       <c r="C2" s="1">
         <f>'Sec 3 Data'!Q4</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.25" customHeight="1">
@@ -2309,7 +2344,7 @@
       </c>
       <c r="C3" s="1">
         <f>'Sec 3 Data'!Q5</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.25" customHeight="1">
@@ -2323,7 +2358,7 @@
       </c>
       <c r="C4" s="1">
         <f>'Sec 3 Data'!Q6</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.25" customHeight="1">
@@ -2337,7 +2372,7 @@
       </c>
       <c r="C5" s="1">
         <f>'Sec 3 Data'!Q7</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.25" customHeight="1">
@@ -2351,7 +2386,7 @@
       </c>
       <c r="C6" s="1">
         <f>'Sec 3 Data'!Q8</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.25" customHeight="1">
@@ -2365,7 +2400,7 @@
       </c>
       <c r="C7" s="1">
         <f>'Sec 3 Data'!Q9</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.25" customHeight="1">
@@ -2379,7 +2414,7 @@
       </c>
       <c r="C8" s="1">
         <f>'Sec 3 Data'!Q10</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.25" customHeight="1">
@@ -2393,7 +2428,7 @@
       </c>
       <c r="C9" s="1">
         <f>'Sec 3 Data'!Q11</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.25" customHeight="1">
@@ -2407,7 +2442,7 @@
       </c>
       <c r="C10" s="1">
         <f>'Sec 3 Data'!Q12</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.25" customHeight="1">
@@ -2421,7 +2456,7 @@
       </c>
       <c r="C11" s="1">
         <f>'Sec 3 Data'!Q13</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.25" customHeight="1">
@@ -2435,7 +2470,7 @@
       </c>
       <c r="C12" s="1">
         <f>'Sec 3 Data'!Q14</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.25" customHeight="1">
@@ -2449,7 +2484,7 @@
       </c>
       <c r="C13" s="1">
         <f>'Sec 3 Data'!Q15</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.25" customHeight="1">
@@ -2463,7 +2498,7 @@
       </c>
       <c r="C14" s="1">
         <f>'Sec 3 Data'!Q16</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.25" customHeight="1">
@@ -2477,7 +2512,7 @@
       </c>
       <c r="C15" s="1">
         <f>'Sec 3 Data'!Q17</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.25" customHeight="1">
@@ -2505,7 +2540,7 @@
       </c>
       <c r="C17" s="1">
         <f>'Sec 3 Data'!Q19</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
@@ -2574,9 +2609,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AM42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z25" sqref="Z25"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2773,8 +2808,8 @@
       <c r="Z3" s="15">
         <v>8</v>
       </c>
-      <c r="AA3" s="15">
-        <v>9</v>
+      <c r="AA3" s="15" t="s">
+        <v>107</v>
       </c>
       <c r="AB3" s="15">
         <v>10</v>
@@ -2840,7 +2875,7 @@
       <c r="P4" s="19"/>
       <c r="Q4" s="20">
         <f t="shared" ref="Q4:Q42" si="1">SUM(B4:G4)+3*SUM(H4:M4)+5*SUM(N4:P4)+SUM(S4:AM4)</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R4" s="20" t="str">
         <f t="shared" ref="R4:R42" si="2">CONCATENATE("-",IF(B4=1,$B$3&amp;", ",""),IF(C4=1,$C$3&amp;", ",""),IF(D4=1,$D$3&amp;", ",""),IF(E4=1,$E$3&amp;", ",""),IF(F4=1,$F$3&amp;", ",""),IF(G4=1,$G$3&amp;", ",""),IF(H4=1,$H$3&amp;", ",""),IF(I4=1,$I$3&amp;", ",""),IF(J4=1,$J$3&amp;", ",""),IF(K4=1,$K$3&amp;", ",""),IF(L4=1,$L$3&amp;", ",""),IF(M4=1,$M$3&amp;", ",""),IF(N4=1,$N$3&amp;", ",""),IF(O4=1,$O$3&amp;", ",""),IF(P4=1,$P$3&amp;", ",""))</f>
@@ -2870,7 +2905,9 @@
       <c r="Z4" s="21">
         <v>3</v>
       </c>
-      <c r="AA4" s="21"/>
+      <c r="AA4" s="21">
+        <v>3</v>
+      </c>
       <c r="AB4" s="21"/>
       <c r="AC4" s="21"/>
       <c r="AD4" s="21"/>
@@ -2943,7 +2980,7 @@
       <c r="Z5" s="21">
         <v>3</v>
       </c>
-      <c r="AA5" s="21"/>
+      <c r="AA5" s="26"/>
       <c r="AB5" s="21"/>
       <c r="AC5" s="21"/>
       <c r="AD5" s="21"/>
@@ -3018,7 +3055,7 @@
       <c r="Z6" s="21">
         <v>1</v>
       </c>
-      <c r="AA6" s="21"/>
+      <c r="AA6" s="26"/>
       <c r="AB6" s="21"/>
       <c r="AC6" s="21"/>
       <c r="AD6" s="21"/>
@@ -3052,7 +3089,7 @@
       <c r="I7" s="18"/>
       <c r="J7" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="18">
         <f t="array" ref="K7">IF(MAX(FREQUENCY(IF(S7:AL7&gt;0,COLUMN(S7:AL7)),IF(S7:AL7&lt;=0,COLUMN(S7:AL7))))&gt;4,1,0)</f>
@@ -3065,11 +3102,11 @@
       <c r="P7" s="19"/>
       <c r="Q7" s="20">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="R7" s="20" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Nowhere to Hide, Full Combo, Consistency Is Key, </v>
+        <v xml:space="preserve">-Nowhere to Hide, Full Combo, Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="S7" s="21">
         <v>1</v>
@@ -3095,7 +3132,9 @@
       <c r="Z7" s="21">
         <v>3</v>
       </c>
-      <c r="AA7" s="21"/>
+      <c r="AA7" s="21">
+        <v>3</v>
+      </c>
       <c r="AB7" s="21"/>
       <c r="AC7" s="21"/>
       <c r="AD7" s="21"/>
@@ -3138,7 +3177,7 @@
       <c r="P8" s="19"/>
       <c r="Q8" s="20">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R8" s="20" t="str">
         <f t="shared" si="2"/>
@@ -3168,7 +3207,9 @@
       <c r="Z8" s="21">
         <v>2</v>
       </c>
-      <c r="AA8" s="21"/>
+      <c r="AA8" s="21">
+        <v>2</v>
+      </c>
       <c r="AB8" s="21"/>
       <c r="AC8" s="21"/>
       <c r="AD8" s="21"/>
@@ -3213,7 +3254,7 @@
       <c r="P9" s="19"/>
       <c r="Q9" s="20">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R9" s="20" t="str">
         <f t="shared" si="2"/>
@@ -3243,7 +3284,9 @@
       <c r="Z9" s="21">
         <v>3</v>
       </c>
-      <c r="AA9" s="21"/>
+      <c r="AA9" s="21">
+        <v>2</v>
+      </c>
       <c r="AB9" s="21"/>
       <c r="AC9" s="21"/>
       <c r="AD9" s="21"/>
@@ -3288,7 +3331,7 @@
       <c r="P10" s="19"/>
       <c r="Q10" s="20">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="R10" s="20" t="str">
         <f t="shared" si="2"/>
@@ -3318,7 +3361,9 @@
       <c r="Z10" s="21">
         <v>3</v>
       </c>
-      <c r="AA10" s="21"/>
+      <c r="AA10" s="21">
+        <v>3</v>
+      </c>
       <c r="AB10" s="21"/>
       <c r="AC10" s="21"/>
       <c r="AD10" s="21"/>
@@ -3361,7 +3406,7 @@
       <c r="P11" s="19"/>
       <c r="Q11" s="20">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="R11" s="20" t="str">
         <f t="shared" si="2"/>
@@ -3391,7 +3436,9 @@
       <c r="Z11" s="21">
         <v>3</v>
       </c>
-      <c r="AA11" s="21"/>
+      <c r="AA11" s="21">
+        <v>2</v>
+      </c>
       <c r="AB11" s="21"/>
       <c r="AC11" s="21"/>
       <c r="AD11" s="21"/>
@@ -3436,7 +3483,7 @@
       <c r="P12" s="19"/>
       <c r="Q12" s="20">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R12" s="20" t="str">
         <f t="shared" si="2"/>
@@ -3466,7 +3513,9 @@
       <c r="Z12" s="21">
         <v>3</v>
       </c>
-      <c r="AA12" s="21"/>
+      <c r="AA12" s="21">
+        <v>2</v>
+      </c>
       <c r="AB12" s="21"/>
       <c r="AC12" s="21"/>
       <c r="AD12" s="21"/>
@@ -3511,7 +3560,7 @@
       <c r="P13" s="19"/>
       <c r="Q13" s="20">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R13" s="20" t="str">
         <f t="shared" si="2"/>
@@ -3541,7 +3590,9 @@
       <c r="Z13" s="21">
         <v>2</v>
       </c>
-      <c r="AA13" s="21"/>
+      <c r="AA13" s="21">
+        <v>3</v>
+      </c>
       <c r="AB13" s="21"/>
       <c r="AC13" s="21"/>
       <c r="AD13" s="21"/>
@@ -3586,7 +3637,7 @@
       <c r="P14" s="19"/>
       <c r="Q14" s="20">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="R14" s="20" t="str">
         <f t="shared" si="2"/>
@@ -3616,7 +3667,9 @@
       <c r="Z14" s="21">
         <v>3</v>
       </c>
-      <c r="AA14" s="21"/>
+      <c r="AA14" s="21">
+        <v>3</v>
+      </c>
       <c r="AB14" s="21"/>
       <c r="AC14" s="21"/>
       <c r="AD14" s="21"/>
@@ -3658,7 +3711,7 @@
       <c r="P15" s="19"/>
       <c r="Q15" s="20">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R15" s="20" t="str">
         <f t="shared" si="2"/>
@@ -3688,7 +3741,9 @@
       <c r="Z15" s="21">
         <v>3</v>
       </c>
-      <c r="AA15" s="21"/>
+      <c r="AA15" s="21">
+        <v>1</v>
+      </c>
       <c r="AB15" s="21"/>
       <c r="AC15" s="21"/>
       <c r="AD15" s="21"/>
@@ -3733,7 +3788,7 @@
       <c r="P16" s="19"/>
       <c r="Q16" s="20">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R16" s="20" t="str">
         <f t="shared" si="2"/>
@@ -3763,7 +3818,9 @@
       <c r="Z16" s="21">
         <v>3</v>
       </c>
-      <c r="AA16" s="21"/>
+      <c r="AA16" s="21">
+        <v>2</v>
+      </c>
       <c r="AB16" s="21"/>
       <c r="AC16" s="21"/>
       <c r="AD16" s="21"/>
@@ -3806,7 +3863,7 @@
       <c r="P17" s="19"/>
       <c r="Q17" s="20">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R17" s="20" t="str">
         <f t="shared" si="2"/>
@@ -3836,7 +3893,9 @@
       <c r="Z17" s="21">
         <v>3</v>
       </c>
-      <c r="AA17" s="21"/>
+      <c r="AA17" s="21">
+        <v>2</v>
+      </c>
       <c r="AB17" s="21"/>
       <c r="AC17" s="21"/>
       <c r="AD17" s="21"/>
@@ -3881,7 +3940,7 @@
       <c r="P18" s="19"/>
       <c r="Q18" s="20">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R18" s="20" t="str">
         <f t="shared" si="2"/>
@@ -3911,7 +3970,9 @@
       <c r="Z18" s="21">
         <v>1</v>
       </c>
-      <c r="AA18" s="21"/>
+      <c r="AA18" s="21">
+        <v>1</v>
+      </c>
       <c r="AB18" s="21"/>
       <c r="AC18" s="21"/>
       <c r="AD18" s="21"/>
@@ -3958,7 +4019,7 @@
       <c r="P19" s="19"/>
       <c r="Q19" s="20">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R19" s="20" t="str">
         <f t="shared" si="2"/>
@@ -3988,7 +4049,9 @@
       <c r="Z19" s="21">
         <v>3</v>
       </c>
-      <c r="AA19" s="21"/>
+      <c r="AA19" s="21">
+        <v>2</v>
+      </c>
       <c r="AB19" s="21"/>
       <c r="AC19" s="21"/>
       <c r="AD19" s="21"/>
@@ -4037,7 +4100,7 @@
       <c r="P20" s="19"/>
       <c r="Q20" s="20">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="R20" s="20" t="str">
         <f t="shared" si="2"/>
@@ -4067,7 +4130,9 @@
       <c r="Z20" s="21">
         <v>2</v>
       </c>
-      <c r="AA20" s="21"/>
+      <c r="AA20" s="21">
+        <v>3</v>
+      </c>
       <c r="AB20" s="21"/>
       <c r="AC20" s="21"/>
       <c r="AD20" s="21"/>
@@ -4114,7 +4179,7 @@
       <c r="P21" s="19"/>
       <c r="Q21" s="20">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R21" s="20" t="str">
         <f t="shared" si="2"/>
@@ -4144,7 +4209,9 @@
       <c r="Z21" s="21">
         <v>3</v>
       </c>
-      <c r="AA21" s="21"/>
+      <c r="AA21" s="21">
+        <v>2</v>
+      </c>
       <c r="AB21" s="21"/>
       <c r="AC21" s="21"/>
       <c r="AD21" s="21"/>
@@ -4189,7 +4256,7 @@
       <c r="P22" s="19"/>
       <c r="Q22" s="20">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R22" s="20" t="str">
         <f t="shared" si="2"/>
@@ -4219,7 +4286,9 @@
       <c r="Z22" s="21">
         <v>3</v>
       </c>
-      <c r="AA22" s="21"/>
+      <c r="AA22" s="21">
+        <v>2</v>
+      </c>
       <c r="AB22" s="21"/>
       <c r="AC22" s="21"/>
       <c r="AD22" s="21"/>
@@ -4262,7 +4331,7 @@
       <c r="P23" s="19"/>
       <c r="Q23" s="20">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R23" s="20" t="str">
         <f t="shared" si="2"/>
@@ -4292,7 +4361,9 @@
       <c r="Z23" s="21">
         <v>2</v>
       </c>
-      <c r="AA23" s="21"/>
+      <c r="AA23" s="21">
+        <v>1</v>
+      </c>
       <c r="AB23" s="21"/>
       <c r="AC23" s="21"/>
       <c r="AD23" s="21"/>
@@ -4341,7 +4412,7 @@
       <c r="P24" s="19"/>
       <c r="Q24" s="20">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R24" s="20" t="str">
         <f t="shared" si="2"/>
@@ -4371,7 +4442,9 @@
       <c r="Z24" s="21">
         <v>2</v>
       </c>
-      <c r="AA24" s="21"/>
+      <c r="AA24" s="21">
+        <v>1</v>
+      </c>
       <c r="AB24" s="21"/>
       <c r="AC24" s="21"/>
       <c r="AD24" s="21"/>
@@ -4418,7 +4491,7 @@
       <c r="P25" s="19"/>
       <c r="Q25" s="20">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="R25" s="20" t="str">
         <f t="shared" si="2"/>
@@ -4446,9 +4519,11 @@
         <v>4</v>
       </c>
       <c r="Z25" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="21"/>
+        <v>3</v>
+      </c>
+      <c r="AA25" s="21">
+        <v>2</v>
+      </c>
       <c r="AB25" s="21"/>
       <c r="AC25" s="21"/>
       <c r="AD25" s="21"/>
@@ -4523,7 +4598,7 @@
       <c r="Z26" s="21">
         <v>3</v>
       </c>
-      <c r="AA26" s="21"/>
+      <c r="AA26" s="26"/>
       <c r="AB26" s="21"/>
       <c r="AC26" s="21"/>
       <c r="AD26" s="21"/>
@@ -4539,7 +4614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="14.25" customHeight="1">
+    <row r="27" spans="1:39" ht="13.95" customHeight="1">
       <c r="A27" s="16" t="s">
         <v>57</v>
       </c>
@@ -4568,7 +4643,7 @@
       <c r="P27" s="19"/>
       <c r="Q27" s="20">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R27" s="20" t="str">
         <f t="shared" si="2"/>
@@ -4598,7 +4673,9 @@
       <c r="Z27" s="21">
         <v>2</v>
       </c>
-      <c r="AA27" s="21"/>
+      <c r="AA27" s="21">
+        <v>2</v>
+      </c>
       <c r="AB27" s="21"/>
       <c r="AC27" s="21"/>
       <c r="AD27" s="21"/>
@@ -4643,7 +4720,7 @@
       <c r="P28" s="19"/>
       <c r="Q28" s="20">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="R28" s="20" t="str">
         <f t="shared" si="2"/>
@@ -4673,7 +4750,9 @@
       <c r="Z28" s="21">
         <v>3</v>
       </c>
-      <c r="AA28" s="21"/>
+      <c r="AA28" s="21">
+        <v>2</v>
+      </c>
       <c r="AB28" s="21"/>
       <c r="AC28" s="21"/>
       <c r="AD28" s="21"/>
@@ -4716,7 +4795,7 @@
       <c r="P29" s="19"/>
       <c r="Q29" s="20">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R29" s="20" t="str">
         <f t="shared" si="2"/>
@@ -4746,7 +4825,9 @@
       <c r="Z29" s="21">
         <v>2</v>
       </c>
-      <c r="AA29" s="21"/>
+      <c r="AA29" s="21">
+        <v>2</v>
+      </c>
       <c r="AB29" s="21"/>
       <c r="AC29" s="21"/>
       <c r="AD29" s="21"/>
@@ -4791,7 +4872,7 @@
       <c r="P30" s="19"/>
       <c r="Q30" s="20">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="R30" s="20" t="str">
         <f t="shared" si="2"/>
@@ -4821,7 +4902,9 @@
       <c r="Z30" s="21">
         <v>3</v>
       </c>
-      <c r="AA30" s="21"/>
+      <c r="AA30" s="21">
+        <v>2</v>
+      </c>
       <c r="AB30" s="21"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
@@ -4866,7 +4949,7 @@
       <c r="P31" s="19"/>
       <c r="Q31" s="20">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R31" s="20" t="str">
         <f t="shared" si="2"/>
@@ -4896,7 +4979,9 @@
       <c r="Z31" s="21">
         <v>3</v>
       </c>
-      <c r="AA31" s="21"/>
+      <c r="AA31" s="21">
+        <v>2</v>
+      </c>
       <c r="AB31" s="21"/>
       <c r="AC31" s="21"/>
       <c r="AD31" s="21"/>
@@ -4941,7 +5026,7 @@
       <c r="P32" s="19"/>
       <c r="Q32" s="20">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R32" s="20" t="str">
         <f t="shared" si="2"/>
@@ -4971,7 +5056,9 @@
       <c r="Z32" s="21">
         <v>3</v>
       </c>
-      <c r="AA32" s="21"/>
+      <c r="AA32" s="21">
+        <v>3</v>
+      </c>
       <c r="AB32" s="21"/>
       <c r="AC32" s="21"/>
       <c r="AD32" s="21"/>
@@ -5014,7 +5101,7 @@
       <c r="P33" s="19"/>
       <c r="Q33" s="20">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R33" s="20" t="str">
         <f t="shared" si="2"/>
@@ -5044,7 +5131,9 @@
       <c r="Z33" s="21">
         <v>1</v>
       </c>
-      <c r="AA33" s="21"/>
+      <c r="AA33" s="21">
+        <v>1</v>
+      </c>
       <c r="AB33" s="21"/>
       <c r="AC33" s="21"/>
       <c r="AD33" s="21"/>
@@ -5087,7 +5176,7 @@
       <c r="P34" s="19"/>
       <c r="Q34" s="20">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R34" s="20" t="str">
         <f t="shared" si="2"/>
@@ -5117,7 +5206,9 @@
       <c r="Z34" s="21">
         <v>3</v>
       </c>
-      <c r="AA34" s="21"/>
+      <c r="AA34" s="21">
+        <v>2</v>
+      </c>
       <c r="AB34" s="21"/>
       <c r="AC34" s="21"/>
       <c r="AD34" s="21"/>
@@ -5162,7 +5253,7 @@
       <c r="P35" s="19"/>
       <c r="Q35" s="20">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R35" s="20" t="str">
         <f t="shared" si="2"/>
@@ -5192,7 +5283,9 @@
       <c r="Z35" s="21">
         <v>3</v>
       </c>
-      <c r="AA35" s="21"/>
+      <c r="AA35" s="21">
+        <v>2</v>
+      </c>
       <c r="AB35" s="21"/>
       <c r="AC35" s="21"/>
       <c r="AD35" s="21"/>
@@ -5235,7 +5328,7 @@
       <c r="P36" s="19"/>
       <c r="Q36" s="20">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="R36" s="20" t="str">
         <f t="shared" si="2"/>
@@ -5265,7 +5358,9 @@
       <c r="Z36" s="21">
         <v>2</v>
       </c>
-      <c r="AA36" s="21"/>
+      <c r="AA36" s="21">
+        <v>2</v>
+      </c>
       <c r="AB36" s="21"/>
       <c r="AC36" s="21"/>
       <c r="AD36" s="21"/>
@@ -5308,7 +5403,7 @@
       <c r="P37" s="19"/>
       <c r="Q37" s="20">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="R37" s="20" t="str">
         <f t="shared" si="2"/>
@@ -5338,7 +5433,9 @@
       <c r="Z37" s="21">
         <v>1</v>
       </c>
-      <c r="AA37" s="21"/>
+      <c r="AA37" s="21">
+        <v>2</v>
+      </c>
       <c r="AB37" s="21"/>
       <c r="AC37" s="21"/>
       <c r="AD37" s="21"/>
@@ -5383,7 +5480,7 @@
       <c r="P38" s="19"/>
       <c r="Q38" s="20">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="R38" s="20" t="str">
         <f t="shared" si="2"/>
@@ -5413,7 +5510,9 @@
       <c r="Z38" s="21">
         <v>3</v>
       </c>
-      <c r="AA38" s="21"/>
+      <c r="AA38" s="21">
+        <v>2</v>
+      </c>
       <c r="AB38" s="21"/>
       <c r="AC38" s="21"/>
       <c r="AD38" s="21"/>
@@ -5660,7 +5759,7 @@
       </c>
       <c r="C2" s="1">
         <f>'Sec 1 Data'!Q4</f>
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.25" customHeight="1">
@@ -5698,11 +5797,11 @@
       </c>
       <c r="B5" s="1" t="str">
         <f>'Sec 1 Data'!R7</f>
-        <v xml:space="preserve">-Nowhere to Hide, Full Combo, Consistency Is Key, </v>
+        <v xml:space="preserve">-Nowhere to Hide, Full Combo, Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="C5" s="1">
         <f>'Sec 1 Data'!Q7</f>
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.25" customHeight="1">
@@ -5716,7 +5815,7 @@
       </c>
       <c r="C6" s="1">
         <f>'Sec 1 Data'!Q8</f>
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.25" customHeight="1">
@@ -5730,7 +5829,7 @@
       </c>
       <c r="C7" s="1">
         <f>'Sec 1 Data'!Q9</f>
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.25" customHeight="1">
@@ -5744,7 +5843,7 @@
       </c>
       <c r="C8" s="1">
         <f>'Sec 1 Data'!Q10</f>
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.25" customHeight="1">
@@ -5758,7 +5857,7 @@
       </c>
       <c r="C9" s="1">
         <f>'Sec 1 Data'!Q11</f>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.25" customHeight="1">
@@ -5772,7 +5871,7 @@
       </c>
       <c r="C10" s="1">
         <f>'Sec 1 Data'!Q12</f>
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.25" customHeight="1">
@@ -5786,7 +5885,7 @@
       </c>
       <c r="C11" s="1">
         <f>'Sec 1 Data'!Q13</f>
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.25" customHeight="1">
@@ -5800,7 +5899,7 @@
       </c>
       <c r="C12" s="1">
         <f>'Sec 1 Data'!Q14</f>
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.25" customHeight="1">
@@ -5814,7 +5913,7 @@
       </c>
       <c r="C13" s="1">
         <f>'Sec 1 Data'!Q15</f>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.25" customHeight="1">
@@ -5828,7 +5927,7 @@
       </c>
       <c r="C14" s="1">
         <f>'Sec 1 Data'!Q16</f>
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.25" customHeight="1">
@@ -5842,7 +5941,7 @@
       </c>
       <c r="C15" s="1">
         <f>'Sec 1 Data'!Q17</f>
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.25" customHeight="1">
@@ -5856,7 +5955,7 @@
       </c>
       <c r="C16" s="1">
         <f>'Sec 1 Data'!Q18</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
@@ -5870,7 +5969,7 @@
       </c>
       <c r="C17" s="1">
         <f>'Sec 1 Data'!Q19</f>
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
@@ -5884,7 +5983,7 @@
       </c>
       <c r="C18" s="1">
         <f>'Sec 1 Data'!Q20</f>
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
@@ -5898,7 +5997,7 @@
       </c>
       <c r="C19" s="1">
         <f>'Sec 1 Data'!Q21</f>
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
@@ -5912,7 +6011,7 @@
       </c>
       <c r="C20" s="1">
         <f>'Sec 1 Data'!Q22</f>
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
@@ -5926,7 +6025,7 @@
       </c>
       <c r="C21" s="1">
         <f>'Sec 1 Data'!Q23</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
@@ -5940,7 +6039,7 @@
       </c>
       <c r="C22" s="1">
         <f>'Sec 1 Data'!Q24</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
@@ -5954,7 +6053,7 @@
       </c>
       <c r="C23" s="1">
         <f>'Sec 1 Data'!Q25</f>
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
@@ -5982,7 +6081,7 @@
       </c>
       <c r="C25" s="1">
         <f>'Sec 1 Data'!Q27</f>
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
@@ -5996,7 +6095,7 @@
       </c>
       <c r="C26" s="1">
         <f>'Sec 1 Data'!Q28</f>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
@@ -6010,7 +6109,7 @@
       </c>
       <c r="C27" s="1">
         <f>'Sec 1 Data'!Q29</f>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
@@ -6024,7 +6123,7 @@
       </c>
       <c r="C28" s="1">
         <f>'Sec 1 Data'!Q30</f>
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
@@ -6038,7 +6137,7 @@
       </c>
       <c r="C29" s="1">
         <f>'Sec 1 Data'!Q31</f>
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
@@ -6052,7 +6151,7 @@
       </c>
       <c r="C30" s="1">
         <f>'Sec 1 Data'!Q32</f>
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
@@ -6066,7 +6165,7 @@
       </c>
       <c r="C31" s="1">
         <f>'Sec 1 Data'!Q33</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
@@ -6080,7 +6179,7 @@
       </c>
       <c r="C32" s="1">
         <f>'Sec 1 Data'!Q34</f>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1">
@@ -6094,7 +6193,7 @@
       </c>
       <c r="C33" s="1">
         <f>'Sec 1 Data'!Q35</f>
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1">
@@ -6108,7 +6207,7 @@
       </c>
       <c r="C34" s="1">
         <f>'Sec 1 Data'!Q36</f>
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1">
@@ -6122,7 +6221,7 @@
       </c>
       <c r="C35" s="1">
         <f>'Sec 1 Data'!Q37</f>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1">
@@ -6136,7 +6235,7 @@
       </c>
       <c r="C36" s="1">
         <f>'Sec 1 Data'!Q38</f>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1">
@@ -8932,7 +9031,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S9823846H\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9D9C18-5A85-4248-9B33-26CF55FCAC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CCF5E2-BC95-4F32-9182-CF293ACFCE05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sec 3 Data" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="112">
   <si>
     <t>4A</t>
   </si>
@@ -374,6 +374,9 @@
   </si>
   <si>
     <t>Chp 5</t>
+  </si>
+  <si>
+    <t>7.1 7.2</t>
   </si>
 </sst>
 </file>
@@ -921,9 +924,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U19" sqref="U19"/>
+      <selection pane="topRight" activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1845,7 +1848,7 @@
       <c r="P15" s="19"/>
       <c r="Q15" s="20">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R15" s="20" t="str">
         <f t="shared" si="2"/>
@@ -1858,7 +1861,7 @@
         <v>1</v>
       </c>
       <c r="U15" s="21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V15" s="21"/>
       <c r="W15" s="21"/>
@@ -1905,7 +1908,7 @@
       <c r="P16" s="19"/>
       <c r="Q16" s="20">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R16" s="20" t="str">
         <f t="shared" si="2"/>
@@ -1918,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="U16" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" s="21"/>
       <c r="W16" s="21"/>
@@ -2085,7 +2088,7 @@
       <c r="P19" s="19"/>
       <c r="Q19" s="20">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R19" s="20" t="str">
         <f t="shared" si="2"/>
@@ -2098,7 +2101,7 @@
         <v>3</v>
       </c>
       <c r="U19" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V19" s="21"/>
       <c r="W19" s="21"/>
@@ -2536,7 +2539,7 @@
       </c>
       <c r="C13" s="1">
         <f>'Sec 3 Data'!Q15</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2550,7 +2553,7 @@
       </c>
       <c r="C14" s="1">
         <f>'Sec 3 Data'!Q16</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2592,7 +2595,7 @@
       </c>
       <c r="C17" s="1">
         <f>'Sec 3 Data'!Q19</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2661,34 +2664,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AM42"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC7" sqref="AC7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.36328125" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="6.90625" customWidth="1"/>
-    <col min="4" max="4" width="15.08984375" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" customWidth="1"/>
-    <col min="6" max="6" width="14.36328125" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="10.08984375" customWidth="1"/>
-    <col min="9" max="9" width="15.90625" customWidth="1"/>
-    <col min="10" max="10" width="16.6328125" customWidth="1"/>
-    <col min="11" max="11" width="15.90625" customWidth="1"/>
-    <col min="12" max="12" width="10.54296875" customWidth="1"/>
-    <col min="13" max="13" width="9.453125" customWidth="1"/>
-    <col min="14" max="14" width="14.36328125" customWidth="1"/>
-    <col min="15" max="15" width="19.36328125" customWidth="1"/>
-    <col min="16" max="16" width="11.36328125" customWidth="1"/>
-    <col min="17" max="17" width="9.6328125" customWidth="1"/>
-    <col min="18" max="18" width="25.453125" customWidth="1"/>
-    <col min="19" max="22" width="8.90625" customWidth="1"/>
-    <col min="23" max="23" width="8.6328125" customWidth="1"/>
-    <col min="24" max="38" width="8.90625" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="6.90625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="15.08984375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.36328125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="15.90625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6328125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15.90625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.54296875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="9.453125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="14.36328125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="19.36328125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="11.36328125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.6328125" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="25.453125" hidden="1" customWidth="1"/>
+    <col min="19" max="22" width="8.90625" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="8.6328125" hidden="1" customWidth="1"/>
+    <col min="24" max="29" width="8.90625" hidden="1" customWidth="1"/>
+    <col min="30" max="38" width="8.90625" customWidth="1"/>
     <col min="39" max="39" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2867,10 +2871,10 @@
         <v>108</v>
       </c>
       <c r="AC3" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD3" s="15" t="s">
         <v>109</v>
-      </c>
-      <c r="AD3" s="15">
-        <v>12</v>
       </c>
       <c r="AE3" s="15">
         <v>13</v>
@@ -2927,7 +2931,7 @@
       <c r="P4" s="19"/>
       <c r="Q4" s="20">
         <f t="shared" ref="Q4:Q42" si="1">SUM(B4:G4)+3*SUM(H4:M4)+5*SUM(N4:P4)+SUM(S4:AM4)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R4" s="20" t="str">
         <f t="shared" ref="R4:R42" si="2">CONCATENATE("-",IF(B4=1,$B$3&amp;", ",""),IF(C4=1,$C$3&amp;", ",""),IF(D4=1,$D$3&amp;", ",""),IF(E4=1,$E$3&amp;", ",""),IF(F4=1,$F$3&amp;", ",""),IF(G4=1,$G$3&amp;", ",""),IF(H4=1,$H$3&amp;", ",""),IF(I4=1,$I$3&amp;", ",""),IF(J4=1,$J$3&amp;", ",""),IF(K4=1,$K$3&amp;", ",""),IF(L4=1,$L$3&amp;", ",""),IF(M4=1,$M$3&amp;", ",""),IF(N4=1,$N$3&amp;", ",""),IF(O4=1,$O$3&amp;", ",""),IF(P4=1,$P$3&amp;", ",""))</f>
@@ -2966,7 +2970,9 @@
       <c r="AC4" s="21">
         <v>2</v>
       </c>
-      <c r="AD4" s="21"/>
+      <c r="AD4" s="21">
+        <v>2</v>
+      </c>
       <c r="AE4" s="21"/>
       <c r="AF4" s="21"/>
       <c r="AG4" s="21"/>
@@ -2993,7 +2999,7 @@
       <c r="I5" s="18"/>
       <c r="J5" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="18">
         <f t="array" ref="K5">IF(MAX(FREQUENCY(IF(S5:AL5&gt;0,COLUMN(S5:AL5)),IF(S5:AL5&lt;=0,COLUMN(S5:AL5))))&gt;4,1,0)</f>
@@ -3006,11 +3012,11 @@
       <c r="P5" s="19"/>
       <c r="Q5" s="20">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R5" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="S5" s="21">
         <v>1</v>
@@ -3040,8 +3046,12 @@
       <c r="AB5" s="21">
         <v>1</v>
       </c>
-      <c r="AC5" s="26"/>
-      <c r="AD5" s="21"/>
+      <c r="AC5" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="21">
+        <v>3</v>
+      </c>
       <c r="AE5" s="21"/>
       <c r="AF5" s="21"/>
       <c r="AG5" s="21"/>
@@ -3160,7 +3170,7 @@
       <c r="P7" s="19"/>
       <c r="Q7" s="20">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R7" s="20" t="str">
         <f t="shared" si="2"/>
@@ -3197,7 +3207,9 @@
         <v>1</v>
       </c>
       <c r="AC7" s="26"/>
-      <c r="AD7" s="21"/>
+      <c r="AD7" s="21">
+        <v>2</v>
+      </c>
       <c r="AE7" s="21"/>
       <c r="AF7" s="21"/>
       <c r="AG7" s="21"/>
@@ -3237,7 +3249,7 @@
       <c r="P8" s="19"/>
       <c r="Q8" s="20">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="R8" s="20" t="str">
         <f t="shared" si="2"/>
@@ -3276,7 +3288,9 @@
       <c r="AC8" s="21">
         <v>2</v>
       </c>
-      <c r="AD8" s="21"/>
+      <c r="AD8" s="21">
+        <v>2</v>
+      </c>
       <c r="AE8" s="21"/>
       <c r="AF8" s="21"/>
       <c r="AG8" s="21"/>
@@ -3318,7 +3332,7 @@
       <c r="P9" s="19"/>
       <c r="Q9" s="20">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="R9" s="20" t="str">
         <f t="shared" si="2"/>
@@ -3357,7 +3371,9 @@
       <c r="AC9" s="21">
         <v>2</v>
       </c>
-      <c r="AD9" s="21"/>
+      <c r="AD9" s="21">
+        <v>3</v>
+      </c>
       <c r="AE9" s="21"/>
       <c r="AF9" s="21"/>
       <c r="AG9" s="21"/>
@@ -3399,7 +3415,7 @@
       <c r="P10" s="19"/>
       <c r="Q10" s="20">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="R10" s="20" t="str">
         <f t="shared" si="2"/>
@@ -3438,7 +3454,9 @@
       <c r="AC10" s="21">
         <v>3</v>
       </c>
-      <c r="AD10" s="21"/>
+      <c r="AD10" s="21">
+        <v>2</v>
+      </c>
       <c r="AE10" s="21"/>
       <c r="AF10" s="21"/>
       <c r="AG10" s="21"/>
@@ -3478,7 +3496,7 @@
       <c r="P11" s="19"/>
       <c r="Q11" s="20">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R11" s="20" t="str">
         <f t="shared" si="2"/>
@@ -3517,7 +3535,9 @@
       <c r="AC11" s="21">
         <v>2</v>
       </c>
-      <c r="AD11" s="21"/>
+      <c r="AD11" s="21">
+        <v>2</v>
+      </c>
       <c r="AE11" s="21"/>
       <c r="AF11" s="21"/>
       <c r="AG11" s="21"/>
@@ -3598,7 +3618,9 @@
       <c r="AC12" s="21">
         <v>2</v>
       </c>
-      <c r="AD12" s="21"/>
+      <c r="AD12" s="21">
+        <v>0</v>
+      </c>
       <c r="AE12" s="21"/>
       <c r="AF12" s="21"/>
       <c r="AG12" s="21"/>
@@ -3640,7 +3662,7 @@
       <c r="P13" s="19"/>
       <c r="Q13" s="20">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R13" s="20" t="str">
         <f t="shared" si="2"/>
@@ -3679,7 +3701,9 @@
       <c r="AC13" s="21">
         <v>2</v>
       </c>
-      <c r="AD13" s="21"/>
+      <c r="AD13" s="21">
+        <v>3</v>
+      </c>
       <c r="AE13" s="21"/>
       <c r="AF13" s="21"/>
       <c r="AG13" s="21"/>
@@ -3721,7 +3745,7 @@
       <c r="P14" s="19"/>
       <c r="Q14" s="20">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R14" s="20" t="str">
         <f t="shared" si="2"/>
@@ -3760,7 +3784,9 @@
       <c r="AC14" s="21">
         <v>3</v>
       </c>
-      <c r="AD14" s="21"/>
+      <c r="AD14" s="21">
+        <v>3</v>
+      </c>
       <c r="AE14" s="21"/>
       <c r="AF14" s="21"/>
       <c r="AG14" s="21"/>
@@ -3838,7 +3864,9 @@
       <c r="AC15" s="21">
         <v>2</v>
       </c>
-      <c r="AD15" s="21"/>
+      <c r="AD15" s="21">
+        <v>0</v>
+      </c>
       <c r="AE15" s="21"/>
       <c r="AF15" s="21"/>
       <c r="AG15" s="21"/>
@@ -3880,7 +3908,7 @@
       <c r="P16" s="19"/>
       <c r="Q16" s="20">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R16" s="20" t="str">
         <f t="shared" si="2"/>
@@ -3919,7 +3947,9 @@
       <c r="AC16" s="21">
         <v>2</v>
       </c>
-      <c r="AD16" s="21"/>
+      <c r="AD16" s="21">
+        <v>3</v>
+      </c>
       <c r="AE16" s="21"/>
       <c r="AF16" s="21"/>
       <c r="AG16" s="21"/>
@@ -3959,7 +3989,7 @@
       <c r="P17" s="19"/>
       <c r="Q17" s="20">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="R17" s="20" t="str">
         <f t="shared" si="2"/>
@@ -3998,7 +4028,9 @@
       <c r="AC17" s="21">
         <v>3</v>
       </c>
-      <c r="AD17" s="21"/>
+      <c r="AD17" s="21">
+        <v>3</v>
+      </c>
       <c r="AE17" s="21"/>
       <c r="AF17" s="21"/>
       <c r="AG17" s="21"/>
@@ -4040,7 +4072,7 @@
       <c r="P18" s="19"/>
       <c r="Q18" s="20">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R18" s="20" t="str">
         <f t="shared" si="2"/>
@@ -4079,7 +4111,9 @@
       <c r="AC18" s="21">
         <v>1</v>
       </c>
-      <c r="AD18" s="21"/>
+      <c r="AD18" s="21">
+        <v>2</v>
+      </c>
       <c r="AE18" s="21"/>
       <c r="AF18" s="21"/>
       <c r="AG18" s="21"/>
@@ -4123,7 +4157,7 @@
       <c r="P19" s="19"/>
       <c r="Q19" s="20">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R19" s="20" t="str">
         <f t="shared" si="2"/>
@@ -4162,7 +4196,9 @@
       <c r="AC19" s="21">
         <v>3</v>
       </c>
-      <c r="AD19" s="21"/>
+      <c r="AD19" s="21">
+        <v>3</v>
+      </c>
       <c r="AE19" s="21"/>
       <c r="AF19" s="21"/>
       <c r="AG19" s="21"/>
@@ -4208,7 +4244,7 @@
       <c r="P20" s="19"/>
       <c r="Q20" s="20">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R20" s="20" t="str">
         <f t="shared" si="2"/>
@@ -4247,7 +4283,9 @@
       <c r="AC20" s="21">
         <v>2</v>
       </c>
-      <c r="AD20" s="21"/>
+      <c r="AD20" s="21">
+        <v>3</v>
+      </c>
       <c r="AE20" s="21"/>
       <c r="AF20" s="21"/>
       <c r="AG20" s="21"/>
@@ -4269,12 +4307,16 @@
       <c r="D21" s="17">
         <v>1</v>
       </c>
-      <c r="E21" s="17"/>
+      <c r="E21" s="17">
+        <v>1</v>
+      </c>
       <c r="F21" s="17"/>
       <c r="G21" s="17">
         <v>1</v>
       </c>
-      <c r="H21" s="18"/>
+      <c r="H21" s="18">
+        <v>1</v>
+      </c>
       <c r="I21" s="18"/>
       <c r="J21" s="18">
         <f t="shared" si="0"/>
@@ -4291,11 +4333,11 @@
       <c r="P21" s="19"/>
       <c r="Q21" s="20">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="R21" s="20" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Nowhere to Hide, Help a friend!, Three-Star Wonder, Consistency Is Key, </v>
+        <v xml:space="preserve">-Nowhere to Hide, Gaming is life, Help a friend!, Full Combo, Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="S21" s="21">
         <v>3</v>
@@ -4330,7 +4372,9 @@
       <c r="AC21" s="21">
         <v>2</v>
       </c>
-      <c r="AD21" s="21"/>
+      <c r="AD21" s="21">
+        <v>3</v>
+      </c>
       <c r="AE21" s="21"/>
       <c r="AF21" s="21"/>
       <c r="AG21" s="21"/>
@@ -4372,7 +4416,7 @@
       <c r="P22" s="19"/>
       <c r="Q22" s="20">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="R22" s="20" t="str">
         <f t="shared" si="2"/>
@@ -4411,7 +4455,9 @@
       <c r="AC22" s="21">
         <v>3</v>
       </c>
-      <c r="AD22" s="21"/>
+      <c r="AD22" s="21">
+        <v>2</v>
+      </c>
       <c r="AE22" s="21"/>
       <c r="AF22" s="21"/>
       <c r="AG22" s="21"/>
@@ -4527,7 +4573,7 @@
       </c>
       <c r="K24" s="18">
         <f t="array" ref="K24">IF(MAX(FREQUENCY(IF(S24:AL24&gt;0,COLUMN(S24:AL24)),IF(S24:AL24&lt;=0,COLUMN(S24:AL24))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="18"/>
       <c r="M24" s="18"/>
@@ -4536,11 +4582,11 @@
       <c r="P24" s="19"/>
       <c r="Q24" s="20">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="R24" s="20" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-I Say Hi, Gaming is life, Blast to the Past, Three-Star Wonder, </v>
+        <v xml:space="preserve">-I Say Hi, Gaming is life, Blast to the Past, Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="S24" s="21">
         <v>3</v>
@@ -4575,7 +4621,9 @@
       <c r="AC24" s="21">
         <v>2</v>
       </c>
-      <c r="AD24" s="21"/>
+      <c r="AD24" s="21">
+        <v>2</v>
+      </c>
       <c r="AE24" s="21"/>
       <c r="AF24" s="21"/>
       <c r="AG24" s="21"/>
@@ -4619,7 +4667,7 @@
       <c r="P25" s="19"/>
       <c r="Q25" s="20">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R25" s="20" t="str">
         <f t="shared" si="2"/>
@@ -4658,7 +4706,9 @@
       <c r="AC25" s="21">
         <v>2</v>
       </c>
-      <c r="AD25" s="21"/>
+      <c r="AD25" s="21">
+        <v>2</v>
+      </c>
       <c r="AE25" s="21"/>
       <c r="AF25" s="21"/>
       <c r="AG25" s="21"/>
@@ -4700,7 +4750,7 @@
       <c r="P26" s="19"/>
       <c r="Q26" s="20">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R26" s="20" t="str">
         <f t="shared" si="2"/>
@@ -4737,7 +4787,9 @@
       <c r="AC26" s="21">
         <v>1</v>
       </c>
-      <c r="AD26" s="21"/>
+      <c r="AD26" s="21">
+        <v>3</v>
+      </c>
       <c r="AE26" s="21"/>
       <c r="AF26" s="21"/>
       <c r="AG26" s="21"/>
@@ -4779,7 +4831,7 @@
       <c r="P27" s="19"/>
       <c r="Q27" s="20">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R27" s="20" t="str">
         <f t="shared" si="2"/>
@@ -4818,7 +4870,9 @@
       <c r="AC27" s="21">
         <v>3</v>
       </c>
-      <c r="AD27" s="21"/>
+      <c r="AD27" s="21">
+        <v>3</v>
+      </c>
       <c r="AE27" s="21"/>
       <c r="AF27" s="21"/>
       <c r="AG27" s="21"/>
@@ -4860,7 +4914,7 @@
       <c r="P28" s="19"/>
       <c r="Q28" s="20">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="R28" s="20" t="str">
         <f t="shared" si="2"/>
@@ -4896,8 +4950,12 @@
       <c r="AB28" s="21">
         <v>1</v>
       </c>
-      <c r="AC28" s="26"/>
-      <c r="AD28" s="21"/>
+      <c r="AC28" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="21">
+        <v>2</v>
+      </c>
       <c r="AE28" s="21"/>
       <c r="AF28" s="21"/>
       <c r="AG28" s="21"/>
@@ -4928,7 +4986,7 @@
       </c>
       <c r="K29" s="18">
         <f t="array" ref="K29">IF(MAX(FREQUENCY(IF(S29:AL29&gt;0,COLUMN(S29:AL29)),IF(S29:AL29&lt;=0,COLUMN(S29:AL29))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="18"/>
       <c r="M29" s="18"/>
@@ -4937,11 +4995,11 @@
       <c r="P29" s="19"/>
       <c r="Q29" s="20">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="R29" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Consistency Is Key, </v>
       </c>
       <c r="S29" s="21">
         <v>0</v>
@@ -4976,7 +5034,9 @@
       <c r="AC29" s="21">
         <v>2</v>
       </c>
-      <c r="AD29" s="21"/>
+      <c r="AD29" s="21">
+        <v>2</v>
+      </c>
       <c r="AE29" s="21"/>
       <c r="AF29" s="21"/>
       <c r="AG29" s="21"/>
@@ -5018,7 +5078,7 @@
       <c r="P30" s="19"/>
       <c r="Q30" s="20">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R30" s="20" t="str">
         <f t="shared" si="2"/>
@@ -5057,7 +5117,9 @@
       <c r="AC30" s="21">
         <v>3</v>
       </c>
-      <c r="AD30" s="21"/>
+      <c r="AD30" s="21">
+        <v>3</v>
+      </c>
       <c r="AE30" s="21"/>
       <c r="AF30" s="21"/>
       <c r="AG30" s="21"/>
@@ -5099,7 +5161,7 @@
       <c r="P31" s="19"/>
       <c r="Q31" s="20">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R31" s="20" t="str">
         <f t="shared" si="2"/>
@@ -5138,7 +5200,9 @@
       <c r="AC31" s="21">
         <v>3</v>
       </c>
-      <c r="AD31" s="21"/>
+      <c r="AD31" s="21">
+        <v>3</v>
+      </c>
       <c r="AE31" s="21"/>
       <c r="AF31" s="21"/>
       <c r="AG31" s="21"/>
@@ -5161,7 +5225,9 @@
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
-      <c r="H32" s="18"/>
+      <c r="H32" s="18">
+        <v>1</v>
+      </c>
       <c r="I32" s="18">
         <v>1</v>
       </c>
@@ -5180,11 +5246,11 @@
       <c r="P32" s="19"/>
       <c r="Q32" s="20">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="R32" s="20" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Math Ambassador, Three-Star Wonder, Consistency Is Key, </v>
+        <v xml:space="preserve">-Full Combo, Math Ambassador, Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="S32" s="21">
         <v>3</v>
@@ -5219,7 +5285,9 @@
       <c r="AC32" s="21">
         <v>3</v>
       </c>
-      <c r="AD32" s="21"/>
+      <c r="AD32" s="21">
+        <v>3</v>
+      </c>
       <c r="AE32" s="21"/>
       <c r="AF32" s="21"/>
       <c r="AG32" s="21"/>
@@ -5259,7 +5327,7 @@
       <c r="P33" s="19"/>
       <c r="Q33" s="20">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R33" s="20" t="str">
         <f t="shared" si="2"/>
@@ -5298,7 +5366,9 @@
       <c r="AC33" s="21">
         <v>0</v>
       </c>
-      <c r="AD33" s="21"/>
+      <c r="AD33" s="21">
+        <v>2</v>
+      </c>
       <c r="AE33" s="21"/>
       <c r="AF33" s="21"/>
       <c r="AG33" s="21"/>
@@ -5377,7 +5447,9 @@
       <c r="AC34" s="21">
         <v>2</v>
       </c>
-      <c r="AD34" s="21"/>
+      <c r="AD34" s="21">
+        <v>0</v>
+      </c>
       <c r="AE34" s="21"/>
       <c r="AF34" s="21"/>
       <c r="AG34" s="21"/>
@@ -5419,7 +5491,7 @@
       <c r="P35" s="19"/>
       <c r="Q35" s="20">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="R35" s="20" t="str">
         <f t="shared" si="2"/>
@@ -5458,7 +5530,9 @@
       <c r="AC35" s="21">
         <v>2</v>
       </c>
-      <c r="AD35" s="21"/>
+      <c r="AD35" s="21">
+        <v>2</v>
+      </c>
       <c r="AE35" s="21"/>
       <c r="AF35" s="21"/>
       <c r="AG35" s="21"/>
@@ -5498,7 +5572,7 @@
       <c r="P36" s="19"/>
       <c r="Q36" s="20">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R36" s="20" t="str">
         <f t="shared" si="2"/>
@@ -5537,7 +5611,9 @@
       <c r="AC36" s="21">
         <v>2</v>
       </c>
-      <c r="AD36" s="21"/>
+      <c r="AD36" s="21">
+        <v>1</v>
+      </c>
       <c r="AE36" s="21"/>
       <c r="AF36" s="21"/>
       <c r="AG36" s="21"/>
@@ -5577,7 +5653,7 @@
       <c r="P37" s="19"/>
       <c r="Q37" s="20">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R37" s="20" t="str">
         <f t="shared" si="2"/>
@@ -5616,7 +5692,9 @@
       <c r="AC37" s="21">
         <v>1</v>
       </c>
-      <c r="AD37" s="21"/>
+      <c r="AD37" s="21">
+        <v>2</v>
+      </c>
       <c r="AE37" s="21"/>
       <c r="AF37" s="21"/>
       <c r="AG37" s="21"/>
@@ -5941,7 +6019,7 @@
       </c>
       <c r="C2" s="1">
         <f>'Sec 1 Data'!Q4</f>
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -5951,11 +6029,11 @@
       </c>
       <c r="B3" s="1" t="str">
         <f>'Sec 1 Data'!R5</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C3" s="1">
         <f>'Sec 1 Data'!Q5</f>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -5983,7 +6061,7 @@
       </c>
       <c r="C5" s="1">
         <f>'Sec 1 Data'!Q7</f>
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -5997,7 +6075,7 @@
       </c>
       <c r="C6" s="1">
         <f>'Sec 1 Data'!Q8</f>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6011,7 +6089,7 @@
       </c>
       <c r="C7" s="1">
         <f>'Sec 1 Data'!Q9</f>
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6025,7 +6103,7 @@
       </c>
       <c r="C8" s="1">
         <f>'Sec 1 Data'!Q10</f>
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6039,7 +6117,7 @@
       </c>
       <c r="C9" s="1">
         <f>'Sec 1 Data'!Q11</f>
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6067,7 +6145,7 @@
       </c>
       <c r="C11" s="1">
         <f>'Sec 1 Data'!Q13</f>
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6081,7 +6159,7 @@
       </c>
       <c r="C12" s="1">
         <f>'Sec 1 Data'!Q14</f>
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6109,7 +6187,7 @@
       </c>
       <c r="C14" s="1">
         <f>'Sec 1 Data'!Q16</f>
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6123,7 +6201,7 @@
       </c>
       <c r="C15" s="1">
         <f>'Sec 1 Data'!Q17</f>
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6137,7 +6215,7 @@
       </c>
       <c r="C16" s="1">
         <f>'Sec 1 Data'!Q18</f>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6151,7 +6229,7 @@
       </c>
       <c r="C17" s="1">
         <f>'Sec 1 Data'!Q19</f>
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6165,7 +6243,7 @@
       </c>
       <c r="C18" s="1">
         <f>'Sec 1 Data'!Q20</f>
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6175,11 +6253,11 @@
       </c>
       <c r="B19" s="1" t="str">
         <f>'Sec 1 Data'!R21</f>
-        <v xml:space="preserve">-Nowhere to Hide, Help a friend!, Three-Star Wonder, Consistency Is Key, </v>
+        <v xml:space="preserve">-Nowhere to Hide, Gaming is life, Help a friend!, Full Combo, Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="C19" s="1">
         <f>'Sec 1 Data'!Q21</f>
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6193,7 +6271,7 @@
       </c>
       <c r="C20" s="1">
         <f>'Sec 1 Data'!Q22</f>
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6217,11 +6295,11 @@
       </c>
       <c r="B22" s="1" t="str">
         <f>'Sec 1 Data'!R24</f>
-        <v xml:space="preserve">-I Say Hi, Gaming is life, Blast to the Past, Three-Star Wonder, </v>
+        <v xml:space="preserve">-I Say Hi, Gaming is life, Blast to the Past, Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="C22" s="1">
         <f>'Sec 1 Data'!Q24</f>
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6235,7 +6313,7 @@
       </c>
       <c r="C23" s="1">
         <f>'Sec 1 Data'!Q25</f>
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6249,7 +6327,7 @@
       </c>
       <c r="C24" s="1">
         <f>'Sec 1 Data'!Q26</f>
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6263,7 +6341,7 @@
       </c>
       <c r="C25" s="1">
         <f>'Sec 1 Data'!Q27</f>
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6277,7 +6355,7 @@
       </c>
       <c r="C26" s="1">
         <f>'Sec 1 Data'!Q28</f>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6287,11 +6365,11 @@
       </c>
       <c r="B27" s="1" t="str">
         <f>'Sec 1 Data'!R29</f>
-        <v>-</v>
+        <v xml:space="preserve">-Consistency Is Key, </v>
       </c>
       <c r="C27" s="1">
         <f>'Sec 1 Data'!Q29</f>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6305,7 +6383,7 @@
       </c>
       <c r="C28" s="1">
         <f>'Sec 1 Data'!Q30</f>
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6319,7 +6397,7 @@
       </c>
       <c r="C29" s="1">
         <f>'Sec 1 Data'!Q31</f>
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6329,11 +6407,11 @@
       </c>
       <c r="B30" s="1" t="str">
         <f>'Sec 1 Data'!R32</f>
-        <v xml:space="preserve">-Math Ambassador, Three-Star Wonder, Consistency Is Key, </v>
+        <v xml:space="preserve">-Full Combo, Math Ambassador, Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="C30" s="1">
         <f>'Sec 1 Data'!Q32</f>
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6347,7 +6425,7 @@
       </c>
       <c r="C31" s="1">
         <f>'Sec 1 Data'!Q33</f>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6375,7 +6453,7 @@
       </c>
       <c r="C33" s="1">
         <f>'Sec 1 Data'!Q35</f>
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6389,7 +6467,7 @@
       </c>
       <c r="C34" s="1">
         <f>'Sec 1 Data'!Q36</f>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6403,7 +6481,7 @@
       </c>
       <c r="C35" s="1">
         <f>'Sec 1 Data'!Q37</f>
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S9823846H\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CCF5E2-BC95-4F32-9182-CF293ACFCE05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982AD505-DAC5-4506-91D8-8A8A157D79AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="113">
   <si>
     <t>4A</t>
   </si>
@@ -377,6 +377,9 @@
   </si>
   <si>
     <t>7.1 7.2</t>
+  </si>
+  <si>
+    <t>Sec1</t>
   </si>
 </sst>
 </file>
@@ -620,7 +623,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -707,6 +710,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2664,41 +2668,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AM42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD11" sqref="AD11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.36328125" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="6.90625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="15.08984375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.36328125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="12" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="10.08984375" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="15.90625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6328125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="15.90625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.54296875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="9.453125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="14.36328125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="19.36328125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="11.36328125" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.6328125" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="25.453125" hidden="1" customWidth="1"/>
-    <col min="19" max="22" width="8.90625" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="8.6328125" hidden="1" customWidth="1"/>
-    <col min="24" max="29" width="8.90625" hidden="1" customWidth="1"/>
-    <col min="30" max="38" width="8.90625" customWidth="1"/>
-    <col min="39" max="39" width="8.6328125" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" customWidth="1"/>
+    <col min="3" max="3" width="6.90625" customWidth="1"/>
+    <col min="4" max="4" width="15.08984375" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" customWidth="1"/>
+    <col min="6" max="6" width="14.36328125" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" customWidth="1"/>
+    <col min="9" max="9" width="15.90625" customWidth="1"/>
+    <col min="10" max="10" width="16.6328125" customWidth="1"/>
+    <col min="11" max="11" width="15.90625" customWidth="1"/>
+    <col min="12" max="12" width="10.54296875" customWidth="1"/>
+    <col min="13" max="13" width="9.453125" customWidth="1"/>
+    <col min="14" max="14" width="14.36328125" customWidth="1"/>
+    <col min="15" max="15" width="19.36328125" customWidth="1"/>
+    <col min="16" max="16" width="11.36328125" customWidth="1"/>
+    <col min="17" max="17" width="9.6328125" customWidth="1"/>
+    <col min="18" max="18" width="25.453125" customWidth="1"/>
+    <col min="19" max="22" width="8.90625" customWidth="1"/>
+    <col min="23" max="23" width="8.6328125" customWidth="1"/>
+    <col min="24" max="38" width="8.90625" customWidth="1"/>
+    <col min="39" max="39" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -2931,7 +2934,7 @@
       <c r="P4" s="19"/>
       <c r="Q4" s="20">
         <f t="shared" ref="Q4:Q42" si="1">SUM(B4:G4)+3*SUM(H4:M4)+5*SUM(N4:P4)+SUM(S4:AM4)</f>
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="R4" s="20" t="str">
         <f t="shared" ref="R4:R42" si="2">CONCATENATE("-",IF(B4=1,$B$3&amp;", ",""),IF(C4=1,$C$3&amp;", ",""),IF(D4=1,$D$3&amp;", ",""),IF(E4=1,$E$3&amp;", ",""),IF(F4=1,$F$3&amp;", ",""),IF(G4=1,$G$3&amp;", ",""),IF(H4=1,$H$3&amp;", ",""),IF(I4=1,$I$3&amp;", ",""),IF(J4=1,$J$3&amp;", ",""),IF(K4=1,$K$3&amp;", ",""),IF(L4=1,$L$3&amp;", ",""),IF(M4=1,$M$3&amp;", ",""),IF(N4=1,$N$3&amp;", ",""),IF(O4=1,$O$3&amp;", ",""),IF(P4=1,$P$3&amp;", ",""))</f>
@@ -2982,7 +2985,7 @@
       <c r="AK4" s="21"/>
       <c r="AL4" s="21"/>
       <c r="AM4" s="1">
-        <v>1</v>
+        <v>-29</v>
       </c>
     </row>
     <row r="5" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3012,7 +3015,7 @@
       <c r="P5" s="19"/>
       <c r="Q5" s="20">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="R5" s="20" t="str">
         <f t="shared" si="2"/>
@@ -3061,7 +3064,7 @@
       <c r="AK5" s="21"/>
       <c r="AL5" s="21"/>
       <c r="AM5" s="1">
-        <v>1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="6" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3126,7 +3129,9 @@
         <v>1</v>
       </c>
       <c r="AC6" s="26"/>
-      <c r="AD6" s="21"/>
+      <c r="AD6" s="21">
+        <v>0</v>
+      </c>
       <c r="AE6" s="21"/>
       <c r="AF6" s="21"/>
       <c r="AG6" s="21"/>
@@ -3332,7 +3337,7 @@
       <c r="P9" s="19"/>
       <c r="Q9" s="20">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="R9" s="20" t="str">
         <f t="shared" si="2"/>
@@ -3383,7 +3388,7 @@
       <c r="AK9" s="21"/>
       <c r="AL9" s="21"/>
       <c r="AM9" s="1">
-        <v>2</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="10" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3496,7 +3501,7 @@
       <c r="P11" s="19"/>
       <c r="Q11" s="20">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="R11" s="20" t="str">
         <f t="shared" si="2"/>
@@ -3547,7 +3552,7 @@
       <c r="AK11" s="21"/>
       <c r="AL11" s="21"/>
       <c r="AM11" s="1">
-        <v>1</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="12" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3745,7 +3750,7 @@
       <c r="P14" s="19"/>
       <c r="Q14" s="20">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="R14" s="20" t="str">
         <f t="shared" si="2"/>
@@ -3796,7 +3801,7 @@
       <c r="AK14" s="21"/>
       <c r="AL14" s="21"/>
       <c r="AM14" s="1">
-        <v>2</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="15" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4157,7 +4162,7 @@
       <c r="P19" s="19"/>
       <c r="Q19" s="20">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="R19" s="20" t="str">
         <f t="shared" si="2"/>
@@ -4208,7 +4213,7 @@
       <c r="AK19" s="21"/>
       <c r="AL19" s="21"/>
       <c r="AM19" s="1">
-        <v>2</v>
+        <v>-41</v>
       </c>
     </row>
     <row r="20" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4536,7 +4541,9 @@
       <c r="AC23" s="21">
         <v>1</v>
       </c>
-      <c r="AD23" s="21"/>
+      <c r="AD23" s="21">
+        <v>0</v>
+      </c>
       <c r="AE23" s="21"/>
       <c r="AF23" s="21"/>
       <c r="AG23" s="21"/>
@@ -4831,7 +4838,7 @@
       <c r="P27" s="19"/>
       <c r="Q27" s="20">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="R27" s="20" t="str">
         <f t="shared" si="2"/>
@@ -4881,8 +4888,8 @@
       <c r="AJ27" s="21"/>
       <c r="AK27" s="21"/>
       <c r="AL27" s="21"/>
-      <c r="AM27" s="1">
-        <v>2</v>
+      <c r="AM27" s="40">
+        <v>-24</v>
       </c>
     </row>
     <row r="28" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -5078,7 +5085,7 @@
       <c r="P30" s="19"/>
       <c r="Q30" s="20">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="R30" s="20" t="str">
         <f t="shared" si="2"/>
@@ -5129,7 +5136,7 @@
       <c r="AK30" s="21"/>
       <c r="AL30" s="21"/>
       <c r="AM30" s="1">
-        <v>1</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="31" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -5161,7 +5168,7 @@
       <c r="P31" s="19"/>
       <c r="Q31" s="20">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="R31" s="20" t="str">
         <f t="shared" si="2"/>
@@ -5212,7 +5219,7 @@
       <c r="AK31" s="21"/>
       <c r="AL31" s="21"/>
       <c r="AM31" s="1">
-        <v>1</v>
+        <v>-43</v>
       </c>
     </row>
     <row r="32" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -5246,7 +5253,7 @@
       <c r="P32" s="19"/>
       <c r="Q32" s="20">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="R32" s="20" t="str">
         <f t="shared" si="2"/>
@@ -5297,7 +5304,7 @@
       <c r="AK32" s="21"/>
       <c r="AL32" s="21"/>
       <c r="AM32" s="1">
-        <v>1</v>
+        <v>-43</v>
       </c>
     </row>
     <row r="33" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -5775,7 +5782,9 @@
       <c r="AC38" s="21">
         <v>3</v>
       </c>
-      <c r="AD38" s="21"/>
+      <c r="AD38" s="21">
+        <v>0</v>
+      </c>
       <c r="AE38" s="21"/>
       <c r="AF38" s="21"/>
       <c r="AG38" s="21"/>
@@ -6019,7 +6028,7 @@
       </c>
       <c r="C2" s="1">
         <f>'Sec 1 Data'!Q4</f>
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6033,7 +6042,7 @@
       </c>
       <c r="C3" s="1">
         <f>'Sec 1 Data'!Q5</f>
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6089,7 +6098,7 @@
       </c>
       <c r="C7" s="1">
         <f>'Sec 1 Data'!Q9</f>
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6117,7 +6126,7 @@
       </c>
       <c r="C9" s="1">
         <f>'Sec 1 Data'!Q11</f>
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6159,7 +6168,7 @@
       </c>
       <c r="C12" s="1">
         <f>'Sec 1 Data'!Q14</f>
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6229,7 +6238,7 @@
       </c>
       <c r="C17" s="1">
         <f>'Sec 1 Data'!Q19</f>
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6341,7 +6350,7 @@
       </c>
       <c r="C25" s="1">
         <f>'Sec 1 Data'!Q27</f>
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6383,7 +6392,7 @@
       </c>
       <c r="C28" s="1">
         <f>'Sec 1 Data'!Q30</f>
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6397,7 +6406,7 @@
       </c>
       <c r="C29" s="1">
         <f>'Sec 1 Data'!Q31</f>
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6411,7 +6420,7 @@
       </c>
       <c r="C30" s="1">
         <f>'Sec 1 Data'!Q32</f>
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S9823846H\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982AD505-DAC5-4506-91D8-8A8A157D79AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CF030D-0CC9-495F-BE65-A4C077BBE316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="117">
   <si>
     <t>4A</t>
   </si>
@@ -380,6 +380,18 @@
   </si>
   <si>
     <t>Sec1</t>
+  </si>
+  <si>
+    <t>Charlyn</t>
+  </si>
+  <si>
+    <t>Meng Long</t>
+  </si>
+  <si>
+    <t>Chp 9.2</t>
+  </si>
+  <si>
+    <t>Chp 10</t>
   </si>
 </sst>
 </file>
@@ -623,7 +635,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -710,7 +722,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -930,7 +941,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U11" sqref="U11"/>
+      <selection pane="topRight" activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1192,7 +1203,7 @@
       <c r="P4" s="19"/>
       <c r="Q4" s="20">
         <f t="shared" ref="Q4:Q23" si="1">SUM(B4:G4)+3*SUM(H4:M4)+5*SUM(N4:P4)+SUM(S4:AM4)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R4" s="20" t="str">
         <f t="shared" ref="R4:R23" si="2">CONCATENATE("-",IF(B4=1,$B$3&amp;", ",""),IF(C4=1,$C$3&amp;", ",""),IF(D4=1,$D$3&amp;", ",""),IF(E4=1,$E$3&amp;", ",""),IF(F4=1,$F$3&amp;", ",""),IF(G4=1,$G$3&amp;", ",""),IF(H4=1,$H$3&amp;", ",""),IF(I4=1,$I$3&amp;", ",""),IF(J4=1,$J$3&amp;", ",""),IF(K4=1,$K$3&amp;", ",""),IF(L4=1,$L$3&amp;", ",""),IF(M4=1,$M$3&amp;", ",""),IF(N4=1,$N$3&amp;", ",""),IF(O4=1,$O$3&amp;", ",""),IF(P4=1,$P$3&amp;", ",""))</f>
@@ -1207,7 +1218,9 @@
       <c r="U4" s="21">
         <v>3</v>
       </c>
-      <c r="V4" s="21"/>
+      <c r="V4" s="21">
+        <v>2</v>
+      </c>
       <c r="W4" s="21"/>
       <c r="X4" s="21"/>
       <c r="Y4" s="21"/>
@@ -1252,7 +1265,7 @@
       <c r="P5" s="19"/>
       <c r="Q5" s="20">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R5" s="20" t="str">
         <f t="shared" si="2"/>
@@ -1267,7 +1280,9 @@
       <c r="U5" s="21">
         <v>1</v>
       </c>
-      <c r="V5" s="21"/>
+      <c r="V5" s="21">
+        <v>2</v>
+      </c>
       <c r="W5" s="21"/>
       <c r="X5" s="21"/>
       <c r="Y5" s="21"/>
@@ -1492,7 +1507,7 @@
       <c r="P9" s="19"/>
       <c r="Q9" s="20">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R9" s="20" t="str">
         <f t="shared" si="2"/>
@@ -1507,7 +1522,9 @@
       <c r="U9" s="21">
         <v>3</v>
       </c>
-      <c r="V9" s="21"/>
+      <c r="V9" s="21">
+        <v>3</v>
+      </c>
       <c r="W9" s="21"/>
       <c r="X9" s="21"/>
       <c r="Y9" s="21"/>
@@ -1552,7 +1569,7 @@
       <c r="P10" s="19"/>
       <c r="Q10" s="20">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R10" s="20" t="str">
         <f t="shared" si="2"/>
@@ -1567,7 +1584,9 @@
       <c r="U10" s="21">
         <v>2</v>
       </c>
-      <c r="V10" s="21"/>
+      <c r="V10" s="21">
+        <v>2</v>
+      </c>
       <c r="W10" s="21"/>
       <c r="X10" s="21"/>
       <c r="Y10" s="21"/>
@@ -1612,7 +1631,7 @@
       <c r="P11" s="19"/>
       <c r="Q11" s="20">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R11" s="20" t="str">
         <f t="shared" si="2"/>
@@ -1627,7 +1646,9 @@
       <c r="U11" s="21">
         <v>0</v>
       </c>
-      <c r="V11" s="21"/>
+      <c r="V11" s="21">
+        <v>2</v>
+      </c>
       <c r="W11" s="21"/>
       <c r="X11" s="21"/>
       <c r="Y11" s="21"/>
@@ -1672,7 +1693,7 @@
       <c r="P12" s="19"/>
       <c r="Q12" s="20">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R12" s="20" t="str">
         <f t="shared" si="2"/>
@@ -1687,7 +1708,9 @@
       <c r="U12" s="21">
         <v>2</v>
       </c>
-      <c r="V12" s="21"/>
+      <c r="V12" s="21">
+        <v>2</v>
+      </c>
       <c r="W12" s="21"/>
       <c r="X12" s="21"/>
       <c r="Y12" s="21"/>
@@ -1732,7 +1755,7 @@
       <c r="P13" s="19"/>
       <c r="Q13" s="20">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R13" s="20" t="str">
         <f t="shared" si="2"/>
@@ -1747,7 +1770,9 @@
       <c r="U13" s="21">
         <v>3</v>
       </c>
-      <c r="V13" s="21"/>
+      <c r="V13" s="21">
+        <v>2</v>
+      </c>
       <c r="W13" s="21"/>
       <c r="X13" s="21"/>
       <c r="Y13" s="21"/>
@@ -1775,7 +1800,9 @@
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
-      <c r="H14" s="18"/>
+      <c r="H14" s="18">
+        <v>1</v>
+      </c>
       <c r="I14" s="18"/>
       <c r="J14" s="18">
         <f t="shared" si="0"/>
@@ -1792,11 +1819,11 @@
       <c r="P14" s="19"/>
       <c r="Q14" s="20">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="R14" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Full Combo, </v>
       </c>
       <c r="S14" s="21">
         <v>3</v>
@@ -1807,7 +1834,9 @@
       <c r="U14" s="21">
         <v>2</v>
       </c>
-      <c r="V14" s="21"/>
+      <c r="V14" s="21">
+        <v>3</v>
+      </c>
       <c r="W14" s="21"/>
       <c r="X14" s="21"/>
       <c r="Y14" s="21"/>
@@ -1839,7 +1868,7 @@
       <c r="I15" s="18"/>
       <c r="J15" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="18">
         <f t="array" ref="K15">IF(MAX(FREQUENCY(IF(S15:AL15&gt;0,COLUMN(S15:AL15)),IF(S15:AL15&lt;=0,COLUMN(S15:AL15))))&gt;4,1,0)</f>
@@ -1852,11 +1881,11 @@
       <c r="P15" s="19"/>
       <c r="Q15" s="20">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="R15" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="S15" s="21">
         <v>3</v>
@@ -1867,7 +1896,9 @@
       <c r="U15" s="21">
         <v>3</v>
       </c>
-      <c r="V15" s="21"/>
+      <c r="V15" s="21">
+        <v>3</v>
+      </c>
       <c r="W15" s="21"/>
       <c r="X15" s="21"/>
       <c r="Y15" s="21"/>
@@ -2032,7 +2063,7 @@
       <c r="P18" s="19"/>
       <c r="Q18" s="20">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R18" s="20" t="str">
         <f t="shared" si="2"/>
@@ -2047,7 +2078,9 @@
       <c r="U18" s="21">
         <v>0</v>
       </c>
-      <c r="V18" s="21"/>
+      <c r="V18" s="21">
+        <v>1</v>
+      </c>
       <c r="W18" s="21"/>
       <c r="X18" s="21"/>
       <c r="Y18" s="21"/>
@@ -2389,7 +2422,7 @@
       </c>
       <c r="C2" s="1">
         <f>'Sec 3 Data'!Q4</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2403,7 +2436,7 @@
       </c>
       <c r="C3" s="1">
         <f>'Sec 3 Data'!Q5</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2459,7 +2492,7 @@
       </c>
       <c r="C7" s="1">
         <f>'Sec 3 Data'!Q9</f>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2473,7 +2506,7 @@
       </c>
       <c r="C8" s="1">
         <f>'Sec 3 Data'!Q10</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2487,7 +2520,7 @@
       </c>
       <c r="C9" s="1">
         <f>'Sec 3 Data'!Q11</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2501,7 +2534,7 @@
       </c>
       <c r="C10" s="1">
         <f>'Sec 3 Data'!Q12</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2515,7 +2548,7 @@
       </c>
       <c r="C11" s="1">
         <f>'Sec 3 Data'!Q13</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2525,11 +2558,11 @@
       </c>
       <c r="B12" s="1" t="str">
         <f>'Sec 3 Data'!R14</f>
-        <v>-</v>
+        <v xml:space="preserve">-Full Combo, </v>
       </c>
       <c r="C12" s="1">
         <f>'Sec 3 Data'!Q14</f>
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2539,11 +2572,11 @@
       </c>
       <c r="B13" s="1" t="str">
         <f>'Sec 3 Data'!R15</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C13" s="1">
         <f>'Sec 3 Data'!Q15</f>
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2585,7 +2618,7 @@
       </c>
       <c r="C16" s="1">
         <f>'Sec 3 Data'!Q18</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2668,35 +2701,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AM42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AE1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AG24" sqref="AG24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.36328125" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="6.90625" customWidth="1"/>
-    <col min="4" max="4" width="15.08984375" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" customWidth="1"/>
-    <col min="6" max="6" width="14.36328125" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="10.08984375" customWidth="1"/>
-    <col min="9" max="9" width="15.90625" customWidth="1"/>
-    <col min="10" max="10" width="16.6328125" customWidth="1"/>
-    <col min="11" max="11" width="15.90625" customWidth="1"/>
-    <col min="12" max="12" width="10.54296875" customWidth="1"/>
-    <col min="13" max="13" width="9.453125" customWidth="1"/>
-    <col min="14" max="14" width="14.36328125" customWidth="1"/>
-    <col min="15" max="15" width="19.36328125" customWidth="1"/>
-    <col min="16" max="16" width="11.36328125" customWidth="1"/>
-    <col min="17" max="17" width="9.6328125" customWidth="1"/>
-    <col min="18" max="18" width="25.453125" customWidth="1"/>
-    <col min="19" max="22" width="8.90625" customWidth="1"/>
-    <col min="23" max="23" width="8.6328125" customWidth="1"/>
-    <col min="24" max="38" width="8.90625" customWidth="1"/>
-    <col min="39" max="39" width="10.26953125" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="6.90625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="15.08984375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.36328125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="15.90625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6328125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15.90625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.54296875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="9.453125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="14.36328125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="19.36328125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="11.36328125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.6328125" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="25.453125" hidden="1" customWidth="1"/>
+    <col min="19" max="22" width="8.90625" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="8.6328125" hidden="1" customWidth="1"/>
+    <col min="24" max="30" width="8.90625" hidden="1" customWidth="1"/>
+    <col min="31" max="38" width="8.90625" customWidth="1"/>
+    <col min="39" max="39" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2879,11 +2913,11 @@
       <c r="AD3" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="AE3" s="15">
-        <v>13</v>
-      </c>
-      <c r="AF3" s="15">
-        <v>14</v>
+      <c r="AE3" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF3" s="15" t="s">
+        <v>116</v>
       </c>
       <c r="AG3" s="15">
         <v>15</v>
@@ -2934,7 +2968,7 @@
       <c r="P4" s="19"/>
       <c r="Q4" s="20">
         <f t="shared" ref="Q4:Q42" si="1">SUM(B4:G4)+3*SUM(H4:M4)+5*SUM(N4:P4)+SUM(S4:AM4)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R4" s="20" t="str">
         <f t="shared" ref="R4:R42" si="2">CONCATENATE("-",IF(B4=1,$B$3&amp;", ",""),IF(C4=1,$C$3&amp;", ",""),IF(D4=1,$D$3&amp;", ",""),IF(E4=1,$E$3&amp;", ",""),IF(F4=1,$F$3&amp;", ",""),IF(G4=1,$G$3&amp;", ",""),IF(H4=1,$H$3&amp;", ",""),IF(I4=1,$I$3&amp;", ",""),IF(J4=1,$J$3&amp;", ",""),IF(K4=1,$K$3&amp;", ",""),IF(L4=1,$L$3&amp;", ",""),IF(M4=1,$M$3&amp;", ",""),IF(N4=1,$N$3&amp;", ",""),IF(O4=1,$O$3&amp;", ",""),IF(P4=1,$P$3&amp;", ",""))</f>
@@ -2976,8 +3010,12 @@
       <c r="AD4" s="21">
         <v>2</v>
       </c>
-      <c r="AE4" s="21"/>
-      <c r="AF4" s="21"/>
+      <c r="AE4" s="21">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="21">
+        <v>1</v>
+      </c>
       <c r="AG4" s="21"/>
       <c r="AH4" s="21"/>
       <c r="AI4" s="21"/>
@@ -3015,7 +3053,7 @@
       <c r="P5" s="19"/>
       <c r="Q5" s="20">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R5" s="20" t="str">
         <f t="shared" si="2"/>
@@ -3055,8 +3093,12 @@
       <c r="AD5" s="21">
         <v>3</v>
       </c>
-      <c r="AE5" s="21"/>
-      <c r="AF5" s="21"/>
+      <c r="AE5" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="21">
+        <v>1</v>
+      </c>
       <c r="AG5" s="21"/>
       <c r="AH5" s="21"/>
       <c r="AI5" s="21"/>
@@ -3117,18 +3159,18 @@
       <c r="W6" s="21">
         <v>2</v>
       </c>
-      <c r="X6" s="19"/>
+      <c r="X6" s="20"/>
       <c r="Y6" s="21">
         <v>0</v>
       </c>
       <c r="Z6" s="21">
         <v>1</v>
       </c>
-      <c r="AA6" s="26"/>
+      <c r="AA6" s="20"/>
       <c r="AB6" s="21">
         <v>1</v>
       </c>
-      <c r="AC6" s="26"/>
+      <c r="AC6" s="20"/>
       <c r="AD6" s="21">
         <v>0</v>
       </c>
@@ -3175,7 +3217,7 @@
       <c r="P7" s="19"/>
       <c r="Q7" s="20">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="R7" s="20" t="str">
         <f t="shared" si="2"/>
@@ -3215,8 +3257,12 @@
       <c r="AD7" s="21">
         <v>2</v>
       </c>
-      <c r="AE7" s="21"/>
-      <c r="AF7" s="21"/>
+      <c r="AE7" s="21">
+        <v>2</v>
+      </c>
+      <c r="AF7" s="21">
+        <v>1</v>
+      </c>
       <c r="AG7" s="21"/>
       <c r="AH7" s="21"/>
       <c r="AI7" s="21"/>
@@ -3254,7 +3300,7 @@
       <c r="P8" s="19"/>
       <c r="Q8" s="20">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R8" s="20" t="str">
         <f t="shared" si="2"/>
@@ -3296,8 +3342,12 @@
       <c r="AD8" s="21">
         <v>2</v>
       </c>
-      <c r="AE8" s="21"/>
-      <c r="AF8" s="21"/>
+      <c r="AE8" s="21">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="21">
+        <v>0</v>
+      </c>
       <c r="AG8" s="21"/>
       <c r="AH8" s="21"/>
       <c r="AI8" s="21"/>
@@ -3337,7 +3387,7 @@
       <c r="P9" s="19"/>
       <c r="Q9" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R9" s="20" t="str">
         <f t="shared" si="2"/>
@@ -3379,8 +3429,12 @@
       <c r="AD9" s="21">
         <v>3</v>
       </c>
-      <c r="AE9" s="21"/>
-      <c r="AF9" s="21"/>
+      <c r="AE9" s="21">
+        <v>3</v>
+      </c>
+      <c r="AF9" s="21">
+        <v>3</v>
+      </c>
       <c r="AG9" s="21"/>
       <c r="AH9" s="21"/>
       <c r="AI9" s="21"/>
@@ -3420,7 +3474,7 @@
       <c r="P10" s="19"/>
       <c r="Q10" s="20">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="R10" s="20" t="str">
         <f t="shared" si="2"/>
@@ -3462,8 +3516,12 @@
       <c r="AD10" s="21">
         <v>2</v>
       </c>
-      <c r="AE10" s="21"/>
-      <c r="AF10" s="21"/>
+      <c r="AE10" s="21">
+        <v>3</v>
+      </c>
+      <c r="AF10" s="21">
+        <v>2</v>
+      </c>
       <c r="AG10" s="21"/>
       <c r="AH10" s="21"/>
       <c r="AI10" s="21"/>
@@ -3501,7 +3559,7 @@
       <c r="P11" s="19"/>
       <c r="Q11" s="20">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="R11" s="20" t="str">
         <f t="shared" si="2"/>
@@ -3543,8 +3601,12 @@
       <c r="AD11" s="21">
         <v>2</v>
       </c>
-      <c r="AE11" s="21"/>
-      <c r="AF11" s="21"/>
+      <c r="AE11" s="21">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="21">
+        <v>2</v>
+      </c>
       <c r="AG11" s="21"/>
       <c r="AH11" s="21"/>
       <c r="AI11" s="21"/>
@@ -3584,7 +3646,7 @@
       <c r="P12" s="19"/>
       <c r="Q12" s="20">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="R12" s="20" t="str">
         <f t="shared" si="2"/>
@@ -3626,8 +3688,12 @@
       <c r="AD12" s="21">
         <v>0</v>
       </c>
-      <c r="AE12" s="21"/>
-      <c r="AF12" s="21"/>
+      <c r="AE12" s="21">
+        <v>2</v>
+      </c>
+      <c r="AF12" s="21">
+        <v>3</v>
+      </c>
       <c r="AG12" s="21"/>
       <c r="AH12" s="21"/>
       <c r="AI12" s="21"/>
@@ -3667,7 +3733,7 @@
       <c r="P13" s="19"/>
       <c r="Q13" s="20">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="R13" s="20" t="str">
         <f t="shared" si="2"/>
@@ -3709,8 +3775,12 @@
       <c r="AD13" s="21">
         <v>3</v>
       </c>
-      <c r="AE13" s="21"/>
-      <c r="AF13" s="21"/>
+      <c r="AE13" s="21">
+        <v>3</v>
+      </c>
+      <c r="AF13" s="21">
+        <v>3</v>
+      </c>
       <c r="AG13" s="21"/>
       <c r="AH13" s="21"/>
       <c r="AI13" s="21"/>
@@ -3750,7 +3820,7 @@
       <c r="P14" s="19"/>
       <c r="Q14" s="20">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="R14" s="20" t="str">
         <f t="shared" si="2"/>
@@ -3792,8 +3862,12 @@
       <c r="AD14" s="21">
         <v>3</v>
       </c>
-      <c r="AE14" s="21"/>
-      <c r="AF14" s="21"/>
+      <c r="AE14" s="21">
+        <v>3</v>
+      </c>
+      <c r="AF14" s="21">
+        <v>3</v>
+      </c>
       <c r="AG14" s="21"/>
       <c r="AH14" s="21"/>
       <c r="AI14" s="21"/>
@@ -3872,8 +3946,12 @@
       <c r="AD15" s="21">
         <v>0</v>
       </c>
-      <c r="AE15" s="21"/>
-      <c r="AF15" s="21"/>
+      <c r="AE15" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="21">
+        <v>0</v>
+      </c>
       <c r="AG15" s="21"/>
       <c r="AH15" s="21"/>
       <c r="AI15" s="21"/>
@@ -3955,8 +4033,12 @@
       <c r="AD16" s="21">
         <v>3</v>
       </c>
-      <c r="AE16" s="21"/>
-      <c r="AF16" s="21"/>
+      <c r="AE16" s="21">
+        <v>2</v>
+      </c>
+      <c r="AF16" s="21">
+        <v>3</v>
+      </c>
       <c r="AG16" s="21"/>
       <c r="AH16" s="21"/>
       <c r="AI16" s="21"/>
@@ -3964,7 +4046,8 @@
       <c r="AK16" s="21"/>
       <c r="AL16" s="21"/>
       <c r="AM16" s="1">
-        <v>1</v>
+        <f>1-5</f>
+        <v>-4</v>
       </c>
     </row>
     <row r="17" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3994,7 +4077,7 @@
       <c r="P17" s="19"/>
       <c r="Q17" s="20">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="R17" s="20" t="str">
         <f t="shared" si="2"/>
@@ -4036,8 +4119,12 @@
       <c r="AD17" s="21">
         <v>3</v>
       </c>
-      <c r="AE17" s="21"/>
-      <c r="AF17" s="21"/>
+      <c r="AE17" s="21">
+        <v>2</v>
+      </c>
+      <c r="AF17" s="21">
+        <v>2</v>
+      </c>
       <c r="AG17" s="21"/>
       <c r="AH17" s="21"/>
       <c r="AI17" s="21"/>
@@ -4077,7 +4164,7 @@
       <c r="P18" s="19"/>
       <c r="Q18" s="20">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="R18" s="20" t="str">
         <f t="shared" si="2"/>
@@ -4119,8 +4206,12 @@
       <c r="AD18" s="21">
         <v>2</v>
       </c>
-      <c r="AE18" s="21"/>
-      <c r="AF18" s="21"/>
+      <c r="AE18" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="21">
+        <v>2</v>
+      </c>
       <c r="AG18" s="21"/>
       <c r="AH18" s="21"/>
       <c r="AI18" s="21"/>
@@ -4162,7 +4253,7 @@
       <c r="P19" s="19"/>
       <c r="Q19" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R19" s="20" t="str">
         <f t="shared" si="2"/>
@@ -4204,8 +4295,12 @@
       <c r="AD19" s="21">
         <v>3</v>
       </c>
-      <c r="AE19" s="21"/>
-      <c r="AF19" s="21"/>
+      <c r="AE19" s="21">
+        <v>3</v>
+      </c>
+      <c r="AF19" s="21">
+        <v>3</v>
+      </c>
       <c r="AG19" s="21"/>
       <c r="AH19" s="21"/>
       <c r="AI19" s="21"/>
@@ -4249,7 +4344,7 @@
       <c r="P20" s="19"/>
       <c r="Q20" s="20">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="R20" s="20" t="str">
         <f t="shared" si="2"/>
@@ -4291,8 +4386,12 @@
       <c r="AD20" s="21">
         <v>3</v>
       </c>
-      <c r="AE20" s="21"/>
-      <c r="AF20" s="21"/>
+      <c r="AE20" s="21">
+        <v>2</v>
+      </c>
+      <c r="AF20" s="21">
+        <v>1</v>
+      </c>
       <c r="AG20" s="21"/>
       <c r="AH20" s="21"/>
       <c r="AI20" s="21"/>
@@ -4338,7 +4437,7 @@
       <c r="P21" s="19"/>
       <c r="Q21" s="20">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R21" s="20" t="str">
         <f t="shared" si="2"/>
@@ -4380,8 +4479,12 @@
       <c r="AD21" s="21">
         <v>3</v>
       </c>
-      <c r="AE21" s="21"/>
-      <c r="AF21" s="21"/>
+      <c r="AE21" s="21">
+        <v>2</v>
+      </c>
+      <c r="AF21" s="21">
+        <v>1</v>
+      </c>
       <c r="AG21" s="21"/>
       <c r="AH21" s="21"/>
       <c r="AI21" s="21"/>
@@ -4389,7 +4492,8 @@
       <c r="AK21" s="21"/>
       <c r="AL21" s="21"/>
       <c r="AM21" s="1">
-        <v>1</v>
+        <f>1-5</f>
+        <v>-4</v>
       </c>
     </row>
     <row r="22" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4421,7 +4525,7 @@
       <c r="P22" s="19"/>
       <c r="Q22" s="20">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="R22" s="20" t="str">
         <f t="shared" si="2"/>
@@ -4463,8 +4567,12 @@
       <c r="AD22" s="21">
         <v>2</v>
       </c>
-      <c r="AE22" s="21"/>
-      <c r="AF22" s="21"/>
+      <c r="AE22" s="21">
+        <v>3</v>
+      </c>
+      <c r="AF22" s="21">
+        <v>2</v>
+      </c>
       <c r="AG22" s="21"/>
       <c r="AH22" s="21"/>
       <c r="AI22" s="21"/>
@@ -4502,7 +4610,7 @@
       <c r="P23" s="19"/>
       <c r="Q23" s="20">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R23" s="20" t="str">
         <f t="shared" si="2"/>
@@ -4544,8 +4652,12 @@
       <c r="AD23" s="21">
         <v>0</v>
       </c>
-      <c r="AE23" s="21"/>
-      <c r="AF23" s="21"/>
+      <c r="AE23" s="21">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="21">
+        <v>2</v>
+      </c>
       <c r="AG23" s="21"/>
       <c r="AH23" s="21"/>
       <c r="AI23" s="21"/>
@@ -4589,7 +4701,7 @@
       <c r="P24" s="19"/>
       <c r="Q24" s="20">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R24" s="20" t="str">
         <f t="shared" si="2"/>
@@ -4631,8 +4743,12 @@
       <c r="AD24" s="21">
         <v>2</v>
       </c>
-      <c r="AE24" s="21"/>
-      <c r="AF24" s="21"/>
+      <c r="AE24" s="21">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="21">
+        <v>0</v>
+      </c>
       <c r="AG24" s="21"/>
       <c r="AH24" s="21"/>
       <c r="AI24" s="21"/>
@@ -4674,7 +4790,7 @@
       <c r="P25" s="19"/>
       <c r="Q25" s="20">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="R25" s="20" t="str">
         <f t="shared" si="2"/>
@@ -4716,8 +4832,12 @@
       <c r="AD25" s="21">
         <v>2</v>
       </c>
-      <c r="AE25" s="21"/>
-      <c r="AF25" s="21"/>
+      <c r="AE25" s="21">
+        <v>3</v>
+      </c>
+      <c r="AF25" s="21">
+        <v>3</v>
+      </c>
       <c r="AG25" s="21"/>
       <c r="AH25" s="21"/>
       <c r="AI25" s="21"/>
@@ -4757,7 +4877,7 @@
       <c r="P26" s="19"/>
       <c r="Q26" s="20">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R26" s="20" t="str">
         <f t="shared" si="2"/>
@@ -4797,8 +4917,12 @@
       <c r="AD26" s="21">
         <v>3</v>
       </c>
-      <c r="AE26" s="21"/>
-      <c r="AF26" s="21"/>
+      <c r="AE26" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="21">
+        <v>3</v>
+      </c>
       <c r="AG26" s="21"/>
       <c r="AH26" s="21"/>
       <c r="AI26" s="21"/>
@@ -4806,7 +4930,8 @@
       <c r="AK26" s="21"/>
       <c r="AL26" s="21"/>
       <c r="AM26" s="1">
-        <v>1</v>
+        <f>1-5</f>
+        <v>-4</v>
       </c>
     </row>
     <row r="27" spans="1:39" ht="14" customHeight="1" x14ac:dyDescent="0.35">
@@ -4838,7 +4963,7 @@
       <c r="P27" s="19"/>
       <c r="Q27" s="20">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R27" s="20" t="str">
         <f t="shared" si="2"/>
@@ -4880,15 +5005,19 @@
       <c r="AD27" s="21">
         <v>3</v>
       </c>
-      <c r="AE27" s="21"/>
-      <c r="AF27" s="21"/>
+      <c r="AE27" s="21">
+        <v>1</v>
+      </c>
+      <c r="AF27" s="21">
+        <v>2</v>
+      </c>
       <c r="AG27" s="21"/>
       <c r="AH27" s="21"/>
       <c r="AI27" s="21"/>
       <c r="AJ27" s="21"/>
       <c r="AK27" s="21"/>
       <c r="AL27" s="21"/>
-      <c r="AM27" s="40">
+      <c r="AM27" s="1">
         <v>-24</v>
       </c>
     </row>
@@ -4921,7 +5050,7 @@
       <c r="P28" s="19"/>
       <c r="Q28" s="20">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R28" s="20" t="str">
         <f t="shared" si="2"/>
@@ -4963,8 +5092,12 @@
       <c r="AD28" s="21">
         <v>2</v>
       </c>
-      <c r="AE28" s="21"/>
-      <c r="AF28" s="21"/>
+      <c r="AE28" s="21">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="21">
+        <v>1</v>
+      </c>
       <c r="AG28" s="21"/>
       <c r="AH28" s="21"/>
       <c r="AI28" s="21"/>
@@ -5002,7 +5135,7 @@
       <c r="P29" s="19"/>
       <c r="Q29" s="20">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R29" s="20" t="str">
         <f t="shared" si="2"/>
@@ -5044,8 +5177,12 @@
       <c r="AD29" s="21">
         <v>2</v>
       </c>
-      <c r="AE29" s="21"/>
-      <c r="AF29" s="21"/>
+      <c r="AE29" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="21">
+        <v>1</v>
+      </c>
       <c r="AG29" s="21"/>
       <c r="AH29" s="21"/>
       <c r="AI29" s="21"/>
@@ -5085,7 +5222,7 @@
       <c r="P30" s="19"/>
       <c r="Q30" s="20">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="R30" s="20" t="str">
         <f t="shared" si="2"/>
@@ -5127,8 +5264,12 @@
       <c r="AD30" s="21">
         <v>3</v>
       </c>
-      <c r="AE30" s="21"/>
-      <c r="AF30" s="21"/>
+      <c r="AE30" s="21">
+        <v>2</v>
+      </c>
+      <c r="AF30" s="21">
+        <v>2</v>
+      </c>
       <c r="AG30" s="21"/>
       <c r="AH30" s="21"/>
       <c r="AI30" s="21"/>
@@ -5161,18 +5302,20 @@
         <f t="array" ref="K31">IF(MAX(FREQUENCY(IF(S31:AL31&gt;0,COLUMN(S31:AL31)),IF(S31:AL31&lt;=0,COLUMN(S31:AL31))))&gt;4,1,0)</f>
         <v>1</v>
       </c>
-      <c r="L31" s="18"/>
+      <c r="L31" s="18">
+        <v>1</v>
+      </c>
       <c r="M31" s="18"/>
       <c r="N31" s="19"/>
       <c r="O31" s="19"/>
       <c r="P31" s="19"/>
       <c r="Q31" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R31" s="20" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Full Combo, Three-Star Wonder, Consistency Is Key, </v>
+        <v xml:space="preserve">-Full Combo, Three-Star Wonder, Consistency Is Key, Extra Credit, </v>
       </c>
       <c r="S31" s="21">
         <v>3</v>
@@ -5210,8 +5353,12 @@
       <c r="AD31" s="21">
         <v>3</v>
       </c>
-      <c r="AE31" s="21"/>
-      <c r="AF31" s="21"/>
+      <c r="AE31" s="21">
+        <v>3</v>
+      </c>
+      <c r="AF31" s="21">
+        <v>3</v>
+      </c>
       <c r="AG31" s="21"/>
       <c r="AH31" s="21"/>
       <c r="AI31" s="21"/>
@@ -5253,7 +5400,7 @@
       <c r="P32" s="19"/>
       <c r="Q32" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R32" s="20" t="str">
         <f t="shared" si="2"/>
@@ -5295,8 +5442,12 @@
       <c r="AD32" s="21">
         <v>3</v>
       </c>
-      <c r="AE32" s="21"/>
-      <c r="AF32" s="21"/>
+      <c r="AE32" s="21">
+        <v>3</v>
+      </c>
+      <c r="AF32" s="21">
+        <v>2</v>
+      </c>
       <c r="AG32" s="21"/>
       <c r="AH32" s="21"/>
       <c r="AI32" s="21"/>
@@ -5334,7 +5485,7 @@
       <c r="P33" s="19"/>
       <c r="Q33" s="20">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="R33" s="20" t="str">
         <f t="shared" si="2"/>
@@ -5377,7 +5528,9 @@
         <v>2</v>
       </c>
       <c r="AE33" s="21"/>
-      <c r="AF33" s="21"/>
+      <c r="AF33" s="21">
+        <v>2</v>
+      </c>
       <c r="AG33" s="21"/>
       <c r="AH33" s="21"/>
       <c r="AI33" s="21"/>
@@ -5415,7 +5568,7 @@
       <c r="P34" s="19"/>
       <c r="Q34" s="20">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R34" s="20" t="str">
         <f t="shared" si="2"/>
@@ -5457,8 +5610,12 @@
       <c r="AD34" s="21">
         <v>0</v>
       </c>
-      <c r="AE34" s="21"/>
-      <c r="AF34" s="21"/>
+      <c r="AE34" s="21">
+        <v>2</v>
+      </c>
+      <c r="AF34" s="21">
+        <v>1</v>
+      </c>
       <c r="AG34" s="21"/>
       <c r="AH34" s="21"/>
       <c r="AI34" s="21"/>
@@ -5485,7 +5642,7 @@
       <c r="I35" s="18"/>
       <c r="J35" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="18">
         <f t="array" ref="K35">IF(MAX(FREQUENCY(IF(S35:AL35&gt;0,COLUMN(S35:AL35)),IF(S35:AL35&lt;=0,COLUMN(S35:AL35))))&gt;4,1,0)</f>
@@ -5498,11 +5655,11 @@
       <c r="P35" s="19"/>
       <c r="Q35" s="20">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="R35" s="20" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-I Say Hi, Consistency Is Key, </v>
+        <v xml:space="preserve">-I Say Hi, Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="S35" s="21">
         <v>2</v>
@@ -5540,8 +5697,12 @@
       <c r="AD35" s="21">
         <v>2</v>
       </c>
-      <c r="AE35" s="21"/>
-      <c r="AF35" s="21"/>
+      <c r="AE35" s="21">
+        <v>2</v>
+      </c>
+      <c r="AF35" s="21">
+        <v>3</v>
+      </c>
       <c r="AG35" s="21"/>
       <c r="AH35" s="21"/>
       <c r="AI35" s="21"/>
@@ -5660,7 +5821,7 @@
       <c r="P37" s="19"/>
       <c r="Q37" s="20">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R37" s="20" t="str">
         <f t="shared" si="2"/>
@@ -5702,8 +5863,12 @@
       <c r="AD37" s="21">
         <v>2</v>
       </c>
-      <c r="AE37" s="21"/>
-      <c r="AF37" s="21"/>
+      <c r="AE37" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="21">
+        <v>1</v>
+      </c>
       <c r="AG37" s="21"/>
       <c r="AH37" s="21"/>
       <c r="AI37" s="21"/>
@@ -5743,7 +5908,7 @@
       <c r="P38" s="19"/>
       <c r="Q38" s="20">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="R38" s="20" t="str">
         <f t="shared" si="2"/>
@@ -5785,8 +5950,12 @@
       <c r="AD38" s="21">
         <v>0</v>
       </c>
-      <c r="AE38" s="21"/>
-      <c r="AF38" s="21"/>
+      <c r="AE38" s="21">
+        <v>3</v>
+      </c>
+      <c r="AF38" s="21">
+        <v>3</v>
+      </c>
       <c r="AG38" s="21"/>
       <c r="AH38" s="21"/>
       <c r="AI38" s="21"/>
@@ -5798,7 +5967,9 @@
       </c>
     </row>
     <row r="39" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="16"/>
+      <c r="A39" s="16" t="s">
+        <v>113</v>
+      </c>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
@@ -5807,19 +5978,25 @@
       <c r="G39" s="17"/>
       <c r="H39" s="18"/>
       <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
+      <c r="J39" s="18">
+        <f t="shared" ref="J39:J40" si="3">IF(COUNTIF(S39:AL39,"&gt;=3")&gt;=3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K39" s="18">
+        <f t="array" ref="K39">IF(MAX(FREQUENCY(IF(S39:AL39&gt;0,COLUMN(S39:AL39)),IF(S39:AL39&lt;=0,COLUMN(S39:AL39))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L39" s="18"/>
       <c r="M39" s="18"/>
       <c r="N39" s="19"/>
       <c r="O39" s="19"/>
       <c r="P39" s="19"/>
       <c r="Q39" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="Q39:Q40" si="4">SUM(B39:G39)+3*SUM(H39:M39)+5*SUM(N39:P39)+SUM(S39:AM39)</f>
+        <v>18</v>
       </c>
       <c r="R39" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="R39:R40" si="5">CONCATENATE("-",IF(B39=1,$B$3&amp;", ",""),IF(C39=1,$C$3&amp;", ",""),IF(D39=1,$D$3&amp;", ",""),IF(E39=1,$E$3&amp;", ",""),IF(F39=1,$F$3&amp;", ",""),IF(G39=1,$G$3&amp;", ",""),IF(H39=1,$H$3&amp;", ",""),IF(I39=1,$I$3&amp;", ",""),IF(J39=1,$J$3&amp;", ",""),IF(K39=1,$K$3&amp;", ",""),IF(L39=1,$L$3&amp;", ",""),IF(M39=1,$M$3&amp;", ",""),IF(N39=1,$N$3&amp;", ",""),IF(O39=1,$O$3&amp;", ",""),IF(P39=1,$P$3&amp;", ",""))</f>
         <v>-</v>
       </c>
       <c r="S39" s="21"/>
@@ -5834,17 +6011,26 @@
       <c r="AB39" s="21"/>
       <c r="AC39" s="21"/>
       <c r="AD39" s="21"/>
-      <c r="AE39" s="21"/>
-      <c r="AF39" s="21"/>
+      <c r="AE39" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="21">
+        <v>3</v>
+      </c>
       <c r="AG39" s="21"/>
       <c r="AH39" s="21"/>
       <c r="AI39" s="21"/>
       <c r="AJ39" s="21"/>
       <c r="AK39" s="21"/>
       <c r="AL39" s="21"/>
+      <c r="AM39">
+        <v>15</v>
+      </c>
     </row>
     <row r="40" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="16"/>
+      <c r="A40" s="16" t="s">
+        <v>114</v>
+      </c>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
@@ -5853,19 +6039,25 @@
       <c r="G40" s="17"/>
       <c r="H40" s="18"/>
       <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
+      <c r="J40" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="18">
+        <f t="array" ref="K40">IF(MAX(FREQUENCY(IF(S40:AL40&gt;0,COLUMN(S40:AL40)),IF(S40:AL40&lt;=0,COLUMN(S40:AL40))))&gt;4,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="L40" s="18"/>
       <c r="M40" s="18"/>
       <c r="N40" s="19"/>
       <c r="O40" s="19"/>
       <c r="P40" s="19"/>
       <c r="Q40" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="R40" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="S40" s="21"/>
@@ -5880,14 +6072,19 @@
       <c r="AB40" s="21"/>
       <c r="AC40" s="21"/>
       <c r="AD40" s="21"/>
-      <c r="AE40" s="21"/>
-      <c r="AF40" s="21"/>
+      <c r="AE40" s="21">
+        <v>3</v>
+      </c>
+      <c r="AF40" s="21">
+        <v>0</v>
+      </c>
       <c r="AG40" s="21"/>
       <c r="AH40" s="21"/>
       <c r="AI40" s="21"/>
       <c r="AJ40" s="21"/>
       <c r="AK40" s="21"/>
       <c r="AL40" s="21"/>
+      <c r="AM40" s="1"/>
     </row>
     <row r="41" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="16"/>
@@ -6028,7 +6225,7 @@
       </c>
       <c r="C2" s="1">
         <f>'Sec 1 Data'!Q4</f>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6042,7 +6239,7 @@
       </c>
       <c r="C3" s="1">
         <f>'Sec 1 Data'!Q5</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6070,7 +6267,7 @@
       </c>
       <c r="C5" s="1">
         <f>'Sec 1 Data'!Q7</f>
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6084,7 +6281,7 @@
       </c>
       <c r="C6" s="1">
         <f>'Sec 1 Data'!Q8</f>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6098,7 +6295,7 @@
       </c>
       <c r="C7" s="1">
         <f>'Sec 1 Data'!Q9</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6112,7 +6309,7 @@
       </c>
       <c r="C8" s="1">
         <f>'Sec 1 Data'!Q10</f>
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6126,7 +6323,7 @@
       </c>
       <c r="C9" s="1">
         <f>'Sec 1 Data'!Q11</f>
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6140,7 +6337,7 @@
       </c>
       <c r="C10" s="1">
         <f>'Sec 1 Data'!Q12</f>
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6154,7 +6351,7 @@
       </c>
       <c r="C11" s="1">
         <f>'Sec 1 Data'!Q13</f>
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6168,7 +6365,7 @@
       </c>
       <c r="C12" s="1">
         <f>'Sec 1 Data'!Q14</f>
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6210,7 +6407,7 @@
       </c>
       <c r="C15" s="1">
         <f>'Sec 1 Data'!Q17</f>
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6224,7 +6421,7 @@
       </c>
       <c r="C16" s="1">
         <f>'Sec 1 Data'!Q18</f>
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6238,7 +6435,7 @@
       </c>
       <c r="C17" s="1">
         <f>'Sec 1 Data'!Q19</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6252,7 +6449,7 @@
       </c>
       <c r="C18" s="1">
         <f>'Sec 1 Data'!Q20</f>
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6266,7 +6463,7 @@
       </c>
       <c r="C19" s="1">
         <f>'Sec 1 Data'!Q21</f>
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6280,7 +6477,7 @@
       </c>
       <c r="C20" s="1">
         <f>'Sec 1 Data'!Q22</f>
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6294,7 +6491,7 @@
       </c>
       <c r="C21" s="1">
         <f>'Sec 1 Data'!Q23</f>
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6308,7 +6505,7 @@
       </c>
       <c r="C22" s="1">
         <f>'Sec 1 Data'!Q24</f>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6322,7 +6519,7 @@
       </c>
       <c r="C23" s="1">
         <f>'Sec 1 Data'!Q25</f>
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6336,7 +6533,7 @@
       </c>
       <c r="C24" s="1">
         <f>'Sec 1 Data'!Q26</f>
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6350,7 +6547,7 @@
       </c>
       <c r="C25" s="1">
         <f>'Sec 1 Data'!Q27</f>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6364,7 +6561,7 @@
       </c>
       <c r="C26" s="1">
         <f>'Sec 1 Data'!Q28</f>
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6378,7 +6575,7 @@
       </c>
       <c r="C27" s="1">
         <f>'Sec 1 Data'!Q29</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6392,7 +6589,7 @@
       </c>
       <c r="C28" s="1">
         <f>'Sec 1 Data'!Q30</f>
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6402,11 +6599,11 @@
       </c>
       <c r="B29" s="1" t="str">
         <f>'Sec 1 Data'!R31</f>
-        <v xml:space="preserve">-Full Combo, Three-Star Wonder, Consistency Is Key, </v>
+        <v xml:space="preserve">-Full Combo, Three-Star Wonder, Consistency Is Key, Extra Credit, </v>
       </c>
       <c r="C29" s="1">
         <f>'Sec 1 Data'!Q31</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6420,7 +6617,7 @@
       </c>
       <c r="C30" s="1">
         <f>'Sec 1 Data'!Q32</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6434,7 +6631,7 @@
       </c>
       <c r="C31" s="1">
         <f>'Sec 1 Data'!Q33</f>
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6448,7 +6645,7 @@
       </c>
       <c r="C32" s="1">
         <f>'Sec 1 Data'!Q34</f>
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6458,11 +6655,11 @@
       </c>
       <c r="B33" s="1" t="str">
         <f>'Sec 1 Data'!R35</f>
-        <v xml:space="preserve">-I Say Hi, Consistency Is Key, </v>
+        <v xml:space="preserve">-I Say Hi, Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="C33" s="1">
         <f>'Sec 1 Data'!Q35</f>
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6490,7 +6687,7 @@
       </c>
       <c r="C35" s="1">
         <f>'Sec 1 Data'!Q37</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6504,13 +6701,13 @@
       </c>
       <c r="C36" s="1">
         <f>'Sec 1 Data'!Q38</f>
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+      <c r="A37" s="1" t="str">
         <f>'Sec 1 Data'!A39</f>
-        <v>0</v>
+        <v>Charlyn</v>
       </c>
       <c r="B37" s="1" t="str">
         <f>'Sec 1 Data'!R39</f>
@@ -6518,13 +6715,13 @@
       </c>
       <c r="C37" s="1">
         <f>'Sec 1 Data'!Q39</f>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
+      <c r="A38" s="1" t="str">
         <f>'Sec 1 Data'!A40</f>
-        <v>0</v>
+        <v>Meng Long</v>
       </c>
       <c r="B38" s="1" t="str">
         <f>'Sec 1 Data'!R40</f>
@@ -6532,7 +6729,7 @@
       </c>
       <c r="C38" s="1">
         <f>'Sec 1 Data'!Q40</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S9823846H\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CF030D-0CC9-495F-BE65-A4C077BBE316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C662888F-6424-4A05-9072-08285E7E47C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sec 3 Data" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="118">
   <si>
     <t>4A</t>
   </si>
@@ -392,6 +392,9 @@
   </si>
   <si>
     <t>Chp 10</t>
+  </si>
+  <si>
+    <t>Chp 9.3</t>
   </si>
 </sst>
 </file>
@@ -427,7 +430,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -474,6 +477,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FF00B0F0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -635,7 +644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -693,6 +702,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -939,9 +951,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V6" sqref="V6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -978,12 +990,12 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="29"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="30"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
@@ -1011,51 +1023,51 @@
       <c r="AL1" s="9"/>
     </row>
     <row r="2" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" s="31"/>
-      <c r="P2" s="32"/>
+      <c r="B2" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="32"/>
+      <c r="P2" s="33"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="6"/>
-      <c r="S2" s="35" t="s">
+      <c r="S2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="31"/>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="31"/>
-      <c r="AK2" s="31"/>
-      <c r="AL2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="33"/>
     </row>
     <row r="3" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -1203,7 +1215,7 @@
       <c r="P4" s="19"/>
       <c r="Q4" s="20">
         <f t="shared" ref="Q4:Q23" si="1">SUM(B4:G4)+3*SUM(H4:M4)+5*SUM(N4:P4)+SUM(S4:AM4)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R4" s="20" t="str">
         <f t="shared" ref="R4:R23" si="2">CONCATENATE("-",IF(B4=1,$B$3&amp;", ",""),IF(C4=1,$C$3&amp;", ",""),IF(D4=1,$D$3&amp;", ",""),IF(E4=1,$E$3&amp;", ",""),IF(F4=1,$F$3&amp;", ",""),IF(G4=1,$G$3&amp;", ",""),IF(H4=1,$H$3&amp;", ",""),IF(I4=1,$I$3&amp;", ",""),IF(J4=1,$J$3&amp;", ",""),IF(K4=1,$K$3&amp;", ",""),IF(L4=1,$L$3&amp;", ",""),IF(M4=1,$M$3&amp;", ",""),IF(N4=1,$N$3&amp;", ",""),IF(O4=1,$O$3&amp;", ",""),IF(P4=1,$P$3&amp;", ",""))</f>
@@ -1222,7 +1234,9 @@
         <v>2</v>
       </c>
       <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
+      <c r="X4" s="21">
+        <v>3</v>
+      </c>
       <c r="Y4" s="21"/>
       <c r="Z4" s="21"/>
       <c r="AA4" s="21"/>
@@ -1256,7 +1270,7 @@
       </c>
       <c r="K5" s="18">
         <f t="array" ref="K5">IF(MAX(FREQUENCY(IF(S5:AL5&gt;0,COLUMN(S5:AL5)),IF(S5:AL5&lt;=0,COLUMN(S5:AL5))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="18"/>
       <c r="M5" s="18"/>
@@ -1265,11 +1279,11 @@
       <c r="P5" s="19"/>
       <c r="Q5" s="20">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="R5" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Consistency Is Key, </v>
       </c>
       <c r="S5" s="21">
         <v>3</v>
@@ -1283,7 +1297,9 @@
       <c r="V5" s="21">
         <v>2</v>
       </c>
-      <c r="W5" s="21"/>
+      <c r="W5" s="21">
+        <v>3</v>
+      </c>
       <c r="X5" s="21"/>
       <c r="Y5" s="21"/>
       <c r="Z5" s="21"/>
@@ -1314,7 +1330,7 @@
       <c r="I6" s="18"/>
       <c r="J6" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="18">
         <f t="array" ref="K6">IF(MAX(FREQUENCY(IF(S6:AL6&gt;0,COLUMN(S6:AL6)),IF(S6:AL6&lt;=0,COLUMN(S6:AL6))))&gt;4,1,0)</f>
@@ -1327,11 +1343,11 @@
       <c r="P6" s="19"/>
       <c r="Q6" s="20">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="R6" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="S6" s="21">
         <v>2</v>
@@ -1343,8 +1359,12 @@
         <v>3</v>
       </c>
       <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
+      <c r="W6" s="21">
+        <v>2</v>
+      </c>
+      <c r="X6" s="21">
+        <v>3</v>
+      </c>
       <c r="Y6" s="21"/>
       <c r="Z6" s="21"/>
       <c r="AA6" s="21"/>
@@ -1371,7 +1391,9 @@
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
       <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
+      <c r="I7" s="18">
+        <v>1</v>
+      </c>
       <c r="J7" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1387,11 +1409,11 @@
       <c r="P7" s="19"/>
       <c r="Q7" s="20">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="R7" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Math Ambassador, </v>
       </c>
       <c r="S7" s="21">
         <v>2</v>
@@ -1403,8 +1425,12 @@
         <v>2</v>
       </c>
       <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
+      <c r="W7" s="21">
+        <v>2</v>
+      </c>
+      <c r="X7" s="21">
+        <v>2</v>
+      </c>
       <c r="Y7" s="21"/>
       <c r="Z7" s="21"/>
       <c r="AA7" s="21"/>
@@ -1498,7 +1524,7 @@
       </c>
       <c r="K9" s="18">
         <f t="array" ref="K9">IF(MAX(FREQUENCY(IF(S9:AL9&gt;0,COLUMN(S9:AL9)),IF(S9:AL9&lt;=0,COLUMN(S9:AL9))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
@@ -1507,11 +1533,11 @@
       <c r="P9" s="19"/>
       <c r="Q9" s="20">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="R9" s="20" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <v xml:space="preserve">-Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="S9" s="21">
         <v>3</v>
@@ -1525,8 +1551,12 @@
       <c r="V9" s="21">
         <v>3</v>
       </c>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
+      <c r="W9" s="21">
+        <v>3</v>
+      </c>
+      <c r="X9" s="21">
+        <v>3</v>
+      </c>
       <c r="Y9" s="21"/>
       <c r="Z9" s="21"/>
       <c r="AA9" s="21"/>
@@ -1569,7 +1599,7 @@
       <c r="P10" s="19"/>
       <c r="Q10" s="20">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R10" s="20" t="str">
         <f t="shared" si="2"/>
@@ -1587,8 +1617,12 @@
       <c r="V10" s="21">
         <v>2</v>
       </c>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
+      <c r="W10" s="21">
+        <v>0</v>
+      </c>
+      <c r="X10" s="21">
+        <v>2</v>
+      </c>
       <c r="Y10" s="21"/>
       <c r="Z10" s="21"/>
       <c r="AA10" s="21"/>
@@ -1631,7 +1665,7 @@
       <c r="P11" s="19"/>
       <c r="Q11" s="20">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R11" s="20" t="str">
         <f t="shared" si="2"/>
@@ -1649,8 +1683,12 @@
       <c r="V11" s="21">
         <v>2</v>
       </c>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
+      <c r="W11" s="21">
+        <v>0</v>
+      </c>
+      <c r="X11" s="21">
+        <v>2</v>
+      </c>
       <c r="Y11" s="21"/>
       <c r="Z11" s="21"/>
       <c r="AA11" s="21"/>
@@ -1676,15 +1714,17 @@
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
+      <c r="H12" s="18">
+        <v>1</v>
+      </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="18">
         <f t="array" ref="K12">IF(MAX(FREQUENCY(IF(S12:AL12&gt;0,COLUMN(S12:AL12)),IF(S12:AL12&lt;=0,COLUMN(S12:AL12))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
@@ -1693,11 +1733,11 @@
       <c r="P12" s="19"/>
       <c r="Q12" s="20">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="R12" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v xml:space="preserve">-Full Combo, Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="S12" s="21">
         <v>3</v>
@@ -1711,8 +1751,12 @@
       <c r="V12" s="21">
         <v>2</v>
       </c>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
+      <c r="W12" s="21">
+        <v>3</v>
+      </c>
+      <c r="X12" s="21">
+        <v>3</v>
+      </c>
       <c r="Y12" s="21"/>
       <c r="Z12" s="21"/>
       <c r="AA12" s="21"/>
@@ -1806,11 +1850,11 @@
       <c r="I14" s="18"/>
       <c r="J14" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="18">
         <f t="array" ref="K14">IF(MAX(FREQUENCY(IF(S14:AL14&gt;0,COLUMN(S14:AL14)),IF(S14:AL14&lt;=0,COLUMN(S14:AL14))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
@@ -1819,11 +1863,11 @@
       <c r="P14" s="19"/>
       <c r="Q14" s="20">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="R14" s="20" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Full Combo, </v>
+        <v xml:space="preserve">-Full Combo, Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="S14" s="21">
         <v>3</v>
@@ -1837,8 +1881,12 @@
       <c r="V14" s="21">
         <v>3</v>
       </c>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
+      <c r="W14" s="21">
+        <v>3</v>
+      </c>
+      <c r="X14" s="21">
+        <v>2</v>
+      </c>
       <c r="Y14" s="21"/>
       <c r="Z14" s="21"/>
       <c r="AA14" s="21"/>
@@ -1864,7 +1912,9 @@
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
-      <c r="H15" s="18"/>
+      <c r="H15" s="18">
+        <v>1</v>
+      </c>
       <c r="I15" s="18"/>
       <c r="J15" s="18">
         <f t="shared" si="0"/>
@@ -1872,7 +1922,7 @@
       </c>
       <c r="K15" s="18">
         <f t="array" ref="K15">IF(MAX(FREQUENCY(IF(S15:AL15&gt;0,COLUMN(S15:AL15)),IF(S15:AL15&lt;=0,COLUMN(S15:AL15))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
@@ -1881,11 +1931,11 @@
       <c r="P15" s="19"/>
       <c r="Q15" s="20">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="R15" s="20" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <v xml:space="preserve">-Full Combo, Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="S15" s="21">
         <v>3</v>
@@ -1899,8 +1949,12 @@
       <c r="V15" s="21">
         <v>3</v>
       </c>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
+      <c r="W15" s="21">
+        <v>3</v>
+      </c>
+      <c r="X15" s="21">
+        <v>2</v>
+      </c>
       <c r="Y15" s="21"/>
       <c r="Z15" s="21"/>
       <c r="AA15" s="21"/>
@@ -1943,7 +1997,7 @@
       <c r="P16" s="19"/>
       <c r="Q16" s="20">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R16" s="20" t="str">
         <f t="shared" si="2"/>
@@ -1959,7 +2013,9 @@
         <v>1</v>
       </c>
       <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
+      <c r="W16" s="21">
+        <v>1</v>
+      </c>
       <c r="X16" s="21"/>
       <c r="Y16" s="21"/>
       <c r="Z16" s="21"/>
@@ -2003,7 +2059,7 @@
       <c r="P17" s="19"/>
       <c r="Q17" s="20">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R17" s="20" t="str">
         <f t="shared" si="2"/>
@@ -2020,7 +2076,9 @@
       </c>
       <c r="V17" s="21"/>
       <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
+      <c r="X17" s="21">
+        <v>3</v>
+      </c>
       <c r="Y17" s="21"/>
       <c r="Z17" s="21"/>
       <c r="AA17" s="21"/>
@@ -2125,7 +2183,7 @@
       <c r="P19" s="19"/>
       <c r="Q19" s="20">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R19" s="20" t="str">
         <f t="shared" si="2"/>
@@ -2142,7 +2200,9 @@
       </c>
       <c r="V19" s="21"/>
       <c r="W19" s="21"/>
-      <c r="X19" s="21"/>
+      <c r="X19" s="21">
+        <v>2</v>
+      </c>
       <c r="Y19" s="21"/>
       <c r="Z19" s="21"/>
       <c r="AA19" s="21"/>
@@ -2391,8 +2451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2422,7 +2482,7 @@
       </c>
       <c r="C2" s="1">
         <f>'Sec 3 Data'!Q4</f>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2432,11 +2492,11 @@
       </c>
       <c r="B3" s="1" t="str">
         <f>'Sec 3 Data'!R5</f>
-        <v>-</v>
+        <v xml:space="preserve">-Consistency Is Key, </v>
       </c>
       <c r="C3" s="1">
         <f>'Sec 3 Data'!Q5</f>
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2446,11 +2506,11 @@
       </c>
       <c r="B4" s="1" t="str">
         <f>'Sec 3 Data'!R6</f>
-        <v>-</v>
+        <v xml:space="preserve">-Three-Star Wonder, </v>
       </c>
       <c r="C4" s="1">
         <f>'Sec 3 Data'!Q6</f>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2460,11 +2520,11 @@
       </c>
       <c r="B5" s="1" t="str">
         <f>'Sec 3 Data'!R7</f>
-        <v>-</v>
+        <v xml:space="preserve">-Math Ambassador, </v>
       </c>
       <c r="C5" s="1">
         <f>'Sec 3 Data'!Q7</f>
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2488,11 +2548,11 @@
       </c>
       <c r="B7" s="1" t="str">
         <f>'Sec 3 Data'!R9</f>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <v xml:space="preserve">-Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="C7" s="1">
         <f>'Sec 3 Data'!Q9</f>
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2506,7 +2566,7 @@
       </c>
       <c r="C8" s="1">
         <f>'Sec 3 Data'!Q10</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2520,7 +2580,7 @@
       </c>
       <c r="C9" s="1">
         <f>'Sec 3 Data'!Q11</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2530,11 +2590,11 @@
       </c>
       <c r="B10" s="1" t="str">
         <f>'Sec 3 Data'!R12</f>
-        <v>-</v>
+        <v xml:space="preserve">-Full Combo, Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="C10" s="1">
         <f>'Sec 3 Data'!Q12</f>
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2558,11 +2618,11 @@
       </c>
       <c r="B12" s="1" t="str">
         <f>'Sec 3 Data'!R14</f>
-        <v xml:space="preserve">-Full Combo, </v>
+        <v xml:space="preserve">-Full Combo, Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="C12" s="1">
         <f>'Sec 3 Data'!Q14</f>
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2572,11 +2632,11 @@
       </c>
       <c r="B13" s="1" t="str">
         <f>'Sec 3 Data'!R15</f>
-        <v xml:space="preserve">-Three-Star Wonder, </v>
+        <v xml:space="preserve">-Full Combo, Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="C13" s="1">
         <f>'Sec 3 Data'!Q15</f>
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2590,7 +2650,7 @@
       </c>
       <c r="C14" s="1">
         <f>'Sec 3 Data'!Q16</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2604,7 +2664,7 @@
       </c>
       <c r="C15" s="1">
         <f>'Sec 3 Data'!Q17</f>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2632,7 +2692,7 @@
       </c>
       <c r="C17" s="1">
         <f>'Sec 3 Data'!Q19</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2701,35 +2761,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AM42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AG24" sqref="AG24"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AJ29" sqref="AJ29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.36328125" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="6.90625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="15.08984375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.36328125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="12" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="10.08984375" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="15.90625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6328125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="15.90625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.54296875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="9.453125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="14.36328125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="19.36328125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="11.36328125" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.6328125" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="25.453125" hidden="1" customWidth="1"/>
-    <col min="19" max="22" width="8.90625" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="8.6328125" hidden="1" customWidth="1"/>
-    <col min="24" max="30" width="8.90625" hidden="1" customWidth="1"/>
-    <col min="31" max="38" width="8.90625" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" customWidth="1"/>
+    <col min="3" max="3" width="6.90625" customWidth="1"/>
+    <col min="4" max="4" width="15.08984375" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" customWidth="1"/>
+    <col min="6" max="6" width="14.36328125" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" customWidth="1"/>
+    <col min="9" max="9" width="15.90625" customWidth="1"/>
+    <col min="10" max="10" width="16.6328125" customWidth="1"/>
+    <col min="11" max="11" width="15.90625" customWidth="1"/>
+    <col min="12" max="12" width="10.54296875" customWidth="1"/>
+    <col min="13" max="13" width="9.453125" customWidth="1"/>
+    <col min="14" max="14" width="14.36328125" customWidth="1"/>
+    <col min="15" max="15" width="19.36328125" customWidth="1"/>
+    <col min="16" max="16" width="11.36328125" customWidth="1"/>
+    <col min="17" max="17" width="9.6328125" customWidth="1"/>
+    <col min="18" max="18" width="25.453125" customWidth="1"/>
+    <col min="19" max="22" width="8.90625" customWidth="1"/>
+    <col min="23" max="23" width="8.6328125" customWidth="1"/>
+    <col min="24" max="38" width="8.90625" customWidth="1"/>
     <col min="39" max="39" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2743,15 +2802,15 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="38"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="39"/>
       <c r="Q1" s="5"/>
       <c r="R1" s="6"/>
       <c r="S1" s="7"/>
@@ -2776,51 +2835,51 @@
       <c r="AL1" s="9"/>
     </row>
     <row r="2" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" s="31"/>
-      <c r="P2" s="32"/>
+      <c r="B2" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="32"/>
+      <c r="P2" s="33"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="6"/>
-      <c r="S2" s="35" t="s">
+      <c r="S2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="31"/>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="31"/>
-      <c r="AK2" s="31"/>
-      <c r="AL2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="33"/>
     </row>
     <row r="3" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -2919,8 +2978,8 @@
       <c r="AF3" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="AG3" s="15">
-        <v>15</v>
+      <c r="AG3" s="15" t="s">
+        <v>117</v>
       </c>
       <c r="AH3" s="15">
         <v>16</v>
@@ -2968,7 +3027,7 @@
       <c r="P4" s="19"/>
       <c r="Q4" s="20">
         <f t="shared" ref="Q4:Q42" si="1">SUM(B4:G4)+3*SUM(H4:M4)+5*SUM(N4:P4)+SUM(S4:AM4)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R4" s="20" t="str">
         <f t="shared" ref="R4:R42" si="2">CONCATENATE("-",IF(B4=1,$B$3&amp;", ",""),IF(C4=1,$C$3&amp;", ",""),IF(D4=1,$D$3&amp;", ",""),IF(E4=1,$E$3&amp;", ",""),IF(F4=1,$F$3&amp;", ",""),IF(G4=1,$G$3&amp;", ",""),IF(H4=1,$H$3&amp;", ",""),IF(I4=1,$I$3&amp;", ",""),IF(J4=1,$J$3&amp;", ",""),IF(K4=1,$K$3&amp;", ",""),IF(L4=1,$L$3&amp;", ",""),IF(M4=1,$M$3&amp;", ",""),IF(N4=1,$N$3&amp;", ",""),IF(O4=1,$O$3&amp;", ",""),IF(P4=1,$P$3&amp;", ",""))</f>
@@ -3016,14 +3075,20 @@
       <c r="AF4" s="21">
         <v>1</v>
       </c>
-      <c r="AG4" s="21"/>
+      <c r="AG4" s="21">
+        <v>2</v>
+      </c>
       <c r="AH4" s="21"/>
-      <c r="AI4" s="21"/>
-      <c r="AJ4" s="21"/>
+      <c r="AI4" s="21">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="21">
+        <v>2</v>
+      </c>
       <c r="AK4" s="21"/>
       <c r="AL4" s="21"/>
       <c r="AM4" s="1">
-        <v>-29</v>
+        <v>-28</v>
       </c>
     </row>
     <row r="5" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3053,7 +3118,7 @@
       <c r="P5" s="19"/>
       <c r="Q5" s="20">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="R5" s="20" t="str">
         <f t="shared" si="2"/>
@@ -3099,14 +3164,18 @@
       <c r="AF5" s="21">
         <v>1</v>
       </c>
-      <c r="AG5" s="21"/>
+      <c r="AG5" s="26"/>
       <c r="AH5" s="21"/>
-      <c r="AI5" s="21"/>
-      <c r="AJ5" s="21"/>
+      <c r="AI5" s="21">
+        <v>3</v>
+      </c>
+      <c r="AJ5" s="21">
+        <v>3</v>
+      </c>
       <c r="AK5" s="21"/>
       <c r="AL5" s="21"/>
       <c r="AM5" s="1">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="6" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3138,7 +3207,7 @@
       <c r="P6" s="19"/>
       <c r="Q6" s="20">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="R6" s="20" t="str">
         <f t="shared" si="2"/>
@@ -3159,31 +3228,33 @@
       <c r="W6" s="21">
         <v>2</v>
       </c>
-      <c r="X6" s="20"/>
+      <c r="X6" s="27"/>
       <c r="Y6" s="21">
         <v>0</v>
       </c>
       <c r="Z6" s="21">
         <v>1</v>
       </c>
-      <c r="AA6" s="20"/>
+      <c r="AA6" s="27"/>
       <c r="AB6" s="21">
         <v>1</v>
       </c>
-      <c r="AC6" s="20"/>
+      <c r="AC6" s="27"/>
       <c r="AD6" s="21">
         <v>0</v>
       </c>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="21"/>
-      <c r="AG6" s="21"/>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="26"/>
       <c r="AH6" s="21"/>
       <c r="AI6" s="21"/>
-      <c r="AJ6" s="21"/>
+      <c r="AJ6" s="21">
+        <v>2</v>
+      </c>
       <c r="AK6" s="21"/>
       <c r="AL6" s="21"/>
       <c r="AM6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3217,7 +3288,7 @@
       <c r="P7" s="19"/>
       <c r="Q7" s="20">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="R7" s="20" t="str">
         <f t="shared" si="2"/>
@@ -3263,14 +3334,20 @@
       <c r="AF7" s="21">
         <v>1</v>
       </c>
-      <c r="AG7" s="21"/>
-      <c r="AH7" s="21"/>
-      <c r="AI7" s="21"/>
-      <c r="AJ7" s="21"/>
+      <c r="AG7" s="26"/>
+      <c r="AH7" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="21">
+        <v>2</v>
+      </c>
+      <c r="AJ7" s="21">
+        <v>2</v>
+      </c>
       <c r="AK7" s="21"/>
       <c r="AL7" s="21"/>
       <c r="AM7" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3300,7 +3377,7 @@
       <c r="P8" s="19"/>
       <c r="Q8" s="20">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="R8" s="20" t="str">
         <f t="shared" si="2"/>
@@ -3348,14 +3425,22 @@
       <c r="AF8" s="21">
         <v>0</v>
       </c>
-      <c r="AG8" s="21"/>
-      <c r="AH8" s="21"/>
-      <c r="AI8" s="21"/>
-      <c r="AJ8" s="21"/>
+      <c r="AG8" s="21">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="21">
+        <v>2</v>
+      </c>
+      <c r="AI8" s="21">
+        <v>2</v>
+      </c>
+      <c r="AJ8" s="21">
+        <v>2</v>
+      </c>
       <c r="AK8" s="21"/>
       <c r="AL8" s="21"/>
       <c r="AM8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3387,7 +3472,7 @@
       <c r="P9" s="19"/>
       <c r="Q9" s="20">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="R9" s="20" t="str">
         <f t="shared" si="2"/>
@@ -3435,14 +3520,22 @@
       <c r="AF9" s="21">
         <v>3</v>
       </c>
-      <c r="AG9" s="21"/>
-      <c r="AH9" s="21"/>
-      <c r="AI9" s="21"/>
-      <c r="AJ9" s="21"/>
+      <c r="AG9" s="21">
+        <v>2</v>
+      </c>
+      <c r="AH9" s="21">
+        <v>2</v>
+      </c>
+      <c r="AI9" s="21">
+        <v>3</v>
+      </c>
+      <c r="AJ9" s="21">
+        <v>3</v>
+      </c>
       <c r="AK9" s="21"/>
       <c r="AL9" s="21"/>
       <c r="AM9" s="1">
-        <v>-39</v>
+        <v>-38</v>
       </c>
     </row>
     <row r="10" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3474,7 +3567,7 @@
       <c r="P10" s="19"/>
       <c r="Q10" s="20">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="R10" s="20" t="str">
         <f t="shared" si="2"/>
@@ -3522,14 +3615,22 @@
       <c r="AF10" s="21">
         <v>2</v>
       </c>
-      <c r="AG10" s="21"/>
-      <c r="AH10" s="21"/>
-      <c r="AI10" s="21"/>
-      <c r="AJ10" s="21"/>
+      <c r="AG10" s="21">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="21">
+        <v>3</v>
+      </c>
+      <c r="AI10" s="21">
+        <v>2</v>
+      </c>
+      <c r="AJ10" s="21">
+        <v>3</v>
+      </c>
       <c r="AK10" s="21"/>
       <c r="AL10" s="21"/>
       <c r="AM10" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3559,7 +3660,7 @@
       <c r="P11" s="19"/>
       <c r="Q11" s="20">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="R11" s="20" t="str">
         <f t="shared" si="2"/>
@@ -3607,14 +3708,22 @@
       <c r="AF11" s="21">
         <v>2</v>
       </c>
-      <c r="AG11" s="21"/>
-      <c r="AH11" s="21"/>
-      <c r="AI11" s="21"/>
-      <c r="AJ11" s="21"/>
+      <c r="AG11" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="21">
+        <v>3</v>
+      </c>
+      <c r="AI11" s="21">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="21">
+        <v>3</v>
+      </c>
       <c r="AK11" s="21"/>
       <c r="AL11" s="21"/>
       <c r="AM11" s="1">
-        <v>-20</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="12" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3646,7 +3755,7 @@
       <c r="P12" s="19"/>
       <c r="Q12" s="20">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="R12" s="20" t="str">
         <f t="shared" si="2"/>
@@ -3694,14 +3803,22 @@
       <c r="AF12" s="21">
         <v>3</v>
       </c>
-      <c r="AG12" s="21"/>
-      <c r="AH12" s="21"/>
-      <c r="AI12" s="21"/>
-      <c r="AJ12" s="21"/>
+      <c r="AG12" s="21">
+        <v>3</v>
+      </c>
+      <c r="AH12" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="21">
+        <v>3</v>
+      </c>
+      <c r="AJ12" s="21">
+        <v>3</v>
+      </c>
       <c r="AK12" s="21"/>
       <c r="AL12" s="21"/>
       <c r="AM12" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:39" ht="14" customHeight="1" x14ac:dyDescent="0.35">
@@ -3733,7 +3850,7 @@
       <c r="P13" s="19"/>
       <c r="Q13" s="20">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="R13" s="20" t="str">
         <f t="shared" si="2"/>
@@ -3781,14 +3898,22 @@
       <c r="AF13" s="21">
         <v>3</v>
       </c>
-      <c r="AG13" s="21"/>
-      <c r="AH13" s="21"/>
-      <c r="AI13" s="21"/>
-      <c r="AJ13" s="21"/>
+      <c r="AG13" s="21">
+        <v>3</v>
+      </c>
+      <c r="AH13" s="21">
+        <v>3</v>
+      </c>
+      <c r="AI13" s="21">
+        <v>3</v>
+      </c>
+      <c r="AJ13" s="21">
+        <v>3</v>
+      </c>
       <c r="AK13" s="21"/>
       <c r="AL13" s="21"/>
       <c r="AM13" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3820,7 +3945,7 @@
       <c r="P14" s="19"/>
       <c r="Q14" s="20">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="R14" s="20" t="str">
         <f t="shared" si="2"/>
@@ -3868,14 +3993,22 @@
       <c r="AF14" s="21">
         <v>3</v>
       </c>
-      <c r="AG14" s="21"/>
-      <c r="AH14" s="21"/>
-      <c r="AI14" s="21"/>
-      <c r="AJ14" s="21"/>
+      <c r="AG14" s="21">
+        <v>3</v>
+      </c>
+      <c r="AH14" s="21">
+        <v>2</v>
+      </c>
+      <c r="AI14" s="21">
+        <v>3</v>
+      </c>
+      <c r="AJ14" s="21">
+        <v>3</v>
+      </c>
       <c r="AK14" s="21"/>
       <c r="AL14" s="21"/>
       <c r="AM14" s="1">
-        <v>-33</v>
+        <v>-32</v>
       </c>
     </row>
     <row r="15" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3904,7 +4037,7 @@
       <c r="P15" s="19"/>
       <c r="Q15" s="20">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="R15" s="20" t="str">
         <f t="shared" si="2"/>
@@ -3952,14 +4085,20 @@
       <c r="AF15" s="21">
         <v>0</v>
       </c>
-      <c r="AG15" s="21"/>
-      <c r="AH15" s="21"/>
+      <c r="AG15" s="21">
+        <v>2</v>
+      </c>
+      <c r="AH15" s="21">
+        <v>0</v>
+      </c>
       <c r="AI15" s="21"/>
-      <c r="AJ15" s="21"/>
+      <c r="AJ15" s="21">
+        <v>2</v>
+      </c>
       <c r="AK15" s="21"/>
       <c r="AL15" s="21"/>
       <c r="AM15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3991,7 +4130,7 @@
       <c r="P16" s="19"/>
       <c r="Q16" s="20">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="R16" s="20" t="str">
         <f t="shared" si="2"/>
@@ -4039,15 +4178,22 @@
       <c r="AF16" s="21">
         <v>3</v>
       </c>
-      <c r="AG16" s="21"/>
-      <c r="AH16" s="21"/>
-      <c r="AI16" s="21"/>
-      <c r="AJ16" s="21"/>
+      <c r="AG16" s="21">
+        <v>3</v>
+      </c>
+      <c r="AH16" s="21">
+        <v>3</v>
+      </c>
+      <c r="AI16" s="21">
+        <v>3</v>
+      </c>
+      <c r="AJ16" s="21">
+        <v>3</v>
+      </c>
       <c r="AK16" s="21"/>
       <c r="AL16" s="21"/>
       <c r="AM16" s="1">
-        <f>1-5</f>
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4060,7 +4206,9 @@
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
-      <c r="H17" s="18"/>
+      <c r="H17" s="18">
+        <v>1</v>
+      </c>
       <c r="I17" s="18"/>
       <c r="J17" s="18">
         <f t="shared" si="0"/>
@@ -4077,11 +4225,11 @@
       <c r="P17" s="19"/>
       <c r="Q17" s="20">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="R17" s="20" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Three-Star Wonder, Consistency Is Key, </v>
+        <v xml:space="preserve">-Full Combo, Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="S17" s="21">
         <v>2</v>
@@ -4125,14 +4273,22 @@
       <c r="AF17" s="21">
         <v>2</v>
       </c>
-      <c r="AG17" s="21"/>
-      <c r="AH17" s="21"/>
-      <c r="AI17" s="21"/>
-      <c r="AJ17" s="21"/>
+      <c r="AG17" s="21">
+        <v>3</v>
+      </c>
+      <c r="AH17" s="21">
+        <v>3</v>
+      </c>
+      <c r="AI17" s="21">
+        <v>2</v>
+      </c>
+      <c r="AJ17" s="21">
+        <v>2</v>
+      </c>
       <c r="AK17" s="21"/>
       <c r="AL17" s="21"/>
       <c r="AM17" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4164,7 +4320,7 @@
       <c r="P18" s="19"/>
       <c r="Q18" s="20">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="R18" s="20" t="str">
         <f t="shared" si="2"/>
@@ -4212,14 +4368,20 @@
       <c r="AF18" s="21">
         <v>2</v>
       </c>
-      <c r="AG18" s="21"/>
-      <c r="AH18" s="21"/>
-      <c r="AI18" s="21"/>
-      <c r="AJ18" s="21"/>
+      <c r="AG18" s="26"/>
+      <c r="AH18" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="21">
+        <v>1</v>
+      </c>
+      <c r="AJ18" s="21">
+        <v>3</v>
+      </c>
       <c r="AK18" s="21"/>
       <c r="AL18" s="21"/>
       <c r="AM18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4253,7 +4415,7 @@
       <c r="P19" s="19"/>
       <c r="Q19" s="20">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="R19" s="20" t="str">
         <f t="shared" si="2"/>
@@ -4301,14 +4463,22 @@
       <c r="AF19" s="21">
         <v>3</v>
       </c>
-      <c r="AG19" s="21"/>
-      <c r="AH19" s="21"/>
-      <c r="AI19" s="21"/>
-      <c r="AJ19" s="21"/>
+      <c r="AG19" s="21">
+        <v>3</v>
+      </c>
+      <c r="AH19" s="21">
+        <v>3</v>
+      </c>
+      <c r="AI19" s="21">
+        <v>3</v>
+      </c>
+      <c r="AJ19" s="21">
+        <v>3</v>
+      </c>
       <c r="AK19" s="21"/>
       <c r="AL19" s="21"/>
       <c r="AM19" s="1">
-        <v>-41</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="20" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4344,7 +4514,7 @@
       <c r="P20" s="19"/>
       <c r="Q20" s="20">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="R20" s="20" t="str">
         <f t="shared" si="2"/>
@@ -4392,14 +4562,22 @@
       <c r="AF20" s="21">
         <v>1</v>
       </c>
-      <c r="AG20" s="21"/>
-      <c r="AH20" s="21"/>
-      <c r="AI20" s="21"/>
-      <c r="AJ20" s="21"/>
+      <c r="AG20" s="21">
+        <v>2</v>
+      </c>
+      <c r="AH20" s="21">
+        <v>3</v>
+      </c>
+      <c r="AI20" s="21">
+        <v>1</v>
+      </c>
+      <c r="AJ20" s="21">
+        <v>2</v>
+      </c>
       <c r="AK20" s="21"/>
       <c r="AL20" s="21"/>
       <c r="AM20" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4437,7 +4615,7 @@
       <c r="P21" s="19"/>
       <c r="Q21" s="20">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="R21" s="20" t="str">
         <f t="shared" si="2"/>
@@ -4485,15 +4663,22 @@
       <c r="AF21" s="21">
         <v>1</v>
       </c>
-      <c r="AG21" s="21"/>
-      <c r="AH21" s="21"/>
-      <c r="AI21" s="21"/>
-      <c r="AJ21" s="21"/>
+      <c r="AG21" s="21">
+        <v>3</v>
+      </c>
+      <c r="AH21" s="21">
+        <v>2</v>
+      </c>
+      <c r="AI21" s="21">
+        <v>3</v>
+      </c>
+      <c r="AJ21" s="21">
+        <v>3</v>
+      </c>
       <c r="AK21" s="21"/>
       <c r="AL21" s="21"/>
       <c r="AM21" s="1">
-        <f>1-5</f>
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4525,7 +4710,7 @@
       <c r="P22" s="19"/>
       <c r="Q22" s="20">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="R22" s="20" t="str">
         <f t="shared" si="2"/>
@@ -4573,14 +4758,20 @@
       <c r="AF22" s="21">
         <v>2</v>
       </c>
-      <c r="AG22" s="21"/>
-      <c r="AH22" s="21"/>
-      <c r="AI22" s="21"/>
-      <c r="AJ22" s="21"/>
+      <c r="AG22" s="26"/>
+      <c r="AH22" s="21">
+        <v>3</v>
+      </c>
+      <c r="AI22" s="21">
+        <v>2</v>
+      </c>
+      <c r="AJ22" s="21">
+        <v>3</v>
+      </c>
       <c r="AK22" s="21"/>
       <c r="AL22" s="21"/>
       <c r="AM22" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4597,7 +4788,7 @@
       <c r="I23" s="18"/>
       <c r="J23" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="18">
         <f t="array" ref="K23">IF(MAX(FREQUENCY(IF(S23:AL23&gt;0,COLUMN(S23:AL23)),IF(S23:AL23&lt;=0,COLUMN(S23:AL23))))&gt;4,1,0)</f>
@@ -4610,11 +4801,11 @@
       <c r="P23" s="19"/>
       <c r="Q23" s="20">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="R23" s="20" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Consistency Is Key, </v>
+        <v xml:space="preserve">-Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="S23" s="21">
         <v>2</v>
@@ -4658,14 +4849,20 @@
       <c r="AF23" s="21">
         <v>2</v>
       </c>
-      <c r="AG23" s="21"/>
-      <c r="AH23" s="21"/>
+      <c r="AG23" s="21">
+        <v>2</v>
+      </c>
+      <c r="AH23" s="21">
+        <v>0</v>
+      </c>
       <c r="AI23" s="21"/>
-      <c r="AJ23" s="21"/>
+      <c r="AJ23" s="21">
+        <v>3</v>
+      </c>
       <c r="AK23" s="21"/>
       <c r="AL23" s="21"/>
       <c r="AM23" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4701,7 +4898,7 @@
       <c r="P24" s="19"/>
       <c r="Q24" s="20">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="R24" s="20" t="str">
         <f t="shared" si="2"/>
@@ -4749,14 +4946,20 @@
       <c r="AF24" s="21">
         <v>0</v>
       </c>
-      <c r="AG24" s="21"/>
-      <c r="AH24" s="21"/>
+      <c r="AG24" s="21">
+        <v>2</v>
+      </c>
+      <c r="AH24" s="21">
+        <v>2</v>
+      </c>
       <c r="AI24" s="21"/>
-      <c r="AJ24" s="21"/>
+      <c r="AJ24" s="21">
+        <v>1</v>
+      </c>
       <c r="AK24" s="21"/>
       <c r="AL24" s="21"/>
       <c r="AM24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4790,7 +4993,7 @@
       <c r="P25" s="19"/>
       <c r="Q25" s="20">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="R25" s="20" t="str">
         <f t="shared" si="2"/>
@@ -4838,14 +5041,22 @@
       <c r="AF25" s="21">
         <v>3</v>
       </c>
-      <c r="AG25" s="21"/>
-      <c r="AH25" s="21"/>
-      <c r="AI25" s="21"/>
-      <c r="AJ25" s="21"/>
+      <c r="AG25" s="21">
+        <v>3</v>
+      </c>
+      <c r="AH25" s="21">
+        <v>2</v>
+      </c>
+      <c r="AI25" s="21">
+        <v>3</v>
+      </c>
+      <c r="AJ25" s="21">
+        <v>3</v>
+      </c>
       <c r="AK25" s="21"/>
       <c r="AL25" s="21"/>
       <c r="AM25" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4868,7 +5079,7 @@
       </c>
       <c r="K26" s="18">
         <f t="array" ref="K26">IF(MAX(FREQUENCY(IF(S26:AL26&gt;0,COLUMN(S26:AL26)),IF(S26:AL26&lt;=0,COLUMN(S26:AL26))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="18"/>
       <c r="M26" s="18"/>
@@ -4877,11 +5088,11 @@
       <c r="P26" s="19"/>
       <c r="Q26" s="20">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="R26" s="20" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Help a friend!, Three-Star Wonder, </v>
+        <v xml:space="preserve">-Help a friend!, Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="S26" s="21">
         <v>3</v>
@@ -4923,15 +5134,22 @@
       <c r="AF26" s="21">
         <v>3</v>
       </c>
-      <c r="AG26" s="21"/>
-      <c r="AH26" s="21"/>
-      <c r="AI26" s="21"/>
-      <c r="AJ26" s="21"/>
+      <c r="AG26" s="21">
+        <v>1</v>
+      </c>
+      <c r="AH26" s="21">
+        <v>2</v>
+      </c>
+      <c r="AI26" s="21">
+        <v>1</v>
+      </c>
+      <c r="AJ26" s="21">
+        <v>2</v>
+      </c>
       <c r="AK26" s="21"/>
       <c r="AL26" s="21"/>
       <c r="AM26" s="1">
-        <f>1-5</f>
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:39" ht="14" customHeight="1" x14ac:dyDescent="0.35">
@@ -4963,7 +5181,7 @@
       <c r="P27" s="19"/>
       <c r="Q27" s="20">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="R27" s="20" t="str">
         <f t="shared" si="2"/>
@@ -5011,14 +5229,22 @@
       <c r="AF27" s="21">
         <v>2</v>
       </c>
-      <c r="AG27" s="21"/>
-      <c r="AH27" s="21"/>
-      <c r="AI27" s="21"/>
-      <c r="AJ27" s="21"/>
+      <c r="AG27" s="21">
+        <v>3</v>
+      </c>
+      <c r="AH27" s="21">
+        <v>2</v>
+      </c>
+      <c r="AI27" s="21">
+        <v>3</v>
+      </c>
+      <c r="AJ27" s="21">
+        <v>3</v>
+      </c>
       <c r="AK27" s="21"/>
       <c r="AL27" s="21"/>
       <c r="AM27" s="1">
-        <v>-24</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="28" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -5050,7 +5276,7 @@
       <c r="P28" s="19"/>
       <c r="Q28" s="20">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="R28" s="20" t="str">
         <f t="shared" si="2"/>
@@ -5098,14 +5324,20 @@
       <c r="AF28" s="21">
         <v>1</v>
       </c>
-      <c r="AG28" s="21"/>
+      <c r="AG28" s="21">
+        <v>2</v>
+      </c>
       <c r="AH28" s="21"/>
-      <c r="AI28" s="21"/>
-      <c r="AJ28" s="21"/>
+      <c r="AI28" s="21">
+        <v>2</v>
+      </c>
+      <c r="AJ28" s="21">
+        <v>2</v>
+      </c>
       <c r="AK28" s="21"/>
       <c r="AL28" s="21"/>
       <c r="AM28" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -5135,7 +5367,7 @@
       <c r="P29" s="19"/>
       <c r="Q29" s="20">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R29" s="20" t="str">
         <f t="shared" si="2"/>
@@ -5183,14 +5415,18 @@
       <c r="AF29" s="21">
         <v>1</v>
       </c>
-      <c r="AG29" s="21"/>
-      <c r="AH29" s="21"/>
+      <c r="AG29" s="21">
+        <v>2</v>
+      </c>
+      <c r="AH29" s="21">
+        <v>0</v>
+      </c>
       <c r="AI29" s="21"/>
       <c r="AJ29" s="21"/>
       <c r="AK29" s="21"/>
       <c r="AL29" s="21"/>
       <c r="AM29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -5222,7 +5458,7 @@
       <c r="P30" s="19"/>
       <c r="Q30" s="20">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="R30" s="20" t="str">
         <f t="shared" si="2"/>
@@ -5270,14 +5506,22 @@
       <c r="AF30" s="21">
         <v>2</v>
       </c>
-      <c r="AG30" s="21"/>
-      <c r="AH30" s="21"/>
-      <c r="AI30" s="21"/>
-      <c r="AJ30" s="21"/>
+      <c r="AG30" s="21">
+        <v>3</v>
+      </c>
+      <c r="AH30" s="21">
+        <v>2</v>
+      </c>
+      <c r="AI30" s="21">
+        <v>2</v>
+      </c>
+      <c r="AJ30" s="21">
+        <v>3</v>
+      </c>
       <c r="AK30" s="21"/>
       <c r="AL30" s="21"/>
       <c r="AM30" s="1">
-        <v>-17</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="31" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -5289,7 +5533,9 @@
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
+      <c r="G31" s="17">
+        <v>1</v>
+      </c>
       <c r="H31" s="18">
         <v>1</v>
       </c>
@@ -5311,11 +5557,11 @@
       <c r="P31" s="19"/>
       <c r="Q31" s="20">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="R31" s="20" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">-Full Combo, Three-Star Wonder, Consistency Is Key, Extra Credit, </v>
+        <v xml:space="preserve">-Help a friend!, Full Combo, Three-Star Wonder, Consistency Is Key, Extra Credit, </v>
       </c>
       <c r="S31" s="21">
         <v>3</v>
@@ -5359,14 +5605,20 @@
       <c r="AF31" s="21">
         <v>3</v>
       </c>
-      <c r="AG31" s="21"/>
-      <c r="AH31" s="21"/>
-      <c r="AI31" s="21"/>
+      <c r="AG31" s="21">
+        <v>3</v>
+      </c>
+      <c r="AH31" s="21">
+        <v>3</v>
+      </c>
+      <c r="AI31" s="21">
+        <v>3</v>
+      </c>
       <c r="AJ31" s="21"/>
       <c r="AK31" s="21"/>
       <c r="AL31" s="21"/>
       <c r="AM31" s="1">
-        <v>-43</v>
+        <v>-42</v>
       </c>
     </row>
     <row r="32" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -5400,7 +5652,7 @@
       <c r="P32" s="19"/>
       <c r="Q32" s="20">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="R32" s="20" t="str">
         <f t="shared" si="2"/>
@@ -5448,14 +5700,20 @@
       <c r="AF32" s="21">
         <v>2</v>
       </c>
-      <c r="AG32" s="21"/>
+      <c r="AG32" s="21">
+        <v>3</v>
+      </c>
       <c r="AH32" s="21"/>
-      <c r="AI32" s="21"/>
-      <c r="AJ32" s="21"/>
+      <c r="AI32" s="21">
+        <v>3</v>
+      </c>
+      <c r="AJ32" s="21">
+        <v>3</v>
+      </c>
       <c r="AK32" s="21"/>
       <c r="AL32" s="21"/>
       <c r="AM32" s="1">
-        <v>-43</v>
+        <v>-42</v>
       </c>
     </row>
     <row r="33" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -5485,7 +5743,7 @@
       <c r="P33" s="19"/>
       <c r="Q33" s="20">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R33" s="20" t="str">
         <f t="shared" si="2"/>
@@ -5531,14 +5789,22 @@
       <c r="AF33" s="21">
         <v>2</v>
       </c>
-      <c r="AG33" s="21"/>
-      <c r="AH33" s="21"/>
-      <c r="AI33" s="21"/>
-      <c r="AJ33" s="21"/>
+      <c r="AG33" s="21">
+        <v>1</v>
+      </c>
+      <c r="AH33" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="21">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="21">
+        <v>1</v>
+      </c>
       <c r="AK33" s="21"/>
       <c r="AL33" s="21"/>
       <c r="AM33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -5568,7 +5834,7 @@
       <c r="P34" s="19"/>
       <c r="Q34" s="20">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="R34" s="20" t="str">
         <f t="shared" si="2"/>
@@ -5616,14 +5882,22 @@
       <c r="AF34" s="21">
         <v>1</v>
       </c>
-      <c r="AG34" s="21"/>
-      <c r="AH34" s="21"/>
-      <c r="AI34" s="21"/>
-      <c r="AJ34" s="21"/>
+      <c r="AG34" s="21">
+        <v>2</v>
+      </c>
+      <c r="AH34" s="21">
+        <v>2</v>
+      </c>
+      <c r="AI34" s="21">
+        <v>2</v>
+      </c>
+      <c r="AJ34" s="21">
+        <v>3</v>
+      </c>
       <c r="AK34" s="21"/>
       <c r="AL34" s="21"/>
       <c r="AM34" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -5655,7 +5929,7 @@
       <c r="P35" s="19"/>
       <c r="Q35" s="20">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="R35" s="20" t="str">
         <f t="shared" si="2"/>
@@ -5703,14 +5977,22 @@
       <c r="AF35" s="21">
         <v>3</v>
       </c>
-      <c r="AG35" s="21"/>
-      <c r="AH35" s="21"/>
-      <c r="AI35" s="21"/>
-      <c r="AJ35" s="21"/>
+      <c r="AG35" s="21">
+        <v>2</v>
+      </c>
+      <c r="AH35" s="21">
+        <v>3</v>
+      </c>
+      <c r="AI35" s="21">
+        <v>3</v>
+      </c>
+      <c r="AJ35" s="21">
+        <v>2</v>
+      </c>
       <c r="AK35" s="21"/>
       <c r="AL35" s="21"/>
       <c r="AM35" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -5740,7 +6022,7 @@
       <c r="P36" s="19"/>
       <c r="Q36" s="20">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="R36" s="20" t="str">
         <f t="shared" si="2"/>
@@ -5784,14 +6066,22 @@
       </c>
       <c r="AE36" s="21"/>
       <c r="AF36" s="21"/>
-      <c r="AG36" s="21"/>
-      <c r="AH36" s="21"/>
-      <c r="AI36" s="21"/>
-      <c r="AJ36" s="21"/>
+      <c r="AG36" s="21">
+        <v>2</v>
+      </c>
+      <c r="AH36" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="21">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="21">
+        <v>2</v>
+      </c>
       <c r="AK36" s="21"/>
       <c r="AL36" s="21"/>
       <c r="AM36" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -5821,7 +6111,7 @@
       <c r="P37" s="19"/>
       <c r="Q37" s="20">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="R37" s="20" t="str">
         <f t="shared" si="2"/>
@@ -5869,14 +6159,22 @@
       <c r="AF37" s="21">
         <v>1</v>
       </c>
-      <c r="AG37" s="21"/>
-      <c r="AH37" s="21"/>
-      <c r="AI37" s="21"/>
-      <c r="AJ37" s="21"/>
+      <c r="AG37" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI37" s="21">
+        <v>1</v>
+      </c>
+      <c r="AJ37" s="21">
+        <v>2</v>
+      </c>
       <c r="AK37" s="21"/>
       <c r="AL37" s="21"/>
       <c r="AM37" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -5908,7 +6206,7 @@
       <c r="P38" s="19"/>
       <c r="Q38" s="20">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="R38" s="20" t="str">
         <f t="shared" si="2"/>
@@ -5956,14 +6254,22 @@
       <c r="AF38" s="21">
         <v>3</v>
       </c>
-      <c r="AG38" s="21"/>
-      <c r="AH38" s="21"/>
-      <c r="AI38" s="21"/>
-      <c r="AJ38" s="21"/>
+      <c r="AG38" s="21">
+        <v>3</v>
+      </c>
+      <c r="AH38" s="21">
+        <v>2</v>
+      </c>
+      <c r="AI38" s="21">
+        <v>3</v>
+      </c>
+      <c r="AJ38" s="21">
+        <v>3</v>
+      </c>
       <c r="AK38" s="21"/>
       <c r="AL38" s="21"/>
       <c r="AM38" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -5984,7 +6290,7 @@
       </c>
       <c r="K39" s="18">
         <f t="array" ref="K39">IF(MAX(FREQUENCY(IF(S39:AL39&gt;0,COLUMN(S39:AL39)),IF(S39:AL39&lt;=0,COLUMN(S39:AL39))))&gt;4,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="18"/>
       <c r="M39" s="18"/>
@@ -5993,11 +6299,11 @@
       <c r="P39" s="19"/>
       <c r="Q39" s="20">
         <f t="shared" ref="Q39:Q40" si="4">SUM(B39:G39)+3*SUM(H39:M39)+5*SUM(N39:P39)+SUM(S39:AM39)</f>
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="R39" s="20" t="str">
         <f t="shared" ref="R39:R40" si="5">CONCATENATE("-",IF(B39=1,$B$3&amp;", ",""),IF(C39=1,$C$3&amp;", ",""),IF(D39=1,$D$3&amp;", ",""),IF(E39=1,$E$3&amp;", ",""),IF(F39=1,$F$3&amp;", ",""),IF(G39=1,$G$3&amp;", ",""),IF(H39=1,$H$3&amp;", ",""),IF(I39=1,$I$3&amp;", ",""),IF(J39=1,$J$3&amp;", ",""),IF(K39=1,$K$3&amp;", ",""),IF(L39=1,$L$3&amp;", ",""),IF(M39=1,$M$3&amp;", ",""),IF(N39=1,$N$3&amp;", ",""),IF(O39=1,$O$3&amp;", ",""),IF(P39=1,$P$3&amp;", ",""))</f>
-        <v>-</v>
+        <v xml:space="preserve">-Consistency Is Key, </v>
       </c>
       <c r="S39" s="21"/>
       <c r="T39" s="21"/>
@@ -6017,14 +6323,22 @@
       <c r="AF39" s="21">
         <v>3</v>
       </c>
-      <c r="AG39" s="21"/>
-      <c r="AH39" s="21"/>
-      <c r="AI39" s="21"/>
-      <c r="AJ39" s="21"/>
+      <c r="AG39" s="21">
+        <v>3</v>
+      </c>
+      <c r="AH39" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI39" s="21">
+        <v>1</v>
+      </c>
+      <c r="AJ39" s="21">
+        <v>2</v>
+      </c>
       <c r="AK39" s="21"/>
       <c r="AL39" s="21"/>
       <c r="AM39">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6054,7 +6368,7 @@
       <c r="P40" s="19"/>
       <c r="Q40" s="20">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R40" s="20" t="str">
         <f t="shared" si="5"/>
@@ -6078,13 +6392,23 @@
       <c r="AF40" s="21">
         <v>0</v>
       </c>
-      <c r="AG40" s="21"/>
-      <c r="AH40" s="21"/>
-      <c r="AI40" s="21"/>
-      <c r="AJ40" s="21"/>
+      <c r="AG40" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI40" s="21">
+        <v>1</v>
+      </c>
+      <c r="AJ40" s="21">
+        <v>1</v>
+      </c>
       <c r="AK40" s="21"/>
       <c r="AL40" s="21"/>
-      <c r="AM40" s="1"/>
+      <c r="AM40" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="16"/>
@@ -6131,6 +6455,9 @@
       <c r="AJ41" s="21"/>
       <c r="AK41" s="21"/>
       <c r="AL41" s="21"/>
+      <c r="AM41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="16"/>
@@ -6225,7 +6552,7 @@
       </c>
       <c r="C2" s="1">
         <f>'Sec 1 Data'!Q4</f>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6239,7 +6566,7 @@
       </c>
       <c r="C3" s="1">
         <f>'Sec 1 Data'!Q5</f>
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6253,7 +6580,7 @@
       </c>
       <c r="C4" s="1">
         <f>'Sec 1 Data'!Q6</f>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6267,7 +6594,7 @@
       </c>
       <c r="C5" s="1">
         <f>'Sec 1 Data'!Q7</f>
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6281,7 +6608,7 @@
       </c>
       <c r="C6" s="1">
         <f>'Sec 1 Data'!Q8</f>
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6295,7 +6622,7 @@
       </c>
       <c r="C7" s="1">
         <f>'Sec 1 Data'!Q9</f>
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6309,7 +6636,7 @@
       </c>
       <c r="C8" s="1">
         <f>'Sec 1 Data'!Q10</f>
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6323,7 +6650,7 @@
       </c>
       <c r="C9" s="1">
         <f>'Sec 1 Data'!Q11</f>
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6337,7 +6664,7 @@
       </c>
       <c r="C10" s="1">
         <f>'Sec 1 Data'!Q12</f>
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6351,7 +6678,7 @@
       </c>
       <c r="C11" s="1">
         <f>'Sec 1 Data'!Q13</f>
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6365,7 +6692,7 @@
       </c>
       <c r="C12" s="1">
         <f>'Sec 1 Data'!Q14</f>
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6379,7 +6706,7 @@
       </c>
       <c r="C13" s="1">
         <f>'Sec 1 Data'!Q15</f>
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6393,7 +6720,7 @@
       </c>
       <c r="C14" s="1">
         <f>'Sec 1 Data'!Q16</f>
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6403,11 +6730,11 @@
       </c>
       <c r="B15" s="1" t="str">
         <f>'Sec 1 Data'!R17</f>
-        <v xml:space="preserve">-Three-Star Wonder, Consistency Is Key, </v>
+        <v xml:space="preserve">-Full Combo, Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="C15" s="1">
         <f>'Sec 1 Data'!Q17</f>
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6421,7 +6748,7 @@
       </c>
       <c r="C16" s="1">
         <f>'Sec 1 Data'!Q18</f>
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6435,7 +6762,7 @@
       </c>
       <c r="C17" s="1">
         <f>'Sec 1 Data'!Q19</f>
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6449,7 +6776,7 @@
       </c>
       <c r="C18" s="1">
         <f>'Sec 1 Data'!Q20</f>
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6463,7 +6790,7 @@
       </c>
       <c r="C19" s="1">
         <f>'Sec 1 Data'!Q21</f>
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6477,7 +6804,7 @@
       </c>
       <c r="C20" s="1">
         <f>'Sec 1 Data'!Q22</f>
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6487,11 +6814,11 @@
       </c>
       <c r="B21" s="1" t="str">
         <f>'Sec 1 Data'!R23</f>
-        <v xml:space="preserve">-Consistency Is Key, </v>
+        <v xml:space="preserve">-Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="C21" s="1">
         <f>'Sec 1 Data'!Q23</f>
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6505,7 +6832,7 @@
       </c>
       <c r="C22" s="1">
         <f>'Sec 1 Data'!Q24</f>
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6519,7 +6846,7 @@
       </c>
       <c r="C23" s="1">
         <f>'Sec 1 Data'!Q25</f>
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6529,11 +6856,11 @@
       </c>
       <c r="B24" s="1" t="str">
         <f>'Sec 1 Data'!R26</f>
-        <v xml:space="preserve">-Help a friend!, Three-Star Wonder, </v>
+        <v xml:space="preserve">-Help a friend!, Three-Star Wonder, Consistency Is Key, </v>
       </c>
       <c r="C24" s="1">
         <f>'Sec 1 Data'!Q26</f>
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6547,7 +6874,7 @@
       </c>
       <c r="C25" s="1">
         <f>'Sec 1 Data'!Q27</f>
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6561,7 +6888,7 @@
       </c>
       <c r="C26" s="1">
         <f>'Sec 1 Data'!Q28</f>
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6575,7 +6902,7 @@
       </c>
       <c r="C27" s="1">
         <f>'Sec 1 Data'!Q29</f>
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6589,7 +6916,7 @@
       </c>
       <c r="C28" s="1">
         <f>'Sec 1 Data'!Q30</f>
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6599,11 +6926,11 @@
       </c>
       <c r="B29" s="1" t="str">
         <f>'Sec 1 Data'!R31</f>
-        <v xml:space="preserve">-Full Combo, Three-Star Wonder, Consistency Is Key, Extra Credit, </v>
+        <v xml:space="preserve">-Help a friend!, Full Combo, Three-Star Wonder, Consistency Is Key, Extra Credit, </v>
       </c>
       <c r="C29" s="1">
         <f>'Sec 1 Data'!Q31</f>
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6617,7 +6944,7 @@
       </c>
       <c r="C30" s="1">
         <f>'Sec 1 Data'!Q32</f>
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6631,7 +6958,7 @@
       </c>
       <c r="C31" s="1">
         <f>'Sec 1 Data'!Q33</f>
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6645,7 +6972,7 @@
       </c>
       <c r="C32" s="1">
         <f>'Sec 1 Data'!Q34</f>
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6659,7 +6986,7 @@
       </c>
       <c r="C33" s="1">
         <f>'Sec 1 Data'!Q35</f>
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6673,7 +7000,7 @@
       </c>
       <c r="C34" s="1">
         <f>'Sec 1 Data'!Q36</f>
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6687,7 +7014,7 @@
       </c>
       <c r="C35" s="1">
         <f>'Sec 1 Data'!Q37</f>
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6701,7 +7028,7 @@
       </c>
       <c r="C36" s="1">
         <f>'Sec 1 Data'!Q38</f>
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6711,11 +7038,11 @@
       </c>
       <c r="B37" s="1" t="str">
         <f>'Sec 1 Data'!R39</f>
-        <v>-</v>
+        <v xml:space="preserve">-Consistency Is Key, </v>
       </c>
       <c r="C37" s="1">
         <f>'Sec 1 Data'!Q39</f>
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6729,7 +7056,7 @@
       </c>
       <c r="C38" s="1">
         <f>'Sec 1 Data'!Q40</f>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6841,51 +7168,51 @@
       <c r="AL1" s="9"/>
     </row>
     <row r="2" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" s="31"/>
-      <c r="P2" s="32"/>
+      <c r="B2" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="32"/>
+      <c r="P2" s="33"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="6"/>
-      <c r="S2" s="35" t="s">
+      <c r="S2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="31"/>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="31"/>
-      <c r="AK2" s="31"/>
-      <c r="AL2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" 